--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -927,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ6">
         <v>1.8</v>
@@ -3945,7 +3945,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>1.77</v>
@@ -7241,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR31">
         <v>1.69</v>
@@ -9301,7 +9301,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9504,7 +9504,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -11567,7 +11567,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ52">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -13624,7 +13624,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -17411,6 +17411,212 @@
       </c>
       <c r="BP80">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7321688</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45411.89583333334</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>74</v>
+      </c>
+      <c r="H81" t="s">
+        <v>82</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" t="s">
+        <v>86</v>
+      </c>
+      <c r="P81" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q81">
+        <v>2.75</v>
+      </c>
+      <c r="R81">
+        <v>2.2</v>
+      </c>
+      <c r="S81">
+        <v>4</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.75</v>
+      </c>
+      <c r="V81">
+        <v>2.75</v>
+      </c>
+      <c r="W81">
+        <v>1.4</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>2.03</v>
+      </c>
+      <c r="AA81">
+        <v>3.35</v>
+      </c>
+      <c r="AB81">
+        <v>2.98</v>
+      </c>
+      <c r="AC81">
+        <v>1.04</v>
+      </c>
+      <c r="AD81">
+        <v>12</v>
+      </c>
+      <c r="AE81">
+        <v>1.3</v>
+      </c>
+      <c r="AF81">
+        <v>3.5</v>
+      </c>
+      <c r="AG81">
+        <v>1.79</v>
+      </c>
+      <c r="AH81">
+        <v>1.81</v>
+      </c>
+      <c r="AI81">
+        <v>1.73</v>
+      </c>
+      <c r="AJ81">
+        <v>2</v>
+      </c>
+      <c r="AK81">
+        <v>1.33</v>
+      </c>
+      <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.72</v>
+      </c>
+      <c r="AN81">
+        <v>0.33</v>
+      </c>
+      <c r="AO81">
+        <v>0.25</v>
+      </c>
+      <c r="AP81">
+        <v>0.25</v>
+      </c>
+      <c r="AQ81">
+        <v>0.8</v>
+      </c>
+      <c r="AR81">
+        <v>1.6</v>
+      </c>
+      <c r="AS81">
+        <v>1.21</v>
+      </c>
+      <c r="AT81">
+        <v>2.81</v>
+      </c>
+      <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>6</v>
+      </c>
+      <c r="AW81">
+        <v>13</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>18</v>
+      </c>
+      <c r="AZ81">
+        <v>7</v>
+      </c>
+      <c r="BA81">
+        <v>13</v>
+      </c>
+      <c r="BB81">
+        <v>1</v>
+      </c>
+      <c r="BC81">
+        <v>14</v>
+      </c>
+      <c r="BD81">
+        <v>1.68</v>
+      </c>
+      <c r="BE81">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF81">
+        <v>2.55</v>
+      </c>
+      <c r="BG81">
+        <v>1.21</v>
+      </c>
+      <c r="BH81">
+        <v>3.7</v>
+      </c>
+      <c r="BI81">
+        <v>1.35</v>
+      </c>
+      <c r="BJ81">
+        <v>2.84</v>
+      </c>
+      <c r="BK81">
+        <v>1.61</v>
+      </c>
+      <c r="BL81">
+        <v>2.12</v>
+      </c>
+      <c r="BM81">
+        <v>2.04</v>
+      </c>
+      <c r="BN81">
+        <v>1.69</v>
+      </c>
+      <c r="BO81">
+        <v>2.64</v>
+      </c>
+      <c r="BP81">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -17553,22 +17553,22 @@
         <v>2.81</v>
       </c>
       <c r="AU81">
+        <v>7</v>
+      </c>
+      <c r="AV81">
+        <v>4</v>
+      </c>
+      <c r="AW81">
+        <v>14</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>21</v>
+      </c>
+      <c r="AZ81">
         <v>5</v>
-      </c>
-      <c r="AV81">
-        <v>6</v>
-      </c>
-      <c r="AW81">
-        <v>13</v>
-      </c>
-      <c r="AX81">
-        <v>1</v>
-      </c>
-      <c r="AY81">
-        <v>18</v>
-      </c>
-      <c r="AZ81">
-        <v>7</v>
       </c>
       <c r="BA81">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -17553,22 +17553,22 @@
         <v>2.81</v>
       </c>
       <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>6</v>
+      </c>
+      <c r="AW81">
+        <v>13</v>
+      </c>
+      <c r="AX81">
+        <v>1</v>
+      </c>
+      <c r="AY81">
+        <v>18</v>
+      </c>
+      <c r="AZ81">
         <v>7</v>
-      </c>
-      <c r="AV81">
-        <v>4</v>
-      </c>
-      <c r="AW81">
-        <v>14</v>
-      </c>
-      <c r="AX81">
-        <v>1</v>
-      </c>
-      <c r="AY81">
-        <v>21</v>
-      </c>
-      <c r="AZ81">
-        <v>5</v>
       </c>
       <c r="BA81">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,15 @@
     <t>['42', '66']</t>
   </si>
   <si>
+    <t>['6', '24', '32']</t>
+  </si>
+  <si>
+    <t>['11', '19', '57']</t>
+  </si>
+  <si>
+    <t>['36', '72']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -566,6 +575,12 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['2', '45+4']</t>
   </si>
 </sst>
 </file>
@@ -927,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1392,7 +1407,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1473,7 +1488,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ3">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1598,7 +1613,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1804,7 +1819,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1885,7 +1900,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2010,7 +2025,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2216,7 +2231,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2422,7 +2437,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2500,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2912,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10">
         <v>1.2</v>
@@ -3040,7 +3055,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3246,7 +3261,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3533,7 +3548,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3658,7 +3673,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3864,7 +3879,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4070,7 +4085,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4276,7 +4291,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4354,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
         <v>2.2</v>
@@ -4482,7 +4497,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4975,7 +4990,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5100,7 +5115,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5306,7 +5321,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5512,7 +5527,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5593,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR23">
         <v>1.09</v>
@@ -6130,7 +6145,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6336,7 +6351,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6748,7 +6763,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6954,7 +6969,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7366,7 +7381,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8062,10 +8077,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ35">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>2.24</v>
@@ -8474,7 +8489,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -9220,7 +9235,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9426,7 +9441,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9632,7 +9647,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9838,7 +9853,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10250,7 +10265,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10662,7 +10677,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10868,7 +10883,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11361,7 +11376,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -11898,7 +11913,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12104,7 +12119,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12182,7 +12197,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ55">
         <v>1.2</v>
@@ -12310,7 +12325,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12516,7 +12531,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12722,7 +12737,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13009,7 +13024,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13134,7 +13149,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>2.31</v>
@@ -13340,7 +13355,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13546,7 +13561,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13958,7 +13973,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14242,10 +14257,10 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR65">
         <v>1.38</v>
@@ -14370,7 +14385,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14576,7 +14591,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14782,7 +14797,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -14863,7 +14878,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15066,7 +15081,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ69">
         <v>1.5</v>
@@ -15400,7 +15415,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15478,7 +15493,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ71">
         <v>2.67</v>
@@ -15606,7 +15621,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15812,7 +15827,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16018,7 +16033,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16224,7 +16239,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16636,7 +16651,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16842,7 +16857,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17048,7 +17063,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17617,6 +17632,624 @@
       </c>
       <c r="BP81">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7321696</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45415.6875</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>4</v>
+      </c>
+      <c r="O82" t="s">
+        <v>138</v>
+      </c>
+      <c r="P82" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q82">
+        <v>2.05</v>
+      </c>
+      <c r="R82">
+        <v>2.3</v>
+      </c>
+      <c r="S82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>1.33</v>
+      </c>
+      <c r="U82">
+        <v>3.1</v>
+      </c>
+      <c r="V82">
+        <v>2.55</v>
+      </c>
+      <c r="W82">
+        <v>1.45</v>
+      </c>
+      <c r="X82">
+        <v>6</v>
+      </c>
+      <c r="Y82">
+        <v>1.11</v>
+      </c>
+      <c r="Z82">
+        <v>1.65</v>
+      </c>
+      <c r="AA82">
+        <v>4</v>
+      </c>
+      <c r="AB82">
+        <v>4.75</v>
+      </c>
+      <c r="AC82">
+        <v>1.04</v>
+      </c>
+      <c r="AD82">
+        <v>9.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.22</v>
+      </c>
+      <c r="AF82">
+        <v>3.95</v>
+      </c>
+      <c r="AG82">
+        <v>1.75</v>
+      </c>
+      <c r="AH82">
+        <v>1.98</v>
+      </c>
+      <c r="AI82">
+        <v>1.75</v>
+      </c>
+      <c r="AJ82">
+        <v>1.9</v>
+      </c>
+      <c r="AK82">
+        <v>1.1</v>
+      </c>
+      <c r="AL82">
+        <v>1.18</v>
+      </c>
+      <c r="AM82">
+        <v>2.38</v>
+      </c>
+      <c r="AN82">
+        <v>1.6</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>1.83</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>1.34</v>
+      </c>
+      <c r="AS82">
+        <v>0.99</v>
+      </c>
+      <c r="AT82">
+        <v>2.33</v>
+      </c>
+      <c r="AU82">
+        <v>5</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>7</v>
+      </c>
+      <c r="AY82">
+        <v>10</v>
+      </c>
+      <c r="AZ82">
+        <v>12</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>6</v>
+      </c>
+      <c r="BC82">
+        <v>10</v>
+      </c>
+      <c r="BD82">
+        <v>1.45</v>
+      </c>
+      <c r="BE82">
+        <v>8.5</v>
+      </c>
+      <c r="BF82">
+        <v>3.46</v>
+      </c>
+      <c r="BG82">
+        <v>1.29</v>
+      </c>
+      <c r="BH82">
+        <v>3.3</v>
+      </c>
+      <c r="BI82">
+        <v>1.58</v>
+      </c>
+      <c r="BJ82">
+        <v>2.23</v>
+      </c>
+      <c r="BK82">
+        <v>1.99</v>
+      </c>
+      <c r="BL82">
+        <v>1.73</v>
+      </c>
+      <c r="BM82">
+        <v>2.62</v>
+      </c>
+      <c r="BN82">
+        <v>1.43</v>
+      </c>
+      <c r="BO82">
+        <v>3</v>
+      </c>
+      <c r="BP82">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7321700</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45415.83333333334</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s">
+        <v>80</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>139</v>
+      </c>
+      <c r="P83" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q83">
+        <v>2.8</v>
+      </c>
+      <c r="R83">
+        <v>2.05</v>
+      </c>
+      <c r="S83">
+        <v>3.65</v>
+      </c>
+      <c r="T83">
+        <v>1.4</v>
+      </c>
+      <c r="U83">
+        <v>2.75</v>
+      </c>
+      <c r="V83">
+        <v>2.8</v>
+      </c>
+      <c r="W83">
+        <v>1.38</v>
+      </c>
+      <c r="X83">
+        <v>7.2</v>
+      </c>
+      <c r="Y83">
+        <v>1.07</v>
+      </c>
+      <c r="Z83">
+        <v>2.3</v>
+      </c>
+      <c r="AA83">
+        <v>3.25</v>
+      </c>
+      <c r="AB83">
+        <v>3.1</v>
+      </c>
+      <c r="AC83">
+        <v>1.06</v>
+      </c>
+      <c r="AD83">
+        <v>8</v>
+      </c>
+      <c r="AE83">
+        <v>1.5</v>
+      </c>
+      <c r="AF83">
+        <v>2.45</v>
+      </c>
+      <c r="AG83">
+        <v>2.03</v>
+      </c>
+      <c r="AH83">
+        <v>1.83</v>
+      </c>
+      <c r="AI83">
+        <v>1.67</v>
+      </c>
+      <c r="AJ83">
+        <v>2</v>
+      </c>
+      <c r="AK83">
+        <v>1.33</v>
+      </c>
+      <c r="AL83">
+        <v>1.28</v>
+      </c>
+      <c r="AM83">
+        <v>1.65</v>
+      </c>
+      <c r="AN83">
+        <v>2.5</v>
+      </c>
+      <c r="AO83">
+        <v>1</v>
+      </c>
+      <c r="AP83">
+        <v>2.6</v>
+      </c>
+      <c r="AQ83">
+        <v>0.83</v>
+      </c>
+      <c r="AR83">
+        <v>1.44</v>
+      </c>
+      <c r="AS83">
+        <v>1.24</v>
+      </c>
+      <c r="AT83">
+        <v>2.68</v>
+      </c>
+      <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>5</v>
+      </c>
+      <c r="AX83">
+        <v>7</v>
+      </c>
+      <c r="AY83">
+        <v>11</v>
+      </c>
+      <c r="AZ83">
+        <v>10</v>
+      </c>
+      <c r="BA83">
+        <v>2</v>
+      </c>
+      <c r="BB83">
+        <v>6</v>
+      </c>
+      <c r="BC83">
+        <v>8</v>
+      </c>
+      <c r="BD83">
+        <v>1.75</v>
+      </c>
+      <c r="BE83">
+        <v>8.5</v>
+      </c>
+      <c r="BF83">
+        <v>2.43</v>
+      </c>
+      <c r="BG83">
+        <v>1.27</v>
+      </c>
+      <c r="BH83">
+        <v>3.55</v>
+      </c>
+      <c r="BI83">
+        <v>1.32</v>
+      </c>
+      <c r="BJ83">
+        <v>3.1</v>
+      </c>
+      <c r="BK83">
+        <v>1.56</v>
+      </c>
+      <c r="BL83">
+        <v>2.27</v>
+      </c>
+      <c r="BM83">
+        <v>1.99</v>
+      </c>
+      <c r="BN83">
+        <v>1.73</v>
+      </c>
+      <c r="BO83">
+        <v>2.6</v>
+      </c>
+      <c r="BP83">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7321693</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45416.66666666666</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s">
+        <v>83</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>2</v>
+      </c>
+      <c r="N84">
+        <v>4</v>
+      </c>
+      <c r="O84" t="s">
+        <v>140</v>
+      </c>
+      <c r="P84" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q84">
+        <v>4.33</v>
+      </c>
+      <c r="R84">
+        <v>2.23</v>
+      </c>
+      <c r="S84">
+        <v>2.35</v>
+      </c>
+      <c r="T84">
+        <v>1.34</v>
+      </c>
+      <c r="U84">
+        <v>3.1</v>
+      </c>
+      <c r="V84">
+        <v>2.6</v>
+      </c>
+      <c r="W84">
+        <v>1.46</v>
+      </c>
+      <c r="X84">
+        <v>6.25</v>
+      </c>
+      <c r="Y84">
+        <v>1.1</v>
+      </c>
+      <c r="Z84">
+        <v>3.85</v>
+      </c>
+      <c r="AA84">
+        <v>3.55</v>
+      </c>
+      <c r="AB84">
+        <v>1.79</v>
+      </c>
+      <c r="AC84">
+        <v>1.02</v>
+      </c>
+      <c r="AD84">
+        <v>10.25</v>
+      </c>
+      <c r="AE84">
+        <v>1.22</v>
+      </c>
+      <c r="AF84">
+        <v>3.65</v>
+      </c>
+      <c r="AG84">
+        <v>1.72</v>
+      </c>
+      <c r="AH84">
+        <v>1.92</v>
+      </c>
+      <c r="AI84">
+        <v>1.68</v>
+      </c>
+      <c r="AJ84">
+        <v>2.06</v>
+      </c>
+      <c r="AK84">
+        <v>1.92</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>1.23</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>1.4</v>
+      </c>
+      <c r="AP84">
+        <v>1</v>
+      </c>
+      <c r="AQ84">
+        <v>1.33</v>
+      </c>
+      <c r="AR84">
+        <v>1.6</v>
+      </c>
+      <c r="AS84">
+        <v>1.2</v>
+      </c>
+      <c r="AT84">
+        <v>2.8</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>6</v>
+      </c>
+      <c r="AW84">
+        <v>8</v>
+      </c>
+      <c r="AX84">
+        <v>8</v>
+      </c>
+      <c r="AY84">
+        <v>14</v>
+      </c>
+      <c r="AZ84">
+        <v>14</v>
+      </c>
+      <c r="BA84">
+        <v>8</v>
+      </c>
+      <c r="BB84">
+        <v>1</v>
+      </c>
+      <c r="BC84">
+        <v>9</v>
+      </c>
+      <c r="BD84">
+        <v>2.8</v>
+      </c>
+      <c r="BE84">
+        <v>8</v>
+      </c>
+      <c r="BF84">
+        <v>1.59</v>
+      </c>
+      <c r="BG84">
+        <v>1.25</v>
+      </c>
+      <c r="BH84">
+        <v>3.3</v>
+      </c>
+      <c r="BI84">
+        <v>1.48</v>
+      </c>
+      <c r="BJ84">
+        <v>2.47</v>
+      </c>
+      <c r="BK84">
+        <v>1.85</v>
+      </c>
+      <c r="BL84">
+        <v>1.85</v>
+      </c>
+      <c r="BM84">
+        <v>2.37</v>
+      </c>
+      <c r="BN84">
+        <v>1.51</v>
+      </c>
+      <c r="BO84">
+        <v>3.3</v>
+      </c>
+      <c r="BP84">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,9 @@
     <t>['36', '72']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -532,9 +535,6 @@
     <t>['16', '39', '90+1']</t>
   </si>
   <si>
-    <t>['88']</t>
-  </si>
-  <si>
     <t>['41', '88']</t>
   </si>
   <si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>['2', '45+4']</t>
+  </si>
+  <si>
+    <t>['57', '65']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1407,7 +1410,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1485,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1613,7 +1616,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1819,7 +1822,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2025,7 +2028,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2231,7 +2234,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2437,7 +2440,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3055,7 +3058,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3261,7 +3264,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3673,7 +3676,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3879,7 +3882,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4085,7 +4088,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4291,7 +4294,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4372,7 +4375,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR17">
         <v>1.44</v>
@@ -4497,7 +4500,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4781,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -5115,7 +5118,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5321,7 +5324,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5527,7 +5530,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5811,7 +5814,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24">
         <v>1.17</v>
@@ -6145,7 +6148,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6351,7 +6354,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6763,7 +6766,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6969,7 +6972,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7381,7 +7384,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8904,7 +8907,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ39">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -9235,7 +9238,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9441,7 +9444,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9647,7 +9650,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9853,7 +9856,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10140,7 +10143,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ45">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10265,7 +10268,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10677,7 +10680,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10883,7 +10886,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10961,7 +10964,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11913,7 +11916,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12119,7 +12122,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12325,7 +12328,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12403,7 +12406,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ56">
         <v>2.67</v>
@@ -12531,7 +12534,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12609,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ57">
         <v>1.17</v>
@@ -12737,7 +12740,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12818,7 +12821,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR58">
         <v>1.99</v>
@@ -13149,7 +13152,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="Q60">
         <v>2.31</v>
@@ -15699,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72">
         <v>0</v>
@@ -16320,7 +16323,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ75">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -18250,6 +18253,212 @@
       </c>
       <c r="BP84">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7321694</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45416.875</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" t="s">
+        <v>141</v>
+      </c>
+      <c r="P85" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q85">
+        <v>2.95</v>
+      </c>
+      <c r="R85">
+        <v>2.2</v>
+      </c>
+      <c r="S85">
+        <v>3.5</v>
+      </c>
+      <c r="T85">
+        <v>1.34</v>
+      </c>
+      <c r="U85">
+        <v>3</v>
+      </c>
+      <c r="V85">
+        <v>2.6</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>6.45</v>
+      </c>
+      <c r="Y85">
+        <v>1.09</v>
+      </c>
+      <c r="Z85">
+        <v>2.2</v>
+      </c>
+      <c r="AA85">
+        <v>3.5</v>
+      </c>
+      <c r="AB85">
+        <v>3.1</v>
+      </c>
+      <c r="AC85">
+        <v>1.03</v>
+      </c>
+      <c r="AD85">
+        <v>13</v>
+      </c>
+      <c r="AE85">
+        <v>1.25</v>
+      </c>
+      <c r="AF85">
+        <v>3.75</v>
+      </c>
+      <c r="AG85">
+        <v>1.8</v>
+      </c>
+      <c r="AH85">
+        <v>2.05</v>
+      </c>
+      <c r="AI85">
+        <v>1.63</v>
+      </c>
+      <c r="AJ85">
+        <v>2.2</v>
+      </c>
+      <c r="AK85">
+        <v>1.4</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.63</v>
+      </c>
+      <c r="AN85">
+        <v>2.14</v>
+      </c>
+      <c r="AO85">
+        <v>2.2</v>
+      </c>
+      <c r="AP85">
+        <v>1.88</v>
+      </c>
+      <c r="AQ85">
+        <v>2.33</v>
+      </c>
+      <c r="AR85">
+        <v>1.51</v>
+      </c>
+      <c r="AS85">
+        <v>1</v>
+      </c>
+      <c r="AT85">
+        <v>2.51</v>
+      </c>
+      <c r="AU85">
+        <v>8</v>
+      </c>
+      <c r="AV85">
+        <v>7</v>
+      </c>
+      <c r="AW85">
+        <v>4</v>
+      </c>
+      <c r="AX85">
+        <v>3</v>
+      </c>
+      <c r="AY85">
+        <v>12</v>
+      </c>
+      <c r="AZ85">
+        <v>10</v>
+      </c>
+      <c r="BA85">
+        <v>2</v>
+      </c>
+      <c r="BB85">
+        <v>4</v>
+      </c>
+      <c r="BC85">
+        <v>6</v>
+      </c>
+      <c r="BD85">
+        <v>1.82</v>
+      </c>
+      <c r="BE85">
+        <v>8</v>
+      </c>
+      <c r="BF85">
+        <v>2.33</v>
+      </c>
+      <c r="BG85">
+        <v>1.2</v>
+      </c>
+      <c r="BH85">
+        <v>3.7</v>
+      </c>
+      <c r="BI85">
+        <v>1.39</v>
+      </c>
+      <c r="BJ85">
+        <v>2.77</v>
+      </c>
+      <c r="BK85">
+        <v>1.73</v>
+      </c>
+      <c r="BL85">
+        <v>1.99</v>
+      </c>
+      <c r="BM85">
+        <v>2.2</v>
+      </c>
+      <c r="BN85">
+        <v>1.6</v>
+      </c>
+      <c r="BO85">
+        <v>2.95</v>
+      </c>
+      <c r="BP85">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="196">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,12 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['66', '73']</t>
+  </si>
+  <si>
+    <t>['55', '66']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -584,6 +590,18 @@
   </si>
   <si>
     <t>['57', '65']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['8', '54']</t>
+  </si>
+  <si>
+    <t>['6', '26']</t>
+  </si>
+  <si>
+    <t>['15', '41', '62', '90+1', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +963,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1410,7 +1428,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1616,7 +1634,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1822,7 +1840,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1900,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ5">
         <v>0.83</v>
@@ -2028,7 +2046,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2109,7 +2127,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ6">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2234,7 +2252,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2315,7 +2333,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2440,7 +2458,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2724,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3058,7 +3076,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3139,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3264,7 +3282,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3548,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3676,7 +3694,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3882,7 +3900,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3960,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ15">
         <v>0.8</v>
@@ -4088,7 +4106,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4166,10 +4184,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR16">
         <v>1.64</v>
@@ -4294,7 +4312,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4500,7 +4518,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4581,7 +4599,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR18">
         <v>1.33</v>
@@ -5118,7 +5136,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5196,10 +5214,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5324,7 +5342,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5530,7 +5548,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5817,7 +5835,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR24">
         <v>0.9</v>
@@ -6020,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6148,7 +6166,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6354,7 +6372,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6766,7 +6784,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6847,7 +6865,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ29">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -6972,7 +6990,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7050,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ30">
         <v>1.2</v>
@@ -7384,7 +7402,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7465,7 +7483,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7668,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7874,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ34">
         <v>0.67</v>
@@ -8701,7 +8719,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -8904,7 +8922,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39">
         <v>2.33</v>
@@ -9238,7 +9256,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9316,7 +9334,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ41">
         <v>0.8</v>
@@ -9444,7 +9462,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9650,7 +9668,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9728,10 +9746,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9856,7 +9874,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10268,7 +10286,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10349,7 +10367,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR46">
         <v>1.53</v>
@@ -10680,7 +10698,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10758,7 +10776,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48">
         <v>2.67</v>
@@ -10886,7 +10904,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10967,7 +10985,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR49">
         <v>1.05</v>
@@ -11173,7 +11191,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ50">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11791,7 +11809,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR53">
         <v>1.66</v>
@@ -11916,7 +11934,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -11994,7 +12012,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ54">
         <v>1.5</v>
@@ -12122,7 +12140,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12328,7 +12346,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12534,7 +12552,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12615,7 +12633,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR57">
         <v>1.34</v>
@@ -12740,7 +12758,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13024,7 +13042,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ59">
         <v>0.83</v>
@@ -13230,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
         <v>1.33</v>
@@ -13358,7 +13376,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13564,7 +13582,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13976,7 +13994,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14388,7 +14406,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14466,10 +14484,10 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -14594,7 +14612,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14675,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR67">
         <v>1.37</v>
@@ -14800,7 +14818,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15293,7 +15311,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15418,7 +15436,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15624,7 +15642,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15830,7 +15848,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -15908,10 +15926,10 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16036,7 +16054,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16114,7 +16132,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16242,7 +16260,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16654,7 +16672,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16860,7 +16878,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17066,7 +17084,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17684,7 +17702,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18096,7 +18114,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18302,7 +18320,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18459,6 +18477,830 @@
       </c>
       <c r="BP85">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7321699</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45417.5625</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86" t="s">
+        <v>70</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>142</v>
+      </c>
+      <c r="P86" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q86">
+        <v>2.96</v>
+      </c>
+      <c r="R86">
+        <v>2.06</v>
+      </c>
+      <c r="S86">
+        <v>3.55</v>
+      </c>
+      <c r="T86">
+        <v>1.42</v>
+      </c>
+      <c r="U86">
+        <v>2.74</v>
+      </c>
+      <c r="V86">
+        <v>2.98</v>
+      </c>
+      <c r="W86">
+        <v>1.36</v>
+      </c>
+      <c r="X86">
+        <v>7.6</v>
+      </c>
+      <c r="Y86">
+        <v>1.07</v>
+      </c>
+      <c r="Z86">
+        <v>2.26</v>
+      </c>
+      <c r="AA86">
+        <v>3.1</v>
+      </c>
+      <c r="AB86">
+        <v>2.77</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>8.4</v>
+      </c>
+      <c r="AE86">
+        <v>1.31</v>
+      </c>
+      <c r="AF86">
+        <v>3.04</v>
+      </c>
+      <c r="AG86">
+        <v>2.06</v>
+      </c>
+      <c r="AH86">
+        <v>1.78</v>
+      </c>
+      <c r="AI86">
+        <v>1.78</v>
+      </c>
+      <c r="AJ86">
+        <v>1.93</v>
+      </c>
+      <c r="AK86">
+        <v>1.39</v>
+      </c>
+      <c r="AL86">
+        <v>1.31</v>
+      </c>
+      <c r="AM86">
+        <v>1.55</v>
+      </c>
+      <c r="AN86">
+        <v>0.2</v>
+      </c>
+      <c r="AO86">
+        <v>1</v>
+      </c>
+      <c r="AP86">
+        <v>0.67</v>
+      </c>
+      <c r="AQ86">
+        <v>0.8</v>
+      </c>
+      <c r="AR86">
+        <v>1.42</v>
+      </c>
+      <c r="AS86">
+        <v>1.23</v>
+      </c>
+      <c r="AT86">
+        <v>2.65</v>
+      </c>
+      <c r="AU86">
+        <v>5</v>
+      </c>
+      <c r="AV86">
+        <v>5</v>
+      </c>
+      <c r="AW86">
+        <v>5</v>
+      </c>
+      <c r="AX86">
+        <v>0</v>
+      </c>
+      <c r="AY86">
+        <v>10</v>
+      </c>
+      <c r="AZ86">
+        <v>5</v>
+      </c>
+      <c r="BA86">
+        <v>2</v>
+      </c>
+      <c r="BB86">
+        <v>7</v>
+      </c>
+      <c r="BC86">
+        <v>9</v>
+      </c>
+      <c r="BD86">
+        <v>2</v>
+      </c>
+      <c r="BE86">
+        <v>8</v>
+      </c>
+      <c r="BF86">
+        <v>2.1</v>
+      </c>
+      <c r="BG86">
+        <v>1.25</v>
+      </c>
+      <c r="BH86">
+        <v>3.3</v>
+      </c>
+      <c r="BI86">
+        <v>1.5</v>
+      </c>
+      <c r="BJ86">
+        <v>2.4</v>
+      </c>
+      <c r="BK86">
+        <v>1.85</v>
+      </c>
+      <c r="BL86">
+        <v>1.85</v>
+      </c>
+      <c r="BM86">
+        <v>2.4</v>
+      </c>
+      <c r="BN86">
+        <v>1.5</v>
+      </c>
+      <c r="BO86">
+        <v>3.2</v>
+      </c>
+      <c r="BP86">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7321695</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45417.66666666666</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s">
+        <v>79</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>143</v>
+      </c>
+      <c r="P87" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q87">
+        <v>2.32</v>
+      </c>
+      <c r="R87">
+        <v>2.24</v>
+      </c>
+      <c r="S87">
+        <v>4.4</v>
+      </c>
+      <c r="T87">
+        <v>1.34</v>
+      </c>
+      <c r="U87">
+        <v>3.1</v>
+      </c>
+      <c r="V87">
+        <v>2.57</v>
+      </c>
+      <c r="W87">
+        <v>1.47</v>
+      </c>
+      <c r="X87">
+        <v>6.25</v>
+      </c>
+      <c r="Y87">
+        <v>1.1</v>
+      </c>
+      <c r="Z87">
+        <v>1.8</v>
+      </c>
+      <c r="AA87">
+        <v>3.7</v>
+      </c>
+      <c r="AB87">
+        <v>3.8</v>
+      </c>
+      <c r="AC87">
+        <v>1.01</v>
+      </c>
+      <c r="AD87">
+        <v>10.5</v>
+      </c>
+      <c r="AE87">
+        <v>1.21</v>
+      </c>
+      <c r="AF87">
+        <v>3.74</v>
+      </c>
+      <c r="AG87">
+        <v>1.67</v>
+      </c>
+      <c r="AH87">
+        <v>2.1</v>
+      </c>
+      <c r="AI87">
+        <v>1.68</v>
+      </c>
+      <c r="AJ87">
+        <v>2.06</v>
+      </c>
+      <c r="AK87">
+        <v>1.22</v>
+      </c>
+      <c r="AL87">
+        <v>1.25</v>
+      </c>
+      <c r="AM87">
+        <v>1.94</v>
+      </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
+      <c r="AO87">
+        <v>1.8</v>
+      </c>
+      <c r="AP87">
+        <v>1.8</v>
+      </c>
+      <c r="AQ87">
+        <v>1.67</v>
+      </c>
+      <c r="AR87">
+        <v>1.35</v>
+      </c>
+      <c r="AS87">
+        <v>1.64</v>
+      </c>
+      <c r="AT87">
+        <v>2.99</v>
+      </c>
+      <c r="AU87">
+        <v>6</v>
+      </c>
+      <c r="AV87">
+        <v>6</v>
+      </c>
+      <c r="AW87">
+        <v>9</v>
+      </c>
+      <c r="AX87">
+        <v>7</v>
+      </c>
+      <c r="AY87">
+        <v>15</v>
+      </c>
+      <c r="AZ87">
+        <v>13</v>
+      </c>
+      <c r="BA87">
+        <v>9</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>13</v>
+      </c>
+      <c r="BD87">
+        <v>1.55</v>
+      </c>
+      <c r="BE87">
+        <v>8</v>
+      </c>
+      <c r="BF87">
+        <v>3.02</v>
+      </c>
+      <c r="BG87">
+        <v>1.34</v>
+      </c>
+      <c r="BH87">
+        <v>3</v>
+      </c>
+      <c r="BI87">
+        <v>1.67</v>
+      </c>
+      <c r="BJ87">
+        <v>2.07</v>
+      </c>
+      <c r="BK87">
+        <v>2.13</v>
+      </c>
+      <c r="BL87">
+        <v>1.63</v>
+      </c>
+      <c r="BM87">
+        <v>2.85</v>
+      </c>
+      <c r="BN87">
+        <v>1.37</v>
+      </c>
+      <c r="BO87">
+        <v>3.8</v>
+      </c>
+      <c r="BP87">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7321697</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45417.77083333334</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s">
+        <v>85</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>106</v>
+      </c>
+      <c r="P88" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q88">
+        <v>3.54</v>
+      </c>
+      <c r="R88">
+        <v>2.1</v>
+      </c>
+      <c r="S88">
+        <v>2.89</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.82</v>
+      </c>
+      <c r="V88">
+        <v>2.86</v>
+      </c>
+      <c r="W88">
+        <v>1.39</v>
+      </c>
+      <c r="X88">
+        <v>7.2</v>
+      </c>
+      <c r="Y88">
+        <v>1.08</v>
+      </c>
+      <c r="Z88">
+        <v>2.84</v>
+      </c>
+      <c r="AA88">
+        <v>3.25</v>
+      </c>
+      <c r="AB88">
+        <v>2.26</v>
+      </c>
+      <c r="AC88">
+        <v>1.02</v>
+      </c>
+      <c r="AD88">
+        <v>8.9</v>
+      </c>
+      <c r="AE88">
+        <v>1.28</v>
+      </c>
+      <c r="AF88">
+        <v>3.2</v>
+      </c>
+      <c r="AG88">
+        <v>1.89</v>
+      </c>
+      <c r="AH88">
+        <v>1.75</v>
+      </c>
+      <c r="AI88">
+        <v>1.73</v>
+      </c>
+      <c r="AJ88">
+        <v>1.99</v>
+      </c>
+      <c r="AK88">
+        <v>1.57</v>
+      </c>
+      <c r="AL88">
+        <v>1.3</v>
+      </c>
+      <c r="AM88">
+        <v>1.39</v>
+      </c>
+      <c r="AN88">
+        <v>1.4</v>
+      </c>
+      <c r="AO88">
+        <v>1.17</v>
+      </c>
+      <c r="AP88">
+        <v>1.17</v>
+      </c>
+      <c r="AQ88">
+        <v>1.43</v>
+      </c>
+      <c r="AR88">
+        <v>1.85</v>
+      </c>
+      <c r="AS88">
+        <v>1.13</v>
+      </c>
+      <c r="AT88">
+        <v>2.98</v>
+      </c>
+      <c r="AU88">
+        <v>5</v>
+      </c>
+      <c r="AV88">
+        <v>8</v>
+      </c>
+      <c r="AW88">
+        <v>9</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>14</v>
+      </c>
+      <c r="AZ88">
+        <v>12</v>
+      </c>
+      <c r="BA88">
+        <v>9</v>
+      </c>
+      <c r="BB88">
+        <v>4</v>
+      </c>
+      <c r="BC88">
+        <v>13</v>
+      </c>
+      <c r="BD88">
+        <v>2.1</v>
+      </c>
+      <c r="BE88">
+        <v>8</v>
+      </c>
+      <c r="BF88">
+        <v>1.91</v>
+      </c>
+      <c r="BG88">
+        <v>1.17</v>
+      </c>
+      <c r="BH88">
+        <v>4.1</v>
+      </c>
+      <c r="BI88">
+        <v>1.32</v>
+      </c>
+      <c r="BJ88">
+        <v>3.1</v>
+      </c>
+      <c r="BK88">
+        <v>1.54</v>
+      </c>
+      <c r="BL88">
+        <v>2.32</v>
+      </c>
+      <c r="BM88">
+        <v>1.99</v>
+      </c>
+      <c r="BN88">
+        <v>1.73</v>
+      </c>
+      <c r="BO88">
+        <v>2.55</v>
+      </c>
+      <c r="BP88">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7321698</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45417.875</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>5</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+      <c r="O89" t="s">
+        <v>86</v>
+      </c>
+      <c r="P89" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q89">
+        <v>2.56</v>
+      </c>
+      <c r="R89">
+        <v>2.07</v>
+      </c>
+      <c r="S89">
+        <v>4.33</v>
+      </c>
+      <c r="T89">
+        <v>1.43</v>
+      </c>
+      <c r="U89">
+        <v>2.7</v>
+      </c>
+      <c r="V89">
+        <v>2.99</v>
+      </c>
+      <c r="W89">
+        <v>1.36</v>
+      </c>
+      <c r="X89">
+        <v>7.8</v>
+      </c>
+      <c r="Y89">
+        <v>1.06</v>
+      </c>
+      <c r="Z89">
+        <v>1.93</v>
+      </c>
+      <c r="AA89">
+        <v>3.25</v>
+      </c>
+      <c r="AB89">
+        <v>3.65</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE89">
+        <v>1.32</v>
+      </c>
+      <c r="AF89">
+        <v>2.98</v>
+      </c>
+      <c r="AG89">
+        <v>1.98</v>
+      </c>
+      <c r="AH89">
+        <v>1.68</v>
+      </c>
+      <c r="AI89">
+        <v>1.86</v>
+      </c>
+      <c r="AJ89">
+        <v>1.84</v>
+      </c>
+      <c r="AK89">
+        <v>1.25</v>
+      </c>
+      <c r="AL89">
+        <v>1.29</v>
+      </c>
+      <c r="AM89">
+        <v>1.79</v>
+      </c>
+      <c r="AN89">
+        <v>1.33</v>
+      </c>
+      <c r="AO89">
+        <v>1.17</v>
+      </c>
+      <c r="AP89">
+        <v>1.14</v>
+      </c>
+      <c r="AQ89">
+        <v>1.43</v>
+      </c>
+      <c r="AR89">
+        <v>1.41</v>
+      </c>
+      <c r="AS89">
+        <v>1.24</v>
+      </c>
+      <c r="AT89">
+        <v>2.65</v>
+      </c>
+      <c r="AU89">
+        <v>4</v>
+      </c>
+      <c r="AV89">
+        <v>11</v>
+      </c>
+      <c r="AW89">
+        <v>6</v>
+      </c>
+      <c r="AX89">
+        <v>3</v>
+      </c>
+      <c r="AY89">
+        <v>10</v>
+      </c>
+      <c r="AZ89">
+        <v>14</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>7</v>
+      </c>
+      <c r="BC89">
+        <v>13</v>
+      </c>
+      <c r="BD89">
+        <v>1.55</v>
+      </c>
+      <c r="BE89">
+        <v>9</v>
+      </c>
+      <c r="BF89">
+        <v>2.9</v>
+      </c>
+      <c r="BG89">
+        <v>1.2</v>
+      </c>
+      <c r="BH89">
+        <v>4</v>
+      </c>
+      <c r="BI89">
+        <v>1.27</v>
+      </c>
+      <c r="BJ89">
+        <v>3.2</v>
+      </c>
+      <c r="BK89">
+        <v>1.48</v>
+      </c>
+      <c r="BL89">
+        <v>2.47</v>
+      </c>
+      <c r="BM89">
+        <v>1.85</v>
+      </c>
+      <c r="BN89">
+        <v>1.85</v>
+      </c>
+      <c r="BO89">
+        <v>2.35</v>
+      </c>
+      <c r="BP89">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -18619,22 +18619,22 @@
         <v>2.65</v>
       </c>
       <c r="AU86">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW86">
         <v>5</v>
       </c>
       <c r="AX86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY86">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ86">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA86">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,9 @@
     <t>['55', '66']</t>
   </si>
   <si>
+    <t>['39', '66']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -602,6 +605,9 @@
   </si>
   <si>
     <t>['15', '41', '62', '90+1', '90+4']</t>
+  </si>
+  <si>
+    <t>['20', '63']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1428,7 +1434,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1634,7 +1640,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1840,7 +1846,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2046,7 +2052,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2252,7 +2258,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2458,7 +2464,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3076,7 +3082,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3282,7 +3288,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3360,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3694,7 +3700,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3775,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3900,7 +3906,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4106,7 +4112,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4312,7 +4318,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4518,7 +4524,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -5136,7 +5142,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5342,7 +5348,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5548,7 +5554,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6166,7 +6172,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6372,7 +6378,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6784,7 +6790,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6990,7 +6996,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7402,7 +7408,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7895,7 +7901,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8304,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -9256,7 +9262,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9462,7 +9468,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9668,7 +9674,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9874,7 +9880,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10158,7 +10164,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
         <v>2.33</v>
@@ -10286,7 +10292,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10698,7 +10704,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10904,7 +10910,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11934,7 +11940,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12140,7 +12146,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12346,7 +12352,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12552,7 +12558,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12758,7 +12764,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13376,7 +13382,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13582,7 +13588,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13994,7 +14000,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14406,7 +14412,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14612,7 +14618,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14818,7 +14824,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15308,7 +15314,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>1.67</v>
@@ -15436,7 +15442,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15642,7 +15648,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15848,7 +15854,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16054,7 +16060,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16135,7 +16141,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
         <v>1.38</v>
@@ -16260,7 +16266,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16672,7 +16678,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16878,7 +16884,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -16956,7 +16962,7 @@
         <v>2.6</v>
       </c>
       <c r="AP78">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
         <v>2.67</v>
@@ -17084,7 +17090,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17702,7 +17708,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18114,7 +18120,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18320,7 +18326,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18526,7 +18532,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18732,7 +18738,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -18938,7 +18944,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19144,7 +19150,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19301,6 +19307,212 @@
       </c>
       <c r="BP89">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7321705</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45423.5625</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s">
+        <v>71</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>144</v>
+      </c>
+      <c r="P90" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q90">
+        <v>2.75</v>
+      </c>
+      <c r="R90">
+        <v>2.15</v>
+      </c>
+      <c r="S90">
+        <v>4</v>
+      </c>
+      <c r="T90">
+        <v>1.36</v>
+      </c>
+      <c r="U90">
+        <v>2.9</v>
+      </c>
+      <c r="V90">
+        <v>2.8</v>
+      </c>
+      <c r="W90">
+        <v>1.39</v>
+      </c>
+      <c r="X90">
+        <v>6.95</v>
+      </c>
+      <c r="Y90">
+        <v>1.07</v>
+      </c>
+      <c r="Z90">
+        <v>1.93</v>
+      </c>
+      <c r="AA90">
+        <v>3.45</v>
+      </c>
+      <c r="AB90">
+        <v>3.45</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>11</v>
+      </c>
+      <c r="AE90">
+        <v>1.3</v>
+      </c>
+      <c r="AF90">
+        <v>3.5</v>
+      </c>
+      <c r="AG90">
+        <v>1.8</v>
+      </c>
+      <c r="AH90">
+        <v>1.84</v>
+      </c>
+      <c r="AI90">
+        <v>1.75</v>
+      </c>
+      <c r="AJ90">
+        <v>2.05</v>
+      </c>
+      <c r="AK90">
+        <v>1.25</v>
+      </c>
+      <c r="AL90">
+        <v>1.25</v>
+      </c>
+      <c r="AM90">
+        <v>1.62</v>
+      </c>
+      <c r="AN90">
+        <v>1.4</v>
+      </c>
+      <c r="AO90">
+        <v>0.67</v>
+      </c>
+      <c r="AP90">
+        <v>1.33</v>
+      </c>
+      <c r="AQ90">
+        <v>0.75</v>
+      </c>
+      <c r="AR90">
+        <v>1.55</v>
+      </c>
+      <c r="AS90">
+        <v>1.27</v>
+      </c>
+      <c r="AT90">
+        <v>2.82</v>
+      </c>
+      <c r="AU90">
+        <v>12</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>10</v>
+      </c>
+      <c r="AX90">
+        <v>3</v>
+      </c>
+      <c r="AY90">
+        <v>22</v>
+      </c>
+      <c r="AZ90">
+        <v>8</v>
+      </c>
+      <c r="BA90">
+        <v>8</v>
+      </c>
+      <c r="BB90">
+        <v>4</v>
+      </c>
+      <c r="BC90">
+        <v>12</v>
+      </c>
+      <c r="BD90">
+        <v>1.59</v>
+      </c>
+      <c r="BE90">
+        <v>8.5</v>
+      </c>
+      <c r="BF90">
+        <v>2.78</v>
+      </c>
+      <c r="BG90">
+        <v>1.25</v>
+      </c>
+      <c r="BH90">
+        <v>3.6</v>
+      </c>
+      <c r="BI90">
+        <v>1.41</v>
+      </c>
+      <c r="BJ90">
+        <v>2.7</v>
+      </c>
+      <c r="BK90">
+        <v>1.73</v>
+      </c>
+      <c r="BL90">
+        <v>1.99</v>
+      </c>
+      <c r="BM90">
+        <v>2.2</v>
+      </c>
+      <c r="BN90">
+        <v>1.6</v>
+      </c>
+      <c r="BO90">
+        <v>2.9</v>
+      </c>
+      <c r="BP90">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,12 @@
     <t>['39', '66']</t>
   </si>
   <si>
+    <t>['12', '15', '18']</t>
+  </si>
+  <si>
+    <t>['31', '37', '81']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -608,6 +614,12 @@
   </si>
   <si>
     <t>['20', '63']</t>
+  </si>
+  <si>
+    <t>['39', '86']</t>
+  </si>
+  <si>
+    <t>['7', '36', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1434,7 +1446,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1640,7 +1652,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1721,7 +1733,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1846,7 +1858,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2052,7 +2064,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2258,7 +2270,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2336,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -2464,7 +2476,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3082,7 +3094,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3288,7 +3300,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3700,7 +3712,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3906,7 +3918,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3987,7 +3999,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
         <v>1.77</v>
@@ -4112,7 +4124,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4318,7 +4330,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4524,7 +4536,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -5142,7 +5154,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5348,7 +5360,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5554,7 +5566,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6172,7 +6184,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6378,7 +6390,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6790,7 +6802,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6868,7 +6880,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ29">
         <v>1.43</v>
@@ -6996,7 +7008,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7283,7 +7295,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR31">
         <v>1.69</v>
@@ -7408,7 +7420,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7486,7 +7498,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>0.8</v>
@@ -7695,7 +7707,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -8722,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38">
         <v>1.43</v>
@@ -9134,7 +9146,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9262,7 +9274,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9343,7 +9355,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ41">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9468,7 +9480,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9674,7 +9686,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9880,7 +9892,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10292,7 +10304,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10704,7 +10716,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10910,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11606,10 +11618,10 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -11812,7 +11824,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ53">
         <v>1.43</v>
@@ -11940,7 +11952,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12021,7 +12033,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR54">
         <v>1.39</v>
@@ -12146,7 +12158,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12352,7 +12364,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12558,7 +12570,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12764,7 +12776,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13382,7 +13394,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13588,7 +13600,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14000,7 +14012,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14412,7 +14424,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14618,7 +14630,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14824,7 +14836,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -14902,7 +14914,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ68">
         <v>1.33</v>
@@ -15111,7 +15123,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ69">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
@@ -15442,7 +15454,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15648,7 +15660,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15854,7 +15866,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16060,7 +16072,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16266,7 +16278,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16678,7 +16690,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16756,7 +16768,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -16884,7 +16896,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17090,7 +17102,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17583,7 +17595,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ81">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR81">
         <v>1.6</v>
@@ -17708,7 +17720,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18120,7 +18132,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18326,7 +18338,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18532,7 +18544,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18738,7 +18750,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -18944,7 +18956,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19150,7 +19162,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19356,7 +19368,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19512,6 +19524,418 @@
         <v>2.9</v>
       </c>
       <c r="BP90">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7321707</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45423.77083333334</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" t="s">
+        <v>81</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="O91" t="s">
+        <v>145</v>
+      </c>
+      <c r="P91" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q91">
+        <v>2.6</v>
+      </c>
+      <c r="R91">
+        <v>2.15</v>
+      </c>
+      <c r="S91">
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <v>1.38</v>
+      </c>
+      <c r="U91">
+        <v>2.8</v>
+      </c>
+      <c r="V91">
+        <v>2.8</v>
+      </c>
+      <c r="W91">
+        <v>1.38</v>
+      </c>
+      <c r="X91">
+        <v>6.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.08</v>
+      </c>
+      <c r="Z91">
+        <v>2.14</v>
+      </c>
+      <c r="AA91">
+        <v>3.25</v>
+      </c>
+      <c r="AB91">
+        <v>3.3</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>9</v>
+      </c>
+      <c r="AE91">
+        <v>1.3</v>
+      </c>
+      <c r="AF91">
+        <v>3.2</v>
+      </c>
+      <c r="AG91">
+        <v>1.96</v>
+      </c>
+      <c r="AH91">
+        <v>1.77</v>
+      </c>
+      <c r="AI91">
+        <v>1.75</v>
+      </c>
+      <c r="AJ91">
+        <v>1.95</v>
+      </c>
+      <c r="AK91">
+        <v>1.24</v>
+      </c>
+      <c r="AL91">
+        <v>1.26</v>
+      </c>
+      <c r="AM91">
+        <v>1.61</v>
+      </c>
+      <c r="AN91">
+        <v>0.8</v>
+      </c>
+      <c r="AO91">
+        <v>1.5</v>
+      </c>
+      <c r="AP91">
+        <v>1.17</v>
+      </c>
+      <c r="AQ91">
+        <v>1.2</v>
+      </c>
+      <c r="AR91">
+        <v>1.53</v>
+      </c>
+      <c r="AS91">
+        <v>1.33</v>
+      </c>
+      <c r="AT91">
+        <v>2.86</v>
+      </c>
+      <c r="AU91">
+        <v>9</v>
+      </c>
+      <c r="AV91">
+        <v>9</v>
+      </c>
+      <c r="AW91">
+        <v>2</v>
+      </c>
+      <c r="AX91">
+        <v>6</v>
+      </c>
+      <c r="AY91">
+        <v>11</v>
+      </c>
+      <c r="AZ91">
+        <v>15</v>
+      </c>
+      <c r="BA91">
+        <v>7</v>
+      </c>
+      <c r="BB91">
+        <v>5</v>
+      </c>
+      <c r="BC91">
+        <v>12</v>
+      </c>
+      <c r="BD91">
+        <v>1.82</v>
+      </c>
+      <c r="BE91">
+        <v>8</v>
+      </c>
+      <c r="BF91">
+        <v>2.33</v>
+      </c>
+      <c r="BG91">
+        <v>1.25</v>
+      </c>
+      <c r="BH91">
+        <v>3.6</v>
+      </c>
+      <c r="BI91">
+        <v>1.36</v>
+      </c>
+      <c r="BJ91">
+        <v>2.9</v>
+      </c>
+      <c r="BK91">
+        <v>1.67</v>
+      </c>
+      <c r="BL91">
+        <v>2.07</v>
+      </c>
+      <c r="BM91">
+        <v>2.1</v>
+      </c>
+      <c r="BN91">
+        <v>1.65</v>
+      </c>
+      <c r="BO91">
+        <v>2.77</v>
+      </c>
+      <c r="BP91">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7321704</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45423.875</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>85</v>
+      </c>
+      <c r="H92" t="s">
+        <v>82</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>6</v>
+      </c>
+      <c r="O92" t="s">
+        <v>146</v>
+      </c>
+      <c r="P92" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q92">
+        <v>2.1</v>
+      </c>
+      <c r="R92">
+        <v>2.38</v>
+      </c>
+      <c r="S92">
+        <v>4.8</v>
+      </c>
+      <c r="T92">
+        <v>1.29</v>
+      </c>
+      <c r="U92">
+        <v>3.4</v>
+      </c>
+      <c r="V92">
+        <v>2.36</v>
+      </c>
+      <c r="W92">
+        <v>1.55</v>
+      </c>
+      <c r="X92">
+        <v>5.45</v>
+      </c>
+      <c r="Y92">
+        <v>1.13</v>
+      </c>
+      <c r="Z92">
+        <v>1.62</v>
+      </c>
+      <c r="AA92">
+        <v>3.9</v>
+      </c>
+      <c r="AB92">
+        <v>4.8</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>11</v>
+      </c>
+      <c r="AE92">
+        <v>1.16</v>
+      </c>
+      <c r="AF92">
+        <v>4.33</v>
+      </c>
+      <c r="AG92">
+        <v>1.58</v>
+      </c>
+      <c r="AH92">
+        <v>2.25</v>
+      </c>
+      <c r="AI92">
+        <v>1.63</v>
+      </c>
+      <c r="AJ92">
+        <v>2.14</v>
+      </c>
+      <c r="AK92">
+        <v>1.16</v>
+      </c>
+      <c r="AL92">
+        <v>1.21</v>
+      </c>
+      <c r="AM92">
+        <v>2.24</v>
+      </c>
+      <c r="AN92">
+        <v>1.75</v>
+      </c>
+      <c r="AO92">
+        <v>0.8</v>
+      </c>
+      <c r="AP92">
+        <v>1.6</v>
+      </c>
+      <c r="AQ92">
+        <v>0.83</v>
+      </c>
+      <c r="AR92">
+        <v>1.79</v>
+      </c>
+      <c r="AS92">
+        <v>1.17</v>
+      </c>
+      <c r="AT92">
+        <v>2.96</v>
+      </c>
+      <c r="AU92">
+        <v>7</v>
+      </c>
+      <c r="AV92">
+        <v>8</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>3</v>
+      </c>
+      <c r="AY92">
+        <v>10</v>
+      </c>
+      <c r="AZ92">
+        <v>11</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>6</v>
+      </c>
+      <c r="BC92">
+        <v>12</v>
+      </c>
+      <c r="BD92">
+        <v>1.37</v>
+      </c>
+      <c r="BE92">
+        <v>9</v>
+      </c>
+      <c r="BF92">
+        <v>3.62</v>
+      </c>
+      <c r="BG92">
+        <v>1.25</v>
+      </c>
+      <c r="BH92">
+        <v>3.6</v>
+      </c>
+      <c r="BI92">
+        <v>1.4</v>
+      </c>
+      <c r="BJ92">
+        <v>2.75</v>
+      </c>
+      <c r="BK92">
+        <v>1.73</v>
+      </c>
+      <c r="BL92">
+        <v>1.99</v>
+      </c>
+      <c r="BM92">
+        <v>2.2</v>
+      </c>
+      <c r="BN92">
+        <v>1.6</v>
+      </c>
+      <c r="BO92">
+        <v>2.9</v>
+      </c>
+      <c r="BP92">
         <v>1.36</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,15 @@
     <t>['31', '37', '81']</t>
   </si>
   <si>
+    <t>['19', '45+1', '71', '88']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['6', '60']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -620,6 +629,12 @@
   </si>
   <si>
     <t>['7', '36', '90+9']</t>
+  </si>
+  <si>
+    <t>['12', '20', '45+3', '90+5']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1446,7 +1461,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1527,7 +1542,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1652,7 +1667,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1730,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.2</v>
@@ -1858,7 +1873,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2064,7 +2079,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2142,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ6">
         <v>1.67</v>
@@ -2270,7 +2285,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2351,7 +2366,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2476,7 +2491,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2969,7 +2984,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3094,7 +3109,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3172,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ11">
         <v>1.43</v>
@@ -3300,7 +3315,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3587,7 +3602,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3712,7 +3727,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3918,7 +3933,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4124,7 +4139,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4330,7 +4345,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4536,7 +4551,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -5154,7 +5169,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5360,7 +5375,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5438,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>2.67</v>
@@ -5566,7 +5581,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6184,7 +6199,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6262,7 +6277,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6390,7 +6405,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6802,7 +6817,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7008,7 +7023,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7089,7 +7104,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ30">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.72</v>
@@ -7292,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
         <v>0.83</v>
@@ -7420,7 +7435,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7501,7 +7516,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8119,7 +8134,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR35">
         <v>2.24</v>
@@ -9274,7 +9289,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9480,7 +9495,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9558,7 +9573,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9686,7 +9701,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9892,7 +9907,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10304,7 +10319,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10588,7 +10603,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10716,7 +10731,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10922,7 +10937,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11003,7 +11018,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.05</v>
@@ -11206,7 +11221,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.67</v>
@@ -11415,7 +11430,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -11952,7 +11967,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12158,7 +12173,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12239,7 +12254,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ55">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.44</v>
@@ -12364,7 +12379,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12570,7 +12585,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12776,7 +12791,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12854,7 +12869,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ58">
         <v>2.33</v>
@@ -13394,7 +13409,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13600,7 +13615,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13678,7 +13693,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14012,7 +14027,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14093,7 +14108,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ64">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.82</v>
@@ -14424,7 +14439,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14630,7 +14645,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14711,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR67">
         <v>1.37</v>
@@ -14836,7 +14851,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -14917,7 +14932,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15454,7 +15469,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15660,7 +15675,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15866,7 +15881,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16072,7 +16087,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16278,7 +16293,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16356,7 +16371,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
         <v>2.33</v>
@@ -16565,7 +16580,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ76">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.51</v>
@@ -16690,7 +16705,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16896,7 +16911,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17102,7 +17117,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17386,7 +17401,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -17592,7 +17607,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ81">
         <v>0.83</v>
@@ -17720,7 +17735,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18132,7 +18147,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18213,7 +18228,7 @@
         <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR84">
         <v>1.6</v>
@@ -18338,7 +18353,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18544,7 +18559,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18625,7 +18640,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ86">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -18750,7 +18765,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -18956,7 +18971,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19162,7 +19177,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19368,7 +19383,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19574,7 +19589,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19780,7 +19795,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -19937,6 +19952,624 @@
       </c>
       <c r="BP92">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7321703</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45424.5625</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" t="s">
+        <v>73</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>2</v>
+      </c>
+      <c r="L93">
+        <v>4</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>147</v>
+      </c>
+      <c r="P93" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q93">
+        <v>2.61</v>
+      </c>
+      <c r="R93">
+        <v>2.32</v>
+      </c>
+      <c r="S93">
+        <v>4.15</v>
+      </c>
+      <c r="T93">
+        <v>1.37</v>
+      </c>
+      <c r="U93">
+        <v>2.95</v>
+      </c>
+      <c r="V93">
+        <v>2.67</v>
+      </c>
+      <c r="W93">
+        <v>1.44</v>
+      </c>
+      <c r="X93">
+        <v>6.6</v>
+      </c>
+      <c r="Y93">
+        <v>1.09</v>
+      </c>
+      <c r="Z93">
+        <v>2</v>
+      </c>
+      <c r="AA93">
+        <v>3.4</v>
+      </c>
+      <c r="AB93">
+        <v>3.4</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>9.6</v>
+      </c>
+      <c r="AE93">
+        <v>1.24</v>
+      </c>
+      <c r="AF93">
+        <v>3.48</v>
+      </c>
+      <c r="AG93">
+        <v>1.8</v>
+      </c>
+      <c r="AH93">
+        <v>1.91</v>
+      </c>
+      <c r="AI93">
+        <v>1.71</v>
+      </c>
+      <c r="AJ93">
+        <v>2.1</v>
+      </c>
+      <c r="AK93">
+        <v>1.28</v>
+      </c>
+      <c r="AL93">
+        <v>1.28</v>
+      </c>
+      <c r="AM93">
+        <v>1.75</v>
+      </c>
+      <c r="AN93">
+        <v>1.2</v>
+      </c>
+      <c r="AO93">
+        <v>1.2</v>
+      </c>
+      <c r="AP93">
+        <v>1.5</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1.51</v>
+      </c>
+      <c r="AS93">
+        <v>0.92</v>
+      </c>
+      <c r="AT93">
+        <v>2.43</v>
+      </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
+      <c r="AV93">
+        <v>6</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>3</v>
+      </c>
+      <c r="AY93">
+        <v>10</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
+        <v>7</v>
+      </c>
+      <c r="BB93">
+        <v>5</v>
+      </c>
+      <c r="BC93">
+        <v>12</v>
+      </c>
+      <c r="BD93">
+        <v>1.69</v>
+      </c>
+      <c r="BE93">
+        <v>8</v>
+      </c>
+      <c r="BF93">
+        <v>2.54</v>
+      </c>
+      <c r="BG93">
+        <v>1.29</v>
+      </c>
+      <c r="BH93">
+        <v>3.3</v>
+      </c>
+      <c r="BI93">
+        <v>1.45</v>
+      </c>
+      <c r="BJ93">
+        <v>2.55</v>
+      </c>
+      <c r="BK93">
+        <v>1.8</v>
+      </c>
+      <c r="BL93">
+        <v>1.9</v>
+      </c>
+      <c r="BM93">
+        <v>2.32</v>
+      </c>
+      <c r="BN93">
+        <v>1.54</v>
+      </c>
+      <c r="BO93">
+        <v>3.1</v>
+      </c>
+      <c r="BP93">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7321702</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45424.66666666666</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s">
+        <v>83</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94" t="s">
+        <v>148</v>
+      </c>
+      <c r="P94" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q94">
+        <v>4.78</v>
+      </c>
+      <c r="R94">
+        <v>2.25</v>
+      </c>
+      <c r="S94">
+        <v>2.48</v>
+      </c>
+      <c r="T94">
+        <v>1.4</v>
+      </c>
+      <c r="U94">
+        <v>2.96</v>
+      </c>
+      <c r="V94">
+        <v>2.99</v>
+      </c>
+      <c r="W94">
+        <v>1.39</v>
+      </c>
+      <c r="X94">
+        <v>7.3</v>
+      </c>
+      <c r="Y94">
+        <v>1.07</v>
+      </c>
+      <c r="Z94">
+        <v>3.4</v>
+      </c>
+      <c r="AA94">
+        <v>3.2</v>
+      </c>
+      <c r="AB94">
+        <v>1.95</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE94">
+        <v>1.28</v>
+      </c>
+      <c r="AF94">
+        <v>3.18</v>
+      </c>
+      <c r="AG94">
+        <v>2</v>
+      </c>
+      <c r="AH94">
+        <v>1.75</v>
+      </c>
+      <c r="AI94">
+        <v>1.83</v>
+      </c>
+      <c r="AJ94">
+        <v>1.93</v>
+      </c>
+      <c r="AK94">
+        <v>1.9</v>
+      </c>
+      <c r="AL94">
+        <v>1.28</v>
+      </c>
+      <c r="AM94">
+        <v>1.22</v>
+      </c>
+      <c r="AN94">
+        <v>0.25</v>
+      </c>
+      <c r="AO94">
+        <v>1.33</v>
+      </c>
+      <c r="AP94">
+        <v>0.2</v>
+      </c>
+      <c r="AQ94">
+        <v>1.57</v>
+      </c>
+      <c r="AR94">
+        <v>1.7</v>
+      </c>
+      <c r="AS94">
+        <v>1.26</v>
+      </c>
+      <c r="AT94">
+        <v>2.96</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>8</v>
+      </c>
+      <c r="AW94">
+        <v>1</v>
+      </c>
+      <c r="AX94">
+        <v>5</v>
+      </c>
+      <c r="AY94">
+        <v>4</v>
+      </c>
+      <c r="AZ94">
+        <v>13</v>
+      </c>
+      <c r="BA94">
+        <v>2</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>5</v>
+      </c>
+      <c r="BD94">
+        <v>2.52</v>
+      </c>
+      <c r="BE94">
+        <v>8</v>
+      </c>
+      <c r="BF94">
+        <v>1.75</v>
+      </c>
+      <c r="BG94">
+        <v>1.29</v>
+      </c>
+      <c r="BH94">
+        <v>3.4</v>
+      </c>
+      <c r="BI94">
+        <v>1.43</v>
+      </c>
+      <c r="BJ94">
+        <v>2.62</v>
+      </c>
+      <c r="BK94">
+        <v>1.73</v>
+      </c>
+      <c r="BL94">
+        <v>1.99</v>
+      </c>
+      <c r="BM94">
+        <v>2.22</v>
+      </c>
+      <c r="BN94">
+        <v>1.59</v>
+      </c>
+      <c r="BO94">
+        <v>2.95</v>
+      </c>
+      <c r="BP94">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7321708</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45424.875</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>149</v>
+      </c>
+      <c r="P95" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q95">
+        <v>2.75</v>
+      </c>
+      <c r="R95">
+        <v>2.25</v>
+      </c>
+      <c r="S95">
+        <v>3.75</v>
+      </c>
+      <c r="T95">
+        <v>1.36</v>
+      </c>
+      <c r="U95">
+        <v>3</v>
+      </c>
+      <c r="V95">
+        <v>2.63</v>
+      </c>
+      <c r="W95">
+        <v>1.44</v>
+      </c>
+      <c r="X95">
+        <v>7</v>
+      </c>
+      <c r="Y95">
+        <v>1.1</v>
+      </c>
+      <c r="Z95">
+        <v>2.05</v>
+      </c>
+      <c r="AA95">
+        <v>3.35</v>
+      </c>
+      <c r="AB95">
+        <v>3.3</v>
+      </c>
+      <c r="AC95">
+        <v>1.01</v>
+      </c>
+      <c r="AD95">
+        <v>10</v>
+      </c>
+      <c r="AE95">
+        <v>1.22</v>
+      </c>
+      <c r="AF95">
+        <v>3.65</v>
+      </c>
+      <c r="AG95">
+        <v>1.79</v>
+      </c>
+      <c r="AH95">
+        <v>1.99</v>
+      </c>
+      <c r="AI95">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95">
+        <v>2.1</v>
+      </c>
+      <c r="AK95">
+        <v>1.31</v>
+      </c>
+      <c r="AL95">
+        <v>1.27</v>
+      </c>
+      <c r="AM95">
+        <v>1.73</v>
+      </c>
+      <c r="AN95">
+        <v>2</v>
+      </c>
+      <c r="AO95">
+        <v>0.8</v>
+      </c>
+      <c r="AP95">
+        <v>2.17</v>
+      </c>
+      <c r="AQ95">
+        <v>0.67</v>
+      </c>
+      <c r="AR95">
+        <v>1.89</v>
+      </c>
+      <c r="AS95">
+        <v>1.26</v>
+      </c>
+      <c r="AT95">
+        <v>3.15</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>6</v>
+      </c>
+      <c r="AW95">
+        <v>10</v>
+      </c>
+      <c r="AX95">
+        <v>5</v>
+      </c>
+      <c r="AY95">
+        <v>14</v>
+      </c>
+      <c r="AZ95">
+        <v>11</v>
+      </c>
+      <c r="BA95">
+        <v>8</v>
+      </c>
+      <c r="BB95">
+        <v>6</v>
+      </c>
+      <c r="BC95">
+        <v>14</v>
+      </c>
+      <c r="BD95">
+        <v>1.82</v>
+      </c>
+      <c r="BE95">
+        <v>8</v>
+      </c>
+      <c r="BF95">
+        <v>2.39</v>
+      </c>
+      <c r="BG95">
+        <v>1.25</v>
+      </c>
+      <c r="BH95">
+        <v>3.42</v>
+      </c>
+      <c r="BI95">
+        <v>1.46</v>
+      </c>
+      <c r="BJ95">
+        <v>2.52</v>
+      </c>
+      <c r="BK95">
+        <v>1.85</v>
+      </c>
+      <c r="BL95">
+        <v>1.85</v>
+      </c>
+      <c r="BM95">
+        <v>2.37</v>
+      </c>
+      <c r="BN95">
+        <v>1.51</v>
+      </c>
+      <c r="BO95">
+        <v>3.2</v>
+      </c>
+      <c r="BP95">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,9 @@
     <t>['6', '60']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -635,6 +638,9 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['45+7', '54', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1461,7 +1467,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1667,7 +1673,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1873,7 +1879,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2079,7 +2085,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2285,7 +2291,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2491,7 +2497,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3109,7 +3115,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3315,7 +3321,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3727,7 +3733,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3933,7 +3939,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4139,7 +4145,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4345,7 +4351,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4551,7 +4557,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -5169,7 +5175,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5247,7 +5253,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ21">
         <v>1.67</v>
@@ -5375,7 +5381,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5456,7 +5462,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR22">
         <v>1.29</v>
@@ -5581,7 +5587,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6199,7 +6205,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6405,7 +6411,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6486,7 +6492,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ27">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6817,7 +6823,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7023,7 +7029,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7101,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7435,7 +7441,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8955,7 +8961,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ39">
         <v>2.33</v>
@@ -9289,7 +9295,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9495,7 +9501,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9701,7 +9707,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9907,7 +9913,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10319,7 +10325,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10731,7 +10737,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10812,7 +10818,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ48">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR48">
         <v>1.89</v>
@@ -10937,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11967,7 +11973,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12045,7 +12051,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ54">
         <v>1.2</v>
@@ -12173,7 +12179,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12379,7 +12385,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12460,7 +12466,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ56">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR56">
         <v>1.34</v>
@@ -12585,7 +12591,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12791,7 +12797,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13409,7 +13415,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13615,7 +13621,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14027,7 +14033,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14439,7 +14445,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14517,7 +14523,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ66">
         <v>1.43</v>
@@ -14645,7 +14651,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14851,7 +14857,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15469,7 +15475,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15550,7 +15556,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ71">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR71">
         <v>1.4</v>
@@ -15675,7 +15681,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15881,7 +15887,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16087,7 +16093,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16293,7 +16299,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16705,7 +16711,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16911,7 +16917,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -16992,7 +16998,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -17117,7 +17123,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17735,7 +17741,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18147,7 +18153,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18353,7 +18359,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18559,7 +18565,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18637,7 +18643,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ86">
         <v>0.67</v>
@@ -18765,7 +18771,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -18971,7 +18977,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19177,7 +19183,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19383,7 +19389,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19589,7 +19595,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19795,7 +19801,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20094,22 +20100,22 @@
         <v>2.43</v>
       </c>
       <c r="AU93">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AV93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW93">
         <v>4</v>
       </c>
       <c r="AX93">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY93">
+        <v>15</v>
+      </c>
+      <c r="AZ93">
         <v>10</v>
-      </c>
-      <c r="AZ93">
-        <v>9</v>
       </c>
       <c r="BA93">
         <v>7</v>
@@ -20207,7 +20213,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20300,22 +20306,22 @@
         <v>2.96</v>
       </c>
       <c r="AU94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV94">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX94">
         <v>5</v>
       </c>
       <c r="AY94">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ94">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA94">
         <v>2</v>
@@ -20413,7 +20419,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20570,6 +20576,212 @@
       </c>
       <c r="BP95">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7321701</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45425.83333333334</v>
+      </c>
+      <c r="F96">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>84</v>
+      </c>
+      <c r="H96" t="s">
+        <v>77</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>2</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>150</v>
+      </c>
+      <c r="P96" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q96">
+        <v>4.33</v>
+      </c>
+      <c r="R96">
+        <v>2.2</v>
+      </c>
+      <c r="S96">
+        <v>2.5</v>
+      </c>
+      <c r="T96">
+        <v>1.36</v>
+      </c>
+      <c r="U96">
+        <v>3</v>
+      </c>
+      <c r="V96">
+        <v>2.75</v>
+      </c>
+      <c r="W96">
+        <v>1.4</v>
+      </c>
+      <c r="X96">
+        <v>7</v>
+      </c>
+      <c r="Y96">
+        <v>1.1</v>
+      </c>
+      <c r="Z96">
+        <v>3.48</v>
+      </c>
+      <c r="AA96">
+        <v>3.17</v>
+      </c>
+      <c r="AB96">
+        <v>1.93</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>9.6</v>
+      </c>
+      <c r="AE96">
+        <v>1.25</v>
+      </c>
+      <c r="AF96">
+        <v>3.42</v>
+      </c>
+      <c r="AG96">
+        <v>1.93</v>
+      </c>
+      <c r="AH96">
+        <v>1.93</v>
+      </c>
+      <c r="AI96">
+        <v>1.73</v>
+      </c>
+      <c r="AJ96">
+        <v>2</v>
+      </c>
+      <c r="AK96">
+        <v>1.93</v>
+      </c>
+      <c r="AL96">
+        <v>1.26</v>
+      </c>
+      <c r="AM96">
+        <v>1.22</v>
+      </c>
+      <c r="AN96">
+        <v>0.67</v>
+      </c>
+      <c r="AO96">
+        <v>2.67</v>
+      </c>
+      <c r="AP96">
+        <v>0.57</v>
+      </c>
+      <c r="AQ96">
+        <v>2.71</v>
+      </c>
+      <c r="AR96">
+        <v>1.45</v>
+      </c>
+      <c r="AS96">
+        <v>1.67</v>
+      </c>
+      <c r="AT96">
+        <v>3.12</v>
+      </c>
+      <c r="AU96">
+        <v>6</v>
+      </c>
+      <c r="AV96">
+        <v>10</v>
+      </c>
+      <c r="AW96">
+        <v>1</v>
+      </c>
+      <c r="AX96">
+        <v>12</v>
+      </c>
+      <c r="AY96">
+        <v>7</v>
+      </c>
+      <c r="AZ96">
+        <v>22</v>
+      </c>
+      <c r="BA96">
+        <v>1</v>
+      </c>
+      <c r="BB96">
+        <v>5</v>
+      </c>
+      <c r="BC96">
+        <v>6</v>
+      </c>
+      <c r="BD96">
+        <v>2.89</v>
+      </c>
+      <c r="BE96">
+        <v>8.5</v>
+      </c>
+      <c r="BF96">
+        <v>1.59</v>
+      </c>
+      <c r="BG96">
+        <v>1.26</v>
+      </c>
+      <c r="BH96">
+        <v>3.25</v>
+      </c>
+      <c r="BI96">
+        <v>1.48</v>
+      </c>
+      <c r="BJ96">
+        <v>2.47</v>
+      </c>
+      <c r="BK96">
+        <v>1.85</v>
+      </c>
+      <c r="BL96">
+        <v>1.85</v>
+      </c>
+      <c r="BM96">
+        <v>2.37</v>
+      </c>
+      <c r="BN96">
+        <v>1.51</v>
+      </c>
+      <c r="BO96">
+        <v>3.3</v>
+      </c>
+      <c r="BP96">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -4103,7 +4103,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7321755</v>
+        <v>7321630</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -4118,190 +4118,190 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q16">
-        <v>3.75</v>
+        <v>2.54</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S16">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="T16">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="U16">
+        <v>3.04</v>
+      </c>
+      <c r="V16">
         <v>2.6</v>
       </c>
-      <c r="V16">
-        <v>3.2</v>
-      </c>
       <c r="W16">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="X16">
-        <v>8.449999999999999</v>
+        <v>6.35</v>
       </c>
       <c r="Y16">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="Z16">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="AA16">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB16">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="AC16">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AD16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE16">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AF16">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="AG16">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="AH16">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="AI16">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AJ16">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="AK16">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AL16">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM16">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AN16">
         <v>3</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1.83</v>
       </c>
       <c r="AQ16">
-        <v>1.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR16">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AS16">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>2.48</v>
+        <v>1.44</v>
       </c>
       <c r="AU16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV16">
         <v>4</v>
       </c>
       <c r="AW16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY16">
+        <v>13</v>
+      </c>
+      <c r="AZ16">
+        <v>5</v>
+      </c>
+      <c r="BA16">
+        <v>6</v>
+      </c>
+      <c r="BB16">
+        <v>5</v>
+      </c>
+      <c r="BC16">
         <v>11</v>
       </c>
-      <c r="AZ16">
-        <v>7</v>
-      </c>
-      <c r="BA16">
-        <v>4</v>
-      </c>
-      <c r="BB16">
-        <v>9</v>
-      </c>
-      <c r="BC16">
-        <v>13</v>
-      </c>
       <c r="BD16">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="BE16">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF16">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="BG16">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BH16">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="BI16">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="BJ16">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="BK16">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="BL16">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="BM16">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="BN16">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BO16">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="BP16">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4309,7 +4309,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7321630</v>
+        <v>7321755</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4324,190 +4324,190 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q17">
-        <v>2.54</v>
+        <v>3.75</v>
       </c>
       <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>3.1</v>
+      </c>
+      <c r="T17">
+        <v>1.44</v>
+      </c>
+      <c r="U17">
+        <v>2.6</v>
+      </c>
+      <c r="V17">
+        <v>3.2</v>
+      </c>
+      <c r="W17">
+        <v>1.31</v>
+      </c>
+      <c r="X17">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y17">
+        <v>1.04</v>
+      </c>
+      <c r="Z17">
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <v>3.2</v>
+      </c>
+      <c r="AB17">
         <v>2.2</v>
       </c>
-      <c r="S17">
-        <v>3.9</v>
-      </c>
-      <c r="T17">
-        <v>1.35</v>
-      </c>
-      <c r="U17">
-        <v>3.04</v>
-      </c>
-      <c r="V17">
-        <v>2.6</v>
-      </c>
-      <c r="W17">
-        <v>1.46</v>
-      </c>
-      <c r="X17">
-        <v>6.35</v>
-      </c>
-      <c r="Y17">
-        <v>1.1</v>
-      </c>
-      <c r="Z17">
-        <v>1.91</v>
-      </c>
-      <c r="AA17">
-        <v>3.6</v>
-      </c>
-      <c r="AB17">
-        <v>3.15</v>
-      </c>
       <c r="AC17">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE17">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AF17">
-        <v>3.65</v>
+        <v>2.95</v>
       </c>
       <c r="AG17">
-        <v>1.75</v>
+        <v>2.09</v>
       </c>
       <c r="AH17">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="AI17">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AJ17">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="AK17">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AL17">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AM17">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AN17">
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17">
-        <v>2.33</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AT17">
-        <v>1.44</v>
+        <v>2.48</v>
       </c>
       <c r="AU17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV17">
         <v>4</v>
       </c>
       <c r="AW17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY17">
+        <v>11</v>
+      </c>
+      <c r="AZ17">
+        <v>7</v>
+      </c>
+      <c r="BA17">
+        <v>4</v>
+      </c>
+      <c r="BB17">
+        <v>9</v>
+      </c>
+      <c r="BC17">
         <v>13</v>
       </c>
-      <c r="AZ17">
-        <v>5</v>
-      </c>
-      <c r="BA17">
-        <v>6</v>
-      </c>
-      <c r="BB17">
-        <v>5</v>
-      </c>
-      <c r="BC17">
-        <v>11</v>
-      </c>
       <c r="BD17">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="BE17">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF17">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
       <c r="BG17">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH17">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="BI17">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="BJ17">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="BK17">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="BL17">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="BM17">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="BN17">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="BO17">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="BP17">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="18" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,15 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['74', '79']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -641,6 +650,12 @@
   </si>
   <si>
     <t>['45+7', '54', '90+9']</t>
+  </si>
+  <si>
+    <t>['8', '43']</t>
+  </si>
+  <si>
+    <t>['22', '61']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP96"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1467,7 +1482,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1673,7 +1688,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1879,7 +1894,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1957,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ5">
         <v>0.83</v>
@@ -2085,7 +2100,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2166,7 +2181,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2291,7 +2306,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2497,7 +2512,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2781,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1.43</v>
@@ -3115,7 +3130,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3321,7 +3336,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3733,7 +3748,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3939,7 +3954,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4017,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ15">
         <v>0.83</v>
@@ -4145,7 +4160,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4226,7 +4241,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ16">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR16">
         <v>1.44</v>
@@ -4351,7 +4366,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4557,7 +4572,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -5175,7 +5190,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5256,7 +5271,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ21">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5381,7 +5396,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5587,7 +5602,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6205,7 +6220,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6411,7 +6426,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6823,7 +6838,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7029,7 +7044,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7441,7 +7456,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7519,7 +7534,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -7725,7 +7740,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1.2</v>
@@ -7931,7 +7946,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ34">
         <v>0.75</v>
@@ -8964,7 +8979,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ39">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -9167,7 +9182,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9295,7 +9310,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9373,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -9501,7 +9516,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9707,7 +9722,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9788,7 +9803,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9913,7 +9928,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10200,7 +10215,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10325,7 +10340,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10737,7 +10752,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10815,7 +10830,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ48">
         <v>2.71</v>
@@ -10943,7 +10958,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11230,7 +11245,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11845,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ53">
         <v>1.43</v>
@@ -11973,7 +11988,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12179,7 +12194,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12385,7 +12400,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12591,7 +12606,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12797,7 +12812,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12878,7 +12893,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ58">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR58">
         <v>1.99</v>
@@ -13287,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1.33</v>
@@ -13415,7 +13430,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13621,7 +13636,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14033,7 +14048,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14445,7 +14460,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14651,7 +14666,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14857,7 +14872,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15350,7 +15365,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15475,7 +15490,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15681,7 +15696,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15887,7 +15902,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -15965,7 +15980,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
         <v>1.43</v>
@@ -16093,7 +16108,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16299,7 +16314,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16380,7 +16395,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -16711,7 +16726,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16789,7 +16804,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ77">
         <v>1.33</v>
@@ -16917,7 +16932,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17123,7 +17138,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17741,7 +17756,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18153,7 +18168,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18359,7 +18374,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18440,7 +18455,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ85">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -18565,7 +18580,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18771,7 +18786,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -18849,10 +18864,10 @@
         <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR87">
         <v>1.35</v>
@@ -18977,7 +18992,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19055,7 +19070,7 @@
         <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ88">
         <v>1.43</v>
@@ -19183,7 +19198,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19389,7 +19404,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19595,7 +19610,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19801,7 +19816,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -19879,7 +19894,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ92">
         <v>0.83</v>
@@ -20213,7 +20228,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20419,7 +20434,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20625,7 +20640,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20782,6 +20797,624 @@
       </c>
       <c r="BP96">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7321711</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45430.5625</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H97" t="s">
+        <v>72</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>151</v>
+      </c>
+      <c r="P97" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q97">
+        <v>2.08</v>
+      </c>
+      <c r="R97">
+        <v>2.38</v>
+      </c>
+      <c r="S97">
+        <v>4.9</v>
+      </c>
+      <c r="T97">
+        <v>1.3</v>
+      </c>
+      <c r="U97">
+        <v>3.34</v>
+      </c>
+      <c r="V97">
+        <v>2.4</v>
+      </c>
+      <c r="W97">
+        <v>1.53</v>
+      </c>
+      <c r="X97">
+        <v>5.55</v>
+      </c>
+      <c r="Y97">
+        <v>1.12</v>
+      </c>
+      <c r="Z97">
+        <v>1.57</v>
+      </c>
+      <c r="AA97">
+        <v>4.1</v>
+      </c>
+      <c r="AB97">
+        <v>5.2</v>
+      </c>
+      <c r="AC97">
+        <v>1.01</v>
+      </c>
+      <c r="AD97">
+        <v>12</v>
+      </c>
+      <c r="AE97">
+        <v>1.17</v>
+      </c>
+      <c r="AF97">
+        <v>4.25</v>
+      </c>
+      <c r="AG97">
+        <v>1.65</v>
+      </c>
+      <c r="AH97">
+        <v>2.1</v>
+      </c>
+      <c r="AI97">
+        <v>1.67</v>
+      </c>
+      <c r="AJ97">
+        <v>2.08</v>
+      </c>
+      <c r="AK97">
+        <v>1.15</v>
+      </c>
+      <c r="AL97">
+        <v>1.21</v>
+      </c>
+      <c r="AM97">
+        <v>2.3</v>
+      </c>
+      <c r="AN97">
+        <v>1.6</v>
+      </c>
+      <c r="AO97">
+        <v>0</v>
+      </c>
+      <c r="AP97">
+        <v>1.83</v>
+      </c>
+      <c r="AQ97">
+        <v>0</v>
+      </c>
+      <c r="AR97">
+        <v>1.71</v>
+      </c>
+      <c r="AS97">
+        <v>1.06</v>
+      </c>
+      <c r="AT97">
+        <v>2.77</v>
+      </c>
+      <c r="AU97">
+        <v>6</v>
+      </c>
+      <c r="AV97">
+        <v>7</v>
+      </c>
+      <c r="AW97">
+        <v>13</v>
+      </c>
+      <c r="AX97">
+        <v>9</v>
+      </c>
+      <c r="AY97">
+        <v>19</v>
+      </c>
+      <c r="AZ97">
+        <v>16</v>
+      </c>
+      <c r="BA97">
+        <v>9</v>
+      </c>
+      <c r="BB97">
+        <v>8</v>
+      </c>
+      <c r="BC97">
+        <v>17</v>
+      </c>
+      <c r="BD97">
+        <v>1.51</v>
+      </c>
+      <c r="BE97">
+        <v>9</v>
+      </c>
+      <c r="BF97">
+        <v>3.06</v>
+      </c>
+      <c r="BG97">
+        <v>1.15</v>
+      </c>
+      <c r="BH97">
+        <v>4.4</v>
+      </c>
+      <c r="BI97">
+        <v>1.3</v>
+      </c>
+      <c r="BJ97">
+        <v>3.05</v>
+      </c>
+      <c r="BK97">
+        <v>1.54</v>
+      </c>
+      <c r="BL97">
+        <v>2.23</v>
+      </c>
+      <c r="BM97">
+        <v>1.89</v>
+      </c>
+      <c r="BN97">
+        <v>1.75</v>
+      </c>
+      <c r="BO97">
+        <v>2.43</v>
+      </c>
+      <c r="BP97">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7321710</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45430.66666666666</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" t="s">
+        <v>79</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>152</v>
+      </c>
+      <c r="P98" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q98">
+        <v>3.35</v>
+      </c>
+      <c r="R98">
+        <v>2.14</v>
+      </c>
+      <c r="S98">
+        <v>2.95</v>
+      </c>
+      <c r="T98">
+        <v>1.36</v>
+      </c>
+      <c r="U98">
+        <v>2.99</v>
+      </c>
+      <c r="V98">
+        <v>2.6</v>
+      </c>
+      <c r="W98">
+        <v>1.46</v>
+      </c>
+      <c r="X98">
+        <v>6.3</v>
+      </c>
+      <c r="Y98">
+        <v>1.1</v>
+      </c>
+      <c r="Z98">
+        <v>2.6</v>
+      </c>
+      <c r="AA98">
+        <v>3.3</v>
+      </c>
+      <c r="AB98">
+        <v>2.5</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE98">
+        <v>1.22</v>
+      </c>
+      <c r="AF98">
+        <v>3.65</v>
+      </c>
+      <c r="AG98">
+        <v>1.72</v>
+      </c>
+      <c r="AH98">
+        <v>1.93</v>
+      </c>
+      <c r="AI98">
+        <v>1.6</v>
+      </c>
+      <c r="AJ98">
+        <v>2.19</v>
+      </c>
+      <c r="AK98">
+        <v>1.53</v>
+      </c>
+      <c r="AL98">
+        <v>1.3</v>
+      </c>
+      <c r="AM98">
+        <v>1.42</v>
+      </c>
+      <c r="AN98">
+        <v>1.17</v>
+      </c>
+      <c r="AO98">
+        <v>1.67</v>
+      </c>
+      <c r="AP98">
+        <v>1.14</v>
+      </c>
+      <c r="AQ98">
+        <v>1.57</v>
+      </c>
+      <c r="AR98">
+        <v>1.82</v>
+      </c>
+      <c r="AS98">
+        <v>1.61</v>
+      </c>
+      <c r="AT98">
+        <v>3.43</v>
+      </c>
+      <c r="AU98">
+        <v>11</v>
+      </c>
+      <c r="AV98">
+        <v>8</v>
+      </c>
+      <c r="AW98">
+        <v>13</v>
+      </c>
+      <c r="AX98">
+        <v>4</v>
+      </c>
+      <c r="AY98">
+        <v>24</v>
+      </c>
+      <c r="AZ98">
+        <v>12</v>
+      </c>
+      <c r="BA98">
+        <v>9</v>
+      </c>
+      <c r="BB98">
+        <v>0</v>
+      </c>
+      <c r="BC98">
+        <v>9</v>
+      </c>
+      <c r="BD98">
+        <v>1.91</v>
+      </c>
+      <c r="BE98">
+        <v>8</v>
+      </c>
+      <c r="BF98">
+        <v>2.2</v>
+      </c>
+      <c r="BG98">
+        <v>1.3</v>
+      </c>
+      <c r="BH98">
+        <v>3.05</v>
+      </c>
+      <c r="BI98">
+        <v>1.55</v>
+      </c>
+      <c r="BJ98">
+        <v>2.2</v>
+      </c>
+      <c r="BK98">
+        <v>1.94</v>
+      </c>
+      <c r="BL98">
+        <v>1.71</v>
+      </c>
+      <c r="BM98">
+        <v>2.55</v>
+      </c>
+      <c r="BN98">
+        <v>1.41</v>
+      </c>
+      <c r="BO98">
+        <v>3.5</v>
+      </c>
+      <c r="BP98">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7321709</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45430.77083333334</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" t="s">
+        <v>75</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>153</v>
+      </c>
+      <c r="P99" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q99">
+        <v>2.4</v>
+      </c>
+      <c r="R99">
+        <v>2.23</v>
+      </c>
+      <c r="S99">
+        <v>4.3</v>
+      </c>
+      <c r="T99">
+        <v>1.32</v>
+      </c>
+      <c r="U99">
+        <v>3.05</v>
+      </c>
+      <c r="V99">
+        <v>2.8</v>
+      </c>
+      <c r="W99">
+        <v>1.38</v>
+      </c>
+      <c r="X99">
+        <v>6.7</v>
+      </c>
+      <c r="Y99">
+        <v>1.09</v>
+      </c>
+      <c r="Z99">
+        <v>1.85</v>
+      </c>
+      <c r="AA99">
+        <v>3.35</v>
+      </c>
+      <c r="AB99">
+        <v>3.85</v>
+      </c>
+      <c r="AC99">
+        <v>1.01</v>
+      </c>
+      <c r="AD99">
+        <v>9.6</v>
+      </c>
+      <c r="AE99">
+        <v>1.24</v>
+      </c>
+      <c r="AF99">
+        <v>3.48</v>
+      </c>
+      <c r="AG99">
+        <v>1.97</v>
+      </c>
+      <c r="AH99">
+        <v>1.69</v>
+      </c>
+      <c r="AI99">
+        <v>1.78</v>
+      </c>
+      <c r="AJ99">
+        <v>1.96</v>
+      </c>
+      <c r="AK99">
+        <v>1.2</v>
+      </c>
+      <c r="AL99">
+        <v>1.25</v>
+      </c>
+      <c r="AM99">
+        <v>1.93</v>
+      </c>
+      <c r="AN99">
+        <v>1.8</v>
+      </c>
+      <c r="AO99">
+        <v>2.33</v>
+      </c>
+      <c r="AP99">
+        <v>1.5</v>
+      </c>
+      <c r="AQ99">
+        <v>2.43</v>
+      </c>
+      <c r="AR99">
+        <v>1.41</v>
+      </c>
+      <c r="AS99">
+        <v>1.07</v>
+      </c>
+      <c r="AT99">
+        <v>2.48</v>
+      </c>
+      <c r="AU99">
+        <v>7</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>8</v>
+      </c>
+      <c r="AX99">
+        <v>9</v>
+      </c>
+      <c r="AY99">
+        <v>15</v>
+      </c>
+      <c r="AZ99">
+        <v>14</v>
+      </c>
+      <c r="BA99">
+        <v>9</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>13</v>
+      </c>
+      <c r="BD99">
+        <v>1.34</v>
+      </c>
+      <c r="BE99">
+        <v>9</v>
+      </c>
+      <c r="BF99">
+        <v>4.09</v>
+      </c>
+      <c r="BG99">
+        <v>1.34</v>
+      </c>
+      <c r="BH99">
+        <v>2.85</v>
+      </c>
+      <c r="BI99">
+        <v>1.61</v>
+      </c>
+      <c r="BJ99">
+        <v>2.1</v>
+      </c>
+      <c r="BK99">
+        <v>2.04</v>
+      </c>
+      <c r="BL99">
+        <v>1.64</v>
+      </c>
+      <c r="BM99">
+        <v>2.7</v>
+      </c>
+      <c r="BN99">
+        <v>1.37</v>
+      </c>
+      <c r="BO99">
+        <v>3.7</v>
+      </c>
+      <c r="BP99">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,12 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>['25', '29']</t>
+  </si>
+  <si>
+    <t>['38', '66']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -656,6 +662,9 @@
   </si>
   <si>
     <t>['22', '61']</t>
+  </si>
+  <si>
+    <t>['68', '81']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1482,7 +1491,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1688,7 +1697,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1769,7 +1778,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1894,7 +1903,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2100,7 +2109,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2306,7 +2315,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2512,7 +2521,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3130,7 +3139,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3336,7 +3345,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3748,7 +3757,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3954,7 +3963,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4160,7 +4169,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4366,7 +4375,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4572,7 +4581,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4650,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ18">
         <v>1.43</v>
@@ -5062,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.83</v>
@@ -5190,7 +5199,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5396,7 +5405,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5602,7 +5611,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6095,7 +6104,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR25">
         <v>1.54</v>
@@ -6220,7 +6229,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6426,7 +6435,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6504,7 +6513,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>2.71</v>
@@ -6710,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6838,7 +6847,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7044,7 +7053,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7456,7 +7465,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7743,7 +7752,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -9185,7 +9194,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -9310,7 +9319,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9516,7 +9525,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9722,7 +9731,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9928,7 +9937,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10009,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10340,7 +10349,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10418,7 +10427,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.43</v>
@@ -10752,7 +10761,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10958,7 +10967,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11448,7 +11457,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ51">
         <v>1.57</v>
@@ -11988,7 +11997,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12069,7 +12078,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ54">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR54">
         <v>1.39</v>
@@ -12194,7 +12203,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12400,7 +12409,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12606,7 +12615,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12812,7 +12821,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13430,7 +13439,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13508,10 +13517,10 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
+        <v>1.57</v>
+      </c>
+      <c r="AQ61">
         <v>1.67</v>
-      </c>
-      <c r="AQ61">
-        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.37</v>
@@ -13636,7 +13645,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14048,7 +14057,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14126,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14460,7 +14469,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14666,7 +14675,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14872,7 +14881,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15159,7 +15168,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ69">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
@@ -15490,7 +15499,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15696,7 +15705,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15902,7 +15911,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16108,7 +16117,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16314,7 +16323,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16598,7 +16607,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16726,7 +16735,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16932,7 +16941,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17138,7 +17147,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17216,7 +17225,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17425,7 +17434,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR80">
         <v>1.94</v>
@@ -17756,7 +17765,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18168,7 +18177,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18374,7 +18383,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18580,7 +18589,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18786,7 +18795,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -18992,7 +19001,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19198,7 +19207,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19404,7 +19413,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19610,7 +19619,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19691,7 +19700,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ91">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -19816,7 +19825,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20228,7 +20237,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20434,7 +20443,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20640,7 +20649,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20942,16 +20951,16 @@
         <v>6</v>
       </c>
       <c r="AV97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW97">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY97">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ97">
         <v>16</v>
@@ -21052,7 +21061,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21145,22 +21154,22 @@
         <v>3.43</v>
       </c>
       <c r="AU98">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV98">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW98">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AX98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY98">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AZ98">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BA98">
         <v>9</v>
@@ -21258,7 +21267,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21354,19 +21363,19 @@
         <v>7</v>
       </c>
       <c r="AV99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW99">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX99">
+        <v>7</v>
+      </c>
+      <c r="AY99">
+        <v>10</v>
+      </c>
+      <c r="AZ99">
         <v>9</v>
-      </c>
-      <c r="AY99">
-        <v>15</v>
-      </c>
-      <c r="AZ99">
-        <v>14</v>
       </c>
       <c r="BA99">
         <v>9</v>
@@ -21415,6 +21424,418 @@
       </c>
       <c r="BP99">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7321715</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45431.5625</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>70</v>
+      </c>
+      <c r="H100" t="s">
+        <v>81</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>2</v>
+      </c>
+      <c r="N100">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>154</v>
+      </c>
+      <c r="P100" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q100">
+        <v>2.6</v>
+      </c>
+      <c r="R100">
+        <v>2.05</v>
+      </c>
+      <c r="S100">
+        <v>4.33</v>
+      </c>
+      <c r="T100">
+        <v>1.42</v>
+      </c>
+      <c r="U100">
+        <v>2.62</v>
+      </c>
+      <c r="V100">
+        <v>3</v>
+      </c>
+      <c r="W100">
+        <v>1.33</v>
+      </c>
+      <c r="X100">
+        <v>7</v>
+      </c>
+      <c r="Y100">
+        <v>1.07</v>
+      </c>
+      <c r="Z100">
+        <v>1.85</v>
+      </c>
+      <c r="AA100">
+        <v>3.4</v>
+      </c>
+      <c r="AB100">
+        <v>3.8</v>
+      </c>
+      <c r="AC100">
+        <v>1.04</v>
+      </c>
+      <c r="AD100">
+        <v>8.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.33</v>
+      </c>
+      <c r="AF100">
+        <v>3</v>
+      </c>
+      <c r="AG100">
+        <v>2</v>
+      </c>
+      <c r="AH100">
+        <v>1.67</v>
+      </c>
+      <c r="AI100">
+        <v>1.88</v>
+      </c>
+      <c r="AJ100">
+        <v>1.83</v>
+      </c>
+      <c r="AK100">
+        <v>1.25</v>
+      </c>
+      <c r="AL100">
+        <v>1.33</v>
+      </c>
+      <c r="AM100">
+        <v>1.83</v>
+      </c>
+      <c r="AN100">
+        <v>1.67</v>
+      </c>
+      <c r="AO100">
+        <v>1.2</v>
+      </c>
+      <c r="AP100">
+        <v>1.57</v>
+      </c>
+      <c r="AQ100">
+        <v>1.17</v>
+      </c>
+      <c r="AR100">
+        <v>1.56</v>
+      </c>
+      <c r="AS100">
+        <v>1.47</v>
+      </c>
+      <c r="AT100">
+        <v>3.03</v>
+      </c>
+      <c r="AU100">
+        <v>3</v>
+      </c>
+      <c r="AV100">
+        <v>4</v>
+      </c>
+      <c r="AW100">
+        <v>7</v>
+      </c>
+      <c r="AX100">
+        <v>2</v>
+      </c>
+      <c r="AY100">
+        <v>10</v>
+      </c>
+      <c r="AZ100">
+        <v>6</v>
+      </c>
+      <c r="BA100">
+        <v>2</v>
+      </c>
+      <c r="BB100">
+        <v>3</v>
+      </c>
+      <c r="BC100">
+        <v>5</v>
+      </c>
+      <c r="BD100">
+        <v>1.59</v>
+      </c>
+      <c r="BE100">
+        <v>8</v>
+      </c>
+      <c r="BF100">
+        <v>2.8</v>
+      </c>
+      <c r="BG100">
+        <v>1.23</v>
+      </c>
+      <c r="BH100">
+        <v>3.5</v>
+      </c>
+      <c r="BI100">
+        <v>1.43</v>
+      </c>
+      <c r="BJ100">
+        <v>2.48</v>
+      </c>
+      <c r="BK100">
+        <v>1.75</v>
+      </c>
+      <c r="BL100">
+        <v>1.89</v>
+      </c>
+      <c r="BM100">
+        <v>2.25</v>
+      </c>
+      <c r="BN100">
+        <v>1.53</v>
+      </c>
+      <c r="BO100">
+        <v>3</v>
+      </c>
+      <c r="BP100">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7321714</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45431.77083333334</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>83</v>
+      </c>
+      <c r="H101" t="s">
+        <v>78</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>155</v>
+      </c>
+      <c r="P101" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q101">
+        <v>2.15</v>
+      </c>
+      <c r="R101">
+        <v>2.25</v>
+      </c>
+      <c r="S101">
+        <v>5.25</v>
+      </c>
+      <c r="T101">
+        <v>1.33</v>
+      </c>
+      <c r="U101">
+        <v>3</v>
+      </c>
+      <c r="V101">
+        <v>2.5</v>
+      </c>
+      <c r="W101">
+        <v>1.48</v>
+      </c>
+      <c r="X101">
+        <v>5.75</v>
+      </c>
+      <c r="Y101">
+        <v>1.1</v>
+      </c>
+      <c r="Z101">
+        <v>1.62</v>
+      </c>
+      <c r="AA101">
+        <v>3.8</v>
+      </c>
+      <c r="AB101">
+        <v>4.6</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>9.9</v>
+      </c>
+      <c r="AE101">
+        <v>1.27</v>
+      </c>
+      <c r="AF101">
+        <v>3.76</v>
+      </c>
+      <c r="AG101">
+        <v>1.75</v>
+      </c>
+      <c r="AH101">
+        <v>1.91</v>
+      </c>
+      <c r="AI101">
+        <v>1.8</v>
+      </c>
+      <c r="AJ101">
+        <v>1.91</v>
+      </c>
+      <c r="AK101">
+        <v>1.16</v>
+      </c>
+      <c r="AL101">
+        <v>1.2</v>
+      </c>
+      <c r="AM101">
+        <v>1.92</v>
+      </c>
+      <c r="AN101">
+        <v>1.8</v>
+      </c>
+      <c r="AO101">
+        <v>2</v>
+      </c>
+      <c r="AP101">
+        <v>2</v>
+      </c>
+      <c r="AQ101">
+        <v>1.67</v>
+      </c>
+      <c r="AR101">
+        <v>2.17</v>
+      </c>
+      <c r="AS101">
+        <v>1.43</v>
+      </c>
+      <c r="AT101">
+        <v>3.6</v>
+      </c>
+      <c r="AU101">
+        <v>4</v>
+      </c>
+      <c r="AV101">
+        <v>0</v>
+      </c>
+      <c r="AW101">
+        <v>3</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>7</v>
+      </c>
+      <c r="AZ101">
+        <v>5</v>
+      </c>
+      <c r="BA101">
+        <v>1</v>
+      </c>
+      <c r="BB101">
+        <v>2</v>
+      </c>
+      <c r="BC101">
+        <v>3</v>
+      </c>
+      <c r="BD101">
+        <v>1.51</v>
+      </c>
+      <c r="BE101">
+        <v>8.5</v>
+      </c>
+      <c r="BF101">
+        <v>3.16</v>
+      </c>
+      <c r="BG101">
+        <v>1.23</v>
+      </c>
+      <c r="BH101">
+        <v>3.5</v>
+      </c>
+      <c r="BI101">
+        <v>1.43</v>
+      </c>
+      <c r="BJ101">
+        <v>2.48</v>
+      </c>
+      <c r="BK101">
+        <v>1.75</v>
+      </c>
+      <c r="BL101">
+        <v>1.89</v>
+      </c>
+      <c r="BM101">
+        <v>2.25</v>
+      </c>
+      <c r="BN101">
+        <v>1.53</v>
+      </c>
+      <c r="BO101">
+        <v>3</v>
+      </c>
+      <c r="BP101">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -20951,16 +20951,16 @@
         <v>6</v>
       </c>
       <c r="AV97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW97">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AX97">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY97">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ97">
         <v>16</v>
@@ -21154,22 +21154,22 @@
         <v>3.43</v>
       </c>
       <c r="AU98">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV98">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW98">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AX98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY98">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ98">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA98">
         <v>9</v>
@@ -21363,19 +21363,19 @@
         <v>7</v>
       </c>
       <c r="AV99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW99">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX99">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY99">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ99">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA99">
         <v>9</v>
@@ -21772,22 +21772,22 @@
         <v>3.6</v>
       </c>
       <c r="AU101">
+        <v>6</v>
+      </c>
+      <c r="AV101">
+        <v>2</v>
+      </c>
+      <c r="AW101">
         <v>4</v>
       </c>
-      <c r="AV101">
-        <v>0</v>
-      </c>
-      <c r="AW101">
-        <v>3</v>
-      </c>
       <c r="AX101">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ101">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA101">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,10 +310,10 @@
     <t>['45+5', '59']</t>
   </si>
   <si>
-    <t>['90+3']</t>
+    <t>['29']</t>
   </si>
   <si>
-    <t>['29']</t>
+    <t>['90+3']</t>
   </si>
   <si>
     <t>['47', '81']</t>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>['38', '66']</t>
+  </si>
+  <si>
+    <t>['16', '87']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -665,6 +668,12 @@
   </si>
   <si>
     <t>['68', '81']</t>
+  </si>
+  <si>
+    <t>['39', '42', '63']</t>
+  </si>
+  <si>
+    <t>['20']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1375,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1491,7 +1500,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1697,7 +1706,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1903,7 +1912,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2109,7 +2118,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2315,7 +2324,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2521,7 +2530,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2808,7 +2817,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ9">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3139,7 +3148,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3345,7 +3354,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3423,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3757,7 +3766,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3835,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -3963,7 +3972,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4127,7 +4136,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7321630</v>
+        <v>7321755</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -4142,190 +4151,190 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q16">
-        <v>2.54</v>
+        <v>3.75</v>
       </c>
       <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>3.1</v>
+      </c>
+      <c r="T16">
+        <v>1.44</v>
+      </c>
+      <c r="U16">
+        <v>2.6</v>
+      </c>
+      <c r="V16">
+        <v>3.2</v>
+      </c>
+      <c r="W16">
+        <v>1.31</v>
+      </c>
+      <c r="X16">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y16">
+        <v>1.04</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>3.2</v>
+      </c>
+      <c r="AB16">
         <v>2.2</v>
       </c>
-      <c r="S16">
-        <v>3.9</v>
-      </c>
-      <c r="T16">
-        <v>1.35</v>
-      </c>
-      <c r="U16">
-        <v>3.04</v>
-      </c>
-      <c r="V16">
-        <v>2.6</v>
-      </c>
-      <c r="W16">
-        <v>1.46</v>
-      </c>
-      <c r="X16">
-        <v>6.35</v>
-      </c>
-      <c r="Y16">
-        <v>1.1</v>
-      </c>
-      <c r="Z16">
-        <v>1.91</v>
-      </c>
-      <c r="AA16">
-        <v>3.6</v>
-      </c>
-      <c r="AB16">
-        <v>3.15</v>
-      </c>
       <c r="AC16">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE16">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AF16">
-        <v>3.65</v>
+        <v>2.95</v>
       </c>
       <c r="AG16">
-        <v>1.75</v>
+        <v>2.09</v>
       </c>
       <c r="AH16">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="AI16">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AJ16">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="AK16">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AL16">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AM16">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AN16">
         <v>3</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>2.43</v>
+        <v>1.43</v>
       </c>
       <c r="AR16">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AT16">
-        <v>1.44</v>
+        <v>2.48</v>
       </c>
       <c r="AU16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV16">
         <v>4</v>
       </c>
       <c r="AW16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY16">
+        <v>11</v>
+      </c>
+      <c r="AZ16">
+        <v>7</v>
+      </c>
+      <c r="BA16">
+        <v>4</v>
+      </c>
+      <c r="BB16">
+        <v>9</v>
+      </c>
+      <c r="BC16">
         <v>13</v>
       </c>
-      <c r="AZ16">
-        <v>5</v>
-      </c>
-      <c r="BA16">
-        <v>6</v>
-      </c>
-      <c r="BB16">
-        <v>5</v>
-      </c>
-      <c r="BC16">
-        <v>11</v>
-      </c>
       <c r="BD16">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="BE16">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF16">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
       <c r="BG16">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH16">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="BI16">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="BJ16">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="BK16">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="BL16">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="BM16">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="BN16">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="BO16">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="BP16">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4333,7 +4342,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7321755</v>
+        <v>7321630</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4348,190 +4357,190 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q17">
-        <v>3.75</v>
+        <v>2.54</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S17">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="T17">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="U17">
+        <v>3.04</v>
+      </c>
+      <c r="V17">
         <v>2.6</v>
       </c>
-      <c r="V17">
-        <v>3.2</v>
-      </c>
       <c r="W17">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="X17">
-        <v>8.449999999999999</v>
+        <v>6.35</v>
       </c>
       <c r="Y17">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="Z17">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="AA17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB17">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="AC17">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AD17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE17">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AF17">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="AG17">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="AH17">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="AI17">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AJ17">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="AK17">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AL17">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM17">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AN17">
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.14</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>2.43</v>
       </c>
       <c r="AR17">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AS17">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.48</v>
+        <v>1.44</v>
       </c>
       <c r="AU17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV17">
         <v>4</v>
       </c>
       <c r="AW17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY17">
+        <v>13</v>
+      </c>
+      <c r="AZ17">
+        <v>5</v>
+      </c>
+      <c r="BA17">
+        <v>6</v>
+      </c>
+      <c r="BB17">
+        <v>5</v>
+      </c>
+      <c r="BC17">
         <v>11</v>
       </c>
-      <c r="AZ17">
-        <v>7</v>
-      </c>
-      <c r="BA17">
-        <v>4</v>
-      </c>
-      <c r="BB17">
-        <v>9</v>
-      </c>
-      <c r="BC17">
-        <v>13</v>
-      </c>
       <c r="BD17">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="BE17">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF17">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="BG17">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BH17">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="BI17">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="BJ17">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="BK17">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="BL17">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="BM17">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="BN17">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BO17">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="BP17">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4539,7 +4548,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7321634</v>
+        <v>7321633</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4554,16 +4563,16 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4572,115 +4581,115 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O18" t="s">
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="Q18">
+        <v>2.45</v>
+      </c>
+      <c r="R18">
+        <v>2.21</v>
+      </c>
+      <c r="S18">
+        <v>4.1</v>
+      </c>
+      <c r="T18">
+        <v>1.35</v>
+      </c>
+      <c r="U18">
+        <v>3.04</v>
+      </c>
+      <c r="V18">
         <v>2.6</v>
       </c>
-      <c r="R18">
-        <v>2.05</v>
-      </c>
-      <c r="S18">
-        <v>4.3</v>
-      </c>
-      <c r="T18">
-        <v>1.44</v>
-      </c>
-      <c r="U18">
-        <v>2.65</v>
-      </c>
-      <c r="V18">
+      <c r="W18">
+        <v>1.46</v>
+      </c>
+      <c r="X18">
+        <v>6.35</v>
+      </c>
+      <c r="Y18">
+        <v>1.1</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AA18">
+        <v>3.35</v>
+      </c>
+      <c r="AB18">
         <v>3.1</v>
       </c>
-      <c r="W18">
-        <v>1.34</v>
-      </c>
-      <c r="X18">
-        <v>8.1</v>
-      </c>
-      <c r="Y18">
-        <v>1.06</v>
-      </c>
-      <c r="Z18">
+      <c r="AC18">
+        <v>1.01</v>
+      </c>
+      <c r="AD18">
+        <v>10</v>
+      </c>
+      <c r="AE18">
+        <v>1.22</v>
+      </c>
+      <c r="AF18">
+        <v>3.65</v>
+      </c>
+      <c r="AG18">
+        <v>1.75</v>
+      </c>
+      <c r="AH18">
         <v>1.95</v>
       </c>
-      <c r="AA18">
-        <v>3.1</v>
-      </c>
-      <c r="AB18">
-        <v>3.45</v>
-      </c>
-      <c r="AC18">
-        <v>1.03</v>
-      </c>
-      <c r="AD18">
-        <v>7.9</v>
-      </c>
-      <c r="AE18">
-        <v>1.33</v>
-      </c>
-      <c r="AF18">
-        <v>2.91</v>
-      </c>
-      <c r="AG18">
-        <v>2.1</v>
-      </c>
-      <c r="AH18">
-        <v>1.65</v>
-      </c>
       <c r="AI18">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AJ18">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="AK18">
         <v>1.27</v>
       </c>
       <c r="AL18">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AM18">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18">
+        <v>1.88</v>
+      </c>
+      <c r="AQ18">
         <v>1.57</v>
       </c>
-      <c r="AQ18">
-        <v>1.43</v>
-      </c>
       <c r="AR18">
-        <v>1.33</v>
+        <v>0.64</v>
       </c>
       <c r="AS18">
-        <v>0.91</v>
+        <v>1.26</v>
       </c>
       <c r="AT18">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="AU18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX18">
         <v>7</v>
@@ -4689,55 +4698,55 @@
         <v>10</v>
       </c>
       <c r="AZ18">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BA18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BB18">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BC18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD18">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="BE18">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF18">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="BG18">
+        <v>1.18</v>
+      </c>
+      <c r="BH18">
+        <v>4.5</v>
+      </c>
+      <c r="BI18">
         <v>1.32</v>
       </c>
-      <c r="BH18">
+      <c r="BJ18">
         <v>3.1</v>
       </c>
-      <c r="BI18">
-        <v>1.61</v>
-      </c>
-      <c r="BJ18">
-        <v>2.17</v>
-      </c>
       <c r="BK18">
-        <v>2.07</v>
+        <v>1.56</v>
       </c>
       <c r="BL18">
-        <v>1.67</v>
+        <v>2.27</v>
       </c>
       <c r="BM18">
-        <v>2.77</v>
+        <v>1.99</v>
       </c>
       <c r="BN18">
-        <v>1.39</v>
+        <v>1.73</v>
       </c>
       <c r="BO18">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="BP18">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4745,7 +4754,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7321633</v>
+        <v>7321634</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4760,16 +4769,16 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4778,115 +4787,115 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="s">
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="Q19">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="R19">
-        <v>2.21</v>
+        <v>2.05</v>
       </c>
       <c r="S19">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T19">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="U19">
-        <v>3.04</v>
+        <v>2.65</v>
       </c>
       <c r="V19">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="W19">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="X19">
-        <v>6.35</v>
+        <v>8.1</v>
       </c>
       <c r="Y19">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA19">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AB19">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="AC19">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="AE19">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AF19">
-        <v>3.65</v>
+        <v>2.91</v>
       </c>
       <c r="AG19">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AH19">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AI19">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AJ19">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="AK19">
         <v>1.27</v>
       </c>
       <c r="AL19">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AM19">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="AQ19">
+        <v>1.63</v>
+      </c>
+      <c r="AR19">
         <v>1.33</v>
       </c>
-      <c r="AR19">
-        <v>0.64</v>
-      </c>
       <c r="AS19">
-        <v>1.26</v>
+        <v>0.91</v>
       </c>
       <c r="AT19">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="AU19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX19">
         <v>7</v>
@@ -4895,55 +4904,55 @@
         <v>10</v>
       </c>
       <c r="AZ19">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA19">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BB19">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BC19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD19">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="BE19">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF19">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="BG19">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="BH19">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="BI19">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="BJ19">
-        <v>3.1</v>
+        <v>2.17</v>
       </c>
       <c r="BK19">
-        <v>1.56</v>
+        <v>2.07</v>
       </c>
       <c r="BL19">
-        <v>2.27</v>
+        <v>1.67</v>
       </c>
       <c r="BM19">
-        <v>1.99</v>
+        <v>2.77</v>
       </c>
       <c r="BN19">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="BO19">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="BP19">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -5199,7 +5208,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5405,7 +5414,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5611,7 +5620,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5689,7 +5698,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ23">
         <v>0.83</v>
@@ -5775,7 +5784,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7321762</v>
+        <v>7321643</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5790,70 +5799,70 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="P24" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="Q24">
-        <v>3.08</v>
+        <v>2.78</v>
       </c>
       <c r="R24">
         <v>2.26</v>
       </c>
       <c r="S24">
-        <v>3.48</v>
+        <v>3.94</v>
       </c>
       <c r="T24">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U24">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="V24">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="W24">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="X24">
-        <v>6.95</v>
+        <v>7</v>
       </c>
       <c r="Y24">
         <v>1.08</v>
       </c>
       <c r="Z24">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="AA24">
         <v>3.4</v>
       </c>
       <c r="AB24">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="AC24">
         <v>1.02</v>
@@ -5868,112 +5877,112 @@
         <v>3.34</v>
       </c>
       <c r="AG24">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AH24">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AI24">
+        <v>1.72</v>
+      </c>
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>1.3</v>
+      </c>
+      <c r="AL24">
+        <v>1.3</v>
+      </c>
+      <c r="AM24">
         <v>1.69</v>
       </c>
-      <c r="AJ24">
-        <v>2.04</v>
-      </c>
-      <c r="AK24">
-        <v>1.41</v>
-      </c>
-      <c r="AL24">
-        <v>1.31</v>
-      </c>
-      <c r="AM24">
-        <v>1.52</v>
-      </c>
       <c r="AN24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
-        <v>0.9</v>
+        <v>1.54</v>
       </c>
       <c r="AS24">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="AT24">
-        <v>2.27</v>
+        <v>1.54</v>
       </c>
       <c r="AU24">
+        <v>4</v>
+      </c>
+      <c r="AV24">
+        <v>6</v>
+      </c>
+      <c r="AW24">
+        <v>9</v>
+      </c>
+      <c r="AX24">
+        <v>4</v>
+      </c>
+      <c r="AY24">
+        <v>13</v>
+      </c>
+      <c r="AZ24">
+        <v>10</v>
+      </c>
+      <c r="BA24">
+        <v>7</v>
+      </c>
+      <c r="BB24">
         <v>5</v>
       </c>
-      <c r="AV24">
-        <v>3</v>
-      </c>
-      <c r="AW24">
-        <v>6</v>
-      </c>
-      <c r="AX24">
-        <v>3</v>
-      </c>
-      <c r="AY24">
-        <v>11</v>
-      </c>
-      <c r="AZ24">
-        <v>6</v>
-      </c>
-      <c r="BA24">
-        <v>6</v>
-      </c>
-      <c r="BB24">
-        <v>2</v>
-      </c>
       <c r="BC24">
+        <v>12</v>
+      </c>
+      <c r="BD24">
+        <v>1.85</v>
+      </c>
+      <c r="BE24">
         <v>8</v>
       </c>
-      <c r="BD24">
-        <v>1.8</v>
-      </c>
-      <c r="BE24">
-        <v>9.1</v>
-      </c>
       <c r="BF24">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="BG24">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="BH24">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="BI24">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="BJ24">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BK24">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BL24">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="BM24">
-        <v>2.33</v>
+        <v>2.16</v>
       </c>
       <c r="BN24">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="BO24">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="BP24">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -5981,7 +5990,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7321643</v>
+        <v>7321762</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5996,70 +6005,70 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O25" t="s">
+        <v>104</v>
+      </c>
+      <c r="P25" t="s">
         <v>86</v>
       </c>
-      <c r="P25" t="s">
-        <v>98</v>
-      </c>
       <c r="Q25">
-        <v>2.78</v>
+        <v>3.08</v>
       </c>
       <c r="R25">
         <v>2.26</v>
       </c>
       <c r="S25">
-        <v>3.94</v>
+        <v>3.48</v>
       </c>
       <c r="T25">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U25">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="V25">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="W25">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X25">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="Y25">
         <v>1.08</v>
       </c>
       <c r="Z25">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AA25">
         <v>3.4</v>
       </c>
       <c r="AB25">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="AC25">
         <v>1.02</v>
@@ -6074,112 +6083,112 @@
         <v>3.34</v>
       </c>
       <c r="AG25">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AH25">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AI25">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="AJ25">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="AK25">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AL25">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AM25">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="AN25">
+        <v>1.5</v>
+      </c>
+      <c r="AO25">
+        <v>1.5</v>
+      </c>
+      <c r="AP25">
+        <v>1.88</v>
+      </c>
+      <c r="AQ25">
+        <v>1.63</v>
+      </c>
+      <c r="AR25">
+        <v>0.9</v>
+      </c>
+      <c r="AS25">
+        <v>1.37</v>
+      </c>
+      <c r="AT25">
+        <v>2.27</v>
+      </c>
+      <c r="AU25">
+        <v>5</v>
+      </c>
+      <c r="AV25">
         <v>3</v>
       </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1.14</v>
-      </c>
-      <c r="AQ25">
-        <v>1.67</v>
-      </c>
-      <c r="AR25">
-        <v>1.54</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>1.54</v>
-      </c>
-      <c r="AU25">
-        <v>4</v>
-      </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>6</v>
       </c>
-      <c r="AW25">
-        <v>9</v>
-      </c>
       <c r="AX25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC25">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD25">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BE25">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="BF25">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="BG25">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BH25">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="BI25">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="BJ25">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="BK25">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BL25">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="BM25">
-        <v>2.16</v>
+        <v>2.33</v>
       </c>
       <c r="BN25">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="BO25">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="BP25">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6229,7 +6238,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6310,7 +6319,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -6435,7 +6444,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6847,7 +6856,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7053,7 +7062,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7465,7 +7474,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8367,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8782,7 +8791,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9319,7 +9328,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9525,7 +9534,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9606,7 +9615,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9731,7 +9740,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9937,7 +9946,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10015,7 +10024,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ44">
         <v>1.67</v>
@@ -10221,7 +10230,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ45">
         <v>2.43</v>
@@ -10349,7 +10358,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10761,7 +10770,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10967,7 +10976,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11872,7 +11881,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ53">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR53">
         <v>1.66</v>
@@ -11997,7 +12006,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12203,7 +12212,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12409,7 +12418,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12615,7 +12624,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12821,7 +12830,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12985,7 +12994,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7321676</v>
+        <v>7321672</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -13000,10 +13009,10 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -13015,175 +13024,175 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P59" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="Q59">
-        <v>3.02</v>
+        <v>2.31</v>
       </c>
       <c r="R59">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="S59">
-        <v>3.54</v>
+        <v>4.75</v>
       </c>
       <c r="T59">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="U59">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="V59">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="W59">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X59">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="Y59">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z59">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="AA59">
-        <v>3.21</v>
+        <v>3.62</v>
       </c>
       <c r="AB59">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="AC59">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD59">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE59">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AF59">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="AG59">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="AH59">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AI59">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AJ59">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="AK59">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AL59">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="AM59">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="AN59">
+        <v>2.33</v>
+      </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
         <v>1.5</v>
       </c>
-      <c r="AO59">
-        <v>1.33</v>
-      </c>
-      <c r="AP59">
-        <v>1.14</v>
-      </c>
       <c r="AQ59">
-        <v>0.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR59">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AS59">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AT59">
         <v>2.61</v>
       </c>
       <c r="AU59">
+        <v>4</v>
+      </c>
+      <c r="AV59">
+        <v>6</v>
+      </c>
+      <c r="AW59">
+        <v>4</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>8</v>
+      </c>
+      <c r="AZ59">
+        <v>10</v>
+      </c>
+      <c r="BA59">
         <v>5</v>
       </c>
-      <c r="AV59">
-        <v>2</v>
-      </c>
-      <c r="AW59">
+      <c r="BB59">
         <v>7</v>
       </c>
-      <c r="AX59">
-        <v>5</v>
-      </c>
-      <c r="AY59">
+      <c r="BC59">
         <v>12</v>
       </c>
-      <c r="AZ59">
-        <v>7</v>
-      </c>
-      <c r="BA59">
-        <v>7</v>
-      </c>
-      <c r="BB59">
-        <v>1</v>
-      </c>
-      <c r="BC59">
+      <c r="BD59">
+        <v>1.59</v>
+      </c>
+      <c r="BE59">
         <v>8</v>
       </c>
-      <c r="BD59">
-        <v>2</v>
-      </c>
-      <c r="BE59">
-        <v>8.5</v>
-      </c>
       <c r="BF59">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="BG59">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="BH59">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="BI59">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="BJ59">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="BK59">
-        <v>1.35</v>
+        <v>2.07</v>
       </c>
       <c r="BL59">
-        <v>2.95</v>
+        <v>1.67</v>
       </c>
       <c r="BM59">
-        <v>1.67</v>
+        <v>2.77</v>
       </c>
       <c r="BN59">
-        <v>2.07</v>
+        <v>1.39</v>
       </c>
       <c r="BO59">
-        <v>2.07</v>
+        <v>3.6</v>
       </c>
       <c r="BP59">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13191,7 +13200,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7321672</v>
+        <v>7321676</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13206,10 +13215,10 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -13221,175 +13230,175 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P60" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="Q60">
-        <v>2.31</v>
+        <v>3.02</v>
       </c>
       <c r="R60">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="S60">
-        <v>4.75</v>
+        <v>3.54</v>
       </c>
       <c r="T60">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="U60">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="V60">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="W60">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="X60">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="Y60">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z60">
-        <v>1.78</v>
+        <v>2.41</v>
       </c>
       <c r="AA60">
-        <v>3.62</v>
+        <v>3.21</v>
       </c>
       <c r="AB60">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="AC60">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD60">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AE60">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AF60">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="AG60">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="AH60">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="AI60">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AJ60">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="AK60">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AL60">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AM60">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="AN60">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO60">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AR60">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AS60">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT60">
         <v>2.61</v>
       </c>
       <c r="AU60">
+        <v>5</v>
+      </c>
+      <c r="AV60">
+        <v>2</v>
+      </c>
+      <c r="AW60">
+        <v>7</v>
+      </c>
+      <c r="AX60">
+        <v>5</v>
+      </c>
+      <c r="AY60">
+        <v>12</v>
+      </c>
+      <c r="AZ60">
+        <v>7</v>
+      </c>
+      <c r="BA60">
+        <v>7</v>
+      </c>
+      <c r="BB60">
+        <v>1</v>
+      </c>
+      <c r="BC60">
+        <v>8</v>
+      </c>
+      <c r="BD60">
+        <v>2</v>
+      </c>
+      <c r="BE60">
+        <v>8.5</v>
+      </c>
+      <c r="BF60">
+        <v>2.05</v>
+      </c>
+      <c r="BG60">
+        <v>1.2</v>
+      </c>
+      <c r="BH60">
         <v>4</v>
       </c>
-      <c r="AV60">
-        <v>6</v>
-      </c>
-      <c r="AW60">
-        <v>4</v>
-      </c>
-      <c r="AX60">
-        <v>4</v>
-      </c>
-      <c r="AY60">
-        <v>8</v>
-      </c>
-      <c r="AZ60">
-        <v>10</v>
-      </c>
-      <c r="BA60">
-        <v>5</v>
-      </c>
-      <c r="BB60">
-        <v>7</v>
-      </c>
-      <c r="BC60">
-        <v>12</v>
-      </c>
-      <c r="BD60">
-        <v>1.59</v>
-      </c>
-      <c r="BE60">
-        <v>8</v>
-      </c>
-      <c r="BF60">
-        <v>2.8</v>
-      </c>
-      <c r="BG60">
-        <v>1.31</v>
-      </c>
-      <c r="BH60">
-        <v>3.15</v>
-      </c>
       <c r="BI60">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="BJ60">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="BK60">
+        <v>1.35</v>
+      </c>
+      <c r="BL60">
+        <v>2.95</v>
+      </c>
+      <c r="BM60">
+        <v>1.67</v>
+      </c>
+      <c r="BN60">
         <v>2.07</v>
       </c>
-      <c r="BL60">
+      <c r="BO60">
+        <v>2.07</v>
+      </c>
+      <c r="BP60">
         <v>1.67</v>
-      </c>
-      <c r="BM60">
-        <v>2.77</v>
-      </c>
-      <c r="BN60">
-        <v>1.39</v>
-      </c>
-      <c r="BO60">
-        <v>3.6</v>
-      </c>
-      <c r="BP60">
-        <v>1.25</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13439,7 +13448,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13645,7 +13654,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13929,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ63">
         <v>0</v>
@@ -14057,7 +14066,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14469,7 +14478,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14675,7 +14684,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14753,7 +14762,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ67">
         <v>0.67</v>
@@ -14881,7 +14890,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15371,7 +15380,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ70">
         <v>1.57</v>
@@ -15499,7 +15508,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15705,7 +15714,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15911,7 +15920,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -15992,7 +16001,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16117,7 +16126,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16323,7 +16332,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16735,7 +16744,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16816,7 +16825,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR77">
         <v>1.8</v>
@@ -16941,7 +16950,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17019,7 +17028,7 @@
         <v>2.6</v>
       </c>
       <c r="AP78">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ78">
         <v>2.71</v>
@@ -17147,7 +17156,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17765,7 +17774,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18177,7 +18186,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18255,7 +18264,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ84">
         <v>1.57</v>
@@ -18383,7 +18392,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18589,7 +18598,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18795,7 +18804,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19001,7 +19010,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19207,7 +19216,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19288,7 +19297,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ89">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19413,7 +19422,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19491,7 +19500,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ90">
         <v>0.75</v>
@@ -19619,7 +19628,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19825,7 +19834,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20237,7 +20246,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20443,7 +20452,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20649,7 +20658,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21061,7 +21070,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21267,7 +21276,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21473,7 +21482,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21566,22 +21575,22 @@
         <v>3.03</v>
       </c>
       <c r="AU100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV100">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW100">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AX100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY100">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ100">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA100">
         <v>2</v>
@@ -21836,6 +21845,418 @@
       </c>
       <c r="BP101">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7321712</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45432.79166666666</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>82</v>
+      </c>
+      <c r="H102" t="s">
+        <v>76</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>3</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>5</v>
+      </c>
+      <c r="O102" t="s">
+        <v>156</v>
+      </c>
+      <c r="P102" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q102">
+        <v>3.5</v>
+      </c>
+      <c r="R102">
+        <v>2.25</v>
+      </c>
+      <c r="S102">
+        <v>2.88</v>
+      </c>
+      <c r="T102">
+        <v>1.33</v>
+      </c>
+      <c r="U102">
+        <v>3.1</v>
+      </c>
+      <c r="V102">
+        <v>2.6</v>
+      </c>
+      <c r="W102">
+        <v>1.44</v>
+      </c>
+      <c r="X102">
+        <v>6.4</v>
+      </c>
+      <c r="Y102">
+        <v>1.09</v>
+      </c>
+      <c r="Z102">
+        <v>2.7</v>
+      </c>
+      <c r="AA102">
+        <v>3.12</v>
+      </c>
+      <c r="AB102">
+        <v>2.17</v>
+      </c>
+      <c r="AC102">
+        <v>1.03</v>
+      </c>
+      <c r="AD102">
+        <v>13</v>
+      </c>
+      <c r="AE102">
+        <v>1.25</v>
+      </c>
+      <c r="AF102">
+        <v>3.75</v>
+      </c>
+      <c r="AG102">
+        <v>2.04</v>
+      </c>
+      <c r="AH102">
+        <v>1.76</v>
+      </c>
+      <c r="AI102">
+        <v>1.65</v>
+      </c>
+      <c r="AJ102">
+        <v>2.2</v>
+      </c>
+      <c r="AK102">
+        <v>1.49</v>
+      </c>
+      <c r="AL102">
+        <v>1.27</v>
+      </c>
+      <c r="AM102">
+        <v>1.31</v>
+      </c>
+      <c r="AN102">
+        <v>1</v>
+      </c>
+      <c r="AO102">
+        <v>1.33</v>
+      </c>
+      <c r="AP102">
+        <v>0.86</v>
+      </c>
+      <c r="AQ102">
+        <v>1.57</v>
+      </c>
+      <c r="AR102">
+        <v>1.6</v>
+      </c>
+      <c r="AS102">
+        <v>1.24</v>
+      </c>
+      <c r="AT102">
+        <v>2.84</v>
+      </c>
+      <c r="AU102">
+        <v>6</v>
+      </c>
+      <c r="AV102">
+        <v>7</v>
+      </c>
+      <c r="AW102">
+        <v>11</v>
+      </c>
+      <c r="AX102">
+        <v>7</v>
+      </c>
+      <c r="AY102">
+        <v>17</v>
+      </c>
+      <c r="AZ102">
+        <v>14</v>
+      </c>
+      <c r="BA102">
+        <v>6</v>
+      </c>
+      <c r="BB102">
+        <v>2</v>
+      </c>
+      <c r="BC102">
+        <v>8</v>
+      </c>
+      <c r="BD102">
+        <v>2.42</v>
+      </c>
+      <c r="BE102">
+        <v>8</v>
+      </c>
+      <c r="BF102">
+        <v>1.75</v>
+      </c>
+      <c r="BG102">
+        <v>1.18</v>
+      </c>
+      <c r="BH102">
+        <v>3.95</v>
+      </c>
+      <c r="BI102">
+        <v>1.36</v>
+      </c>
+      <c r="BJ102">
+        <v>2.75</v>
+      </c>
+      <c r="BK102">
+        <v>1.62</v>
+      </c>
+      <c r="BL102">
+        <v>2.06</v>
+      </c>
+      <c r="BM102">
+        <v>2.04</v>
+      </c>
+      <c r="BN102">
+        <v>1.64</v>
+      </c>
+      <c r="BO102">
+        <v>2.65</v>
+      </c>
+      <c r="BP102">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7321841</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45432.89583333334</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>80</v>
+      </c>
+      <c r="H103" t="s">
+        <v>74</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>86</v>
+      </c>
+      <c r="P103" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q103">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>2.1</v>
+      </c>
+      <c r="S103">
+        <v>3.6</v>
+      </c>
+      <c r="T103">
+        <v>1.4</v>
+      </c>
+      <c r="U103">
+        <v>2.75</v>
+      </c>
+      <c r="V103">
+        <v>3</v>
+      </c>
+      <c r="W103">
+        <v>1.36</v>
+      </c>
+      <c r="X103">
+        <v>8</v>
+      </c>
+      <c r="Y103">
+        <v>1.08</v>
+      </c>
+      <c r="Z103">
+        <v>2.12</v>
+      </c>
+      <c r="AA103">
+        <v>3.04</v>
+      </c>
+      <c r="AB103">
+        <v>2.85</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>8.5</v>
+      </c>
+      <c r="AE103">
+        <v>1.34</v>
+      </c>
+      <c r="AF103">
+        <v>3.55</v>
+      </c>
+      <c r="AG103">
+        <v>1.99</v>
+      </c>
+      <c r="AH103">
+        <v>1.83</v>
+      </c>
+      <c r="AI103">
+        <v>1.73</v>
+      </c>
+      <c r="AJ103">
+        <v>2</v>
+      </c>
+      <c r="AK103">
+        <v>1.6</v>
+      </c>
+      <c r="AL103">
+        <v>1.32</v>
+      </c>
+      <c r="AM103">
+        <v>1.22</v>
+      </c>
+      <c r="AN103">
+        <v>1.33</v>
+      </c>
+      <c r="AO103">
+        <v>1.43</v>
+      </c>
+      <c r="AP103">
+        <v>1.14</v>
+      </c>
+      <c r="AQ103">
+        <v>1.63</v>
+      </c>
+      <c r="AR103">
+        <v>1.75</v>
+      </c>
+      <c r="AS103">
+        <v>1.34</v>
+      </c>
+      <c r="AT103">
+        <v>3.09</v>
+      </c>
+      <c r="AU103">
+        <v>2</v>
+      </c>
+      <c r="AV103">
+        <v>4</v>
+      </c>
+      <c r="AW103">
+        <v>9</v>
+      </c>
+      <c r="AX103">
+        <v>5</v>
+      </c>
+      <c r="AY103">
+        <v>11</v>
+      </c>
+      <c r="AZ103">
+        <v>9</v>
+      </c>
+      <c r="BA103">
+        <v>5</v>
+      </c>
+      <c r="BB103">
+        <v>3</v>
+      </c>
+      <c r="BC103">
+        <v>8</v>
+      </c>
+      <c r="BD103">
+        <v>2.59</v>
+      </c>
+      <c r="BE103">
+        <v>9.4</v>
+      </c>
+      <c r="BF103">
+        <v>1.63</v>
+      </c>
+      <c r="BG103">
+        <v>1.18</v>
+      </c>
+      <c r="BH103">
+        <v>4.33</v>
+      </c>
+      <c r="BI103">
+        <v>1.3</v>
+      </c>
+      <c r="BJ103">
+        <v>3.2</v>
+      </c>
+      <c r="BK103">
+        <v>1.52</v>
+      </c>
+      <c r="BL103">
+        <v>2.46</v>
+      </c>
+      <c r="BM103">
+        <v>1.86</v>
+      </c>
+      <c r="BN103">
+        <v>1.93</v>
+      </c>
+      <c r="BO103">
+        <v>2.31</v>
+      </c>
+      <c r="BP103">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,9 @@
     <t>['16', '87']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -674,6 +677,9 @@
   </si>
   <si>
     <t>['20']</t>
+  </si>
+  <si>
+    <t>['9', '88']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1381,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ2">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1500,7 +1506,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1706,7 +1712,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1912,7 +1918,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2118,7 +2124,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2324,7 +2330,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2530,7 +2536,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3020,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3148,7 +3154,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3354,7 +3360,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3766,7 +3772,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3847,7 +3853,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3972,7 +3978,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4178,7 +4184,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4384,7 +4390,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4462,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ17">
         <v>2.43</v>
@@ -4671,7 +4677,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ18">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>0.64</v>
@@ -4796,7 +4802,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5208,7 +5214,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5286,7 +5292,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ21">
         <v>1.57</v>
@@ -5414,7 +5420,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5620,7 +5626,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6238,7 +6244,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6319,7 +6325,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ26">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -6444,7 +6450,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6856,7 +6862,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7062,7 +7068,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7140,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7474,7 +7480,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7967,7 +7973,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ34">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8582,7 +8588,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8994,7 +9000,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
         <v>2.43</v>
@@ -9328,7 +9334,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9534,7 +9540,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9615,7 +9621,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ42">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9740,7 +9746,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9946,7 +9952,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10358,7 +10364,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10770,7 +10776,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10976,7 +10982,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12006,7 +12012,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12084,7 +12090,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ54">
         <v>1.17</v>
@@ -12212,7 +12218,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12418,7 +12424,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12624,7 +12630,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12830,7 +12836,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13117,7 +13123,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13448,7 +13454,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13654,7 +13660,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14066,7 +14072,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14350,7 +14356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ65">
         <v>0.83</v>
@@ -14478,7 +14484,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14556,7 +14562,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ66">
         <v>1.43</v>
@@ -14684,7 +14690,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14890,7 +14896,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15508,7 +15514,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15586,7 +15592,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ71">
         <v>2.71</v>
@@ -15714,7 +15720,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15920,7 +15926,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16126,7 +16132,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16207,7 +16213,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR74">
         <v>1.38</v>
@@ -16332,7 +16338,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16744,7 +16750,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16825,7 +16831,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ77">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR77">
         <v>1.8</v>
@@ -16950,7 +16956,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17156,7 +17162,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17774,7 +17780,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -17852,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ82">
         <v>0</v>
@@ -18186,7 +18192,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18392,7 +18398,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18598,7 +18604,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18676,7 +18682,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ86">
         <v>0.67</v>
@@ -18804,7 +18810,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19010,7 +19016,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19216,7 +19222,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19422,7 +19428,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19503,7 +19509,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ90">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -19628,7 +19634,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19834,7 +19840,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20246,7 +20252,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20452,7 +20458,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20658,7 +20664,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20736,7 +20742,7 @@
         <v>2.67</v>
       </c>
       <c r="AP96">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ96">
         <v>2.71</v>
@@ -21070,7 +21076,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21276,7 +21282,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21482,7 +21488,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21894,7 +21900,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -21975,7 +21981,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ102">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22100,7 +22106,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22257,6 +22263,418 @@
       </c>
       <c r="BP103">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7321723</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45436.6875</v>
+      </c>
+      <c r="F104">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s">
+        <v>71</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>86</v>
+      </c>
+      <c r="P104" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q104">
+        <v>2.88</v>
+      </c>
+      <c r="R104">
+        <v>2.25</v>
+      </c>
+      <c r="S104">
+        <v>3.4</v>
+      </c>
+      <c r="T104">
+        <v>1.31</v>
+      </c>
+      <c r="U104">
+        <v>3.28</v>
+      </c>
+      <c r="V104">
+        <v>2.46</v>
+      </c>
+      <c r="W104">
+        <v>1.51</v>
+      </c>
+      <c r="X104">
+        <v>5.8</v>
+      </c>
+      <c r="Y104">
+        <v>1.12</v>
+      </c>
+      <c r="Z104">
+        <v>2</v>
+      </c>
+      <c r="AA104">
+        <v>3.4</v>
+      </c>
+      <c r="AB104">
+        <v>3.3</v>
+      </c>
+      <c r="AC104">
+        <v>1.02</v>
+      </c>
+      <c r="AD104">
+        <v>11.8</v>
+      </c>
+      <c r="AE104">
+        <v>1.18</v>
+      </c>
+      <c r="AF104">
+        <v>4.05</v>
+      </c>
+      <c r="AG104">
+        <v>1.84</v>
+      </c>
+      <c r="AH104">
+        <v>2.04</v>
+      </c>
+      <c r="AI104">
+        <v>1.56</v>
+      </c>
+      <c r="AJ104">
+        <v>2.36</v>
+      </c>
+      <c r="AK104">
+        <v>1.36</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>1.62</v>
+      </c>
+      <c r="AN104">
+        <v>1.83</v>
+      </c>
+      <c r="AO104">
+        <v>0.75</v>
+      </c>
+      <c r="AP104">
+        <v>1.57</v>
+      </c>
+      <c r="AQ104">
+        <v>1.2</v>
+      </c>
+      <c r="AR104">
+        <v>1.35</v>
+      </c>
+      <c r="AS104">
+        <v>1.22</v>
+      </c>
+      <c r="AT104">
+        <v>2.57</v>
+      </c>
+      <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>11</v>
+      </c>
+      <c r="AW104">
+        <v>8</v>
+      </c>
+      <c r="AX104">
+        <v>15</v>
+      </c>
+      <c r="AY104">
+        <v>12</v>
+      </c>
+      <c r="AZ104">
+        <v>26</v>
+      </c>
+      <c r="BA104">
+        <v>6</v>
+      </c>
+      <c r="BB104">
+        <v>8</v>
+      </c>
+      <c r="BC104">
+        <v>14</v>
+      </c>
+      <c r="BD104">
+        <v>1.82</v>
+      </c>
+      <c r="BE104">
+        <v>8</v>
+      </c>
+      <c r="BF104">
+        <v>2.39</v>
+      </c>
+      <c r="BG104">
+        <v>1.23</v>
+      </c>
+      <c r="BH104">
+        <v>3.56</v>
+      </c>
+      <c r="BI104">
+        <v>1.44</v>
+      </c>
+      <c r="BJ104">
+        <v>2.51</v>
+      </c>
+      <c r="BK104">
+        <v>1.9</v>
+      </c>
+      <c r="BL104">
+        <v>1.9</v>
+      </c>
+      <c r="BM104">
+        <v>2.17</v>
+      </c>
+      <c r="BN104">
+        <v>1.54</v>
+      </c>
+      <c r="BO104">
+        <v>2.98</v>
+      </c>
+      <c r="BP104">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7321720</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45436.83333333334</v>
+      </c>
+      <c r="F105">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s">
+        <v>84</v>
+      </c>
+      <c r="H105" t="s">
+        <v>76</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>157</v>
+      </c>
+      <c r="P105" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q105">
+        <v>3.6</v>
+      </c>
+      <c r="R105">
+        <v>2.2</v>
+      </c>
+      <c r="S105">
+        <v>3</v>
+      </c>
+      <c r="T105">
+        <v>1.4</v>
+      </c>
+      <c r="U105">
+        <v>2.82</v>
+      </c>
+      <c r="V105">
+        <v>2.86</v>
+      </c>
+      <c r="W105">
+        <v>1.39</v>
+      </c>
+      <c r="X105">
+        <v>7.2</v>
+      </c>
+      <c r="Y105">
+        <v>1.07</v>
+      </c>
+      <c r="Z105">
+        <v>3.2</v>
+      </c>
+      <c r="AA105">
+        <v>3.1</v>
+      </c>
+      <c r="AB105">
+        <v>2.2</v>
+      </c>
+      <c r="AC105">
+        <v>1.05</v>
+      </c>
+      <c r="AD105">
+        <v>8.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.3</v>
+      </c>
+      <c r="AF105">
+        <v>3.35</v>
+      </c>
+      <c r="AG105">
+        <v>2.04</v>
+      </c>
+      <c r="AH105">
+        <v>1.84</v>
+      </c>
+      <c r="AI105">
+        <v>1.74</v>
+      </c>
+      <c r="AJ105">
+        <v>2.04</v>
+      </c>
+      <c r="AK105">
+        <v>1.6</v>
+      </c>
+      <c r="AL105">
+        <v>1.25</v>
+      </c>
+      <c r="AM105">
+        <v>1.36</v>
+      </c>
+      <c r="AN105">
+        <v>0.57</v>
+      </c>
+      <c r="AO105">
+        <v>1.57</v>
+      </c>
+      <c r="AP105">
+        <v>0.5</v>
+      </c>
+      <c r="AQ105">
+        <v>1.75</v>
+      </c>
+      <c r="AR105">
+        <v>1.41</v>
+      </c>
+      <c r="AS105">
+        <v>1.31</v>
+      </c>
+      <c r="AT105">
+        <v>2.72</v>
+      </c>
+      <c r="AU105">
+        <v>5</v>
+      </c>
+      <c r="AV105">
+        <v>3</v>
+      </c>
+      <c r="AW105">
+        <v>8</v>
+      </c>
+      <c r="AX105">
+        <v>1</v>
+      </c>
+      <c r="AY105">
+        <v>13</v>
+      </c>
+      <c r="AZ105">
+        <v>4</v>
+      </c>
+      <c r="BA105">
+        <v>5</v>
+      </c>
+      <c r="BB105">
+        <v>4</v>
+      </c>
+      <c r="BC105">
+        <v>9</v>
+      </c>
+      <c r="BD105">
+        <v>2.66</v>
+      </c>
+      <c r="BE105">
+        <v>8.5</v>
+      </c>
+      <c r="BF105">
+        <v>1.64</v>
+      </c>
+      <c r="BG105">
+        <v>1.17</v>
+      </c>
+      <c r="BH105">
+        <v>4.2</v>
+      </c>
+      <c r="BI105">
+        <v>1.33</v>
+      </c>
+      <c r="BJ105">
+        <v>2.9</v>
+      </c>
+      <c r="BK105">
+        <v>1.58</v>
+      </c>
+      <c r="BL105">
+        <v>2.15</v>
+      </c>
+      <c r="BM105">
+        <v>1.95</v>
+      </c>
+      <c r="BN105">
+        <v>1.78</v>
+      </c>
+      <c r="BO105">
+        <v>2.55</v>
+      </c>
+      <c r="BP105">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,15 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['35', '52', '56', '65']</t>
+  </si>
+  <si>
+    <t>['66', '90+14']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -680,6 +689,12 @@
   </si>
   <si>
     <t>['9', '88']</t>
+  </si>
+  <si>
+    <t>['59', '72', '82']</t>
+  </si>
+  <si>
+    <t>['45+2', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1506,7 +1521,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1587,7 +1602,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1712,7 +1727,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1918,7 +1933,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2124,7 +2139,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2330,7 +2345,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2408,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2536,7 +2551,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3029,7 +3044,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3154,7 +3169,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3232,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3360,7 +3375,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3438,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3644,10 +3659,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3772,7 +3787,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3978,7 +3993,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4059,7 +4074,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR15">
         <v>1.77</v>
@@ -4184,7 +4199,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4262,10 +4277,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ16">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>1.64</v>
@@ -4390,7 +4405,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4802,7 +4817,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5214,7 +5229,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5420,7 +5435,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5626,7 +5641,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5910,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6244,7 +6259,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6322,7 +6337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ26">
         <v>1.75</v>
@@ -6450,7 +6465,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6862,7 +6877,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6940,10 +6955,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ29">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7068,7 +7083,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7149,7 +7164,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR30">
         <v>1.72</v>
@@ -7352,10 +7367,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR31">
         <v>1.69</v>
@@ -7480,7 +7495,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8179,7 +8194,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ35">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR35">
         <v>2.24</v>
@@ -8382,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8794,7 +8809,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ38">
         <v>1.63</v>
@@ -9334,7 +9349,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9415,7 +9430,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9540,7 +9555,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9746,7 +9761,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9824,7 +9839,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
         <v>1.57</v>
@@ -9952,7 +9967,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10236,7 +10251,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45">
         <v>2.43</v>
@@ -10364,7 +10379,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10445,7 +10460,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR46">
         <v>1.53</v>
@@ -10776,7 +10791,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10982,7 +10997,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11475,7 +11490,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ51">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -11678,10 +11693,10 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -12012,7 +12027,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12218,7 +12233,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12299,7 +12314,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR55">
         <v>1.44</v>
@@ -12424,7 +12439,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12630,7 +12645,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12711,7 +12726,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>1.34</v>
@@ -12836,7 +12851,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12914,7 +12929,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ58">
         <v>2.43</v>
@@ -13326,7 +13341,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60">
         <v>0.83</v>
@@ -13454,7 +13469,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13660,7 +13675,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14072,7 +14087,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14153,7 +14168,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
         <v>1.82</v>
@@ -14484,7 +14499,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14565,7 +14580,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ66">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -14690,7 +14705,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14896,7 +14911,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -14974,10 +14989,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ68">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15386,7 +15401,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
         <v>1.57</v>
@@ -15514,7 +15529,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15720,7 +15735,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15926,7 +15941,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16132,7 +16147,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16210,7 +16225,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74">
         <v>1.2</v>
@@ -16338,7 +16353,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16625,7 +16640,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
         <v>1.51</v>
@@ -16750,7 +16765,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16956,7 +16971,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17034,7 +17049,7 @@
         <v>2.6</v>
       </c>
       <c r="AP78">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78">
         <v>2.71</v>
@@ -17162,7 +17177,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17446,7 +17461,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ80">
         <v>1.67</v>
@@ -17655,7 +17670,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ81">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR81">
         <v>1.6</v>
@@ -17780,7 +17795,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18192,7 +18207,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18273,7 +18288,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ84">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR84">
         <v>1.6</v>
@@ -18398,7 +18413,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18604,7 +18619,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18810,7 +18825,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19016,7 +19031,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19097,7 +19112,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ88">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR88">
         <v>1.85</v>
@@ -19222,7 +19237,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19300,7 +19315,7 @@
         <v>1.17</v>
       </c>
       <c r="AP89">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ89">
         <v>1.63</v>
@@ -19428,7 +19443,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19506,7 +19521,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
         <v>1.2</v>
@@ -19634,7 +19649,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19712,7 +19727,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ91">
         <v>1.17</v>
@@ -19840,7 +19855,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -19921,7 +19936,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ92">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR92">
         <v>1.79</v>
@@ -20127,7 +20142,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20252,7 +20267,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20333,7 +20348,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ94">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR94">
         <v>1.7</v>
@@ -20458,7 +20473,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20536,7 +20551,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ95">
         <v>0.67</v>
@@ -20664,7 +20679,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21076,7 +21091,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21282,7 +21297,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21488,7 +21503,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21900,7 +21915,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22106,7 +22121,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22184,7 +22199,7 @@
         <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
         <v>1.63</v>
@@ -22518,7 +22533,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22675,6 +22690,830 @@
       </c>
       <c r="BP105">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7321721</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45437.5625</v>
+      </c>
+      <c r="F106">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" t="s">
+        <v>85</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>158</v>
+      </c>
+      <c r="P106" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q106">
+        <v>2.51</v>
+      </c>
+      <c r="R106">
+        <v>2.18</v>
+      </c>
+      <c r="S106">
+        <v>4.05</v>
+      </c>
+      <c r="T106">
+        <v>1.36</v>
+      </c>
+      <c r="U106">
+        <v>2.99</v>
+      </c>
+      <c r="V106">
+        <v>2.67</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>6.55</v>
+      </c>
+      <c r="Y106">
+        <v>1.09</v>
+      </c>
+      <c r="Z106">
+        <v>2.1</v>
+      </c>
+      <c r="AA106">
+        <v>3.2</v>
+      </c>
+      <c r="AB106">
+        <v>3.4</v>
+      </c>
+      <c r="AC106">
+        <v>1.01</v>
+      </c>
+      <c r="AD106">
+        <v>9.9</v>
+      </c>
+      <c r="AE106">
+        <v>1.23</v>
+      </c>
+      <c r="AF106">
+        <v>3.56</v>
+      </c>
+      <c r="AG106">
+        <v>1.8</v>
+      </c>
+      <c r="AH106">
+        <v>1.86</v>
+      </c>
+      <c r="AI106">
+        <v>1.68</v>
+      </c>
+      <c r="AJ106">
+        <v>2.06</v>
+      </c>
+      <c r="AK106">
+        <v>1.28</v>
+      </c>
+      <c r="AL106">
+        <v>1.28</v>
+      </c>
+      <c r="AM106">
+        <v>1.77</v>
+      </c>
+      <c r="AN106">
+        <v>1.14</v>
+      </c>
+      <c r="AO106">
+        <v>1.43</v>
+      </c>
+      <c r="AP106">
+        <v>1.38</v>
+      </c>
+      <c r="AQ106">
+        <v>1.25</v>
+      </c>
+      <c r="AR106">
+        <v>1.66</v>
+      </c>
+      <c r="AS106">
+        <v>1.2</v>
+      </c>
+      <c r="AT106">
+        <v>2.86</v>
+      </c>
+      <c r="AU106">
+        <v>6</v>
+      </c>
+      <c r="AV106">
+        <v>7</v>
+      </c>
+      <c r="AW106">
+        <v>6</v>
+      </c>
+      <c r="AX106">
+        <v>5</v>
+      </c>
+      <c r="AY106">
+        <v>12</v>
+      </c>
+      <c r="AZ106">
+        <v>12</v>
+      </c>
+      <c r="BA106">
+        <v>5</v>
+      </c>
+      <c r="BB106">
+        <v>8</v>
+      </c>
+      <c r="BC106">
+        <v>13</v>
+      </c>
+      <c r="BD106">
+        <v>1.51</v>
+      </c>
+      <c r="BE106">
+        <v>9</v>
+      </c>
+      <c r="BF106">
+        <v>3.14</v>
+      </c>
+      <c r="BG106">
+        <v>1.17</v>
+      </c>
+      <c r="BH106">
+        <v>4.5</v>
+      </c>
+      <c r="BI106">
+        <v>1.25</v>
+      </c>
+      <c r="BJ106">
+        <v>3.42</v>
+      </c>
+      <c r="BK106">
+        <v>1.5</v>
+      </c>
+      <c r="BL106">
+        <v>2.48</v>
+      </c>
+      <c r="BM106">
+        <v>1.95</v>
+      </c>
+      <c r="BN106">
+        <v>1.78</v>
+      </c>
+      <c r="BO106">
+        <v>2.23</v>
+      </c>
+      <c r="BP106">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7321717</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45437.66666666666</v>
+      </c>
+      <c r="F107">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s">
+        <v>83</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>3</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>86</v>
+      </c>
+      <c r="P107" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q107">
+        <v>3.84</v>
+      </c>
+      <c r="R107">
+        <v>2.18</v>
+      </c>
+      <c r="S107">
+        <v>2.59</v>
+      </c>
+      <c r="T107">
+        <v>1.36</v>
+      </c>
+      <c r="U107">
+        <v>2.99</v>
+      </c>
+      <c r="V107">
+        <v>2.67</v>
+      </c>
+      <c r="W107">
+        <v>1.44</v>
+      </c>
+      <c r="X107">
+        <v>6.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.09</v>
+      </c>
+      <c r="Z107">
+        <v>3.25</v>
+      </c>
+      <c r="AA107">
+        <v>3.2</v>
+      </c>
+      <c r="AB107">
+        <v>2.1</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>9.9</v>
+      </c>
+      <c r="AE107">
+        <v>1.23</v>
+      </c>
+      <c r="AF107">
+        <v>3.56</v>
+      </c>
+      <c r="AG107">
+        <v>1.75</v>
+      </c>
+      <c r="AH107">
+        <v>1.85</v>
+      </c>
+      <c r="AI107">
+        <v>1.67</v>
+      </c>
+      <c r="AJ107">
+        <v>2.08</v>
+      </c>
+      <c r="AK107">
+        <v>1.59</v>
+      </c>
+      <c r="AL107">
+        <v>1.27</v>
+      </c>
+      <c r="AM107">
+        <v>1.24</v>
+      </c>
+      <c r="AN107">
+        <v>2.17</v>
+      </c>
+      <c r="AO107">
+        <v>1.57</v>
+      </c>
+      <c r="AP107">
+        <v>1.86</v>
+      </c>
+      <c r="AQ107">
+        <v>1.75</v>
+      </c>
+      <c r="AR107">
+        <v>1.83</v>
+      </c>
+      <c r="AS107">
+        <v>1.37</v>
+      </c>
+      <c r="AT107">
+        <v>3.2</v>
+      </c>
+      <c r="AU107">
+        <v>3</v>
+      </c>
+      <c r="AV107">
+        <v>8</v>
+      </c>
+      <c r="AW107">
+        <v>4</v>
+      </c>
+      <c r="AX107">
+        <v>7</v>
+      </c>
+      <c r="AY107">
+        <v>7</v>
+      </c>
+      <c r="AZ107">
+        <v>15</v>
+      </c>
+      <c r="BA107">
+        <v>2</v>
+      </c>
+      <c r="BB107">
+        <v>8</v>
+      </c>
+      <c r="BC107">
+        <v>10</v>
+      </c>
+      <c r="BD107">
+        <v>2.44</v>
+      </c>
+      <c r="BE107">
+        <v>8</v>
+      </c>
+      <c r="BF107">
+        <v>1.75</v>
+      </c>
+      <c r="BG107">
+        <v>1.25</v>
+      </c>
+      <c r="BH107">
+        <v>3.3</v>
+      </c>
+      <c r="BI107">
+        <v>1.48</v>
+      </c>
+      <c r="BJ107">
+        <v>2.38</v>
+      </c>
+      <c r="BK107">
+        <v>1.92</v>
+      </c>
+      <c r="BL107">
+        <v>1.88</v>
+      </c>
+      <c r="BM107">
+        <v>2.35</v>
+      </c>
+      <c r="BN107">
+        <v>1.49</v>
+      </c>
+      <c r="BO107">
+        <v>3.15</v>
+      </c>
+      <c r="BP107">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7321718</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45437.77083333334</v>
+      </c>
+      <c r="F108">
+        <v>14</v>
+      </c>
+      <c r="G108" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s">
+        <v>73</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>4</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>5</v>
+      </c>
+      <c r="O108" t="s">
+        <v>159</v>
+      </c>
+      <c r="P108" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q108">
+        <v>2.22</v>
+      </c>
+      <c r="R108">
+        <v>2.22</v>
+      </c>
+      <c r="S108">
+        <v>4.9</v>
+      </c>
+      <c r="T108">
+        <v>1.36</v>
+      </c>
+      <c r="U108">
+        <v>2.99</v>
+      </c>
+      <c r="V108">
+        <v>2.67</v>
+      </c>
+      <c r="W108">
+        <v>1.44</v>
+      </c>
+      <c r="X108">
+        <v>6.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.09</v>
+      </c>
+      <c r="Z108">
+        <v>1.6</v>
+      </c>
+      <c r="AA108">
+        <v>3.75</v>
+      </c>
+      <c r="AB108">
+        <v>5.25</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>9.9</v>
+      </c>
+      <c r="AE108">
+        <v>1.23</v>
+      </c>
+      <c r="AF108">
+        <v>3.56</v>
+      </c>
+      <c r="AG108">
+        <v>1.73</v>
+      </c>
+      <c r="AH108">
+        <v>1.91</v>
+      </c>
+      <c r="AI108">
+        <v>1.76</v>
+      </c>
+      <c r="AJ108">
+        <v>1.95</v>
+      </c>
+      <c r="AK108">
+        <v>1.18</v>
+      </c>
+      <c r="AL108">
+        <v>1.24</v>
+      </c>
+      <c r="AM108">
+        <v>2.07</v>
+      </c>
+      <c r="AN108">
+        <v>1.17</v>
+      </c>
+      <c r="AO108">
+        <v>1</v>
+      </c>
+      <c r="AP108">
+        <v>1.43</v>
+      </c>
+      <c r="AQ108">
+        <v>0.86</v>
+      </c>
+      <c r="AR108">
+        <v>1.53</v>
+      </c>
+      <c r="AS108">
+        <v>0.97</v>
+      </c>
+      <c r="AT108">
+        <v>2.5</v>
+      </c>
+      <c r="AU108">
+        <v>9</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>8</v>
+      </c>
+      <c r="AX108">
+        <v>3</v>
+      </c>
+      <c r="AY108">
+        <v>17</v>
+      </c>
+      <c r="AZ108">
+        <v>8</v>
+      </c>
+      <c r="BA108">
+        <v>2</v>
+      </c>
+      <c r="BB108">
+        <v>5</v>
+      </c>
+      <c r="BC108">
+        <v>7</v>
+      </c>
+      <c r="BD108">
+        <v>1.69</v>
+      </c>
+      <c r="BE108">
+        <v>8</v>
+      </c>
+      <c r="BF108">
+        <v>2.54</v>
+      </c>
+      <c r="BG108">
+        <v>1.21</v>
+      </c>
+      <c r="BH108">
+        <v>3.7</v>
+      </c>
+      <c r="BI108">
+        <v>1.4</v>
+      </c>
+      <c r="BJ108">
+        <v>2.6</v>
+      </c>
+      <c r="BK108">
+        <v>1.7</v>
+      </c>
+      <c r="BL108">
+        <v>2.05</v>
+      </c>
+      <c r="BM108">
+        <v>2.15</v>
+      </c>
+      <c r="BN108">
+        <v>1.58</v>
+      </c>
+      <c r="BO108">
+        <v>2.85</v>
+      </c>
+      <c r="BP108">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7321719</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45437.875</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>4</v>
+      </c>
+      <c r="O109" t="s">
+        <v>160</v>
+      </c>
+      <c r="P109" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q109">
+        <v>2.38</v>
+      </c>
+      <c r="R109">
+        <v>2.25</v>
+      </c>
+      <c r="S109">
+        <v>4.5</v>
+      </c>
+      <c r="T109">
+        <v>1.36</v>
+      </c>
+      <c r="U109">
+        <v>2.99</v>
+      </c>
+      <c r="V109">
+        <v>2.67</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>6.6</v>
+      </c>
+      <c r="Y109">
+        <v>1.09</v>
+      </c>
+      <c r="Z109">
+        <v>1.9</v>
+      </c>
+      <c r="AA109">
+        <v>3.2</v>
+      </c>
+      <c r="AB109">
+        <v>4.1</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE109">
+        <v>1.24</v>
+      </c>
+      <c r="AF109">
+        <v>3.48</v>
+      </c>
+      <c r="AG109">
+        <v>1.55</v>
+      </c>
+      <c r="AH109">
+        <v>2.2</v>
+      </c>
+      <c r="AI109">
+        <v>1.74</v>
+      </c>
+      <c r="AJ109">
+        <v>2.04</v>
+      </c>
+      <c r="AK109">
+        <v>1.2</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>2</v>
+      </c>
+      <c r="AN109">
+        <v>1.14</v>
+      </c>
+      <c r="AO109">
+        <v>0.83</v>
+      </c>
+      <c r="AP109">
+        <v>1.13</v>
+      </c>
+      <c r="AQ109">
+        <v>0.86</v>
+      </c>
+      <c r="AR109">
+        <v>1.4</v>
+      </c>
+      <c r="AS109">
+        <v>1.24</v>
+      </c>
+      <c r="AT109">
+        <v>2.64</v>
+      </c>
+      <c r="AU109">
+        <v>6</v>
+      </c>
+      <c r="AV109">
+        <v>8</v>
+      </c>
+      <c r="AW109">
+        <v>15</v>
+      </c>
+      <c r="AX109">
+        <v>8</v>
+      </c>
+      <c r="AY109">
+        <v>21</v>
+      </c>
+      <c r="AZ109">
+        <v>16</v>
+      </c>
+      <c r="BA109">
+        <v>9</v>
+      </c>
+      <c r="BB109">
+        <v>2</v>
+      </c>
+      <c r="BC109">
+        <v>11</v>
+      </c>
+      <c r="BD109">
+        <v>1.41</v>
+      </c>
+      <c r="BE109">
+        <v>9</v>
+      </c>
+      <c r="BF109">
+        <v>3.49</v>
+      </c>
+      <c r="BG109">
+        <v>1.21</v>
+      </c>
+      <c r="BH109">
+        <v>3.7</v>
+      </c>
+      <c r="BI109">
+        <v>1.4</v>
+      </c>
+      <c r="BJ109">
+        <v>2.6</v>
+      </c>
+      <c r="BK109">
+        <v>1.7</v>
+      </c>
+      <c r="BL109">
+        <v>2.05</v>
+      </c>
+      <c r="BM109">
+        <v>2.15</v>
+      </c>
+      <c r="BN109">
+        <v>1.58</v>
+      </c>
+      <c r="BO109">
+        <v>2.85</v>
+      </c>
+      <c r="BP109">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="228">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>['66', '90+14']</t>
+  </si>
+  <si>
+    <t>['27', '52']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -1056,7 +1059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1521,7 +1524,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1727,7 +1730,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1805,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ4">
         <v>1.17</v>
@@ -1933,7 +1936,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2139,7 +2142,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2345,7 +2348,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2426,7 +2429,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2551,7 +2554,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2835,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ9">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3169,7 +3172,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3375,7 +3378,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3787,7 +3790,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3993,7 +3996,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4199,7 +4202,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4405,7 +4408,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4817,7 +4820,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4898,7 +4901,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ19">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR19">
         <v>1.33</v>
@@ -5229,7 +5232,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5435,7 +5438,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5513,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22">
         <v>2.71</v>
@@ -5641,7 +5644,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6134,7 +6137,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ25">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR25">
         <v>0.9</v>
@@ -6259,7 +6262,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6465,7 +6468,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6877,7 +6880,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7083,7 +7086,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7495,7 +7498,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7576,7 +7579,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7779,7 +7782,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
         <v>1.17</v>
@@ -8812,7 +8815,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ38">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9349,7 +9352,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9427,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ41">
         <v>0.86</v>
@@ -9555,7 +9558,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9761,7 +9764,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9967,7 +9970,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10379,7 +10382,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10663,7 +10666,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10791,7 +10794,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10997,7 +11000,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11078,7 +11081,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR49">
         <v>1.05</v>
@@ -11281,7 +11284,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50">
         <v>1.57</v>
@@ -11902,7 +11905,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ53">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR53">
         <v>1.66</v>
@@ -12027,7 +12030,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12233,7 +12236,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12439,7 +12442,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12645,7 +12648,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12851,7 +12854,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13135,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ59">
         <v>1.75</v>
@@ -13469,7 +13472,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13675,7 +13678,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14087,7 +14090,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14499,7 +14502,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14705,7 +14708,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14786,7 +14789,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR67">
         <v>1.37</v>
@@ -14911,7 +14914,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15529,7 +15532,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15735,7 +15738,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15941,7 +15944,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16022,7 +16025,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16147,7 +16150,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16353,7 +16356,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16431,7 +16434,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
         <v>2.43</v>
@@ -16765,7 +16768,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16971,7 +16974,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17177,7 +17180,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17795,7 +17798,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18207,7 +18210,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18413,7 +18416,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18619,7 +18622,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18700,7 +18703,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ86">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -18825,7 +18828,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -18903,7 +18906,7 @@
         <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ87">
         <v>1.57</v>
@@ -19031,7 +19034,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19237,7 +19240,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19318,7 +19321,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ89">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19443,7 +19446,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19649,7 +19652,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19855,7 +19858,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20139,7 +20142,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93">
         <v>0.86</v>
@@ -20267,7 +20270,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20473,7 +20476,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20554,7 +20557,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ95">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -20679,7 +20682,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21091,7 +21094,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21297,7 +21300,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21375,7 +21378,7 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ99">
         <v>2.43</v>
@@ -21503,7 +21506,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21915,7 +21918,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22121,7 +22124,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22202,7 +22205,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR103">
         <v>1.75</v>
@@ -22533,7 +22536,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22945,7 +22948,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23151,7 +23154,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23357,7 +23360,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23514,6 +23517,418 @@
       </c>
       <c r="BP109">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7321722</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45438.66666666666</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>72</v>
+      </c>
+      <c r="H110" t="s">
+        <v>74</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>161</v>
+      </c>
+      <c r="P110" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q110">
+        <v>3</v>
+      </c>
+      <c r="R110">
+        <v>2.3</v>
+      </c>
+      <c r="S110">
+        <v>3.25</v>
+      </c>
+      <c r="T110">
+        <v>1.33</v>
+      </c>
+      <c r="U110">
+        <v>3.15</v>
+      </c>
+      <c r="V110">
+        <v>2.51</v>
+      </c>
+      <c r="W110">
+        <v>1.49</v>
+      </c>
+      <c r="X110">
+        <v>6</v>
+      </c>
+      <c r="Y110">
+        <v>1.11</v>
+      </c>
+      <c r="Z110">
+        <v>2.18</v>
+      </c>
+      <c r="AA110">
+        <v>3.72</v>
+      </c>
+      <c r="AB110">
+        <v>2.96</v>
+      </c>
+      <c r="AC110">
+        <v>1.01</v>
+      </c>
+      <c r="AD110">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE110">
+        <v>1.2</v>
+      </c>
+      <c r="AF110">
+        <v>3.88</v>
+      </c>
+      <c r="AG110">
+        <v>1.69</v>
+      </c>
+      <c r="AH110">
+        <v>2.09</v>
+      </c>
+      <c r="AI110">
+        <v>1.58</v>
+      </c>
+      <c r="AJ110">
+        <v>2.31</v>
+      </c>
+      <c r="AK110">
+        <v>1.44</v>
+      </c>
+      <c r="AL110">
+        <v>1.28</v>
+      </c>
+      <c r="AM110">
+        <v>1.53</v>
+      </c>
+      <c r="AN110">
+        <v>1.5</v>
+      </c>
+      <c r="AO110">
+        <v>1.63</v>
+      </c>
+      <c r="AP110">
+        <v>1.71</v>
+      </c>
+      <c r="AQ110">
+        <v>1.44</v>
+      </c>
+      <c r="AR110">
+        <v>1.59</v>
+      </c>
+      <c r="AS110">
+        <v>1.31</v>
+      </c>
+      <c r="AT110">
+        <v>2.9</v>
+      </c>
+      <c r="AU110">
+        <v>9</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>8</v>
+      </c>
+      <c r="AX110">
+        <v>9</v>
+      </c>
+      <c r="AY110">
+        <v>17</v>
+      </c>
+      <c r="AZ110">
+        <v>13</v>
+      </c>
+      <c r="BA110">
+        <v>4</v>
+      </c>
+      <c r="BB110">
+        <v>3</v>
+      </c>
+      <c r="BC110">
+        <v>7</v>
+      </c>
+      <c r="BD110">
+        <v>1.75</v>
+      </c>
+      <c r="BE110">
+        <v>8</v>
+      </c>
+      <c r="BF110">
+        <v>2.44</v>
+      </c>
+      <c r="BG110">
+        <v>1.21</v>
+      </c>
+      <c r="BH110">
+        <v>3.7</v>
+      </c>
+      <c r="BI110">
+        <v>1.4</v>
+      </c>
+      <c r="BJ110">
+        <v>2.6</v>
+      </c>
+      <c r="BK110">
+        <v>1.7</v>
+      </c>
+      <c r="BL110">
+        <v>2.05</v>
+      </c>
+      <c r="BM110">
+        <v>2.15</v>
+      </c>
+      <c r="BN110">
+        <v>1.58</v>
+      </c>
+      <c r="BO110">
+        <v>2.85</v>
+      </c>
+      <c r="BP110">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7321724</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45438.77083333334</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>70</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111" t="s">
+        <v>86</v>
+      </c>
+      <c r="P111" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q111">
+        <v>2.3</v>
+      </c>
+      <c r="R111">
+        <v>2.38</v>
+      </c>
+      <c r="S111">
+        <v>4.96</v>
+      </c>
+      <c r="T111">
+        <v>1.35</v>
+      </c>
+      <c r="U111">
+        <v>3.04</v>
+      </c>
+      <c r="V111">
+        <v>2.63</v>
+      </c>
+      <c r="W111">
+        <v>1.45</v>
+      </c>
+      <c r="X111">
+        <v>6.4</v>
+      </c>
+      <c r="Y111">
+        <v>1.1</v>
+      </c>
+      <c r="Z111">
+        <v>1.77</v>
+      </c>
+      <c r="AA111">
+        <v>3.78</v>
+      </c>
+      <c r="AB111">
+        <v>4.26</v>
+      </c>
+      <c r="AC111">
+        <v>1.01</v>
+      </c>
+      <c r="AD111">
+        <v>10</v>
+      </c>
+      <c r="AE111">
+        <v>1.22</v>
+      </c>
+      <c r="AF111">
+        <v>3.64</v>
+      </c>
+      <c r="AG111">
+        <v>1.78</v>
+      </c>
+      <c r="AH111">
+        <v>1.97</v>
+      </c>
+      <c r="AI111">
+        <v>1.73</v>
+      </c>
+      <c r="AJ111">
+        <v>2.06</v>
+      </c>
+      <c r="AK111">
+        <v>1.2</v>
+      </c>
+      <c r="AL111">
+        <v>1.25</v>
+      </c>
+      <c r="AM111">
+        <v>2.02</v>
+      </c>
+      <c r="AN111">
+        <v>1.5</v>
+      </c>
+      <c r="AO111">
+        <v>0.67</v>
+      </c>
+      <c r="AP111">
+        <v>1.43</v>
+      </c>
+      <c r="AQ111">
+        <v>0.71</v>
+      </c>
+      <c r="AR111">
+        <v>1.49</v>
+      </c>
+      <c r="AS111">
+        <v>1.28</v>
+      </c>
+      <c r="AT111">
+        <v>2.77</v>
+      </c>
+      <c r="AU111">
+        <v>5</v>
+      </c>
+      <c r="AV111">
+        <v>4</v>
+      </c>
+      <c r="AW111">
+        <v>8</v>
+      </c>
+      <c r="AX111">
+        <v>2</v>
+      </c>
+      <c r="AY111">
+        <v>13</v>
+      </c>
+      <c r="AZ111">
+        <v>6</v>
+      </c>
+      <c r="BA111">
+        <v>9</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>9</v>
+      </c>
+      <c r="BD111">
+        <v>1.51</v>
+      </c>
+      <c r="BE111">
+        <v>8.5</v>
+      </c>
+      <c r="BF111">
+        <v>3.16</v>
+      </c>
+      <c r="BG111">
+        <v>1.25</v>
+      </c>
+      <c r="BH111">
+        <v>3.3</v>
+      </c>
+      <c r="BI111">
+        <v>1.48</v>
+      </c>
+      <c r="BJ111">
+        <v>2.38</v>
+      </c>
+      <c r="BK111">
+        <v>1.92</v>
+      </c>
+      <c r="BL111">
+        <v>1.88</v>
+      </c>
+      <c r="BM111">
+        <v>2.35</v>
+      </c>
+      <c r="BN111">
+        <v>1.49</v>
+      </c>
+      <c r="BO111">
+        <v>3.15</v>
+      </c>
+      <c r="BP111">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -23865,31 +23865,31 @@
         <v>2.77</v>
       </c>
       <c r="AU111">
+        <v>8</v>
+      </c>
+      <c r="AV111">
         <v>5</v>
       </c>
-      <c r="AV111">
-        <v>4</v>
-      </c>
       <c r="AW111">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AX111">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY111">
+        <v>31</v>
+      </c>
+      <c r="AZ111">
+        <v>12</v>
+      </c>
+      <c r="BA111">
         <v>13</v>
       </c>
-      <c r="AZ111">
-        <v>6</v>
-      </c>
-      <c r="BA111">
-        <v>9</v>
-      </c>
       <c r="BB111">
         <v>0</v>
       </c>
       <c r="BC111">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD111">
         <v>1.51</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -247,16 +247,16 @@
     <t>Coquimbo Unido</t>
   </si>
   <si>
+    <t>Palestino</t>
+  </si>
+  <si>
     <t>Universidad Chile</t>
   </si>
   <si>
-    <t>Palestino</t>
+    <t>Huachipato</t>
   </si>
   <si>
     <t>Deportes Iquique</t>
-  </si>
-  <si>
-    <t>Huachipato</t>
   </si>
   <si>
     <t>O'Higgins</t>
@@ -289,10 +289,10 @@
     <t>['38', '71', '90+6']</t>
   </si>
   <si>
-    <t>['69']</t>
+    <t>['19', '23', '28', '48', '59']</t>
   </si>
   <si>
-    <t>['19', '23', '28', '48', '59']</t>
+    <t>['69']</t>
   </si>
   <si>
     <t>['45+1']</t>
@@ -520,10 +520,10 @@
     <t>['13']</t>
   </si>
   <si>
-    <t>['26']</t>
+    <t>['84']</t>
   </si>
   <si>
-    <t>['84']</t>
+    <t>['26']</t>
   </si>
   <si>
     <t>['38', '54']</t>
@@ -1912,7 +1912,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2718,7 +2718,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7321626</v>
+        <v>7321622</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -2736,25 +2736,25 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O9" t="s">
         <v>91</v>
@@ -2763,73 +2763,73 @@
         <v>86</v>
       </c>
       <c r="Q9">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R9">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S9">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="U9">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="V9">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="W9">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X9">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y9">
         <v>1.08</v>
       </c>
       <c r="Z9">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="AA9">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB9">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AC9">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD9">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE9">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AF9">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="AG9">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="AH9">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AI9">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AJ9">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AK9">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AL9">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AM9">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2838,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AQ9">
-        <v>1.44</v>
+        <v>0.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2853,40 +2853,40 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX9">
+        <v>6</v>
+      </c>
+      <c r="AY9">
+        <v>11</v>
+      </c>
+      <c r="AZ9">
+        <v>6</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
         <v>5</v>
       </c>
-      <c r="AY9">
+      <c r="BC9">
         <v>6</v>
       </c>
-      <c r="AZ9">
-        <v>7</v>
-      </c>
-      <c r="BA9">
-        <v>4</v>
-      </c>
-      <c r="BB9">
-        <v>3</v>
-      </c>
-      <c r="BC9">
-        <v>7</v>
-      </c>
       <c r="BD9">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="BE9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF9">
-        <v>3.58</v>
+        <v>2.8</v>
       </c>
       <c r="BG9">
         <v>1.27</v>
@@ -2895,10 +2895,10 @@
         <v>3.55</v>
       </c>
       <c r="BI9">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="BJ9">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="BK9">
         <v>1.85</v>
@@ -2924,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7321622</v>
+        <v>7321626</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -2942,25 +2942,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" t="s">
         <v>92</v>
@@ -2969,73 +2969,73 @@
         <v>86</v>
       </c>
       <c r="Q10">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R10">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="T10">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="U10">
-        <v>2.95</v>
+        <v>2.86</v>
       </c>
       <c r="V10">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="W10">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X10">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="Y10">
         <v>1.08</v>
       </c>
       <c r="Z10">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AA10">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB10">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AC10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD10">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE10">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AF10">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="AG10">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AH10">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AI10">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AJ10">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AK10">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AL10">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AM10">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AQ10">
-        <v>0.86</v>
+        <v>1.44</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3059,40 +3059,40 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW10">
+        <v>4</v>
+      </c>
+      <c r="AX10">
+        <v>5</v>
+      </c>
+      <c r="AY10">
+        <v>6</v>
+      </c>
+      <c r="AZ10">
+        <v>7</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
+      </c>
+      <c r="BB10">
         <v>3</v>
       </c>
-      <c r="AX10">
-        <v>6</v>
-      </c>
-      <c r="AY10">
-        <v>11</v>
-      </c>
-      <c r="AZ10">
-        <v>6</v>
-      </c>
-      <c r="BA10">
-        <v>1</v>
-      </c>
-      <c r="BB10">
-        <v>5</v>
-      </c>
       <c r="BC10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD10">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="BE10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF10">
-        <v>2.8</v>
+        <v>3.58</v>
       </c>
       <c r="BG10">
         <v>1.27</v>
@@ -3101,10 +3101,10 @@
         <v>3.55</v>
       </c>
       <c r="BI10">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BJ10">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="BK10">
         <v>1.85</v>
@@ -3130,7 +3130,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7321625</v>
+        <v>7321624</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -3148,46 +3148,46 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s">
         <v>168</v>
       </c>
       <c r="Q11">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="R11">
         <v>2.2</v>
       </c>
       <c r="S11">
+        <v>4.33</v>
+      </c>
+      <c r="T11">
+        <v>1.36</v>
+      </c>
+      <c r="U11">
         <v>3</v>
-      </c>
-      <c r="T11">
-        <v>1.4</v>
-      </c>
-      <c r="U11">
-        <v>2.75</v>
       </c>
       <c r="V11">
         <v>2.75</v>
@@ -3196,19 +3196,19 @@
         <v>1.4</v>
       </c>
       <c r="X11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y11">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z11">
-        <v>3.05</v>
+        <v>1.9</v>
       </c>
       <c r="AA11">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AB11">
-        <v>2.25</v>
+        <v>3.9</v>
       </c>
       <c r="AC11">
         <v>1.05</v>
@@ -3220,13 +3220,13 @@
         <v>1.3</v>
       </c>
       <c r="AF11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AG11">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AH11">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AI11">
         <v>1.73</v>
@@ -3235,13 +3235,13 @@
         <v>2</v>
       </c>
       <c r="AK11">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AL11">
         <v>1.25</v>
       </c>
       <c r="AM11">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3265,70 +3265,70 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
+        <v>9</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+      <c r="AY11">
+        <v>13</v>
+      </c>
+      <c r="AZ11">
         <v>4</v>
-      </c>
-      <c r="AW11">
-        <v>6</v>
-      </c>
-      <c r="AX11">
-        <v>2</v>
-      </c>
-      <c r="AY11">
-        <v>11</v>
-      </c>
-      <c r="AZ11">
-        <v>6</v>
       </c>
       <c r="BA11">
         <v>7</v>
       </c>
       <c r="BB11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD11">
+        <v>1.41</v>
+      </c>
+      <c r="BE11">
+        <v>9</v>
+      </c>
+      <c r="BF11">
+        <v>3.58</v>
+      </c>
+      <c r="BG11">
+        <v>1.2</v>
+      </c>
+      <c r="BH11">
+        <v>4.25</v>
+      </c>
+      <c r="BI11">
+        <v>1.37</v>
+      </c>
+      <c r="BJ11">
+        <v>2.85</v>
+      </c>
+      <c r="BK11">
+        <v>1.67</v>
+      </c>
+      <c r="BL11">
+        <v>2.07</v>
+      </c>
+      <c r="BM11">
         <v>2.1</v>
       </c>
-      <c r="BE11">
-        <v>8</v>
-      </c>
-      <c r="BF11">
-        <v>1.91</v>
-      </c>
-      <c r="BG11">
-        <v>1.25</v>
-      </c>
-      <c r="BH11">
-        <v>3.7</v>
-      </c>
-      <c r="BI11">
-        <v>1.48</v>
-      </c>
-      <c r="BJ11">
-        <v>2.47</v>
-      </c>
-      <c r="BK11">
-        <v>1.8</v>
-      </c>
-      <c r="BL11">
-        <v>1.9</v>
-      </c>
-      <c r="BM11">
-        <v>2.33</v>
-      </c>
       <c r="BN11">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="BO11">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="BP11">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -3336,7 +3336,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7321624</v>
+        <v>7321625</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3354,46 +3354,46 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="P12" t="s">
         <v>169</v>
       </c>
       <c r="Q12">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="R12">
         <v>2.2</v>
       </c>
       <c r="S12">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V12">
         <v>2.75</v>
@@ -3402,19 +3402,19 @@
         <v>1.4</v>
       </c>
       <c r="X12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y12">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z12">
-        <v>1.9</v>
+        <v>3.05</v>
       </c>
       <c r="AA12">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AB12">
-        <v>3.9</v>
+        <v>2.25</v>
       </c>
       <c r="AC12">
         <v>1.05</v>
@@ -3426,13 +3426,13 @@
         <v>1.3</v>
       </c>
       <c r="AF12">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AG12">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AH12">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AI12">
         <v>1.73</v>
@@ -3441,13 +3441,13 @@
         <v>2</v>
       </c>
       <c r="AK12">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AL12">
         <v>1.25</v>
       </c>
       <c r="AM12">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3456,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.86</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3471,70 +3471,70 @@
         <v>0</v>
       </c>
       <c r="AU12">
+        <v>5</v>
+      </c>
+      <c r="AV12">
         <v>4</v>
       </c>
-      <c r="AV12">
-        <v>2</v>
-      </c>
       <c r="AW12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX12">
         <v>2</v>
       </c>
       <c r="AY12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA12">
         <v>7</v>
       </c>
       <c r="BB12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD12">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="BE12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF12">
-        <v>3.58</v>
+        <v>1.91</v>
       </c>
       <c r="BG12">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="BH12">
-        <v>4.25</v>
+        <v>3.7</v>
       </c>
       <c r="BI12">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="BJ12">
-        <v>2.85</v>
+        <v>2.47</v>
       </c>
       <c r="BK12">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BL12">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="BM12">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="BN12">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="BO12">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="BP12">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -4160,7 +4160,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7321755</v>
+        <v>7321630</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -4175,190 +4175,190 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q16">
-        <v>3.75</v>
+        <v>2.54</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S16">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="T16">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="U16">
+        <v>3.04</v>
+      </c>
+      <c r="V16">
         <v>2.6</v>
       </c>
-      <c r="V16">
-        <v>3.2</v>
-      </c>
       <c r="W16">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="X16">
-        <v>8.449999999999999</v>
+        <v>6.35</v>
       </c>
       <c r="Y16">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="Z16">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="AA16">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB16">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="AC16">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AD16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE16">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AF16">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="AG16">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="AH16">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="AI16">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AJ16">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="AK16">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AL16">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM16">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AN16">
         <v>3</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>2.43</v>
       </c>
       <c r="AR16">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AS16">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>2.48</v>
+        <v>1.44</v>
       </c>
       <c r="AU16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV16">
         <v>4</v>
       </c>
       <c r="AW16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY16">
+        <v>13</v>
+      </c>
+      <c r="AZ16">
+        <v>5</v>
+      </c>
+      <c r="BA16">
+        <v>6</v>
+      </c>
+      <c r="BB16">
+        <v>5</v>
+      </c>
+      <c r="BC16">
         <v>11</v>
       </c>
-      <c r="AZ16">
-        <v>7</v>
-      </c>
-      <c r="BA16">
-        <v>4</v>
-      </c>
-      <c r="BB16">
-        <v>9</v>
-      </c>
-      <c r="BC16">
-        <v>13</v>
-      </c>
       <c r="BD16">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="BE16">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF16">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="BG16">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BH16">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="BI16">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="BJ16">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="BK16">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="BL16">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="BM16">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="BN16">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BO16">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="BP16">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4366,7 +4366,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7321630</v>
+        <v>7321755</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4381,190 +4381,190 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q17">
-        <v>2.54</v>
+        <v>3.75</v>
       </c>
       <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>3.1</v>
+      </c>
+      <c r="T17">
+        <v>1.44</v>
+      </c>
+      <c r="U17">
+        <v>2.6</v>
+      </c>
+      <c r="V17">
+        <v>3.2</v>
+      </c>
+      <c r="W17">
+        <v>1.31</v>
+      </c>
+      <c r="X17">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y17">
+        <v>1.04</v>
+      </c>
+      <c r="Z17">
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <v>3.2</v>
+      </c>
+      <c r="AB17">
         <v>2.2</v>
       </c>
-      <c r="S17">
-        <v>3.9</v>
-      </c>
-      <c r="T17">
-        <v>1.35</v>
-      </c>
-      <c r="U17">
-        <v>3.04</v>
-      </c>
-      <c r="V17">
-        <v>2.6</v>
-      </c>
-      <c r="W17">
-        <v>1.46</v>
-      </c>
-      <c r="X17">
-        <v>6.35</v>
-      </c>
-      <c r="Y17">
-        <v>1.1</v>
-      </c>
-      <c r="Z17">
-        <v>1.91</v>
-      </c>
-      <c r="AA17">
-        <v>3.6</v>
-      </c>
-      <c r="AB17">
-        <v>3.15</v>
-      </c>
       <c r="AC17">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE17">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AF17">
-        <v>3.65</v>
+        <v>2.95</v>
       </c>
       <c r="AG17">
-        <v>1.75</v>
+        <v>2.09</v>
       </c>
       <c r="AH17">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="AI17">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AJ17">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="AK17">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AL17">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AM17">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AN17">
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17">
-        <v>2.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AT17">
-        <v>1.44</v>
+        <v>2.48</v>
       </c>
       <c r="AU17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV17">
         <v>4</v>
       </c>
       <c r="AW17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY17">
+        <v>11</v>
+      </c>
+      <c r="AZ17">
+        <v>7</v>
+      </c>
+      <c r="BA17">
+        <v>4</v>
+      </c>
+      <c r="BB17">
+        <v>9</v>
+      </c>
+      <c r="BC17">
         <v>13</v>
       </c>
-      <c r="AZ17">
-        <v>5</v>
-      </c>
-      <c r="BA17">
-        <v>6</v>
-      </c>
-      <c r="BB17">
-        <v>5</v>
-      </c>
-      <c r="BC17">
-        <v>11</v>
-      </c>
       <c r="BD17">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="BE17">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF17">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
       <c r="BG17">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH17">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="BI17">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="BJ17">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="BK17">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="BL17">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="BM17">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="BN17">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="BO17">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="BP17">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -5002,7 +5002,7 @@
         <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5208,7 +5208,7 @@
         <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5414,7 +5414,7 @@
         <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5620,7 +5620,7 @@
         <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5826,7 +5826,7 @@
         <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -6444,7 +6444,7 @@
         <v>83</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -7265,7 +7265,7 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s">
         <v>82</v>
@@ -7677,7 +7677,7 @@
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s">
         <v>81</v>
@@ -8295,7 +8295,7 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s">
         <v>72</v>
@@ -8501,7 +8501,7 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s">
         <v>84</v>
@@ -9122,7 +9122,7 @@
         <v>85</v>
       </c>
       <c r="H40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -9325,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s">
         <v>82</v>
@@ -9558,7 +9558,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9740,7 +9740,7 @@
         <v>81</v>
       </c>
       <c r="H43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -9946,7 +9946,7 @@
         <v>82</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -10149,7 +10149,7 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s">
         <v>75</v>
@@ -10770,7 +10770,7 @@
         <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -11182,7 +11182,7 @@
         <v>72</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -12418,7 +12418,7 @@
         <v>71</v>
       </c>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -12827,7 +12827,7 @@
         <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s">
         <v>75</v>
@@ -13018,7 +13018,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7321672</v>
+        <v>7321676</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -13033,10 +13033,10 @@
         <v>8</v>
       </c>
       <c r="G59" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -13048,175 +13048,175 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="Q59">
-        <v>2.31</v>
+        <v>3.02</v>
       </c>
       <c r="R59">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="S59">
-        <v>4.75</v>
+        <v>3.54</v>
       </c>
       <c r="T59">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="U59">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="V59">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="W59">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="X59">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="Y59">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z59">
-        <v>1.78</v>
+        <v>2.41</v>
       </c>
       <c r="AA59">
-        <v>3.62</v>
+        <v>3.21</v>
       </c>
       <c r="AB59">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="AC59">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD59">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AE59">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AF59">
-        <v>3.34</v>
+        <v>3.18</v>
       </c>
       <c r="AG59">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="AH59">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="AI59">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AJ59">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="AK59">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AL59">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="AM59">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="AN59">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>0.83</v>
       </c>
       <c r="AR59">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AS59">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AT59">
         <v>2.61</v>
       </c>
       <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>2</v>
+      </c>
+      <c r="AW59">
+        <v>7</v>
+      </c>
+      <c r="AX59">
+        <v>5</v>
+      </c>
+      <c r="AY59">
+        <v>12</v>
+      </c>
+      <c r="AZ59">
+        <v>7</v>
+      </c>
+      <c r="BA59">
+        <v>7</v>
+      </c>
+      <c r="BB59">
+        <v>1</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+      <c r="BD59">
+        <v>2</v>
+      </c>
+      <c r="BE59">
+        <v>8.5</v>
+      </c>
+      <c r="BF59">
+        <v>2.05</v>
+      </c>
+      <c r="BG59">
+        <v>1.2</v>
+      </c>
+      <c r="BH59">
         <v>4</v>
       </c>
-      <c r="AV59">
-        <v>6</v>
-      </c>
-      <c r="AW59">
-        <v>4</v>
-      </c>
-      <c r="AX59">
-        <v>4</v>
-      </c>
-      <c r="AY59">
-        <v>8</v>
-      </c>
-      <c r="AZ59">
-        <v>10</v>
-      </c>
-      <c r="BA59">
-        <v>5</v>
-      </c>
-      <c r="BB59">
-        <v>7</v>
-      </c>
-      <c r="BC59">
-        <v>12</v>
-      </c>
-      <c r="BD59">
-        <v>1.59</v>
-      </c>
-      <c r="BE59">
-        <v>8</v>
-      </c>
-      <c r="BF59">
-        <v>2.8</v>
-      </c>
-      <c r="BG59">
-        <v>1.31</v>
-      </c>
-      <c r="BH59">
-        <v>3.15</v>
-      </c>
       <c r="BI59">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="BJ59">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="BK59">
+        <v>1.35</v>
+      </c>
+      <c r="BL59">
+        <v>2.95</v>
+      </c>
+      <c r="BM59">
+        <v>1.67</v>
+      </c>
+      <c r="BN59">
         <v>2.07</v>
       </c>
-      <c r="BL59">
+      <c r="BO59">
+        <v>2.07</v>
+      </c>
+      <c r="BP59">
         <v>1.67</v>
-      </c>
-      <c r="BM59">
-        <v>2.77</v>
-      </c>
-      <c r="BN59">
-        <v>1.39</v>
-      </c>
-      <c r="BO59">
-        <v>3.6</v>
-      </c>
-      <c r="BP59">
-        <v>1.25</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13224,7 +13224,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7321676</v>
+        <v>7321672</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13239,10 +13239,10 @@
         <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -13254,175 +13254,175 @@
         <v>0</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="Q60">
-        <v>3.02</v>
+        <v>2.31</v>
       </c>
       <c r="R60">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="S60">
-        <v>3.54</v>
+        <v>4.75</v>
       </c>
       <c r="T60">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="U60">
-        <v>2.74</v>
+        <v>2.9</v>
       </c>
       <c r="V60">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="W60">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X60">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="Y60">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z60">
-        <v>2.41</v>
+        <v>1.78</v>
       </c>
       <c r="AA60">
-        <v>3.21</v>
+        <v>3.62</v>
       </c>
       <c r="AB60">
-        <v>2.92</v>
+        <v>4.3</v>
       </c>
       <c r="AC60">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD60">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE60">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AF60">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="AG60">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="AH60">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AI60">
+        <v>1.86</v>
+      </c>
+      <c r="AJ60">
+        <v>1.92</v>
+      </c>
+      <c r="AK60">
+        <v>1.2</v>
+      </c>
+      <c r="AL60">
+        <v>1.26</v>
+      </c>
+      <c r="AM60">
+        <v>1.98</v>
+      </c>
+      <c r="AN60">
+        <v>2.33</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>1.43</v>
+      </c>
+      <c r="AQ60">
         <v>1.75</v>
       </c>
-      <c r="AJ60">
-        <v>2.05</v>
-      </c>
-      <c r="AK60">
-        <v>1.4</v>
-      </c>
-      <c r="AL60">
-        <v>1.32</v>
-      </c>
-      <c r="AM60">
-        <v>1.53</v>
-      </c>
-      <c r="AN60">
-        <v>1.5</v>
-      </c>
-      <c r="AO60">
-        <v>1.33</v>
-      </c>
-      <c r="AP60">
-        <v>1.13</v>
-      </c>
-      <c r="AQ60">
-        <v>0.83</v>
-      </c>
       <c r="AR60">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AS60">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AT60">
         <v>2.61</v>
       </c>
       <c r="AU60">
+        <v>4</v>
+      </c>
+      <c r="AV60">
+        <v>6</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>8</v>
+      </c>
+      <c r="AZ60">
+        <v>10</v>
+      </c>
+      <c r="BA60">
         <v>5</v>
       </c>
-      <c r="AV60">
-        <v>2</v>
-      </c>
-      <c r="AW60">
+      <c r="BB60">
         <v>7</v>
       </c>
-      <c r="AX60">
-        <v>5</v>
-      </c>
-      <c r="AY60">
+      <c r="BC60">
         <v>12</v>
       </c>
-      <c r="AZ60">
-        <v>7</v>
-      </c>
-      <c r="BA60">
-        <v>7</v>
-      </c>
-      <c r="BB60">
-        <v>1</v>
-      </c>
-      <c r="BC60">
+      <c r="BD60">
+        <v>1.59</v>
+      </c>
+      <c r="BE60">
         <v>8</v>
       </c>
-      <c r="BD60">
-        <v>2</v>
-      </c>
-      <c r="BE60">
-        <v>8.5</v>
-      </c>
       <c r="BF60">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="BG60">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="BH60">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="BI60">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="BJ60">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="BK60">
-        <v>1.35</v>
+        <v>2.07</v>
       </c>
       <c r="BL60">
-        <v>2.95</v>
+        <v>1.67</v>
       </c>
       <c r="BM60">
-        <v>1.67</v>
+        <v>2.77</v>
       </c>
       <c r="BN60">
-        <v>2.07</v>
+        <v>1.39</v>
       </c>
       <c r="BO60">
-        <v>2.07</v>
+        <v>3.6</v>
       </c>
       <c r="BP60">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13448,7 +13448,7 @@
         <v>70</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -14269,10 +14269,10 @@
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -15299,10 +15299,10 @@
         <v>9</v>
       </c>
       <c r="G70" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s">
         <v>80</v>
-      </c>
-      <c r="H70" t="s">
-        <v>79</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -15505,10 +15505,10 @@
         <v>9</v>
       </c>
       <c r="G71" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s">
         <v>78</v>
-      </c>
-      <c r="H71" t="s">
-        <v>77</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -16947,10 +16947,10 @@
         <v>10</v>
       </c>
       <c r="G78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -17359,10 +17359,10 @@
         <v>10</v>
       </c>
       <c r="G80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -17386,7 +17386,7 @@
         <v>137</v>
       </c>
       <c r="P80" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q80">
         <v>3.25</v>
@@ -17771,7 +17771,7 @@
         <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s">
         <v>72</v>
@@ -17980,7 +17980,7 @@
         <v>76</v>
       </c>
       <c r="H83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I83">
         <v>2</v>
@@ -18801,10 +18801,10 @@
         <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -19419,7 +19419,7 @@
         <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s">
         <v>71</v>
@@ -20449,7 +20449,7 @@
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s">
         <v>70</v>
@@ -20658,7 +20658,7 @@
         <v>84</v>
       </c>
       <c r="H96" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -21070,7 +21070,7 @@
         <v>73</v>
       </c>
       <c r="H98" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -21273,7 +21273,7 @@
         <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H99" t="s">
         <v>75</v>
@@ -21688,7 +21688,7 @@
         <v>83</v>
       </c>
       <c r="H101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -22097,7 +22097,7 @@
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H103" t="s">
         <v>74</v>
@@ -22303,7 +22303,7 @@
         <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H104" t="s">
         <v>71</v>
@@ -22715,7 +22715,7 @@
         <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H106" t="s">
         <v>85</v>
@@ -22921,7 +22921,7 @@
         <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H107" t="s">
         <v>83</v>
@@ -23745,7 +23745,7 @@
         <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H111" t="s">
         <v>70</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -699,6 +699,9 @@
   <si>
     <t>['45+2', '90+2']</t>
   </si>
+  <si>
+    <t>['9', '43', '53', '68']</t>
+  </si>
 </sst>
 </file>
 
@@ -1059,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1811,7 +1814,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2014,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>0.83</v>
@@ -4074,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0.86</v>
@@ -7785,7 +7788,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -7988,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1.2</v>
@@ -10872,7 +10875,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>2.71</v>
@@ -12111,7 +12114,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR54">
         <v>1.39</v>
@@ -15201,7 +15204,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
@@ -16022,7 +16025,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1.44</v>
@@ -19112,7 +19115,7 @@
         <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>1.25</v>
@@ -19733,7 +19736,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ91">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -21172,7 +21175,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>1.57</v>
@@ -21587,7 +21590,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ100">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -23929,6 +23932,212 @@
       </c>
       <c r="BP111">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7321731</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45443.89583333334</v>
+      </c>
+      <c r="F112">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>73</v>
+      </c>
+      <c r="H112" t="s">
+        <v>81</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>4</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>86</v>
+      </c>
+      <c r="P112" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q112">
+        <v>3.25</v>
+      </c>
+      <c r="R112">
+        <v>2.1</v>
+      </c>
+      <c r="S112">
+        <v>3.4</v>
+      </c>
+      <c r="T112">
+        <v>1.39</v>
+      </c>
+      <c r="U112">
+        <v>2.75</v>
+      </c>
+      <c r="V112">
+        <v>2.9</v>
+      </c>
+      <c r="W112">
+        <v>1.37</v>
+      </c>
+      <c r="X112">
+        <v>7.35</v>
+      </c>
+      <c r="Y112">
+        <v>1.06</v>
+      </c>
+      <c r="Z112">
+        <v>2.37</v>
+      </c>
+      <c r="AA112">
+        <v>3.15</v>
+      </c>
+      <c r="AB112">
+        <v>2.54</v>
+      </c>
+      <c r="AC112">
+        <v>1.05</v>
+      </c>
+      <c r="AD112">
+        <v>10</v>
+      </c>
+      <c r="AE112">
+        <v>1.33</v>
+      </c>
+      <c r="AF112">
+        <v>3.3</v>
+      </c>
+      <c r="AG112">
+        <v>1.83</v>
+      </c>
+      <c r="AH112">
+        <v>1.87</v>
+      </c>
+      <c r="AI112">
+        <v>1.75</v>
+      </c>
+      <c r="AJ112">
+        <v>2.05</v>
+      </c>
+      <c r="AK112">
+        <v>1.45</v>
+      </c>
+      <c r="AL112">
+        <v>1.28</v>
+      </c>
+      <c r="AM112">
+        <v>1.52</v>
+      </c>
+      <c r="AN112">
+        <v>1.14</v>
+      </c>
+      <c r="AO112">
+        <v>1.17</v>
+      </c>
+      <c r="AP112">
+        <v>1</v>
+      </c>
+      <c r="AQ112">
+        <v>1.43</v>
+      </c>
+      <c r="AR112">
+        <v>1.94</v>
+      </c>
+      <c r="AS112">
+        <v>1.46</v>
+      </c>
+      <c r="AT112">
+        <v>3.4</v>
+      </c>
+      <c r="AU112">
+        <v>4</v>
+      </c>
+      <c r="AV112">
+        <v>5</v>
+      </c>
+      <c r="AW112">
+        <v>9</v>
+      </c>
+      <c r="AX112">
+        <v>3</v>
+      </c>
+      <c r="AY112">
+        <v>13</v>
+      </c>
+      <c r="AZ112">
+        <v>8</v>
+      </c>
+      <c r="BA112">
+        <v>3</v>
+      </c>
+      <c r="BB112">
+        <v>4</v>
+      </c>
+      <c r="BC112">
+        <v>7</v>
+      </c>
+      <c r="BD112">
+        <v>1.91</v>
+      </c>
+      <c r="BE112">
+        <v>8</v>
+      </c>
+      <c r="BF112">
+        <v>2.2</v>
+      </c>
+      <c r="BG112">
+        <v>1.25</v>
+      </c>
+      <c r="BH112">
+        <v>3.6</v>
+      </c>
+      <c r="BI112">
+        <v>1.42</v>
+      </c>
+      <c r="BJ112">
+        <v>2.62</v>
+      </c>
+      <c r="BK112">
+        <v>1.74</v>
+      </c>
+      <c r="BL112">
+        <v>2.07</v>
+      </c>
+      <c r="BM112">
+        <v>2.18</v>
+      </c>
+      <c r="BN112">
+        <v>1.67</v>
+      </c>
+      <c r="BO112">
+        <v>2.62</v>
+      </c>
+      <c r="BP112">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="232">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['27', '52']</t>
   </si>
   <si>
+    <t>['1', '7', '42', '45']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -701,6 +704,12 @@
   </si>
   <si>
     <t>['9', '43', '53', '68']</t>
+  </si>
+  <si>
+    <t>['84', '90', '90+4']</t>
+  </si>
+  <si>
+    <t>['58', '62']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1527,7 +1536,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1605,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -1733,7 +1742,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1939,7 +1948,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2145,7 +2154,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2223,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ6">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2351,7 +2360,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2557,7 +2566,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3175,7 +3184,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3381,7 +3390,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3793,7 +3802,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3999,7 +4008,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4205,7 +4214,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4411,7 +4420,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4695,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.75</v>
@@ -4823,7 +4832,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5235,7 +5244,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5316,7 +5325,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5441,7 +5450,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5647,7 +5656,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5934,7 +5943,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR24">
         <v>1.54</v>
@@ -6137,7 +6146,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1.44</v>
@@ -6265,7 +6274,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6471,7 +6480,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6883,7 +6892,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7089,7 +7098,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7501,7 +7510,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -9230,7 +9239,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -9355,7 +9364,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9561,7 +9570,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9639,7 +9648,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ42">
         <v>1.75</v>
@@ -9767,7 +9776,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9848,7 +9857,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ43">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9973,7 +9982,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10054,7 +10063,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ44">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10385,7 +10394,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10797,7 +10806,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11003,7 +11012,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11081,7 +11090,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>0.71</v>
@@ -11290,7 +11299,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ50">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -12033,7 +12042,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12239,7 +12248,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12445,7 +12454,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12523,7 +12532,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>2.71</v>
@@ -12651,7 +12660,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12729,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
         <v>1.25</v>
@@ -12857,7 +12866,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13475,7 +13484,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13556,7 +13565,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ61">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR61">
         <v>1.37</v>
@@ -13681,7 +13690,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13759,7 +13768,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14093,7 +14102,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14505,7 +14514,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14711,7 +14720,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14917,7 +14926,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15410,7 +15419,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15535,7 +15544,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15741,7 +15750,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15819,7 +15828,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>0</v>
@@ -15947,7 +15956,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16153,7 +16162,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16359,7 +16368,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16771,7 +16780,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16977,7 +16986,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17183,7 +17192,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17470,7 +17479,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ80">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR80">
         <v>1.94</v>
@@ -17673,7 +17682,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ81">
         <v>0.86</v>
@@ -17801,7 +17810,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18213,7 +18222,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18419,7 +18428,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18497,7 +18506,7 @@
         <v>2.2</v>
       </c>
       <c r="AP85">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>2.43</v>
@@ -18625,7 +18634,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18831,7 +18840,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -18912,7 +18921,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ87">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR87">
         <v>1.35</v>
@@ -19037,7 +19046,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19243,7 +19252,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19449,7 +19458,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19655,7 +19664,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19861,7 +19870,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20273,7 +20282,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20351,7 +20360,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AQ94">
         <v>1.75</v>
@@ -20479,7 +20488,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20685,7 +20694,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21097,7 +21106,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21178,7 +21187,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21303,7 +21312,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21509,7 +21518,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21796,7 +21805,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -21921,7 +21930,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22127,7 +22136,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22539,7 +22548,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22951,7 +22960,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23157,7 +23166,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23363,7 +23372,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23569,7 +23578,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23981,7 +23990,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24138,6 +24147,418 @@
       </c>
       <c r="BP112">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7321727</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45444.77083333334</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>71</v>
+      </c>
+      <c r="H113" t="s">
+        <v>80</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>4</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>7</v>
+      </c>
+      <c r="O113" t="s">
+        <v>162</v>
+      </c>
+      <c r="P113" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q113">
+        <v>2.7</v>
+      </c>
+      <c r="R113">
+        <v>2.35</v>
+      </c>
+      <c r="S113">
+        <v>3.6</v>
+      </c>
+      <c r="T113">
+        <v>1.28</v>
+      </c>
+      <c r="U113">
+        <v>3.4</v>
+      </c>
+      <c r="V113">
+        <v>2.39</v>
+      </c>
+      <c r="W113">
+        <v>1.52</v>
+      </c>
+      <c r="X113">
+        <v>5.45</v>
+      </c>
+      <c r="Y113">
+        <v>1.12</v>
+      </c>
+      <c r="Z113">
+        <v>2.04</v>
+      </c>
+      <c r="AA113">
+        <v>3.4</v>
+      </c>
+      <c r="AB113">
+        <v>3.08</v>
+      </c>
+      <c r="AC113">
+        <v>1.02</v>
+      </c>
+      <c r="AD113">
+        <v>17</v>
+      </c>
+      <c r="AE113">
+        <v>1.2</v>
+      </c>
+      <c r="AF113">
+        <v>4.5</v>
+      </c>
+      <c r="AG113">
+        <v>1.59</v>
+      </c>
+      <c r="AH113">
+        <v>2.27</v>
+      </c>
+      <c r="AI113">
+        <v>1.55</v>
+      </c>
+      <c r="AJ113">
+        <v>2.4</v>
+      </c>
+      <c r="AK113">
+        <v>1.36</v>
+      </c>
+      <c r="AL113">
+        <v>1.22</v>
+      </c>
+      <c r="AM113">
+        <v>1.75</v>
+      </c>
+      <c r="AN113">
+        <v>1.88</v>
+      </c>
+      <c r="AO113">
+        <v>1.57</v>
+      </c>
+      <c r="AP113">
+        <v>2</v>
+      </c>
+      <c r="AQ113">
+        <v>1.38</v>
+      </c>
+      <c r="AR113">
+        <v>1.53</v>
+      </c>
+      <c r="AS113">
+        <v>1.6</v>
+      </c>
+      <c r="AT113">
+        <v>3.13</v>
+      </c>
+      <c r="AU113">
+        <v>9</v>
+      </c>
+      <c r="AV113">
+        <v>7</v>
+      </c>
+      <c r="AW113">
+        <v>8</v>
+      </c>
+      <c r="AX113">
+        <v>3</v>
+      </c>
+      <c r="AY113">
+        <v>17</v>
+      </c>
+      <c r="AZ113">
+        <v>10</v>
+      </c>
+      <c r="BA113">
+        <v>2</v>
+      </c>
+      <c r="BB113">
+        <v>4</v>
+      </c>
+      <c r="BC113">
+        <v>6</v>
+      </c>
+      <c r="BD113">
+        <v>1.69</v>
+      </c>
+      <c r="BE113">
+        <v>8</v>
+      </c>
+      <c r="BF113">
+        <v>2.54</v>
+      </c>
+      <c r="BG113">
+        <v>1.25</v>
+      </c>
+      <c r="BH113">
+        <v>3.6</v>
+      </c>
+      <c r="BI113">
+        <v>1.42</v>
+      </c>
+      <c r="BJ113">
+        <v>2.62</v>
+      </c>
+      <c r="BK113">
+        <v>1.71</v>
+      </c>
+      <c r="BL113">
+        <v>2.11</v>
+      </c>
+      <c r="BM113">
+        <v>2.14</v>
+      </c>
+      <c r="BN113">
+        <v>1.69</v>
+      </c>
+      <c r="BO113">
+        <v>2.62</v>
+      </c>
+      <c r="BP113">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7321730</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45444.875</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>74</v>
+      </c>
+      <c r="H114" t="s">
+        <v>77</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>153</v>
+      </c>
+      <c r="P114" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q114">
+        <v>3</v>
+      </c>
+      <c r="R114">
+        <v>2.07</v>
+      </c>
+      <c r="S114">
+        <v>3.46</v>
+      </c>
+      <c r="T114">
+        <v>1.41</v>
+      </c>
+      <c r="U114">
+        <v>2.78</v>
+      </c>
+      <c r="V114">
+        <v>2.9</v>
+      </c>
+      <c r="W114">
+        <v>1.38</v>
+      </c>
+      <c r="X114">
+        <v>7.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.07</v>
+      </c>
+      <c r="Z114">
+        <v>2.4</v>
+      </c>
+      <c r="AA114">
+        <v>3.07</v>
+      </c>
+      <c r="AB114">
+        <v>2.73</v>
+      </c>
+      <c r="AC114">
+        <v>1.02</v>
+      </c>
+      <c r="AD114">
+        <v>8.6</v>
+      </c>
+      <c r="AE114">
+        <v>1.3</v>
+      </c>
+      <c r="AF114">
+        <v>3.08</v>
+      </c>
+      <c r="AG114">
+        <v>1.93</v>
+      </c>
+      <c r="AH114">
+        <v>1.81</v>
+      </c>
+      <c r="AI114">
+        <v>1.76</v>
+      </c>
+      <c r="AJ114">
+        <v>1.95</v>
+      </c>
+      <c r="AK114">
+        <v>1.41</v>
+      </c>
+      <c r="AL114">
+        <v>1.3</v>
+      </c>
+      <c r="AM114">
+        <v>1.53</v>
+      </c>
+      <c r="AN114">
+        <v>0.2</v>
+      </c>
+      <c r="AO114">
+        <v>1.67</v>
+      </c>
+      <c r="AP114">
+        <v>0.17</v>
+      </c>
+      <c r="AQ114">
+        <v>1.86</v>
+      </c>
+      <c r="AR114">
+        <v>1.52</v>
+      </c>
+      <c r="AS114">
+        <v>1.36</v>
+      </c>
+      <c r="AT114">
+        <v>2.88</v>
+      </c>
+      <c r="AU114">
+        <v>5</v>
+      </c>
+      <c r="AV114">
+        <v>5</v>
+      </c>
+      <c r="AW114">
+        <v>7</v>
+      </c>
+      <c r="AX114">
+        <v>8</v>
+      </c>
+      <c r="AY114">
+        <v>12</v>
+      </c>
+      <c r="AZ114">
+        <v>13</v>
+      </c>
+      <c r="BA114">
+        <v>3</v>
+      </c>
+      <c r="BB114">
+        <v>6</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
+        <v>1.95</v>
+      </c>
+      <c r="BE114">
+        <v>8</v>
+      </c>
+      <c r="BF114">
+        <v>2.1</v>
+      </c>
+      <c r="BG114">
+        <v>1.29</v>
+      </c>
+      <c r="BH114">
+        <v>3.4</v>
+      </c>
+      <c r="BI114">
+        <v>1.48</v>
+      </c>
+      <c r="BJ114">
+        <v>2.5</v>
+      </c>
+      <c r="BK114">
+        <v>1.77</v>
+      </c>
+      <c r="BL114">
+        <v>2.03</v>
+      </c>
+      <c r="BM114">
+        <v>2.23</v>
+      </c>
+      <c r="BN114">
+        <v>1.64</v>
+      </c>
+      <c r="BO114">
+        <v>2.7</v>
+      </c>
+      <c r="BP114">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,15 @@
     <t>['1', '7', '42', '45']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['6', '85']</t>
+  </si>
+  <si>
+    <t>['17', '45']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -637,9 +646,6 @@
     <t>['26', '36', '60', '88']</t>
   </si>
   <si>
-    <t>['37']</t>
-  </si>
-  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -710,6 +716,15 @@
   </si>
   <si>
     <t>['58', '62']</t>
+  </si>
+  <si>
+    <t>['34', '90+7']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1536,7 +1551,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1742,7 +1757,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1948,7 +1963,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2154,7 +2169,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2360,7 +2375,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2566,7 +2581,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2644,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3184,7 +3199,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3265,7 +3280,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3390,7 +3405,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3802,7 +3817,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3880,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ14">
         <v>1.2</v>
@@ -4008,7 +4023,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4214,7 +4229,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4295,7 +4310,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR16">
         <v>1.44</v>
@@ -4420,7 +4435,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4832,7 +4847,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5116,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ20">
         <v>0.83</v>
@@ -5244,7 +5259,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5450,7 +5465,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5531,7 +5546,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ22">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR22">
         <v>1.29</v>
@@ -5656,7 +5671,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5734,7 +5749,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ23">
         <v>0.83</v>
@@ -6274,7 +6289,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6480,7 +6495,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6558,10 +6573,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ27">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6767,7 +6782,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR28">
         <v>1.44</v>
@@ -6892,7 +6907,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7098,7 +7113,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7510,7 +7525,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7588,7 +7603,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ32">
         <v>0.71</v>
@@ -8206,7 +8221,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ35">
         <v>1.75</v>
@@ -8415,7 +8430,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ36">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR36">
         <v>1.68</v>
@@ -8621,7 +8636,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9033,7 +9048,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -9236,7 +9251,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ40">
         <v>1.86</v>
@@ -9364,7 +9379,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9570,7 +9585,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9776,7 +9791,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9982,7 +9997,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10060,7 +10075,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ44">
         <v>1.86</v>
@@ -10269,7 +10284,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ45">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10394,7 +10409,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10472,7 +10487,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ46">
         <v>1.25</v>
@@ -10681,7 +10696,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10806,7 +10821,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10887,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR48">
         <v>1.89</v>
@@ -11012,7 +11027,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11914,7 +11929,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ53">
         <v>1.44</v>
@@ -12042,7 +12057,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12248,7 +12263,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12326,7 +12341,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ55">
         <v>0.86</v>
@@ -12454,7 +12469,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12535,7 +12550,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR56">
         <v>1.34</v>
@@ -12660,7 +12675,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12866,7 +12881,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12947,7 +12962,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ58">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR58">
         <v>1.99</v>
@@ -13484,7 +13499,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13690,7 +13705,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13771,7 +13786,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -13974,10 +13989,10 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14102,7 +14117,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14180,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ64">
         <v>0.86</v>
@@ -14514,7 +14529,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14720,7 +14735,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14798,7 +14813,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67">
         <v>0.71</v>
@@ -14926,7 +14941,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15210,7 +15225,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ69">
         <v>1.43</v>
@@ -15544,7 +15559,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15625,7 +15640,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ71">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR71">
         <v>1.4</v>
@@ -15750,7 +15765,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15831,7 +15846,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR72">
         <v>1.48</v>
@@ -15956,7 +15971,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16162,7 +16177,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16368,7 +16383,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16449,7 +16464,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -16780,7 +16795,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16858,7 +16873,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ77">
         <v>1.75</v>
@@ -16986,7 +17001,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17067,7 +17082,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -17192,7 +17207,7 @@
         <v>136</v>
       </c>
       <c r="P79" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="Q79">
         <v>1.91</v>
@@ -17270,10 +17285,10 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR79">
         <v>2.15</v>
@@ -17810,7 +17825,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -17891,7 +17906,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ82">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18094,7 +18109,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ83">
         <v>0.83</v>
@@ -18222,7 +18237,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18300,7 +18315,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ84">
         <v>1.75</v>
@@ -18428,7 +18443,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18509,7 +18524,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -18634,7 +18649,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18840,7 +18855,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19046,7 +19061,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19252,7 +19267,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19458,7 +19473,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19664,7 +19679,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19870,7 +19885,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -19948,7 +19963,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ92">
         <v>0.86</v>
@@ -20282,7 +20297,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20488,7 +20503,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20694,7 +20709,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20775,7 +20790,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ96">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -20978,10 +20993,10 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ97">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21106,7 +21121,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21312,7 +21327,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21393,7 +21408,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ99">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR99">
         <v>1.41</v>
@@ -21518,7 +21533,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21802,7 +21817,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ101">
         <v>1.86</v>
@@ -21930,7 +21945,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22008,7 +22023,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ102">
         <v>1.75</v>
@@ -22136,7 +22151,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22548,7 +22563,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22960,7 +22975,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23166,7 +23181,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23372,7 +23387,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23578,7 +23593,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23990,7 +24005,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24196,7 +24211,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24402,7 +24417,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24559,6 +24574,830 @@
       </c>
       <c r="BP114">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7321725</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45445.5625</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>85</v>
+      </c>
+      <c r="H115" t="s">
+        <v>78</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>163</v>
+      </c>
+      <c r="P115" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q115">
+        <v>3.6</v>
+      </c>
+      <c r="R115">
+        <v>2.25</v>
+      </c>
+      <c r="S115">
+        <v>2.75</v>
+      </c>
+      <c r="T115">
+        <v>1.34</v>
+      </c>
+      <c r="U115">
+        <v>3.1</v>
+      </c>
+      <c r="V115">
+        <v>2.57</v>
+      </c>
+      <c r="W115">
+        <v>1.47</v>
+      </c>
+      <c r="X115">
+        <v>6.25</v>
+      </c>
+      <c r="Y115">
+        <v>1.1</v>
+      </c>
+      <c r="Z115">
+        <v>2.83</v>
+      </c>
+      <c r="AA115">
+        <v>3.37</v>
+      </c>
+      <c r="AB115">
+        <v>2.12</v>
+      </c>
+      <c r="AC115">
+        <v>1.02</v>
+      </c>
+      <c r="AD115">
+        <v>10</v>
+      </c>
+      <c r="AE115">
+        <v>1.22</v>
+      </c>
+      <c r="AF115">
+        <v>3.8</v>
+      </c>
+      <c r="AG115">
+        <v>1.75</v>
+      </c>
+      <c r="AH115">
+        <v>2.05</v>
+      </c>
+      <c r="AI115">
+        <v>1.62</v>
+      </c>
+      <c r="AJ115">
+        <v>2.23</v>
+      </c>
+      <c r="AK115">
+        <v>1.67</v>
+      </c>
+      <c r="AL115">
+        <v>1.28</v>
+      </c>
+      <c r="AM115">
+        <v>1.33</v>
+      </c>
+      <c r="AN115">
+        <v>1.83</v>
+      </c>
+      <c r="AO115">
+        <v>2.71</v>
+      </c>
+      <c r="AP115">
+        <v>1.57</v>
+      </c>
+      <c r="AQ115">
+        <v>2.75</v>
+      </c>
+      <c r="AR115">
+        <v>1.75</v>
+      </c>
+      <c r="AS115">
+        <v>1.77</v>
+      </c>
+      <c r="AT115">
+        <v>3.52</v>
+      </c>
+      <c r="AU115">
+        <v>9</v>
+      </c>
+      <c r="AV115">
+        <v>6</v>
+      </c>
+      <c r="AW115">
+        <v>5</v>
+      </c>
+      <c r="AX115">
+        <v>8</v>
+      </c>
+      <c r="AY115">
+        <v>14</v>
+      </c>
+      <c r="AZ115">
+        <v>14</v>
+      </c>
+      <c r="BA115">
+        <v>4</v>
+      </c>
+      <c r="BB115">
+        <v>3</v>
+      </c>
+      <c r="BC115">
+        <v>7</v>
+      </c>
+      <c r="BD115">
+        <v>2.44</v>
+      </c>
+      <c r="BE115">
+        <v>8</v>
+      </c>
+      <c r="BF115">
+        <v>1.75</v>
+      </c>
+      <c r="BG115">
+        <v>1.2</v>
+      </c>
+      <c r="BH115">
+        <v>4</v>
+      </c>
+      <c r="BI115">
+        <v>1.36</v>
+      </c>
+      <c r="BJ115">
+        <v>2.9</v>
+      </c>
+      <c r="BK115">
+        <v>1.8</v>
+      </c>
+      <c r="BL115">
+        <v>2</v>
+      </c>
+      <c r="BM115">
+        <v>1.98</v>
+      </c>
+      <c r="BN115">
+        <v>1.81</v>
+      </c>
+      <c r="BO115">
+        <v>2.51</v>
+      </c>
+      <c r="BP115">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7321729</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45445.66666666666</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>82</v>
+      </c>
+      <c r="H116" t="s">
+        <v>84</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>164</v>
+      </c>
+      <c r="P116" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q116">
+        <v>2.48</v>
+      </c>
+      <c r="R116">
+        <v>2.25</v>
+      </c>
+      <c r="S116">
+        <v>3.88</v>
+      </c>
+      <c r="T116">
+        <v>1.32</v>
+      </c>
+      <c r="U116">
+        <v>3.22</v>
+      </c>
+      <c r="V116">
+        <v>2.51</v>
+      </c>
+      <c r="W116">
+        <v>1.49</v>
+      </c>
+      <c r="X116">
+        <v>5.95</v>
+      </c>
+      <c r="Y116">
+        <v>1.11</v>
+      </c>
+      <c r="Z116">
+        <v>1.9</v>
+      </c>
+      <c r="AA116">
+        <v>3.65</v>
+      </c>
+      <c r="AB116">
+        <v>3.39</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>10.5</v>
+      </c>
+      <c r="AE116">
+        <v>1.19</v>
+      </c>
+      <c r="AF116">
+        <v>3.92</v>
+      </c>
+      <c r="AG116">
+        <v>1.64</v>
+      </c>
+      <c r="AH116">
+        <v>2.12</v>
+      </c>
+      <c r="AI116">
+        <v>1.6</v>
+      </c>
+      <c r="AJ116">
+        <v>2.19</v>
+      </c>
+      <c r="AK116">
+        <v>1.29</v>
+      </c>
+      <c r="AL116">
+        <v>1.26</v>
+      </c>
+      <c r="AM116">
+        <v>1.78</v>
+      </c>
+      <c r="AN116">
+        <v>0.86</v>
+      </c>
+      <c r="AO116">
+        <v>1</v>
+      </c>
+      <c r="AP116">
+        <v>1.13</v>
+      </c>
+      <c r="AQ116">
+        <v>0.83</v>
+      </c>
+      <c r="AR116">
+        <v>1.63</v>
+      </c>
+      <c r="AS116">
+        <v>1.26</v>
+      </c>
+      <c r="AT116">
+        <v>2.89</v>
+      </c>
+      <c r="AU116">
+        <v>6</v>
+      </c>
+      <c r="AV116">
+        <v>7</v>
+      </c>
+      <c r="AW116">
+        <v>4</v>
+      </c>
+      <c r="AX116">
+        <v>6</v>
+      </c>
+      <c r="AY116">
+        <v>10</v>
+      </c>
+      <c r="AZ116">
+        <v>13</v>
+      </c>
+      <c r="BA116">
+        <v>4</v>
+      </c>
+      <c r="BB116">
+        <v>5</v>
+      </c>
+      <c r="BC116">
+        <v>9</v>
+      </c>
+      <c r="BD116">
+        <v>1.51</v>
+      </c>
+      <c r="BE116">
+        <v>8.5</v>
+      </c>
+      <c r="BF116">
+        <v>3.16</v>
+      </c>
+      <c r="BG116">
+        <v>1.25</v>
+      </c>
+      <c r="BH116">
+        <v>3.6</v>
+      </c>
+      <c r="BI116">
+        <v>1.4</v>
+      </c>
+      <c r="BJ116">
+        <v>2.7</v>
+      </c>
+      <c r="BK116">
+        <v>1.82</v>
+      </c>
+      <c r="BL116">
+        <v>1.98</v>
+      </c>
+      <c r="BM116">
+        <v>2.13</v>
+      </c>
+      <c r="BN116">
+        <v>1.7</v>
+      </c>
+      <c r="BO116">
+        <v>2.6</v>
+      </c>
+      <c r="BP116">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7321728</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45445.77083333334</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>83</v>
+      </c>
+      <c r="H117" t="s">
+        <v>72</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>86</v>
+      </c>
+      <c r="P117" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q117">
+        <v>1.73</v>
+      </c>
+      <c r="R117">
+        <v>2.59</v>
+      </c>
+      <c r="S117">
+        <v>7.1</v>
+      </c>
+      <c r="T117">
+        <v>1.27</v>
+      </c>
+      <c r="U117">
+        <v>3.54</v>
+      </c>
+      <c r="V117">
+        <v>2.29</v>
+      </c>
+      <c r="W117">
+        <v>1.58</v>
+      </c>
+      <c r="X117">
+        <v>5.2</v>
+      </c>
+      <c r="Y117">
+        <v>1.14</v>
+      </c>
+      <c r="Z117">
+        <v>1.3</v>
+      </c>
+      <c r="AA117">
+        <v>5.3</v>
+      </c>
+      <c r="AB117">
+        <v>7.29</v>
+      </c>
+      <c r="AC117">
+        <v>1.02</v>
+      </c>
+      <c r="AD117">
+        <v>10</v>
+      </c>
+      <c r="AE117">
+        <v>1.14</v>
+      </c>
+      <c r="AF117">
+        <v>4.55</v>
+      </c>
+      <c r="AG117">
+        <v>1.54</v>
+      </c>
+      <c r="AH117">
+        <v>2.32</v>
+      </c>
+      <c r="AI117">
+        <v>1.88</v>
+      </c>
+      <c r="AJ117">
+        <v>1.82</v>
+      </c>
+      <c r="AK117">
+        <v>1.05</v>
+      </c>
+      <c r="AL117">
+        <v>1.13</v>
+      </c>
+      <c r="AM117">
+        <v>3.34</v>
+      </c>
+      <c r="AN117">
+        <v>2</v>
+      </c>
+      <c r="AO117">
+        <v>0</v>
+      </c>
+      <c r="AP117">
+        <v>1.71</v>
+      </c>
+      <c r="AQ117">
+        <v>0.38</v>
+      </c>
+      <c r="AR117">
+        <v>2.01</v>
+      </c>
+      <c r="AS117">
+        <v>1.19</v>
+      </c>
+      <c r="AT117">
+        <v>3.2</v>
+      </c>
+      <c r="AU117">
+        <v>5</v>
+      </c>
+      <c r="AV117">
+        <v>4</v>
+      </c>
+      <c r="AW117">
+        <v>6</v>
+      </c>
+      <c r="AX117">
+        <v>6</v>
+      </c>
+      <c r="AY117">
+        <v>11</v>
+      </c>
+      <c r="AZ117">
+        <v>10</v>
+      </c>
+      <c r="BA117">
+        <v>9</v>
+      </c>
+      <c r="BB117">
+        <v>1</v>
+      </c>
+      <c r="BC117">
+        <v>10</v>
+      </c>
+      <c r="BD117">
+        <v>1.3</v>
+      </c>
+      <c r="BE117">
+        <v>10</v>
+      </c>
+      <c r="BF117">
+        <v>4.42</v>
+      </c>
+      <c r="BG117">
+        <v>1.22</v>
+      </c>
+      <c r="BH117">
+        <v>3.8</v>
+      </c>
+      <c r="BI117">
+        <v>1.4</v>
+      </c>
+      <c r="BJ117">
+        <v>2.7</v>
+      </c>
+      <c r="BK117">
+        <v>1.8</v>
+      </c>
+      <c r="BL117">
+        <v>2</v>
+      </c>
+      <c r="BM117">
+        <v>2.07</v>
+      </c>
+      <c r="BN117">
+        <v>1.74</v>
+      </c>
+      <c r="BO117">
+        <v>2.5</v>
+      </c>
+      <c r="BP117">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7321726</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45445.875</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>76</v>
+      </c>
+      <c r="H118" t="s">
+        <v>75</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>165</v>
+      </c>
+      <c r="P118" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q118">
+        <v>2.75</v>
+      </c>
+      <c r="R118">
+        <v>2.2</v>
+      </c>
+      <c r="S118">
+        <v>3.75</v>
+      </c>
+      <c r="T118">
+        <v>1.36</v>
+      </c>
+      <c r="U118">
+        <v>3</v>
+      </c>
+      <c r="V118">
+        <v>2.75</v>
+      </c>
+      <c r="W118">
+        <v>1.4</v>
+      </c>
+      <c r="X118">
+        <v>7</v>
+      </c>
+      <c r="Y118">
+        <v>1.1</v>
+      </c>
+      <c r="Z118">
+        <v>2.14</v>
+      </c>
+      <c r="AA118">
+        <v>3.5</v>
+      </c>
+      <c r="AB118">
+        <v>3.15</v>
+      </c>
+      <c r="AC118">
+        <v>1.04</v>
+      </c>
+      <c r="AD118">
+        <v>12</v>
+      </c>
+      <c r="AE118">
+        <v>1.28</v>
+      </c>
+      <c r="AF118">
+        <v>3.6</v>
+      </c>
+      <c r="AG118">
+        <v>1.84</v>
+      </c>
+      <c r="AH118">
+        <v>1.94</v>
+      </c>
+      <c r="AI118">
+        <v>1.73</v>
+      </c>
+      <c r="AJ118">
+        <v>2</v>
+      </c>
+      <c r="AK118">
+        <v>1.35</v>
+      </c>
+      <c r="AL118">
+        <v>1.25</v>
+      </c>
+      <c r="AM118">
+        <v>1.72</v>
+      </c>
+      <c r="AN118">
+        <v>2.6</v>
+      </c>
+      <c r="AO118">
+        <v>2.43</v>
+      </c>
+      <c r="AP118">
+        <v>2.67</v>
+      </c>
+      <c r="AQ118">
+        <v>2.13</v>
+      </c>
+      <c r="AR118">
+        <v>1.41</v>
+      </c>
+      <c r="AS118">
+        <v>1.12</v>
+      </c>
+      <c r="AT118">
+        <v>2.53</v>
+      </c>
+      <c r="AU118">
+        <v>4</v>
+      </c>
+      <c r="AV118">
+        <v>5</v>
+      </c>
+      <c r="AW118">
+        <v>1</v>
+      </c>
+      <c r="AX118">
+        <v>5</v>
+      </c>
+      <c r="AY118">
+        <v>5</v>
+      </c>
+      <c r="AZ118">
+        <v>10</v>
+      </c>
+      <c r="BA118">
+        <v>6</v>
+      </c>
+      <c r="BB118">
+        <v>5</v>
+      </c>
+      <c r="BC118">
+        <v>11</v>
+      </c>
+      <c r="BD118">
+        <v>1.45</v>
+      </c>
+      <c r="BE118">
+        <v>8.5</v>
+      </c>
+      <c r="BF118">
+        <v>3.29</v>
+      </c>
+      <c r="BG118">
+        <v>1.22</v>
+      </c>
+      <c r="BH118">
+        <v>3.8</v>
+      </c>
+      <c r="BI118">
+        <v>1.4</v>
+      </c>
+      <c r="BJ118">
+        <v>2.7</v>
+      </c>
+      <c r="BK118">
+        <v>1.85</v>
+      </c>
+      <c r="BL118">
+        <v>1.95</v>
+      </c>
+      <c r="BM118">
+        <v>2.07</v>
+      </c>
+      <c r="BN118">
+        <v>1.74</v>
+      </c>
+      <c r="BO118">
+        <v>2.5</v>
+      </c>
+      <c r="BP118">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1086,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ8">
         <v>0.38</v>
@@ -5958,7 +5958,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ24">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.54</v>
@@ -8221,7 +8221,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ35">
         <v>1.75</v>
@@ -9254,7 +9254,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ40">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -10078,7 +10078,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ44">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -12341,7 +12341,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ55">
         <v>0.86</v>
@@ -13580,7 +13580,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ61">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR61">
         <v>1.37</v>
@@ -15225,7 +15225,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ69">
         <v>1.43</v>
@@ -17494,7 +17494,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ80">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR80">
         <v>1.94</v>
@@ -18109,7 +18109,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ83">
         <v>0.83</v>
@@ -21820,7 +21820,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ101">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -24498,7 +24498,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ114">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR114">
         <v>1.52</v>
@@ -25319,7 +25319,7 @@
         <v>2.43</v>
       </c>
       <c r="AP118">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ118">
         <v>2.13</v>
@@ -25398,6 +25398,212 @@
       </c>
       <c r="BP118">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7321706</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45449.77083333334</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s">
+        <v>77</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" t="s">
+        <v>86</v>
+      </c>
+      <c r="P119" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q119">
+        <v>2.8</v>
+      </c>
+      <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
+        <v>3.65</v>
+      </c>
+      <c r="T119">
+        <v>1.4</v>
+      </c>
+      <c r="U119">
+        <v>2.7</v>
+      </c>
+      <c r="V119">
+        <v>2.8</v>
+      </c>
+      <c r="W119">
+        <v>1.38</v>
+      </c>
+      <c r="X119">
+        <v>7.3</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>2.1</v>
+      </c>
+      <c r="AA119">
+        <v>3.2</v>
+      </c>
+      <c r="AB119">
+        <v>3</v>
+      </c>
+      <c r="AC119">
+        <v>1.06</v>
+      </c>
+      <c r="AD119">
+        <v>8</v>
+      </c>
+      <c r="AE119">
+        <v>1.3</v>
+      </c>
+      <c r="AF119">
+        <v>3.25</v>
+      </c>
+      <c r="AG119">
+        <v>1.85</v>
+      </c>
+      <c r="AH119">
+        <v>1.75</v>
+      </c>
+      <c r="AI119">
+        <v>1.7</v>
+      </c>
+      <c r="AJ119">
+        <v>1.95</v>
+      </c>
+      <c r="AK119">
+        <v>1.33</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.65</v>
+      </c>
+      <c r="AN119">
+        <v>2.67</v>
+      </c>
+      <c r="AO119">
+        <v>1.86</v>
+      </c>
+      <c r="AP119">
+        <v>2.43</v>
+      </c>
+      <c r="AQ119">
+        <v>1.75</v>
+      </c>
+      <c r="AR119">
+        <v>1.34</v>
+      </c>
+      <c r="AS119">
+        <v>1.39</v>
+      </c>
+      <c r="AT119">
+        <v>2.73</v>
+      </c>
+      <c r="AU119">
+        <v>6</v>
+      </c>
+      <c r="AV119">
+        <v>0</v>
+      </c>
+      <c r="AW119">
+        <v>5</v>
+      </c>
+      <c r="AX119">
+        <v>9</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>9</v>
+      </c>
+      <c r="BA119">
+        <v>10</v>
+      </c>
+      <c r="BB119">
+        <v>3</v>
+      </c>
+      <c r="BC119">
+        <v>13</v>
+      </c>
+      <c r="BD119">
+        <v>1.79</v>
+      </c>
+      <c r="BE119">
+        <v>8.9</v>
+      </c>
+      <c r="BF119">
+        <v>2.3</v>
+      </c>
+      <c r="BG119">
+        <v>1.22</v>
+      </c>
+      <c r="BH119">
+        <v>3.65</v>
+      </c>
+      <c r="BI119">
+        <v>1.42</v>
+      </c>
+      <c r="BJ119">
+        <v>2.57</v>
+      </c>
+      <c r="BK119">
+        <v>1.7</v>
+      </c>
+      <c r="BL119">
+        <v>2.05</v>
+      </c>
+      <c r="BM119">
+        <v>2.21</v>
+      </c>
+      <c r="BN119">
+        <v>1.56</v>
+      </c>
+      <c r="BO119">
+        <v>2.93</v>
+      </c>
+      <c r="BP119">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -726,6 +726,9 @@
   <si>
     <t>['39']</t>
   </si>
+  <si>
+    <t>['75']</t>
+  </si>
 </sst>
 </file>
 
@@ -1086,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP119"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1629,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -3280,7 +3283,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4719,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>1.75</v>
@@ -6161,7 +6164,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25">
         <v>1.44</v>
@@ -8636,7 +8639,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -10696,7 +10699,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -11105,7 +11108,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
         <v>0.71</v>
@@ -12547,7 +12550,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
         <v>2.75</v>
@@ -12753,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
         <v>1.25</v>
@@ -13786,7 +13789,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -15843,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72">
         <v>0.38</v>
@@ -17288,7 +17291,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ79">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR79">
         <v>2.15</v>
@@ -18521,7 +18524,7 @@
         <v>2.2</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ85">
         <v>2.13</v>
@@ -24289,7 +24292,7 @@
         <v>1.57</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ113">
         <v>1.38</v>
@@ -24910,7 +24913,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ116">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR116">
         <v>1.63</v>
@@ -25604,6 +25607,212 @@
       </c>
       <c r="BP119">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7321713</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45450.83333333334</v>
+      </c>
+      <c r="F120">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>71</v>
+      </c>
+      <c r="H120" t="s">
+        <v>84</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>86</v>
+      </c>
+      <c r="P120" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q120">
+        <v>2.38</v>
+      </c>
+      <c r="R120">
+        <v>2.3</v>
+      </c>
+      <c r="S120">
+        <v>4.5</v>
+      </c>
+      <c r="T120">
+        <v>1.33</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
+        <v>2.6</v>
+      </c>
+      <c r="W120">
+        <v>1.44</v>
+      </c>
+      <c r="X120">
+        <v>6</v>
+      </c>
+      <c r="Y120">
+        <v>1.09</v>
+      </c>
+      <c r="Z120">
+        <v>1.7</v>
+      </c>
+      <c r="AA120">
+        <v>3.8</v>
+      </c>
+      <c r="AB120">
+        <v>4.5</v>
+      </c>
+      <c r="AC120">
+        <v>1.03</v>
+      </c>
+      <c r="AD120">
+        <v>13</v>
+      </c>
+      <c r="AE120">
+        <v>1.25</v>
+      </c>
+      <c r="AF120">
+        <v>3.75</v>
+      </c>
+      <c r="AG120">
+        <v>1.7</v>
+      </c>
+      <c r="AH120">
+        <v>1.95</v>
+      </c>
+      <c r="AI120">
+        <v>1.72</v>
+      </c>
+      <c r="AJ120">
+        <v>2.1</v>
+      </c>
+      <c r="AK120">
+        <v>1.19</v>
+      </c>
+      <c r="AL120">
+        <v>1.24</v>
+      </c>
+      <c r="AM120">
+        <v>1.76</v>
+      </c>
+      <c r="AN120">
+        <v>2</v>
+      </c>
+      <c r="AO120">
+        <v>0.83</v>
+      </c>
+      <c r="AP120">
+        <v>1.8</v>
+      </c>
+      <c r="AQ120">
+        <v>1.14</v>
+      </c>
+      <c r="AR120">
+        <v>1.57</v>
+      </c>
+      <c r="AS120">
+        <v>1.33</v>
+      </c>
+      <c r="AT120">
+        <v>2.9</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>5</v>
+      </c>
+      <c r="AW120">
+        <v>5</v>
+      </c>
+      <c r="AX120">
+        <v>4</v>
+      </c>
+      <c r="AY120">
+        <v>8</v>
+      </c>
+      <c r="AZ120">
+        <v>9</v>
+      </c>
+      <c r="BA120">
+        <v>4</v>
+      </c>
+      <c r="BB120">
+        <v>4</v>
+      </c>
+      <c r="BC120">
+        <v>8</v>
+      </c>
+      <c r="BD120">
+        <v>1.51</v>
+      </c>
+      <c r="BE120">
+        <v>8.5</v>
+      </c>
+      <c r="BF120">
+        <v>3.16</v>
+      </c>
+      <c r="BG120">
+        <v>1.26</v>
+      </c>
+      <c r="BH120">
+        <v>3.25</v>
+      </c>
+      <c r="BI120">
+        <v>1.49</v>
+      </c>
+      <c r="BJ120">
+        <v>2.33</v>
+      </c>
+      <c r="BK120">
+        <v>1.84</v>
+      </c>
+      <c r="BL120">
+        <v>1.79</v>
+      </c>
+      <c r="BM120">
+        <v>2.38</v>
+      </c>
+      <c r="BN120">
+        <v>1.47</v>
+      </c>
+      <c r="BO120">
+        <v>3.2</v>
+      </c>
+      <c r="BP120">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -726,6 +726,9 @@
   <si>
     <t>['39']</t>
   </si>
+  <si>
+    <t>['75']</t>
+  </si>
 </sst>
 </file>
 
@@ -1086,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1629,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -2659,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ8">
         <v>0.38</v>
@@ -3280,7 +3283,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4719,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>1.75</v>
@@ -5958,7 +5961,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ24">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR24">
         <v>1.54</v>
@@ -6161,7 +6164,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ25">
         <v>1.44</v>
@@ -8221,7 +8224,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ35">
         <v>1.75</v>
@@ -8636,7 +8639,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9254,7 +9257,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ40">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -10078,7 +10081,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ44">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10696,7 +10699,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -11105,7 +11108,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
         <v>0.71</v>
@@ -12341,7 +12344,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ55">
         <v>0.86</v>
@@ -12547,7 +12550,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ56">
         <v>2.75</v>
@@ -12753,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
         <v>1.25</v>
@@ -13580,7 +13583,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ61">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR61">
         <v>1.37</v>
@@ -13786,7 +13789,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -15225,7 +15228,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ69">
         <v>1.43</v>
@@ -15843,7 +15846,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72">
         <v>0.38</v>
@@ -17288,7 +17291,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ79">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR79">
         <v>2.15</v>
@@ -17494,7 +17497,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ80">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR80">
         <v>1.94</v>
@@ -18109,7 +18112,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ83">
         <v>0.83</v>
@@ -18521,7 +18524,7 @@
         <v>2.2</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ85">
         <v>2.13</v>
@@ -21820,7 +21823,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ101">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -24289,7 +24292,7 @@
         <v>1.57</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ113">
         <v>1.38</v>
@@ -24498,7 +24501,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ114">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR114">
         <v>1.52</v>
@@ -24910,7 +24913,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ116">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR116">
         <v>1.63</v>
@@ -25319,7 +25322,7 @@
         <v>2.43</v>
       </c>
       <c r="AP118">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ118">
         <v>2.13</v>
@@ -25398,6 +25401,418 @@
       </c>
       <c r="BP118">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7321706</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45449.77083333334</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>76</v>
+      </c>
+      <c r="H119" t="s">
+        <v>77</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" t="s">
+        <v>86</v>
+      </c>
+      <c r="P119" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q119">
+        <v>2.8</v>
+      </c>
+      <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
+        <v>3.65</v>
+      </c>
+      <c r="T119">
+        <v>1.4</v>
+      </c>
+      <c r="U119">
+        <v>2.7</v>
+      </c>
+      <c r="V119">
+        <v>2.8</v>
+      </c>
+      <c r="W119">
+        <v>1.38</v>
+      </c>
+      <c r="X119">
+        <v>7.3</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>2.1</v>
+      </c>
+      <c r="AA119">
+        <v>3.2</v>
+      </c>
+      <c r="AB119">
+        <v>3</v>
+      </c>
+      <c r="AC119">
+        <v>1.06</v>
+      </c>
+      <c r="AD119">
+        <v>8</v>
+      </c>
+      <c r="AE119">
+        <v>1.3</v>
+      </c>
+      <c r="AF119">
+        <v>3.25</v>
+      </c>
+      <c r="AG119">
+        <v>1.85</v>
+      </c>
+      <c r="AH119">
+        <v>1.75</v>
+      </c>
+      <c r="AI119">
+        <v>1.7</v>
+      </c>
+      <c r="AJ119">
+        <v>1.95</v>
+      </c>
+      <c r="AK119">
+        <v>1.33</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.65</v>
+      </c>
+      <c r="AN119">
+        <v>2.67</v>
+      </c>
+      <c r="AO119">
+        <v>1.86</v>
+      </c>
+      <c r="AP119">
+        <v>2.43</v>
+      </c>
+      <c r="AQ119">
+        <v>1.75</v>
+      </c>
+      <c r="AR119">
+        <v>1.34</v>
+      </c>
+      <c r="AS119">
+        <v>1.39</v>
+      </c>
+      <c r="AT119">
+        <v>2.73</v>
+      </c>
+      <c r="AU119">
+        <v>6</v>
+      </c>
+      <c r="AV119">
+        <v>0</v>
+      </c>
+      <c r="AW119">
+        <v>5</v>
+      </c>
+      <c r="AX119">
+        <v>9</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>9</v>
+      </c>
+      <c r="BA119">
+        <v>10</v>
+      </c>
+      <c r="BB119">
+        <v>3</v>
+      </c>
+      <c r="BC119">
+        <v>13</v>
+      </c>
+      <c r="BD119">
+        <v>1.79</v>
+      </c>
+      <c r="BE119">
+        <v>8.9</v>
+      </c>
+      <c r="BF119">
+        <v>2.3</v>
+      </c>
+      <c r="BG119">
+        <v>1.22</v>
+      </c>
+      <c r="BH119">
+        <v>3.65</v>
+      </c>
+      <c r="BI119">
+        <v>1.42</v>
+      </c>
+      <c r="BJ119">
+        <v>2.57</v>
+      </c>
+      <c r="BK119">
+        <v>1.7</v>
+      </c>
+      <c r="BL119">
+        <v>2.05</v>
+      </c>
+      <c r="BM119">
+        <v>2.21</v>
+      </c>
+      <c r="BN119">
+        <v>1.56</v>
+      </c>
+      <c r="BO119">
+        <v>2.93</v>
+      </c>
+      <c r="BP119">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7321713</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45450.83333333334</v>
+      </c>
+      <c r="F120">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>71</v>
+      </c>
+      <c r="H120" t="s">
+        <v>84</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>86</v>
+      </c>
+      <c r="P120" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q120">
+        <v>2.38</v>
+      </c>
+      <c r="R120">
+        <v>2.3</v>
+      </c>
+      <c r="S120">
+        <v>4.5</v>
+      </c>
+      <c r="T120">
+        <v>1.33</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
+        <v>2.6</v>
+      </c>
+      <c r="W120">
+        <v>1.44</v>
+      </c>
+      <c r="X120">
+        <v>6</v>
+      </c>
+      <c r="Y120">
+        <v>1.09</v>
+      </c>
+      <c r="Z120">
+        <v>1.7</v>
+      </c>
+      <c r="AA120">
+        <v>3.8</v>
+      </c>
+      <c r="AB120">
+        <v>4.5</v>
+      </c>
+      <c r="AC120">
+        <v>1.03</v>
+      </c>
+      <c r="AD120">
+        <v>13</v>
+      </c>
+      <c r="AE120">
+        <v>1.25</v>
+      </c>
+      <c r="AF120">
+        <v>3.75</v>
+      </c>
+      <c r="AG120">
+        <v>1.7</v>
+      </c>
+      <c r="AH120">
+        <v>1.95</v>
+      </c>
+      <c r="AI120">
+        <v>1.72</v>
+      </c>
+      <c r="AJ120">
+        <v>2.1</v>
+      </c>
+      <c r="AK120">
+        <v>1.19</v>
+      </c>
+      <c r="AL120">
+        <v>1.24</v>
+      </c>
+      <c r="AM120">
+        <v>1.76</v>
+      </c>
+      <c r="AN120">
+        <v>2</v>
+      </c>
+      <c r="AO120">
+        <v>0.83</v>
+      </c>
+      <c r="AP120">
+        <v>1.8</v>
+      </c>
+      <c r="AQ120">
+        <v>1.14</v>
+      </c>
+      <c r="AR120">
+        <v>1.57</v>
+      </c>
+      <c r="AS120">
+        <v>1.33</v>
+      </c>
+      <c r="AT120">
+        <v>2.9</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>5</v>
+      </c>
+      <c r="AW120">
+        <v>5</v>
+      </c>
+      <c r="AX120">
+        <v>4</v>
+      </c>
+      <c r="AY120">
+        <v>8</v>
+      </c>
+      <c r="AZ120">
+        <v>9</v>
+      </c>
+      <c r="BA120">
+        <v>4</v>
+      </c>
+      <c r="BB120">
+        <v>4</v>
+      </c>
+      <c r="BC120">
+        <v>8</v>
+      </c>
+      <c r="BD120">
+        <v>1.51</v>
+      </c>
+      <c r="BE120">
+        <v>8.5</v>
+      </c>
+      <c r="BF120">
+        <v>3.16</v>
+      </c>
+      <c r="BG120">
+        <v>1.26</v>
+      </c>
+      <c r="BH120">
+        <v>3.25</v>
+      </c>
+      <c r="BI120">
+        <v>1.49</v>
+      </c>
+      <c r="BJ120">
+        <v>2.33</v>
+      </c>
+      <c r="BK120">
+        <v>1.84</v>
+      </c>
+      <c r="BL120">
+        <v>1.79</v>
+      </c>
+      <c r="BM120">
+        <v>2.38</v>
+      </c>
+      <c r="BN120">
+        <v>1.47</v>
+      </c>
+      <c r="BO120">
+        <v>3.2</v>
+      </c>
+      <c r="BP120">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>['17', '45']</t>
+  </si>
+  <si>
+    <t>['37', '67', '78']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -1089,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>1.75</v>
@@ -1554,7 +1557,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1760,7 +1763,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1966,7 +1969,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2047,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2172,7 +2175,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2378,7 +2381,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2584,7 +2587,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3202,7 +3205,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3408,7 +3411,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3820,7 +3823,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4026,7 +4029,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4232,7 +4235,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4438,7 +4441,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4850,7 +4853,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4928,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>1.44</v>
@@ -5137,7 +5140,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ20">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5262,7 +5265,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5468,7 +5471,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5674,7 +5677,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5755,7 +5758,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ23">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR23">
         <v>1.09</v>
@@ -6292,7 +6295,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6498,7 +6501,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6782,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>0.38</v>
@@ -6910,7 +6913,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7116,7 +7119,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7528,7 +7531,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -9382,7 +9385,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9588,7 +9591,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9794,7 +9797,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10000,7 +10003,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10412,7 +10415,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10824,7 +10827,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11030,7 +11033,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11520,7 +11523,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -12060,7 +12063,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12266,7 +12269,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12472,7 +12475,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12678,7 +12681,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12884,7 +12887,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13171,7 +13174,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ59">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13502,7 +13505,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13580,7 +13583,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61">
         <v>1.75</v>
@@ -13708,7 +13711,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14120,7 +14123,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14407,7 +14410,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>1.38</v>
@@ -14532,7 +14535,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14738,7 +14741,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14944,7 +14947,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15562,7 +15565,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15768,7 +15771,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15974,7 +15977,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16180,7 +16183,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16386,7 +16389,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16670,7 +16673,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76">
         <v>0.86</v>
@@ -16798,7 +16801,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17004,7 +17007,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17828,7 +17831,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18115,7 +18118,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ83">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18240,7 +18243,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18446,7 +18449,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18652,7 +18655,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18858,7 +18861,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19064,7 +19067,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19270,7 +19273,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19476,7 +19479,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19682,7 +19685,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19888,7 +19891,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20300,7 +20303,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20506,7 +20509,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20712,7 +20715,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21124,7 +21127,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21330,7 +21333,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21536,7 +21539,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21614,7 +21617,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ100">
         <v>1.43</v>
@@ -21948,7 +21951,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22154,7 +22157,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22566,7 +22569,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22978,7 +22981,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23184,7 +23187,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23390,7 +23393,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23596,7 +23599,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24008,7 +24011,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24214,7 +24217,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24420,7 +24423,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24626,7 +24629,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24832,7 +24835,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25038,7 +25041,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25656,7 +25659,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -25813,6 +25816,212 @@
       </c>
       <c r="BP120">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7321732</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45463.66666666666</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>70</v>
+      </c>
+      <c r="H121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>166</v>
+      </c>
+      <c r="P121" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q121">
+        <v>2.67</v>
+      </c>
+      <c r="R121">
+        <v>2.11</v>
+      </c>
+      <c r="S121">
+        <v>3.9</v>
+      </c>
+      <c r="T121">
+        <v>1.4</v>
+      </c>
+      <c r="U121">
+        <v>2.82</v>
+      </c>
+      <c r="V121">
+        <v>2.86</v>
+      </c>
+      <c r="W121">
+        <v>1.39</v>
+      </c>
+      <c r="X121">
+        <v>7.2</v>
+      </c>
+      <c r="Y121">
+        <v>1.08</v>
+      </c>
+      <c r="Z121">
+        <v>2.2</v>
+      </c>
+      <c r="AA121">
+        <v>3.4</v>
+      </c>
+      <c r="AB121">
+        <v>3.2</v>
+      </c>
+      <c r="AC121">
+        <v>1.02</v>
+      </c>
+      <c r="AD121">
+        <v>8.9</v>
+      </c>
+      <c r="AE121">
+        <v>1.28</v>
+      </c>
+      <c r="AF121">
+        <v>3.2</v>
+      </c>
+      <c r="AG121">
+        <v>1.95</v>
+      </c>
+      <c r="AH121">
+        <v>1.83</v>
+      </c>
+      <c r="AI121">
+        <v>1.75</v>
+      </c>
+      <c r="AJ121">
+        <v>1.96</v>
+      </c>
+      <c r="AK121">
+        <v>1.31</v>
+      </c>
+      <c r="AL121">
+        <v>1.29</v>
+      </c>
+      <c r="AM121">
+        <v>1.69</v>
+      </c>
+      <c r="AN121">
+        <v>1.57</v>
+      </c>
+      <c r="AO121">
+        <v>0.83</v>
+      </c>
+      <c r="AP121">
+        <v>1.75</v>
+      </c>
+      <c r="AQ121">
+        <v>0.71</v>
+      </c>
+      <c r="AR121">
+        <v>1.55</v>
+      </c>
+      <c r="AS121">
+        <v>1.24</v>
+      </c>
+      <c r="AT121">
+        <v>2.79</v>
+      </c>
+      <c r="AU121">
+        <v>9</v>
+      </c>
+      <c r="AV121">
+        <v>4</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>3</v>
+      </c>
+      <c r="AY121">
+        <v>15</v>
+      </c>
+      <c r="AZ121">
+        <v>7</v>
+      </c>
+      <c r="BA121">
+        <v>8</v>
+      </c>
+      <c r="BB121">
+        <v>6</v>
+      </c>
+      <c r="BC121">
+        <v>14</v>
+      </c>
+      <c r="BD121">
+        <v>1.95</v>
+      </c>
+      <c r="BE121">
+        <v>8</v>
+      </c>
+      <c r="BF121">
+        <v>2.1</v>
+      </c>
+      <c r="BG121">
+        <v>1.25</v>
+      </c>
+      <c r="BH121">
+        <v>3.6</v>
+      </c>
+      <c r="BI121">
+        <v>1.38</v>
+      </c>
+      <c r="BJ121">
+        <v>2.8</v>
+      </c>
+      <c r="BK121">
+        <v>1.73</v>
+      </c>
+      <c r="BL121">
+        <v>1.99</v>
+      </c>
+      <c r="BM121">
+        <v>2.2</v>
+      </c>
+      <c r="BN121">
+        <v>1.6</v>
+      </c>
+      <c r="BO121">
+        <v>2.9</v>
+      </c>
+      <c r="BP121">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>['37', '67', '78']</t>
+  </si>
+  <si>
+    <t>['45+5']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -1092,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1560,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1763,7 +1766,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1969,7 +1972,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2175,7 +2178,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2381,7 +2384,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2587,7 +2590,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2874,7 +2877,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3205,7 +3208,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3283,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>1.14</v>
@@ -3411,7 +3414,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3823,7 +3826,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4029,7 +4032,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4235,7 +4238,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4441,7 +4444,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4853,7 +4856,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5265,7 +5268,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5471,7 +5474,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5677,7 +5680,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6295,7 +6298,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6501,7 +6504,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6913,7 +6916,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7119,7 +7122,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7200,7 +7203,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ30">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>1.72</v>
@@ -7531,7 +7534,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8433,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>0.38</v>
@@ -9385,7 +9388,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9591,7 +9594,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9797,7 +9800,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10003,7 +10006,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10287,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
         <v>2.13</v>
@@ -10415,7 +10418,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10827,7 +10830,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11033,7 +11036,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12063,7 +12066,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12269,7 +12272,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12350,7 +12353,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ55">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR55">
         <v>1.44</v>
@@ -12475,7 +12478,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12681,7 +12684,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12887,7 +12890,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13505,7 +13508,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13711,7 +13714,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14123,7 +14126,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14204,7 +14207,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR64">
         <v>1.82</v>
@@ -14535,7 +14538,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14741,7 +14744,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14947,7 +14950,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15437,7 +15440,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>1.38</v>
@@ -15565,7 +15568,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15771,7 +15774,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15977,7 +15980,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16183,7 +16186,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16389,7 +16392,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16676,7 +16679,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR76">
         <v>1.51</v>
@@ -16801,7 +16804,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17007,7 +17010,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17085,7 +17088,7 @@
         <v>2.6</v>
       </c>
       <c r="AP78">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
         <v>2.75</v>
@@ -17831,7 +17834,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18243,7 +18246,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18449,7 +18452,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18655,7 +18658,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18861,7 +18864,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19067,7 +19070,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19273,7 +19276,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19479,7 +19482,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19557,7 +19560,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ90">
         <v>1.2</v>
@@ -19685,7 +19688,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19891,7 +19894,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20178,7 +20181,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20303,7 +20306,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20509,7 +20512,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20715,7 +20718,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21127,7 +21130,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21333,7 +21336,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21539,7 +21542,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21951,7 +21954,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22157,7 +22160,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22235,7 +22238,7 @@
         <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103">
         <v>1.44</v>
@@ -22569,7 +22572,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22853,7 +22856,7 @@
         <v>1.43</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ106">
         <v>1.25</v>
@@ -22981,7 +22984,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23187,7 +23190,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23268,7 +23271,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ108">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR108">
         <v>1.53</v>
@@ -23393,7 +23396,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23599,7 +23602,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24011,7 +24014,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24217,7 +24220,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24423,7 +24426,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24629,7 +24632,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24835,7 +24838,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25041,7 +25044,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25659,7 +25662,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26022,6 +26025,212 @@
       </c>
       <c r="BP121">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7321740</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45492.83333333334</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>79</v>
+      </c>
+      <c r="H122" t="s">
+        <v>73</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
+        <v>167</v>
+      </c>
+      <c r="P122" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q122">
+        <v>2.05</v>
+      </c>
+      <c r="R122">
+        <v>2.45</v>
+      </c>
+      <c r="S122">
+        <v>5.5</v>
+      </c>
+      <c r="T122">
+        <v>1.29</v>
+      </c>
+      <c r="U122">
+        <v>3.35</v>
+      </c>
+      <c r="V122">
+        <v>2.4</v>
+      </c>
+      <c r="W122">
+        <v>1.51</v>
+      </c>
+      <c r="X122">
+        <v>5.45</v>
+      </c>
+      <c r="Y122">
+        <v>1.12</v>
+      </c>
+      <c r="Z122">
+        <v>1.5</v>
+      </c>
+      <c r="AA122">
+        <v>4.1</v>
+      </c>
+      <c r="AB122">
+        <v>5.3</v>
+      </c>
+      <c r="AC122">
+        <v>1.02</v>
+      </c>
+      <c r="AD122">
+        <v>15</v>
+      </c>
+      <c r="AE122">
+        <v>1.2</v>
+      </c>
+      <c r="AF122">
+        <v>4.33</v>
+      </c>
+      <c r="AG122">
+        <v>1.73</v>
+      </c>
+      <c r="AH122">
+        <v>2</v>
+      </c>
+      <c r="AI122">
+        <v>1.75</v>
+      </c>
+      <c r="AJ122">
+        <v>2.05</v>
+      </c>
+      <c r="AK122">
+        <v>1.13</v>
+      </c>
+      <c r="AL122">
+        <v>1.17</v>
+      </c>
+      <c r="AM122">
+        <v>2.08</v>
+      </c>
+      <c r="AN122">
+        <v>1.38</v>
+      </c>
+      <c r="AO122">
+        <v>0.86</v>
+      </c>
+      <c r="AP122">
+        <v>1.33</v>
+      </c>
+      <c r="AQ122">
+        <v>0.88</v>
+      </c>
+      <c r="AR122">
+        <v>1.63</v>
+      </c>
+      <c r="AS122">
+        <v>0.99</v>
+      </c>
+      <c r="AT122">
+        <v>2.62</v>
+      </c>
+      <c r="AU122">
+        <v>8</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>10</v>
+      </c>
+      <c r="AX122">
+        <v>4</v>
+      </c>
+      <c r="AY122">
+        <v>18</v>
+      </c>
+      <c r="AZ122">
+        <v>9</v>
+      </c>
+      <c r="BA122">
+        <v>6</v>
+      </c>
+      <c r="BB122">
+        <v>5</v>
+      </c>
+      <c r="BC122">
+        <v>11</v>
+      </c>
+      <c r="BD122">
+        <v>1.25</v>
+      </c>
+      <c r="BE122">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF122">
+        <v>5.55</v>
+      </c>
+      <c r="BG122">
+        <v>1.18</v>
+      </c>
+      <c r="BH122">
+        <v>4.1</v>
+      </c>
+      <c r="BI122">
+        <v>1.36</v>
+      </c>
+      <c r="BJ122">
+        <v>2.79</v>
+      </c>
+      <c r="BK122">
+        <v>1.65</v>
+      </c>
+      <c r="BL122">
+        <v>2.11</v>
+      </c>
+      <c r="BM122">
+        <v>2.04</v>
+      </c>
+      <c r="BN122">
+        <v>1.66</v>
+      </c>
+      <c r="BO122">
+        <v>2.67</v>
+      </c>
+      <c r="BP122">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,21 @@
     <t>['45+5']</t>
   </si>
   <si>
+    <t>['5', '51']</t>
+  </si>
+  <si>
+    <t>['16', '75']</t>
+  </si>
+  <si>
+    <t>['64', '90']</t>
+  </si>
+  <si>
+    <t>['13', '61', '65']</t>
+  </si>
+  <si>
+    <t>['45+1', '90+6']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -734,6 +749,15 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['11', '33', '47', '87']</t>
+  </si>
+  <si>
+    <t>['20', '30', '58']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP122"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1560,7 +1584,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1766,7 +1790,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1972,7 +1996,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2178,7 +2202,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2384,7 +2408,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2462,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ7">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2590,7 +2614,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2668,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2874,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -3083,7 +3107,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ10">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3208,7 +3232,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3289,7 +3313,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3414,7 +3438,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3492,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3698,7 +3722,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.75</v>
@@ -3826,7 +3850,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3904,10 +3928,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4032,7 +4056,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4238,7 +4262,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4316,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
         <v>2.13</v>
@@ -4444,7 +4468,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4522,10 +4546,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR17">
         <v>1.64</v>
@@ -4856,7 +4880,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4937,7 +4961,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ19">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR19">
         <v>1.33</v>
@@ -5140,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ20">
         <v>0.71</v>
@@ -5268,7 +5292,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5474,7 +5498,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5555,7 +5579,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ22">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AR22">
         <v>1.29</v>
@@ -5680,7 +5704,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5758,7 +5782,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ23">
         <v>0.71</v>
@@ -5964,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
         <v>1.75</v>
@@ -6173,7 +6197,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ25">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR25">
         <v>0.9</v>
@@ -6298,7 +6322,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6376,7 +6400,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1.75</v>
@@ -6504,7 +6528,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6582,10 +6606,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ27">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6791,7 +6815,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>1.44</v>
@@ -6916,7 +6940,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6994,10 +7018,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ29">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7122,7 +7146,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7406,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.86</v>
@@ -7534,7 +7558,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7615,7 +7639,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ32">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8027,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8230,7 +8254,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35">
         <v>1.75</v>
@@ -8439,7 +8463,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR36">
         <v>1.68</v>
@@ -8642,10 +8666,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -8848,10 +8872,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ38">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9388,7 +9412,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9594,7 +9618,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9800,7 +9824,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9878,7 +9902,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
@@ -10006,7 +10030,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10084,7 +10108,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ44">
         <v>1.75</v>
@@ -10418,7 +10442,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10496,10 +10520,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ46">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR46">
         <v>1.53</v>
@@ -10705,7 +10729,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10830,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10911,7 +10935,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AR48">
         <v>1.89</v>
@@ -11036,7 +11060,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11117,7 +11141,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ49">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR49">
         <v>1.05</v>
@@ -11732,7 +11756,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -11941,7 +11965,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ53">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR53">
         <v>1.66</v>
@@ -12066,7 +12090,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12272,7 +12296,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12350,7 +12374,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55">
         <v>0.88</v>
@@ -12478,7 +12502,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12559,7 +12583,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ56">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AR56">
         <v>1.34</v>
@@ -12684,7 +12708,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12765,7 +12789,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR57">
         <v>1.34</v>
@@ -12890,7 +12914,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12968,7 +12992,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>2.13</v>
@@ -13174,7 +13198,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>0.71</v>
@@ -13508,7 +13532,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13714,7 +13738,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13795,7 +13819,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -13998,10 +14022,10 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ63">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14126,7 +14150,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14204,7 +14228,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ64">
         <v>0.88</v>
@@ -14410,7 +14434,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
         <v>0.71</v>
@@ -14538,7 +14562,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14619,7 +14643,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -14744,7 +14768,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14822,10 +14846,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR67">
         <v>1.37</v>
@@ -14950,7 +14974,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15028,7 +15052,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ68">
         <v>1.75</v>
@@ -15234,7 +15258,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69">
         <v>1.43</v>
@@ -15568,7 +15592,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15646,10 +15670,10 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AR71">
         <v>1.4</v>
@@ -15774,7 +15798,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15855,7 +15879,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ72">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR72">
         <v>1.48</v>
@@ -15980,7 +16004,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16061,7 +16085,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16186,7 +16210,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16264,10 +16288,10 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.38</v>
@@ -16392,7 +16416,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16804,7 +16828,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17010,7 +17034,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17091,7 +17115,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -17294,10 +17318,10 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ79">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>2.15</v>
@@ -17500,7 +17524,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>1.75</v>
@@ -17834,7 +17858,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -17912,10 +17936,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18118,7 +18142,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ83">
         <v>0.71</v>
@@ -18246,7 +18270,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18324,7 +18348,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ84">
         <v>1.75</v>
@@ -18452,7 +18476,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18658,7 +18682,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18739,7 +18763,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ86">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -18864,7 +18888,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19070,7 +19094,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19151,7 +19175,7 @@
         <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR88">
         <v>1.85</v>
@@ -19276,7 +19300,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19354,10 +19378,10 @@
         <v>1.17</v>
       </c>
       <c r="AP89">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ89">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19482,7 +19506,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19563,7 +19587,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ90">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -19688,7 +19712,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19766,7 +19790,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ91">
         <v>1.43</v>
@@ -19894,7 +19918,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20306,7 +20330,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20512,7 +20536,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20590,10 +20614,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -20718,7 +20742,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20799,7 +20823,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ96">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -21005,7 +21029,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ97">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21130,7 +21154,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21336,7 +21360,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21542,7 +21566,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21826,7 +21850,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ101">
         <v>1.75</v>
@@ -21954,7 +21978,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22032,7 +22056,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ102">
         <v>1.75</v>
@@ -22160,7 +22184,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22241,7 +22265,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR103">
         <v>1.75</v>
@@ -22444,10 +22468,10 @@
         <v>0.75</v>
       </c>
       <c r="AP104">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.35</v>
@@ -22572,7 +22596,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22859,7 +22883,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ106">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR106">
         <v>1.66</v>
@@ -22984,7 +23008,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23062,7 +23086,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>1.75</v>
@@ -23190,7 +23214,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23268,7 +23292,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ108">
         <v>0.88</v>
@@ -23396,7 +23420,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23474,7 +23498,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ109">
         <v>0.86</v>
@@ -23602,7 +23626,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23683,7 +23707,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ110">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR110">
         <v>1.59</v>
@@ -23889,7 +23913,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ111">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR111">
         <v>1.49</v>
@@ -24014,7 +24038,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24220,7 +24244,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24426,7 +24450,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24632,7 +24656,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24713,7 +24737,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ115">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AR115">
         <v>1.75</v>
@@ -24838,7 +24862,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -24916,10 +24940,10 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ116">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.63</v>
@@ -25044,7 +25068,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25122,10 +25146,10 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ117">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AR117">
         <v>2.01</v>
@@ -25328,7 +25352,7 @@
         <v>2.43</v>
       </c>
       <c r="AP118">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ118">
         <v>2.13</v>
@@ -25534,7 +25558,7 @@
         <v>1.86</v>
       </c>
       <c r="AP119">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ119">
         <v>1.75</v>
@@ -25662,7 +25686,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -25743,7 +25767,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ120">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.57</v>
@@ -26074,7 +26098,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26231,6 +26255,1448 @@
       </c>
       <c r="BP122">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7321737</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45493.5625</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>76</v>
+      </c>
+      <c r="H123" t="s">
+        <v>70</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>106</v>
+      </c>
+      <c r="P123" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q123">
+        <v>2.7</v>
+      </c>
+      <c r="R123">
+        <v>2.15</v>
+      </c>
+      <c r="S123">
+        <v>4.2</v>
+      </c>
+      <c r="T123">
+        <v>1.39</v>
+      </c>
+      <c r="U123">
+        <v>2.75</v>
+      </c>
+      <c r="V123">
+        <v>2.95</v>
+      </c>
+      <c r="W123">
+        <v>1.35</v>
+      </c>
+      <c r="X123">
+        <v>7.4</v>
+      </c>
+      <c r="Y123">
+        <v>1.06</v>
+      </c>
+      <c r="Z123">
+        <v>2</v>
+      </c>
+      <c r="AA123">
+        <v>3.4</v>
+      </c>
+      <c r="AB123">
+        <v>3.65</v>
+      </c>
+      <c r="AC123">
+        <v>1.05</v>
+      </c>
+      <c r="AD123">
+        <v>10</v>
+      </c>
+      <c r="AE123">
+        <v>1.33</v>
+      </c>
+      <c r="AF123">
+        <v>3.25</v>
+      </c>
+      <c r="AG123">
+        <v>1.96</v>
+      </c>
+      <c r="AH123">
+        <v>1.77</v>
+      </c>
+      <c r="AI123">
+        <v>1.83</v>
+      </c>
+      <c r="AJ123">
+        <v>1.9</v>
+      </c>
+      <c r="AK123">
+        <v>1.28</v>
+      </c>
+      <c r="AL123">
+        <v>1.25</v>
+      </c>
+      <c r="AM123">
+        <v>1.83</v>
+      </c>
+      <c r="AN123">
+        <v>2.43</v>
+      </c>
+      <c r="AO123">
+        <v>0.71</v>
+      </c>
+      <c r="AP123">
+        <v>2.5</v>
+      </c>
+      <c r="AQ123">
+        <v>0.63</v>
+      </c>
+      <c r="AR123">
+        <v>1.36</v>
+      </c>
+      <c r="AS123">
+        <v>1.28</v>
+      </c>
+      <c r="AT123">
+        <v>2.64</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>4</v>
+      </c>
+      <c r="AW123">
+        <v>4</v>
+      </c>
+      <c r="AX123">
+        <v>5</v>
+      </c>
+      <c r="AY123">
+        <v>8</v>
+      </c>
+      <c r="AZ123">
+        <v>9</v>
+      </c>
+      <c r="BA123">
+        <v>7</v>
+      </c>
+      <c r="BB123">
+        <v>4</v>
+      </c>
+      <c r="BC123">
+        <v>11</v>
+      </c>
+      <c r="BD123">
+        <v>1.4</v>
+      </c>
+      <c r="BE123">
+        <v>7.4</v>
+      </c>
+      <c r="BF123">
+        <v>4.06</v>
+      </c>
+      <c r="BG123">
+        <v>1.22</v>
+      </c>
+      <c r="BH123">
+        <v>3.65</v>
+      </c>
+      <c r="BI123">
+        <v>1.43</v>
+      </c>
+      <c r="BJ123">
+        <v>2.54</v>
+      </c>
+      <c r="BK123">
+        <v>1.76</v>
+      </c>
+      <c r="BL123">
+        <v>1.95</v>
+      </c>
+      <c r="BM123">
+        <v>2.23</v>
+      </c>
+      <c r="BN123">
+        <v>1.55</v>
+      </c>
+      <c r="BO123">
+        <v>2.98</v>
+      </c>
+      <c r="BP123">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7321739</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45493.66666666666</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H124" t="s">
+        <v>72</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>168</v>
+      </c>
+      <c r="P124" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q124">
+        <v>2.4</v>
+      </c>
+      <c r="R124">
+        <v>2.3</v>
+      </c>
+      <c r="S124">
+        <v>4.33</v>
+      </c>
+      <c r="T124">
+        <v>1.29</v>
+      </c>
+      <c r="U124">
+        <v>3.3</v>
+      </c>
+      <c r="V124">
+        <v>2.45</v>
+      </c>
+      <c r="W124">
+        <v>1.49</v>
+      </c>
+      <c r="X124">
+        <v>5.9</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.8</v>
+      </c>
+      <c r="AA124">
+        <v>3.8</v>
+      </c>
+      <c r="AB124">
+        <v>4</v>
+      </c>
+      <c r="AC124">
+        <v>1.02</v>
+      </c>
+      <c r="AD124">
+        <v>15</v>
+      </c>
+      <c r="AE124">
+        <v>1.22</v>
+      </c>
+      <c r="AF124">
+        <v>4.2</v>
+      </c>
+      <c r="AG124">
+        <v>1.66</v>
+      </c>
+      <c r="AH124">
+        <v>2.12</v>
+      </c>
+      <c r="AI124">
+        <v>1.65</v>
+      </c>
+      <c r="AJ124">
+        <v>2.2</v>
+      </c>
+      <c r="AK124">
+        <v>1.25</v>
+      </c>
+      <c r="AL124">
+        <v>1.2</v>
+      </c>
+      <c r="AM124">
+        <v>2</v>
+      </c>
+      <c r="AN124">
+        <v>1.13</v>
+      </c>
+      <c r="AO124">
+        <v>0.38</v>
+      </c>
+      <c r="AP124">
+        <v>1.33</v>
+      </c>
+      <c r="AQ124">
+        <v>0.33</v>
+      </c>
+      <c r="AR124">
+        <v>1.51</v>
+      </c>
+      <c r="AS124">
+        <v>1.15</v>
+      </c>
+      <c r="AT124">
+        <v>2.66</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>9</v>
+      </c>
+      <c r="AX124">
+        <v>6</v>
+      </c>
+      <c r="AY124">
+        <v>14</v>
+      </c>
+      <c r="AZ124">
+        <v>9</v>
+      </c>
+      <c r="BA124">
+        <v>3</v>
+      </c>
+      <c r="BB124">
+        <v>5</v>
+      </c>
+      <c r="BC124">
+        <v>8</v>
+      </c>
+      <c r="BD124">
+        <v>1.67</v>
+      </c>
+      <c r="BE124">
+        <v>6.75</v>
+      </c>
+      <c r="BF124">
+        <v>2.87</v>
+      </c>
+      <c r="BG124">
+        <v>1.22</v>
+      </c>
+      <c r="BH124">
+        <v>3.8</v>
+      </c>
+      <c r="BI124">
+        <v>1.35</v>
+      </c>
+      <c r="BJ124">
+        <v>2.84</v>
+      </c>
+      <c r="BK124">
+        <v>1.63</v>
+      </c>
+      <c r="BL124">
+        <v>2.09</v>
+      </c>
+      <c r="BM124">
+        <v>2.06</v>
+      </c>
+      <c r="BN124">
+        <v>1.68</v>
+      </c>
+      <c r="BO124">
+        <v>2.67</v>
+      </c>
+      <c r="BP124">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7321734</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45493.77083333334</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>75</v>
+      </c>
+      <c r="H125" t="s">
+        <v>84</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>2</v>
+      </c>
+      <c r="O125" t="s">
+        <v>169</v>
+      </c>
+      <c r="P125" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q125">
+        <v>2.35</v>
+      </c>
+      <c r="R125">
+        <v>2.25</v>
+      </c>
+      <c r="S125">
+        <v>4.75</v>
+      </c>
+      <c r="T125">
+        <v>1.34</v>
+      </c>
+      <c r="U125">
+        <v>3</v>
+      </c>
+      <c r="V125">
+        <v>2.7</v>
+      </c>
+      <c r="W125">
+        <v>1.41</v>
+      </c>
+      <c r="X125">
+        <v>6.45</v>
+      </c>
+      <c r="Y125">
+        <v>1.09</v>
+      </c>
+      <c r="Z125">
+        <v>1.67</v>
+      </c>
+      <c r="AA125">
+        <v>3.5</v>
+      </c>
+      <c r="AB125">
+        <v>4.2</v>
+      </c>
+      <c r="AC125">
+        <v>1.04</v>
+      </c>
+      <c r="AD125">
+        <v>12</v>
+      </c>
+      <c r="AE125">
+        <v>1.28</v>
+      </c>
+      <c r="AF125">
+        <v>3.75</v>
+      </c>
+      <c r="AG125">
+        <v>1.85</v>
+      </c>
+      <c r="AH125">
+        <v>1.85</v>
+      </c>
+      <c r="AI125">
+        <v>1.78</v>
+      </c>
+      <c r="AJ125">
+        <v>2</v>
+      </c>
+      <c r="AK125">
+        <v>1.22</v>
+      </c>
+      <c r="AL125">
+        <v>1.22</v>
+      </c>
+      <c r="AM125">
+        <v>2.05</v>
+      </c>
+      <c r="AN125">
+        <v>1.43</v>
+      </c>
+      <c r="AO125">
+        <v>1.14</v>
+      </c>
+      <c r="AP125">
+        <v>1.63</v>
+      </c>
+      <c r="AQ125">
+        <v>1</v>
+      </c>
+      <c r="AR125">
+        <v>1.58</v>
+      </c>
+      <c r="AS125">
+        <v>1.33</v>
+      </c>
+      <c r="AT125">
+        <v>2.91</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>4</v>
+      </c>
+      <c r="AX125">
+        <v>5</v>
+      </c>
+      <c r="AY125">
+        <v>9</v>
+      </c>
+      <c r="AZ125">
+        <v>10</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>5</v>
+      </c>
+      <c r="BC125">
+        <v>5</v>
+      </c>
+      <c r="BD125">
+        <v>1.51</v>
+      </c>
+      <c r="BE125">
+        <v>8.5</v>
+      </c>
+      <c r="BF125">
+        <v>3.07</v>
+      </c>
+      <c r="BG125">
+        <v>1.25</v>
+      </c>
+      <c r="BH125">
+        <v>3.6</v>
+      </c>
+      <c r="BI125">
+        <v>1.41</v>
+      </c>
+      <c r="BJ125">
+        <v>2.7</v>
+      </c>
+      <c r="BK125">
+        <v>1.77</v>
+      </c>
+      <c r="BL125">
+        <v>1.95</v>
+      </c>
+      <c r="BM125">
+        <v>2.2</v>
+      </c>
+      <c r="BN125">
+        <v>1.6</v>
+      </c>
+      <c r="BO125">
+        <v>2.9</v>
+      </c>
+      <c r="BP125">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7321735</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45493.875</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>80</v>
+      </c>
+      <c r="H126" t="s">
+        <v>74</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>170</v>
+      </c>
+      <c r="P126" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q126">
+        <v>2.63</v>
+      </c>
+      <c r="R126">
+        <v>2.3</v>
+      </c>
+      <c r="S126">
+        <v>3.75</v>
+      </c>
+      <c r="T126">
+        <v>1.3</v>
+      </c>
+      <c r="U126">
+        <v>3.2</v>
+      </c>
+      <c r="V126">
+        <v>2.45</v>
+      </c>
+      <c r="W126">
+        <v>1.49</v>
+      </c>
+      <c r="X126">
+        <v>5.9</v>
+      </c>
+      <c r="Y126">
+        <v>1.1</v>
+      </c>
+      <c r="Z126">
+        <v>2</v>
+      </c>
+      <c r="AA126">
+        <v>3.4</v>
+      </c>
+      <c r="AB126">
+        <v>3.1</v>
+      </c>
+      <c r="AC126">
+        <v>1.03</v>
+      </c>
+      <c r="AD126">
+        <v>12</v>
+      </c>
+      <c r="AE126">
+        <v>1.21</v>
+      </c>
+      <c r="AF126">
+        <v>4.39</v>
+      </c>
+      <c r="AG126">
+        <v>1.65</v>
+      </c>
+      <c r="AH126">
+        <v>2.1</v>
+      </c>
+      <c r="AI126">
+        <v>1.57</v>
+      </c>
+      <c r="AJ126">
+        <v>2.3</v>
+      </c>
+      <c r="AK126">
+        <v>1.33</v>
+      </c>
+      <c r="AL126">
+        <v>1.22</v>
+      </c>
+      <c r="AM126">
+        <v>1.78</v>
+      </c>
+      <c r="AN126">
+        <v>1.86</v>
+      </c>
+      <c r="AO126">
+        <v>1.44</v>
+      </c>
+      <c r="AP126">
+        <v>2</v>
+      </c>
+      <c r="AQ126">
+        <v>1.3</v>
+      </c>
+      <c r="AR126">
+        <v>1.69</v>
+      </c>
+      <c r="AS126">
+        <v>1.32</v>
+      </c>
+      <c r="AT126">
+        <v>3.01</v>
+      </c>
+      <c r="AU126">
+        <v>7</v>
+      </c>
+      <c r="AV126">
+        <v>7</v>
+      </c>
+      <c r="AW126">
+        <v>6</v>
+      </c>
+      <c r="AX126">
+        <v>1</v>
+      </c>
+      <c r="AY126">
+        <v>13</v>
+      </c>
+      <c r="AZ126">
+        <v>8</v>
+      </c>
+      <c r="BA126">
+        <v>6</v>
+      </c>
+      <c r="BB126">
+        <v>4</v>
+      </c>
+      <c r="BC126">
+        <v>10</v>
+      </c>
+      <c r="BD126">
+        <v>1.82</v>
+      </c>
+      <c r="BE126">
+        <v>8</v>
+      </c>
+      <c r="BF126">
+        <v>2.39</v>
+      </c>
+      <c r="BG126">
+        <v>1.25</v>
+      </c>
+      <c r="BH126">
+        <v>3.6</v>
+      </c>
+      <c r="BI126">
+        <v>1.33</v>
+      </c>
+      <c r="BJ126">
+        <v>3.05</v>
+      </c>
+      <c r="BK126">
+        <v>1.8</v>
+      </c>
+      <c r="BL126">
+        <v>1.91</v>
+      </c>
+      <c r="BM126">
+        <v>2.07</v>
+      </c>
+      <c r="BN126">
+        <v>1.67</v>
+      </c>
+      <c r="BO126">
+        <v>2.7</v>
+      </c>
+      <c r="BP126">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7321738</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45494.5625</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>77</v>
+      </c>
+      <c r="H127" t="s">
+        <v>85</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>4</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127" t="s">
+        <v>163</v>
+      </c>
+      <c r="P127" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q127">
+        <v>2.75</v>
+      </c>
+      <c r="R127">
+        <v>2.2</v>
+      </c>
+      <c r="S127">
+        <v>3.75</v>
+      </c>
+      <c r="T127">
+        <v>1.36</v>
+      </c>
+      <c r="U127">
+        <v>2.95</v>
+      </c>
+      <c r="V127">
+        <v>2.75</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>6.9</v>
+      </c>
+      <c r="Y127">
+        <v>1.07</v>
+      </c>
+      <c r="Z127">
+        <v>2.05</v>
+      </c>
+      <c r="AA127">
+        <v>3.5</v>
+      </c>
+      <c r="AB127">
+        <v>3.4</v>
+      </c>
+      <c r="AC127">
+        <v>1.04</v>
+      </c>
+      <c r="AD127">
+        <v>12</v>
+      </c>
+      <c r="AE127">
+        <v>1.28</v>
+      </c>
+      <c r="AF127">
+        <v>3.6</v>
+      </c>
+      <c r="AG127">
+        <v>1.77</v>
+      </c>
+      <c r="AH127">
+        <v>1.96</v>
+      </c>
+      <c r="AI127">
+        <v>1.72</v>
+      </c>
+      <c r="AJ127">
+        <v>2.1</v>
+      </c>
+      <c r="AK127">
+        <v>1.33</v>
+      </c>
+      <c r="AL127">
+        <v>1.25</v>
+      </c>
+      <c r="AM127">
+        <v>1.72</v>
+      </c>
+      <c r="AN127">
+        <v>1.57</v>
+      </c>
+      <c r="AO127">
+        <v>1.25</v>
+      </c>
+      <c r="AP127">
+        <v>1.38</v>
+      </c>
+      <c r="AQ127">
+        <v>1.44</v>
+      </c>
+      <c r="AR127">
+        <v>1.36</v>
+      </c>
+      <c r="AS127">
+        <v>1.25</v>
+      </c>
+      <c r="AT127">
+        <v>2.61</v>
+      </c>
+      <c r="AU127">
+        <v>4</v>
+      </c>
+      <c r="AV127">
+        <v>7</v>
+      </c>
+      <c r="AW127">
+        <v>2</v>
+      </c>
+      <c r="AX127">
+        <v>3</v>
+      </c>
+      <c r="AY127">
+        <v>6</v>
+      </c>
+      <c r="AZ127">
+        <v>10</v>
+      </c>
+      <c r="BA127">
+        <v>2</v>
+      </c>
+      <c r="BB127">
+        <v>4</v>
+      </c>
+      <c r="BC127">
+        <v>6</v>
+      </c>
+      <c r="BD127">
+        <v>1.91</v>
+      </c>
+      <c r="BE127">
+        <v>8</v>
+      </c>
+      <c r="BF127">
+        <v>2.2</v>
+      </c>
+      <c r="BG127">
+        <v>1.25</v>
+      </c>
+      <c r="BH127">
+        <v>3.6</v>
+      </c>
+      <c r="BI127">
+        <v>1.29</v>
+      </c>
+      <c r="BJ127">
+        <v>3.3</v>
+      </c>
+      <c r="BK127">
+        <v>1.77</v>
+      </c>
+      <c r="BL127">
+        <v>1.95</v>
+      </c>
+      <c r="BM127">
+        <v>1.9</v>
+      </c>
+      <c r="BN127">
+        <v>1.8</v>
+      </c>
+      <c r="BO127">
+        <v>2.45</v>
+      </c>
+      <c r="BP127">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7321736</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45494.66666666666</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>82</v>
+      </c>
+      <c r="H128" t="s">
+        <v>78</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>6</v>
+      </c>
+      <c r="O128" t="s">
+        <v>171</v>
+      </c>
+      <c r="P128" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+      <c r="R128">
+        <v>2.3</v>
+      </c>
+      <c r="S128">
+        <v>2.6</v>
+      </c>
+      <c r="T128">
+        <v>1.31</v>
+      </c>
+      <c r="U128">
+        <v>3.28</v>
+      </c>
+      <c r="V128">
+        <v>2.51</v>
+      </c>
+      <c r="W128">
+        <v>1.52</v>
+      </c>
+      <c r="X128">
+        <v>5.75</v>
+      </c>
+      <c r="Y128">
+        <v>1.12</v>
+      </c>
+      <c r="Z128">
+        <v>3.3</v>
+      </c>
+      <c r="AA128">
+        <v>3.55</v>
+      </c>
+      <c r="AB128">
+        <v>2.05</v>
+      </c>
+      <c r="AC128">
+        <v>1.02</v>
+      </c>
+      <c r="AD128">
+        <v>15</v>
+      </c>
+      <c r="AE128">
+        <v>1.2</v>
+      </c>
+      <c r="AF128">
+        <v>4.33</v>
+      </c>
+      <c r="AG128">
+        <v>1.67</v>
+      </c>
+      <c r="AH128">
+        <v>2.1</v>
+      </c>
+      <c r="AI128">
+        <v>1.6</v>
+      </c>
+      <c r="AJ128">
+        <v>2.3</v>
+      </c>
+      <c r="AK128">
+        <v>1.83</v>
+      </c>
+      <c r="AL128">
+        <v>1.25</v>
+      </c>
+      <c r="AM128">
+        <v>1.27</v>
+      </c>
+      <c r="AN128">
+        <v>1.13</v>
+      </c>
+      <c r="AO128">
+        <v>2.75</v>
+      </c>
+      <c r="AP128">
+        <v>1.11</v>
+      </c>
+      <c r="AQ128">
+        <v>2.56</v>
+      </c>
+      <c r="AR128">
+        <v>1.59</v>
+      </c>
+      <c r="AS128">
+        <v>1.77</v>
+      </c>
+      <c r="AT128">
+        <v>3.36</v>
+      </c>
+      <c r="AU128">
+        <v>8</v>
+      </c>
+      <c r="AV128">
+        <v>9</v>
+      </c>
+      <c r="AW128">
+        <v>8</v>
+      </c>
+      <c r="AX128">
+        <v>7</v>
+      </c>
+      <c r="AY128">
+        <v>16</v>
+      </c>
+      <c r="AZ128">
+        <v>16</v>
+      </c>
+      <c r="BA128">
+        <v>8</v>
+      </c>
+      <c r="BB128">
+        <v>2</v>
+      </c>
+      <c r="BC128">
+        <v>10</v>
+      </c>
+      <c r="BD128">
+        <v>2.62</v>
+      </c>
+      <c r="BE128">
+        <v>8</v>
+      </c>
+      <c r="BF128">
+        <v>1.69</v>
+      </c>
+      <c r="BG128">
+        <v>1.25</v>
+      </c>
+      <c r="BH128">
+        <v>3.42</v>
+      </c>
+      <c r="BI128">
+        <v>1.47</v>
+      </c>
+      <c r="BJ128">
+        <v>2.42</v>
+      </c>
+      <c r="BK128">
+        <v>2</v>
+      </c>
+      <c r="BL128">
+        <v>1.8</v>
+      </c>
+      <c r="BM128">
+        <v>2.34</v>
+      </c>
+      <c r="BN128">
+        <v>1.5</v>
+      </c>
+      <c r="BO128">
+        <v>3.18</v>
+      </c>
+      <c r="BP128">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7321733</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45494.77083333334</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>83</v>
+      </c>
+      <c r="H129" t="s">
+        <v>71</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>172</v>
+      </c>
+      <c r="P129" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q129">
+        <v>2</v>
+      </c>
+      <c r="R129">
+        <v>2.5</v>
+      </c>
+      <c r="S129">
+        <v>5.5</v>
+      </c>
+      <c r="T129">
+        <v>1.26</v>
+      </c>
+      <c r="U129">
+        <v>3.5</v>
+      </c>
+      <c r="V129">
+        <v>2.29</v>
+      </c>
+      <c r="W129">
+        <v>1.56</v>
+      </c>
+      <c r="X129">
+        <v>4.95</v>
+      </c>
+      <c r="Y129">
+        <v>1.14</v>
+      </c>
+      <c r="Z129">
+        <v>1.36</v>
+      </c>
+      <c r="AA129">
+        <v>4.4</v>
+      </c>
+      <c r="AB129">
+        <v>6</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>19</v>
+      </c>
+      <c r="AE129">
+        <v>1.18</v>
+      </c>
+      <c r="AF129">
+        <v>4.75</v>
+      </c>
+      <c r="AG129">
+        <v>1.56</v>
+      </c>
+      <c r="AH129">
+        <v>2.27</v>
+      </c>
+      <c r="AI129">
+        <v>1.7</v>
+      </c>
+      <c r="AJ129">
+        <v>2.1</v>
+      </c>
+      <c r="AK129">
+        <v>1.12</v>
+      </c>
+      <c r="AL129">
+        <v>1.16</v>
+      </c>
+      <c r="AM129">
+        <v>2.65</v>
+      </c>
+      <c r="AN129">
+        <v>1.71</v>
+      </c>
+      <c r="AO129">
+        <v>1.2</v>
+      </c>
+      <c r="AP129">
+        <v>1.88</v>
+      </c>
+      <c r="AQ129">
+        <v>1</v>
+      </c>
+      <c r="AR129">
+        <v>1.87</v>
+      </c>
+      <c r="AS129">
+        <v>1.54</v>
+      </c>
+      <c r="AT129">
+        <v>3.41</v>
+      </c>
+      <c r="AU129">
+        <v>4</v>
+      </c>
+      <c r="AV129">
+        <v>7</v>
+      </c>
+      <c r="AW129">
+        <v>5</v>
+      </c>
+      <c r="AX129">
+        <v>6</v>
+      </c>
+      <c r="AY129">
+        <v>9</v>
+      </c>
+      <c r="AZ129">
+        <v>13</v>
+      </c>
+      <c r="BA129">
+        <v>13</v>
+      </c>
+      <c r="BB129">
+        <v>3</v>
+      </c>
+      <c r="BC129">
+        <v>16</v>
+      </c>
+      <c r="BD129">
+        <v>1.34</v>
+      </c>
+      <c r="BE129">
+        <v>9.5</v>
+      </c>
+      <c r="BF129">
+        <v>4.07</v>
+      </c>
+      <c r="BG129">
+        <v>1.25</v>
+      </c>
+      <c r="BH129">
+        <v>3.6</v>
+      </c>
+      <c r="BI129">
+        <v>1.34</v>
+      </c>
+      <c r="BJ129">
+        <v>3</v>
+      </c>
+      <c r="BK129">
+        <v>1.77</v>
+      </c>
+      <c r="BL129">
+        <v>1.95</v>
+      </c>
+      <c r="BM129">
+        <v>2.07</v>
+      </c>
+      <c r="BN129">
+        <v>1.67</v>
+      </c>
+      <c r="BO129">
+        <v>2.7</v>
+      </c>
+      <c r="BP129">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -27448,10 +27448,10 @@
         <v>8</v>
       </c>
       <c r="BB128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC128">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD128">
         <v>2.62</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,9 @@
     <t>['45+1', '90+6']</t>
   </si>
   <si>
+    <t>['5']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -758,6 +761,9 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['21']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1584,7 +1590,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1790,7 +1796,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1996,7 +2002,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2202,7 +2208,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2283,7 +2289,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2408,7 +2414,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2614,7 +2620,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3232,7 +3238,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3438,7 +3444,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3850,7 +3856,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4056,7 +4062,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4262,7 +4268,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4468,7 +4474,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4880,7 +4886,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5292,7 +5298,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5373,7 +5379,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ21">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5498,7 +5504,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5704,7 +5710,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6322,7 +6328,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6528,7 +6534,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6940,7 +6946,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7146,7 +7152,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7558,7 +7564,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7636,7 +7642,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.63</v>
@@ -9284,7 +9290,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1.75</v>
@@ -9412,7 +9418,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9618,7 +9624,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9824,7 +9830,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9905,7 +9911,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -10030,7 +10036,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10442,7 +10448,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10854,7 +10860,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11060,7 +11066,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11347,7 +11353,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ50">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11962,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>1.3</v>
@@ -12090,7 +12096,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12296,7 +12302,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12502,7 +12508,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12708,7 +12714,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12914,7 +12920,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13532,7 +13538,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13738,7 +13744,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14150,7 +14156,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14562,7 +14568,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14768,7 +14774,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14974,7 +14980,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15467,7 +15473,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15592,7 +15598,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15798,7 +15804,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16004,7 +16010,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16210,7 +16216,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16416,7 +16422,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16828,7 +16834,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16906,7 +16912,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
         <v>1.75</v>
@@ -17034,7 +17040,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17858,7 +17864,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18270,7 +18276,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18476,7 +18482,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18682,7 +18688,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18888,7 +18894,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -18969,7 +18975,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ87">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.35</v>
@@ -19094,7 +19100,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19300,7 +19306,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19506,7 +19512,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19712,7 +19718,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19918,7 +19924,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -19996,7 +20002,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ92">
         <v>0.86</v>
@@ -20330,7 +20336,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20536,7 +20542,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20742,7 +20748,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21026,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ97">
         <v>0.33</v>
@@ -21154,7 +21160,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21235,7 +21241,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21360,7 +21366,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21566,7 +21572,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21978,7 +21984,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22184,7 +22190,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22596,7 +22602,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23008,7 +23014,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23214,7 +23220,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23420,7 +23426,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23626,7 +23632,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24038,7 +24044,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24244,7 +24250,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24325,7 +24331,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ113">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -24450,7 +24456,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24656,7 +24662,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24734,7 +24740,7 @@
         <v>2.71</v>
       </c>
       <c r="AP115">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115">
         <v>2.56</v>
@@ -24862,7 +24868,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25068,7 +25074,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25686,7 +25692,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26098,7 +26104,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26922,7 +26928,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27128,7 +27134,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27334,7 +27340,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27540,7 +27546,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27697,6 +27703,212 @@
       </c>
       <c r="BP129">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7321745</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45499.83333333334</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>85</v>
+      </c>
+      <c r="H130" t="s">
+        <v>80</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>173</v>
+      </c>
+      <c r="P130" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q130">
+        <v>2.5</v>
+      </c>
+      <c r="R130">
+        <v>2.4</v>
+      </c>
+      <c r="S130">
+        <v>3.75</v>
+      </c>
+      <c r="T130">
+        <v>1.29</v>
+      </c>
+      <c r="U130">
+        <v>3.5</v>
+      </c>
+      <c r="V130">
+        <v>2.25</v>
+      </c>
+      <c r="W130">
+        <v>1.57</v>
+      </c>
+      <c r="X130">
+        <v>5.5</v>
+      </c>
+      <c r="Y130">
+        <v>1.14</v>
+      </c>
+      <c r="Z130">
+        <v>1.9</v>
+      </c>
+      <c r="AA130">
+        <v>3.6</v>
+      </c>
+      <c r="AB130">
+        <v>3.44</v>
+      </c>
+      <c r="AC130">
+        <v>1.03</v>
+      </c>
+      <c r="AD130">
+        <v>9</v>
+      </c>
+      <c r="AE130">
+        <v>1.14</v>
+      </c>
+      <c r="AF130">
+        <v>4.65</v>
+      </c>
+      <c r="AG130">
+        <v>1.49</v>
+      </c>
+      <c r="AH130">
+        <v>2.44</v>
+      </c>
+      <c r="AI130">
+        <v>1.5</v>
+      </c>
+      <c r="AJ130">
+        <v>2.5</v>
+      </c>
+      <c r="AK130">
+        <v>1.27</v>
+      </c>
+      <c r="AL130">
+        <v>1.24</v>
+      </c>
+      <c r="AM130">
+        <v>1.87</v>
+      </c>
+      <c r="AN130">
+        <v>1.57</v>
+      </c>
+      <c r="AO130">
+        <v>1.38</v>
+      </c>
+      <c r="AP130">
+        <v>1.5</v>
+      </c>
+      <c r="AQ130">
+        <v>1.33</v>
+      </c>
+      <c r="AR130">
+        <v>1.77</v>
+      </c>
+      <c r="AS130">
+        <v>1.58</v>
+      </c>
+      <c r="AT130">
+        <v>3.35</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>8</v>
+      </c>
+      <c r="AX130">
+        <v>2</v>
+      </c>
+      <c r="AY130">
+        <v>14</v>
+      </c>
+      <c r="AZ130">
+        <v>8</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>6</v>
+      </c>
+      <c r="BC130">
+        <v>11</v>
+      </c>
+      <c r="BD130">
+        <v>1.51</v>
+      </c>
+      <c r="BE130">
+        <v>8.5</v>
+      </c>
+      <c r="BF130">
+        <v>3.07</v>
+      </c>
+      <c r="BG130">
+        <v>1.18</v>
+      </c>
+      <c r="BH130">
+        <v>3.9</v>
+      </c>
+      <c r="BI130">
+        <v>1.36</v>
+      </c>
+      <c r="BJ130">
+        <v>2.75</v>
+      </c>
+      <c r="BK130">
+        <v>1.63</v>
+      </c>
+      <c r="BL130">
+        <v>2.06</v>
+      </c>
+      <c r="BM130">
+        <v>2.05</v>
+      </c>
+      <c r="BN130">
+        <v>1.64</v>
+      </c>
+      <c r="BO130">
+        <v>2.7</v>
+      </c>
+      <c r="BP130">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,15 @@
     <t>['5']</t>
   </si>
   <si>
+    <t>['61', '82', '90+1']</t>
+  </si>
+  <si>
+    <t>['8', '90+10']</t>
+  </si>
+  <si>
+    <t>['63', '90+1']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -764,6 +773,9 @@
   </si>
   <si>
     <t>['21']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1477,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1590,7 +1602,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1668,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ3">
         <v>1.75</v>
@@ -1796,7 +1808,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1874,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ4">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2002,7 +2014,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2208,7 +2220,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2414,7 +2426,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2620,7 +2632,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3238,7 +3250,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3444,7 +3456,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3856,7 +3868,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4062,7 +4074,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4143,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>1.77</v>
@@ -4268,7 +4280,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4474,7 +4486,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4758,10 +4770,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR18">
         <v>0.64</v>
@@ -4886,7 +4898,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5170,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.71</v>
@@ -5298,7 +5310,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5504,7 +5516,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5582,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22">
         <v>2.56</v>
@@ -5710,7 +5722,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6200,7 +6212,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ25">
         <v>1.3</v>
@@ -6328,7 +6340,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6409,7 +6421,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -6534,7 +6546,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6612,7 +6624,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>2.56</v>
@@ -6946,7 +6958,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7152,7 +7164,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7439,7 +7451,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR31">
         <v>1.69</v>
@@ -7564,7 +7576,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7851,7 +7863,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ33">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -9418,7 +9430,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9499,7 +9511,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ41">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9624,7 +9636,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9705,7 +9717,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ42">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9830,7 +9842,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10036,7 +10048,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10448,7 +10460,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10526,7 +10538,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1.44</v>
@@ -10732,7 +10744,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10860,7 +10872,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11066,7 +11078,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11144,7 +11156,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ49">
         <v>0.63</v>
@@ -11350,7 +11362,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
@@ -11765,7 +11777,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -12096,7 +12108,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12177,7 +12189,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
         <v>1.39</v>
@@ -12302,7 +12314,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12508,7 +12520,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12586,7 +12598,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ56">
         <v>2.56</v>
@@ -12714,7 +12726,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12792,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ57">
         <v>1.44</v>
@@ -12920,7 +12932,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13413,7 +13425,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ60">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -13538,7 +13550,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13744,7 +13756,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14156,7 +14168,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14234,7 +14246,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>0.88</v>
@@ -14568,7 +14580,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14774,7 +14786,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14980,7 +14992,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15267,7 +15279,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ69">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
@@ -15598,7 +15610,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15804,7 +15816,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15882,7 +15894,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ72">
         <v>0.33</v>
@@ -16010,7 +16022,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16216,7 +16228,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16422,7 +16434,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16500,7 +16512,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ75">
         <v>2.13</v>
@@ -16834,7 +16846,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16915,7 +16927,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR77">
         <v>1.8</v>
@@ -17040,7 +17052,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17324,7 +17336,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -17739,7 +17751,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ81">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR81">
         <v>1.6</v>
@@ -17864,7 +17876,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18276,7 +18288,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18482,7 +18494,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18560,7 +18572,7 @@
         <v>2.2</v>
       </c>
       <c r="AP85">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ85">
         <v>2.13</v>
@@ -18688,7 +18700,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18894,7 +18906,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19100,7 +19112,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19306,7 +19318,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19512,7 +19524,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19718,7 +19730,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19799,7 +19811,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ91">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -19924,7 +19936,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20005,7 +20017,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ92">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR92">
         <v>1.79</v>
@@ -20208,7 +20220,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ93">
         <v>0.88</v>
@@ -20336,7 +20348,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20542,7 +20554,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20748,7 +20760,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21160,7 +21172,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21366,7 +21378,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21572,7 +21584,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21653,7 +21665,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ100">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -21856,7 +21868,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>1.75</v>
@@ -21984,7 +21996,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22065,7 +22077,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ102">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22190,7 +22202,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22602,7 +22614,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22683,7 +22695,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ105">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23014,7 +23026,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23220,7 +23232,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23426,7 +23438,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23507,7 +23519,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -23632,7 +23644,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23710,7 +23722,7 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ110">
         <v>1.3</v>
@@ -24044,7 +24056,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24125,7 +24137,7 @@
         <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR112">
         <v>1.94</v>
@@ -24250,7 +24262,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24328,7 +24340,7 @@
         <v>1.57</v>
       </c>
       <c r="AP113">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ113">
         <v>1.33</v>
@@ -24456,7 +24468,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24662,7 +24674,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24868,7 +24880,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25074,7 +25086,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25152,7 +25164,7 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>0.33</v>
@@ -25692,7 +25704,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -25770,7 +25782,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26104,7 +26116,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26928,7 +26940,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27134,7 +27146,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27340,7 +27352,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27546,7 +27558,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27624,7 +27636,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -27752,7 +27764,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27909,6 +27921,624 @@
       </c>
       <c r="BP130">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7321743</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45500.5625</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>72</v>
+      </c>
+      <c r="H131" t="s">
+        <v>76</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>174</v>
+      </c>
+      <c r="P131" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q131">
+        <v>3.45</v>
+      </c>
+      <c r="R131">
+        <v>2.11</v>
+      </c>
+      <c r="S131">
+        <v>2.93</v>
+      </c>
+      <c r="T131">
+        <v>1.38</v>
+      </c>
+      <c r="U131">
+        <v>2.9</v>
+      </c>
+      <c r="V131">
+        <v>2.74</v>
+      </c>
+      <c r="W131">
+        <v>1.42</v>
+      </c>
+      <c r="X131">
+        <v>6.75</v>
+      </c>
+      <c r="Y131">
+        <v>1.08</v>
+      </c>
+      <c r="Z131">
+        <v>2.8</v>
+      </c>
+      <c r="AA131">
+        <v>3.4</v>
+      </c>
+      <c r="AB131">
+        <v>2.37</v>
+      </c>
+      <c r="AC131">
+        <v>1.01</v>
+      </c>
+      <c r="AD131">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE131">
+        <v>1.25</v>
+      </c>
+      <c r="AF131">
+        <v>3.42</v>
+      </c>
+      <c r="AG131">
+        <v>1.93</v>
+      </c>
+      <c r="AH131">
+        <v>1.93</v>
+      </c>
+      <c r="AI131">
+        <v>1.67</v>
+      </c>
+      <c r="AJ131">
+        <v>2.08</v>
+      </c>
+      <c r="AK131">
+        <v>1.55</v>
+      </c>
+      <c r="AL131">
+        <v>1.3</v>
+      </c>
+      <c r="AM131">
+        <v>1.4</v>
+      </c>
+      <c r="AN131">
+        <v>1.71</v>
+      </c>
+      <c r="AO131">
+        <v>1.75</v>
+      </c>
+      <c r="AP131">
+        <v>1.88</v>
+      </c>
+      <c r="AQ131">
+        <v>1.56</v>
+      </c>
+      <c r="AR131">
+        <v>1.64</v>
+      </c>
+      <c r="AS131">
+        <v>1.24</v>
+      </c>
+      <c r="AT131">
+        <v>2.88</v>
+      </c>
+      <c r="AU131">
+        <v>6</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>4</v>
+      </c>
+      <c r="AX131">
+        <v>2</v>
+      </c>
+      <c r="AY131">
+        <v>10</v>
+      </c>
+      <c r="AZ131">
+        <v>7</v>
+      </c>
+      <c r="BA131">
+        <v>1</v>
+      </c>
+      <c r="BB131">
+        <v>6</v>
+      </c>
+      <c r="BC131">
+        <v>7</v>
+      </c>
+      <c r="BD131">
+        <v>2.2</v>
+      </c>
+      <c r="BE131">
+        <v>8</v>
+      </c>
+      <c r="BF131">
+        <v>1.91</v>
+      </c>
+      <c r="BG131">
+        <v>1.22</v>
+      </c>
+      <c r="BH131">
+        <v>3.8</v>
+      </c>
+      <c r="BI131">
+        <v>1.34</v>
+      </c>
+      <c r="BJ131">
+        <v>2.88</v>
+      </c>
+      <c r="BK131">
+        <v>1.77</v>
+      </c>
+      <c r="BL131">
+        <v>1.95</v>
+      </c>
+      <c r="BM131">
+        <v>2.03</v>
+      </c>
+      <c r="BN131">
+        <v>1.7</v>
+      </c>
+      <c r="BO131">
+        <v>2.6</v>
+      </c>
+      <c r="BP131">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7321747</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45500.66666666666</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>82</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>175</v>
+      </c>
+      <c r="P132" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q132">
+        <v>2.2</v>
+      </c>
+      <c r="R132">
+        <v>2.5</v>
+      </c>
+      <c r="S132">
+        <v>4.33</v>
+      </c>
+      <c r="T132">
+        <v>1.25</v>
+      </c>
+      <c r="U132">
+        <v>3.75</v>
+      </c>
+      <c r="V132">
+        <v>2.2</v>
+      </c>
+      <c r="W132">
+        <v>1.62</v>
+      </c>
+      <c r="X132">
+        <v>5</v>
+      </c>
+      <c r="Y132">
+        <v>1.17</v>
+      </c>
+      <c r="Z132">
+        <v>1.65</v>
+      </c>
+      <c r="AA132">
+        <v>4.2</v>
+      </c>
+      <c r="AB132">
+        <v>4.5</v>
+      </c>
+      <c r="AC132">
+        <v>1.02</v>
+      </c>
+      <c r="AD132">
+        <v>12</v>
+      </c>
+      <c r="AE132">
+        <v>1.12</v>
+      </c>
+      <c r="AF132">
+        <v>4.95</v>
+      </c>
+      <c r="AG132">
+        <v>1.5</v>
+      </c>
+      <c r="AH132">
+        <v>2.4</v>
+      </c>
+      <c r="AI132">
+        <v>1.53</v>
+      </c>
+      <c r="AJ132">
+        <v>2.38</v>
+      </c>
+      <c r="AK132">
+        <v>1.17</v>
+      </c>
+      <c r="AL132">
+        <v>1.2</v>
+      </c>
+      <c r="AM132">
+        <v>1.87</v>
+      </c>
+      <c r="AN132">
+        <v>1.8</v>
+      </c>
+      <c r="AO132">
+        <v>0.86</v>
+      </c>
+      <c r="AP132">
+        <v>1.91</v>
+      </c>
+      <c r="AQ132">
+        <v>0.75</v>
+      </c>
+      <c r="AR132">
+        <v>1.55</v>
+      </c>
+      <c r="AS132">
+        <v>1.31</v>
+      </c>
+      <c r="AT132">
+        <v>2.86</v>
+      </c>
+      <c r="AU132">
+        <v>7</v>
+      </c>
+      <c r="AV132">
+        <v>12</v>
+      </c>
+      <c r="AW132">
+        <v>5</v>
+      </c>
+      <c r="AX132">
+        <v>6</v>
+      </c>
+      <c r="AY132">
+        <v>12</v>
+      </c>
+      <c r="AZ132">
+        <v>18</v>
+      </c>
+      <c r="BA132">
+        <v>8</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>12</v>
+      </c>
+      <c r="BD132">
+        <v>1.51</v>
+      </c>
+      <c r="BE132">
+        <v>8.5</v>
+      </c>
+      <c r="BF132">
+        <v>3.07</v>
+      </c>
+      <c r="BG132">
+        <v>1.24</v>
+      </c>
+      <c r="BH132">
+        <v>3.45</v>
+      </c>
+      <c r="BI132">
+        <v>1.45</v>
+      </c>
+      <c r="BJ132">
+        <v>2.45</v>
+      </c>
+      <c r="BK132">
+        <v>1.82</v>
+      </c>
+      <c r="BL132">
+        <v>1.98</v>
+      </c>
+      <c r="BM132">
+        <v>2.28</v>
+      </c>
+      <c r="BN132">
+        <v>1.52</v>
+      </c>
+      <c r="BO132">
+        <v>3.05</v>
+      </c>
+      <c r="BP132">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7321741</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45500.77083333334</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>83</v>
+      </c>
+      <c r="H133" t="s">
+        <v>81</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>176</v>
+      </c>
+      <c r="P133" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q133">
+        <v>2</v>
+      </c>
+      <c r="R133">
+        <v>2.4</v>
+      </c>
+      <c r="S133">
+        <v>6.5</v>
+      </c>
+      <c r="T133">
+        <v>1.33</v>
+      </c>
+      <c r="U133">
+        <v>3.25</v>
+      </c>
+      <c r="V133">
+        <v>2.63</v>
+      </c>
+      <c r="W133">
+        <v>1.44</v>
+      </c>
+      <c r="X133">
+        <v>6.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.11</v>
+      </c>
+      <c r="Z133">
+        <v>1.4</v>
+      </c>
+      <c r="AA133">
+        <v>4.2</v>
+      </c>
+      <c r="AB133">
+        <v>6</v>
+      </c>
+      <c r="AC133">
+        <v>1.02</v>
+      </c>
+      <c r="AD133">
+        <v>10</v>
+      </c>
+      <c r="AE133">
+        <v>1.22</v>
+      </c>
+      <c r="AF133">
+        <v>3.8</v>
+      </c>
+      <c r="AG133">
+        <v>1.7</v>
+      </c>
+      <c r="AH133">
+        <v>2</v>
+      </c>
+      <c r="AI133">
+        <v>1.91</v>
+      </c>
+      <c r="AJ133">
+        <v>1.8</v>
+      </c>
+      <c r="AK133">
+        <v>1.09</v>
+      </c>
+      <c r="AL133">
+        <v>1.18</v>
+      </c>
+      <c r="AM133">
+        <v>2.68</v>
+      </c>
+      <c r="AN133">
+        <v>1.88</v>
+      </c>
+      <c r="AO133">
+        <v>1.43</v>
+      </c>
+      <c r="AP133">
+        <v>2</v>
+      </c>
+      <c r="AQ133">
+        <v>1.25</v>
+      </c>
+      <c r="AR133">
+        <v>1.8</v>
+      </c>
+      <c r="AS133">
+        <v>1.4</v>
+      </c>
+      <c r="AT133">
+        <v>3.2</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>2</v>
+      </c>
+      <c r="AW133">
+        <v>6</v>
+      </c>
+      <c r="AX133">
+        <v>4</v>
+      </c>
+      <c r="AY133">
+        <v>12</v>
+      </c>
+      <c r="AZ133">
+        <v>6</v>
+      </c>
+      <c r="BA133">
+        <v>3</v>
+      </c>
+      <c r="BB133">
+        <v>7</v>
+      </c>
+      <c r="BC133">
+        <v>10</v>
+      </c>
+      <c r="BD133">
+        <v>1.31</v>
+      </c>
+      <c r="BE133">
+        <v>9.5</v>
+      </c>
+      <c r="BF133">
+        <v>4.41</v>
+      </c>
+      <c r="BG133">
+        <v>1.23</v>
+      </c>
+      <c r="BH133">
+        <v>3.5</v>
+      </c>
+      <c r="BI133">
+        <v>1.43</v>
+      </c>
+      <c r="BJ133">
+        <v>2.48</v>
+      </c>
+      <c r="BK133">
+        <v>1.82</v>
+      </c>
+      <c r="BL133">
+        <v>1.98</v>
+      </c>
+      <c r="BM133">
+        <v>2.25</v>
+      </c>
+      <c r="BN133">
+        <v>1.53</v>
+      </c>
+      <c r="BO133">
+        <v>3</v>
+      </c>
+      <c r="BP133">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,15 @@
     <t>['63', '90+1']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['55', '60']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -776,6 +785,12 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['39', '90+10']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ2">
         <v>1.56</v>
@@ -1602,7 +1617,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1808,7 +1823,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2014,7 +2029,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2095,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2220,7 +2235,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2298,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2426,7 +2441,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2632,7 +2647,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3250,7 +3265,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3456,7 +3471,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3868,7 +3883,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4074,7 +4089,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4280,7 +4295,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4361,7 +4376,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR16">
         <v>1.44</v>
@@ -4486,7 +4501,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4898,7 +4913,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -4976,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ19">
         <v>1.3</v>
@@ -5185,7 +5200,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5310,7 +5325,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5388,7 +5403,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5516,7 +5531,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5597,7 +5612,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ22">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR22">
         <v>1.29</v>
@@ -5722,7 +5737,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5803,7 +5818,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ23">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR23">
         <v>1.09</v>
@@ -6340,7 +6355,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6546,7 +6561,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6627,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6830,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ28">
         <v>0.33</v>
@@ -6958,7 +6973,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7164,7 +7179,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7242,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ30">
         <v>0.88</v>
@@ -7576,7 +7591,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -9096,10 +9111,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ39">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -9430,7 +9445,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9636,7 +9651,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9714,7 +9729,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ42">
         <v>1.56</v>
@@ -9842,7 +9857,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10048,7 +10063,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10335,7 +10350,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10460,7 +10475,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10872,7 +10887,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10953,7 +10968,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR48">
         <v>1.89</v>
@@ -11078,7 +11093,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11568,7 +11583,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -12108,7 +12123,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12186,7 +12201,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ54">
         <v>1.25</v>
@@ -12314,7 +12329,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12520,7 +12535,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12601,7 +12616,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ56">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR56">
         <v>1.34</v>
@@ -12726,7 +12741,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12932,7 +12947,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13013,7 +13028,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR58">
         <v>1.99</v>
@@ -13219,7 +13234,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ59">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13550,7 +13565,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13628,7 +13643,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ61">
         <v>1.75</v>
@@ -13756,7 +13771,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13834,7 +13849,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14168,7 +14183,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14455,7 +14470,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.38</v>
@@ -14580,7 +14595,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14658,7 +14673,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ66">
         <v>1.44</v>
@@ -14786,7 +14801,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14992,7 +15007,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15610,7 +15625,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15691,7 +15706,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR71">
         <v>1.4</v>
@@ -15816,7 +15831,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16022,7 +16037,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16228,7 +16243,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16434,7 +16449,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16515,7 +16530,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ75">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -16718,7 +16733,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ76">
         <v>0.88</v>
@@ -16846,7 +16861,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17052,7 +17067,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17133,7 +17148,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -17748,7 +17763,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ81">
         <v>0.75</v>
@@ -17876,7 +17891,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18163,7 +18178,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ83">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18288,7 +18303,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18494,7 +18509,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18575,7 +18590,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ85">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -18700,7 +18715,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18778,7 +18793,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ86">
         <v>0.63</v>
@@ -18906,7 +18921,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19112,7 +19127,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19318,7 +19333,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19524,7 +19539,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19730,7 +19745,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19936,7 +19951,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20348,7 +20363,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20426,7 +20441,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ94">
         <v>1.75</v>
@@ -20554,7 +20569,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20760,7 +20775,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20838,10 +20853,10 @@
         <v>2.67</v>
       </c>
       <c r="AP96">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ96">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -21172,7 +21187,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21378,7 +21393,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21459,7 +21474,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ99">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR99">
         <v>1.41</v>
@@ -21584,7 +21599,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21662,7 +21677,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ100">
         <v>1.25</v>
@@ -21996,7 +22011,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22202,7 +22217,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22614,7 +22629,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22692,7 +22707,7 @@
         <v>1.57</v>
       </c>
       <c r="AP105">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AQ105">
         <v>1.56</v>
@@ -23026,7 +23041,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23232,7 +23247,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23438,7 +23453,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23644,7 +23659,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24056,7 +24071,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24262,7 +24277,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24468,7 +24483,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24546,7 +24561,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ114">
         <v>1.75</v>
@@ -24674,7 +24689,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24755,7 +24770,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR115">
         <v>1.75</v>
@@ -24880,7 +24895,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25086,7 +25101,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25373,7 +25388,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ118">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AR118">
         <v>1.41</v>
@@ -25704,7 +25719,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -25988,10 +26003,10 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ121">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26116,7 +26131,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26940,7 +26955,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27146,7 +27161,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27352,7 +27367,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27433,7 +27448,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ128">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="AR128">
         <v>1.59</v>
@@ -27558,7 +27573,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27764,7 +27779,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28176,7 +28191,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28382,7 +28397,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28539,6 +28554,624 @@
       </c>
       <c r="BP133">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7321748</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45501.66666666666</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134" t="s">
+        <v>75</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>177</v>
+      </c>
+      <c r="P134" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>2.1</v>
+      </c>
+      <c r="S134">
+        <v>3.5</v>
+      </c>
+      <c r="T134">
+        <v>1.4</v>
+      </c>
+      <c r="U134">
+        <v>2.75</v>
+      </c>
+      <c r="V134">
+        <v>3</v>
+      </c>
+      <c r="W134">
+        <v>1.36</v>
+      </c>
+      <c r="X134">
+        <v>8</v>
+      </c>
+      <c r="Y134">
+        <v>1.08</v>
+      </c>
+      <c r="Z134">
+        <v>2.4</v>
+      </c>
+      <c r="AA134">
+        <v>3.1</v>
+      </c>
+      <c r="AB134">
+        <v>2.65</v>
+      </c>
+      <c r="AC134">
+        <v>1.02</v>
+      </c>
+      <c r="AD134">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE134">
+        <v>1.28</v>
+      </c>
+      <c r="AF134">
+        <v>3.2</v>
+      </c>
+      <c r="AG134">
+        <v>1.9</v>
+      </c>
+      <c r="AH134">
+        <v>1.8</v>
+      </c>
+      <c r="AI134">
+        <v>1.73</v>
+      </c>
+      <c r="AJ134">
+        <v>2</v>
+      </c>
+      <c r="AK134">
+        <v>1.41</v>
+      </c>
+      <c r="AL134">
+        <v>1.3</v>
+      </c>
+      <c r="AM134">
+        <v>1.54</v>
+      </c>
+      <c r="AN134">
+        <v>1.75</v>
+      </c>
+      <c r="AO134">
+        <v>2.13</v>
+      </c>
+      <c r="AP134">
+        <v>1.56</v>
+      </c>
+      <c r="AQ134">
+        <v>2.22</v>
+      </c>
+      <c r="AR134">
+        <v>1.61</v>
+      </c>
+      <c r="AS134">
+        <v>1.15</v>
+      </c>
+      <c r="AT134">
+        <v>2.76</v>
+      </c>
+      <c r="AU134">
+        <v>5</v>
+      </c>
+      <c r="AV134">
+        <v>5</v>
+      </c>
+      <c r="AW134">
+        <v>3</v>
+      </c>
+      <c r="AX134">
+        <v>3</v>
+      </c>
+      <c r="AY134">
+        <v>8</v>
+      </c>
+      <c r="AZ134">
+        <v>8</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>4</v>
+      </c>
+      <c r="BC134">
+        <v>7</v>
+      </c>
+      <c r="BD134">
+        <v>1.61</v>
+      </c>
+      <c r="BE134">
+        <v>6.75</v>
+      </c>
+      <c r="BF134">
+        <v>2.97</v>
+      </c>
+      <c r="BG134">
+        <v>1.25</v>
+      </c>
+      <c r="BH134">
+        <v>3.3</v>
+      </c>
+      <c r="BI134">
+        <v>1.48</v>
+      </c>
+      <c r="BJ134">
+        <v>2.38</v>
+      </c>
+      <c r="BK134">
+        <v>1.9</v>
+      </c>
+      <c r="BL134">
+        <v>1.9</v>
+      </c>
+      <c r="BM134">
+        <v>2.35</v>
+      </c>
+      <c r="BN134">
+        <v>1.49</v>
+      </c>
+      <c r="BO134">
+        <v>3.15</v>
+      </c>
+      <c r="BP134">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7321746</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45501.77083333334</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>74</v>
+      </c>
+      <c r="H135" t="s">
+        <v>78</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>178</v>
+      </c>
+      <c r="P135" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q135">
+        <v>3.75</v>
+      </c>
+      <c r="R135">
+        <v>2.2</v>
+      </c>
+      <c r="S135">
+        <v>2.88</v>
+      </c>
+      <c r="T135">
+        <v>1.36</v>
+      </c>
+      <c r="U135">
+        <v>3</v>
+      </c>
+      <c r="V135">
+        <v>2.75</v>
+      </c>
+      <c r="W135">
+        <v>1.4</v>
+      </c>
+      <c r="X135">
+        <v>7</v>
+      </c>
+      <c r="Y135">
+        <v>1.1</v>
+      </c>
+      <c r="Z135">
+        <v>3.09</v>
+      </c>
+      <c r="AA135">
+        <v>3.2</v>
+      </c>
+      <c r="AB135">
+        <v>2.06</v>
+      </c>
+      <c r="AC135">
+        <v>1.01</v>
+      </c>
+      <c r="AD135">
+        <v>9.5</v>
+      </c>
+      <c r="AE135">
+        <v>1.25</v>
+      </c>
+      <c r="AF135">
+        <v>3.42</v>
+      </c>
+      <c r="AG135">
+        <v>1.91</v>
+      </c>
+      <c r="AH135">
+        <v>1.95</v>
+      </c>
+      <c r="AI135">
+        <v>1.67</v>
+      </c>
+      <c r="AJ135">
+        <v>2.1</v>
+      </c>
+      <c r="AK135">
+        <v>1.71</v>
+      </c>
+      <c r="AL135">
+        <v>1.28</v>
+      </c>
+      <c r="AM135">
+        <v>1.31</v>
+      </c>
+      <c r="AN135">
+        <v>0.17</v>
+      </c>
+      <c r="AO135">
+        <v>2.56</v>
+      </c>
+      <c r="AP135">
+        <v>0.57</v>
+      </c>
+      <c r="AQ135">
+        <v>2.3</v>
+      </c>
+      <c r="AR135">
+        <v>1.49</v>
+      </c>
+      <c r="AS135">
+        <v>1.79</v>
+      </c>
+      <c r="AT135">
+        <v>3.28</v>
+      </c>
+      <c r="AU135">
+        <v>3</v>
+      </c>
+      <c r="AV135">
+        <v>3</v>
+      </c>
+      <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>10</v>
+      </c>
+      <c r="AY135">
+        <v>8</v>
+      </c>
+      <c r="AZ135">
+        <v>13</v>
+      </c>
+      <c r="BA135">
+        <v>2</v>
+      </c>
+      <c r="BB135">
+        <v>5</v>
+      </c>
+      <c r="BC135">
+        <v>7</v>
+      </c>
+      <c r="BD135">
+        <v>2.24</v>
+      </c>
+      <c r="BE135">
+        <v>6.4</v>
+      </c>
+      <c r="BF135">
+        <v>1.99</v>
+      </c>
+      <c r="BG135">
+        <v>1.26</v>
+      </c>
+      <c r="BH135">
+        <v>3.25</v>
+      </c>
+      <c r="BI135">
+        <v>1.49</v>
+      </c>
+      <c r="BJ135">
+        <v>2.33</v>
+      </c>
+      <c r="BK135">
+        <v>1.92</v>
+      </c>
+      <c r="BL135">
+        <v>1.88</v>
+      </c>
+      <c r="BM135">
+        <v>2.38</v>
+      </c>
+      <c r="BN135">
+        <v>1.47</v>
+      </c>
+      <c r="BO135">
+        <v>3.2</v>
+      </c>
+      <c r="BP135">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7321744</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45501.875</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>84</v>
+      </c>
+      <c r="H136" t="s">
+        <v>79</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>179</v>
+      </c>
+      <c r="P136" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q136">
+        <v>3.25</v>
+      </c>
+      <c r="R136">
+        <v>2.1</v>
+      </c>
+      <c r="S136">
+        <v>3.25</v>
+      </c>
+      <c r="T136">
+        <v>1.4</v>
+      </c>
+      <c r="U136">
+        <v>2.75</v>
+      </c>
+      <c r="V136">
+        <v>3</v>
+      </c>
+      <c r="W136">
+        <v>1.36</v>
+      </c>
+      <c r="X136">
+        <v>8</v>
+      </c>
+      <c r="Y136">
+        <v>1.08</v>
+      </c>
+      <c r="Z136">
+        <v>2.54</v>
+      </c>
+      <c r="AA136">
+        <v>3.07</v>
+      </c>
+      <c r="AB136">
+        <v>2.49</v>
+      </c>
+      <c r="AC136">
+        <v>1.05</v>
+      </c>
+      <c r="AD136">
+        <v>10</v>
+      </c>
+      <c r="AE136">
+        <v>1.33</v>
+      </c>
+      <c r="AF136">
+        <v>3.25</v>
+      </c>
+      <c r="AG136">
+        <v>2.04</v>
+      </c>
+      <c r="AH136">
+        <v>1.78</v>
+      </c>
+      <c r="AI136">
+        <v>1.73</v>
+      </c>
+      <c r="AJ136">
+        <v>2</v>
+      </c>
+      <c r="AK136">
+        <v>1.5</v>
+      </c>
+      <c r="AL136">
+        <v>1.28</v>
+      </c>
+      <c r="AM136">
+        <v>1.5</v>
+      </c>
+      <c r="AN136">
+        <v>0.5</v>
+      </c>
+      <c r="AO136">
+        <v>0.71</v>
+      </c>
+      <c r="AP136">
+        <v>0.78</v>
+      </c>
+      <c r="AQ136">
+        <v>0.63</v>
+      </c>
+      <c r="AR136">
+        <v>1.41</v>
+      </c>
+      <c r="AS136">
+        <v>1.22</v>
+      </c>
+      <c r="AT136">
+        <v>2.63</v>
+      </c>
+      <c r="AU136">
+        <v>6</v>
+      </c>
+      <c r="AV136">
+        <v>7</v>
+      </c>
+      <c r="AW136">
+        <v>5</v>
+      </c>
+      <c r="AX136">
+        <v>7</v>
+      </c>
+      <c r="AY136">
+        <v>11</v>
+      </c>
+      <c r="AZ136">
+        <v>14</v>
+      </c>
+      <c r="BA136">
+        <v>2</v>
+      </c>
+      <c r="BB136">
+        <v>7</v>
+      </c>
+      <c r="BC136">
+        <v>9</v>
+      </c>
+      <c r="BD136">
+        <v>2.41</v>
+      </c>
+      <c r="BE136">
+        <v>6.55</v>
+      </c>
+      <c r="BF136">
+        <v>1.86</v>
+      </c>
+      <c r="BG136">
+        <v>1.22</v>
+      </c>
+      <c r="BH136">
+        <v>3.55</v>
+      </c>
+      <c r="BI136">
+        <v>1.42</v>
+      </c>
+      <c r="BJ136">
+        <v>2.5</v>
+      </c>
+      <c r="BK136">
+        <v>1.73</v>
+      </c>
+      <c r="BL136">
+        <v>1.91</v>
+      </c>
+      <c r="BM136">
+        <v>2.2</v>
+      </c>
+      <c r="BN136">
+        <v>1.55</v>
+      </c>
+      <c r="BO136">
+        <v>2.95</v>
+      </c>
+      <c r="BP136">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,9 @@
     <t>['55', '60']</t>
   </si>
   <si>
+    <t>['48', '54', '84']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -791,6 +794,9 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['2']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1617,7 +1623,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1823,7 +1829,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2029,7 +2035,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2107,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ5">
         <v>0.63</v>
@@ -2235,7 +2241,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2441,7 +2447,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2647,7 +2653,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3265,7 +3271,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3471,7 +3477,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3883,7 +3889,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4089,7 +4095,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4167,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ15">
         <v>0.75</v>
@@ -4295,7 +4301,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4501,7 +4507,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4913,7 +4919,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5325,7 +5331,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5531,7 +5537,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5737,7 +5743,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6024,7 +6030,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR24">
         <v>1.54</v>
@@ -6355,7 +6361,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6561,7 +6567,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6973,7 +6979,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7179,7 +7185,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7591,7 +7597,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8081,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -9320,7 +9326,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -9445,7 +9451,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9651,7 +9657,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9857,7 +9863,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10063,7 +10069,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10144,7 +10150,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10475,7 +10481,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10887,7 +10893,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10965,7 +10971,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48">
         <v>2.3</v>
@@ -11093,7 +11099,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12123,7 +12129,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12329,7 +12335,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12535,7 +12541,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12741,7 +12747,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12947,7 +12953,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13565,7 +13571,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13646,7 +13652,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR61">
         <v>1.37</v>
@@ -13771,7 +13777,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14183,7 +14189,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14595,7 +14601,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14801,7 +14807,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15007,7 +15013,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15625,7 +15631,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15831,7 +15837,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16037,7 +16043,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16115,7 +16121,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ73">
         <v>1.3</v>
@@ -16243,7 +16249,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16449,7 +16455,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16861,7 +16867,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17067,7 +17073,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17560,7 +17566,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR80">
         <v>1.94</v>
@@ -17891,7 +17897,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18303,7 +18309,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18509,7 +18515,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18715,7 +18721,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18921,7 +18927,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19127,7 +19133,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19205,7 +19211,7 @@
         <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ88">
         <v>1.44</v>
@@ -19333,7 +19339,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19539,7 +19545,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19745,7 +19751,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19951,7 +19957,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20363,7 +20369,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20569,7 +20575,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20775,7 +20781,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21187,7 +21193,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21265,7 +21271,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ98">
         <v>1.33</v>
@@ -21393,7 +21399,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21599,7 +21605,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21886,7 +21892,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -22011,7 +22017,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22217,7 +22223,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22629,7 +22635,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23041,7 +23047,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23247,7 +23253,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23453,7 +23459,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23659,7 +23665,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24071,7 +24077,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24149,7 +24155,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ112">
         <v>1.25</v>
@@ -24277,7 +24283,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24483,7 +24489,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24564,7 +24570,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ114">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR114">
         <v>1.52</v>
@@ -24689,7 +24695,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24895,7 +24901,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25101,7 +25107,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25594,7 +25600,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ119">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25719,7 +25725,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26131,7 +26137,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26955,7 +26961,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27161,7 +27167,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27367,7 +27373,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27573,7 +27579,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27779,7 +27785,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28191,7 +28197,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28397,7 +28403,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28603,7 +28609,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29015,7 +29021,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29172,6 +29178,212 @@
       </c>
       <c r="BP136">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7321742</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45502.875</v>
+      </c>
+      <c r="F137">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" t="s">
+        <v>77</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137" t="s">
+        <v>180</v>
+      </c>
+      <c r="P137" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q137">
+        <v>3.75</v>
+      </c>
+      <c r="R137">
+        <v>2.2</v>
+      </c>
+      <c r="S137">
+        <v>2.88</v>
+      </c>
+      <c r="T137">
+        <v>1.4</v>
+      </c>
+      <c r="U137">
+        <v>2.75</v>
+      </c>
+      <c r="V137">
+        <v>2.75</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>8</v>
+      </c>
+      <c r="Y137">
+        <v>1.08</v>
+      </c>
+      <c r="Z137">
+        <v>2.9</v>
+      </c>
+      <c r="AA137">
+        <v>3.4</v>
+      </c>
+      <c r="AB137">
+        <v>2.3</v>
+      </c>
+      <c r="AC137">
+        <v>1.01</v>
+      </c>
+      <c r="AD137">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE137">
+        <v>1.26</v>
+      </c>
+      <c r="AF137">
+        <v>3.34</v>
+      </c>
+      <c r="AG137">
+        <v>1.86</v>
+      </c>
+      <c r="AH137">
+        <v>1.86</v>
+      </c>
+      <c r="AI137">
+        <v>1.73</v>
+      </c>
+      <c r="AJ137">
+        <v>2</v>
+      </c>
+      <c r="AK137">
+        <v>1.68</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.36</v>
+      </c>
+      <c r="AN137">
+        <v>1</v>
+      </c>
+      <c r="AO137">
+        <v>1.75</v>
+      </c>
+      <c r="AP137">
+        <v>1.22</v>
+      </c>
+      <c r="AQ137">
+        <v>1.56</v>
+      </c>
+      <c r="AR137">
+        <v>1.88</v>
+      </c>
+      <c r="AS137">
+        <v>1.32</v>
+      </c>
+      <c r="AT137">
+        <v>3.2</v>
+      </c>
+      <c r="AU137">
+        <v>6</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>6</v>
+      </c>
+      <c r="AX137">
+        <v>7</v>
+      </c>
+      <c r="AY137">
+        <v>12</v>
+      </c>
+      <c r="AZ137">
+        <v>11</v>
+      </c>
+      <c r="BA137">
+        <v>5</v>
+      </c>
+      <c r="BB137">
+        <v>1</v>
+      </c>
+      <c r="BC137">
+        <v>6</v>
+      </c>
+      <c r="BD137">
+        <v>2.05</v>
+      </c>
+      <c r="BE137">
+        <v>8</v>
+      </c>
+      <c r="BF137">
+        <v>2</v>
+      </c>
+      <c r="BG137">
+        <v>1.25</v>
+      </c>
+      <c r="BH137">
+        <v>3.3</v>
+      </c>
+      <c r="BI137">
+        <v>1.48</v>
+      </c>
+      <c r="BJ137">
+        <v>2.38</v>
+      </c>
+      <c r="BK137">
+        <v>1.82</v>
+      </c>
+      <c r="BL137">
+        <v>1.82</v>
+      </c>
+      <c r="BM137">
+        <v>2.35</v>
+      </c>
+      <c r="BN137">
+        <v>1.49</v>
+      </c>
+      <c r="BO137">
+        <v>3.15</v>
+      </c>
+      <c r="BP137">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -28926,13 +28926,13 @@
         <v>13</v>
       </c>
       <c r="BA135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB135">
         <v>5</v>
       </c>
       <c r="BC135">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD135">
         <v>2.24</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,21 @@
     <t>['48', '54', '84']</t>
   </si>
   <si>
+    <t>['19', '45']</t>
+  </si>
+  <si>
+    <t>['45+6']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['34', '90+2', '90+6']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -797,6 +812,15 @@
   </si>
   <si>
     <t>['2']</t>
+  </si>
+  <si>
+    <t>['27', '74']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['43', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1623,7 +1647,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1829,7 +1853,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1910,7 +1934,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ4">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2035,7 +2059,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2241,7 +2265,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2319,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2447,7 +2471,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2525,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2653,7 +2677,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2731,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2940,7 +2964,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3143,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ10">
         <v>1.3</v>
@@ -3271,7 +3295,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3477,7 +3501,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3555,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
         <v>1.44</v>
@@ -3889,7 +3913,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3967,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4095,7 +4119,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4301,7 +4325,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4507,7 +4531,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4919,7 +4943,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5331,7 +5355,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5537,7 +5561,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5743,7 +5767,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5821,7 +5845,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ23">
         <v>0.63</v>
@@ -6030,7 +6054,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>1.54</v>
@@ -6361,7 +6385,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6439,7 +6463,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ26">
         <v>1.56</v>
@@ -6567,7 +6591,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6854,7 +6878,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR28">
         <v>1.44</v>
@@ -6979,7 +7003,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7057,7 +7081,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ29">
         <v>1.44</v>
@@ -7185,7 +7209,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7266,7 +7290,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR30">
         <v>1.72</v>
@@ -7469,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7597,7 +7621,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7675,10 +7699,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ32">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7881,10 +7905,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ33">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -8293,7 +8317,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
         <v>1.75</v>
@@ -8502,7 +8526,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR36">
         <v>1.68</v>
@@ -8911,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ38">
         <v>1.3</v>
@@ -9323,10 +9347,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
+        <v>1.44</v>
+      </c>
+      <c r="AQ40">
         <v>1.5</v>
-      </c>
-      <c r="AQ40">
-        <v>1.56</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -9451,7 +9475,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9529,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ41">
         <v>0.75</v>
@@ -9657,7 +9681,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9735,7 +9759,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ42">
         <v>1.56</v>
@@ -9863,7 +9887,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10069,7 +10093,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10147,10 +10171,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ44">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10481,7 +10505,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10893,7 +10917,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11099,7 +11123,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11180,7 +11204,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ49">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR49">
         <v>1.05</v>
@@ -11795,7 +11819,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
         <v>0.75</v>
@@ -12001,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ53">
         <v>1.3</v>
@@ -12129,7 +12153,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12210,7 +12234,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR54">
         <v>1.39</v>
@@ -12335,7 +12359,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12413,10 +12437,10 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR55">
         <v>1.44</v>
@@ -12541,7 +12565,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12747,7 +12771,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12953,7 +12977,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13031,7 +13055,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ58">
         <v>2.22</v>
@@ -13443,7 +13467,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60">
         <v>1.56</v>
@@ -13571,7 +13595,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13652,7 +13676,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ61">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.37</v>
@@ -13777,7 +13801,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13855,7 +13879,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14061,10 +14085,10 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ63">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14189,7 +14213,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14270,7 +14294,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR64">
         <v>1.82</v>
@@ -14601,7 +14625,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14807,7 +14831,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14885,10 +14909,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ67">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR67">
         <v>1.37</v>
@@ -15013,7 +15037,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15091,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ68">
         <v>1.75</v>
@@ -15297,10 +15321,10 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
@@ -15631,7 +15655,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15837,7 +15861,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15918,7 +15942,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ72">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR72">
         <v>1.48</v>
@@ -16043,7 +16067,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16249,7 +16273,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16455,7 +16479,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16742,7 +16766,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ76">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR76">
         <v>1.51</v>
@@ -16867,7 +16891,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16945,7 +16969,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ77">
         <v>1.56</v>
@@ -17073,7 +17097,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17563,10 +17587,10 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ80">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.94</v>
@@ -17769,7 +17793,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ81">
         <v>0.75</v>
@@ -17897,7 +17921,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -17978,7 +18002,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18181,7 +18205,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ83">
         <v>0.63</v>
@@ -18309,7 +18333,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18387,7 +18411,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ84">
         <v>1.75</v>
@@ -18515,7 +18539,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18721,7 +18745,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18802,7 +18826,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ86">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -18927,7 +18951,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19005,7 +19029,7 @@
         <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ87">
         <v>1.33</v>
@@ -19133,7 +19157,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19339,7 +19363,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19545,7 +19569,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19751,7 +19775,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19829,10 +19853,10 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -19957,7 +19981,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20035,7 +20059,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ92">
         <v>0.75</v>
@@ -20244,7 +20268,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ93">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20369,7 +20393,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20447,7 +20471,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ94">
         <v>1.75</v>
@@ -20575,7 +20599,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20653,10 +20677,10 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ95">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -20781,7 +20805,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21065,10 +21089,10 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ97">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21193,7 +21217,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21399,7 +21423,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21477,7 +21501,7 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ99">
         <v>2.22</v>
@@ -21605,7 +21629,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21686,7 +21710,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ100">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -21892,7 +21916,7 @@
         <v>2</v>
       </c>
       <c r="AQ101">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -22017,7 +22041,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22095,7 +22119,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ102">
         <v>1.56</v>
@@ -22223,7 +22247,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22635,7 +22659,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23047,7 +23071,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23125,7 +23149,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ107">
         <v>1.75</v>
@@ -23253,7 +23277,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23331,10 +23355,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR108">
         <v>1.53</v>
@@ -23459,7 +23483,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23665,7 +23689,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23949,10 +23973,10 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ111">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR111">
         <v>1.49</v>
@@ -24077,7 +24101,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24158,7 +24182,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ112">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR112">
         <v>1.94</v>
@@ -24283,7 +24307,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24489,7 +24513,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24567,10 +24591,10 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ114">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR114">
         <v>1.52</v>
@@ -24695,7 +24719,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24773,7 +24797,7 @@
         <v>2.71</v>
       </c>
       <c r="AP115">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ115">
         <v>2.3</v>
@@ -24901,7 +24925,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -24979,7 +25003,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25107,7 +25131,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25188,7 +25212,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR117">
         <v>2.01</v>
@@ -25391,7 +25415,7 @@
         <v>2.43</v>
       </c>
       <c r="AP118">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ118">
         <v>2.22</v>
@@ -25597,10 +25621,10 @@
         <v>1.86</v>
       </c>
       <c r="AP119">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ119">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25725,7 +25749,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26137,7 +26161,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26218,7 +26242,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ122">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR122">
         <v>1.63</v>
@@ -26421,10 +26445,10 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ123">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26630,7 +26654,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ124">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -26833,7 +26857,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -26961,7 +26985,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27039,7 +27063,7 @@
         <v>1.44</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ126">
         <v>1.3</v>
@@ -27167,7 +27191,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27373,7 +27397,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27451,7 +27475,7 @@
         <v>2.75</v>
       </c>
       <c r="AP128">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ128">
         <v>2.3</v>
@@ -27579,7 +27603,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27785,7 +27809,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27863,7 +27887,7 @@
         <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ130">
         <v>1.33</v>
@@ -28197,7 +28221,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28403,7 +28427,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28484,7 +28508,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR133">
         <v>1.8</v>
@@ -28609,7 +28633,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28893,7 +28917,7 @@
         <v>2.56</v>
       </c>
       <c r="AP135">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ135">
         <v>2.3</v>
@@ -29021,7 +29045,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29227,7 +29251,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29308,7 +29332,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ137">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR137">
         <v>1.88</v>
@@ -29383,6 +29407,1448 @@
         <v>3.15</v>
       </c>
       <c r="BP137">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7321753</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45506.875</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>71</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>181</v>
+      </c>
+      <c r="P138" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q138">
+        <v>2.58</v>
+      </c>
+      <c r="R138">
+        <v>2.16</v>
+      </c>
+      <c r="S138">
+        <v>3.94</v>
+      </c>
+      <c r="T138">
+        <v>1.37</v>
+      </c>
+      <c r="U138">
+        <v>2.95</v>
+      </c>
+      <c r="V138">
+        <v>2.7</v>
+      </c>
+      <c r="W138">
+        <v>1.43</v>
+      </c>
+      <c r="X138">
+        <v>6.7</v>
+      </c>
+      <c r="Y138">
+        <v>1.09</v>
+      </c>
+      <c r="Z138">
+        <v>1.99</v>
+      </c>
+      <c r="AA138">
+        <v>3.35</v>
+      </c>
+      <c r="AB138">
+        <v>3.2</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>9.6</v>
+      </c>
+      <c r="AE138">
+        <v>1.25</v>
+      </c>
+      <c r="AF138">
+        <v>3.42</v>
+      </c>
+      <c r="AG138">
+        <v>1.89</v>
+      </c>
+      <c r="AH138">
+        <v>1.95</v>
+      </c>
+      <c r="AI138">
+        <v>1.7</v>
+      </c>
+      <c r="AJ138">
+        <v>2.03</v>
+      </c>
+      <c r="AK138">
+        <v>1.29</v>
+      </c>
+      <c r="AL138">
+        <v>1.28</v>
+      </c>
+      <c r="AM138">
+        <v>1.74</v>
+      </c>
+      <c r="AN138">
+        <v>2.5</v>
+      </c>
+      <c r="AO138">
+        <v>1</v>
+      </c>
+      <c r="AP138">
+        <v>2.33</v>
+      </c>
+      <c r="AQ138">
+        <v>1</v>
+      </c>
+      <c r="AR138">
+        <v>1.33</v>
+      </c>
+      <c r="AS138">
+        <v>1.53</v>
+      </c>
+      <c r="AT138">
+        <v>2.86</v>
+      </c>
+      <c r="AU138">
+        <v>8</v>
+      </c>
+      <c r="AV138">
+        <v>5</v>
+      </c>
+      <c r="AW138">
+        <v>9</v>
+      </c>
+      <c r="AX138">
+        <v>3</v>
+      </c>
+      <c r="AY138">
+        <v>17</v>
+      </c>
+      <c r="AZ138">
+        <v>8</v>
+      </c>
+      <c r="BA138">
+        <v>6</v>
+      </c>
+      <c r="BB138">
+        <v>3</v>
+      </c>
+      <c r="BC138">
+        <v>9</v>
+      </c>
+      <c r="BD138">
+        <v>1.55</v>
+      </c>
+      <c r="BE138">
+        <v>8.5</v>
+      </c>
+      <c r="BF138">
+        <v>2.91</v>
+      </c>
+      <c r="BG138">
+        <v>1.21</v>
+      </c>
+      <c r="BH138">
+        <v>3.7</v>
+      </c>
+      <c r="BI138">
+        <v>1.4</v>
+      </c>
+      <c r="BJ138">
+        <v>2.6</v>
+      </c>
+      <c r="BK138">
+        <v>1.7</v>
+      </c>
+      <c r="BL138">
+        <v>1.96</v>
+      </c>
+      <c r="BM138">
+        <v>2.15</v>
+      </c>
+      <c r="BN138">
+        <v>1.58</v>
+      </c>
+      <c r="BO138">
+        <v>2.85</v>
+      </c>
+      <c r="BP138">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7321635</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45507.5625</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>85</v>
+      </c>
+      <c r="H139" t="s">
+        <v>81</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>182</v>
+      </c>
+      <c r="P139" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q139">
+        <v>2.3</v>
+      </c>
+      <c r="R139">
+        <v>2.25</v>
+      </c>
+      <c r="S139">
+        <v>4.45</v>
+      </c>
+      <c r="T139">
+        <v>1.33</v>
+      </c>
+      <c r="U139">
+        <v>3.15</v>
+      </c>
+      <c r="V139">
+        <v>2.54</v>
+      </c>
+      <c r="W139">
+        <v>1.48</v>
+      </c>
+      <c r="X139">
+        <v>6.1</v>
+      </c>
+      <c r="Y139">
+        <v>1.1</v>
+      </c>
+      <c r="Z139">
+        <v>1.75</v>
+      </c>
+      <c r="AA139">
+        <v>3.7</v>
+      </c>
+      <c r="AB139">
+        <v>4</v>
+      </c>
+      <c r="AC139">
+        <v>1.04</v>
+      </c>
+      <c r="AD139">
+        <v>11</v>
+      </c>
+      <c r="AE139">
+        <v>1.21</v>
+      </c>
+      <c r="AF139">
+        <v>3.74</v>
+      </c>
+      <c r="AG139">
+        <v>1.7</v>
+      </c>
+      <c r="AH139">
+        <v>1.95</v>
+      </c>
+      <c r="AI139">
+        <v>1.67</v>
+      </c>
+      <c r="AJ139">
+        <v>2.08</v>
+      </c>
+      <c r="AK139">
+        <v>1.22</v>
+      </c>
+      <c r="AL139">
+        <v>1.25</v>
+      </c>
+      <c r="AM139">
+        <v>1.97</v>
+      </c>
+      <c r="AN139">
+        <v>1.5</v>
+      </c>
+      <c r="AO139">
+        <v>1.25</v>
+      </c>
+      <c r="AP139">
+        <v>1.44</v>
+      </c>
+      <c r="AQ139">
+        <v>1.22</v>
+      </c>
+      <c r="AR139">
+        <v>1.73</v>
+      </c>
+      <c r="AS139">
+        <v>1.31</v>
+      </c>
+      <c r="AT139">
+        <v>3.04</v>
+      </c>
+      <c r="AU139">
+        <v>7</v>
+      </c>
+      <c r="AV139">
+        <v>7</v>
+      </c>
+      <c r="AW139">
+        <v>9</v>
+      </c>
+      <c r="AX139">
+        <v>6</v>
+      </c>
+      <c r="AY139">
+        <v>16</v>
+      </c>
+      <c r="AZ139">
+        <v>13</v>
+      </c>
+      <c r="BA139">
+        <v>5</v>
+      </c>
+      <c r="BB139">
+        <v>2</v>
+      </c>
+      <c r="BC139">
+        <v>7</v>
+      </c>
+      <c r="BD139">
+        <v>1.55</v>
+      </c>
+      <c r="BE139">
+        <v>8.5</v>
+      </c>
+      <c r="BF139">
+        <v>2.91</v>
+      </c>
+      <c r="BG139">
+        <v>1.18</v>
+      </c>
+      <c r="BH139">
+        <v>4.33</v>
+      </c>
+      <c r="BI139">
+        <v>1.27</v>
+      </c>
+      <c r="BJ139">
+        <v>3.2</v>
+      </c>
+      <c r="BK139">
+        <v>1.49</v>
+      </c>
+      <c r="BL139">
+        <v>2.33</v>
+      </c>
+      <c r="BM139">
+        <v>1.88</v>
+      </c>
+      <c r="BN139">
+        <v>1.92</v>
+      </c>
+      <c r="BO139">
+        <v>2.32</v>
+      </c>
+      <c r="BP139">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7321750</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45507.77083333334</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>75</v>
+      </c>
+      <c r="H140" t="s">
+        <v>77</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>183</v>
+      </c>
+      <c r="P140" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q140">
+        <v>2.88</v>
+      </c>
+      <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>3.75</v>
+      </c>
+      <c r="T140">
+        <v>1.4</v>
+      </c>
+      <c r="U140">
+        <v>2.75</v>
+      </c>
+      <c r="V140">
+        <v>3</v>
+      </c>
+      <c r="W140">
+        <v>1.36</v>
+      </c>
+      <c r="X140">
+        <v>8</v>
+      </c>
+      <c r="Y140">
+        <v>1.08</v>
+      </c>
+      <c r="Z140">
+        <v>2.15</v>
+      </c>
+      <c r="AA140">
+        <v>3.25</v>
+      </c>
+      <c r="AB140">
+        <v>3.1</v>
+      </c>
+      <c r="AC140">
+        <v>1.05</v>
+      </c>
+      <c r="AD140">
+        <v>7.8</v>
+      </c>
+      <c r="AE140">
+        <v>1.27</v>
+      </c>
+      <c r="AF140">
+        <v>3.4</v>
+      </c>
+      <c r="AG140">
+        <v>1.85</v>
+      </c>
+      <c r="AH140">
+        <v>1.8</v>
+      </c>
+      <c r="AI140">
+        <v>1.73</v>
+      </c>
+      <c r="AJ140">
+        <v>2</v>
+      </c>
+      <c r="AK140">
+        <v>1.32</v>
+      </c>
+      <c r="AL140">
+        <v>1.3</v>
+      </c>
+      <c r="AM140">
+        <v>1.67</v>
+      </c>
+      <c r="AN140">
+        <v>1.63</v>
+      </c>
+      <c r="AO140">
+        <v>1.56</v>
+      </c>
+      <c r="AP140">
+        <v>1.56</v>
+      </c>
+      <c r="AQ140">
+        <v>1.5</v>
+      </c>
+      <c r="AR140">
+        <v>1.53</v>
+      </c>
+      <c r="AS140">
+        <v>1.31</v>
+      </c>
+      <c r="AT140">
+        <v>2.84</v>
+      </c>
+      <c r="AU140">
+        <v>2</v>
+      </c>
+      <c r="AV140">
+        <v>5</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>8</v>
+      </c>
+      <c r="AZ140">
+        <v>12</v>
+      </c>
+      <c r="BA140">
+        <v>1</v>
+      </c>
+      <c r="BB140">
+        <v>9</v>
+      </c>
+      <c r="BC140">
+        <v>10</v>
+      </c>
+      <c r="BD140">
+        <v>1.91</v>
+      </c>
+      <c r="BE140">
+        <v>8</v>
+      </c>
+      <c r="BF140">
+        <v>2.1</v>
+      </c>
+      <c r="BG140">
+        <v>1.24</v>
+      </c>
+      <c r="BH140">
+        <v>3.45</v>
+      </c>
+      <c r="BI140">
+        <v>1.45</v>
+      </c>
+      <c r="BJ140">
+        <v>2.45</v>
+      </c>
+      <c r="BK140">
+        <v>1.8</v>
+      </c>
+      <c r="BL140">
+        <v>2</v>
+      </c>
+      <c r="BM140">
+        <v>2.28</v>
+      </c>
+      <c r="BN140">
+        <v>1.52</v>
+      </c>
+      <c r="BO140">
+        <v>3.05</v>
+      </c>
+      <c r="BP140">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7321751</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45507.875</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" t="s">
+        <v>84</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>184</v>
+      </c>
+      <c r="P141" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q141">
+        <v>2.4</v>
+      </c>
+      <c r="R141">
+        <v>2.3</v>
+      </c>
+      <c r="S141">
+        <v>4.33</v>
+      </c>
+      <c r="T141">
+        <v>1.33</v>
+      </c>
+      <c r="U141">
+        <v>3.25</v>
+      </c>
+      <c r="V141">
+        <v>2.5</v>
+      </c>
+      <c r="W141">
+        <v>1.5</v>
+      </c>
+      <c r="X141">
+        <v>6</v>
+      </c>
+      <c r="Y141">
+        <v>1.13</v>
+      </c>
+      <c r="Z141">
+        <v>1.84</v>
+      </c>
+      <c r="AA141">
+        <v>3.65</v>
+      </c>
+      <c r="AB141">
+        <v>3.55</v>
+      </c>
+      <c r="AC141">
+        <v>1.01</v>
+      </c>
+      <c r="AD141">
+        <v>10.25</v>
+      </c>
+      <c r="AE141">
+        <v>1.18</v>
+      </c>
+      <c r="AF141">
+        <v>4.05</v>
+      </c>
+      <c r="AG141">
+        <v>1.75</v>
+      </c>
+      <c r="AH141">
+        <v>2.05</v>
+      </c>
+      <c r="AI141">
+        <v>1.62</v>
+      </c>
+      <c r="AJ141">
+        <v>2.2</v>
+      </c>
+      <c r="AK141">
+        <v>1.24</v>
+      </c>
+      <c r="AL141">
+        <v>1.24</v>
+      </c>
+      <c r="AM141">
+        <v>1.93</v>
+      </c>
+      <c r="AN141">
+        <v>2</v>
+      </c>
+      <c r="AO141">
+        <v>1</v>
+      </c>
+      <c r="AP141">
+        <v>1.89</v>
+      </c>
+      <c r="AQ141">
+        <v>1</v>
+      </c>
+      <c r="AR141">
+        <v>1.69</v>
+      </c>
+      <c r="AS141">
+        <v>1.32</v>
+      </c>
+      <c r="AT141">
+        <v>3.01</v>
+      </c>
+      <c r="AU141">
+        <v>6</v>
+      </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
+      <c r="AW141">
+        <v>6</v>
+      </c>
+      <c r="AX141">
+        <v>7</v>
+      </c>
+      <c r="AY141">
+        <v>12</v>
+      </c>
+      <c r="AZ141">
+        <v>10</v>
+      </c>
+      <c r="BA141">
+        <v>3</v>
+      </c>
+      <c r="BB141">
+        <v>4</v>
+      </c>
+      <c r="BC141">
+        <v>7</v>
+      </c>
+      <c r="BD141">
+        <v>1.55</v>
+      </c>
+      <c r="BE141">
+        <v>8.5</v>
+      </c>
+      <c r="BF141">
+        <v>2.91</v>
+      </c>
+      <c r="BG141">
+        <v>1.25</v>
+      </c>
+      <c r="BH141">
+        <v>3.3</v>
+      </c>
+      <c r="BI141">
+        <v>1.48</v>
+      </c>
+      <c r="BJ141">
+        <v>2.38</v>
+      </c>
+      <c r="BK141">
+        <v>1.88</v>
+      </c>
+      <c r="BL141">
+        <v>1.92</v>
+      </c>
+      <c r="BM141">
+        <v>2.35</v>
+      </c>
+      <c r="BN141">
+        <v>1.49</v>
+      </c>
+      <c r="BO141">
+        <v>3.15</v>
+      </c>
+      <c r="BP141">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7321754</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45508.5625</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" t="s">
+        <v>70</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>1</v>
+      </c>
+      <c r="O142" t="s">
+        <v>86</v>
+      </c>
+      <c r="P142" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q142">
+        <v>3</v>
+      </c>
+      <c r="R142">
+        <v>2.2</v>
+      </c>
+      <c r="S142">
+        <v>3.5</v>
+      </c>
+      <c r="T142">
+        <v>1.36</v>
+      </c>
+      <c r="U142">
+        <v>3</v>
+      </c>
+      <c r="V142">
+        <v>2.75</v>
+      </c>
+      <c r="W142">
+        <v>1.4</v>
+      </c>
+      <c r="X142">
+        <v>8</v>
+      </c>
+      <c r="Y142">
+        <v>1.08</v>
+      </c>
+      <c r="Z142">
+        <v>2.29</v>
+      </c>
+      <c r="AA142">
+        <v>3.37</v>
+      </c>
+      <c r="AB142">
+        <v>3.01</v>
+      </c>
+      <c r="AC142">
+        <v>1.04</v>
+      </c>
+      <c r="AD142">
+        <v>12</v>
+      </c>
+      <c r="AE142">
+        <v>1.28</v>
+      </c>
+      <c r="AF142">
+        <v>3.6</v>
+      </c>
+      <c r="AG142">
+        <v>1.86</v>
+      </c>
+      <c r="AH142">
+        <v>1.93</v>
+      </c>
+      <c r="AI142">
+        <v>1.67</v>
+      </c>
+      <c r="AJ142">
+        <v>2.1</v>
+      </c>
+      <c r="AK142">
+        <v>1.4</v>
+      </c>
+      <c r="AL142">
+        <v>1.25</v>
+      </c>
+      <c r="AM142">
+        <v>1.6</v>
+      </c>
+      <c r="AN142">
+        <v>0.57</v>
+      </c>
+      <c r="AO142">
+        <v>0.63</v>
+      </c>
+      <c r="AP142">
+        <v>0.5</v>
+      </c>
+      <c r="AQ142">
+        <v>0.89</v>
+      </c>
+      <c r="AR142">
+        <v>1.4</v>
+      </c>
+      <c r="AS142">
+        <v>1.28</v>
+      </c>
+      <c r="AT142">
+        <v>2.68</v>
+      </c>
+      <c r="AU142">
+        <v>2</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>6</v>
+      </c>
+      <c r="AY142">
+        <v>8</v>
+      </c>
+      <c r="AZ142">
+        <v>11</v>
+      </c>
+      <c r="BA142">
+        <v>4</v>
+      </c>
+      <c r="BB142">
+        <v>4</v>
+      </c>
+      <c r="BC142">
+        <v>8</v>
+      </c>
+      <c r="BD142">
+        <v>1.75</v>
+      </c>
+      <c r="BE142">
+        <v>8</v>
+      </c>
+      <c r="BF142">
+        <v>2.44</v>
+      </c>
+      <c r="BG142">
+        <v>1.21</v>
+      </c>
+      <c r="BH142">
+        <v>3.7</v>
+      </c>
+      <c r="BI142">
+        <v>1.4</v>
+      </c>
+      <c r="BJ142">
+        <v>2.6</v>
+      </c>
+      <c r="BK142">
+        <v>1.7</v>
+      </c>
+      <c r="BL142">
+        <v>1.96</v>
+      </c>
+      <c r="BM142">
+        <v>2.15</v>
+      </c>
+      <c r="BN142">
+        <v>1.58</v>
+      </c>
+      <c r="BO142">
+        <v>2.85</v>
+      </c>
+      <c r="BP142">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7321752</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45508.66666666666</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>82</v>
+      </c>
+      <c r="H143" t="s">
+        <v>73</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143" t="s">
+        <v>185</v>
+      </c>
+      <c r="P143" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q143">
+        <v>2.4</v>
+      </c>
+      <c r="R143">
+        <v>2.38</v>
+      </c>
+      <c r="S143">
+        <v>4</v>
+      </c>
+      <c r="T143">
+        <v>1.3</v>
+      </c>
+      <c r="U143">
+        <v>3.4</v>
+      </c>
+      <c r="V143">
+        <v>2.5</v>
+      </c>
+      <c r="W143">
+        <v>1.5</v>
+      </c>
+      <c r="X143">
+        <v>6</v>
+      </c>
+      <c r="Y143">
+        <v>1.13</v>
+      </c>
+      <c r="Z143">
+        <v>1.85</v>
+      </c>
+      <c r="AA143">
+        <v>3.77</v>
+      </c>
+      <c r="AB143">
+        <v>3.78</v>
+      </c>
+      <c r="AC143">
+        <v>1.01</v>
+      </c>
+      <c r="AD143">
+        <v>10.5</v>
+      </c>
+      <c r="AE143">
+        <v>1.18</v>
+      </c>
+      <c r="AF143">
+        <v>4.15</v>
+      </c>
+      <c r="AG143">
+        <v>1.62</v>
+      </c>
+      <c r="AH143">
+        <v>2.2</v>
+      </c>
+      <c r="AI143">
+        <v>1.57</v>
+      </c>
+      <c r="AJ143">
+        <v>2.25</v>
+      </c>
+      <c r="AK143">
+        <v>1.24</v>
+      </c>
+      <c r="AL143">
+        <v>1.24</v>
+      </c>
+      <c r="AM143">
+        <v>1.92</v>
+      </c>
+      <c r="AN143">
+        <v>1.11</v>
+      </c>
+      <c r="AO143">
+        <v>0.88</v>
+      </c>
+      <c r="AP143">
+        <v>1.3</v>
+      </c>
+      <c r="AQ143">
+        <v>0.78</v>
+      </c>
+      <c r="AR143">
+        <v>1.62</v>
+      </c>
+      <c r="AS143">
+        <v>1.01</v>
+      </c>
+      <c r="AT143">
+        <v>2.63</v>
+      </c>
+      <c r="AU143">
+        <v>9</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>11</v>
+      </c>
+      <c r="AX143">
+        <v>3</v>
+      </c>
+      <c r="AY143">
+        <v>20</v>
+      </c>
+      <c r="AZ143">
+        <v>8</v>
+      </c>
+      <c r="BA143">
+        <v>6</v>
+      </c>
+      <c r="BB143">
+        <v>5</v>
+      </c>
+      <c r="BC143">
+        <v>11</v>
+      </c>
+      <c r="BD143">
+        <v>1.64</v>
+      </c>
+      <c r="BE143">
+        <v>8.5</v>
+      </c>
+      <c r="BF143">
+        <v>2.76</v>
+      </c>
+      <c r="BG143">
+        <v>1.24</v>
+      </c>
+      <c r="BH143">
+        <v>3.45</v>
+      </c>
+      <c r="BI143">
+        <v>1.45</v>
+      </c>
+      <c r="BJ143">
+        <v>2.45</v>
+      </c>
+      <c r="BK143">
+        <v>1.82</v>
+      </c>
+      <c r="BL143">
+        <v>1.98</v>
+      </c>
+      <c r="BM143">
+        <v>2.28</v>
+      </c>
+      <c r="BN143">
+        <v>1.52</v>
+      </c>
+      <c r="BO143">
+        <v>3.05</v>
+      </c>
+      <c r="BP143">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7321749</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45508.77083333334</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s">
+        <v>72</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>99</v>
+      </c>
+      <c r="P144" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q144">
+        <v>1.95</v>
+      </c>
+      <c r="R144">
+        <v>2.5</v>
+      </c>
+      <c r="S144">
+        <v>6</v>
+      </c>
+      <c r="T144">
+        <v>1.29</v>
+      </c>
+      <c r="U144">
+        <v>3.5</v>
+      </c>
+      <c r="V144">
+        <v>2.25</v>
+      </c>
+      <c r="W144">
+        <v>1.57</v>
+      </c>
+      <c r="X144">
+        <v>5.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.14</v>
+      </c>
+      <c r="Z144">
+        <v>1.51</v>
+      </c>
+      <c r="AA144">
+        <v>4.37</v>
+      </c>
+      <c r="AB144">
+        <v>5.52</v>
+      </c>
+      <c r="AC144">
+        <v>1.01</v>
+      </c>
+      <c r="AD144">
+        <v>12</v>
+      </c>
+      <c r="AE144">
+        <v>1.14</v>
+      </c>
+      <c r="AF144">
+        <v>4.6</v>
+      </c>
+      <c r="AG144">
+        <v>1.57</v>
+      </c>
+      <c r="AH144">
+        <v>2.25</v>
+      </c>
+      <c r="AI144">
+        <v>1.73</v>
+      </c>
+      <c r="AJ144">
+        <v>2</v>
+      </c>
+      <c r="AK144">
+        <v>1.1</v>
+      </c>
+      <c r="AL144">
+        <v>1.17</v>
+      </c>
+      <c r="AM144">
+        <v>2.66</v>
+      </c>
+      <c r="AN144">
+        <v>1.43</v>
+      </c>
+      <c r="AO144">
+        <v>0.33</v>
+      </c>
+      <c r="AP144">
+        <v>1.63</v>
+      </c>
+      <c r="AQ144">
+        <v>0.3</v>
+      </c>
+      <c r="AR144">
+        <v>1.7</v>
+      </c>
+      <c r="AS144">
+        <v>1.15</v>
+      </c>
+      <c r="AT144">
+        <v>2.85</v>
+      </c>
+      <c r="AU144">
+        <v>14</v>
+      </c>
+      <c r="AV144">
+        <v>2</v>
+      </c>
+      <c r="AW144">
+        <v>17</v>
+      </c>
+      <c r="AX144">
+        <v>5</v>
+      </c>
+      <c r="AY144">
+        <v>31</v>
+      </c>
+      <c r="AZ144">
+        <v>7</v>
+      </c>
+      <c r="BA144">
+        <v>14</v>
+      </c>
+      <c r="BB144">
+        <v>1</v>
+      </c>
+      <c r="BC144">
+        <v>15</v>
+      </c>
+      <c r="BD144">
+        <v>1.31</v>
+      </c>
+      <c r="BE144">
+        <v>9.5</v>
+      </c>
+      <c r="BF144">
+        <v>4.13</v>
+      </c>
+      <c r="BG144">
+        <v>1.25</v>
+      </c>
+      <c r="BH144">
+        <v>3.3</v>
+      </c>
+      <c r="BI144">
+        <v>1.48</v>
+      </c>
+      <c r="BJ144">
+        <v>2.38</v>
+      </c>
+      <c r="BK144">
+        <v>1.95</v>
+      </c>
+      <c r="BL144">
+        <v>1.85</v>
+      </c>
+      <c r="BM144">
+        <v>2.35</v>
+      </c>
+      <c r="BN144">
+        <v>1.49</v>
+      </c>
+      <c r="BO144">
+        <v>3.15</v>
+      </c>
+      <c r="BP144">
         <v>1.28</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,12 @@
     <t>['34', '90+2', '90+6']</t>
   </si>
   <si>
+    <t>['51', '64', '66', '90+5']</t>
+  </si>
+  <si>
+    <t>['45+1', '78']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -821,6 +827,9 @@
   </si>
   <si>
     <t>['43', '90+3']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1647,7 +1656,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1853,7 +1862,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1934,7 +1943,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ4">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2059,7 +2068,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2137,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
         <v>0.63</v>
@@ -2265,7 +2274,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2471,7 +2480,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2677,7 +2686,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2961,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ9">
         <v>0.78</v>
@@ -3295,7 +3304,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3373,10 +3382,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3501,7 +3510,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3913,7 +3922,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4119,7 +4128,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4197,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR15">
         <v>1.77</v>
@@ -4325,7 +4334,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4403,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16">
         <v>2.22</v>
@@ -4531,7 +4540,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4943,7 +4952,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5355,7 +5364,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5561,7 +5570,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5767,7 +5776,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6385,7 +6394,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6591,7 +6600,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7003,7 +7012,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7209,7 +7218,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7496,7 +7505,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR31">
         <v>1.69</v>
@@ -7621,7 +7630,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7908,7 +7917,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ33">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -8111,7 +8120,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8523,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ36">
         <v>0.3</v>
@@ -8729,10 +8738,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9475,7 +9484,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9556,7 +9565,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9681,7 +9690,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9887,7 +9896,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10093,7 +10102,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10377,7 +10386,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ45">
         <v>2.22</v>
@@ -10505,7 +10514,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10792,7 +10801,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10917,7 +10926,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10995,7 +11004,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>2.3</v>
@@ -11123,7 +11132,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11822,7 +11831,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -12153,7 +12162,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12234,7 +12243,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ54">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR54">
         <v>1.39</v>
@@ -12359,7 +12368,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12565,7 +12574,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12771,7 +12780,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12977,7 +12986,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13595,7 +13604,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13801,7 +13810,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13882,7 +13891,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14213,7 +14222,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14497,7 +14506,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ65">
         <v>0.63</v>
@@ -14625,7 +14634,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14831,7 +14840,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15037,7 +15046,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15324,7 +15333,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ69">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
@@ -15527,7 +15536,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ70">
         <v>1.33</v>
@@ -15655,7 +15664,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15733,7 +15742,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ71">
         <v>2.3</v>
@@ -15861,7 +15870,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16067,7 +16076,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16145,7 +16154,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73">
         <v>1.3</v>
@@ -16273,7 +16282,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16479,7 +16488,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16891,7 +16900,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17097,7 +17106,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17175,7 +17184,7 @@
         <v>2.6</v>
       </c>
       <c r="AP78">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78">
         <v>2.3</v>
@@ -17384,7 +17393,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR79">
         <v>2.15</v>
@@ -17796,7 +17805,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ81">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR81">
         <v>1.6</v>
@@ -17921,7 +17930,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -17999,7 +18008,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ82">
         <v>0.3</v>
@@ -18333,7 +18342,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18539,7 +18548,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18745,7 +18754,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18951,7 +18960,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19157,7 +19166,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19235,7 +19244,7 @@
         <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ88">
         <v>1.44</v>
@@ -19363,7 +19372,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19569,7 +19578,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19647,7 +19656,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19775,7 +19784,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19856,7 +19865,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -19981,7 +19990,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20062,7 +20071,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ92">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR92">
         <v>1.79</v>
@@ -20393,7 +20402,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20599,7 +20608,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20805,7 +20814,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21217,7 +21226,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21295,7 +21304,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ98">
         <v>1.33</v>
@@ -21423,7 +21432,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21629,7 +21638,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21710,7 +21719,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ100">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -22041,7 +22050,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22247,7 +22256,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22325,7 +22334,7 @@
         <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ103">
         <v>1.3</v>
@@ -22531,7 +22540,7 @@
         <v>0.75</v>
       </c>
       <c r="AP104">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22659,7 +22668,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22943,7 +22952,7 @@
         <v>1.43</v>
       </c>
       <c r="AP106">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ106">
         <v>1.44</v>
@@ -23071,7 +23080,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23277,7 +23286,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23483,7 +23492,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23564,7 +23573,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ109">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -23689,7 +23698,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24101,7 +24110,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24179,10 +24188,10 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ112">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR112">
         <v>1.94</v>
@@ -24307,7 +24316,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24513,7 +24522,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24719,7 +24728,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24925,7 +24934,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25006,7 +25015,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR116">
         <v>1.63</v>
@@ -25131,7 +25140,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25749,7 +25758,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -25830,7 +25839,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR120">
         <v>1.57</v>
@@ -26161,7 +26170,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26239,7 +26248,7 @@
         <v>0.86</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ122">
         <v>0.78</v>
@@ -26860,7 +26869,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR125">
         <v>1.58</v>
@@ -26985,7 +26994,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27191,7 +27200,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27269,7 +27278,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ127">
         <v>1.44</v>
@@ -27397,7 +27406,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27603,7 +27612,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27809,7 +27818,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28221,7 +28230,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28302,7 +28311,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ132">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28427,7 +28436,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28508,7 +28517,7 @@
         <v>2</v>
       </c>
       <c r="AQ133">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR133">
         <v>1.8</v>
@@ -28633,7 +28642,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29045,7 +29054,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29251,7 +29260,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29329,7 +29338,7 @@
         <v>1.75</v>
       </c>
       <c r="AP137">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ137">
         <v>1.5</v>
@@ -29457,7 +29466,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29663,7 +29672,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29744,7 +29753,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ139">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -29869,7 +29878,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30156,7 +30165,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR141">
         <v>1.69</v>
@@ -30487,7 +30496,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30849,6 +30858,624 @@
         <v>3.15</v>
       </c>
       <c r="BP144">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7321763</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45513.66666666666</v>
+      </c>
+      <c r="F145">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" t="s">
+        <v>81</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145" t="s">
+        <v>186</v>
+      </c>
+      <c r="P145" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q145">
+        <v>2.88</v>
+      </c>
+      <c r="R145">
+        <v>2.1</v>
+      </c>
+      <c r="S145">
+        <v>3.75</v>
+      </c>
+      <c r="T145">
+        <v>1.4</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>3</v>
+      </c>
+      <c r="W145">
+        <v>1.36</v>
+      </c>
+      <c r="X145">
+        <v>8</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>2.15</v>
+      </c>
+      <c r="AA145">
+        <v>3.31</v>
+      </c>
+      <c r="AB145">
+        <v>3.33</v>
+      </c>
+      <c r="AC145">
+        <v>1.04</v>
+      </c>
+      <c r="AD145">
+        <v>7.8</v>
+      </c>
+      <c r="AE145">
+        <v>1.27</v>
+      </c>
+      <c r="AF145">
+        <v>3.4</v>
+      </c>
+      <c r="AG145">
+        <v>1.98</v>
+      </c>
+      <c r="AH145">
+        <v>1.81</v>
+      </c>
+      <c r="AI145">
+        <v>1.8</v>
+      </c>
+      <c r="AJ145">
+        <v>1.91</v>
+      </c>
+      <c r="AK145">
+        <v>1.3</v>
+      </c>
+      <c r="AL145">
+        <v>1.3</v>
+      </c>
+      <c r="AM145">
+        <v>1.64</v>
+      </c>
+      <c r="AN145">
+        <v>1.38</v>
+      </c>
+      <c r="AO145">
+        <v>1.22</v>
+      </c>
+      <c r="AP145">
+        <v>1.56</v>
+      </c>
+      <c r="AQ145">
+        <v>1.1</v>
+      </c>
+      <c r="AR145">
+        <v>1.31</v>
+      </c>
+      <c r="AS145">
+        <v>1.36</v>
+      </c>
+      <c r="AT145">
+        <v>2.67</v>
+      </c>
+      <c r="AU145">
+        <v>6</v>
+      </c>
+      <c r="AV145">
+        <v>3</v>
+      </c>
+      <c r="AW145">
+        <v>6</v>
+      </c>
+      <c r="AX145">
+        <v>5</v>
+      </c>
+      <c r="AY145">
+        <v>12</v>
+      </c>
+      <c r="AZ145">
+        <v>8</v>
+      </c>
+      <c r="BA145">
+        <v>5</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>5</v>
+      </c>
+      <c r="BD145">
+        <v>1.82</v>
+      </c>
+      <c r="BE145">
+        <v>8</v>
+      </c>
+      <c r="BF145">
+        <v>2.33</v>
+      </c>
+      <c r="BG145">
+        <v>1.25</v>
+      </c>
+      <c r="BH145">
+        <v>3.3</v>
+      </c>
+      <c r="BI145">
+        <v>1.48</v>
+      </c>
+      <c r="BJ145">
+        <v>2.38</v>
+      </c>
+      <c r="BK145">
+        <v>1.85</v>
+      </c>
+      <c r="BL145">
+        <v>1.95</v>
+      </c>
+      <c r="BM145">
+        <v>2.35</v>
+      </c>
+      <c r="BN145">
+        <v>1.49</v>
+      </c>
+      <c r="BO145">
+        <v>3.15</v>
+      </c>
+      <c r="BP145">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7321764</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45513.79166666666</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>79</v>
+      </c>
+      <c r="H146" t="s">
+        <v>82</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146" t="s">
+        <v>86</v>
+      </c>
+      <c r="P146" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q146">
+        <v>2.4</v>
+      </c>
+      <c r="R146">
+        <v>2.3</v>
+      </c>
+      <c r="S146">
+        <v>4.5</v>
+      </c>
+      <c r="T146">
+        <v>1.33</v>
+      </c>
+      <c r="U146">
+        <v>3.25</v>
+      </c>
+      <c r="V146">
+        <v>2.63</v>
+      </c>
+      <c r="W146">
+        <v>1.44</v>
+      </c>
+      <c r="X146">
+        <v>6.5</v>
+      </c>
+      <c r="Y146">
+        <v>1.11</v>
+      </c>
+      <c r="Z146">
+        <v>1.76</v>
+      </c>
+      <c r="AA146">
+        <v>3.82</v>
+      </c>
+      <c r="AB146">
+        <v>4.15</v>
+      </c>
+      <c r="AC146">
+        <v>1.02</v>
+      </c>
+      <c r="AD146">
+        <v>10.25</v>
+      </c>
+      <c r="AE146">
+        <v>1.22</v>
+      </c>
+      <c r="AF146">
+        <v>3.65</v>
+      </c>
+      <c r="AG146">
+        <v>1.7</v>
+      </c>
+      <c r="AH146">
+        <v>1.95</v>
+      </c>
+      <c r="AI146">
+        <v>1.67</v>
+      </c>
+      <c r="AJ146">
+        <v>2.1</v>
+      </c>
+      <c r="AK146">
+        <v>1.21</v>
+      </c>
+      <c r="AL146">
+        <v>1.25</v>
+      </c>
+      <c r="AM146">
+        <v>1.98</v>
+      </c>
+      <c r="AN146">
+        <v>1.33</v>
+      </c>
+      <c r="AO146">
+        <v>0.75</v>
+      </c>
+      <c r="AP146">
+        <v>1.3</v>
+      </c>
+      <c r="AQ146">
+        <v>0.78</v>
+      </c>
+      <c r="AR146">
+        <v>1.68</v>
+      </c>
+      <c r="AS146">
+        <v>1.44</v>
+      </c>
+      <c r="AT146">
+        <v>3.12</v>
+      </c>
+      <c r="AU146">
+        <v>8</v>
+      </c>
+      <c r="AV146">
+        <v>6</v>
+      </c>
+      <c r="AW146">
+        <v>12</v>
+      </c>
+      <c r="AX146">
+        <v>5</v>
+      </c>
+      <c r="AY146">
+        <v>20</v>
+      </c>
+      <c r="AZ146">
+        <v>11</v>
+      </c>
+      <c r="BA146">
+        <v>6</v>
+      </c>
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
+        <v>8</v>
+      </c>
+      <c r="BD146">
+        <v>1.31</v>
+      </c>
+      <c r="BE146">
+        <v>9.5</v>
+      </c>
+      <c r="BF146">
+        <v>4.13</v>
+      </c>
+      <c r="BG146">
+        <v>1.21</v>
+      </c>
+      <c r="BH146">
+        <v>3.7</v>
+      </c>
+      <c r="BI146">
+        <v>1.4</v>
+      </c>
+      <c r="BJ146">
+        <v>2.6</v>
+      </c>
+      <c r="BK146">
+        <v>1.7</v>
+      </c>
+      <c r="BL146">
+        <v>1.96</v>
+      </c>
+      <c r="BM146">
+        <v>2.15</v>
+      </c>
+      <c r="BN146">
+        <v>1.58</v>
+      </c>
+      <c r="BO146">
+        <v>2.85</v>
+      </c>
+      <c r="BP146">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7321758</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45513.89583333334</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>73</v>
+      </c>
+      <c r="H147" t="s">
+        <v>84</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>187</v>
+      </c>
+      <c r="P147" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q147">
+        <v>3</v>
+      </c>
+      <c r="R147">
+        <v>2.2</v>
+      </c>
+      <c r="S147">
+        <v>3.5</v>
+      </c>
+      <c r="T147">
+        <v>1.4</v>
+      </c>
+      <c r="U147">
+        <v>2.75</v>
+      </c>
+      <c r="V147">
+        <v>2.75</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>8</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>2.25</v>
+      </c>
+      <c r="AA147">
+        <v>3.14</v>
+      </c>
+      <c r="AB147">
+        <v>2.78</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE147">
+        <v>1.26</v>
+      </c>
+      <c r="AF147">
+        <v>3.34</v>
+      </c>
+      <c r="AG147">
+        <v>1.94</v>
+      </c>
+      <c r="AH147">
+        <v>1.88</v>
+      </c>
+      <c r="AI147">
+        <v>1.73</v>
+      </c>
+      <c r="AJ147">
+        <v>2</v>
+      </c>
+      <c r="AK147">
+        <v>1.36</v>
+      </c>
+      <c r="AL147">
+        <v>1.29</v>
+      </c>
+      <c r="AM147">
+        <v>1.6</v>
+      </c>
+      <c r="AN147">
+        <v>1.22</v>
+      </c>
+      <c r="AO147">
+        <v>1</v>
+      </c>
+      <c r="AP147">
+        <v>1.4</v>
+      </c>
+      <c r="AQ147">
+        <v>0.9</v>
+      </c>
+      <c r="AR147">
+        <v>1.84</v>
+      </c>
+      <c r="AS147">
+        <v>1.31</v>
+      </c>
+      <c r="AT147">
+        <v>3.15</v>
+      </c>
+      <c r="AU147">
+        <v>9</v>
+      </c>
+      <c r="AV147">
+        <v>6</v>
+      </c>
+      <c r="AW147">
+        <v>10</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>19</v>
+      </c>
+      <c r="AZ147">
+        <v>10</v>
+      </c>
+      <c r="BA147">
+        <v>6</v>
+      </c>
+      <c r="BB147">
+        <v>2</v>
+      </c>
+      <c r="BC147">
+        <v>8</v>
+      </c>
+      <c r="BD147">
+        <v>1.64</v>
+      </c>
+      <c r="BE147">
+        <v>8</v>
+      </c>
+      <c r="BF147">
+        <v>2.67</v>
+      </c>
+      <c r="BG147">
+        <v>1.25</v>
+      </c>
+      <c r="BH147">
+        <v>3.3</v>
+      </c>
+      <c r="BI147">
+        <v>1.48</v>
+      </c>
+      <c r="BJ147">
+        <v>2.38</v>
+      </c>
+      <c r="BK147">
+        <v>1.92</v>
+      </c>
+      <c r="BL147">
+        <v>1.88</v>
+      </c>
+      <c r="BM147">
+        <v>2.35</v>
+      </c>
+      <c r="BN147">
+        <v>1.49</v>
+      </c>
+      <c r="BO147">
+        <v>3.15</v>
+      </c>
+      <c r="BP147">
         <v>1.28</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,9 @@
     <t>['45+1', '78']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -605,9 +608,6 @@
   </si>
   <si>
     <t>['38', '54']</t>
-  </si>
-  <si>
-    <t>['77']</t>
   </si>
   <si>
     <t>['38', '90']</t>
@@ -830,6 +830,9 @@
   </si>
   <si>
     <t>['44']</t>
+  </si>
+  <si>
+    <t>['15', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1656,7 +1659,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1737,7 +1740,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1862,7 +1865,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1940,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>1.1</v>
@@ -2068,7 +2071,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2274,7 +2277,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2355,7 +2358,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2480,7 +2483,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2561,7 +2564,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ7">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2686,7 +2689,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2764,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ8">
         <v>0.3</v>
@@ -3176,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ10">
         <v>1.3</v>
@@ -3304,7 +3307,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3510,7 +3513,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3797,7 +3800,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3922,7 +3925,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4128,7 +4131,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4540,7 +4543,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5445,7 +5448,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5648,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ22">
         <v>2.3</v>
@@ -7711,7 +7714,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ32">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7914,7 +7917,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ33">
         <v>1.1</v>
@@ -8326,10 +8329,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ35">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>2.24</v>
@@ -9562,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ41">
         <v>0.78</v>
@@ -9690,7 +9693,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9977,7 +9980,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -10798,7 +10801,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>0.9</v>
@@ -11213,7 +11216,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ49">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR49">
         <v>1.05</v>
@@ -11416,10 +11419,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11625,7 +11628,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -12446,7 +12449,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ55">
         <v>0.78</v>
@@ -13476,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
         <v>1.56</v>
@@ -14921,7 +14924,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ67">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR67">
         <v>1.37</v>
@@ -15127,7 +15130,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ68">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15330,7 +15333,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ69">
         <v>1.1</v>
@@ -15539,7 +15542,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -16566,7 +16569,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ75">
         <v>2.22</v>
@@ -18214,7 +18217,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ83">
         <v>0.63</v>
@@ -18423,7 +18426,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ84">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR84">
         <v>1.6</v>
@@ -18835,7 +18838,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ86">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -19038,10 +19041,10 @@
         <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR87">
         <v>1.35</v>
@@ -20274,7 +20277,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93">
         <v>0.78</v>
@@ -20483,7 +20486,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ94">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR94">
         <v>1.7</v>
@@ -20689,7 +20692,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ95">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -21307,7 +21310,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21510,7 +21513,7 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ99">
         <v>2.22</v>
@@ -23161,7 +23164,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ107">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR107">
         <v>1.83</v>
@@ -23776,7 +23779,7 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ110">
         <v>1.3</v>
@@ -23982,10 +23985,10 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ111">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR111">
         <v>1.49</v>
@@ -24397,7 +24400,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -25424,7 +25427,7 @@
         <v>2.43</v>
       </c>
       <c r="AP118">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ118">
         <v>2.22</v>
@@ -25630,7 +25633,7 @@
         <v>1.86</v>
       </c>
       <c r="AP119">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ119">
         <v>1.5</v>
@@ -26454,10 +26457,10 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ123">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -27899,7 +27902,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ130">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR130">
         <v>1.77</v>
@@ -28102,7 +28105,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ131">
         <v>1.56</v>
@@ -29544,7 +29547,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29672,7 +29675,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -30371,7 +30374,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ142">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AR142">
         <v>1.4</v>
@@ -30780,7 +30783,7 @@
         <v>0.33</v>
       </c>
       <c r="AP144">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ144">
         <v>0.3</v>
@@ -31477,6 +31480,624 @@
       </c>
       <c r="BP147">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7321759</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45514.54166666666</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>72</v>
+      </c>
+      <c r="H148" t="s">
+        <v>70</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>86</v>
+      </c>
+      <c r="P148" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q148">
+        <v>3.2</v>
+      </c>
+      <c r="R148">
+        <v>2.25</v>
+      </c>
+      <c r="S148">
+        <v>3.1</v>
+      </c>
+      <c r="T148">
+        <v>1.33</v>
+      </c>
+      <c r="U148">
+        <v>3.25</v>
+      </c>
+      <c r="V148">
+        <v>2.63</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>6.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>2.63</v>
+      </c>
+      <c r="AA148">
+        <v>3.38</v>
+      </c>
+      <c r="AB148">
+        <v>2.57</v>
+      </c>
+      <c r="AC148">
+        <v>1.02</v>
+      </c>
+      <c r="AD148">
+        <v>10.5</v>
+      </c>
+      <c r="AE148">
+        <v>1.21</v>
+      </c>
+      <c r="AF148">
+        <v>3.74</v>
+      </c>
+      <c r="AG148">
+        <v>1.7</v>
+      </c>
+      <c r="AH148">
+        <v>1.95</v>
+      </c>
+      <c r="AI148">
+        <v>1.62</v>
+      </c>
+      <c r="AJ148">
+        <v>2.2</v>
+      </c>
+      <c r="AK148">
+        <v>1.53</v>
+      </c>
+      <c r="AL148">
+        <v>1.28</v>
+      </c>
+      <c r="AM148">
+        <v>1.44</v>
+      </c>
+      <c r="AN148">
+        <v>1.88</v>
+      </c>
+      <c r="AO148">
+        <v>0.89</v>
+      </c>
+      <c r="AP148">
+        <v>1.67</v>
+      </c>
+      <c r="AQ148">
+        <v>1.1</v>
+      </c>
+      <c r="AR148">
+        <v>1.61</v>
+      </c>
+      <c r="AS148">
+        <v>1.29</v>
+      </c>
+      <c r="AT148">
+        <v>2.9</v>
+      </c>
+      <c r="AU148">
+        <v>2</v>
+      </c>
+      <c r="AV148">
+        <v>6</v>
+      </c>
+      <c r="AW148">
+        <v>6</v>
+      </c>
+      <c r="AX148">
+        <v>10</v>
+      </c>
+      <c r="AY148">
+        <v>8</v>
+      </c>
+      <c r="AZ148">
+        <v>16</v>
+      </c>
+      <c r="BA148">
+        <v>3</v>
+      </c>
+      <c r="BB148">
+        <v>3</v>
+      </c>
+      <c r="BC148">
+        <v>6</v>
+      </c>
+      <c r="BD148">
+        <v>1.85</v>
+      </c>
+      <c r="BE148">
+        <v>8</v>
+      </c>
+      <c r="BF148">
+        <v>2.28</v>
+      </c>
+      <c r="BG148">
+        <v>1.25</v>
+      </c>
+      <c r="BH148">
+        <v>3.3</v>
+      </c>
+      <c r="BI148">
+        <v>1.48</v>
+      </c>
+      <c r="BJ148">
+        <v>2.38</v>
+      </c>
+      <c r="BK148">
+        <v>1.88</v>
+      </c>
+      <c r="BL148">
+        <v>1.92</v>
+      </c>
+      <c r="BM148">
+        <v>2.35</v>
+      </c>
+      <c r="BN148">
+        <v>1.49</v>
+      </c>
+      <c r="BO148">
+        <v>3.15</v>
+      </c>
+      <c r="BP148">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7321757</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45514.66666666666</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s">
+        <v>83</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>86</v>
+      </c>
+      <c r="P149" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q149">
+        <v>3.25</v>
+      </c>
+      <c r="R149">
+        <v>2.2</v>
+      </c>
+      <c r="S149">
+        <v>3.25</v>
+      </c>
+      <c r="T149">
+        <v>1.4</v>
+      </c>
+      <c r="U149">
+        <v>2.75</v>
+      </c>
+      <c r="V149">
+        <v>2.75</v>
+      </c>
+      <c r="W149">
+        <v>1.4</v>
+      </c>
+      <c r="X149">
+        <v>8</v>
+      </c>
+      <c r="Y149">
+        <v>1.08</v>
+      </c>
+      <c r="Z149">
+        <v>2.62</v>
+      </c>
+      <c r="AA149">
+        <v>3.26</v>
+      </c>
+      <c r="AB149">
+        <v>2.65</v>
+      </c>
+      <c r="AC149">
+        <v>1.02</v>
+      </c>
+      <c r="AD149">
+        <v>10</v>
+      </c>
+      <c r="AE149">
+        <v>1.29</v>
+      </c>
+      <c r="AF149">
+        <v>3.4</v>
+      </c>
+      <c r="AG149">
+        <v>1.88</v>
+      </c>
+      <c r="AH149">
+        <v>1.91</v>
+      </c>
+      <c r="AI149">
+        <v>1.67</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.5</v>
+      </c>
+      <c r="AL149">
+        <v>1.3</v>
+      </c>
+      <c r="AM149">
+        <v>1.5</v>
+      </c>
+      <c r="AN149">
+        <v>1.63</v>
+      </c>
+      <c r="AO149">
+        <v>1.75</v>
+      </c>
+      <c r="AP149">
+        <v>1.56</v>
+      </c>
+      <c r="AQ149">
+        <v>1.67</v>
+      </c>
+      <c r="AR149">
+        <v>1.95</v>
+      </c>
+      <c r="AS149">
+        <v>1.42</v>
+      </c>
+      <c r="AT149">
+        <v>3.37</v>
+      </c>
+      <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+      <c r="AW149">
+        <v>4</v>
+      </c>
+      <c r="AX149">
+        <v>3</v>
+      </c>
+      <c r="AY149">
+        <v>10</v>
+      </c>
+      <c r="AZ149">
+        <v>5</v>
+      </c>
+      <c r="BA149">
+        <v>5</v>
+      </c>
+      <c r="BB149">
+        <v>8</v>
+      </c>
+      <c r="BC149">
+        <v>13</v>
+      </c>
+      <c r="BD149">
+        <v>1.85</v>
+      </c>
+      <c r="BE149">
+        <v>8</v>
+      </c>
+      <c r="BF149">
+        <v>2.28</v>
+      </c>
+      <c r="BG149">
+        <v>1.25</v>
+      </c>
+      <c r="BH149">
+        <v>3.3</v>
+      </c>
+      <c r="BI149">
+        <v>1.48</v>
+      </c>
+      <c r="BJ149">
+        <v>2.38</v>
+      </c>
+      <c r="BK149">
+        <v>1.95</v>
+      </c>
+      <c r="BL149">
+        <v>1.85</v>
+      </c>
+      <c r="BM149">
+        <v>2.35</v>
+      </c>
+      <c r="BN149">
+        <v>1.49</v>
+      </c>
+      <c r="BO149">
+        <v>3.15</v>
+      </c>
+      <c r="BP149">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7321760</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45514.83333333334</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>76</v>
+      </c>
+      <c r="H150" t="s">
+        <v>80</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>188</v>
+      </c>
+      <c r="P150" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q150">
+        <v>2.6</v>
+      </c>
+      <c r="R150">
+        <v>2.3</v>
+      </c>
+      <c r="S150">
+        <v>4</v>
+      </c>
+      <c r="T150">
+        <v>1.33</v>
+      </c>
+      <c r="U150">
+        <v>3.25</v>
+      </c>
+      <c r="V150">
+        <v>2.63</v>
+      </c>
+      <c r="W150">
+        <v>1.44</v>
+      </c>
+      <c r="X150">
+        <v>6.5</v>
+      </c>
+      <c r="Y150">
+        <v>1.11</v>
+      </c>
+      <c r="Z150">
+        <v>1.99</v>
+      </c>
+      <c r="AA150">
+        <v>3.52</v>
+      </c>
+      <c r="AB150">
+        <v>3.56</v>
+      </c>
+      <c r="AC150">
+        <v>1.03</v>
+      </c>
+      <c r="AD150">
+        <v>13</v>
+      </c>
+      <c r="AE150">
+        <v>1.22</v>
+      </c>
+      <c r="AF150">
+        <v>4</v>
+      </c>
+      <c r="AG150">
+        <v>1.8</v>
+      </c>
+      <c r="AH150">
+        <v>1.99</v>
+      </c>
+      <c r="AI150">
+        <v>1.67</v>
+      </c>
+      <c r="AJ150">
+        <v>2.1</v>
+      </c>
+      <c r="AK150">
+        <v>1.27</v>
+      </c>
+      <c r="AL150">
+        <v>1.27</v>
+      </c>
+      <c r="AM150">
+        <v>1.6</v>
+      </c>
+      <c r="AN150">
+        <v>2.33</v>
+      </c>
+      <c r="AO150">
+        <v>1.33</v>
+      </c>
+      <c r="AP150">
+        <v>2.1</v>
+      </c>
+      <c r="AQ150">
+        <v>1.5</v>
+      </c>
+      <c r="AR150">
+        <v>1.4</v>
+      </c>
+      <c r="AS150">
+        <v>1.52</v>
+      </c>
+      <c r="AT150">
+        <v>2.92</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>3</v>
+      </c>
+      <c r="AW150">
+        <v>6</v>
+      </c>
+      <c r="AX150">
+        <v>6</v>
+      </c>
+      <c r="AY150">
+        <v>10</v>
+      </c>
+      <c r="AZ150">
+        <v>9</v>
+      </c>
+      <c r="BA150">
+        <v>13</v>
+      </c>
+      <c r="BB150">
+        <v>1</v>
+      </c>
+      <c r="BC150">
+        <v>14</v>
+      </c>
+      <c r="BD150">
+        <v>1.41</v>
+      </c>
+      <c r="BE150">
+        <v>9</v>
+      </c>
+      <c r="BF150">
+        <v>3.49</v>
+      </c>
+      <c r="BG150">
+        <v>1.24</v>
+      </c>
+      <c r="BH150">
+        <v>3.45</v>
+      </c>
+      <c r="BI150">
+        <v>1.45</v>
+      </c>
+      <c r="BJ150">
+        <v>2.45</v>
+      </c>
+      <c r="BK150">
+        <v>1.8</v>
+      </c>
+      <c r="BL150">
+        <v>2</v>
+      </c>
+      <c r="BM150">
+        <v>2.28</v>
+      </c>
+      <c r="BN150">
+        <v>1.52</v>
+      </c>
+      <c r="BO150">
+        <v>3.05</v>
+      </c>
+      <c r="BP150">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>['77']</t>
+  </si>
+  <si>
+    <t>['85']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -1194,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1659,7 +1662,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1865,7 +1868,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2071,7 +2074,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2277,7 +2280,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2355,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2483,7 +2486,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2689,7 +2692,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3307,7 +3310,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3513,7 +3516,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3925,7 +3928,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4337,7 +4340,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4418,7 +4421,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AR16">
         <v>1.44</v>
@@ -4543,7 +4546,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4955,7 +4958,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5367,7 +5370,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5573,7 +5576,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5779,7 +5782,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6397,7 +6400,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6603,7 +6606,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7015,7 +7018,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7221,7 +7224,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7633,7 +7636,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7711,7 +7714,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ32">
         <v>1.1</v>
@@ -9156,7 +9159,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ39">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -9359,7 +9362,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40">
         <v>1.5</v>
@@ -9487,7 +9490,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9693,7 +9696,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9771,7 +9774,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ42">
         <v>1.56</v>
@@ -9899,7 +9902,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10105,7 +10108,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10392,7 +10395,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ45">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10517,7 +10520,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10929,7 +10932,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11135,7 +11138,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12037,7 +12040,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ53">
         <v>1.3</v>
@@ -12165,7 +12168,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12371,7 +12374,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12577,7 +12580,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12783,7 +12786,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12989,7 +12992,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13070,7 +13073,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ58">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AR58">
         <v>1.99</v>
@@ -13607,7 +13610,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13813,7 +13816,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13891,7 +13894,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ62">
         <v>0.9</v>
@@ -14225,7 +14228,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14637,7 +14640,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14843,7 +14846,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15049,7 +15052,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15667,7 +15670,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15873,7 +15876,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16079,7 +16082,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16285,7 +16288,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16491,7 +16494,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16572,7 +16575,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ75">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -16903,7 +16906,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16981,7 +16984,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ77">
         <v>1.56</v>
@@ -17109,7 +17112,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17805,7 +17808,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ81">
         <v>0.78</v>
@@ -17933,7 +17936,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18345,7 +18348,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18551,7 +18554,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18632,7 +18635,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ85">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -18757,7 +18760,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18963,7 +18966,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19169,7 +19172,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19375,7 +19378,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19581,7 +19584,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19787,7 +19790,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19993,7 +19996,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20071,7 +20074,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ92">
         <v>0.78</v>
@@ -20405,7 +20408,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20483,7 +20486,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ94">
         <v>1.67</v>
@@ -20611,7 +20614,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20817,7 +20820,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21101,7 +21104,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ97">
         <v>0.3</v>
@@ -21229,7 +21232,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21435,7 +21438,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21516,7 +21519,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AR99">
         <v>1.41</v>
@@ -21641,7 +21644,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22053,7 +22056,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22259,7 +22262,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22671,7 +22674,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23083,7 +23086,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23289,7 +23292,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23495,7 +23498,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23701,7 +23704,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24113,7 +24116,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24319,7 +24322,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24525,7 +24528,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24603,7 +24606,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ114">
         <v>1.5</v>
@@ -24731,7 +24734,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24809,7 +24812,7 @@
         <v>2.71</v>
       </c>
       <c r="AP115">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ115">
         <v>2.3</v>
@@ -24937,7 +24940,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25143,7 +25146,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25430,7 +25433,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ118">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AR118">
         <v>1.41</v>
@@ -25761,7 +25764,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26173,7 +26176,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26997,7 +27000,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27203,7 +27206,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27409,7 +27412,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27615,7 +27618,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27821,7 +27824,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27899,7 +27902,7 @@
         <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ130">
         <v>1.5</v>
@@ -28233,7 +28236,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28439,7 +28442,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28645,7 +28648,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28726,7 +28729,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ134">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AR134">
         <v>1.61</v>
@@ -28929,7 +28932,7 @@
         <v>2.56</v>
       </c>
       <c r="AP135">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ135">
         <v>2.3</v>
@@ -29057,7 +29060,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29263,7 +29266,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29469,7 +29472,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29675,7 +29678,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29753,7 +29756,7 @@
         <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ139">
         <v>1.1</v>
@@ -29881,7 +29884,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30371,7 +30374,7 @@
         <v>0.63</v>
       </c>
       <c r="AP142">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ142">
         <v>1.1</v>
@@ -30499,7 +30502,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30911,7 +30914,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>2.88</v>
@@ -31941,7 +31944,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32098,6 +32101,418 @@
       </c>
       <c r="BP150">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7321642</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45515.5625</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>71</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>189</v>
+      </c>
+      <c r="P151" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q151">
+        <v>3</v>
+      </c>
+      <c r="R151">
+        <v>2.3</v>
+      </c>
+      <c r="S151">
+        <v>3.25</v>
+      </c>
+      <c r="T151">
+        <v>1.33</v>
+      </c>
+      <c r="U151">
+        <v>3.25</v>
+      </c>
+      <c r="V151">
+        <v>2.5</v>
+      </c>
+      <c r="W151">
+        <v>1.5</v>
+      </c>
+      <c r="X151">
+        <v>6.5</v>
+      </c>
+      <c r="Y151">
+        <v>1.11</v>
+      </c>
+      <c r="Z151">
+        <v>2.32</v>
+      </c>
+      <c r="AA151">
+        <v>3.25</v>
+      </c>
+      <c r="AB151">
+        <v>2.69</v>
+      </c>
+      <c r="AC151">
+        <v>1.04</v>
+      </c>
+      <c r="AD151">
+        <v>8.5</v>
+      </c>
+      <c r="AE151">
+        <v>1.17</v>
+      </c>
+      <c r="AF151">
+        <v>4.3</v>
+      </c>
+      <c r="AG151">
+        <v>1.69</v>
+      </c>
+      <c r="AH151">
+        <v>2.1</v>
+      </c>
+      <c r="AI151">
+        <v>1.57</v>
+      </c>
+      <c r="AJ151">
+        <v>2.25</v>
+      </c>
+      <c r="AK151">
+        <v>1.57</v>
+      </c>
+      <c r="AL151">
+        <v>1.25</v>
+      </c>
+      <c r="AM151">
+        <v>1.45</v>
+      </c>
+      <c r="AN151">
+        <v>0.5</v>
+      </c>
+      <c r="AO151">
+        <v>1</v>
+      </c>
+      <c r="AP151">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ151">
+        <v>1</v>
+      </c>
+      <c r="AR151">
+        <v>1.34</v>
+      </c>
+      <c r="AS151">
+        <v>1.46</v>
+      </c>
+      <c r="AT151">
+        <v>2.8</v>
+      </c>
+      <c r="AU151">
+        <v>8</v>
+      </c>
+      <c r="AV151">
+        <v>4</v>
+      </c>
+      <c r="AW151">
+        <v>8</v>
+      </c>
+      <c r="AX151">
+        <v>3</v>
+      </c>
+      <c r="AY151">
+        <v>16</v>
+      </c>
+      <c r="AZ151">
+        <v>7</v>
+      </c>
+      <c r="BA151">
+        <v>9</v>
+      </c>
+      <c r="BB151">
+        <v>3</v>
+      </c>
+      <c r="BC151">
+        <v>12</v>
+      </c>
+      <c r="BD151">
+        <v>1.82</v>
+      </c>
+      <c r="BE151">
+        <v>8</v>
+      </c>
+      <c r="BF151">
+        <v>2.39</v>
+      </c>
+      <c r="BG151">
+        <v>1.21</v>
+      </c>
+      <c r="BH151">
+        <v>3.7</v>
+      </c>
+      <c r="BI151">
+        <v>1.4</v>
+      </c>
+      <c r="BJ151">
+        <v>2.6</v>
+      </c>
+      <c r="BK151">
+        <v>1.7</v>
+      </c>
+      <c r="BL151">
+        <v>1.96</v>
+      </c>
+      <c r="BM151">
+        <v>2.15</v>
+      </c>
+      <c r="BN151">
+        <v>1.58</v>
+      </c>
+      <c r="BO151">
+        <v>2.85</v>
+      </c>
+      <c r="BP151">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7321761</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45515.66666666666</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>85</v>
+      </c>
+      <c r="H152" t="s">
+        <v>75</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>86</v>
+      </c>
+      <c r="P152" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q152">
+        <v>2.75</v>
+      </c>
+      <c r="R152">
+        <v>2.2</v>
+      </c>
+      <c r="S152">
+        <v>3.75</v>
+      </c>
+      <c r="T152">
+        <v>1.36</v>
+      </c>
+      <c r="U152">
+        <v>3</v>
+      </c>
+      <c r="V152">
+        <v>2.75</v>
+      </c>
+      <c r="W152">
+        <v>1.4</v>
+      </c>
+      <c r="X152">
+        <v>7</v>
+      </c>
+      <c r="Y152">
+        <v>1.1</v>
+      </c>
+      <c r="Z152">
+        <v>2.52</v>
+      </c>
+      <c r="AA152">
+        <v>3.15</v>
+      </c>
+      <c r="AB152">
+        <v>2.52</v>
+      </c>
+      <c r="AC152">
+        <v>1.01</v>
+      </c>
+      <c r="AD152">
+        <v>9.6</v>
+      </c>
+      <c r="AE152">
+        <v>1.24</v>
+      </c>
+      <c r="AF152">
+        <v>3.48</v>
+      </c>
+      <c r="AG152">
+        <v>1.82</v>
+      </c>
+      <c r="AH152">
+        <v>1.92</v>
+      </c>
+      <c r="AI152">
+        <v>1.67</v>
+      </c>
+      <c r="AJ152">
+        <v>2.1</v>
+      </c>
+      <c r="AK152">
+        <v>1.33</v>
+      </c>
+      <c r="AL152">
+        <v>1.28</v>
+      </c>
+      <c r="AM152">
+        <v>1.68</v>
+      </c>
+      <c r="AN152">
+        <v>1.44</v>
+      </c>
+      <c r="AO152">
+        <v>2.22</v>
+      </c>
+      <c r="AP152">
+        <v>1.4</v>
+      </c>
+      <c r="AQ152">
+        <v>2.1</v>
+      </c>
+      <c r="AR152">
+        <v>1.73</v>
+      </c>
+      <c r="AS152">
+        <v>1.14</v>
+      </c>
+      <c r="AT152">
+        <v>2.87</v>
+      </c>
+      <c r="AU152">
+        <v>3</v>
+      </c>
+      <c r="AV152">
+        <v>4</v>
+      </c>
+      <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
+        <v>2</v>
+      </c>
+      <c r="AY152">
+        <v>10</v>
+      </c>
+      <c r="AZ152">
+        <v>6</v>
+      </c>
+      <c r="BA152">
+        <v>5</v>
+      </c>
+      <c r="BB152">
+        <v>8</v>
+      </c>
+      <c r="BC152">
+        <v>13</v>
+      </c>
+      <c r="BD152">
+        <v>1.59</v>
+      </c>
+      <c r="BE152">
+        <v>8.5</v>
+      </c>
+      <c r="BF152">
+        <v>2.89</v>
+      </c>
+      <c r="BG152">
+        <v>1.19</v>
+      </c>
+      <c r="BH152">
+        <v>3.9</v>
+      </c>
+      <c r="BI152">
+        <v>1.36</v>
+      </c>
+      <c r="BJ152">
+        <v>2.75</v>
+      </c>
+      <c r="BK152">
+        <v>1.64</v>
+      </c>
+      <c r="BL152">
+        <v>2.05</v>
+      </c>
+      <c r="BM152">
+        <v>2.06</v>
+      </c>
+      <c r="BN152">
+        <v>1.63</v>
+      </c>
+      <c r="BO152">
+        <v>2.7</v>
+      </c>
+      <c r="BP152">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>['85']</t>
+  </si>
+  <si>
+    <t>['47', '55']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -1197,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,7 +1540,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ2">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1662,7 +1665,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1868,7 +1871,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2074,7 +2077,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2280,7 +2283,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2486,7 +2489,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2692,7 +2695,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3310,7 +3313,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3516,7 +3519,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3928,7 +3931,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4340,7 +4343,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4546,7 +4549,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4833,7 +4836,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ18">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR18">
         <v>0.64</v>
@@ -4958,7 +4961,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5242,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ20">
         <v>0.63</v>
@@ -5370,7 +5373,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5576,7 +5579,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5782,7 +5785,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6400,7 +6403,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6481,7 +6484,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ26">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -6606,7 +6609,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6684,7 +6687,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ27">
         <v>2.3</v>
@@ -7018,7 +7021,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7224,7 +7227,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7636,7 +7639,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -9490,7 +9493,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9696,7 +9699,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9777,7 +9780,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ42">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9902,7 +9905,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10108,7 +10111,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10520,7 +10523,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10598,7 +10601,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ46">
         <v>1.44</v>
@@ -10932,7 +10935,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11138,7 +11141,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12168,7 +12171,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12374,7 +12377,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12580,7 +12583,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12786,7 +12789,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12992,7 +12995,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13485,7 +13488,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -13610,7 +13613,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13816,7 +13819,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14228,7 +14231,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14306,7 +14309,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ64">
         <v>0.78</v>
@@ -14640,7 +14643,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14846,7 +14849,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15052,7 +15055,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15670,7 +15673,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15876,7 +15879,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16082,7 +16085,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16288,7 +16291,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16494,7 +16497,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16906,7 +16909,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16987,7 +16990,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ77">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR77">
         <v>1.8</v>
@@ -17112,7 +17115,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17396,7 +17399,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ79">
         <v>0.9</v>
@@ -17936,7 +17939,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18348,7 +18351,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18554,7 +18557,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18760,7 +18763,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18966,7 +18969,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19172,7 +19175,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19378,7 +19381,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19584,7 +19587,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19790,7 +19793,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19996,7 +19999,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20408,7 +20411,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20614,7 +20617,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20820,7 +20823,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21232,7 +21235,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21438,7 +21441,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21644,7 +21647,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21928,7 +21931,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ101">
         <v>1.5</v>
@@ -22056,7 +22059,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22137,7 +22140,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ102">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22262,7 +22265,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22674,7 +22677,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22755,7 +22758,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ105">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23086,7 +23089,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23292,7 +23295,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23498,7 +23501,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23704,7 +23707,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24116,7 +24119,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24322,7 +24325,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24528,7 +24531,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24734,7 +24737,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24940,7 +24943,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25146,7 +25149,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25224,7 +25227,7 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ117">
         <v>0.3</v>
@@ -25764,7 +25767,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26176,7 +26179,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -27000,7 +27003,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27206,7 +27209,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27412,7 +27415,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27618,7 +27621,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27696,7 +27699,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -27824,7 +27827,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28111,7 +28114,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ131">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28236,7 +28239,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28442,7 +28445,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28520,7 +28523,7 @@
         <v>1.43</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ133">
         <v>1.1</v>
@@ -28648,7 +28651,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29060,7 +29063,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29266,7 +29269,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29472,7 +29475,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29678,7 +29681,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29884,7 +29887,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30502,7 +30505,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30914,7 +30917,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>2.88</v>
@@ -31944,7 +31947,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32513,6 +32516,212 @@
       </c>
       <c r="BP152">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7321765</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45520.83333333334</v>
+      </c>
+      <c r="F153">
+        <v>20</v>
+      </c>
+      <c r="G153" t="s">
+        <v>83</v>
+      </c>
+      <c r="H153" t="s">
+        <v>76</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>190</v>
+      </c>
+      <c r="P153" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q153">
+        <v>2.2</v>
+      </c>
+      <c r="R153">
+        <v>2.2</v>
+      </c>
+      <c r="S153">
+        <v>5.25</v>
+      </c>
+      <c r="T153">
+        <v>1.38</v>
+      </c>
+      <c r="U153">
+        <v>2.8</v>
+      </c>
+      <c r="V153">
+        <v>2.8</v>
+      </c>
+      <c r="W153">
+        <v>1.38</v>
+      </c>
+      <c r="X153">
+        <v>6.5</v>
+      </c>
+      <c r="Y153">
+        <v>1.08</v>
+      </c>
+      <c r="Z153">
+        <v>1.48</v>
+      </c>
+      <c r="AA153">
+        <v>3.83</v>
+      </c>
+      <c r="AB153">
+        <v>5.22</v>
+      </c>
+      <c r="AC153">
+        <v>1.03</v>
+      </c>
+      <c r="AD153">
+        <v>9</v>
+      </c>
+      <c r="AE153">
+        <v>1.3</v>
+      </c>
+      <c r="AF153">
+        <v>3.2</v>
+      </c>
+      <c r="AG153">
+        <v>1.8</v>
+      </c>
+      <c r="AH153">
+        <v>2.02</v>
+      </c>
+      <c r="AI153">
+        <v>1.91</v>
+      </c>
+      <c r="AJ153">
+        <v>1.8</v>
+      </c>
+      <c r="AK153">
+        <v>1.16</v>
+      </c>
+      <c r="AL153">
+        <v>1.22</v>
+      </c>
+      <c r="AM153">
+        <v>1.87</v>
+      </c>
+      <c r="AN153">
+        <v>2</v>
+      </c>
+      <c r="AO153">
+        <v>1.56</v>
+      </c>
+      <c r="AP153">
+        <v>2.1</v>
+      </c>
+      <c r="AQ153">
+        <v>1.4</v>
+      </c>
+      <c r="AR153">
+        <v>1.76</v>
+      </c>
+      <c r="AS153">
+        <v>1.21</v>
+      </c>
+      <c r="AT153">
+        <v>2.97</v>
+      </c>
+      <c r="AU153">
+        <v>3</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>3</v>
+      </c>
+      <c r="AX153">
+        <v>3</v>
+      </c>
+      <c r="AY153">
+        <v>6</v>
+      </c>
+      <c r="AZ153">
+        <v>7</v>
+      </c>
+      <c r="BA153">
+        <v>3</v>
+      </c>
+      <c r="BB153">
+        <v>5</v>
+      </c>
+      <c r="BC153">
+        <v>8</v>
+      </c>
+      <c r="BD153">
+        <v>1.55</v>
+      </c>
+      <c r="BE153">
+        <v>8.5</v>
+      </c>
+      <c r="BF153">
+        <v>2.91</v>
+      </c>
+      <c r="BG153">
+        <v>1.21</v>
+      </c>
+      <c r="BH153">
+        <v>3.65</v>
+      </c>
+      <c r="BI153">
+        <v>1.41</v>
+      </c>
+      <c r="BJ153">
+        <v>2.55</v>
+      </c>
+      <c r="BK153">
+        <v>1.71</v>
+      </c>
+      <c r="BL153">
+        <v>1.95</v>
+      </c>
+      <c r="BM153">
+        <v>2.17</v>
+      </c>
+      <c r="BN153">
+        <v>1.57</v>
+      </c>
+      <c r="BO153">
+        <v>2.88</v>
+      </c>
+      <c r="BP153">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,7 +586,7 @@
     <t>['85']</t>
   </si>
   <si>
-    <t>['47', '55']</t>
+    <t>['54', '55', '86']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -839,6 +839,15 @@
   </si>
   <si>
     <t>['15', '90+1']</t>
+  </si>
+  <si>
+    <t>['32', '90+5']</t>
+  </si>
+  <si>
+    <t>['25', '66', '83', '85']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1537,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
+        <v>1.5</v>
+      </c>
+      <c r="AQ2">
         <v>1.56</v>
-      </c>
-      <c r="AQ2">
-        <v>1.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1743,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -1949,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.1</v>
@@ -2158,7 +2167,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2982,7 +2991,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ9">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3600,7 +3609,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3803,7 +3812,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -4627,10 +4636,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>1.64</v>
@@ -4833,10 +4842,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR18">
         <v>0.64</v>
@@ -5039,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>1.3</v>
@@ -5245,10 +5254,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5657,10 +5666,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR22">
         <v>1.29</v>
@@ -5866,7 +5875,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ23">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR23">
         <v>1.09</v>
@@ -6069,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
         <v>1.5</v>
@@ -6275,7 +6284,7 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1.3</v>
@@ -6484,7 +6493,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -6687,10 +6696,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6893,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>0.3</v>
@@ -7102,7 +7111,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ29">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7308,7 +7317,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ30">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR30">
         <v>1.72</v>
@@ -9780,7 +9789,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9983,7 +9992,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>1.5</v>
@@ -10601,10 +10610,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
         <v>1.53</v>
@@ -10807,7 +10816,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>0.9</v>
@@ -11016,7 +11025,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR48">
         <v>1.89</v>
@@ -11219,7 +11228,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.1</v>
@@ -11425,7 +11434,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.5</v>
@@ -11631,7 +11640,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -12458,7 +12467,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ55">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR55">
         <v>1.44</v>
@@ -12661,10 +12670,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR56">
         <v>1.34</v>
@@ -12867,10 +12876,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.34</v>
@@ -13279,10 +13288,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ59">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13488,7 +13497,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -13691,7 +13700,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -14309,10 +14318,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR64">
         <v>1.82</v>
@@ -14518,7 +14527,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ65">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR65">
         <v>1.38</v>
@@ -14724,7 +14733,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ66">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -15754,7 +15763,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ71">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR71">
         <v>1.4</v>
@@ -15957,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>0.3</v>
@@ -16369,7 +16378,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16575,7 +16584,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
         <v>2.1</v>
@@ -16781,10 +16790,10 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ76">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR76">
         <v>1.51</v>
@@ -16990,7 +16999,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ77">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR77">
         <v>1.8</v>
@@ -17196,7 +17205,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ78">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -17399,7 +17408,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>0.9</v>
@@ -18226,7 +18235,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ83">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18635,7 +18644,7 @@
         <v>2.2</v>
       </c>
       <c r="AP85">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>2.1</v>
@@ -19256,7 +19265,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ88">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR88">
         <v>1.85</v>
@@ -19459,7 +19468,7 @@
         <v>1.17</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ89">
         <v>1.3</v>
@@ -20283,10 +20292,10 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20904,7 +20913,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ96">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -21725,7 +21734,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
         <v>1.1</v>
@@ -21931,7 +21940,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ101">
         <v>1.5</v>
@@ -22140,7 +22149,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ102">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22758,7 +22767,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ105">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -22964,7 +22973,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ106">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR106">
         <v>1.66</v>
@@ -23376,7 +23385,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ108">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR108">
         <v>1.53</v>
@@ -23579,7 +23588,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ109">
         <v>0.78</v>
@@ -23785,7 +23794,7 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>1.3</v>
@@ -24403,7 +24412,7 @@
         <v>1.57</v>
       </c>
       <c r="AP113">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
         <v>1.5</v>
@@ -24818,7 +24827,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ115">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR115">
         <v>1.75</v>
@@ -25227,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>0.3</v>
@@ -25845,7 +25854,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
         <v>0.9</v>
@@ -26051,10 +26060,10 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ121">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26260,7 +26269,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ122">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR122">
         <v>1.63</v>
@@ -26669,7 +26678,7 @@
         <v>0.38</v>
       </c>
       <c r="AP124">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AQ124">
         <v>0.3</v>
@@ -27290,7 +27299,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ127">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR127">
         <v>1.36</v>
@@ -27496,7 +27505,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ128">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR128">
         <v>1.59</v>
@@ -27699,7 +27708,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -28111,10 +28120,10 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28317,7 +28326,7 @@
         <v>0.86</v>
       </c>
       <c r="AP132">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ132">
         <v>0.78</v>
@@ -28523,7 +28532,7 @@
         <v>1.43</v>
       </c>
       <c r="AP133">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
         <v>1.1</v>
@@ -28729,7 +28738,7 @@
         <v>2.13</v>
       </c>
       <c r="AP134">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
         <v>2.1</v>
@@ -28938,7 +28947,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ135">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AR135">
         <v>1.49</v>
@@ -29144,7 +29153,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ136">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR136">
         <v>1.41</v>
@@ -30586,7 +30595,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ143">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR143">
         <v>1.62</v>
@@ -31613,7 +31622,7 @@
         <v>0.89</v>
       </c>
       <c r="AP148">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
         <v>1.1</v>
@@ -32523,7 +32532,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7321765</v>
+        <v>7321770</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32532,16 +32541,16 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45520.83333333334</v>
+        <v>45521.5625</v>
       </c>
       <c r="F153">
         <v>20</v>
       </c>
       <c r="G153" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H153" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -32553,13 +32562,13 @@
         <v>0</v>
       </c>
       <c r="L153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M153">
         <v>0</v>
       </c>
       <c r="N153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O153" t="s">
         <v>190</v>
@@ -32568,130 +32577,130 @@
         <v>86</v>
       </c>
       <c r="Q153">
+        <v>2.1</v>
+      </c>
+      <c r="R153">
+        <v>2.5</v>
+      </c>
+      <c r="S153">
+        <v>5</v>
+      </c>
+      <c r="T153">
+        <v>1.29</v>
+      </c>
+      <c r="U153">
+        <v>3.5</v>
+      </c>
+      <c r="V153">
+        <v>2.25</v>
+      </c>
+      <c r="W153">
+        <v>1.57</v>
+      </c>
+      <c r="X153">
+        <v>5.5</v>
+      </c>
+      <c r="Y153">
+        <v>1.14</v>
+      </c>
+      <c r="Z153">
+        <v>1.55</v>
+      </c>
+      <c r="AA153">
+        <v>4.2</v>
+      </c>
+      <c r="AB153">
+        <v>4.5</v>
+      </c>
+      <c r="AC153">
+        <v>1.02</v>
+      </c>
+      <c r="AD153">
+        <v>10.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.11</v>
+      </c>
+      <c r="AF153">
+        <v>5.25</v>
+      </c>
+      <c r="AG153">
+        <v>1.5</v>
+      </c>
+      <c r="AH153">
+        <v>2.25</v>
+      </c>
+      <c r="AI153">
+        <v>1.62</v>
+      </c>
+      <c r="AJ153">
         <v>2.2</v>
-      </c>
-      <c r="R153">
-        <v>2.2</v>
-      </c>
-      <c r="S153">
-        <v>5.25</v>
-      </c>
-      <c r="T153">
-        <v>1.38</v>
-      </c>
-      <c r="U153">
-        <v>2.8</v>
-      </c>
-      <c r="V153">
-        <v>2.8</v>
-      </c>
-      <c r="W153">
-        <v>1.38</v>
-      </c>
-      <c r="X153">
-        <v>6.5</v>
-      </c>
-      <c r="Y153">
-        <v>1.08</v>
-      </c>
-      <c r="Z153">
-        <v>1.48</v>
-      </c>
-      <c r="AA153">
-        <v>3.83</v>
-      </c>
-      <c r="AB153">
-        <v>5.22</v>
-      </c>
-      <c r="AC153">
-        <v>1.03</v>
-      </c>
-      <c r="AD153">
-        <v>9</v>
-      </c>
-      <c r="AE153">
-        <v>1.3</v>
-      </c>
-      <c r="AF153">
-        <v>3.2</v>
-      </c>
-      <c r="AG153">
-        <v>1.8</v>
-      </c>
-      <c r="AH153">
-        <v>2.02</v>
-      </c>
-      <c r="AI153">
-        <v>1.91</v>
-      </c>
-      <c r="AJ153">
-        <v>1.8</v>
       </c>
       <c r="AK153">
         <v>1.16</v>
       </c>
       <c r="AL153">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM153">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="AN153">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AO153">
-        <v>1.56</v>
+        <v>0.78</v>
       </c>
       <c r="AP153">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ153">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="AR153">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="AS153">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="AT153">
-        <v>2.97</v>
+        <v>2.56</v>
       </c>
       <c r="AU153">
+        <v>11</v>
+      </c>
+      <c r="AV153">
+        <v>5</v>
+      </c>
+      <c r="AW153">
+        <v>11</v>
+      </c>
+      <c r="AX153">
+        <v>6</v>
+      </c>
+      <c r="AY153">
+        <v>22</v>
+      </c>
+      <c r="AZ153">
+        <v>11</v>
+      </c>
+      <c r="BA153">
+        <v>7</v>
+      </c>
+      <c r="BB153">
         <v>3</v>
       </c>
-      <c r="AV153">
-        <v>4</v>
-      </c>
-      <c r="AW153">
-        <v>3</v>
-      </c>
-      <c r="AX153">
-        <v>3</v>
-      </c>
-      <c r="AY153">
-        <v>6</v>
-      </c>
-      <c r="AZ153">
-        <v>7</v>
-      </c>
-      <c r="BA153">
-        <v>3</v>
-      </c>
-      <c r="BB153">
-        <v>5</v>
-      </c>
       <c r="BC153">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD153">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="BE153">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF153">
-        <v>2.91</v>
+        <v>2.82</v>
       </c>
       <c r="BG153">
         <v>1.21</v>
@@ -32722,6 +32731,624 @@
       </c>
       <c r="BP153">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7321766</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45521.66666666666</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>72</v>
+      </c>
+      <c r="H154" t="s">
+        <v>79</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>86</v>
+      </c>
+      <c r="P154" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q154">
+        <v>3.36</v>
+      </c>
+      <c r="R154">
+        <v>2.27</v>
+      </c>
+      <c r="S154">
+        <v>3.1</v>
+      </c>
+      <c r="T154">
+        <v>1.35</v>
+      </c>
+      <c r="U154">
+        <v>3.14</v>
+      </c>
+      <c r="V154">
+        <v>2.77</v>
+      </c>
+      <c r="W154">
+        <v>1.44</v>
+      </c>
+      <c r="X154">
+        <v>6.7</v>
+      </c>
+      <c r="Y154">
+        <v>1.09</v>
+      </c>
+      <c r="Z154">
+        <v>2.5</v>
+      </c>
+      <c r="AA154">
+        <v>3.3</v>
+      </c>
+      <c r="AB154">
+        <v>2.37</v>
+      </c>
+      <c r="AC154">
+        <v>1.04</v>
+      </c>
+      <c r="AD154">
+        <v>12</v>
+      </c>
+      <c r="AE154">
+        <v>1.25</v>
+      </c>
+      <c r="AF154">
+        <v>3.6</v>
+      </c>
+      <c r="AG154">
+        <v>1.8</v>
+      </c>
+      <c r="AH154">
+        <v>1.85</v>
+      </c>
+      <c r="AI154">
+        <v>1.65</v>
+      </c>
+      <c r="AJ154">
+        <v>2.15</v>
+      </c>
+      <c r="AK154">
+        <v>1.53</v>
+      </c>
+      <c r="AL154">
+        <v>1.3</v>
+      </c>
+      <c r="AM154">
+        <v>1.48</v>
+      </c>
+      <c r="AN154">
+        <v>1.67</v>
+      </c>
+      <c r="AO154">
+        <v>0.63</v>
+      </c>
+      <c r="AP154">
+        <v>1.5</v>
+      </c>
+      <c r="AQ154">
+        <v>0.89</v>
+      </c>
+      <c r="AR154">
+        <v>1.53</v>
+      </c>
+      <c r="AS154">
+        <v>1.28</v>
+      </c>
+      <c r="AT154">
+        <v>2.81</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>8</v>
+      </c>
+      <c r="AW154">
+        <v>12</v>
+      </c>
+      <c r="AX154">
+        <v>5</v>
+      </c>
+      <c r="AY154">
+        <v>17</v>
+      </c>
+      <c r="AZ154">
+        <v>13</v>
+      </c>
+      <c r="BA154">
+        <v>10</v>
+      </c>
+      <c r="BB154">
+        <v>2</v>
+      </c>
+      <c r="BC154">
+        <v>12</v>
+      </c>
+      <c r="BD154">
+        <v>2.1</v>
+      </c>
+      <c r="BE154">
+        <v>8</v>
+      </c>
+      <c r="BF154">
+        <v>1.95</v>
+      </c>
+      <c r="BG154">
+        <v>1.25</v>
+      </c>
+      <c r="BH154">
+        <v>3.6</v>
+      </c>
+      <c r="BI154">
+        <v>1.42</v>
+      </c>
+      <c r="BJ154">
+        <v>2.62</v>
+      </c>
+      <c r="BK154">
+        <v>1.82</v>
+      </c>
+      <c r="BL154">
+        <v>1.98</v>
+      </c>
+      <c r="BM154">
+        <v>2.13</v>
+      </c>
+      <c r="BN154">
+        <v>1.63</v>
+      </c>
+      <c r="BO154">
+        <v>2.62</v>
+      </c>
+      <c r="BP154">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7321771</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45521.77083333334</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>81</v>
+      </c>
+      <c r="H155" t="s">
+        <v>78</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>4</v>
+      </c>
+      <c r="N155">
+        <v>4</v>
+      </c>
+      <c r="O155" t="s">
+        <v>86</v>
+      </c>
+      <c r="P155" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q155">
+        <v>4</v>
+      </c>
+      <c r="R155">
+        <v>2.2</v>
+      </c>
+      <c r="S155">
+        <v>2.75</v>
+      </c>
+      <c r="T155">
+        <v>1.4</v>
+      </c>
+      <c r="U155">
+        <v>2.75</v>
+      </c>
+      <c r="V155">
+        <v>2.75</v>
+      </c>
+      <c r="W155">
+        <v>1.4</v>
+      </c>
+      <c r="X155">
+        <v>8</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>3.1</v>
+      </c>
+      <c r="AA155">
+        <v>3.3</v>
+      </c>
+      <c r="AB155">
+        <v>2</v>
+      </c>
+      <c r="AC155">
+        <v>1.05</v>
+      </c>
+      <c r="AD155">
+        <v>7.8</v>
+      </c>
+      <c r="AE155">
+        <v>1.25</v>
+      </c>
+      <c r="AF155">
+        <v>3.5</v>
+      </c>
+      <c r="AG155">
+        <v>1.8</v>
+      </c>
+      <c r="AH155">
+        <v>1.83</v>
+      </c>
+      <c r="AI155">
+        <v>1.73</v>
+      </c>
+      <c r="AJ155">
+        <v>2</v>
+      </c>
+      <c r="AK155">
+        <v>1.6</v>
+      </c>
+      <c r="AL155">
+        <v>1.24</v>
+      </c>
+      <c r="AM155">
+        <v>1.26</v>
+      </c>
+      <c r="AN155">
+        <v>1.33</v>
+      </c>
+      <c r="AO155">
+        <v>2.3</v>
+      </c>
+      <c r="AP155">
+        <v>1.2</v>
+      </c>
+      <c r="AQ155">
+        <v>2.36</v>
+      </c>
+      <c r="AR155">
+        <v>1.51</v>
+      </c>
+      <c r="AS155">
+        <v>1.75</v>
+      </c>
+      <c r="AT155">
+        <v>3.26</v>
+      </c>
+      <c r="AU155">
+        <v>9</v>
+      </c>
+      <c r="AV155">
+        <v>8</v>
+      </c>
+      <c r="AW155">
+        <v>8</v>
+      </c>
+      <c r="AX155">
+        <v>3</v>
+      </c>
+      <c r="AY155">
+        <v>17</v>
+      </c>
+      <c r="AZ155">
+        <v>11</v>
+      </c>
+      <c r="BA155">
+        <v>11</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>16</v>
+      </c>
+      <c r="BD155">
+        <v>2.28</v>
+      </c>
+      <c r="BE155">
+        <v>8</v>
+      </c>
+      <c r="BF155">
+        <v>1.85</v>
+      </c>
+      <c r="BG155">
+        <v>1.29</v>
+      </c>
+      <c r="BH155">
+        <v>3.3</v>
+      </c>
+      <c r="BI155">
+        <v>1.47</v>
+      </c>
+      <c r="BJ155">
+        <v>2.58</v>
+      </c>
+      <c r="BK155">
+        <v>1.9</v>
+      </c>
+      <c r="BL155">
+        <v>1.9</v>
+      </c>
+      <c r="BM155">
+        <v>2.24</v>
+      </c>
+      <c r="BN155">
+        <v>1.62</v>
+      </c>
+      <c r="BO155">
+        <v>2.8</v>
+      </c>
+      <c r="BP155">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7321772</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45521.875</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>70</v>
+      </c>
+      <c r="H156" t="s">
+        <v>85</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>87</v>
+      </c>
+      <c r="P156" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q156">
+        <v>3</v>
+      </c>
+      <c r="R156">
+        <v>2.2</v>
+      </c>
+      <c r="S156">
+        <v>3.4</v>
+      </c>
+      <c r="T156">
+        <v>1.36</v>
+      </c>
+      <c r="U156">
+        <v>3</v>
+      </c>
+      <c r="V156">
+        <v>2.63</v>
+      </c>
+      <c r="W156">
+        <v>1.44</v>
+      </c>
+      <c r="X156">
+        <v>7</v>
+      </c>
+      <c r="Y156">
+        <v>1.1</v>
+      </c>
+      <c r="Z156">
+        <v>2.3</v>
+      </c>
+      <c r="AA156">
+        <v>3.45</v>
+      </c>
+      <c r="AB156">
+        <v>2.9</v>
+      </c>
+      <c r="AC156">
+        <v>1.01</v>
+      </c>
+      <c r="AD156">
+        <v>9.9</v>
+      </c>
+      <c r="AE156">
+        <v>1.23</v>
+      </c>
+      <c r="AF156">
+        <v>3.56</v>
+      </c>
+      <c r="AG156">
+        <v>1.76</v>
+      </c>
+      <c r="AH156">
+        <v>1.97</v>
+      </c>
+      <c r="AI156">
+        <v>1.67</v>
+      </c>
+      <c r="AJ156">
+        <v>2.1</v>
+      </c>
+      <c r="AK156">
+        <v>1.39</v>
+      </c>
+      <c r="AL156">
+        <v>1.28</v>
+      </c>
+      <c r="AM156">
+        <v>1.59</v>
+      </c>
+      <c r="AN156">
+        <v>1.56</v>
+      </c>
+      <c r="AO156">
+        <v>1.44</v>
+      </c>
+      <c r="AP156">
+        <v>1.5</v>
+      </c>
+      <c r="AQ156">
+        <v>1.4</v>
+      </c>
+      <c r="AR156">
+        <v>1.56</v>
+      </c>
+      <c r="AS156">
+        <v>1.26</v>
+      </c>
+      <c r="AT156">
+        <v>2.82</v>
+      </c>
+      <c r="AU156">
+        <v>4</v>
+      </c>
+      <c r="AV156">
+        <v>5</v>
+      </c>
+      <c r="AW156">
+        <v>5</v>
+      </c>
+      <c r="AX156">
+        <v>8</v>
+      </c>
+      <c r="AY156">
+        <v>9</v>
+      </c>
+      <c r="AZ156">
+        <v>13</v>
+      </c>
+      <c r="BA156">
+        <v>2</v>
+      </c>
+      <c r="BB156">
+        <v>4</v>
+      </c>
+      <c r="BC156">
+        <v>6</v>
+      </c>
+      <c r="BD156">
+        <v>1.75</v>
+      </c>
+      <c r="BE156">
+        <v>6.7</v>
+      </c>
+      <c r="BF156">
+        <v>2.52</v>
+      </c>
+      <c r="BG156">
+        <v>1.23</v>
+      </c>
+      <c r="BH156">
+        <v>3.5</v>
+      </c>
+      <c r="BI156">
+        <v>1.43</v>
+      </c>
+      <c r="BJ156">
+        <v>2.48</v>
+      </c>
+      <c r="BK156">
+        <v>1.8</v>
+      </c>
+      <c r="BL156">
+        <v>2</v>
+      </c>
+      <c r="BM156">
+        <v>2.25</v>
+      </c>
+      <c r="BN156">
+        <v>1.53</v>
+      </c>
+      <c r="BO156">
+        <v>3</v>
+      </c>
+      <c r="BP156">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,7 +586,19 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['47', '55']</t>
+  </si>
+  <si>
     <t>['54', '55', '86']</t>
+  </si>
+  <si>
+    <t>['15', '58']</t>
+  </si>
+  <si>
+    <t>['10', '89']</t>
+  </si>
+  <si>
+    <t>['57', '63']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -848,6 +860,9 @@
   </si>
   <si>
     <t>['83']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1549,7 +1564,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1674,7 +1689,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1880,7 +1895,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2086,7 +2101,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2292,7 +2307,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2370,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2498,7 +2513,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2704,7 +2719,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3322,7 +3337,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3528,7 +3543,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3940,7 +3955,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4018,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4352,7 +4367,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4433,7 +4448,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ16">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR16">
         <v>1.44</v>
@@ -4558,7 +4573,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4845,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR18">
         <v>0.64</v>
@@ -4970,7 +4985,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5254,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ20">
         <v>0.89</v>
@@ -5382,7 +5397,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5460,10 +5475,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5588,7 +5603,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5794,7 +5809,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5872,7 +5887,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ23">
         <v>0.89</v>
@@ -6081,7 +6096,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR24">
         <v>1.54</v>
@@ -6412,7 +6427,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6493,7 +6508,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ26">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -6618,7 +6633,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6696,7 +6711,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ27">
         <v>2.36</v>
@@ -7030,7 +7045,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7236,7 +7251,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7314,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>0.7</v>
@@ -7648,7 +7663,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -9168,10 +9183,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -9377,7 +9392,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -9502,7 +9517,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9708,7 +9723,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9786,10 +9801,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ42">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9914,7 +9929,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9995,7 +10010,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -10120,7 +10135,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10198,10 +10213,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10407,7 +10422,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ45">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10532,7 +10547,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10610,7 +10625,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ46">
         <v>1.4</v>
@@ -10944,7 +10959,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11150,7 +11165,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11437,7 +11452,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -12180,7 +12195,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12258,7 +12273,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
         <v>1.1</v>
@@ -12386,7 +12401,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12592,7 +12607,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12798,7 +12813,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13004,7 +13019,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13085,7 +13100,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ58">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR58">
         <v>1.99</v>
@@ -13497,7 +13512,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ60">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -13622,7 +13637,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13703,7 +13718,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR61">
         <v>1.37</v>
@@ -13828,7 +13843,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13906,7 +13921,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62">
         <v>0.9</v>
@@ -14112,7 +14127,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ63">
         <v>0.3</v>
@@ -14240,7 +14255,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14318,7 +14333,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ64">
         <v>0.7</v>
@@ -14652,7 +14667,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14730,7 +14745,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ66">
         <v>1.4</v>
@@ -14858,7 +14873,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14936,7 +14951,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ67">
         <v>1.1</v>
@@ -15064,7 +15079,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15557,7 +15572,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15682,7 +15697,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15888,7 +15903,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16094,7 +16109,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16300,7 +16315,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16506,7 +16521,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16587,7 +16602,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -16918,7 +16933,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -16999,7 +17014,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ77">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR77">
         <v>1.8</v>
@@ -17124,7 +17139,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17408,7 +17423,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ79">
         <v>0.9</v>
@@ -17617,7 +17632,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR80">
         <v>1.94</v>
@@ -17820,7 +17835,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ81">
         <v>0.78</v>
@@ -17948,7 +17963,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18360,7 +18375,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18438,7 +18453,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ84">
         <v>1.67</v>
@@ -18566,7 +18581,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18647,7 +18662,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -18772,7 +18787,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18850,7 +18865,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
         <v>1.1</v>
@@ -18978,7 +18993,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19059,7 +19074,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR87">
         <v>1.35</v>
@@ -19184,7 +19199,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19390,7 +19405,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19596,7 +19611,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19802,7 +19817,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20008,7 +20023,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20420,7 +20435,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20498,7 +20513,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ94">
         <v>1.67</v>
@@ -20626,7 +20641,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20832,7 +20847,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20910,7 +20925,7 @@
         <v>2.67</v>
       </c>
       <c r="AP96">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>2.36</v>
@@ -21244,7 +21259,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21325,7 +21340,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21450,7 +21465,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21531,7 +21546,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ99">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR99">
         <v>1.41</v>
@@ -21656,7 +21671,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21940,10 +21955,10 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -22068,7 +22083,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22146,10 +22161,10 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ102">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22274,7 +22289,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22686,7 +22701,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22764,10 +22779,10 @@
         <v>1.57</v>
       </c>
       <c r="AP105">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23098,7 +23113,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23304,7 +23319,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23510,7 +23525,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23716,7 +23731,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24128,7 +24143,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24334,7 +24349,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24415,7 +24430,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -24540,7 +24555,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24618,10 +24633,10 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ114">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR114">
         <v>1.52</v>
@@ -24746,7 +24761,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24952,7 +24967,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25030,7 +25045,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ116">
         <v>0.9</v>
@@ -25158,7 +25173,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25236,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ117">
         <v>0.3</v>
@@ -25445,7 +25460,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ118">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR118">
         <v>1.41</v>
@@ -25651,7 +25666,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ119">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25776,7 +25791,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26188,7 +26203,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -27012,7 +27027,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27218,7 +27233,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27424,7 +27439,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27502,7 +27517,7 @@
         <v>2.75</v>
       </c>
       <c r="AP128">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ128">
         <v>2.36</v>
@@ -27630,7 +27645,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27708,7 +27723,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -27836,7 +27851,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27917,7 +27932,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR130">
         <v>1.77</v>
@@ -28123,7 +28138,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28248,7 +28263,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28454,7 +28469,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28532,7 +28547,7 @@
         <v>1.43</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ133">
         <v>1.1</v>
@@ -28660,7 +28675,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28741,7 +28756,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ134">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR134">
         <v>1.61</v>
@@ -28944,7 +28959,7 @@
         <v>2.56</v>
       </c>
       <c r="AP135">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ135">
         <v>2.36</v>
@@ -29072,7 +29087,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29150,7 +29165,7 @@
         <v>0.71</v>
       </c>
       <c r="AP136">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ136">
         <v>0.89</v>
@@ -29278,7 +29293,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29359,7 +29374,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ137">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR137">
         <v>1.88</v>
@@ -29484,7 +29499,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29690,7 +29705,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29896,7 +29911,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -29977,7 +29992,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ140">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR140">
         <v>1.53</v>
@@ -30386,7 +30401,7 @@
         <v>0.63</v>
       </c>
       <c r="AP142">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ142">
         <v>1.1</v>
@@ -30514,7 +30529,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30592,7 +30607,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ143">
         <v>0.7</v>
@@ -30926,7 +30941,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q145">
         <v>2.88</v>
@@ -31956,7 +31971,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32037,7 +32052,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -32240,7 +32255,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AQ151">
         <v>1</v>
@@ -32449,7 +32464,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ152">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR152">
         <v>1.73</v>
@@ -32532,7 +32547,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7321770</v>
+        <v>7321765</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32541,16 +32556,16 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45521.5625</v>
+        <v>45520.83333333334</v>
       </c>
       <c r="F153">
         <v>20</v>
       </c>
       <c r="G153" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H153" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -32562,13 +32577,13 @@
         <v>0</v>
       </c>
       <c r="L153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M153">
         <v>0</v>
       </c>
       <c r="N153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O153" t="s">
         <v>190</v>
@@ -32577,130 +32592,130 @@
         <v>86</v>
       </c>
       <c r="Q153">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R153">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="S153">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="T153">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="U153">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="V153">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="W153">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="X153">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y153">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="Z153">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AA153">
-        <v>4.2</v>
+        <v>3.83</v>
       </c>
       <c r="AB153">
-        <v>4.5</v>
+        <v>5.22</v>
       </c>
       <c r="AC153">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD153">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AE153">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AF153">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="AG153">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AH153">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="AI153">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AJ153">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AK153">
         <v>1.16</v>
       </c>
       <c r="AL153">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM153">
-        <v>2.32</v>
+        <v>1.87</v>
       </c>
       <c r="AN153">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AO153">
-        <v>0.78</v>
+        <v>1.56</v>
       </c>
       <c r="AP153">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ153">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="AR153">
+        <v>1.76</v>
+      </c>
+      <c r="AS153">
+        <v>1.21</v>
+      </c>
+      <c r="AT153">
+        <v>2.97</v>
+      </c>
+      <c r="AU153">
+        <v>3</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>3</v>
+      </c>
+      <c r="AX153">
+        <v>3</v>
+      </c>
+      <c r="AY153">
+        <v>6</v>
+      </c>
+      <c r="AZ153">
+        <v>7</v>
+      </c>
+      <c r="BA153">
+        <v>3</v>
+      </c>
+      <c r="BB153">
+        <v>5</v>
+      </c>
+      <c r="BC153">
+        <v>8</v>
+      </c>
+      <c r="BD153">
         <v>1.55</v>
       </c>
-      <c r="AS153">
-        <v>1.01</v>
-      </c>
-      <c r="AT153">
-        <v>2.56</v>
-      </c>
-      <c r="AU153">
-        <v>11</v>
-      </c>
-      <c r="AV153">
-        <v>5</v>
-      </c>
-      <c r="AW153">
-        <v>11</v>
-      </c>
-      <c r="AX153">
-        <v>6</v>
-      </c>
-      <c r="AY153">
-        <v>22</v>
-      </c>
-      <c r="AZ153">
-        <v>11</v>
-      </c>
-      <c r="BA153">
-        <v>7</v>
-      </c>
-      <c r="BB153">
-        <v>3</v>
-      </c>
-      <c r="BC153">
-        <v>10</v>
-      </c>
-      <c r="BD153">
-        <v>1.57</v>
-      </c>
       <c r="BE153">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="BF153">
-        <v>2.82</v>
+        <v>2.91</v>
       </c>
       <c r="BG153">
         <v>1.21</v>
@@ -32738,7 +32753,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7321766</v>
+        <v>7321770</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32747,196 +32762,196 @@
         <v>69</v>
       </c>
       <c r="E154" s="2">
-        <v>45521.66666666666</v>
+        <v>45521.5625</v>
       </c>
       <c r="F154">
         <v>20</v>
       </c>
       <c r="G154" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H154" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O154" t="s">
+        <v>191</v>
+      </c>
+      <c r="P154" t="s">
         <v>86</v>
       </c>
-      <c r="P154" t="s">
-        <v>275</v>
-      </c>
       <c r="Q154">
-        <v>3.36</v>
+        <v>2.1</v>
       </c>
       <c r="R154">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="S154">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="T154">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="U154">
-        <v>3.14</v>
+        <v>3.5</v>
       </c>
       <c r="V154">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="W154">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="X154">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y154">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="Z154">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="AA154">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AB154">
-        <v>2.37</v>
+        <v>4.5</v>
       </c>
       <c r="AC154">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD154">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE154">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AF154">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="AG154">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AH154">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="AI154">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AJ154">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AK154">
-        <v>1.53</v>
+        <v>1.16</v>
       </c>
       <c r="AL154">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AM154">
-        <v>1.48</v>
+        <v>2.32</v>
       </c>
       <c r="AN154">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AO154">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="AR154">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AS154">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="AT154">
-        <v>2.81</v>
+        <v>2.56</v>
       </c>
       <c r="AU154">
+        <v>11</v>
+      </c>
+      <c r="AV154">
         <v>5</v>
       </c>
-      <c r="AV154">
-        <v>8</v>
-      </c>
       <c r="AW154">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX154">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY154">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ154">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA154">
+        <v>7</v>
+      </c>
+      <c r="BB154">
+        <v>3</v>
+      </c>
+      <c r="BC154">
         <v>10</v>
       </c>
-      <c r="BB154">
-        <v>2</v>
-      </c>
-      <c r="BC154">
-        <v>12</v>
-      </c>
       <c r="BD154">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="BE154">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BF154">
+        <v>2.82</v>
+      </c>
+      <c r="BG154">
+        <v>1.21</v>
+      </c>
+      <c r="BH154">
+        <v>3.65</v>
+      </c>
+      <c r="BI154">
+        <v>1.41</v>
+      </c>
+      <c r="BJ154">
+        <v>2.55</v>
+      </c>
+      <c r="BK154">
+        <v>1.71</v>
+      </c>
+      <c r="BL154">
         <v>1.95</v>
       </c>
-      <c r="BG154">
-        <v>1.25</v>
-      </c>
-      <c r="BH154">
-        <v>3.6</v>
-      </c>
-      <c r="BI154">
-        <v>1.42</v>
-      </c>
-      <c r="BJ154">
-        <v>2.62</v>
-      </c>
-      <c r="BK154">
-        <v>1.82</v>
-      </c>
-      <c r="BL154">
-        <v>1.98</v>
-      </c>
       <c r="BM154">
-        <v>2.13</v>
+        <v>2.17</v>
       </c>
       <c r="BN154">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="BO154">
-        <v>2.62</v>
+        <v>2.88</v>
       </c>
       <c r="BP154">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32944,7 +32959,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7321771</v>
+        <v>7321766</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32953,16 +32968,16 @@
         <v>69</v>
       </c>
       <c r="E155" s="2">
-        <v>45521.77083333334</v>
+        <v>45521.66666666666</v>
       </c>
       <c r="F155">
         <v>20</v>
       </c>
       <c r="G155" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H155" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -32977,172 +32992,172 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N155">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O155" t="s">
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q155">
-        <v>4</v>
+        <v>3.36</v>
       </c>
       <c r="R155">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="S155">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="T155">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="U155">
-        <v>2.75</v>
+        <v>3.14</v>
       </c>
       <c r="V155">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="W155">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X155">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="Y155">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Z155">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="AA155">
         <v>3.3</v>
       </c>
       <c r="AB155">
-        <v>2</v>
+        <v>2.37</v>
       </c>
       <c r="AC155">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD155">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AE155">
         <v>1.25</v>
       </c>
       <c r="AF155">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AG155">
         <v>1.8</v>
       </c>
       <c r="AH155">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AI155">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="AJ155">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AK155">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AL155">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AM155">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="AN155">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO155">
-        <v>2.3</v>
+        <v>0.63</v>
       </c>
       <c r="AP155">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>2.36</v>
+        <v>0.89</v>
       </c>
       <c r="AR155">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="AS155">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="AT155">
-        <v>3.26</v>
+        <v>2.81</v>
       </c>
       <c r="AU155">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV155">
         <v>8</v>
       </c>
       <c r="AW155">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AX155">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY155">
         <v>17</v>
       </c>
       <c r="AZ155">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA155">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC155">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BD155">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="BE155">
         <v>8</v>
       </c>
       <c r="BF155">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="BG155">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="BH155">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="BI155">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="BJ155">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="BK155">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="BL155">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="BM155">
-        <v>2.24</v>
+        <v>2.13</v>
       </c>
       <c r="BN155">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="BO155">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="BP155">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33150,7 +33165,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7321772</v>
+        <v>7321771</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33159,196 +33174,1020 @@
         <v>69</v>
       </c>
       <c r="E156" s="2">
-        <v>45521.875</v>
+        <v>45521.77083333334</v>
       </c>
       <c r="F156">
         <v>20</v>
       </c>
       <c r="G156" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H156" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I156">
         <v>0</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O156" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R156">
         <v>2.2</v>
       </c>
       <c r="S156">
+        <v>2.75</v>
+      </c>
+      <c r="T156">
+        <v>1.4</v>
+      </c>
+      <c r="U156">
+        <v>2.75</v>
+      </c>
+      <c r="V156">
+        <v>2.75</v>
+      </c>
+      <c r="W156">
+        <v>1.4</v>
+      </c>
+      <c r="X156">
+        <v>8</v>
+      </c>
+      <c r="Y156">
+        <v>1.08</v>
+      </c>
+      <c r="Z156">
+        <v>3.1</v>
+      </c>
+      <c r="AA156">
+        <v>3.3</v>
+      </c>
+      <c r="AB156">
+        <v>2</v>
+      </c>
+      <c r="AC156">
+        <v>1.05</v>
+      </c>
+      <c r="AD156">
+        <v>7.8</v>
+      </c>
+      <c r="AE156">
+        <v>1.25</v>
+      </c>
+      <c r="AF156">
+        <v>3.5</v>
+      </c>
+      <c r="AG156">
+        <v>1.8</v>
+      </c>
+      <c r="AH156">
+        <v>1.83</v>
+      </c>
+      <c r="AI156">
+        <v>1.73</v>
+      </c>
+      <c r="AJ156">
+        <v>2</v>
+      </c>
+      <c r="AK156">
+        <v>1.6</v>
+      </c>
+      <c r="AL156">
+        <v>1.24</v>
+      </c>
+      <c r="AM156">
+        <v>1.26</v>
+      </c>
+      <c r="AN156">
+        <v>1.33</v>
+      </c>
+      <c r="AO156">
+        <v>2.3</v>
+      </c>
+      <c r="AP156">
+        <v>1.2</v>
+      </c>
+      <c r="AQ156">
+        <v>2.36</v>
+      </c>
+      <c r="AR156">
+        <v>1.51</v>
+      </c>
+      <c r="AS156">
+        <v>1.75</v>
+      </c>
+      <c r="AT156">
+        <v>3.26</v>
+      </c>
+      <c r="AU156">
+        <v>9</v>
+      </c>
+      <c r="AV156">
+        <v>8</v>
+      </c>
+      <c r="AW156">
+        <v>8</v>
+      </c>
+      <c r="AX156">
+        <v>3</v>
+      </c>
+      <c r="AY156">
+        <v>17</v>
+      </c>
+      <c r="AZ156">
+        <v>11</v>
+      </c>
+      <c r="BA156">
+        <v>11</v>
+      </c>
+      <c r="BB156">
+        <v>5</v>
+      </c>
+      <c r="BC156">
+        <v>16</v>
+      </c>
+      <c r="BD156">
+        <v>2.28</v>
+      </c>
+      <c r="BE156">
+        <v>8</v>
+      </c>
+      <c r="BF156">
+        <v>1.85</v>
+      </c>
+      <c r="BG156">
+        <v>1.29</v>
+      </c>
+      <c r="BH156">
+        <v>3.3</v>
+      </c>
+      <c r="BI156">
+        <v>1.47</v>
+      </c>
+      <c r="BJ156">
+        <v>2.58</v>
+      </c>
+      <c r="BK156">
+        <v>1.9</v>
+      </c>
+      <c r="BL156">
+        <v>1.9</v>
+      </c>
+      <c r="BM156">
+        <v>2.24</v>
+      </c>
+      <c r="BN156">
+        <v>1.62</v>
+      </c>
+      <c r="BO156">
+        <v>2.8</v>
+      </c>
+      <c r="BP156">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7321772</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45521.875</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>70</v>
+      </c>
+      <c r="H157" t="s">
+        <v>85</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>87</v>
+      </c>
+      <c r="P157" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q157">
+        <v>3</v>
+      </c>
+      <c r="R157">
+        <v>2.2</v>
+      </c>
+      <c r="S157">
         <v>3.4</v>
       </c>
-      <c r="T156">
+      <c r="T157">
         <v>1.36</v>
       </c>
-      <c r="U156">
+      <c r="U157">
         <v>3</v>
       </c>
-      <c r="V156">
+      <c r="V157">
         <v>2.63</v>
       </c>
-      <c r="W156">
+      <c r="W157">
         <v>1.44</v>
       </c>
-      <c r="X156">
+      <c r="X157">
         <v>7</v>
       </c>
-      <c r="Y156">
+      <c r="Y157">
         <v>1.1</v>
       </c>
-      <c r="Z156">
+      <c r="Z157">
         <v>2.3</v>
       </c>
-      <c r="AA156">
+      <c r="AA157">
         <v>3.45</v>
       </c>
-      <c r="AB156">
+      <c r="AB157">
         <v>2.9</v>
       </c>
-      <c r="AC156">
+      <c r="AC157">
         <v>1.01</v>
       </c>
-      <c r="AD156">
+      <c r="AD157">
         <v>9.9</v>
       </c>
-      <c r="AE156">
+      <c r="AE157">
         <v>1.23</v>
       </c>
-      <c r="AF156">
+      <c r="AF157">
         <v>3.56</v>
       </c>
-      <c r="AG156">
+      <c r="AG157">
         <v>1.76</v>
       </c>
-      <c r="AH156">
+      <c r="AH157">
         <v>1.97</v>
       </c>
-      <c r="AI156">
+      <c r="AI157">
         <v>1.67</v>
       </c>
-      <c r="AJ156">
+      <c r="AJ157">
         <v>2.1</v>
       </c>
-      <c r="AK156">
+      <c r="AK157">
         <v>1.39</v>
       </c>
-      <c r="AL156">
+      <c r="AL157">
         <v>1.28</v>
       </c>
-      <c r="AM156">
+      <c r="AM157">
         <v>1.59</v>
       </c>
-      <c r="AN156">
+      <c r="AN157">
         <v>1.56</v>
       </c>
-      <c r="AO156">
+      <c r="AO157">
         <v>1.44</v>
       </c>
-      <c r="AP156">
+      <c r="AP157">
         <v>1.5</v>
       </c>
-      <c r="AQ156">
+      <c r="AQ157">
         <v>1.4</v>
       </c>
-      <c r="AR156">
+      <c r="AR157">
         <v>1.56</v>
       </c>
-      <c r="AS156">
+      <c r="AS157">
         <v>1.26</v>
       </c>
-      <c r="AT156">
+      <c r="AT157">
         <v>2.82</v>
       </c>
-      <c r="AU156">
+      <c r="AU157">
         <v>4</v>
       </c>
-      <c r="AV156">
+      <c r="AV157">
         <v>5</v>
       </c>
-      <c r="AW156">
+      <c r="AW157">
         <v>5</v>
       </c>
-      <c r="AX156">
+      <c r="AX157">
         <v>8</v>
       </c>
-      <c r="AY156">
+      <c r="AY157">
         <v>9</v>
       </c>
-      <c r="AZ156">
+      <c r="AZ157">
         <v>13</v>
       </c>
-      <c r="BA156">
-        <v>2</v>
-      </c>
-      <c r="BB156">
+      <c r="BA157">
+        <v>2</v>
+      </c>
+      <c r="BB157">
         <v>4</v>
       </c>
-      <c r="BC156">
+      <c r="BC157">
         <v>6</v>
       </c>
-      <c r="BD156">
+      <c r="BD157">
         <v>1.75</v>
       </c>
-      <c r="BE156">
+      <c r="BE157">
         <v>6.7</v>
       </c>
-      <c r="BF156">
+      <c r="BF157">
         <v>2.52</v>
       </c>
-      <c r="BG156">
+      <c r="BG157">
         <v>1.23</v>
       </c>
-      <c r="BH156">
+      <c r="BH157">
         <v>3.5</v>
       </c>
-      <c r="BI156">
+      <c r="BI157">
         <v>1.43</v>
       </c>
-      <c r="BJ156">
+      <c r="BJ157">
         <v>2.48</v>
       </c>
-      <c r="BK156">
+      <c r="BK157">
         <v>1.8</v>
       </c>
-      <c r="BL156">
-        <v>2</v>
-      </c>
-      <c r="BM156">
+      <c r="BL157">
+        <v>2</v>
+      </c>
+      <c r="BM157">
         <v>2.25</v>
       </c>
-      <c r="BN156">
+      <c r="BN157">
         <v>1.53</v>
       </c>
-      <c r="BO156">
+      <c r="BO157">
         <v>3</v>
       </c>
-      <c r="BP156">
+      <c r="BP157">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7321768</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45522.54166666666</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>84</v>
+      </c>
+      <c r="H158" t="s">
+        <v>77</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>192</v>
+      </c>
+      <c r="P158" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q158">
+        <v>3.5</v>
+      </c>
+      <c r="R158">
+        <v>2.1</v>
+      </c>
+      <c r="S158">
+        <v>3.25</v>
+      </c>
+      <c r="T158">
+        <v>1.44</v>
+      </c>
+      <c r="U158">
+        <v>2.63</v>
+      </c>
+      <c r="V158">
+        <v>3.25</v>
+      </c>
+      <c r="W158">
+        <v>1.33</v>
+      </c>
+      <c r="X158">
+        <v>9</v>
+      </c>
+      <c r="Y158">
+        <v>1.07</v>
+      </c>
+      <c r="Z158">
+        <v>3.32</v>
+      </c>
+      <c r="AA158">
+        <v>3.23</v>
+      </c>
+      <c r="AB158">
+        <v>1.93</v>
+      </c>
+      <c r="AC158">
+        <v>1.03</v>
+      </c>
+      <c r="AD158">
+        <v>8.1</v>
+      </c>
+      <c r="AE158">
+        <v>1.33</v>
+      </c>
+      <c r="AF158">
+        <v>2.93</v>
+      </c>
+      <c r="AG158">
+        <v>1.85</v>
+      </c>
+      <c r="AH158">
+        <v>1.76</v>
+      </c>
+      <c r="AI158">
+        <v>1.83</v>
+      </c>
+      <c r="AJ158">
+        <v>1.83</v>
+      </c>
+      <c r="AK158">
+        <v>1.5</v>
+      </c>
+      <c r="AL158">
+        <v>1.31</v>
+      </c>
+      <c r="AM158">
+        <v>1.42</v>
+      </c>
+      <c r="AN158">
+        <v>0.78</v>
+      </c>
+      <c r="AO158">
+        <v>1.5</v>
+      </c>
+      <c r="AP158">
+        <v>1</v>
+      </c>
+      <c r="AQ158">
+        <v>1.36</v>
+      </c>
+      <c r="AR158">
+        <v>1.39</v>
+      </c>
+      <c r="AS158">
+        <v>1.33</v>
+      </c>
+      <c r="AT158">
+        <v>2.72</v>
+      </c>
+      <c r="AU158">
+        <v>4</v>
+      </c>
+      <c r="AV158">
+        <v>6</v>
+      </c>
+      <c r="AW158">
+        <v>7</v>
+      </c>
+      <c r="AX158">
+        <v>5</v>
+      </c>
+      <c r="AY158">
+        <v>11</v>
+      </c>
+      <c r="AZ158">
+        <v>11</v>
+      </c>
+      <c r="BA158">
+        <v>1</v>
+      </c>
+      <c r="BB158">
+        <v>7</v>
+      </c>
+      <c r="BC158">
+        <v>8</v>
+      </c>
+      <c r="BD158">
+        <v>2.26</v>
+      </c>
+      <c r="BE158">
+        <v>7.5</v>
+      </c>
+      <c r="BF158">
+        <v>1.99</v>
+      </c>
+      <c r="BG158">
+        <v>1.24</v>
+      </c>
+      <c r="BH158">
+        <v>3.4</v>
+      </c>
+      <c r="BI158">
+        <v>1.46</v>
+      </c>
+      <c r="BJ158">
+        <v>2.4</v>
+      </c>
+      <c r="BK158">
+        <v>1.85</v>
+      </c>
+      <c r="BL158">
+        <v>1.95</v>
+      </c>
+      <c r="BM158">
+        <v>2.32</v>
+      </c>
+      <c r="BN158">
+        <v>1.5</v>
+      </c>
+      <c r="BO158">
+        <v>3.1</v>
+      </c>
+      <c r="BP158">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7321767</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45522.66666666666</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>82</v>
+      </c>
+      <c r="H159" t="s">
+        <v>80</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>193</v>
+      </c>
+      <c r="P159" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q159">
+        <v>2.88</v>
+      </c>
+      <c r="R159">
+        <v>2.4</v>
+      </c>
+      <c r="S159">
+        <v>3.2</v>
+      </c>
+      <c r="T159">
+        <v>1.25</v>
+      </c>
+      <c r="U159">
+        <v>3.75</v>
+      </c>
+      <c r="V159">
+        <v>2.25</v>
+      </c>
+      <c r="W159">
+        <v>1.57</v>
+      </c>
+      <c r="X159">
+        <v>5.5</v>
+      </c>
+      <c r="Y159">
+        <v>1.14</v>
+      </c>
+      <c r="Z159">
+        <v>2.52</v>
+      </c>
+      <c r="AA159">
+        <v>3.43</v>
+      </c>
+      <c r="AB159">
+        <v>2.26</v>
+      </c>
+      <c r="AC159">
+        <v>1.01</v>
+      </c>
+      <c r="AD159">
+        <v>12</v>
+      </c>
+      <c r="AE159">
+        <v>1.13</v>
+      </c>
+      <c r="AF159">
+        <v>4.85</v>
+      </c>
+      <c r="AG159">
+        <v>1.61</v>
+      </c>
+      <c r="AH159">
+        <v>2.13</v>
+      </c>
+      <c r="AI159">
+        <v>1.44</v>
+      </c>
+      <c r="AJ159">
+        <v>2.63</v>
+      </c>
+      <c r="AK159">
+        <v>1.45</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.56</v>
+      </c>
+      <c r="AN159">
+        <v>1.3</v>
+      </c>
+      <c r="AO159">
+        <v>1.5</v>
+      </c>
+      <c r="AP159">
+        <v>1.45</v>
+      </c>
+      <c r="AQ159">
+        <v>1.36</v>
+      </c>
+      <c r="AR159">
+        <v>1.68</v>
+      </c>
+      <c r="AS159">
+        <v>1.48</v>
+      </c>
+      <c r="AT159">
+        <v>3.16</v>
+      </c>
+      <c r="AU159">
+        <v>9</v>
+      </c>
+      <c r="AV159">
+        <v>5</v>
+      </c>
+      <c r="AW159">
+        <v>8</v>
+      </c>
+      <c r="AX159">
+        <v>8</v>
+      </c>
+      <c r="AY159">
+        <v>17</v>
+      </c>
+      <c r="AZ159">
+        <v>13</v>
+      </c>
+      <c r="BA159">
+        <v>4</v>
+      </c>
+      <c r="BB159">
+        <v>12</v>
+      </c>
+      <c r="BC159">
+        <v>16</v>
+      </c>
+      <c r="BD159">
+        <v>1.69</v>
+      </c>
+      <c r="BE159">
+        <v>8</v>
+      </c>
+      <c r="BF159">
+        <v>2.54</v>
+      </c>
+      <c r="BG159">
+        <v>1.26</v>
+      </c>
+      <c r="BH159">
+        <v>3.25</v>
+      </c>
+      <c r="BI159">
+        <v>1.49</v>
+      </c>
+      <c r="BJ159">
+        <v>2.33</v>
+      </c>
+      <c r="BK159">
+        <v>1.9</v>
+      </c>
+      <c r="BL159">
+        <v>1.9</v>
+      </c>
+      <c r="BM159">
+        <v>2.38</v>
+      </c>
+      <c r="BN159">
+        <v>1.47</v>
+      </c>
+      <c r="BO159">
+        <v>3.2</v>
+      </c>
+      <c r="BP159">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7321769</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45522.66666666666</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>74</v>
+      </c>
+      <c r="H160" t="s">
+        <v>75</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>194</v>
+      </c>
+      <c r="P160" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q160">
+        <v>3.6</v>
+      </c>
+      <c r="R160">
+        <v>2.1</v>
+      </c>
+      <c r="S160">
+        <v>3.1</v>
+      </c>
+      <c r="T160">
+        <v>1.44</v>
+      </c>
+      <c r="U160">
+        <v>2.63</v>
+      </c>
+      <c r="V160">
+        <v>3</v>
+      </c>
+      <c r="W160">
+        <v>1.36</v>
+      </c>
+      <c r="X160">
+        <v>9</v>
+      </c>
+      <c r="Y160">
+        <v>1.07</v>
+      </c>
+      <c r="Z160">
+        <v>2.78</v>
+      </c>
+      <c r="AA160">
+        <v>3.24</v>
+      </c>
+      <c r="AB160">
+        <v>2.17</v>
+      </c>
+      <c r="AC160">
+        <v>1.03</v>
+      </c>
+      <c r="AD160">
+        <v>8.4</v>
+      </c>
+      <c r="AE160">
+        <v>1.31</v>
+      </c>
+      <c r="AF160">
+        <v>3.04</v>
+      </c>
+      <c r="AG160">
+        <v>1.85</v>
+      </c>
+      <c r="AH160">
+        <v>1.76</v>
+      </c>
+      <c r="AI160">
+        <v>1.8</v>
+      </c>
+      <c r="AJ160">
+        <v>1.91</v>
+      </c>
+      <c r="AK160">
+        <v>1.49</v>
+      </c>
+      <c r="AL160">
+        <v>1.27</v>
+      </c>
+      <c r="AM160">
+        <v>1.32</v>
+      </c>
+      <c r="AN160">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO160">
+        <v>2.1</v>
+      </c>
+      <c r="AP160">
+        <v>0.8</v>
+      </c>
+      <c r="AQ160">
+        <v>1.91</v>
+      </c>
+      <c r="AR160">
+        <v>1.42</v>
+      </c>
+      <c r="AS160">
+        <v>1.13</v>
+      </c>
+      <c r="AT160">
+        <v>2.55</v>
+      </c>
+      <c r="AU160">
+        <v>7</v>
+      </c>
+      <c r="AV160">
+        <v>6</v>
+      </c>
+      <c r="AW160">
+        <v>5</v>
+      </c>
+      <c r="AX160">
+        <v>4</v>
+      </c>
+      <c r="AY160">
+        <v>12</v>
+      </c>
+      <c r="AZ160">
+        <v>10</v>
+      </c>
+      <c r="BA160">
+        <v>1</v>
+      </c>
+      <c r="BB160">
+        <v>1</v>
+      </c>
+      <c r="BC160">
+        <v>2</v>
+      </c>
+      <c r="BD160">
+        <v>1.58</v>
+      </c>
+      <c r="BE160">
+        <v>6.75</v>
+      </c>
+      <c r="BF160">
+        <v>3.08</v>
+      </c>
+      <c r="BG160">
+        <v>1.21</v>
+      </c>
+      <c r="BH160">
+        <v>3.65</v>
+      </c>
+      <c r="BI160">
+        <v>1.41</v>
+      </c>
+      <c r="BJ160">
+        <v>2.55</v>
+      </c>
+      <c r="BK160">
+        <v>1.71</v>
+      </c>
+      <c r="BL160">
+        <v>1.95</v>
+      </c>
+      <c r="BM160">
+        <v>2.17</v>
+      </c>
+      <c r="BN160">
+        <v>1.57</v>
+      </c>
+      <c r="BO160">
+        <v>2.88</v>
+      </c>
+      <c r="BP160">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1224,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ2">
         <v>1.4</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ19">
         <v>1.3</v>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ28">
         <v>0.3</v>
@@ -11655,7 +11655,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -13715,7 +13715,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ61">
         <v>1.36</v>
@@ -16805,7 +16805,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ76">
         <v>0.7</v>
@@ -21749,7 +21749,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ100">
         <v>1.1</v>
@@ -26075,7 +26075,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ121">
         <v>0.89</v>
@@ -28753,7 +28753,7 @@
         <v>2.13</v>
       </c>
       <c r="AP134">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ134">
         <v>1.91</v>
@@ -33491,7 +33491,7 @@
         <v>1.44</v>
       </c>
       <c r="AP157">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ157">
         <v>1.4</v>
@@ -34188,6 +34188,212 @@
       </c>
       <c r="BP160">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7321780</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45526.83333333334</v>
+      </c>
+      <c r="F161">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>70</v>
+      </c>
+      <c r="H161" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>86</v>
+      </c>
+      <c r="P161" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q161">
+        <v>2.65</v>
+      </c>
+      <c r="R161">
+        <v>2.3</v>
+      </c>
+      <c r="S161">
+        <v>3.75</v>
+      </c>
+      <c r="T161">
+        <v>1.29</v>
+      </c>
+      <c r="U161">
+        <v>3.3</v>
+      </c>
+      <c r="V161">
+        <v>2.4</v>
+      </c>
+      <c r="W161">
+        <v>1.51</v>
+      </c>
+      <c r="X161">
+        <v>5.45</v>
+      </c>
+      <c r="Y161">
+        <v>1.12</v>
+      </c>
+      <c r="Z161">
+        <v>1.91</v>
+      </c>
+      <c r="AA161">
+        <v>3.5</v>
+      </c>
+      <c r="AB161">
+        <v>3.2</v>
+      </c>
+      <c r="AC161">
+        <v>1.02</v>
+      </c>
+      <c r="AD161">
+        <v>15</v>
+      </c>
+      <c r="AE161">
+        <v>1.2</v>
+      </c>
+      <c r="AF161">
+        <v>4.33</v>
+      </c>
+      <c r="AG161">
+        <v>1.61</v>
+      </c>
+      <c r="AH161">
+        <v>2.05</v>
+      </c>
+      <c r="AI161">
+        <v>1.6</v>
+      </c>
+      <c r="AJ161">
+        <v>2.3</v>
+      </c>
+      <c r="AK161">
+        <v>1.33</v>
+      </c>
+      <c r="AL161">
+        <v>1.22</v>
+      </c>
+      <c r="AM161">
+        <v>1.8</v>
+      </c>
+      <c r="AN161">
+        <v>1.5</v>
+      </c>
+      <c r="AO161">
+        <v>1</v>
+      </c>
+      <c r="AP161">
+        <v>1.45</v>
+      </c>
+      <c r="AQ161">
+        <v>1</v>
+      </c>
+      <c r="AR161">
+        <v>1.52</v>
+      </c>
+      <c r="AS161">
+        <v>1.4</v>
+      </c>
+      <c r="AT161">
+        <v>2.92</v>
+      </c>
+      <c r="AU161">
+        <v>11</v>
+      </c>
+      <c r="AV161">
+        <v>5</v>
+      </c>
+      <c r="AW161">
+        <v>8</v>
+      </c>
+      <c r="AX161">
+        <v>6</v>
+      </c>
+      <c r="AY161">
+        <v>19</v>
+      </c>
+      <c r="AZ161">
+        <v>11</v>
+      </c>
+      <c r="BA161">
+        <v>11</v>
+      </c>
+      <c r="BB161">
+        <v>2</v>
+      </c>
+      <c r="BC161">
+        <v>13</v>
+      </c>
+      <c r="BD161">
+        <v>1.53</v>
+      </c>
+      <c r="BE161">
+        <v>6.9</v>
+      </c>
+      <c r="BF161">
+        <v>3.26</v>
+      </c>
+      <c r="BG161">
+        <v>1.25</v>
+      </c>
+      <c r="BH161">
+        <v>3.6</v>
+      </c>
+      <c r="BI161">
+        <v>1.44</v>
+      </c>
+      <c r="BJ161">
+        <v>2.6</v>
+      </c>
+      <c r="BK161">
+        <v>1.8</v>
+      </c>
+      <c r="BL161">
+        <v>1.91</v>
+      </c>
+      <c r="BM161">
+        <v>2.23</v>
+      </c>
+      <c r="BN161">
+        <v>1.64</v>
+      </c>
+      <c r="BO161">
+        <v>2.7</v>
+      </c>
+      <c r="BP161">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,12 @@
     <t>['57', '63']</t>
   </si>
   <si>
+    <t>['3', '18', '45+3', '89']</t>
+  </si>
+  <si>
+    <t>['74', '79', '84']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -863,6 +869,9 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['45+1', '52', '90']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1689,7 +1698,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1895,7 +1904,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2101,7 +2110,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2307,7 +2316,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2513,7 +2522,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2719,7 +2728,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2800,7 +2809,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ8">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3006,7 +3015,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ9">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3209,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ10">
         <v>1.3</v>
@@ -3337,7 +3346,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3543,7 +3552,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3955,7 +3964,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4367,7 +4376,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4573,7 +4582,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4985,7 +4994,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5397,7 +5406,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5603,7 +5612,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5809,7 +5818,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6427,7 +6436,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6633,7 +6642,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6920,7 +6929,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ28">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR28">
         <v>1.44</v>
@@ -7045,7 +7054,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7251,7 +7260,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7332,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR30">
         <v>1.72</v>
@@ -7663,7 +7672,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7947,7 +7956,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ33">
         <v>1.1</v>
@@ -8568,7 +8577,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ36">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR36">
         <v>1.68</v>
@@ -9517,7 +9526,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9595,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ41">
         <v>0.78</v>
@@ -9723,7 +9732,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9929,7 +9938,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10135,7 +10144,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10547,7 +10556,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10959,7 +10968,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11165,7 +11174,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12195,7 +12204,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12401,7 +12410,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12482,7 +12491,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ55">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR55">
         <v>1.44</v>
@@ -12607,7 +12616,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12813,7 +12822,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13019,7 +13028,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13509,7 +13518,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ60">
         <v>1.4</v>
@@ -13637,7 +13646,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13843,7 +13852,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14130,7 +14139,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ63">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14255,7 +14264,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14336,7 +14345,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ64">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR64">
         <v>1.82</v>
@@ -14667,7 +14676,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14873,7 +14882,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15079,7 +15088,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15697,7 +15706,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15903,7 +15912,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15984,7 +15993,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR72">
         <v>1.48</v>
@@ -16109,7 +16118,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16315,7 +16324,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16521,7 +16530,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16808,7 +16817,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ76">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR76">
         <v>1.51</v>
@@ -16933,7 +16942,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17139,7 +17148,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17963,7 +17972,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18044,7 +18053,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ82">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18375,7 +18384,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18581,7 +18590,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18787,7 +18796,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -18993,7 +19002,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19071,7 +19080,7 @@
         <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ87">
         <v>1.36</v>
@@ -19199,7 +19208,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19405,7 +19414,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19611,7 +19620,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19817,7 +19826,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20023,7 +20032,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20310,7 +20319,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ93">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20435,7 +20444,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20641,7 +20650,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20847,7 +20856,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21134,7 +21143,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ97">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21259,7 +21268,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21465,7 +21474,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21543,7 +21552,7 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ99">
         <v>1.91</v>
@@ -21671,7 +21680,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22083,7 +22092,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22289,7 +22298,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22701,7 +22710,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23113,7 +23122,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23319,7 +23328,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23400,7 +23409,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ108">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR108">
         <v>1.53</v>
@@ -23525,7 +23534,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23731,7 +23740,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24015,7 +24024,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ111">
         <v>1.1</v>
@@ -24143,7 +24152,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24349,7 +24358,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24555,7 +24564,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24761,7 +24770,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24967,7 +24976,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25173,7 +25182,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25254,7 +25263,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ117">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR117">
         <v>2.01</v>
@@ -25791,7 +25800,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26203,7 +26212,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26284,7 +26293,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ122">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR122">
         <v>1.63</v>
@@ -26696,7 +26705,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ124">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -27027,7 +27036,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27233,7 +27242,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27439,7 +27448,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27645,7 +27654,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27851,7 +27860,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28263,7 +28272,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28469,7 +28478,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28675,7 +28684,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29087,7 +29096,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29293,7 +29302,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29499,7 +29508,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29705,7 +29714,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29911,7 +29920,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30529,7 +30538,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30610,7 +30619,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ143">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR143">
         <v>1.62</v>
@@ -30813,10 +30822,10 @@
         <v>0.33</v>
       </c>
       <c r="AP144">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ144">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AR144">
         <v>1.7</v>
@@ -30941,7 +30950,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q145">
         <v>2.88</v>
@@ -31843,7 +31852,7 @@
         <v>1.75</v>
       </c>
       <c r="AP149">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ149">
         <v>1.67</v>
@@ -31971,7 +31980,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32876,7 +32885,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR154">
         <v>1.55</v>
@@ -33001,7 +33010,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33207,7 +33216,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33413,7 +33422,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33825,7 +33834,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34031,7 +34040,7 @@
         <v>194</v>
       </c>
       <c r="P160" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q160">
         <v>3.6</v>
@@ -34394,6 +34403,418 @@
       </c>
       <c r="BP161">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7321773</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45527.83333333334</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s">
+        <v>73</v>
+      </c>
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>3</v>
+      </c>
+      <c r="L162">
+        <v>4</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162" t="s">
+        <v>195</v>
+      </c>
+      <c r="P162" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q162">
+        <v>1.78</v>
+      </c>
+      <c r="R162">
+        <v>2.7</v>
+      </c>
+      <c r="S162">
+        <v>7</v>
+      </c>
+      <c r="T162">
+        <v>1.24</v>
+      </c>
+      <c r="U162">
+        <v>3.7</v>
+      </c>
+      <c r="V162">
+        <v>2.27</v>
+      </c>
+      <c r="W162">
+        <v>1.58</v>
+      </c>
+      <c r="X162">
+        <v>4.95</v>
+      </c>
+      <c r="Y162">
+        <v>1.14</v>
+      </c>
+      <c r="Z162">
+        <v>1.33</v>
+      </c>
+      <c r="AA162">
+        <v>4.62</v>
+      </c>
+      <c r="AB162">
+        <v>7.05</v>
+      </c>
+      <c r="AC162">
+        <v>1.02</v>
+      </c>
+      <c r="AD162">
+        <v>17</v>
+      </c>
+      <c r="AE162">
+        <v>1.16</v>
+      </c>
+      <c r="AF162">
+        <v>5</v>
+      </c>
+      <c r="AG162">
+        <v>1.55</v>
+      </c>
+      <c r="AH162">
+        <v>2.35</v>
+      </c>
+      <c r="AI162">
+        <v>1.87</v>
+      </c>
+      <c r="AJ162">
+        <v>1.9</v>
+      </c>
+      <c r="AK162">
+        <v>1.05</v>
+      </c>
+      <c r="AL162">
+        <v>1.11</v>
+      </c>
+      <c r="AM162">
+        <v>3.4</v>
+      </c>
+      <c r="AN162">
+        <v>1.56</v>
+      </c>
+      <c r="AO162">
+        <v>0.7</v>
+      </c>
+      <c r="AP162">
+        <v>1.7</v>
+      </c>
+      <c r="AQ162">
+        <v>0.64</v>
+      </c>
+      <c r="AR162">
+        <v>1.89</v>
+      </c>
+      <c r="AS162">
+        <v>1.04</v>
+      </c>
+      <c r="AT162">
+        <v>2.93</v>
+      </c>
+      <c r="AU162">
+        <v>10</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>7</v>
+      </c>
+      <c r="AX162">
+        <v>4</v>
+      </c>
+      <c r="AY162">
+        <v>17</v>
+      </c>
+      <c r="AZ162">
+        <v>7</v>
+      </c>
+      <c r="BA162">
+        <v>5</v>
+      </c>
+      <c r="BB162">
+        <v>0</v>
+      </c>
+      <c r="BC162">
+        <v>5</v>
+      </c>
+      <c r="BD162">
+        <v>1.21</v>
+      </c>
+      <c r="BE162">
+        <v>11</v>
+      </c>
+      <c r="BF162">
+        <v>5.17</v>
+      </c>
+      <c r="BG162">
+        <v>1.19</v>
+      </c>
+      <c r="BH162">
+        <v>4</v>
+      </c>
+      <c r="BI162">
+        <v>1.36</v>
+      </c>
+      <c r="BJ162">
+        <v>2.9</v>
+      </c>
+      <c r="BK162">
+        <v>1.71</v>
+      </c>
+      <c r="BL162">
+        <v>2.11</v>
+      </c>
+      <c r="BM162">
+        <v>2.16</v>
+      </c>
+      <c r="BN162">
+        <v>1.68</v>
+      </c>
+      <c r="BO162">
+        <v>2.77</v>
+      </c>
+      <c r="BP162">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7321777</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45527.83333333334</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>84</v>
+      </c>
+      <c r="H163" t="s">
+        <v>72</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
+      <c r="M163">
+        <v>3</v>
+      </c>
+      <c r="N163">
+        <v>6</v>
+      </c>
+      <c r="O163" t="s">
+        <v>196</v>
+      </c>
+      <c r="P163" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q163">
+        <v>2.49</v>
+      </c>
+      <c r="R163">
+        <v>2.18</v>
+      </c>
+      <c r="S163">
+        <v>4.1</v>
+      </c>
+      <c r="T163">
+        <v>1.36</v>
+      </c>
+      <c r="U163">
+        <v>2.99</v>
+      </c>
+      <c r="V163">
+        <v>2.67</v>
+      </c>
+      <c r="W163">
+        <v>1.44</v>
+      </c>
+      <c r="X163">
+        <v>6.55</v>
+      </c>
+      <c r="Y163">
+        <v>1.09</v>
+      </c>
+      <c r="Z163">
+        <v>1.75</v>
+      </c>
+      <c r="AA163">
+        <v>3.55</v>
+      </c>
+      <c r="AB163">
+        <v>3.88</v>
+      </c>
+      <c r="AC163">
+        <v>1.01</v>
+      </c>
+      <c r="AD163">
+        <v>9.9</v>
+      </c>
+      <c r="AE163">
+        <v>1.23</v>
+      </c>
+      <c r="AF163">
+        <v>3.56</v>
+      </c>
+      <c r="AG163">
+        <v>1.81</v>
+      </c>
+      <c r="AH163">
+        <v>1.93</v>
+      </c>
+      <c r="AI163">
+        <v>1.69</v>
+      </c>
+      <c r="AJ163">
+        <v>2.04</v>
+      </c>
+      <c r="AK163">
+        <v>1.27</v>
+      </c>
+      <c r="AL163">
+        <v>1.27</v>
+      </c>
+      <c r="AM163">
+        <v>1.8</v>
+      </c>
+      <c r="AN163">
+        <v>1</v>
+      </c>
+      <c r="AO163">
+        <v>0.3</v>
+      </c>
+      <c r="AP163">
+        <v>1</v>
+      </c>
+      <c r="AQ163">
+        <v>0.36</v>
+      </c>
+      <c r="AR163">
+        <v>1.37</v>
+      </c>
+      <c r="AS163">
+        <v>1.1</v>
+      </c>
+      <c r="AT163">
+        <v>2.47</v>
+      </c>
+      <c r="AU163">
+        <v>9</v>
+      </c>
+      <c r="AV163">
+        <v>6</v>
+      </c>
+      <c r="AW163">
+        <v>3</v>
+      </c>
+      <c r="AX163">
+        <v>1</v>
+      </c>
+      <c r="AY163">
+        <v>12</v>
+      </c>
+      <c r="AZ163">
+        <v>7</v>
+      </c>
+      <c r="BA163">
+        <v>5</v>
+      </c>
+      <c r="BB163">
+        <v>7</v>
+      </c>
+      <c r="BC163">
+        <v>12</v>
+      </c>
+      <c r="BD163">
+        <v>1.85</v>
+      </c>
+      <c r="BE163">
+        <v>8</v>
+      </c>
+      <c r="BF163">
+        <v>2.28</v>
+      </c>
+      <c r="BG163">
+        <v>1.29</v>
+      </c>
+      <c r="BH163">
+        <v>3.3</v>
+      </c>
+      <c r="BI163">
+        <v>1.48</v>
+      </c>
+      <c r="BJ163">
+        <v>2.56</v>
+      </c>
+      <c r="BK163">
+        <v>1.77</v>
+      </c>
+      <c r="BL163">
+        <v>1.95</v>
+      </c>
+      <c r="BM163">
+        <v>2.27</v>
+      </c>
+      <c r="BN163">
+        <v>1.6</v>
+      </c>
+      <c r="BO163">
+        <v>2.9</v>
+      </c>
+      <c r="BP163">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,9 @@
     <t>['74', '79', '84']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -745,9 +748,6 @@
     <t>['57', '65']</t>
   </si>
   <si>
-    <t>['55']</t>
-  </si>
-  <si>
     <t>['8', '54']</t>
   </si>
   <si>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>['45+1', '52', '90']</t>
+  </si>
+  <si>
+    <t>['43', '48', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1698,7 +1701,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1904,7 +1907,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1985,7 +1988,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2110,7 +2113,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2316,7 +2319,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2522,7 +2525,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2728,7 +2731,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3346,7 +3349,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3552,7 +3555,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3630,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ12">
         <v>1.4</v>
@@ -3964,7 +3967,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4376,7 +4379,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4582,7 +4585,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4994,7 +4997,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5406,7 +5409,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5612,7 +5615,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5818,7 +5821,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6436,7 +6439,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6514,7 +6517,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ26">
         <v>1.4</v>
@@ -6642,7 +6645,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7054,7 +7057,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7260,7 +7263,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7544,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ31">
         <v>0.78</v>
@@ -7672,7 +7675,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7959,7 +7962,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ33">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -9526,7 +9529,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9732,7 +9735,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9938,7 +9941,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10144,7 +10147,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10556,7 +10559,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10968,7 +10971,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11174,7 +11177,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12204,7 +12207,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12285,7 +12288,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR54">
         <v>1.39</v>
@@ -12410,7 +12413,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12616,7 +12619,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12822,7 +12825,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13028,7 +13031,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13106,7 +13109,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ58">
         <v>1.91</v>
@@ -13646,7 +13649,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13852,7 +13855,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14264,7 +14267,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14676,7 +14679,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14882,7 +14885,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15088,7 +15091,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15375,7 +15378,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ69">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
@@ -15706,7 +15709,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15912,7 +15915,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16118,7 +16121,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16324,7 +16327,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16530,7 +16533,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16942,7 +16945,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17148,7 +17151,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17638,7 +17641,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ80">
         <v>1.36</v>
@@ -17972,7 +17975,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18384,7 +18387,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18590,7 +18593,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18796,7 +18799,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -19907,7 +19910,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ91">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20728,7 +20731,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ95">
         <v>1.1</v>
@@ -21761,7 +21764,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ100">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -23200,7 +23203,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ107">
         <v>1.67</v>
@@ -23328,7 +23331,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23740,7 +23743,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24233,7 +24236,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ112">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR112">
         <v>1.94</v>
@@ -27114,7 +27117,7 @@
         <v>1.44</v>
       </c>
       <c r="AP126">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ126">
         <v>1.3</v>
@@ -28272,7 +28275,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28559,7 +28562,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ133">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR133">
         <v>1.8</v>
@@ -29714,7 +29717,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29795,7 +29798,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ139">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -30204,7 +30207,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AQ141">
         <v>0.9</v>
@@ -31031,7 +31034,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ145">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AR145">
         <v>1.31</v>
@@ -33834,7 +33837,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34815,6 +34818,212 @@
       </c>
       <c r="BP163">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7321775</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45528.77083333334</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>80</v>
+      </c>
+      <c r="H164" t="s">
+        <v>81</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>3</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164" t="s">
+        <v>197</v>
+      </c>
+      <c r="P164" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q164">
+        <v>2.44</v>
+      </c>
+      <c r="R164">
+        <v>2.3</v>
+      </c>
+      <c r="S164">
+        <v>3.85</v>
+      </c>
+      <c r="T164">
+        <v>1.3</v>
+      </c>
+      <c r="U164">
+        <v>3.4</v>
+      </c>
+      <c r="V164">
+        <v>2.5</v>
+      </c>
+      <c r="W164">
+        <v>1.5</v>
+      </c>
+      <c r="X164">
+        <v>6</v>
+      </c>
+      <c r="Y164">
+        <v>1.13</v>
+      </c>
+      <c r="Z164">
+        <v>2.09</v>
+      </c>
+      <c r="AA164">
+        <v>3.75</v>
+      </c>
+      <c r="AB164">
+        <v>3</v>
+      </c>
+      <c r="AC164">
+        <v>1.03</v>
+      </c>
+      <c r="AD164">
+        <v>9</v>
+      </c>
+      <c r="AE164">
+        <v>1.16</v>
+      </c>
+      <c r="AF164">
+        <v>4.25</v>
+      </c>
+      <c r="AG164">
+        <v>1.64</v>
+      </c>
+      <c r="AH164">
+        <v>2.17</v>
+      </c>
+      <c r="AI164">
+        <v>1.57</v>
+      </c>
+      <c r="AJ164">
+        <v>2.25</v>
+      </c>
+      <c r="AK164">
+        <v>1.27</v>
+      </c>
+      <c r="AL164">
+        <v>1.24</v>
+      </c>
+      <c r="AM164">
+        <v>1.78</v>
+      </c>
+      <c r="AN164">
+        <v>1.89</v>
+      </c>
+      <c r="AO164">
+        <v>1.1</v>
+      </c>
+      <c r="AP164">
+        <v>1.7</v>
+      </c>
+      <c r="AQ164">
+        <v>1.27</v>
+      </c>
+      <c r="AR164">
+        <v>1.67</v>
+      </c>
+      <c r="AS164">
+        <v>1.31</v>
+      </c>
+      <c r="AT164">
+        <v>2.98</v>
+      </c>
+      <c r="AU164">
+        <v>6</v>
+      </c>
+      <c r="AV164">
+        <v>6</v>
+      </c>
+      <c r="AW164">
+        <v>10</v>
+      </c>
+      <c r="AX164">
+        <v>1</v>
+      </c>
+      <c r="AY164">
+        <v>16</v>
+      </c>
+      <c r="AZ164">
+        <v>7</v>
+      </c>
+      <c r="BA164">
+        <v>6</v>
+      </c>
+      <c r="BB164">
+        <v>3</v>
+      </c>
+      <c r="BC164">
+        <v>9</v>
+      </c>
+      <c r="BD164">
+        <v>1.82</v>
+      </c>
+      <c r="BE164">
+        <v>8</v>
+      </c>
+      <c r="BF164">
+        <v>2.33</v>
+      </c>
+      <c r="BG164">
+        <v>1.25</v>
+      </c>
+      <c r="BH164">
+        <v>3.6</v>
+      </c>
+      <c r="BI164">
+        <v>1.42</v>
+      </c>
+      <c r="BJ164">
+        <v>2.62</v>
+      </c>
+      <c r="BK164">
+        <v>1.85</v>
+      </c>
+      <c r="BL164">
+        <v>1.85</v>
+      </c>
+      <c r="BM164">
+        <v>2.1</v>
+      </c>
+      <c r="BN164">
+        <v>1.67</v>
+      </c>
+      <c r="BO164">
+        <v>2.62</v>
+      </c>
+      <c r="BP164">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,7 +607,16 @@
     <t>['74', '79', '84']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['55']</t>
+  </si>
+  <si>
+    <t>['18', '58', '90+2']</t>
+  </si>
+  <si>
+    <t>['26', '37', '77', '80']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -1236,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1701,7 +1710,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1782,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1907,7 +1916,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2113,7 +2122,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2194,7 +2203,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2319,7 +2328,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2525,7 +2534,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2603,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ7">
         <v>1.1</v>
@@ -2731,7 +2740,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2809,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.36</v>
@@ -3015,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ9">
         <v>0.64</v>
@@ -3224,7 +3233,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ10">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3349,7 +3358,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3555,7 +3564,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3842,7 +3851,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3967,7 +3976,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4254,7 +4263,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR15">
         <v>1.77</v>
@@ -4379,7 +4388,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4457,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ16">
         <v>1.91</v>
@@ -4585,7 +4594,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4997,7 +5006,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5078,7 +5087,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ19">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR19">
         <v>1.33</v>
@@ -5284,7 +5293,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ20">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5409,7 +5418,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5615,7 +5624,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5821,7 +5830,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5902,7 +5911,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ23">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR23">
         <v>1.09</v>
@@ -6314,7 +6323,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR25">
         <v>0.9</v>
@@ -6439,7 +6448,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6645,7 +6654,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7057,7 +7066,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7135,7 +7144,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ29">
         <v>1.4</v>
@@ -7263,7 +7272,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7550,7 +7559,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ31">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR31">
         <v>1.69</v>
@@ -7675,7 +7684,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7753,7 +7762,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ32">
         <v>1.1</v>
@@ -8371,10 +8380,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR35">
         <v>2.24</v>
@@ -8783,7 +8792,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ37">
         <v>0.9</v>
@@ -8989,10 +8998,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ38">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9401,7 +9410,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ40">
         <v>1.36</v>
@@ -9529,7 +9538,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9610,7 +9619,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ41">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9735,7 +9744,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9941,7 +9950,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10147,7 +10156,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10559,7 +10568,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10971,7 +10980,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11177,7 +11186,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11670,7 +11679,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ51">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -11873,10 +11882,10 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ52">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -12079,10 +12088,10 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ53">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR53">
         <v>1.66</v>
@@ -12207,7 +12216,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12413,7 +12422,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12491,7 +12500,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>0.64</v>
@@ -12619,7 +12628,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12825,7 +12834,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13031,7 +13040,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13318,7 +13327,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ59">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13649,7 +13658,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13855,7 +13864,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14267,7 +14276,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14551,10 +14560,10 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ65">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR65">
         <v>1.38</v>
@@ -14679,7 +14688,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14885,7 +14894,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15091,7 +15100,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15169,10 +15178,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ68">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15375,7 +15384,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>1.27</v>
@@ -15709,7 +15718,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15787,7 +15796,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ71">
         <v>2.36</v>
@@ -15915,7 +15924,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16121,7 +16130,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16202,7 +16211,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16327,7 +16336,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16533,7 +16542,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16945,7 +16954,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17023,7 +17032,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ77">
         <v>1.4</v>
@@ -17151,7 +17160,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17850,7 +17859,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ81">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR81">
         <v>1.6</v>
@@ -17975,7 +17984,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18053,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ82">
         <v>0.36</v>
@@ -18259,10 +18268,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18387,7 +18396,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18468,7 +18477,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ84">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR84">
         <v>1.6</v>
@@ -18593,7 +18602,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18799,7 +18808,7 @@
         <v>142</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>2.96</v>
@@ -19005,7 +19014,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19211,7 +19220,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19417,7 +19426,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19498,7 +19507,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ89">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19623,7 +19632,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19829,7 +19838,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19907,7 +19916,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ91">
         <v>1.27</v>
@@ -20035,7 +20044,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20113,10 +20122,10 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ92">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR92">
         <v>1.79</v>
@@ -20447,7 +20456,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20528,7 +20537,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR94">
         <v>1.7</v>
@@ -20653,7 +20662,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20859,7 +20868,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21143,7 +21152,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ97">
         <v>0.36</v>
@@ -21271,7 +21280,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21477,7 +21486,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21683,7 +21692,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22095,7 +22104,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22301,7 +22310,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22382,7 +22391,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ103">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR103">
         <v>1.75</v>
@@ -22585,7 +22594,7 @@
         <v>0.75</v>
       </c>
       <c r="AP104">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22713,7 +22722,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23125,7 +23134,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23206,7 +23215,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ107">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR107">
         <v>1.83</v>
@@ -23331,7 +23340,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23409,7 +23418,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ108">
         <v>0.64</v>
@@ -23537,7 +23546,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23618,7 +23627,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ109">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -23743,7 +23752,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23824,7 +23833,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR110">
         <v>1.59</v>
@@ -24155,7 +24164,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24361,7 +24370,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24567,7 +24576,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24773,7 +24782,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24851,7 +24860,7 @@
         <v>2.71</v>
       </c>
       <c r="AP115">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ115">
         <v>2.36</v>
@@ -24979,7 +24988,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25185,7 +25194,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25469,7 +25478,7 @@
         <v>2.43</v>
       </c>
       <c r="AP118">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ118">
         <v>1.91</v>
@@ -25675,7 +25684,7 @@
         <v>1.86</v>
       </c>
       <c r="AP119">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>1.36</v>
@@ -25803,7 +25812,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26090,7 +26099,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ121">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26215,7 +26224,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26499,7 +26508,7 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
         <v>1.1</v>
@@ -26911,7 +26920,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ125">
         <v>0.9</v>
@@ -27039,7 +27048,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27120,7 +27129,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ126">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR126">
         <v>1.69</v>
@@ -27245,7 +27254,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27323,7 +27332,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ127">
         <v>1.4</v>
@@ -27451,7 +27460,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27657,7 +27666,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27863,7 +27872,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27941,7 +27950,7 @@
         <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ130">
         <v>1.36</v>
@@ -28275,7 +28284,7 @@
         <v>175</v>
       </c>
       <c r="P132" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q132">
         <v>2.2</v>
@@ -28356,7 +28365,7 @@
         <v>2</v>
       </c>
       <c r="AQ132">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28481,7 +28490,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28687,7 +28696,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29099,7 +29108,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29180,7 +29189,7 @@
         <v>1</v>
       </c>
       <c r="AQ136">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR136">
         <v>1.41</v>
@@ -29305,7 +29314,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29511,7 +29520,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29589,7 +29598,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29717,7 +29726,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29795,7 +29804,7 @@
         <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ139">
         <v>1.27</v>
@@ -29923,7 +29932,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30001,7 +30010,7 @@
         <v>1.56</v>
       </c>
       <c r="AP140">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ140">
         <v>1.36</v>
@@ -30541,7 +30550,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30953,7 +30962,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q145">
         <v>2.88</v>
@@ -31031,7 +31040,7 @@
         <v>1.22</v>
       </c>
       <c r="AP145">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AQ145">
         <v>1.27</v>
@@ -31240,7 +31249,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ146">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR146">
         <v>1.68</v>
@@ -31858,7 +31867,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ149">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR149">
         <v>1.95</v>
@@ -31983,7 +31992,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32061,7 +32070,7 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ150">
         <v>1.36</v>
@@ -32473,7 +32482,7 @@
         <v>2.22</v>
       </c>
       <c r="AP152">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ152">
         <v>1.91</v>
@@ -33013,7 +33022,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33094,7 +33103,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33219,7 +33228,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33425,7 +33434,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33837,7 +33846,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34043,7 +34052,7 @@
         <v>194</v>
       </c>
       <c r="P160" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q160">
         <v>3.6</v>
@@ -34661,7 +34670,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q163">
         <v>2.49</v>
@@ -34825,7 +34834,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7321775</v>
+        <v>7321776</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -34834,16 +34843,16 @@
         <v>69</v>
       </c>
       <c r="E164" s="2">
-        <v>45528.77083333334</v>
+        <v>45528.66666666666</v>
       </c>
       <c r="F164">
         <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H164" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -34858,172 +34867,996 @@
         <v>1</v>
       </c>
       <c r="M164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N164">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O164" t="s">
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>286</v>
+        <v>153</v>
       </c>
       <c r="Q164">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="R164">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S164">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="T164">
+        <v>1.44</v>
+      </c>
+      <c r="U164">
+        <v>2.63</v>
+      </c>
+      <c r="V164">
+        <v>3.25</v>
+      </c>
+      <c r="W164">
+        <v>1.33</v>
+      </c>
+      <c r="X164">
+        <v>9</v>
+      </c>
+      <c r="Y164">
+        <v>1.07</v>
+      </c>
+      <c r="Z164">
+        <v>1.96</v>
+      </c>
+      <c r="AA164">
+        <v>3.4</v>
+      </c>
+      <c r="AB164">
+        <v>3.65</v>
+      </c>
+      <c r="AC164">
+        <v>1.05</v>
+      </c>
+      <c r="AD164">
+        <v>8</v>
+      </c>
+      <c r="AE164">
+        <v>1.36</v>
+      </c>
+      <c r="AF164">
+        <v>2.9</v>
+      </c>
+      <c r="AG164">
+        <v>2.09</v>
+      </c>
+      <c r="AH164">
+        <v>1.69</v>
+      </c>
+      <c r="AI164">
+        <v>1.91</v>
+      </c>
+      <c r="AJ164">
+        <v>1.8</v>
+      </c>
+      <c r="AK164">
+        <v>1.2</v>
+      </c>
+      <c r="AL164">
+        <v>1.27</v>
+      </c>
+      <c r="AM164">
+        <v>1.68</v>
+      </c>
+      <c r="AN164">
+        <v>2.1</v>
+      </c>
+      <c r="AO164">
         <v>1.3</v>
       </c>
-      <c r="U164">
-        <v>3.4</v>
-      </c>
-      <c r="V164">
-        <v>2.5</v>
-      </c>
-      <c r="W164">
-        <v>1.5</v>
-      </c>
-      <c r="X164">
-        <v>6</v>
-      </c>
-      <c r="Y164">
-        <v>1.13</v>
-      </c>
-      <c r="Z164">
-        <v>2.09</v>
-      </c>
-      <c r="AA164">
-        <v>3.75</v>
-      </c>
-      <c r="AB164">
-        <v>3</v>
-      </c>
-      <c r="AC164">
-        <v>1.03</v>
-      </c>
-      <c r="AD164">
-        <v>9</v>
-      </c>
-      <c r="AE164">
-        <v>1.16</v>
-      </c>
-      <c r="AF164">
-        <v>4.25</v>
-      </c>
-      <c r="AG164">
-        <v>1.64</v>
-      </c>
-      <c r="AH164">
-        <v>2.17</v>
-      </c>
-      <c r="AI164">
-        <v>1.57</v>
-      </c>
-      <c r="AJ164">
-        <v>2.25</v>
-      </c>
-      <c r="AK164">
-        <v>1.27</v>
-      </c>
-      <c r="AL164">
-        <v>1.24</v>
-      </c>
-      <c r="AM164">
-        <v>1.78</v>
-      </c>
-      <c r="AN164">
-        <v>1.89</v>
-      </c>
-      <c r="AO164">
-        <v>1.1</v>
-      </c>
       <c r="AP164">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AQ164">
         <v>1.27</v>
       </c>
       <c r="AR164">
-        <v>1.67</v>
+        <v>1.39</v>
       </c>
       <c r="AS164">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AT164">
-        <v>2.98</v>
+        <v>2.71</v>
       </c>
       <c r="AU164">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV164">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW164">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX164">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY164">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AZ164">
         <v>7</v>
       </c>
       <c r="BA164">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BB164">
         <v>3</v>
       </c>
       <c r="BC164">
+        <v>13</v>
+      </c>
+      <c r="BD164">
+        <v>1.37</v>
+      </c>
+      <c r="BE164">
+        <v>9.5</v>
+      </c>
+      <c r="BF164">
+        <v>3.82</v>
+      </c>
+      <c r="BG164">
+        <v>1.22</v>
+      </c>
+      <c r="BH164">
+        <v>3.8</v>
+      </c>
+      <c r="BI164">
+        <v>1.4</v>
+      </c>
+      <c r="BJ164">
+        <v>2.7</v>
+      </c>
+      <c r="BK164">
+        <v>1.77</v>
+      </c>
+      <c r="BL164">
+        <v>1.95</v>
+      </c>
+      <c r="BM164">
+        <v>2</v>
+      </c>
+      <c r="BN164">
+        <v>1.73</v>
+      </c>
+      <c r="BO164">
+        <v>2.5</v>
+      </c>
+      <c r="BP164">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7321775</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45528.77083333334</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>80</v>
+      </c>
+      <c r="H165" t="s">
+        <v>81</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>3</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>198</v>
+      </c>
+      <c r="P165" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q165">
+        <v>2.44</v>
+      </c>
+      <c r="R165">
+        <v>2.3</v>
+      </c>
+      <c r="S165">
+        <v>3.85</v>
+      </c>
+      <c r="T165">
+        <v>1.3</v>
+      </c>
+      <c r="U165">
+        <v>3.4</v>
+      </c>
+      <c r="V165">
+        <v>2.5</v>
+      </c>
+      <c r="W165">
+        <v>1.5</v>
+      </c>
+      <c r="X165">
+        <v>6</v>
+      </c>
+      <c r="Y165">
+        <v>1.13</v>
+      </c>
+      <c r="Z165">
+        <v>2.09</v>
+      </c>
+      <c r="AA165">
+        <v>3.75</v>
+      </c>
+      <c r="AB165">
+        <v>3</v>
+      </c>
+      <c r="AC165">
+        <v>1.03</v>
+      </c>
+      <c r="AD165">
         <v>9</v>
       </c>
-      <c r="BD164">
+      <c r="AE165">
+        <v>1.16</v>
+      </c>
+      <c r="AF165">
+        <v>4.25</v>
+      </c>
+      <c r="AG165">
+        <v>1.64</v>
+      </c>
+      <c r="AH165">
+        <v>2.17</v>
+      </c>
+      <c r="AI165">
+        <v>1.57</v>
+      </c>
+      <c r="AJ165">
+        <v>2.25</v>
+      </c>
+      <c r="AK165">
+        <v>1.27</v>
+      </c>
+      <c r="AL165">
+        <v>1.24</v>
+      </c>
+      <c r="AM165">
+        <v>1.78</v>
+      </c>
+      <c r="AN165">
+        <v>1.89</v>
+      </c>
+      <c r="AO165">
+        <v>1.1</v>
+      </c>
+      <c r="AP165">
+        <v>1.7</v>
+      </c>
+      <c r="AQ165">
+        <v>1.27</v>
+      </c>
+      <c r="AR165">
+        <v>1.67</v>
+      </c>
+      <c r="AS165">
+        <v>1.31</v>
+      </c>
+      <c r="AT165">
+        <v>2.98</v>
+      </c>
+      <c r="AU165">
+        <v>6</v>
+      </c>
+      <c r="AV165">
+        <v>3</v>
+      </c>
+      <c r="AW165">
+        <v>8</v>
+      </c>
+      <c r="AX165">
+        <v>2</v>
+      </c>
+      <c r="AY165">
+        <v>14</v>
+      </c>
+      <c r="AZ165">
+        <v>5</v>
+      </c>
+      <c r="BA165">
+        <v>6</v>
+      </c>
+      <c r="BB165">
+        <v>3</v>
+      </c>
+      <c r="BC165">
+        <v>9</v>
+      </c>
+      <c r="BD165">
         <v>1.82</v>
       </c>
-      <c r="BE164">
+      <c r="BE165">
         <v>8</v>
       </c>
-      <c r="BF164">
+      <c r="BF165">
         <v>2.33</v>
       </c>
-      <c r="BG164">
+      <c r="BG165">
         <v>1.25</v>
       </c>
-      <c r="BH164">
+      <c r="BH165">
         <v>3.6</v>
       </c>
-      <c r="BI164">
+      <c r="BI165">
         <v>1.42</v>
       </c>
-      <c r="BJ164">
+      <c r="BJ165">
         <v>2.62</v>
       </c>
-      <c r="BK164">
+      <c r="BK165">
         <v>1.85</v>
       </c>
-      <c r="BL164">
+      <c r="BL165">
         <v>1.85</v>
       </c>
-      <c r="BM164">
+      <c r="BM165">
         <v>2.1</v>
       </c>
-      <c r="BN164">
+      <c r="BN165">
         <v>1.67</v>
       </c>
-      <c r="BO164">
+      <c r="BO165">
         <v>2.62</v>
       </c>
-      <c r="BP164">
+      <c r="BP165">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7321779</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45529.5625</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>77</v>
+      </c>
+      <c r="H166" t="s">
+        <v>82</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>199</v>
+      </c>
+      <c r="P166" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q166">
+        <v>2.4</v>
+      </c>
+      <c r="R166">
+        <v>2.3</v>
+      </c>
+      <c r="S166">
+        <v>4.33</v>
+      </c>
+      <c r="T166">
+        <v>1.33</v>
+      </c>
+      <c r="U166">
+        <v>3.25</v>
+      </c>
+      <c r="V166">
+        <v>2.63</v>
+      </c>
+      <c r="W166">
+        <v>1.44</v>
+      </c>
+      <c r="X166">
+        <v>6.5</v>
+      </c>
+      <c r="Y166">
+        <v>1.11</v>
+      </c>
+      <c r="Z166">
+        <v>1.85</v>
+      </c>
+      <c r="AA166">
+        <v>3.6</v>
+      </c>
+      <c r="AB166">
+        <v>3.9</v>
+      </c>
+      <c r="AC166">
+        <v>1.01</v>
+      </c>
+      <c r="AD166">
+        <v>10.5</v>
+      </c>
+      <c r="AE166">
+        <v>1.21</v>
+      </c>
+      <c r="AF166">
+        <v>3.74</v>
+      </c>
+      <c r="AG166">
+        <v>1.7</v>
+      </c>
+      <c r="AH166">
+        <v>2</v>
+      </c>
+      <c r="AI166">
+        <v>1.67</v>
+      </c>
+      <c r="AJ166">
+        <v>2.1</v>
+      </c>
+      <c r="AK166">
+        <v>1.23</v>
+      </c>
+      <c r="AL166">
+        <v>1.24</v>
+      </c>
+      <c r="AM166">
+        <v>1.87</v>
+      </c>
+      <c r="AN166">
+        <v>1.56</v>
+      </c>
+      <c r="AO166">
+        <v>0.78</v>
+      </c>
+      <c r="AP166">
+        <v>1.7</v>
+      </c>
+      <c r="AQ166">
+        <v>0.7</v>
+      </c>
+      <c r="AR166">
+        <v>1.34</v>
+      </c>
+      <c r="AS166">
+        <v>1.43</v>
+      </c>
+      <c r="AT166">
+        <v>2.77</v>
+      </c>
+      <c r="AU166">
+        <v>4</v>
+      </c>
+      <c r="AV166">
+        <v>5</v>
+      </c>
+      <c r="AW166">
+        <v>8</v>
+      </c>
+      <c r="AX166">
+        <v>4</v>
+      </c>
+      <c r="AY166">
+        <v>12</v>
+      </c>
+      <c r="AZ166">
+        <v>9</v>
+      </c>
+      <c r="BA166">
+        <v>4</v>
+      </c>
+      <c r="BB166">
+        <v>5</v>
+      </c>
+      <c r="BC166">
+        <v>9</v>
+      </c>
+      <c r="BD166">
+        <v>1.51</v>
+      </c>
+      <c r="BE166">
+        <v>8.5</v>
+      </c>
+      <c r="BF166">
+        <v>3.07</v>
+      </c>
+      <c r="BG166">
+        <v>1.29</v>
+      </c>
+      <c r="BH166">
+        <v>3.4</v>
+      </c>
+      <c r="BI166">
+        <v>1.48</v>
+      </c>
+      <c r="BJ166">
+        <v>2.5</v>
+      </c>
+      <c r="BK166">
+        <v>1.85</v>
+      </c>
+      <c r="BL166">
+        <v>1.85</v>
+      </c>
+      <c r="BM166">
+        <v>2.2</v>
+      </c>
+      <c r="BN166">
+        <v>1.62</v>
+      </c>
+      <c r="BO166">
+        <v>2.8</v>
+      </c>
+      <c r="BP166">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7321778</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45529.66666666666</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>85</v>
+      </c>
+      <c r="H167" t="s">
+        <v>83</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>86</v>
+      </c>
+      <c r="P167" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q167">
+        <v>4</v>
+      </c>
+      <c r="R167">
+        <v>2.1</v>
+      </c>
+      <c r="S167">
+        <v>2.75</v>
+      </c>
+      <c r="T167">
+        <v>1.4</v>
+      </c>
+      <c r="U167">
+        <v>2.75</v>
+      </c>
+      <c r="V167">
+        <v>3</v>
+      </c>
+      <c r="W167">
+        <v>1.36</v>
+      </c>
+      <c r="X167">
+        <v>8</v>
+      </c>
+      <c r="Y167">
+        <v>1.08</v>
+      </c>
+      <c r="Z167">
+        <v>3.4</v>
+      </c>
+      <c r="AA167">
+        <v>3.3</v>
+      </c>
+      <c r="AB167">
+        <v>2.1</v>
+      </c>
+      <c r="AC167">
+        <v>1.02</v>
+      </c>
+      <c r="AD167">
+        <v>8.9</v>
+      </c>
+      <c r="AE167">
+        <v>1.28</v>
+      </c>
+      <c r="AF167">
+        <v>3.2</v>
+      </c>
+      <c r="AG167">
+        <v>1.9</v>
+      </c>
+      <c r="AH167">
+        <v>1.8</v>
+      </c>
+      <c r="AI167">
+        <v>1.8</v>
+      </c>
+      <c r="AJ167">
+        <v>1.91</v>
+      </c>
+      <c r="AK167">
+        <v>1.71</v>
+      </c>
+      <c r="AL167">
+        <v>1.29</v>
+      </c>
+      <c r="AM167">
+        <v>1.3</v>
+      </c>
+      <c r="AN167">
+        <v>1.4</v>
+      </c>
+      <c r="AO167">
+        <v>1.67</v>
+      </c>
+      <c r="AP167">
+        <v>1.27</v>
+      </c>
+      <c r="AQ167">
+        <v>1.8</v>
+      </c>
+      <c r="AR167">
+        <v>1.68</v>
+      </c>
+      <c r="AS167">
+        <v>1.35</v>
+      </c>
+      <c r="AT167">
+        <v>3.03</v>
+      </c>
+      <c r="AU167">
+        <v>3</v>
+      </c>
+      <c r="AV167">
+        <v>3</v>
+      </c>
+      <c r="AW167">
+        <v>3</v>
+      </c>
+      <c r="AX167">
+        <v>4</v>
+      </c>
+      <c r="AY167">
+        <v>6</v>
+      </c>
+      <c r="AZ167">
+        <v>7</v>
+      </c>
+      <c r="BA167">
+        <v>5</v>
+      </c>
+      <c r="BB167">
+        <v>5</v>
+      </c>
+      <c r="BC167">
+        <v>10</v>
+      </c>
+      <c r="BD167">
+        <v>2.44</v>
+      </c>
+      <c r="BE167">
+        <v>8</v>
+      </c>
+      <c r="BF167">
+        <v>1.75</v>
+      </c>
+      <c r="BG167">
+        <v>1.25</v>
+      </c>
+      <c r="BH167">
+        <v>3.6</v>
+      </c>
+      <c r="BI167">
+        <v>1.42</v>
+      </c>
+      <c r="BJ167">
+        <v>2.62</v>
+      </c>
+      <c r="BK167">
+        <v>1.67</v>
+      </c>
+      <c r="BL167">
+        <v>2.1</v>
+      </c>
+      <c r="BM167">
+        <v>2.1</v>
+      </c>
+      <c r="BN167">
+        <v>1.67</v>
+      </c>
+      <c r="BO167">
+        <v>2.62</v>
+      </c>
+      <c r="BP167">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7321774</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45529.77083333334</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>75</v>
+      </c>
+      <c r="H168" t="s">
+        <v>79</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>4</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168" t="s">
+        <v>200</v>
+      </c>
+      <c r="P168" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q168">
+        <v>2.75</v>
+      </c>
+      <c r="R168">
+        <v>2.2</v>
+      </c>
+      <c r="S168">
+        <v>4</v>
+      </c>
+      <c r="T168">
+        <v>1.4</v>
+      </c>
+      <c r="U168">
+        <v>2.75</v>
+      </c>
+      <c r="V168">
+        <v>3</v>
+      </c>
+      <c r="W168">
+        <v>1.36</v>
+      </c>
+      <c r="X168">
+        <v>8</v>
+      </c>
+      <c r="Y168">
+        <v>1.08</v>
+      </c>
+      <c r="Z168">
+        <v>2.05</v>
+      </c>
+      <c r="AA168">
+        <v>3.4</v>
+      </c>
+      <c r="AB168">
+        <v>3.4</v>
+      </c>
+      <c r="AC168">
+        <v>1.02</v>
+      </c>
+      <c r="AD168">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE168">
+        <v>1.28</v>
+      </c>
+      <c r="AF168">
+        <v>3.2</v>
+      </c>
+      <c r="AG168">
+        <v>1.9</v>
+      </c>
+      <c r="AH168">
+        <v>1.8</v>
+      </c>
+      <c r="AI168">
+        <v>1.8</v>
+      </c>
+      <c r="AJ168">
+        <v>1.91</v>
+      </c>
+      <c r="AK168">
+        <v>1.28</v>
+      </c>
+      <c r="AL168">
+        <v>1.28</v>
+      </c>
+      <c r="AM168">
+        <v>1.74</v>
+      </c>
+      <c r="AN168">
+        <v>1.56</v>
+      </c>
+      <c r="AO168">
+        <v>0.89</v>
+      </c>
+      <c r="AP168">
+        <v>1.7</v>
+      </c>
+      <c r="AQ168">
+        <v>0.8</v>
+      </c>
+      <c r="AR168">
+        <v>1.46</v>
+      </c>
+      <c r="AS168">
+        <v>1.32</v>
+      </c>
+      <c r="AT168">
+        <v>2.78</v>
+      </c>
+      <c r="AU168">
+        <v>6</v>
+      </c>
+      <c r="AV168">
+        <v>2</v>
+      </c>
+      <c r="AW168">
+        <v>4</v>
+      </c>
+      <c r="AX168">
+        <v>1</v>
+      </c>
+      <c r="AY168">
+        <v>10</v>
+      </c>
+      <c r="AZ168">
+        <v>3</v>
+      </c>
+      <c r="BA168">
+        <v>7</v>
+      </c>
+      <c r="BB168">
+        <v>1</v>
+      </c>
+      <c r="BC168">
+        <v>8</v>
+      </c>
+      <c r="BD168">
+        <v>2</v>
+      </c>
+      <c r="BE168">
+        <v>8</v>
+      </c>
+      <c r="BF168">
+        <v>2</v>
+      </c>
+      <c r="BG168">
+        <v>1.29</v>
+      </c>
+      <c r="BH168">
+        <v>3.4</v>
+      </c>
+      <c r="BI168">
+        <v>1.48</v>
+      </c>
+      <c r="BJ168">
+        <v>2.5</v>
+      </c>
+      <c r="BK168">
+        <v>1.77</v>
+      </c>
+      <c r="BL168">
+        <v>1.95</v>
+      </c>
+      <c r="BM168">
+        <v>2.2</v>
+      </c>
+      <c r="BN168">
+        <v>1.62</v>
+      </c>
+      <c r="BO168">
+        <v>2.7</v>
+      </c>
+      <c r="BP168">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -34969,19 +34969,19 @@
         <v>2.71</v>
       </c>
       <c r="AU164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW164">
+        <v>9</v>
+      </c>
+      <c r="AX164">
         <v>5</v>
       </c>
-      <c r="AX164">
-        <v>7</v>
-      </c>
       <c r="AY164">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ164">
         <v>7</v>
@@ -35178,19 +35178,19 @@
         <v>6</v>
       </c>
       <c r="AV165">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW165">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY165">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ165">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA165">
         <v>6</v>
@@ -35381,19 +35381,19 @@
         <v>2.77</v>
       </c>
       <c r="AU166">
+        <v>6</v>
+      </c>
+      <c r="AV166">
         <v>4</v>
       </c>
-      <c r="AV166">
+      <c r="AW166">
+        <v>10</v>
+      </c>
+      <c r="AX166">
         <v>5</v>
       </c>
-      <c r="AW166">
-        <v>8</v>
-      </c>
-      <c r="AX166">
-        <v>4</v>
-      </c>
       <c r="AY166">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ166">
         <v>9</v>
@@ -35590,19 +35590,19 @@
         <v>3</v>
       </c>
       <c r="AV167">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX167">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY167">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ167">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA167">
         <v>5</v>
@@ -35793,22 +35793,22 @@
         <v>2.78</v>
       </c>
       <c r="AU168">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AV168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW168">
+        <v>5</v>
+      </c>
+      <c r="AX168">
+        <v>1</v>
+      </c>
+      <c r="AY168">
+        <v>16</v>
+      </c>
+      <c r="AZ168">
         <v>4</v>
-      </c>
-      <c r="AX168">
-        <v>1</v>
-      </c>
-      <c r="AY168">
-        <v>10</v>
-      </c>
-      <c r="AZ168">
-        <v>3</v>
       </c>
       <c r="BA168">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -617,6 +617,15 @@
   </si>
   <si>
     <t>['26', '37', '77', '80']</t>
+  </si>
+  <si>
+    <t>['23', '74']</t>
+  </si>
+  <si>
+    <t>['15', '56']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -1245,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1585,7 +1594,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ2">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1710,7 +1719,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1916,7 +1925,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2122,7 +2131,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2200,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ5">
         <v>0.8</v>
@@ -2328,7 +2337,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2534,7 +2543,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2740,7 +2749,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2821,7 +2830,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3230,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ10">
         <v>1.27</v>
@@ -3358,7 +3367,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3564,7 +3573,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3642,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ12">
         <v>1.4</v>
@@ -3976,7 +3985,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4057,7 +4066,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4260,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ15">
         <v>0.7</v>
@@ -4388,7 +4397,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4594,7 +4603,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4881,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR18">
         <v>0.64</v>
@@ -5006,7 +5015,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5418,7 +5427,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5624,7 +5633,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5830,7 +5839,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6448,7 +6457,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6526,10 +6535,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ26">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -6654,7 +6663,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6941,7 +6950,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ28">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>1.44</v>
@@ -7066,7 +7075,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7272,7 +7281,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7556,7 +7565,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ31">
         <v>0.7</v>
@@ -7684,7 +7693,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7968,7 +7977,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ33">
         <v>1.27</v>
@@ -8174,10 +8183,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8589,7 +8598,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ36">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR36">
         <v>1.68</v>
@@ -9538,7 +9547,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9616,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ41">
         <v>0.7</v>
@@ -9744,7 +9753,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9825,7 +9834,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9950,7 +9959,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10156,7 +10165,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10568,7 +10577,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10980,7 +10989,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11058,7 +11067,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ48">
         <v>2.36</v>
@@ -11186,7 +11195,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12216,7 +12225,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12422,7 +12431,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12628,7 +12637,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12834,7 +12843,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13040,7 +13049,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13118,7 +13127,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ58">
         <v>1.91</v>
@@ -13530,10 +13539,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -13658,7 +13667,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13864,7 +13873,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14151,7 +14160,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ63">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14276,7 +14285,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14688,7 +14697,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14894,7 +14903,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15100,7 +15109,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15718,7 +15727,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15924,7 +15933,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16005,7 +16014,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR72">
         <v>1.48</v>
@@ -16130,7 +16139,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16208,7 +16217,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ73">
         <v>1.27</v>
@@ -16336,7 +16345,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16417,7 +16426,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR74">
         <v>1.38</v>
@@ -16542,7 +16551,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16954,7 +16963,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17035,7 +17044,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ77">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR77">
         <v>1.8</v>
@@ -17160,7 +17169,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17650,7 +17659,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ80">
         <v>1.36</v>
@@ -17984,7 +17993,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18065,7 +18074,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ82">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18396,7 +18405,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18602,7 +18611,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19014,7 +19023,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19092,7 +19101,7 @@
         <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ87">
         <v>1.36</v>
@@ -19220,7 +19229,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19298,7 +19307,7 @@
         <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ88">
         <v>1.4</v>
@@ -19426,7 +19435,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19632,7 +19641,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19713,7 +19722,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -19838,7 +19847,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20044,7 +20053,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20456,7 +20465,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20662,7 +20671,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20740,7 +20749,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ95">
         <v>1.1</v>
@@ -20868,7 +20877,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21155,7 +21164,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ97">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21280,7 +21289,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21358,7 +21367,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ98">
         <v>1.36</v>
@@ -21486,7 +21495,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21564,7 +21573,7 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ99">
         <v>1.91</v>
@@ -21692,7 +21701,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22104,7 +22113,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22185,7 +22194,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ102">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22310,7 +22319,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22597,7 +22606,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR104">
         <v>1.35</v>
@@ -22722,7 +22731,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22803,7 +22812,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23134,7 +23143,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23212,7 +23221,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ107">
         <v>1.8</v>
@@ -23340,7 +23349,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23546,7 +23555,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23752,7 +23761,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24036,7 +24045,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ111">
         <v>1.1</v>
@@ -24164,7 +24173,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24242,7 +24251,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ112">
         <v>1.27</v>
@@ -24370,7 +24379,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24576,7 +24585,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24782,7 +24791,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24988,7 +24997,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25194,7 +25203,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25275,7 +25284,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ117">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR117">
         <v>2.01</v>
@@ -25812,7 +25821,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26224,7 +26233,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26717,7 +26726,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ124">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -27048,7 +27057,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27126,7 +27135,7 @@
         <v>1.44</v>
       </c>
       <c r="AP126">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ126">
         <v>1.27</v>
@@ -27254,7 +27263,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27460,7 +27469,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27666,7 +27675,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27747,7 +27756,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR129">
         <v>1.87</v>
@@ -27872,7 +27881,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28159,7 +28168,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ131">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28490,7 +28499,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28696,7 +28705,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29108,7 +29117,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29314,7 +29323,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29392,7 +29401,7 @@
         <v>1.75</v>
       </c>
       <c r="AP137">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ137">
         <v>1.36</v>
@@ -29520,7 +29529,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29601,7 +29610,7 @@
         <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR138">
         <v>1.33</v>
@@ -29726,7 +29735,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29932,7 +29941,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30216,7 +30225,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ141">
         <v>0.9</v>
@@ -30550,7 +30559,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30834,10 +30843,10 @@
         <v>0.33</v>
       </c>
       <c r="AP144">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ144">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR144">
         <v>1.7</v>
@@ -30962,7 +30971,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q145">
         <v>2.88</v>
@@ -31452,7 +31461,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ147">
         <v>0.9</v>
@@ -31864,7 +31873,7 @@
         <v>1.75</v>
       </c>
       <c r="AP149">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ149">
         <v>1.8</v>
@@ -31992,7 +32001,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32279,7 +32288,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32691,7 +32700,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ153">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR153">
         <v>1.76</v>
@@ -33022,7 +33031,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33228,7 +33237,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33434,7 +33443,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33846,7 +33855,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34052,7 +34061,7 @@
         <v>194</v>
       </c>
       <c r="P160" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q160">
         <v>3.6</v>
@@ -34339,7 +34348,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR161">
         <v>1.52</v>
@@ -34542,7 +34551,7 @@
         <v>0.7</v>
       </c>
       <c r="AP162">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ162">
         <v>0.64</v>
@@ -34670,7 +34679,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q163">
         <v>2.49</v>
@@ -34751,7 +34760,7 @@
         <v>1</v>
       </c>
       <c r="AQ163">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AR163">
         <v>1.37</v>
@@ -35082,7 +35091,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35160,7 +35169,7 @@
         <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ165">
         <v>1.27</v>
@@ -35494,7 +35503,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35857,6 +35866,624 @@
       </c>
       <c r="BP168">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7321666</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45531.79166666666</v>
+      </c>
+      <c r="F169">
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s">
+        <v>71</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>201</v>
+      </c>
+      <c r="P169" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q169">
+        <v>5</v>
+      </c>
+      <c r="R169">
+        <v>2.45</v>
+      </c>
+      <c r="S169">
+        <v>2.15</v>
+      </c>
+      <c r="T169">
+        <v>1.26</v>
+      </c>
+      <c r="U169">
+        <v>3.5</v>
+      </c>
+      <c r="V169">
+        <v>2.34</v>
+      </c>
+      <c r="W169">
+        <v>1.54</v>
+      </c>
+      <c r="X169">
+        <v>5.4</v>
+      </c>
+      <c r="Y169">
+        <v>1.12</v>
+      </c>
+      <c r="Z169">
+        <v>1.53</v>
+      </c>
+      <c r="AA169">
+        <v>4</v>
+      </c>
+      <c r="AB169">
+        <v>5</v>
+      </c>
+      <c r="AC169">
+        <v>1.02</v>
+      </c>
+      <c r="AD169">
+        <v>17</v>
+      </c>
+      <c r="AE169">
+        <v>1.18</v>
+      </c>
+      <c r="AF169">
+        <v>4.75</v>
+      </c>
+      <c r="AG169">
+        <v>1.62</v>
+      </c>
+      <c r="AH169">
+        <v>2.25</v>
+      </c>
+      <c r="AI169">
+        <v>1.66</v>
+      </c>
+      <c r="AJ169">
+        <v>2.2</v>
+      </c>
+      <c r="AK169">
+        <v>2.35</v>
+      </c>
+      <c r="AL169">
+        <v>1.18</v>
+      </c>
+      <c r="AM169">
+        <v>1.16</v>
+      </c>
+      <c r="AN169">
+        <v>1.7</v>
+      </c>
+      <c r="AO169">
+        <v>1</v>
+      </c>
+      <c r="AP169">
+        <v>1.82</v>
+      </c>
+      <c r="AQ169">
+        <v>0.9</v>
+      </c>
+      <c r="AR169">
+        <v>1.91</v>
+      </c>
+      <c r="AS169">
+        <v>1.39</v>
+      </c>
+      <c r="AT169">
+        <v>3.3</v>
+      </c>
+      <c r="AU169">
+        <v>7</v>
+      </c>
+      <c r="AV169">
+        <v>7</v>
+      </c>
+      <c r="AW169">
+        <v>7</v>
+      </c>
+      <c r="AX169">
+        <v>7</v>
+      </c>
+      <c r="AY169">
+        <v>14</v>
+      </c>
+      <c r="AZ169">
+        <v>14</v>
+      </c>
+      <c r="BA169">
+        <v>4</v>
+      </c>
+      <c r="BB169">
+        <v>4</v>
+      </c>
+      <c r="BC169">
+        <v>8</v>
+      </c>
+      <c r="BD169">
+        <v>1.4</v>
+      </c>
+      <c r="BE169">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF169">
+        <v>3.52</v>
+      </c>
+      <c r="BG169">
+        <v>1.25</v>
+      </c>
+      <c r="BH169">
+        <v>3.6</v>
+      </c>
+      <c r="BI169">
+        <v>1.36</v>
+      </c>
+      <c r="BJ169">
+        <v>2.79</v>
+      </c>
+      <c r="BK169">
+        <v>1.7</v>
+      </c>
+      <c r="BL169">
+        <v>2.05</v>
+      </c>
+      <c r="BM169">
+        <v>2.05</v>
+      </c>
+      <c r="BN169">
+        <v>1.7</v>
+      </c>
+      <c r="BO169">
+        <v>2.67</v>
+      </c>
+      <c r="BP169">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7321782</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45531.89583333334</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>80</v>
+      </c>
+      <c r="H170" t="s">
+        <v>72</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>202</v>
+      </c>
+      <c r="P170" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q170">
+        <v>2.3</v>
+      </c>
+      <c r="R170">
+        <v>2.3</v>
+      </c>
+      <c r="S170">
+        <v>4</v>
+      </c>
+      <c r="T170">
+        <v>1.28</v>
+      </c>
+      <c r="U170">
+        <v>3.3</v>
+      </c>
+      <c r="V170">
+        <v>2.25</v>
+      </c>
+      <c r="W170">
+        <v>1.57</v>
+      </c>
+      <c r="X170">
+        <v>5.15</v>
+      </c>
+      <c r="Y170">
+        <v>1.14</v>
+      </c>
+      <c r="Z170">
+        <v>1.75</v>
+      </c>
+      <c r="AA170">
+        <v>3.75</v>
+      </c>
+      <c r="AB170">
+        <v>4</v>
+      </c>
+      <c r="AC170">
+        <v>1.03</v>
+      </c>
+      <c r="AD170">
+        <v>10</v>
+      </c>
+      <c r="AE170">
+        <v>1.14</v>
+      </c>
+      <c r="AF170">
+        <v>4.6</v>
+      </c>
+      <c r="AG170">
+        <v>1.56</v>
+      </c>
+      <c r="AH170">
+        <v>2.34</v>
+      </c>
+      <c r="AI170">
+        <v>1.5</v>
+      </c>
+      <c r="AJ170">
+        <v>2.3</v>
+      </c>
+      <c r="AK170">
+        <v>1.21</v>
+      </c>
+      <c r="AL170">
+        <v>1.21</v>
+      </c>
+      <c r="AM170">
+        <v>1.77</v>
+      </c>
+      <c r="AN170">
+        <v>1.7</v>
+      </c>
+      <c r="AO170">
+        <v>0.36</v>
+      </c>
+      <c r="AP170">
+        <v>1.82</v>
+      </c>
+      <c r="AQ170">
+        <v>0.33</v>
+      </c>
+      <c r="AR170">
+        <v>1.69</v>
+      </c>
+      <c r="AS170">
+        <v>1.1</v>
+      </c>
+      <c r="AT170">
+        <v>2.79</v>
+      </c>
+      <c r="AU170">
+        <v>5</v>
+      </c>
+      <c r="AV170">
+        <v>5</v>
+      </c>
+      <c r="AW170">
+        <v>7</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>12</v>
+      </c>
+      <c r="AZ170">
+        <v>9</v>
+      </c>
+      <c r="BA170">
+        <v>5</v>
+      </c>
+      <c r="BB170">
+        <v>1</v>
+      </c>
+      <c r="BC170">
+        <v>6</v>
+      </c>
+      <c r="BD170">
+        <v>1.51</v>
+      </c>
+      <c r="BE170">
+        <v>7.1</v>
+      </c>
+      <c r="BF170">
+        <v>3.32</v>
+      </c>
+      <c r="BG170">
+        <v>1.25</v>
+      </c>
+      <c r="BH170">
+        <v>3.6</v>
+      </c>
+      <c r="BI170">
+        <v>1.42</v>
+      </c>
+      <c r="BJ170">
+        <v>2.62</v>
+      </c>
+      <c r="BK170">
+        <v>1.68</v>
+      </c>
+      <c r="BL170">
+        <v>2.16</v>
+      </c>
+      <c r="BM170">
+        <v>2.09</v>
+      </c>
+      <c r="BN170">
+        <v>1.72</v>
+      </c>
+      <c r="BO170">
+        <v>2.6</v>
+      </c>
+      <c r="BP170">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7321783</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45531.89583333334</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>73</v>
+      </c>
+      <c r="H171" t="s">
+        <v>76</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>203</v>
+      </c>
+      <c r="P171" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q171">
+        <v>3.7</v>
+      </c>
+      <c r="R171">
+        <v>2.22</v>
+      </c>
+      <c r="S171">
+        <v>2.94</v>
+      </c>
+      <c r="T171">
+        <v>1.38</v>
+      </c>
+      <c r="U171">
+        <v>2.99</v>
+      </c>
+      <c r="V171">
+        <v>2.92</v>
+      </c>
+      <c r="W171">
+        <v>1.4</v>
+      </c>
+      <c r="X171">
+        <v>6.5</v>
+      </c>
+      <c r="Y171">
+        <v>1.08</v>
+      </c>
+      <c r="Z171">
+        <v>2.95</v>
+      </c>
+      <c r="AA171">
+        <v>3.15</v>
+      </c>
+      <c r="AB171">
+        <v>2.3</v>
+      </c>
+      <c r="AC171">
+        <v>1.03</v>
+      </c>
+      <c r="AD171">
+        <v>9</v>
+      </c>
+      <c r="AE171">
+        <v>1.29</v>
+      </c>
+      <c r="AF171">
+        <v>3.3</v>
+      </c>
+      <c r="AG171">
+        <v>1.91</v>
+      </c>
+      <c r="AH171">
+        <v>1.81</v>
+      </c>
+      <c r="AI171">
+        <v>1.76</v>
+      </c>
+      <c r="AJ171">
+        <v>2.05</v>
+      </c>
+      <c r="AK171">
+        <v>1.62</v>
+      </c>
+      <c r="AL171">
+        <v>1.32</v>
+      </c>
+      <c r="AM171">
+        <v>1.38</v>
+      </c>
+      <c r="AN171">
+        <v>1.4</v>
+      </c>
+      <c r="AO171">
+        <v>1.4</v>
+      </c>
+      <c r="AP171">
+        <v>1.55</v>
+      </c>
+      <c r="AQ171">
+        <v>1.27</v>
+      </c>
+      <c r="AR171">
+        <v>1.86</v>
+      </c>
+      <c r="AS171">
+        <v>1.19</v>
+      </c>
+      <c r="AT171">
+        <v>3.05</v>
+      </c>
+      <c r="AU171">
+        <v>9</v>
+      </c>
+      <c r="AV171">
+        <v>3</v>
+      </c>
+      <c r="AW171">
+        <v>9</v>
+      </c>
+      <c r="AX171">
+        <v>1</v>
+      </c>
+      <c r="AY171">
+        <v>18</v>
+      </c>
+      <c r="AZ171">
+        <v>4</v>
+      </c>
+      <c r="BA171">
+        <v>5</v>
+      </c>
+      <c r="BB171">
+        <v>3</v>
+      </c>
+      <c r="BC171">
+        <v>8</v>
+      </c>
+      <c r="BD171">
+        <v>2.41</v>
+      </c>
+      <c r="BE171">
+        <v>6.55</v>
+      </c>
+      <c r="BF171">
+        <v>1.86</v>
+      </c>
+      <c r="BG171">
+        <v>1.25</v>
+      </c>
+      <c r="BH171">
+        <v>3.6</v>
+      </c>
+      <c r="BI171">
+        <v>1.42</v>
+      </c>
+      <c r="BJ171">
+        <v>2.62</v>
+      </c>
+      <c r="BK171">
+        <v>1.71</v>
+      </c>
+      <c r="BL171">
+        <v>2.1</v>
+      </c>
+      <c r="BM171">
+        <v>2.13</v>
+      </c>
+      <c r="BN171">
+        <v>1.69</v>
+      </c>
+      <c r="BO171">
+        <v>2.62</v>
+      </c>
+      <c r="BP171">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,15 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['6', '57', '90+3']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -871,9 +880,6 @@
     <t>['43', '90+3']</t>
   </si>
   <si>
-    <t>['44']</t>
-  </si>
-  <si>
     <t>['15', '90+1']</t>
   </si>
   <si>
@@ -886,13 +892,16 @@
     <t>['83']</t>
   </si>
   <si>
-    <t>['70']</t>
-  </si>
-  <si>
     <t>['45+1', '52', '90']</t>
   </si>
   <si>
     <t>['43', '48', '90+4']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['4', '56']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,7 +1728,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1925,7 +1934,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2131,7 +2140,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2337,7 +2346,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2415,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ6">
         <v>1.36</v>
@@ -2543,7 +2552,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2749,7 +2758,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3367,7 +3376,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3448,7 +3457,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ11">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3573,7 +3582,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3654,7 +3663,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3857,7 +3866,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ13">
         <v>1.8</v>
@@ -3985,7 +3994,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4063,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ14">
         <v>0.9</v>
@@ -4397,7 +4406,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4478,7 +4487,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ16">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>1.44</v>
@@ -4603,7 +4612,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4681,10 +4690,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR17">
         <v>1.64</v>
@@ -5015,7 +5024,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5427,7 +5436,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5633,7 +5642,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5839,7 +5848,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5917,7 +5926,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ23">
         <v>0.8</v>
@@ -6123,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ24">
         <v>1.36</v>
@@ -6457,7 +6466,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6663,7 +6672,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7075,7 +7084,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7156,7 +7165,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ29">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7281,7 +7290,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7693,7 +7702,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8804,7 +8813,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ37">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9216,7 +9225,7 @@
         <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -9547,7 +9556,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9753,7 +9762,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9831,7 +9840,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ42">
         <v>1.27</v>
@@ -9959,7 +9968,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10037,7 +10046,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ43">
         <v>1.36</v>
@@ -10165,7 +10174,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10243,7 +10252,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ44">
         <v>1.36</v>
@@ -10452,7 +10461,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ45">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10577,7 +10586,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10658,7 +10667,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR46">
         <v>1.53</v>
@@ -10864,7 +10873,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10989,7 +10998,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11195,7 +11204,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12225,7 +12234,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12431,7 +12440,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12637,7 +12646,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12843,7 +12852,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12924,7 +12933,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR57">
         <v>1.34</v>
@@ -13049,7 +13058,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13130,7 +13139,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ58">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR58">
         <v>1.99</v>
@@ -13333,7 +13342,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ59">
         <v>0.8</v>
@@ -13667,7 +13676,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13873,7 +13882,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13951,10 +13960,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ62">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14157,7 +14166,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ63">
         <v>0.33</v>
@@ -14285,7 +14294,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14697,7 +14706,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14778,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="AQ66">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -14903,7 +14912,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14981,7 +14990,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ67">
         <v>1.1</v>
@@ -15109,7 +15118,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15727,7 +15736,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15933,7 +15942,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16139,7 +16148,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16345,7 +16354,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16423,7 +16432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ74">
         <v>0.9</v>
@@ -16551,7 +16560,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16632,7 +16641,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -16963,7 +16972,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17169,7 +17178,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17456,7 +17465,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ79">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR79">
         <v>2.15</v>
@@ -17865,7 +17874,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ81">
         <v>0.7</v>
@@ -17993,7 +18002,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18405,7 +18414,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18483,7 +18492,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ84">
         <v>1.8</v>
@@ -18611,7 +18620,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18692,7 +18701,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -19023,7 +19032,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19229,7 +19238,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19310,7 +19319,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ88">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR88">
         <v>1.85</v>
@@ -19435,7 +19444,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19513,7 +19522,7 @@
         <v>1.17</v>
       </c>
       <c r="AP89">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ89">
         <v>1.27</v>
@@ -19641,7 +19650,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19847,7 +19856,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20053,7 +20062,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20465,7 +20474,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20543,7 +20552,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ94">
         <v>1.8</v>
@@ -20671,7 +20680,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20877,7 +20886,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21289,7 +21298,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21495,7 +21504,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21576,7 +21585,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ99">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR99">
         <v>1.41</v>
@@ -21701,7 +21710,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22113,7 +22122,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22191,7 +22200,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ102">
         <v>1.27</v>
@@ -22319,7 +22328,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22731,7 +22740,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23018,7 +23027,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ106">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR106">
         <v>1.66</v>
@@ -23143,7 +23152,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23349,7 +23358,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23555,7 +23564,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23633,7 +23642,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ109">
         <v>0.7</v>
@@ -23761,7 +23770,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24173,7 +24182,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24379,7 +24388,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24585,7 +24594,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24663,7 +24672,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ114">
         <v>1.36</v>
@@ -24791,7 +24800,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24997,7 +25006,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25075,10 +25084,10 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ116">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR116">
         <v>1.63</v>
@@ -25203,7 +25212,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25490,7 +25499,7 @@
         <v>2</v>
       </c>
       <c r="AQ118">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR118">
         <v>1.41</v>
@@ -25821,7 +25830,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -25902,7 +25911,7 @@
         <v>2</v>
       </c>
       <c r="AQ120">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR120">
         <v>1.57</v>
@@ -26233,7 +26242,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26723,7 +26732,7 @@
         <v>0.38</v>
       </c>
       <c r="AP124">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ124">
         <v>0.33</v>
@@ -26932,7 +26941,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ125">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR125">
         <v>1.58</v>
@@ -27057,7 +27066,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27263,7 +27272,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27344,7 +27353,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ127">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR127">
         <v>1.36</v>
@@ -27469,7 +27478,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27547,7 +27556,7 @@
         <v>2.75</v>
       </c>
       <c r="AP128">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ128">
         <v>2.36</v>
@@ -27675,7 +27684,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27881,7 +27890,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28499,7 +28508,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28705,7 +28714,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28786,7 +28795,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ134">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR134">
         <v>1.61</v>
@@ -28989,7 +28998,7 @@
         <v>2.56</v>
       </c>
       <c r="AP135">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ135">
         <v>2.36</v>
@@ -29117,7 +29126,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29323,7 +29332,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29529,7 +29538,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29735,7 +29744,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29941,7 +29950,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30228,7 +30237,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ141">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR141">
         <v>1.69</v>
@@ -30431,7 +30440,7 @@
         <v>0.63</v>
       </c>
       <c r="AP142">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ142">
         <v>1.1</v>
@@ -30559,7 +30568,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30637,7 +30646,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ143">
         <v>0.64</v>
@@ -30971,7 +30980,7 @@
         <v>186</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="Q145">
         <v>2.88</v>
@@ -31464,7 +31473,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ147">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR147">
         <v>1.84</v>
@@ -32001,7 +32010,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32285,7 +32294,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ151">
         <v>0.9</v>
@@ -32494,7 +32503,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ152">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR152">
         <v>1.73</v>
@@ -33031,7 +33040,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33237,7 +33246,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33315,7 +33324,7 @@
         <v>2.3</v>
       </c>
       <c r="AP156">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ156">
         <v>2.36</v>
@@ -33443,7 +33452,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33524,7 +33533,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ157">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR157">
         <v>1.56</v>
@@ -33855,7 +33864,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -33933,7 +33942,7 @@
         <v>1.5</v>
       </c>
       <c r="AP159">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ159">
         <v>1.36</v>
@@ -34061,7 +34070,7 @@
         <v>194</v>
       </c>
       <c r="P160" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="Q160">
         <v>3.6</v>
@@ -34139,10 +34148,10 @@
         <v>2.1</v>
       </c>
       <c r="AP160">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AQ160">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR160">
         <v>1.42</v>
@@ -34679,7 +34688,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q163">
         <v>2.49</v>
@@ -35091,7 +35100,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35503,7 +35512,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -36029,10 +36038,10 @@
         <v>4</v>
       </c>
       <c r="BB169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC169">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD169">
         <v>1.4</v>
@@ -36484,6 +36493,624 @@
       </c>
       <c r="BP171">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7321784</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45532.66666666666</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>82</v>
+      </c>
+      <c r="H172" t="s">
+        <v>75</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>2</v>
+      </c>
+      <c r="L172">
+        <v>3</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172" t="s">
+        <v>204</v>
+      </c>
+      <c r="P172" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q172">
+        <v>3</v>
+      </c>
+      <c r="R172">
+        <v>2.2</v>
+      </c>
+      <c r="S172">
+        <v>3.4</v>
+      </c>
+      <c r="T172">
+        <v>1.36</v>
+      </c>
+      <c r="U172">
+        <v>3</v>
+      </c>
+      <c r="V172">
+        <v>2.75</v>
+      </c>
+      <c r="W172">
+        <v>1.4</v>
+      </c>
+      <c r="X172">
+        <v>7</v>
+      </c>
+      <c r="Y172">
+        <v>1.1</v>
+      </c>
+      <c r="Z172">
+        <v>2.2</v>
+      </c>
+      <c r="AA172">
+        <v>3.25</v>
+      </c>
+      <c r="AB172">
+        <v>3</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>11</v>
+      </c>
+      <c r="AE172">
+        <v>1.23</v>
+      </c>
+      <c r="AF172">
+        <v>4</v>
+      </c>
+      <c r="AG172">
+        <v>1.76</v>
+      </c>
+      <c r="AH172">
+        <v>1.95</v>
+      </c>
+      <c r="AI172">
+        <v>1.67</v>
+      </c>
+      <c r="AJ172">
+        <v>2.1</v>
+      </c>
+      <c r="AK172">
+        <v>1.35</v>
+      </c>
+      <c r="AL172">
+        <v>1.28</v>
+      </c>
+      <c r="AM172">
+        <v>1.58</v>
+      </c>
+      <c r="AN172">
+        <v>1.45</v>
+      </c>
+      <c r="AO172">
+        <v>1.91</v>
+      </c>
+      <c r="AP172">
+        <v>1.58</v>
+      </c>
+      <c r="AQ172">
+        <v>1.75</v>
+      </c>
+      <c r="AR172">
+        <v>1.72</v>
+      </c>
+      <c r="AS172">
+        <v>1.16</v>
+      </c>
+      <c r="AT172">
+        <v>2.88</v>
+      </c>
+      <c r="AU172">
+        <v>6</v>
+      </c>
+      <c r="AV172">
+        <v>5</v>
+      </c>
+      <c r="AW172">
+        <v>6</v>
+      </c>
+      <c r="AX172">
+        <v>6</v>
+      </c>
+      <c r="AY172">
+        <v>12</v>
+      </c>
+      <c r="AZ172">
+        <v>11</v>
+      </c>
+      <c r="BA172">
+        <v>7</v>
+      </c>
+      <c r="BB172">
+        <v>4</v>
+      </c>
+      <c r="BC172">
+        <v>11</v>
+      </c>
+      <c r="BD172">
+        <v>1.87</v>
+      </c>
+      <c r="BE172">
+        <v>6.5</v>
+      </c>
+      <c r="BF172">
+        <v>2.4</v>
+      </c>
+      <c r="BG172">
+        <v>1.22</v>
+      </c>
+      <c r="BH172">
+        <v>3.65</v>
+      </c>
+      <c r="BI172">
+        <v>1.42</v>
+      </c>
+      <c r="BJ172">
+        <v>2.57</v>
+      </c>
+      <c r="BK172">
+        <v>1.77</v>
+      </c>
+      <c r="BL172">
+        <v>1.95</v>
+      </c>
+      <c r="BM172">
+        <v>2.23</v>
+      </c>
+      <c r="BN172">
+        <v>1.64</v>
+      </c>
+      <c r="BO172">
+        <v>2.98</v>
+      </c>
+      <c r="BP172">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7321787</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45532.79166666666</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>81</v>
+      </c>
+      <c r="H173" t="s">
+        <v>84</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>205</v>
+      </c>
+      <c r="P173" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q173">
+        <v>2.65</v>
+      </c>
+      <c r="R173">
+        <v>2.05</v>
+      </c>
+      <c r="S173">
+        <v>3.95</v>
+      </c>
+      <c r="T173">
+        <v>1.42</v>
+      </c>
+      <c r="U173">
+        <v>2.62</v>
+      </c>
+      <c r="V173">
+        <v>3</v>
+      </c>
+      <c r="W173">
+        <v>1.33</v>
+      </c>
+      <c r="X173">
+        <v>7.7</v>
+      </c>
+      <c r="Y173">
+        <v>1.06</v>
+      </c>
+      <c r="Z173">
+        <v>2</v>
+      </c>
+      <c r="AA173">
+        <v>3.25</v>
+      </c>
+      <c r="AB173">
+        <v>3.4</v>
+      </c>
+      <c r="AC173">
+        <v>1.04</v>
+      </c>
+      <c r="AD173">
+        <v>8.5</v>
+      </c>
+      <c r="AE173">
+        <v>1.33</v>
+      </c>
+      <c r="AF173">
+        <v>3</v>
+      </c>
+      <c r="AG173">
+        <v>1.96</v>
+      </c>
+      <c r="AH173">
+        <v>1.75</v>
+      </c>
+      <c r="AI173">
+        <v>1.85</v>
+      </c>
+      <c r="AJ173">
+        <v>1.85</v>
+      </c>
+      <c r="AK173">
+        <v>1.28</v>
+      </c>
+      <c r="AL173">
+        <v>1.25</v>
+      </c>
+      <c r="AM173">
+        <v>1.73</v>
+      </c>
+      <c r="AN173">
+        <v>1.2</v>
+      </c>
+      <c r="AO173">
+        <v>0.9</v>
+      </c>
+      <c r="AP173">
+        <v>1.18</v>
+      </c>
+      <c r="AQ173">
+        <v>0.91</v>
+      </c>
+      <c r="AR173">
+        <v>1.56</v>
+      </c>
+      <c r="AS173">
+        <v>1.29</v>
+      </c>
+      <c r="AT173">
+        <v>2.85</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>4</v>
+      </c>
+      <c r="AW173">
+        <v>9</v>
+      </c>
+      <c r="AX173">
+        <v>8</v>
+      </c>
+      <c r="AY173">
+        <v>13</v>
+      </c>
+      <c r="AZ173">
+        <v>12</v>
+      </c>
+      <c r="BA173">
+        <v>7</v>
+      </c>
+      <c r="BB173">
+        <v>4</v>
+      </c>
+      <c r="BC173">
+        <v>11</v>
+      </c>
+      <c r="BD173">
+        <v>1.36</v>
+      </c>
+      <c r="BE173">
+        <v>7.4</v>
+      </c>
+      <c r="BF173">
+        <v>4.25</v>
+      </c>
+      <c r="BG173">
+        <v>1.27</v>
+      </c>
+      <c r="BH173">
+        <v>3.28</v>
+      </c>
+      <c r="BI173">
+        <v>1.55</v>
+      </c>
+      <c r="BJ173">
+        <v>2.38</v>
+      </c>
+      <c r="BK173">
+        <v>1.77</v>
+      </c>
+      <c r="BL173">
+        <v>1.95</v>
+      </c>
+      <c r="BM173">
+        <v>2.46</v>
+      </c>
+      <c r="BN173">
+        <v>1.52</v>
+      </c>
+      <c r="BO173">
+        <v>3.28</v>
+      </c>
+      <c r="BP173">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7321785</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45532.89583333334</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>74</v>
+      </c>
+      <c r="H174" t="s">
+        <v>85</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>206</v>
+      </c>
+      <c r="P174" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q174">
+        <v>3.4</v>
+      </c>
+      <c r="R174">
+        <v>2.2</v>
+      </c>
+      <c r="S174">
+        <v>3.1</v>
+      </c>
+      <c r="T174">
+        <v>1.33</v>
+      </c>
+      <c r="U174">
+        <v>3.05</v>
+      </c>
+      <c r="V174">
+        <v>2.75</v>
+      </c>
+      <c r="W174">
+        <v>1.38</v>
+      </c>
+      <c r="X174">
+        <v>6.9</v>
+      </c>
+      <c r="Y174">
+        <v>1.08</v>
+      </c>
+      <c r="Z174">
+        <v>2.65</v>
+      </c>
+      <c r="AA174">
+        <v>3.1</v>
+      </c>
+      <c r="AB174">
+        <v>2.6</v>
+      </c>
+      <c r="AC174">
+        <v>1.02</v>
+      </c>
+      <c r="AD174">
+        <v>10</v>
+      </c>
+      <c r="AE174">
+        <v>1.25</v>
+      </c>
+      <c r="AF174">
+        <v>3.85</v>
+      </c>
+      <c r="AG174">
+        <v>1.89</v>
+      </c>
+      <c r="AH174">
+        <v>1.85</v>
+      </c>
+      <c r="AI174">
+        <v>1.64</v>
+      </c>
+      <c r="AJ174">
+        <v>2.16</v>
+      </c>
+      <c r="AK174">
+        <v>1.42</v>
+      </c>
+      <c r="AL174">
+        <v>1.3</v>
+      </c>
+      <c r="AM174">
+        <v>1.48</v>
+      </c>
+      <c r="AN174">
+        <v>0.8</v>
+      </c>
+      <c r="AO174">
+        <v>1.4</v>
+      </c>
+      <c r="AP174">
+        <v>0.73</v>
+      </c>
+      <c r="AQ174">
+        <v>1.55</v>
+      </c>
+      <c r="AR174">
+        <v>1.42</v>
+      </c>
+      <c r="AS174">
+        <v>1.3</v>
+      </c>
+      <c r="AT174">
+        <v>2.72</v>
+      </c>
+      <c r="AU174">
+        <v>5</v>
+      </c>
+      <c r="AV174">
+        <v>7</v>
+      </c>
+      <c r="AW174">
+        <v>2</v>
+      </c>
+      <c r="AX174">
+        <v>10</v>
+      </c>
+      <c r="AY174">
+        <v>7</v>
+      </c>
+      <c r="AZ174">
+        <v>17</v>
+      </c>
+      <c r="BA174">
+        <v>4</v>
+      </c>
+      <c r="BB174">
+        <v>7</v>
+      </c>
+      <c r="BC174">
+        <v>11</v>
+      </c>
+      <c r="BD174">
+        <v>1.9</v>
+      </c>
+      <c r="BE174">
+        <v>6.6</v>
+      </c>
+      <c r="BF174">
+        <v>2.34</v>
+      </c>
+      <c r="BG174">
+        <v>1.22</v>
+      </c>
+      <c r="BH174">
+        <v>3.8</v>
+      </c>
+      <c r="BI174">
+        <v>1.4</v>
+      </c>
+      <c r="BJ174">
+        <v>2.7</v>
+      </c>
+      <c r="BK174">
+        <v>1.77</v>
+      </c>
+      <c r="BL174">
+        <v>1.95</v>
+      </c>
+      <c r="BM174">
+        <v>2.06</v>
+      </c>
+      <c r="BN174">
+        <v>1.75</v>
+      </c>
+      <c r="BO174">
+        <v>2.5</v>
+      </c>
+      <c r="BP174">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,12 @@
     <t>['44']</t>
   </si>
   <si>
+    <t>['31', '56']</t>
+  </si>
+  <si>
+    <t>['16', '84']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -902,6 +908,9 @@
   </si>
   <si>
     <t>['4', '56']</t>
+  </si>
+  <si>
+    <t>['14', '89']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1728,7 +1737,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1934,7 +1943,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2140,7 +2149,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2346,7 +2355,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2552,7 +2561,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2633,7 +2642,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ7">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2758,7 +2767,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3376,7 +3385,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3454,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ11">
         <v>0.91</v>
@@ -3582,7 +3591,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3994,7 +4003,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4406,7 +4415,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4612,7 +4621,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5024,7 +5033,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5308,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ20">
         <v>0.8</v>
@@ -5436,7 +5445,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5642,7 +5651,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5848,7 +5857,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6135,7 +6144,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ24">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR24">
         <v>1.54</v>
@@ -6466,7 +6475,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6672,7 +6681,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6750,7 +6759,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ27">
         <v>2.36</v>
@@ -7084,7 +7093,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7290,7 +7299,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7702,7 +7711,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7783,7 +7792,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ32">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8604,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
@@ -9431,7 +9440,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ40">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -9556,7 +9565,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9762,7 +9771,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9968,7 +9977,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10174,7 +10183,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10255,7 +10264,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ44">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10458,7 +10467,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ45">
         <v>1.75</v>
@@ -10586,7 +10595,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10664,7 +10673,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ46">
         <v>1.55</v>
@@ -10998,7 +11007,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11204,7 +11213,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11285,7 +11294,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.05</v>
@@ -12234,7 +12243,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12440,7 +12449,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12646,7 +12655,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12852,7 +12861,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13058,7 +13067,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13676,7 +13685,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13757,7 +13766,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ61">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
         <v>1.37</v>
@@ -13882,7 +13891,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14294,7 +14303,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14372,7 +14381,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ64">
         <v>0.64</v>
@@ -14706,7 +14715,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14912,7 +14921,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14993,7 +15002,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ67">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.37</v>
@@ -15118,7 +15127,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15608,7 +15617,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ70">
         <v>1.36</v>
@@ -15736,7 +15745,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15942,7 +15951,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16148,7 +16157,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16354,7 +16363,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16560,7 +16569,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16972,7 +16981,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17178,7 +17187,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17256,7 +17265,7 @@
         <v>2.6</v>
       </c>
       <c r="AP78">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ78">
         <v>2.36</v>
@@ -17462,7 +17471,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ79">
         <v>0.91</v>
@@ -17671,7 +17680,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ80">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.94</v>
@@ -18002,7 +18011,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18414,7 +18423,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18620,7 +18629,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18907,7 +18916,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -19032,7 +19041,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19238,7 +19247,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19444,7 +19453,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19650,7 +19659,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19728,7 +19737,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ90">
         <v>0.9</v>
@@ -19856,7 +19865,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20062,7 +20071,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20474,7 +20483,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20680,7 +20689,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20761,7 +20770,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ95">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -20886,7 +20895,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21298,7 +21307,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21504,7 +21513,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21710,7 +21719,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21994,10 +22003,10 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ101">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -22122,7 +22131,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22328,7 +22337,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22406,7 +22415,7 @@
         <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ103">
         <v>1.27</v>
@@ -22740,7 +22749,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23024,7 +23033,7 @@
         <v>1.43</v>
       </c>
       <c r="AP106">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ106">
         <v>1.55</v>
@@ -23152,7 +23161,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23358,7 +23367,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23564,7 +23573,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23770,7 +23779,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24057,7 +24066,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ111">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.49</v>
@@ -24182,7 +24191,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24388,7 +24397,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24594,7 +24603,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24675,7 +24684,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ114">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR114">
         <v>1.52</v>
@@ -24800,7 +24809,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25006,7 +25015,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25212,7 +25221,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25290,7 +25299,7 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ117">
         <v>0.33</v>
@@ -25705,7 +25714,7 @@
         <v>2</v>
       </c>
       <c r="AQ119">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25830,7 +25839,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26242,7 +26251,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26320,7 +26329,7 @@
         <v>0.86</v>
       </c>
       <c r="AP122">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ122">
         <v>0.64</v>
@@ -26529,7 +26538,7 @@
         <v>2</v>
       </c>
       <c r="AQ123">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -27066,7 +27075,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27272,7 +27281,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27478,7 +27487,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27684,7 +27693,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27762,7 +27771,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ129">
         <v>0.9</v>
@@ -27890,7 +27899,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28508,7 +28517,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28586,7 +28595,7 @@
         <v>1.43</v>
       </c>
       <c r="AP133">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ133">
         <v>1.27</v>
@@ -28714,7 +28723,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29126,7 +29135,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29332,7 +29341,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29413,7 +29422,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ137">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR137">
         <v>1.88</v>
@@ -29538,7 +29547,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29744,7 +29753,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29950,7 +29959,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30031,7 +30040,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ140">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR140">
         <v>1.53</v>
@@ -30443,7 +30452,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ142">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR142">
         <v>1.4</v>
@@ -30568,7 +30577,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31264,7 +31273,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ146">
         <v>0.7</v>
@@ -31679,7 +31688,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR148">
         <v>1.61</v>
@@ -32010,7 +32019,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32706,7 +32715,7 @@
         <v>1.56</v>
       </c>
       <c r="AP153">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ153">
         <v>1.27</v>
@@ -33040,7 +33049,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33246,7 +33255,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33452,7 +33461,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33739,7 +33748,7 @@
         <v>1</v>
       </c>
       <c r="AQ158">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR158">
         <v>1.39</v>
@@ -33864,7 +33873,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34688,7 +34697,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q163">
         <v>2.49</v>
@@ -35100,7 +35109,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35512,7 +35521,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -36748,7 +36757,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36954,7 +36963,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37111,6 +37120,418 @@
       </c>
       <c r="BP174">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7321781</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45533.79166666666</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>83</v>
+      </c>
+      <c r="H175" t="s">
+        <v>70</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>207</v>
+      </c>
+      <c r="P175" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q175">
+        <v>2.3</v>
+      </c>
+      <c r="R175">
+        <v>2.25</v>
+      </c>
+      <c r="S175">
+        <v>5</v>
+      </c>
+      <c r="T175">
+        <v>1.36</v>
+      </c>
+      <c r="U175">
+        <v>3</v>
+      </c>
+      <c r="V175">
+        <v>2.75</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>8</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>1.66</v>
+      </c>
+      <c r="AA175">
+        <v>3.92</v>
+      </c>
+      <c r="AB175">
+        <v>4.83</v>
+      </c>
+      <c r="AC175">
+        <v>1.02</v>
+      </c>
+      <c r="AD175">
+        <v>11</v>
+      </c>
+      <c r="AE175">
+        <v>1.26</v>
+      </c>
+      <c r="AF175">
+        <v>3.5</v>
+      </c>
+      <c r="AG175">
+        <v>1.85</v>
+      </c>
+      <c r="AH175">
+        <v>1.85</v>
+      </c>
+      <c r="AI175">
+        <v>1.83</v>
+      </c>
+      <c r="AJ175">
+        <v>1.83</v>
+      </c>
+      <c r="AK175">
+        <v>1.16</v>
+      </c>
+      <c r="AL175">
+        <v>1.22</v>
+      </c>
+      <c r="AM175">
+        <v>2.14</v>
+      </c>
+      <c r="AN175">
+        <v>2.1</v>
+      </c>
+      <c r="AO175">
+        <v>1.1</v>
+      </c>
+      <c r="AP175">
+        <v>2.18</v>
+      </c>
+      <c r="AQ175">
+        <v>1</v>
+      </c>
+      <c r="AR175">
+        <v>1.68</v>
+      </c>
+      <c r="AS175">
+        <v>1.34</v>
+      </c>
+      <c r="AT175">
+        <v>3.02</v>
+      </c>
+      <c r="AU175">
+        <v>8</v>
+      </c>
+      <c r="AV175">
+        <v>5</v>
+      </c>
+      <c r="AW175">
+        <v>7</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>15</v>
+      </c>
+      <c r="AZ175">
+        <v>9</v>
+      </c>
+      <c r="BA175">
+        <v>12</v>
+      </c>
+      <c r="BB175">
+        <v>4</v>
+      </c>
+      <c r="BC175">
+        <v>16</v>
+      </c>
+      <c r="BD175">
+        <v>1.34</v>
+      </c>
+      <c r="BE175">
+        <v>9.5</v>
+      </c>
+      <c r="BF175">
+        <v>3.86</v>
+      </c>
+      <c r="BG175">
+        <v>1.25</v>
+      </c>
+      <c r="BH175">
+        <v>3.6</v>
+      </c>
+      <c r="BI175">
+        <v>1.48</v>
+      </c>
+      <c r="BJ175">
+        <v>2.55</v>
+      </c>
+      <c r="BK175">
+        <v>1.85</v>
+      </c>
+      <c r="BL175">
+        <v>1.85</v>
+      </c>
+      <c r="BM175">
+        <v>2.22</v>
+      </c>
+      <c r="BN175">
+        <v>1.64</v>
+      </c>
+      <c r="BO175">
+        <v>2.7</v>
+      </c>
+      <c r="BP175">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7321788</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45533.89583333334</v>
+      </c>
+      <c r="F176">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176" t="s">
+        <v>77</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176" t="s">
+        <v>208</v>
+      </c>
+      <c r="P176" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q176">
+        <v>3</v>
+      </c>
+      <c r="R176">
+        <v>2.1</v>
+      </c>
+      <c r="S176">
+        <v>3.6</v>
+      </c>
+      <c r="T176">
+        <v>1.4</v>
+      </c>
+      <c r="U176">
+        <v>2.75</v>
+      </c>
+      <c r="V176">
+        <v>3</v>
+      </c>
+      <c r="W176">
+        <v>1.36</v>
+      </c>
+      <c r="X176">
+        <v>8</v>
+      </c>
+      <c r="Y176">
+        <v>1.08</v>
+      </c>
+      <c r="Z176">
+        <v>2.18</v>
+      </c>
+      <c r="AA176">
+        <v>3.04</v>
+      </c>
+      <c r="AB176">
+        <v>2.76</v>
+      </c>
+      <c r="AC176">
+        <v>1.03</v>
+      </c>
+      <c r="AD176">
+        <v>9.5</v>
+      </c>
+      <c r="AE176">
+        <v>1.29</v>
+      </c>
+      <c r="AF176">
+        <v>3.45</v>
+      </c>
+      <c r="AG176">
+        <v>1.98</v>
+      </c>
+      <c r="AH176">
+        <v>1.84</v>
+      </c>
+      <c r="AI176">
+        <v>1.8</v>
+      </c>
+      <c r="AJ176">
+        <v>1.91</v>
+      </c>
+      <c r="AK176">
+        <v>1.38</v>
+      </c>
+      <c r="AL176">
+        <v>1.27</v>
+      </c>
+      <c r="AM176">
+        <v>1.57</v>
+      </c>
+      <c r="AN176">
+        <v>1.3</v>
+      </c>
+      <c r="AO176">
+        <v>1.36</v>
+      </c>
+      <c r="AP176">
+        <v>1.27</v>
+      </c>
+      <c r="AQ176">
+        <v>1.33</v>
+      </c>
+      <c r="AR176">
+        <v>1.75</v>
+      </c>
+      <c r="AS176">
+        <v>1.35</v>
+      </c>
+      <c r="AT176">
+        <v>3.1</v>
+      </c>
+      <c r="AU176">
+        <v>8</v>
+      </c>
+      <c r="AV176">
+        <v>6</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>6</v>
+      </c>
+      <c r="AY176">
+        <v>13</v>
+      </c>
+      <c r="AZ176">
+        <v>12</v>
+      </c>
+      <c r="BA176">
+        <v>3</v>
+      </c>
+      <c r="BB176">
+        <v>4</v>
+      </c>
+      <c r="BC176">
+        <v>7</v>
+      </c>
+      <c r="BD176">
+        <v>1.69</v>
+      </c>
+      <c r="BE176">
+        <v>8</v>
+      </c>
+      <c r="BF176">
+        <v>2.62</v>
+      </c>
+      <c r="BG176">
+        <v>1.29</v>
+      </c>
+      <c r="BH176">
+        <v>3.4</v>
+      </c>
+      <c r="BI176">
+        <v>1.48</v>
+      </c>
+      <c r="BJ176">
+        <v>2.5</v>
+      </c>
+      <c r="BK176">
+        <v>1.77</v>
+      </c>
+      <c r="BL176">
+        <v>1.95</v>
+      </c>
+      <c r="BM176">
+        <v>2.24</v>
+      </c>
+      <c r="BN176">
+        <v>1.62</v>
+      </c>
+      <c r="BO176">
+        <v>2.8</v>
+      </c>
+      <c r="BP176">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,10 +601,10 @@
     <t>['57', '63']</t>
   </si>
   <si>
-    <t>['3', '18', '45+3', '89']</t>
+    <t>['74', '79', '84']</t>
   </si>
   <si>
-    <t>['74', '79', '84']</t>
+    <t>['3', '18', '45+3', '89']</t>
   </si>
   <si>
     <t>['65']</t>
@@ -641,6 +641,12 @@
   </si>
   <si>
     <t>['16', '84']</t>
+  </si>
+  <si>
+    <t>['48', '50']</t>
+  </si>
+  <si>
+    <t>['26', '30', '55']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -911,6 +917,15 @@
   </si>
   <si>
     <t>['14', '89']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['18', '45+1']</t>
+  </si>
+  <si>
+    <t>['28', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1737,7 +1752,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1943,7 +1958,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2149,7 +2164,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2355,7 +2370,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2436,7 +2451,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ6">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2561,7 +2576,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2639,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2767,7 +2782,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2845,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8">
         <v>0.33</v>
@@ -3385,7 +3400,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3591,7 +3606,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -4003,7 +4018,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4084,7 +4099,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ14">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4415,7 +4430,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4621,7 +4636,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5033,7 +5048,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5445,7 +5460,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5526,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5651,7 +5666,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5732,7 +5747,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR22">
         <v>1.29</v>
@@ -5857,7 +5872,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6475,7 +6490,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6681,7 +6696,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6762,7 +6777,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ27">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -7093,7 +7108,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7171,7 +7186,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ29">
         <v>1.55</v>
@@ -7299,7 +7314,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7711,7 +7726,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7789,7 +7804,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -8204,7 +8219,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ34">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8407,7 +8422,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ35">
         <v>1.8</v>
@@ -9025,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ38">
         <v>1.27</v>
@@ -9437,7 +9452,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9565,7 +9580,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9771,7 +9786,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9977,7 +9992,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10058,7 +10073,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ43">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -10183,7 +10198,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10595,7 +10610,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -11007,7 +11022,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11088,7 +11103,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ48">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR48">
         <v>1.89</v>
@@ -11213,7 +11228,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11500,7 +11515,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11909,7 +11924,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ52">
         <v>0.7</v>
@@ -12115,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ53">
         <v>1.27</v>
@@ -12243,7 +12258,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12449,7 +12464,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12527,7 +12542,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ55">
         <v>0.64</v>
@@ -12655,7 +12670,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12736,7 +12751,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR56">
         <v>1.34</v>
@@ -12861,7 +12876,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13067,7 +13082,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13685,7 +13700,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13891,7 +13906,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14303,7 +14318,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14715,7 +14730,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14921,7 +14936,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15127,7 +15142,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15205,7 +15220,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ68">
         <v>1.8</v>
@@ -15411,7 +15426,7 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69">
         <v>1.27</v>
@@ -15620,7 +15635,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ70">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15745,7 +15760,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15826,7 +15841,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ71">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR71">
         <v>1.4</v>
@@ -15951,7 +15966,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16157,7 +16172,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16363,7 +16378,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16444,7 +16459,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ74">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR74">
         <v>1.38</v>
@@ -16569,7 +16584,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16981,7 +16996,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17059,7 +17074,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ77">
         <v>1.27</v>
@@ -17187,7 +17202,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17268,7 +17283,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ78">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -18011,7 +18026,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18295,7 +18310,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ83">
         <v>0.8</v>
@@ -18423,7 +18438,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18629,7 +18644,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19041,7 +19056,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19122,7 +19137,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ87">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR87">
         <v>1.35</v>
@@ -19247,7 +19262,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19453,7 +19468,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19659,7 +19674,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19740,7 +19755,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ90">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -19865,7 +19880,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19943,7 +19958,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ91">
         <v>1.27</v>
@@ -20071,7 +20086,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20149,7 +20164,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ92">
         <v>0.7</v>
@@ -20483,7 +20498,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20689,7 +20704,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20895,7 +20910,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20976,7 +20991,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -21179,7 +21194,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ97">
         <v>0.33</v>
@@ -21307,7 +21322,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21388,7 +21403,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ98">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21513,7 +21528,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21719,7 +21734,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22131,7 +22146,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22337,7 +22352,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22624,7 +22639,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ104">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR104">
         <v>1.35</v>
@@ -22749,7 +22764,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23161,7 +23176,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23367,7 +23382,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23445,7 +23460,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ108">
         <v>0.64</v>
@@ -23573,7 +23588,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23779,7 +23794,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24191,7 +24206,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24397,7 +24412,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24478,7 +24493,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -24603,7 +24618,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24809,7 +24824,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24887,10 +24902,10 @@
         <v>2.71</v>
       </c>
       <c r="AP115">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ115">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR115">
         <v>1.75</v>
@@ -25015,7 +25030,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25221,7 +25236,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25505,7 +25520,7 @@
         <v>2.43</v>
       </c>
       <c r="AP118">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ118">
         <v>1.75</v>
@@ -25711,7 +25726,7 @@
         <v>1.86</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ119">
         <v>1.33</v>
@@ -25839,7 +25854,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26251,7 +26266,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26535,7 +26550,7 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26947,7 +26962,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ125">
         <v>0.91</v>
@@ -27075,7 +27090,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27281,7 +27296,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27487,7 +27502,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27568,7 +27583,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ128">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR128">
         <v>1.59</v>
@@ -27693,7 +27708,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27774,7 +27789,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ129">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR129">
         <v>1.87</v>
@@ -27899,7 +27914,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -27977,10 +27992,10 @@
         <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ130">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR130">
         <v>1.77</v>
@@ -28517,7 +28532,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28723,7 +28738,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29010,7 +29025,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ135">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR135">
         <v>1.49</v>
@@ -29135,7 +29150,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29341,7 +29356,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29547,7 +29562,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29625,10 +29640,10 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ138">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR138">
         <v>1.33</v>
@@ -29753,7 +29768,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29831,7 +29846,7 @@
         <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ139">
         <v>1.27</v>
@@ -29959,7 +29974,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30037,7 +30052,7 @@
         <v>1.56</v>
       </c>
       <c r="AP140">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ140">
         <v>1.33</v>
@@ -30577,7 +30592,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -32019,7 +32034,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32097,10 +32112,10 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ150">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -32306,7 +32321,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ151">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32509,7 +32524,7 @@
         <v>2.22</v>
       </c>
       <c r="AP152">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ152">
         <v>1.75</v>
@@ -33049,7 +33064,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33255,7 +33270,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33336,7 +33351,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ156">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR156">
         <v>1.51</v>
@@ -33461,7 +33476,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33873,7 +33888,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -33954,7 +33969,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ159">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR159">
         <v>1.68</v>
@@ -34366,7 +34381,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ161">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR161">
         <v>1.52</v>
@@ -34449,7 +34464,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7321773</v>
+        <v>7321777</v>
       </c>
       <c r="C162" t="s">
         <v>68</v>
@@ -34464,139 +34479,139 @@
         <v>21</v>
       </c>
       <c r="G162" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H162" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
         <v>3</v>
       </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
+      <c r="M162">
         <v>3</v>
       </c>
-      <c r="L162">
-        <v>4</v>
-      </c>
-      <c r="M162">
-        <v>0</v>
-      </c>
       <c r="N162">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O162" t="s">
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="Q162">
-        <v>1.78</v>
+        <v>2.49</v>
       </c>
       <c r="R162">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="S162">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="T162">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="U162">
-        <v>3.7</v>
+        <v>2.99</v>
       </c>
       <c r="V162">
-        <v>2.27</v>
+        <v>2.67</v>
       </c>
       <c r="W162">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="X162">
-        <v>4.95</v>
+        <v>6.55</v>
       </c>
       <c r="Y162">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="Z162">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AA162">
-        <v>4.62</v>
+        <v>3.55</v>
       </c>
       <c r="AB162">
-        <v>7.05</v>
+        <v>3.88</v>
       </c>
       <c r="AC162">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD162">
-        <v>17</v>
+        <v>9.9</v>
       </c>
       <c r="AE162">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AF162">
-        <v>5</v>
+        <v>3.56</v>
       </c>
       <c r="AG162">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="AH162">
-        <v>2.35</v>
+        <v>1.93</v>
       </c>
       <c r="AI162">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="AJ162">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="AK162">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="AL162">
-        <v>1.11</v>
+        <v>1.27</v>
       </c>
       <c r="AM162">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="AN162">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="AO162">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AP162">
-        <v>1.82</v>
+        <v>1</v>
       </c>
       <c r="AQ162">
-        <v>0.64</v>
+        <v>0.33</v>
       </c>
       <c r="AR162">
-        <v>1.89</v>
+        <v>1.37</v>
       </c>
       <c r="AS162">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="AT162">
-        <v>2.93</v>
+        <v>2.47</v>
       </c>
       <c r="AU162">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV162">
+        <v>6</v>
+      </c>
+      <c r="AW162">
         <v>3</v>
       </c>
-      <c r="AW162">
-        <v>7</v>
-      </c>
       <c r="AX162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY162">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ162">
         <v>7</v>
@@ -34605,49 +34620,49 @@
         <v>5</v>
       </c>
       <c r="BB162">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC162">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BD162">
-        <v>1.21</v>
+        <v>1.85</v>
       </c>
       <c r="BE162">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BF162">
-        <v>5.17</v>
+        <v>2.28</v>
       </c>
       <c r="BG162">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="BH162">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="BI162">
+        <v>1.48</v>
+      </c>
+      <c r="BJ162">
+        <v>2.56</v>
+      </c>
+      <c r="BK162">
+        <v>1.77</v>
+      </c>
+      <c r="BL162">
+        <v>1.95</v>
+      </c>
+      <c r="BM162">
+        <v>2.27</v>
+      </c>
+      <c r="BN162">
+        <v>1.6</v>
+      </c>
+      <c r="BO162">
+        <v>2.9</v>
+      </c>
+      <c r="BP162">
         <v>1.36</v>
-      </c>
-      <c r="BJ162">
-        <v>2.9</v>
-      </c>
-      <c r="BK162">
-        <v>1.71</v>
-      </c>
-      <c r="BL162">
-        <v>2.11</v>
-      </c>
-      <c r="BM162">
-        <v>2.16</v>
-      </c>
-      <c r="BN162">
-        <v>1.68</v>
-      </c>
-      <c r="BO162">
-        <v>2.77</v>
-      </c>
-      <c r="BP162">
-        <v>1.39</v>
       </c>
     </row>
     <row r="163" spans="1:68">
@@ -34655,7 +34670,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7321777</v>
+        <v>7321773</v>
       </c>
       <c r="C163" t="s">
         <v>68</v>
@@ -34670,139 +34685,139 @@
         <v>21</v>
       </c>
       <c r="G163" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H163" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N163">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O163" t="s">
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>294</v>
+        <v>86</v>
       </c>
       <c r="Q163">
-        <v>2.49</v>
+        <v>1.78</v>
       </c>
       <c r="R163">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="S163">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="T163">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="U163">
-        <v>2.99</v>
+        <v>3.7</v>
       </c>
       <c r="V163">
-        <v>2.67</v>
+        <v>2.27</v>
       </c>
       <c r="W163">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="X163">
-        <v>6.55</v>
+        <v>4.95</v>
       </c>
       <c r="Y163">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="Z163">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AA163">
-        <v>3.55</v>
+        <v>4.62</v>
       </c>
       <c r="AB163">
-        <v>3.88</v>
+        <v>7.05</v>
       </c>
       <c r="AC163">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD163">
-        <v>9.9</v>
+        <v>17</v>
       </c>
       <c r="AE163">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AF163">
-        <v>3.56</v>
+        <v>5</v>
       </c>
       <c r="AG163">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="AH163">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="AI163">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="AJ163">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="AK163">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="AL163">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="AM163">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="AN163">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AO163">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>1.82</v>
       </c>
       <c r="AQ163">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
       <c r="AR163">
-        <v>1.37</v>
+        <v>1.89</v>
       </c>
       <c r="AS163">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="AT163">
-        <v>2.47</v>
+        <v>2.93</v>
       </c>
       <c r="AU163">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV163">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW163">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY163">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ163">
         <v>7</v>
@@ -34811,49 +34826,49 @@
         <v>5</v>
       </c>
       <c r="BB163">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC163">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BD163">
-        <v>1.85</v>
+        <v>1.21</v>
       </c>
       <c r="BE163">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BF163">
-        <v>2.28</v>
+        <v>5.17</v>
       </c>
       <c r="BG163">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="BH163">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="BI163">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="BJ163">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="BK163">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="BL163">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="BM163">
-        <v>2.27</v>
+        <v>2.16</v>
       </c>
       <c r="BN163">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="BO163">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="BP163">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="164" spans="1:68">
@@ -34981,7 +34996,7 @@
         <v>1.3</v>
       </c>
       <c r="AP164">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ164">
         <v>1.27</v>
@@ -35109,7 +35124,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35521,7 +35536,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35599,7 +35614,7 @@
         <v>1.67</v>
       </c>
       <c r="AP167">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ167">
         <v>1.8</v>
@@ -35805,7 +35820,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ168">
         <v>0.8</v>
@@ -36014,7 +36029,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ169">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36757,7 +36772,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36963,7 +36978,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37169,7 +37184,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37375,7 +37390,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37532,6 +37547,624 @@
       </c>
       <c r="BP176">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7321792</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="F177">
+        <v>23</v>
+      </c>
+      <c r="G177" t="s">
+        <v>76</v>
+      </c>
+      <c r="H177" t="s">
+        <v>78</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>86</v>
+      </c>
+      <c r="P177" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q177">
+        <v>3.2</v>
+      </c>
+      <c r="R177">
+        <v>2.1</v>
+      </c>
+      <c r="S177">
+        <v>2.85</v>
+      </c>
+      <c r="T177">
+        <v>1.35</v>
+      </c>
+      <c r="U177">
+        <v>2.8</v>
+      </c>
+      <c r="V177">
+        <v>2.75</v>
+      </c>
+      <c r="W177">
+        <v>1.37</v>
+      </c>
+      <c r="X177">
+        <v>6.5</v>
+      </c>
+      <c r="Y177">
+        <v>1.07</v>
+      </c>
+      <c r="Z177">
+        <v>3.4</v>
+      </c>
+      <c r="AA177">
+        <v>3.1</v>
+      </c>
+      <c r="AB177">
+        <v>2.15</v>
+      </c>
+      <c r="AC177">
+        <v>1.05</v>
+      </c>
+      <c r="AD177">
+        <v>7.8</v>
+      </c>
+      <c r="AE177">
+        <v>1.27</v>
+      </c>
+      <c r="AF177">
+        <v>3.4</v>
+      </c>
+      <c r="AG177">
+        <v>1.98</v>
+      </c>
+      <c r="AH177">
+        <v>1.81</v>
+      </c>
+      <c r="AI177">
+        <v>1.72</v>
+      </c>
+      <c r="AJ177">
+        <v>1.93</v>
+      </c>
+      <c r="AK177">
+        <v>1.47</v>
+      </c>
+      <c r="AL177">
+        <v>1.32</v>
+      </c>
+      <c r="AM177">
+        <v>1.3</v>
+      </c>
+      <c r="AN177">
+        <v>2</v>
+      </c>
+      <c r="AO177">
+        <v>2.36</v>
+      </c>
+      <c r="AP177">
+        <v>1.83</v>
+      </c>
+      <c r="AQ177">
+        <v>2.42</v>
+      </c>
+      <c r="AR177">
+        <v>1.42</v>
+      </c>
+      <c r="AS177">
+        <v>1.74</v>
+      </c>
+      <c r="AT177">
+        <v>3.16</v>
+      </c>
+      <c r="AU177">
+        <v>4</v>
+      </c>
+      <c r="AV177">
+        <v>6</v>
+      </c>
+      <c r="AW177">
+        <v>8</v>
+      </c>
+      <c r="AX177">
+        <v>2</v>
+      </c>
+      <c r="AY177">
+        <v>12</v>
+      </c>
+      <c r="AZ177">
+        <v>8</v>
+      </c>
+      <c r="BA177">
+        <v>6</v>
+      </c>
+      <c r="BB177">
+        <v>4</v>
+      </c>
+      <c r="BC177">
+        <v>10</v>
+      </c>
+      <c r="BD177">
+        <v>2</v>
+      </c>
+      <c r="BE177">
+        <v>8</v>
+      </c>
+      <c r="BF177">
+        <v>2.05</v>
+      </c>
+      <c r="BG177">
+        <v>1.25</v>
+      </c>
+      <c r="BH177">
+        <v>3.6</v>
+      </c>
+      <c r="BI177">
+        <v>1.42</v>
+      </c>
+      <c r="BJ177">
+        <v>2.62</v>
+      </c>
+      <c r="BK177">
+        <v>1.95</v>
+      </c>
+      <c r="BL177">
+        <v>1.77</v>
+      </c>
+      <c r="BM177">
+        <v>2.12</v>
+      </c>
+      <c r="BN177">
+        <v>1.7</v>
+      </c>
+      <c r="BO177">
+        <v>2.62</v>
+      </c>
+      <c r="BP177">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7321789</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45535.77083333334</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>75</v>
+      </c>
+      <c r="H178" t="s">
+        <v>80</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>2</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>209</v>
+      </c>
+      <c r="P178" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q178">
+        <v>2.3</v>
+      </c>
+      <c r="R178">
+        <v>2.2</v>
+      </c>
+      <c r="S178">
+        <v>5.5</v>
+      </c>
+      <c r="T178">
+        <v>1.4</v>
+      </c>
+      <c r="U178">
+        <v>2.75</v>
+      </c>
+      <c r="V178">
+        <v>3</v>
+      </c>
+      <c r="W178">
+        <v>1.36</v>
+      </c>
+      <c r="X178">
+        <v>9</v>
+      </c>
+      <c r="Y178">
+        <v>1.07</v>
+      </c>
+      <c r="Z178">
+        <v>1.85</v>
+      </c>
+      <c r="AA178">
+        <v>3.55</v>
+      </c>
+      <c r="AB178">
+        <v>3.8</v>
+      </c>
+      <c r="AC178">
+        <v>1.01</v>
+      </c>
+      <c r="AD178">
+        <v>9.9</v>
+      </c>
+      <c r="AE178">
+        <v>1.23</v>
+      </c>
+      <c r="AF178">
+        <v>3.56</v>
+      </c>
+      <c r="AG178">
+        <v>1.87</v>
+      </c>
+      <c r="AH178">
+        <v>1.92</v>
+      </c>
+      <c r="AI178">
+        <v>2</v>
+      </c>
+      <c r="AJ178">
+        <v>1.73</v>
+      </c>
+      <c r="AK178">
+        <v>1.22</v>
+      </c>
+      <c r="AL178">
+        <v>1.25</v>
+      </c>
+      <c r="AM178">
+        <v>2</v>
+      </c>
+      <c r="AN178">
+        <v>1.7</v>
+      </c>
+      <c r="AO178">
+        <v>1.36</v>
+      </c>
+      <c r="AP178">
+        <v>1.64</v>
+      </c>
+      <c r="AQ178">
+        <v>1.33</v>
+      </c>
+      <c r="AR178">
+        <v>1.52</v>
+      </c>
+      <c r="AS178">
+        <v>1.49</v>
+      </c>
+      <c r="AT178">
+        <v>3.01</v>
+      </c>
+      <c r="AU178">
+        <v>7</v>
+      </c>
+      <c r="AV178">
+        <v>5</v>
+      </c>
+      <c r="AW178">
+        <v>3</v>
+      </c>
+      <c r="AX178">
+        <v>3</v>
+      </c>
+      <c r="AY178">
+        <v>10</v>
+      </c>
+      <c r="AZ178">
+        <v>8</v>
+      </c>
+      <c r="BA178">
+        <v>2</v>
+      </c>
+      <c r="BB178">
+        <v>7</v>
+      </c>
+      <c r="BC178">
+        <v>9</v>
+      </c>
+      <c r="BD178">
+        <v>1.51</v>
+      </c>
+      <c r="BE178">
+        <v>8.5</v>
+      </c>
+      <c r="BF178">
+        <v>3.07</v>
+      </c>
+      <c r="BG178">
+        <v>1.29</v>
+      </c>
+      <c r="BH178">
+        <v>3.3</v>
+      </c>
+      <c r="BI178">
+        <v>1.48</v>
+      </c>
+      <c r="BJ178">
+        <v>2.57</v>
+      </c>
+      <c r="BK178">
+        <v>1.81</v>
+      </c>
+      <c r="BL178">
+        <v>1.99</v>
+      </c>
+      <c r="BM178">
+        <v>2.28</v>
+      </c>
+      <c r="BN178">
+        <v>1.6</v>
+      </c>
+      <c r="BO178">
+        <v>2.8</v>
+      </c>
+      <c r="BP178">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7321794</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45535.875</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>85</v>
+      </c>
+      <c r="H179" t="s">
+        <v>71</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>5</v>
+      </c>
+      <c r="O179" t="s">
+        <v>210</v>
+      </c>
+      <c r="P179" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q179">
+        <v>2.75</v>
+      </c>
+      <c r="R179">
+        <v>2.2</v>
+      </c>
+      <c r="S179">
+        <v>3.75</v>
+      </c>
+      <c r="T179">
+        <v>1.36</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179">
+        <v>2.75</v>
+      </c>
+      <c r="W179">
+        <v>1.4</v>
+      </c>
+      <c r="X179">
+        <v>7</v>
+      </c>
+      <c r="Y179">
+        <v>1.1</v>
+      </c>
+      <c r="Z179">
+        <v>2.05</v>
+      </c>
+      <c r="AA179">
+        <v>3.35</v>
+      </c>
+      <c r="AB179">
+        <v>3.4</v>
+      </c>
+      <c r="AC179">
+        <v>1.04</v>
+      </c>
+      <c r="AD179">
+        <v>8.5</v>
+      </c>
+      <c r="AE179">
+        <v>1.22</v>
+      </c>
+      <c r="AF179">
+        <v>3.7</v>
+      </c>
+      <c r="AG179">
+        <v>1.82</v>
+      </c>
+      <c r="AH179">
+        <v>2.02</v>
+      </c>
+      <c r="AI179">
+        <v>1.67</v>
+      </c>
+      <c r="AJ179">
+        <v>2.1</v>
+      </c>
+      <c r="AK179">
+        <v>1.28</v>
+      </c>
+      <c r="AL179">
+        <v>1.28</v>
+      </c>
+      <c r="AM179">
+        <v>1.55</v>
+      </c>
+      <c r="AN179">
+        <v>1.27</v>
+      </c>
+      <c r="AO179">
+        <v>0.9</v>
+      </c>
+      <c r="AP179">
+        <v>1.42</v>
+      </c>
+      <c r="AQ179">
+        <v>0.82</v>
+      </c>
+      <c r="AR179">
+        <v>1.61</v>
+      </c>
+      <c r="AS179">
+        <v>1.41</v>
+      </c>
+      <c r="AT179">
+        <v>3.02</v>
+      </c>
+      <c r="AU179">
+        <v>11</v>
+      </c>
+      <c r="AV179">
+        <v>9</v>
+      </c>
+      <c r="AW179">
+        <v>9</v>
+      </c>
+      <c r="AX179">
+        <v>2</v>
+      </c>
+      <c r="AY179">
+        <v>20</v>
+      </c>
+      <c r="AZ179">
+        <v>11</v>
+      </c>
+      <c r="BA179">
+        <v>8</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>14</v>
+      </c>
+      <c r="BD179">
+        <v>1.49</v>
+      </c>
+      <c r="BE179">
+        <v>7.2</v>
+      </c>
+      <c r="BF179">
+        <v>3.38</v>
+      </c>
+      <c r="BG179">
+        <v>1.2</v>
+      </c>
+      <c r="BH179">
+        <v>4</v>
+      </c>
+      <c r="BI179">
+        <v>1.36</v>
+      </c>
+      <c r="BJ179">
+        <v>2.9</v>
+      </c>
+      <c r="BK179">
+        <v>1.58</v>
+      </c>
+      <c r="BL179">
+        <v>2.32</v>
+      </c>
+      <c r="BM179">
+        <v>1.96</v>
+      </c>
+      <c r="BN179">
+        <v>1.84</v>
+      </c>
+      <c r="BO179">
+        <v>2.48</v>
+      </c>
+      <c r="BP179">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,15 @@
     <t>['26', '30', '55']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['55', '68']</t>
+  </si>
+  <si>
+    <t>['53', '80']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -926,6 +935,9 @@
   </si>
   <si>
     <t>['28', '90+3']</t>
+  </si>
+  <si>
+    <t>['22', '90+13']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1752,7 +1764,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1833,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1958,7 +1970,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2036,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ4">
         <v>1.27</v>
@@ -2164,7 +2176,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2242,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ5">
         <v>0.8</v>
@@ -2370,7 +2382,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2576,7 +2588,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2782,7 +2794,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3066,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ9">
         <v>0.64</v>
@@ -3275,7 +3287,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3400,7 +3412,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3606,7 +3618,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3893,7 +3905,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ13">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4018,7 +4030,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4302,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ15">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR15">
         <v>1.77</v>
@@ -4430,7 +4442,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4508,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4636,7 +4648,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5048,7 +5060,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5129,7 +5141,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ19">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR19">
         <v>1.33</v>
@@ -5460,7 +5472,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5538,7 +5550,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
         <v>1.33</v>
@@ -5666,7 +5678,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5744,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ22">
         <v>2.42</v>
@@ -5872,7 +5884,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6365,7 +6377,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR25">
         <v>0.9</v>
@@ -6490,7 +6502,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6696,7 +6708,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7108,7 +7120,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7314,7 +7326,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7392,7 +7404,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ30">
         <v>0.64</v>
@@ -7601,7 +7613,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ31">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR31">
         <v>1.69</v>
@@ -7726,7 +7738,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8216,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ34">
         <v>0.82</v>
@@ -8425,7 +8437,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR35">
         <v>2.24</v>
@@ -8834,7 +8846,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ37">
         <v>0.91</v>
@@ -9043,7 +9055,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ38">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9246,7 +9258,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ39">
         <v>1.75</v>
@@ -9580,7 +9592,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9661,7 +9673,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ41">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9786,7 +9798,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9992,7 +10004,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10198,7 +10210,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10610,7 +10622,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10894,7 +10906,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ47">
         <v>0.91</v>
@@ -11022,7 +11034,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11100,7 +11112,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ48">
         <v>2.42</v>
@@ -11228,7 +11240,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11512,7 +11524,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
@@ -11721,7 +11733,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ51">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -11927,7 +11939,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ52">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -12133,7 +12145,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ53">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.66</v>
@@ -12258,7 +12270,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12336,7 +12348,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ54">
         <v>1.27</v>
@@ -12464,7 +12476,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12670,7 +12682,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12876,7 +12888,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13082,7 +13094,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13700,7 +13712,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13906,7 +13918,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14318,7 +14330,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14602,7 +14614,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ65">
         <v>0.8</v>
@@ -14730,7 +14742,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14808,7 +14820,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ66">
         <v>1.55</v>
@@ -14936,7 +14948,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15142,7 +15154,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15223,7 +15235,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ68">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15760,7 +15772,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15838,7 +15850,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ71">
         <v>2.42</v>
@@ -15966,7 +15978,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16172,7 +16184,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16250,10 +16262,10 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ73">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16378,7 +16390,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16584,7 +16596,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16662,7 +16674,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ75">
         <v>1.75</v>
@@ -16996,7 +17008,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17202,7 +17214,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17901,7 +17913,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ81">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR81">
         <v>1.6</v>
@@ -18026,7 +18038,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18104,7 +18116,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ82">
         <v>0.33</v>
@@ -18438,7 +18450,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18519,7 +18531,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ84">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR84">
         <v>1.6</v>
@@ -18644,7 +18656,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18928,7 +18940,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19056,7 +19068,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19262,7 +19274,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19340,7 +19352,7 @@
         <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ88">
         <v>1.55</v>
@@ -19468,7 +19480,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19549,7 +19561,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ89">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19674,7 +19686,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19880,7 +19892,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20086,7 +20098,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20167,7 +20179,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ92">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR92">
         <v>1.79</v>
@@ -20370,7 +20382,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ93">
         <v>0.64</v>
@@ -20498,7 +20510,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20579,7 +20591,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ94">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR94">
         <v>1.7</v>
@@ -20704,7 +20716,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20910,7 +20922,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -20988,7 +21000,7 @@
         <v>2.67</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ96">
         <v>2.42</v>
@@ -21322,7 +21334,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21400,7 +21412,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ98">
         <v>1.33</v>
@@ -21528,7 +21540,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21734,7 +21746,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22146,7 +22158,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22352,7 +22364,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22433,7 +22445,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ103">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR103">
         <v>1.75</v>
@@ -22636,7 +22648,7 @@
         <v>0.75</v>
       </c>
       <c r="AP104">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104">
         <v>0.82</v>
@@ -22764,7 +22776,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22842,7 +22854,7 @@
         <v>1.57</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ105">
         <v>1.27</v>
@@ -23176,7 +23188,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23257,7 +23269,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ107">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR107">
         <v>1.83</v>
@@ -23382,7 +23394,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23588,7 +23600,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23669,7 +23681,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ109">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -23794,7 +23806,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23872,10 +23884,10 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ110">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR110">
         <v>1.59</v>
@@ -24206,7 +24218,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24284,7 +24296,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ112">
         <v>1.27</v>
@@ -24412,7 +24424,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24618,7 +24630,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24824,7 +24836,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25030,7 +25042,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25236,7 +25248,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25854,7 +25866,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26266,7 +26278,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -27090,7 +27102,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27171,7 +27183,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ126">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR126">
         <v>1.69</v>
@@ -27296,7 +27308,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27374,7 +27386,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ127">
         <v>1.55</v>
@@ -27502,7 +27514,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27708,7 +27720,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27914,7 +27926,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28198,7 +28210,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ131">
         <v>1.27</v>
@@ -28407,7 +28419,7 @@
         <v>2</v>
       </c>
       <c r="AQ132">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28532,7 +28544,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28738,7 +28750,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29150,7 +29162,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29228,7 +29240,7 @@
         <v>0.71</v>
       </c>
       <c r="AP136">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ136">
         <v>0.8</v>
@@ -29356,7 +29368,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29434,7 +29446,7 @@
         <v>1.75</v>
       </c>
       <c r="AP137">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ137">
         <v>1.33</v>
@@ -29562,7 +29574,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29768,7 +29780,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29974,7 +29986,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30592,7 +30604,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31082,7 +31094,7 @@
         <v>1.22</v>
       </c>
       <c r="AP145">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ145">
         <v>1.27</v>
@@ -31291,7 +31303,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ146">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR146">
         <v>1.68</v>
@@ -31494,7 +31506,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ147">
         <v>0.91</v>
@@ -31700,7 +31712,7 @@
         <v>0.89</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -31909,7 +31921,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ149">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR149">
         <v>1.95</v>
@@ -32034,7 +32046,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -33064,7 +33076,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33142,7 +33154,7 @@
         <v>0.63</v>
       </c>
       <c r="AP155">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AQ155">
         <v>0.8</v>
@@ -33270,7 +33282,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33476,7 +33488,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33760,7 +33772,7 @@
         <v>1.5</v>
       </c>
       <c r="AP158">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ158">
         <v>1.33</v>
@@ -33888,7 +33900,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34506,7 +34518,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34584,7 +34596,7 @@
         <v>0.3</v>
       </c>
       <c r="AP162">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ162">
         <v>0.33</v>
@@ -34999,7 +35011,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ164">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR164">
         <v>1.39</v>
@@ -35124,7 +35136,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35408,10 +35420,10 @@
         <v>0.78</v>
       </c>
       <c r="AP166">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ166">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR166">
         <v>1.34</v>
@@ -35536,7 +35548,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35617,7 +35629,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ167">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR167">
         <v>1.68</v>
@@ -36438,7 +36450,7 @@
         <v>1.4</v>
       </c>
       <c r="AP171">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AQ171">
         <v>1.27</v>
@@ -36772,7 +36784,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36978,7 +36990,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37184,7 +37196,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37390,7 +37402,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37596,7 +37608,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37802,7 +37814,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38008,7 +38020,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38165,6 +38177,830 @@
       </c>
       <c r="BP179">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7321795</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45536.5625</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>77</v>
+      </c>
+      <c r="H180" t="s">
+        <v>70</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>211</v>
+      </c>
+      <c r="P180" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q180">
+        <v>2.5</v>
+      </c>
+      <c r="R180">
+        <v>2.25</v>
+      </c>
+      <c r="S180">
+        <v>4.33</v>
+      </c>
+      <c r="T180">
+        <v>1.36</v>
+      </c>
+      <c r="U180">
+        <v>3</v>
+      </c>
+      <c r="V180">
+        <v>2.63</v>
+      </c>
+      <c r="W180">
+        <v>1.44</v>
+      </c>
+      <c r="X180">
+        <v>7</v>
+      </c>
+      <c r="Y180">
+        <v>1.1</v>
+      </c>
+      <c r="Z180">
+        <v>2.15</v>
+      </c>
+      <c r="AA180">
+        <v>3.3</v>
+      </c>
+      <c r="AB180">
+        <v>3</v>
+      </c>
+      <c r="AC180">
+        <v>1.02</v>
+      </c>
+      <c r="AD180">
+        <v>10</v>
+      </c>
+      <c r="AE180">
+        <v>1.22</v>
+      </c>
+      <c r="AF180">
+        <v>3.8</v>
+      </c>
+      <c r="AG180">
+        <v>1.9</v>
+      </c>
+      <c r="AH180">
+        <v>1.8</v>
+      </c>
+      <c r="AI180">
+        <v>1.73</v>
+      </c>
+      <c r="AJ180">
+        <v>2</v>
+      </c>
+      <c r="AK180">
+        <v>1.28</v>
+      </c>
+      <c r="AL180">
+        <v>1.27</v>
+      </c>
+      <c r="AM180">
+        <v>1.57</v>
+      </c>
+      <c r="AN180">
+        <v>1.7</v>
+      </c>
+      <c r="AO180">
+        <v>1</v>
+      </c>
+      <c r="AP180">
+        <v>1.64</v>
+      </c>
+      <c r="AQ180">
+        <v>1</v>
+      </c>
+      <c r="AR180">
+        <v>1.39</v>
+      </c>
+      <c r="AS180">
+        <v>1.32</v>
+      </c>
+      <c r="AT180">
+        <v>2.71</v>
+      </c>
+      <c r="AU180">
+        <v>7</v>
+      </c>
+      <c r="AV180">
+        <v>3</v>
+      </c>
+      <c r="AW180">
+        <v>5</v>
+      </c>
+      <c r="AX180">
+        <v>8</v>
+      </c>
+      <c r="AY180">
+        <v>12</v>
+      </c>
+      <c r="AZ180">
+        <v>11</v>
+      </c>
+      <c r="BA180">
+        <v>5</v>
+      </c>
+      <c r="BB180">
+        <v>5</v>
+      </c>
+      <c r="BC180">
+        <v>10</v>
+      </c>
+      <c r="BD180">
+        <v>1.71</v>
+      </c>
+      <c r="BE180">
+        <v>6.55</v>
+      </c>
+      <c r="BF180">
+        <v>2.72</v>
+      </c>
+      <c r="BG180">
+        <v>1.25</v>
+      </c>
+      <c r="BH180">
+        <v>3.42</v>
+      </c>
+      <c r="BI180">
+        <v>1.47</v>
+      </c>
+      <c r="BJ180">
+        <v>2.42</v>
+      </c>
+      <c r="BK180">
+        <v>1.84</v>
+      </c>
+      <c r="BL180">
+        <v>1.86</v>
+      </c>
+      <c r="BM180">
+        <v>2.34</v>
+      </c>
+      <c r="BN180">
+        <v>1.5</v>
+      </c>
+      <c r="BO180">
+        <v>3.2</v>
+      </c>
+      <c r="BP180">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7321790</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>73</v>
+      </c>
+      <c r="H181" t="s">
+        <v>83</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>86</v>
+      </c>
+      <c r="P181" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q181">
+        <v>4.75</v>
+      </c>
+      <c r="R181">
+        <v>2.3</v>
+      </c>
+      <c r="S181">
+        <v>2.25</v>
+      </c>
+      <c r="T181">
+        <v>1.33</v>
+      </c>
+      <c r="U181">
+        <v>3.25</v>
+      </c>
+      <c r="V181">
+        <v>2.63</v>
+      </c>
+      <c r="W181">
+        <v>1.44</v>
+      </c>
+      <c r="X181">
+        <v>6.5</v>
+      </c>
+      <c r="Y181">
+        <v>1.11</v>
+      </c>
+      <c r="Z181">
+        <v>4.4</v>
+      </c>
+      <c r="AA181">
+        <v>3.7</v>
+      </c>
+      <c r="AB181">
+        <v>1.65</v>
+      </c>
+      <c r="AC181">
+        <v>1.03</v>
+      </c>
+      <c r="AD181">
+        <v>9</v>
+      </c>
+      <c r="AE181">
+        <v>1.22</v>
+      </c>
+      <c r="AF181">
+        <v>3.8</v>
+      </c>
+      <c r="AG181">
+        <v>1.8</v>
+      </c>
+      <c r="AH181">
+        <v>1.9</v>
+      </c>
+      <c r="AI181">
+        <v>1.73</v>
+      </c>
+      <c r="AJ181">
+        <v>2</v>
+      </c>
+      <c r="AK181">
+        <v>1.88</v>
+      </c>
+      <c r="AL181">
+        <v>1.22</v>
+      </c>
+      <c r="AM181">
+        <v>1.16</v>
+      </c>
+      <c r="AN181">
+        <v>1.55</v>
+      </c>
+      <c r="AO181">
+        <v>1.8</v>
+      </c>
+      <c r="AP181">
+        <v>1.42</v>
+      </c>
+      <c r="AQ181">
+        <v>1.91</v>
+      </c>
+      <c r="AR181">
+        <v>1.88</v>
+      </c>
+      <c r="AS181">
+        <v>1.36</v>
+      </c>
+      <c r="AT181">
+        <v>3.24</v>
+      </c>
+      <c r="AU181">
+        <v>6</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>4</v>
+      </c>
+      <c r="AX181">
+        <v>3</v>
+      </c>
+      <c r="AY181">
+        <v>10</v>
+      </c>
+      <c r="AZ181">
+        <v>8</v>
+      </c>
+      <c r="BA181">
+        <v>2</v>
+      </c>
+      <c r="BB181">
+        <v>2</v>
+      </c>
+      <c r="BC181">
+        <v>4</v>
+      </c>
+      <c r="BD181">
+        <v>3.64</v>
+      </c>
+      <c r="BE181">
+        <v>7.1</v>
+      </c>
+      <c r="BF181">
+        <v>1.45</v>
+      </c>
+      <c r="BG181">
+        <v>1.3</v>
+      </c>
+      <c r="BH181">
+        <v>3.2</v>
+      </c>
+      <c r="BI181">
+        <v>1.51</v>
+      </c>
+      <c r="BJ181">
+        <v>2.48</v>
+      </c>
+      <c r="BK181">
+        <v>1.91</v>
+      </c>
+      <c r="BL181">
+        <v>1.8</v>
+      </c>
+      <c r="BM181">
+        <v>2.2</v>
+      </c>
+      <c r="BN181">
+        <v>1.66</v>
+      </c>
+      <c r="BO181">
+        <v>3</v>
+      </c>
+      <c r="BP181">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7321791</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45536.77083333334</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>72</v>
+      </c>
+      <c r="H182" t="s">
+        <v>82</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182" t="s">
+        <v>212</v>
+      </c>
+      <c r="P182" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q182">
+        <v>2.75</v>
+      </c>
+      <c r="R182">
+        <v>2.38</v>
+      </c>
+      <c r="S182">
+        <v>3.5</v>
+      </c>
+      <c r="T182">
+        <v>1.29</v>
+      </c>
+      <c r="U182">
+        <v>3.5</v>
+      </c>
+      <c r="V182">
+        <v>2.38</v>
+      </c>
+      <c r="W182">
+        <v>1.53</v>
+      </c>
+      <c r="X182">
+        <v>5.5</v>
+      </c>
+      <c r="Y182">
+        <v>1.14</v>
+      </c>
+      <c r="Z182">
+        <v>2.1</v>
+      </c>
+      <c r="AA182">
+        <v>3.6</v>
+      </c>
+      <c r="AB182">
+        <v>2.88</v>
+      </c>
+      <c r="AC182">
+        <v>1.01</v>
+      </c>
+      <c r="AD182">
+        <v>11</v>
+      </c>
+      <c r="AE182">
+        <v>1.14</v>
+      </c>
+      <c r="AF182">
+        <v>4.8</v>
+      </c>
+      <c r="AG182">
+        <v>1.57</v>
+      </c>
+      <c r="AH182">
+        <v>2.25</v>
+      </c>
+      <c r="AI182">
+        <v>1.5</v>
+      </c>
+      <c r="AJ182">
+        <v>2.5</v>
+      </c>
+      <c r="AK182">
+        <v>1.37</v>
+      </c>
+      <c r="AL182">
+        <v>1.27</v>
+      </c>
+      <c r="AM182">
+        <v>1.66</v>
+      </c>
+      <c r="AN182">
+        <v>1.5</v>
+      </c>
+      <c r="AO182">
+        <v>0.7</v>
+      </c>
+      <c r="AP182">
+        <v>1.45</v>
+      </c>
+      <c r="AQ182">
+        <v>0.73</v>
+      </c>
+      <c r="AR182">
+        <v>1.57</v>
+      </c>
+      <c r="AS182">
+        <v>1.4</v>
+      </c>
+      <c r="AT182">
+        <v>2.97</v>
+      </c>
+      <c r="AU182">
+        <v>8</v>
+      </c>
+      <c r="AV182">
+        <v>4</v>
+      </c>
+      <c r="AW182">
+        <v>8</v>
+      </c>
+      <c r="AX182">
+        <v>7</v>
+      </c>
+      <c r="AY182">
+        <v>16</v>
+      </c>
+      <c r="AZ182">
+        <v>11</v>
+      </c>
+      <c r="BA182">
+        <v>8</v>
+      </c>
+      <c r="BB182">
+        <v>4</v>
+      </c>
+      <c r="BC182">
+        <v>12</v>
+      </c>
+      <c r="BD182">
+        <v>1.66</v>
+      </c>
+      <c r="BE182">
+        <v>6.65</v>
+      </c>
+      <c r="BF182">
+        <v>2.83</v>
+      </c>
+      <c r="BG182">
+        <v>1.22</v>
+      </c>
+      <c r="BH182">
+        <v>3.8</v>
+      </c>
+      <c r="BI182">
+        <v>1.4</v>
+      </c>
+      <c r="BJ182">
+        <v>2.7</v>
+      </c>
+      <c r="BK182">
+        <v>1.66</v>
+      </c>
+      <c r="BL182">
+        <v>2.19</v>
+      </c>
+      <c r="BM182">
+        <v>2.06</v>
+      </c>
+      <c r="BN182">
+        <v>1.75</v>
+      </c>
+      <c r="BO182">
+        <v>2.5</v>
+      </c>
+      <c r="BP182">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7321793</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45536.875</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>84</v>
+      </c>
+      <c r="H183" t="s">
+        <v>74</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>213</v>
+      </c>
+      <c r="P183" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q183">
+        <v>3.1</v>
+      </c>
+      <c r="R183">
+        <v>2.1</v>
+      </c>
+      <c r="S183">
+        <v>3.6</v>
+      </c>
+      <c r="T183">
+        <v>1.44</v>
+      </c>
+      <c r="U183">
+        <v>2.63</v>
+      </c>
+      <c r="V183">
+        <v>3.25</v>
+      </c>
+      <c r="W183">
+        <v>1.33</v>
+      </c>
+      <c r="X183">
+        <v>9</v>
+      </c>
+      <c r="Y183">
+        <v>1.07</v>
+      </c>
+      <c r="Z183">
+        <v>2.3</v>
+      </c>
+      <c r="AA183">
+        <v>3.2</v>
+      </c>
+      <c r="AB183">
+        <v>2.8</v>
+      </c>
+      <c r="AC183">
+        <v>1.05</v>
+      </c>
+      <c r="AD183">
+        <v>8</v>
+      </c>
+      <c r="AE183">
+        <v>1.29</v>
+      </c>
+      <c r="AF183">
+        <v>3.3</v>
+      </c>
+      <c r="AG183">
+        <v>2.1</v>
+      </c>
+      <c r="AH183">
+        <v>1.65</v>
+      </c>
+      <c r="AI183">
+        <v>1.83</v>
+      </c>
+      <c r="AJ183">
+        <v>1.83</v>
+      </c>
+      <c r="AK183">
+        <v>1.3</v>
+      </c>
+      <c r="AL183">
+        <v>1.32</v>
+      </c>
+      <c r="AM183">
+        <v>1.47</v>
+      </c>
+      <c r="AN183">
+        <v>1</v>
+      </c>
+      <c r="AO183">
+        <v>1.27</v>
+      </c>
+      <c r="AP183">
+        <v>1.17</v>
+      </c>
+      <c r="AQ183">
+        <v>1.17</v>
+      </c>
+      <c r="AR183">
+        <v>1.4</v>
+      </c>
+      <c r="AS183">
+        <v>1.27</v>
+      </c>
+      <c r="AT183">
+        <v>2.67</v>
+      </c>
+      <c r="AU183">
+        <v>4</v>
+      </c>
+      <c r="AV183">
+        <v>4</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>7</v>
+      </c>
+      <c r="AY183">
+        <v>7</v>
+      </c>
+      <c r="AZ183">
+        <v>11</v>
+      </c>
+      <c r="BA183">
+        <v>9</v>
+      </c>
+      <c r="BB183">
+        <v>4</v>
+      </c>
+      <c r="BC183">
+        <v>13</v>
+      </c>
+      <c r="BD183">
+        <v>1.92</v>
+      </c>
+      <c r="BE183">
+        <v>6.35</v>
+      </c>
+      <c r="BF183">
+        <v>2.34</v>
+      </c>
+      <c r="BG183">
+        <v>1.29</v>
+      </c>
+      <c r="BH183">
+        <v>3.3</v>
+      </c>
+      <c r="BI183">
+        <v>1.5</v>
+      </c>
+      <c r="BJ183">
+        <v>2.54</v>
+      </c>
+      <c r="BK183">
+        <v>1.83</v>
+      </c>
+      <c r="BL183">
+        <v>1.96</v>
+      </c>
+      <c r="BM183">
+        <v>2.3</v>
+      </c>
+      <c r="BN183">
+        <v>1.59</v>
+      </c>
+      <c r="BO183">
+        <v>2.9</v>
+      </c>
+      <c r="BP183">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -658,6 +658,9 @@
     <t>['53', '80']</t>
   </si>
   <si>
+    <t>['1']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -1299,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP183"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1764,7 +1767,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1970,7 +1973,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2051,7 +2054,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ4">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2176,7 +2179,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2382,7 +2385,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2588,7 +2591,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2794,7 +2797,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3412,7 +3415,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3490,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ11">
         <v>0.91</v>
@@ -3618,7 +3621,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -4030,7 +4033,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4442,7 +4445,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4648,7 +4651,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5060,7 +5063,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5472,7 +5475,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5678,7 +5681,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5884,7 +5887,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6502,7 +6505,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6708,7 +6711,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7120,7 +7123,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7326,7 +7329,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7738,7 +7741,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8025,7 +8028,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ33">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -8640,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ36">
         <v>0.33</v>
@@ -9592,7 +9595,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9798,7 +9801,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10004,7 +10007,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10210,7 +10213,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10494,7 +10497,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ45">
         <v>1.75</v>
@@ -10622,7 +10625,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -11034,7 +11037,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11240,7 +11243,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12270,7 +12273,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12351,7 +12354,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ54">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR54">
         <v>1.39</v>
@@ -12476,7 +12479,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12682,7 +12685,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12888,7 +12891,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13094,7 +13097,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13712,7 +13715,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13918,7 +13921,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14330,7 +14333,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14742,7 +14745,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14948,7 +14951,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15154,7 +15157,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15441,7 +15444,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ69">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
@@ -15644,7 +15647,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ70">
         <v>1.33</v>
@@ -15772,7 +15775,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15978,7 +15981,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16184,7 +16187,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16390,7 +16393,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16596,7 +16599,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -17008,7 +17011,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17214,7 +17217,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17292,7 +17295,7 @@
         <v>2.6</v>
       </c>
       <c r="AP78">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ78">
         <v>2.42</v>
@@ -18038,7 +18041,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18450,7 +18453,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18656,7 +18659,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19068,7 +19071,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19274,7 +19277,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19480,7 +19483,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19686,7 +19689,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19764,7 +19767,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ90">
         <v>0.82</v>
@@ -19892,7 +19895,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19973,7 +19976,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ91">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20098,7 +20101,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20510,7 +20513,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20716,7 +20719,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20922,7 +20925,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21334,7 +21337,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21540,7 +21543,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21746,7 +21749,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21827,7 +21830,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ100">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -22158,7 +22161,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22364,7 +22367,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22442,7 +22445,7 @@
         <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ103">
         <v>1.17</v>
@@ -22776,7 +22779,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23060,7 +23063,7 @@
         <v>1.43</v>
       </c>
       <c r="AP106">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ106">
         <v>1.55</v>
@@ -23188,7 +23191,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23394,7 +23397,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23600,7 +23603,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23806,7 +23809,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24218,7 +24221,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24299,7 +24302,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ112">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR112">
         <v>1.94</v>
@@ -24424,7 +24427,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24630,7 +24633,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24836,7 +24839,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25042,7 +25045,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25248,7 +25251,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25866,7 +25869,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26278,7 +26281,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26356,7 +26359,7 @@
         <v>0.86</v>
       </c>
       <c r="AP122">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ122">
         <v>0.64</v>
@@ -27102,7 +27105,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27308,7 +27311,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27514,7 +27517,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27720,7 +27723,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27926,7 +27929,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28544,7 +28547,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28625,7 +28628,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ133">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR133">
         <v>1.8</v>
@@ -28750,7 +28753,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29162,7 +29165,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29368,7 +29371,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29574,7 +29577,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29780,7 +29783,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29861,7 +29864,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ139">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -29986,7 +29989,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30604,7 +30607,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31097,7 +31100,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ145">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR145">
         <v>1.31</v>
@@ -31300,7 +31303,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ146">
         <v>0.73</v>
@@ -32046,7 +32049,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -33076,7 +33079,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33282,7 +33285,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33488,7 +33491,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33900,7 +33903,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34518,7 +34521,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -35136,7 +35139,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35217,7 +35220,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ165">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR165">
         <v>1.67</v>
@@ -35548,7 +35551,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -36784,7 +36787,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36990,7 +36993,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37196,7 +37199,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37402,7 +37405,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37480,7 +37483,7 @@
         <v>1.36</v>
       </c>
       <c r="AP176">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ176">
         <v>1.33</v>
@@ -37608,7 +37611,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37814,7 +37817,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38020,7 +38023,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38638,7 +38641,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -39001,6 +39004,212 @@
       </c>
       <c r="BP183">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7321796</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45543.5</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>79</v>
+      </c>
+      <c r="H184" t="s">
+        <v>81</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>214</v>
+      </c>
+      <c r="P184" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q184">
+        <v>2.63</v>
+      </c>
+      <c r="R184">
+        <v>2.18</v>
+      </c>
+      <c r="S184">
+        <v>3.9</v>
+      </c>
+      <c r="T184">
+        <v>1.34</v>
+      </c>
+      <c r="U184">
+        <v>2.95</v>
+      </c>
+      <c r="V184">
+        <v>2.9</v>
+      </c>
+      <c r="W184">
+        <v>1.35</v>
+      </c>
+      <c r="X184">
+        <v>6.95</v>
+      </c>
+      <c r="Y184">
+        <v>1.07</v>
+      </c>
+      <c r="Z184">
+        <v>2.25</v>
+      </c>
+      <c r="AA184">
+        <v>3.35</v>
+      </c>
+      <c r="AB184">
+        <v>2.99</v>
+      </c>
+      <c r="AC184">
+        <v>1.02</v>
+      </c>
+      <c r="AD184">
+        <v>10</v>
+      </c>
+      <c r="AE184">
+        <v>1.29</v>
+      </c>
+      <c r="AF184">
+        <v>3.3</v>
+      </c>
+      <c r="AG184">
+        <v>2</v>
+      </c>
+      <c r="AH184">
+        <v>1.88</v>
+      </c>
+      <c r="AI184">
+        <v>1.79</v>
+      </c>
+      <c r="AJ184">
+        <v>1.94</v>
+      </c>
+      <c r="AK184">
+        <v>1.27</v>
+      </c>
+      <c r="AL184">
+        <v>1.27</v>
+      </c>
+      <c r="AM184">
+        <v>1.74</v>
+      </c>
+      <c r="AN184">
+        <v>1.27</v>
+      </c>
+      <c r="AO184">
+        <v>1.27</v>
+      </c>
+      <c r="AP184">
+        <v>1.42</v>
+      </c>
+      <c r="AQ184">
+        <v>1.17</v>
+      </c>
+      <c r="AR184">
+        <v>1.75</v>
+      </c>
+      <c r="AS184">
+        <v>1.29</v>
+      </c>
+      <c r="AT184">
+        <v>3.04</v>
+      </c>
+      <c r="AU184">
+        <v>3</v>
+      </c>
+      <c r="AV184">
+        <v>5</v>
+      </c>
+      <c r="AW184">
+        <v>4</v>
+      </c>
+      <c r="AX184">
+        <v>4</v>
+      </c>
+      <c r="AY184">
+        <v>7</v>
+      </c>
+      <c r="AZ184">
+        <v>9</v>
+      </c>
+      <c r="BA184">
+        <v>1</v>
+      </c>
+      <c r="BB184">
+        <v>6</v>
+      </c>
+      <c r="BC184">
+        <v>7</v>
+      </c>
+      <c r="BD184">
+        <v>1.67</v>
+      </c>
+      <c r="BE184">
+        <v>8.6</v>
+      </c>
+      <c r="BF184">
+        <v>2.57</v>
+      </c>
+      <c r="BG184">
+        <v>1.25</v>
+      </c>
+      <c r="BH184">
+        <v>3.6</v>
+      </c>
+      <c r="BI184">
+        <v>1.42</v>
+      </c>
+      <c r="BJ184">
+        <v>2.62</v>
+      </c>
+      <c r="BK184">
+        <v>1.69</v>
+      </c>
+      <c r="BL184">
+        <v>2.14</v>
+      </c>
+      <c r="BM184">
+        <v>2.12</v>
+      </c>
+      <c r="BN184">
+        <v>1.71</v>
+      </c>
+      <c r="BO184">
+        <v>2.62</v>
+      </c>
+      <c r="BP184">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -39167,10 +39167,10 @@
         <v>1</v>
       </c>
       <c r="BB184">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC184">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD184">
         <v>1.67</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="313">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -661,6 +661,15 @@
     <t>['1']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['27', '84']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -941,6 +950,9 @@
   </si>
   <si>
     <t>['22', '90+13']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ2">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1767,7 +1779,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1973,7 +1985,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2179,7 +2191,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2385,7 +2397,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2463,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2591,7 +2603,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2797,7 +2809,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3084,7 +3096,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ9">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3415,7 +3427,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3621,7 +3633,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3905,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ13">
         <v>1.91</v>
@@ -4033,7 +4045,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4320,7 +4332,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ15">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>1.77</v>
@@ -4445,7 +4457,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4651,7 +4663,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4729,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ17">
         <v>1.55</v>
@@ -4938,7 +4950,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0.64</v>
@@ -5063,7 +5075,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5141,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ19">
         <v>1.17</v>
@@ -5475,7 +5487,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5681,7 +5693,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5887,7 +5899,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6171,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24">
         <v>1.33</v>
@@ -6505,7 +6517,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6586,7 +6598,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ26">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -6711,7 +6723,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6995,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ28">
         <v>0.33</v>
@@ -7123,7 +7135,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7329,7 +7341,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7410,7 +7422,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ30">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR30">
         <v>1.72</v>
@@ -7616,7 +7628,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ31">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>1.69</v>
@@ -7741,7 +7753,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -9595,7 +9607,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9676,7 +9688,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ41">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9801,7 +9813,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9879,10 +9891,10 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ42">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -10007,7 +10019,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10085,7 +10097,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>1.33</v>
@@ -10213,7 +10225,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10625,7 +10637,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -11037,7 +11049,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11243,7 +11255,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11733,7 +11745,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ51">
         <v>1.91</v>
@@ -11942,7 +11954,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ52">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -12273,7 +12285,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12479,7 +12491,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12560,7 +12572,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ55">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR55">
         <v>1.44</v>
@@ -12685,7 +12697,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12891,7 +12903,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13097,7 +13109,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13381,7 +13393,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ59">
         <v>0.8</v>
@@ -13590,7 +13602,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ60">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -13715,7 +13727,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13793,7 +13805,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ61">
         <v>1.33</v>
@@ -13921,7 +13933,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13999,7 +14011,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ62">
         <v>0.91</v>
@@ -14333,7 +14345,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14414,7 +14426,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ64">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR64">
         <v>1.82</v>
@@ -14745,7 +14757,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14951,7 +14963,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15157,7 +15169,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15775,7 +15787,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15981,7 +15993,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16187,7 +16199,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16393,7 +16405,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16471,7 +16483,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ74">
         <v>0.82</v>
@@ -16599,7 +16611,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16883,10 +16895,10 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ76">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR76">
         <v>1.51</v>
@@ -17011,7 +17023,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17092,7 +17104,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ77">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR77">
         <v>1.8</v>
@@ -17217,7 +17229,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17913,10 +17925,10 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ81">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
         <v>1.6</v>
@@ -18041,7 +18053,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18453,7 +18465,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18659,7 +18671,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19071,7 +19083,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19277,7 +19289,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19483,7 +19495,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19561,7 +19573,7 @@
         <v>1.17</v>
       </c>
       <c r="AP89">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ89">
         <v>1.17</v>
@@ -19689,7 +19701,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19895,7 +19907,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20101,7 +20113,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20182,7 +20194,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ92">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
         <v>1.79</v>
@@ -20388,7 +20400,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ93">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20513,7 +20525,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20591,7 +20603,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ94">
         <v>1.91</v>
@@ -20719,7 +20731,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20925,7 +20937,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21337,7 +21349,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21543,7 +21555,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21749,7 +21761,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21827,7 +21839,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ100">
         <v>1.17</v>
@@ -22161,7 +22173,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22242,7 +22254,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ102">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22367,7 +22379,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22779,7 +22791,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22860,7 +22872,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ105">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23191,7 +23203,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23397,7 +23409,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23478,7 +23490,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ108">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR108">
         <v>1.53</v>
@@ -23603,7 +23615,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23681,10 +23693,10 @@
         <v>0.83</v>
       </c>
       <c r="AP109">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ109">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -23809,7 +23821,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24221,7 +24233,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24427,7 +24439,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24633,7 +24645,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24711,7 +24723,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ114">
         <v>1.33</v>
@@ -24839,7 +24851,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25045,7 +25057,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25251,7 +25263,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25869,7 +25881,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26153,7 +26165,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ121">
         <v>0.8</v>
@@ -26281,7 +26293,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26362,7 +26374,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ122">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR122">
         <v>1.63</v>
@@ -26771,7 +26783,7 @@
         <v>0.38</v>
       </c>
       <c r="AP124">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ124">
         <v>0.33</v>
@@ -27105,7 +27117,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27311,7 +27323,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27517,7 +27529,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27723,7 +27735,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27929,7 +27941,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28216,7 +28228,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ131">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28422,7 +28434,7 @@
         <v>2</v>
       </c>
       <c r="AQ132">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28547,7 +28559,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28753,7 +28765,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28831,7 +28843,7 @@
         <v>2.13</v>
       </c>
       <c r="AP134">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ134">
         <v>1.75</v>
@@ -29037,7 +29049,7 @@
         <v>2.56</v>
       </c>
       <c r="AP135">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ135">
         <v>2.42</v>
@@ -29165,7 +29177,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29371,7 +29383,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29577,7 +29589,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29783,7 +29795,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29989,7 +30001,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30479,7 +30491,7 @@
         <v>0.63</v>
       </c>
       <c r="AP142">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ142">
         <v>1</v>
@@ -30607,7 +30619,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30688,7 +30700,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ143">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR143">
         <v>1.62</v>
@@ -31306,7 +31318,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ146">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR146">
         <v>1.68</v>
@@ -32049,7 +32061,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32333,7 +32345,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ151">
         <v>0.82</v>
@@ -32748,7 +32760,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ153">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR153">
         <v>1.76</v>
@@ -32954,7 +32966,7 @@
         <v>2</v>
       </c>
       <c r="AQ154">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR154">
         <v>1.55</v>
@@ -33079,7 +33091,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33285,7 +33297,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33363,7 +33375,7 @@
         <v>2.3</v>
       </c>
       <c r="AP156">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ156">
         <v>2.42</v>
@@ -33491,7 +33503,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33569,7 +33581,7 @@
         <v>1.44</v>
       </c>
       <c r="AP157">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ157">
         <v>1.55</v>
@@ -33903,7 +33915,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34187,7 +34199,7 @@
         <v>2.1</v>
       </c>
       <c r="AP160">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ160">
         <v>1.75</v>
@@ -34393,7 +34405,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ161">
         <v>0.82</v>
@@ -34521,7 +34533,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34808,7 +34820,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ163">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR163">
         <v>1.89</v>
@@ -35139,7 +35151,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35426,7 +35438,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ166">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR166">
         <v>1.34</v>
@@ -35551,7 +35563,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -36456,7 +36468,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ171">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR171">
         <v>1.86</v>
@@ -36787,7 +36799,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36865,7 +36877,7 @@
         <v>0.9</v>
       </c>
       <c r="AP173">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AQ173">
         <v>0.91</v>
@@ -36993,7 +37005,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37071,7 +37083,7 @@
         <v>1.4</v>
       </c>
       <c r="AP174">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AQ174">
         <v>1.55</v>
@@ -37199,7 +37211,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37405,7 +37417,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37611,7 +37623,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37817,7 +37829,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38023,7 +38035,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38641,7 +38653,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38722,7 +38734,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ182">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR182">
         <v>1.57</v>
@@ -39210,6 +39222,624 @@
       </c>
       <c r="BP184">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7321804</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45549.625</v>
+      </c>
+      <c r="F185">
+        <v>24</v>
+      </c>
+      <c r="G185" t="s">
+        <v>70</v>
+      </c>
+      <c r="H185" t="s">
+        <v>82</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>215</v>
+      </c>
+      <c r="P185" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q185">
+        <v>2.5</v>
+      </c>
+      <c r="R185">
+        <v>2.3</v>
+      </c>
+      <c r="S185">
+        <v>4</v>
+      </c>
+      <c r="T185">
+        <v>1.33</v>
+      </c>
+      <c r="U185">
+        <v>3.25</v>
+      </c>
+      <c r="V185">
+        <v>2.63</v>
+      </c>
+      <c r="W185">
+        <v>1.44</v>
+      </c>
+      <c r="X185">
+        <v>6.5</v>
+      </c>
+      <c r="Y185">
+        <v>1.11</v>
+      </c>
+      <c r="Z185">
+        <v>1.75</v>
+      </c>
+      <c r="AA185">
+        <v>3.75</v>
+      </c>
+      <c r="AB185">
+        <v>3.8</v>
+      </c>
+      <c r="AC185">
+        <v>1.04</v>
+      </c>
+      <c r="AD185">
+        <v>10.5</v>
+      </c>
+      <c r="AE185">
+        <v>1.21</v>
+      </c>
+      <c r="AF185">
+        <v>3.74</v>
+      </c>
+      <c r="AG185">
+        <v>1.67</v>
+      </c>
+      <c r="AH185">
+        <v>2.1</v>
+      </c>
+      <c r="AI185">
+        <v>1.67</v>
+      </c>
+      <c r="AJ185">
+        <v>2.1</v>
+      </c>
+      <c r="AK185">
+        <v>1.26</v>
+      </c>
+      <c r="AL185">
+        <v>1.26</v>
+      </c>
+      <c r="AM185">
+        <v>1.84</v>
+      </c>
+      <c r="AN185">
+        <v>1.45</v>
+      </c>
+      <c r="AO185">
+        <v>0.73</v>
+      </c>
+      <c r="AP185">
+        <v>1.58</v>
+      </c>
+      <c r="AQ185">
+        <v>0.67</v>
+      </c>
+      <c r="AR185">
+        <v>1.61</v>
+      </c>
+      <c r="AS185">
+        <v>1.4</v>
+      </c>
+      <c r="AT185">
+        <v>3.01</v>
+      </c>
+      <c r="AU185">
+        <v>5</v>
+      </c>
+      <c r="AV185">
+        <v>3</v>
+      </c>
+      <c r="AW185">
+        <v>9</v>
+      </c>
+      <c r="AX185">
+        <v>2</v>
+      </c>
+      <c r="AY185">
+        <v>14</v>
+      </c>
+      <c r="AZ185">
+        <v>5</v>
+      </c>
+      <c r="BA185">
+        <v>1</v>
+      </c>
+      <c r="BB185">
+        <v>4</v>
+      </c>
+      <c r="BC185">
+        <v>5</v>
+      </c>
+      <c r="BD185">
+        <v>1.51</v>
+      </c>
+      <c r="BE185">
+        <v>8.5</v>
+      </c>
+      <c r="BF185">
+        <v>3.07</v>
+      </c>
+      <c r="BG185">
+        <v>1.25</v>
+      </c>
+      <c r="BH185">
+        <v>3.3</v>
+      </c>
+      <c r="BI185">
+        <v>1.48</v>
+      </c>
+      <c r="BJ185">
+        <v>2.38</v>
+      </c>
+      <c r="BK185">
+        <v>1.9</v>
+      </c>
+      <c r="BL185">
+        <v>1.9</v>
+      </c>
+      <c r="BM185">
+        <v>2.35</v>
+      </c>
+      <c r="BN185">
+        <v>1.49</v>
+      </c>
+      <c r="BO185">
+        <v>3.15</v>
+      </c>
+      <c r="BP185">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7321803</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45549.72916666666</v>
+      </c>
+      <c r="F186">
+        <v>24</v>
+      </c>
+      <c r="G186" t="s">
+        <v>81</v>
+      </c>
+      <c r="H186" t="s">
+        <v>76</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>216</v>
+      </c>
+      <c r="P186" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q186">
+        <v>3.2</v>
+      </c>
+      <c r="R186">
+        <v>2.05</v>
+      </c>
+      <c r="S186">
+        <v>3.6</v>
+      </c>
+      <c r="T186">
+        <v>1.44</v>
+      </c>
+      <c r="U186">
+        <v>2.63</v>
+      </c>
+      <c r="V186">
+        <v>3.25</v>
+      </c>
+      <c r="W186">
+        <v>1.33</v>
+      </c>
+      <c r="X186">
+        <v>10</v>
+      </c>
+      <c r="Y186">
+        <v>1.06</v>
+      </c>
+      <c r="Z186">
+        <v>2.4</v>
+      </c>
+      <c r="AA186">
+        <v>3.1</v>
+      </c>
+      <c r="AB186">
+        <v>2.75</v>
+      </c>
+      <c r="AC186">
+        <v>1.05</v>
+      </c>
+      <c r="AD186">
+        <v>8</v>
+      </c>
+      <c r="AE186">
+        <v>1.3</v>
+      </c>
+      <c r="AF186">
+        <v>3.2</v>
+      </c>
+      <c r="AG186">
+        <v>2.1</v>
+      </c>
+      <c r="AH186">
+        <v>1.67</v>
+      </c>
+      <c r="AI186">
+        <v>1.83</v>
+      </c>
+      <c r="AJ186">
+        <v>1.83</v>
+      </c>
+      <c r="AK186">
+        <v>1.41</v>
+      </c>
+      <c r="AL186">
+        <v>1.32</v>
+      </c>
+      <c r="AM186">
+        <v>1.5</v>
+      </c>
+      <c r="AN186">
+        <v>1.18</v>
+      </c>
+      <c r="AO186">
+        <v>1.27</v>
+      </c>
+      <c r="AP186">
+        <v>1.17</v>
+      </c>
+      <c r="AQ186">
+        <v>1.25</v>
+      </c>
+      <c r="AR186">
+        <v>1.54</v>
+      </c>
+      <c r="AS186">
+        <v>1.14</v>
+      </c>
+      <c r="AT186">
+        <v>2.68</v>
+      </c>
+      <c r="AU186">
+        <v>5</v>
+      </c>
+      <c r="AV186">
+        <v>4</v>
+      </c>
+      <c r="AW186">
+        <v>8</v>
+      </c>
+      <c r="AX186">
+        <v>1</v>
+      </c>
+      <c r="AY186">
+        <v>13</v>
+      </c>
+      <c r="AZ186">
+        <v>5</v>
+      </c>
+      <c r="BA186">
+        <v>5</v>
+      </c>
+      <c r="BB186">
+        <v>4</v>
+      </c>
+      <c r="BC186">
+        <v>9</v>
+      </c>
+      <c r="BD186">
+        <v>2.1</v>
+      </c>
+      <c r="BE186">
+        <v>8</v>
+      </c>
+      <c r="BF186">
+        <v>1.95</v>
+      </c>
+      <c r="BG186">
+        <v>1.18</v>
+      </c>
+      <c r="BH186">
+        <v>3.9</v>
+      </c>
+      <c r="BI186">
+        <v>1.36</v>
+      </c>
+      <c r="BJ186">
+        <v>2.75</v>
+      </c>
+      <c r="BK186">
+        <v>1.63</v>
+      </c>
+      <c r="BL186">
+        <v>2.06</v>
+      </c>
+      <c r="BM186">
+        <v>2.05</v>
+      </c>
+      <c r="BN186">
+        <v>1.64</v>
+      </c>
+      <c r="BO186">
+        <v>2.7</v>
+      </c>
+      <c r="BP186">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7321802</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45549.83333333334</v>
+      </c>
+      <c r="F187">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s">
+        <v>74</v>
+      </c>
+      <c r="H187" t="s">
+        <v>73</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>217</v>
+      </c>
+      <c r="P187" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q187">
+        <v>2.5</v>
+      </c>
+      <c r="R187">
+        <v>2.2</v>
+      </c>
+      <c r="S187">
+        <v>4.75</v>
+      </c>
+      <c r="T187">
+        <v>1.4</v>
+      </c>
+      <c r="U187">
+        <v>2.75</v>
+      </c>
+      <c r="V187">
+        <v>2.75</v>
+      </c>
+      <c r="W187">
+        <v>1.4</v>
+      </c>
+      <c r="X187">
+        <v>8</v>
+      </c>
+      <c r="Y187">
+        <v>1.08</v>
+      </c>
+      <c r="Z187">
+        <v>1.75</v>
+      </c>
+      <c r="AA187">
+        <v>3.6</v>
+      </c>
+      <c r="AB187">
+        <v>4</v>
+      </c>
+      <c r="AC187">
+        <v>1.02</v>
+      </c>
+      <c r="AD187">
+        <v>8.9</v>
+      </c>
+      <c r="AE187">
+        <v>1.28</v>
+      </c>
+      <c r="AF187">
+        <v>3.2</v>
+      </c>
+      <c r="AG187">
+        <v>1.91</v>
+      </c>
+      <c r="AH187">
+        <v>1.8</v>
+      </c>
+      <c r="AI187">
+        <v>1.8</v>
+      </c>
+      <c r="AJ187">
+        <v>1.91</v>
+      </c>
+      <c r="AK187">
+        <v>1.22</v>
+      </c>
+      <c r="AL187">
+        <v>1.25</v>
+      </c>
+      <c r="AM187">
+        <v>2</v>
+      </c>
+      <c r="AN187">
+        <v>0.73</v>
+      </c>
+      <c r="AO187">
+        <v>0.64</v>
+      </c>
+      <c r="AP187">
+        <v>0.92</v>
+      </c>
+      <c r="AQ187">
+        <v>0.58</v>
+      </c>
+      <c r="AR187">
+        <v>1.39</v>
+      </c>
+      <c r="AS187">
+        <v>1.03</v>
+      </c>
+      <c r="AT187">
+        <v>2.42</v>
+      </c>
+      <c r="AU187">
+        <v>6</v>
+      </c>
+      <c r="AV187">
+        <v>4</v>
+      </c>
+      <c r="AW187">
+        <v>2</v>
+      </c>
+      <c r="AX187">
+        <v>4</v>
+      </c>
+      <c r="AY187">
+        <v>8</v>
+      </c>
+      <c r="AZ187">
+        <v>8</v>
+      </c>
+      <c r="BA187">
+        <v>2</v>
+      </c>
+      <c r="BB187">
+        <v>4</v>
+      </c>
+      <c r="BC187">
+        <v>6</v>
+      </c>
+      <c r="BD187">
+        <v>1.64</v>
+      </c>
+      <c r="BE187">
+        <v>8</v>
+      </c>
+      <c r="BF187">
+        <v>2.77</v>
+      </c>
+      <c r="BG187">
+        <v>1.23</v>
+      </c>
+      <c r="BH187">
+        <v>3.5</v>
+      </c>
+      <c r="BI187">
+        <v>1.43</v>
+      </c>
+      <c r="BJ187">
+        <v>2.48</v>
+      </c>
+      <c r="BK187">
+        <v>1.82</v>
+      </c>
+      <c r="BL187">
+        <v>1.98</v>
+      </c>
+      <c r="BM187">
+        <v>2.25</v>
+      </c>
+      <c r="BN187">
+        <v>1.53</v>
+      </c>
+      <c r="BO187">
+        <v>3</v>
+      </c>
+      <c r="BP187">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,15 @@
     <t>['27', '84']</t>
   </si>
   <si>
+    <t>['57', '88']</t>
+  </si>
+  <si>
+    <t>['31', '45+2', '76']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -953,6 +962,9 @@
   </si>
   <si>
     <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['62', '66', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1779,7 +1791,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1985,7 +1997,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2063,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>1.17</v>
@@ -2191,7 +2203,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2272,7 +2284,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2397,7 +2409,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2603,7 +2615,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2809,7 +2821,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3299,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ10">
         <v>1.17</v>
@@ -3427,7 +3439,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3633,7 +3645,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3711,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ12">
         <v>1.55</v>
@@ -4045,7 +4057,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4126,7 +4138,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ14">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4457,7 +4469,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4663,7 +4675,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5075,7 +5087,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5362,7 +5374,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5487,7 +5499,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5693,7 +5705,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5771,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>2.42</v>
@@ -5899,7 +5911,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5980,7 +5992,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ23">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR23">
         <v>1.09</v>
@@ -6186,7 +6198,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR24">
         <v>1.54</v>
@@ -6517,7 +6529,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6595,7 +6607,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ26">
         <v>1.25</v>
@@ -6723,7 +6735,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7135,7 +7147,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7341,7 +7353,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7625,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7753,7 +7765,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8037,7 +8049,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ33">
         <v>1.17</v>
@@ -8246,7 +8258,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ34">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -9482,7 +9494,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -9607,7 +9619,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9685,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ41">
         <v>0.67</v>
@@ -9813,7 +9825,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10019,7 +10031,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10225,7 +10237,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10306,7 +10318,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10637,7 +10649,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10921,7 +10933,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
         <v>0.91</v>
@@ -11049,7 +11061,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11255,7 +11267,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11539,7 +11551,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ50">
         <v>1.33</v>
@@ -12285,7 +12297,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12491,7 +12503,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12697,7 +12709,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12903,7 +12915,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13109,7 +13121,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13187,7 +13199,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ58">
         <v>1.75</v>
@@ -13396,7 +13408,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13599,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13727,7 +13739,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13808,7 +13820,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ61">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR61">
         <v>1.37</v>
@@ -13933,7 +13945,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14345,7 +14357,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14632,7 +14644,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ65">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR65">
         <v>1.38</v>
@@ -14757,7 +14769,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14963,7 +14975,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15169,7 +15181,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15787,7 +15799,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15993,7 +16005,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16199,7 +16211,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16405,7 +16417,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16486,7 +16498,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ74">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.38</v>
@@ -16611,7 +16623,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16689,7 +16701,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
         <v>1.75</v>
@@ -17023,7 +17035,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17229,7 +17241,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17719,10 +17731,10 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR80">
         <v>1.94</v>
@@ -18053,7 +18065,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18340,7 +18352,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ83">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18465,7 +18477,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18671,7 +18683,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19083,7 +19095,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19161,7 +19173,7 @@
         <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ87">
         <v>1.33</v>
@@ -19289,7 +19301,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19495,7 +19507,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19701,7 +19713,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19782,7 +19794,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ90">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -19907,7 +19919,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20113,7 +20125,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20397,7 +20409,7 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93">
         <v>0.58</v>
@@ -20525,7 +20537,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20731,7 +20743,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20809,7 +20821,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ95">
         <v>1</v>
@@ -20937,7 +20949,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21349,7 +21361,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21555,7 +21567,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21633,7 +21645,7 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ99">
         <v>1.75</v>
@@ -21761,7 +21773,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22048,7 +22060,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -22173,7 +22185,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22379,7 +22391,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22666,7 +22678,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ104">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.35</v>
@@ -22791,7 +22803,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23203,7 +23215,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23281,7 +23293,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ107">
         <v>1.91</v>
@@ -23409,7 +23421,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23615,7 +23627,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23821,7 +23833,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23899,7 +23911,7 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110">
         <v>1.17</v>
@@ -24105,7 +24117,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24233,7 +24245,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24439,7 +24451,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24645,7 +24657,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24726,7 +24738,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ114">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR114">
         <v>1.52</v>
@@ -24851,7 +24863,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25057,7 +25069,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25263,7 +25275,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25756,7 +25768,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ119">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25881,7 +25893,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26168,7 +26180,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ121">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26293,7 +26305,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -27117,7 +27129,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27195,7 +27207,7 @@
         <v>1.44</v>
       </c>
       <c r="AP126">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ126">
         <v>1.17</v>
@@ -27323,7 +27335,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27529,7 +27541,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27735,7 +27747,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27816,7 +27828,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ129">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.87</v>
@@ -27941,7 +27953,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28225,7 +28237,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ131">
         <v>1.25</v>
@@ -28559,7 +28571,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28765,7 +28777,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29177,7 +29189,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29258,7 +29270,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ136">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR136">
         <v>1.41</v>
@@ -29383,7 +29395,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29464,7 +29476,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR137">
         <v>1.88</v>
@@ -29589,7 +29601,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29670,7 +29682,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ138">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.33</v>
@@ -29795,7 +29807,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -30001,7 +30013,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30082,7 +30094,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ140">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR140">
         <v>1.53</v>
@@ -30285,7 +30297,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ141">
         <v>0.91</v>
@@ -30619,7 +30631,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30903,7 +30915,7 @@
         <v>0.33</v>
       </c>
       <c r="AP144">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ144">
         <v>0.33</v>
@@ -31727,7 +31739,7 @@
         <v>0.89</v>
       </c>
       <c r="AP148">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -31933,7 +31945,7 @@
         <v>1.75</v>
       </c>
       <c r="AP149">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ149">
         <v>1.91</v>
@@ -32061,7 +32073,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32348,7 +32360,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ151">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -33091,7 +33103,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33169,10 +33181,10 @@
         <v>0.63</v>
       </c>
       <c r="AP155">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33297,7 +33309,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33503,7 +33515,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33790,7 +33802,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ158">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR158">
         <v>1.39</v>
@@ -33915,7 +33927,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34408,7 +34420,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ161">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.52</v>
@@ -34533,7 +34545,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34817,7 +34829,7 @@
         <v>0.7</v>
       </c>
       <c r="AP163">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ163">
         <v>0.58</v>
@@ -35151,7 +35163,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35229,7 +35241,7 @@
         <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ165">
         <v>1.17</v>
@@ -35563,7 +35575,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35850,7 +35862,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ168">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR168">
         <v>1.46</v>
@@ -36053,10 +36065,10 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ169">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36259,7 +36271,7 @@
         <v>0.36</v>
       </c>
       <c r="AP170">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ170">
         <v>0.33</v>
@@ -36799,7 +36811,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37005,7 +37017,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37211,7 +37223,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37417,7 +37429,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37498,7 +37510,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ176">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR176">
         <v>1.75</v>
@@ -37623,7 +37635,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37829,7 +37841,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38035,7 +38047,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38116,7 +38128,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ179">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.61</v>
@@ -38653,7 +38665,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38731,7 +38743,7 @@
         <v>0.7</v>
       </c>
       <c r="AP182">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ182">
         <v>0.67</v>
@@ -39477,7 +39489,7 @@
         <v>216</v>
       </c>
       <c r="P186" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39840,6 +39852,624 @@
       </c>
       <c r="BP187">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7321800</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45550.52083333334</v>
+      </c>
+      <c r="F188">
+        <v>24</v>
+      </c>
+      <c r="G188" t="s">
+        <v>72</v>
+      </c>
+      <c r="H188" t="s">
+        <v>71</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>3</v>
+      </c>
+      <c r="N188">
+        <v>5</v>
+      </c>
+      <c r="O188" t="s">
+        <v>218</v>
+      </c>
+      <c r="P188" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q188">
+        <v>3.1</v>
+      </c>
+      <c r="R188">
+        <v>2.3</v>
+      </c>
+      <c r="S188">
+        <v>3.1</v>
+      </c>
+      <c r="T188">
+        <v>1.33</v>
+      </c>
+      <c r="U188">
+        <v>3.25</v>
+      </c>
+      <c r="V188">
+        <v>2.5</v>
+      </c>
+      <c r="W188">
+        <v>1.5</v>
+      </c>
+      <c r="X188">
+        <v>6</v>
+      </c>
+      <c r="Y188">
+        <v>1.13</v>
+      </c>
+      <c r="Z188">
+        <v>2.48</v>
+      </c>
+      <c r="AA188">
+        <v>3.4</v>
+      </c>
+      <c r="AB188">
+        <v>2.48</v>
+      </c>
+      <c r="AC188">
+        <v>1.01</v>
+      </c>
+      <c r="AD188">
+        <v>9.9</v>
+      </c>
+      <c r="AE188">
+        <v>1.17</v>
+      </c>
+      <c r="AF188">
+        <v>4.2</v>
+      </c>
+      <c r="AG188">
+        <v>1.62</v>
+      </c>
+      <c r="AH188">
+        <v>2.2</v>
+      </c>
+      <c r="AI188">
+        <v>1.53</v>
+      </c>
+      <c r="AJ188">
+        <v>2.38</v>
+      </c>
+      <c r="AK188">
+        <v>1.4</v>
+      </c>
+      <c r="AL188">
+        <v>1.23</v>
+      </c>
+      <c r="AM188">
+        <v>1.4</v>
+      </c>
+      <c r="AN188">
+        <v>1.45</v>
+      </c>
+      <c r="AO188">
+        <v>0.82</v>
+      </c>
+      <c r="AP188">
+        <v>1.33</v>
+      </c>
+      <c r="AQ188">
+        <v>1</v>
+      </c>
+      <c r="AR188">
+        <v>1.6</v>
+      </c>
+      <c r="AS188">
+        <v>1.44</v>
+      </c>
+      <c r="AT188">
+        <v>3.04</v>
+      </c>
+      <c r="AU188">
+        <v>8</v>
+      </c>
+      <c r="AV188">
+        <v>9</v>
+      </c>
+      <c r="AW188">
+        <v>9</v>
+      </c>
+      <c r="AX188">
+        <v>10</v>
+      </c>
+      <c r="AY188">
+        <v>17</v>
+      </c>
+      <c r="AZ188">
+        <v>19</v>
+      </c>
+      <c r="BA188">
+        <v>7</v>
+      </c>
+      <c r="BB188">
+        <v>5</v>
+      </c>
+      <c r="BC188">
+        <v>12</v>
+      </c>
+      <c r="BD188">
+        <v>1.75</v>
+      </c>
+      <c r="BE188">
+        <v>8</v>
+      </c>
+      <c r="BF188">
+        <v>2.44</v>
+      </c>
+      <c r="BG188">
+        <v>1.21</v>
+      </c>
+      <c r="BH188">
+        <v>3.7</v>
+      </c>
+      <c r="BI188">
+        <v>1.4</v>
+      </c>
+      <c r="BJ188">
+        <v>2.6</v>
+      </c>
+      <c r="BK188">
+        <v>1.7</v>
+      </c>
+      <c r="BL188">
+        <v>1.95</v>
+      </c>
+      <c r="BM188">
+        <v>2.16</v>
+      </c>
+      <c r="BN188">
+        <v>1.58</v>
+      </c>
+      <c r="BO188">
+        <v>2.85</v>
+      </c>
+      <c r="BP188">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7321799</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45550.625</v>
+      </c>
+      <c r="F189">
+        <v>24</v>
+      </c>
+      <c r="G189" t="s">
+        <v>80</v>
+      </c>
+      <c r="H189" t="s">
+        <v>79</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189">
+        <v>4</v>
+      </c>
+      <c r="O189" t="s">
+        <v>219</v>
+      </c>
+      <c r="P189" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q189">
+        <v>2.5</v>
+      </c>
+      <c r="R189">
+        <v>2.3</v>
+      </c>
+      <c r="S189">
+        <v>4</v>
+      </c>
+      <c r="T189">
+        <v>1.33</v>
+      </c>
+      <c r="U189">
+        <v>3.25</v>
+      </c>
+      <c r="V189">
+        <v>2.63</v>
+      </c>
+      <c r="W189">
+        <v>1.44</v>
+      </c>
+      <c r="X189">
+        <v>6.5</v>
+      </c>
+      <c r="Y189">
+        <v>1.11</v>
+      </c>
+      <c r="Z189">
+        <v>1.92</v>
+      </c>
+      <c r="AA189">
+        <v>3.45</v>
+      </c>
+      <c r="AB189">
+        <v>3.52</v>
+      </c>
+      <c r="AC189">
+        <v>1.03</v>
+      </c>
+      <c r="AD189">
+        <v>10.5</v>
+      </c>
+      <c r="AE189">
+        <v>1.21</v>
+      </c>
+      <c r="AF189">
+        <v>3.74</v>
+      </c>
+      <c r="AG189">
+        <v>1.7</v>
+      </c>
+      <c r="AH189">
+        <v>2.03</v>
+      </c>
+      <c r="AI189">
+        <v>1.67</v>
+      </c>
+      <c r="AJ189">
+        <v>2.1</v>
+      </c>
+      <c r="AK189">
+        <v>1.18</v>
+      </c>
+      <c r="AL189">
+        <v>1.18</v>
+      </c>
+      <c r="AM189">
+        <v>1.83</v>
+      </c>
+      <c r="AN189">
+        <v>1.82</v>
+      </c>
+      <c r="AO189">
+        <v>0.8</v>
+      </c>
+      <c r="AP189">
+        <v>1.92</v>
+      </c>
+      <c r="AQ189">
+        <v>0.73</v>
+      </c>
+      <c r="AR189">
+        <v>1.67</v>
+      </c>
+      <c r="AS189">
+        <v>1.26</v>
+      </c>
+      <c r="AT189">
+        <v>2.93</v>
+      </c>
+      <c r="AU189">
+        <v>8</v>
+      </c>
+      <c r="AV189">
+        <v>6</v>
+      </c>
+      <c r="AW189">
+        <v>8</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>16</v>
+      </c>
+      <c r="AZ189">
+        <v>10</v>
+      </c>
+      <c r="BA189">
+        <v>5</v>
+      </c>
+      <c r="BB189">
+        <v>7</v>
+      </c>
+      <c r="BC189">
+        <v>12</v>
+      </c>
+      <c r="BD189">
+        <v>1.75</v>
+      </c>
+      <c r="BE189">
+        <v>8</v>
+      </c>
+      <c r="BF189">
+        <v>2.44</v>
+      </c>
+      <c r="BG189">
+        <v>1.24</v>
+      </c>
+      <c r="BH189">
+        <v>3.4</v>
+      </c>
+      <c r="BI189">
+        <v>1.46</v>
+      </c>
+      <c r="BJ189">
+        <v>2.4</v>
+      </c>
+      <c r="BK189">
+        <v>1.88</v>
+      </c>
+      <c r="BL189">
+        <v>1.92</v>
+      </c>
+      <c r="BM189">
+        <v>2.32</v>
+      </c>
+      <c r="BN189">
+        <v>1.5</v>
+      </c>
+      <c r="BO189">
+        <v>3.1</v>
+      </c>
+      <c r="BP189">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7321797</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45550.72916666666</v>
+      </c>
+      <c r="F190">
+        <v>24</v>
+      </c>
+      <c r="G190" t="s">
+        <v>78</v>
+      </c>
+      <c r="H190" t="s">
+        <v>77</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>220</v>
+      </c>
+      <c r="P190" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q190">
+        <v>2.3</v>
+      </c>
+      <c r="R190">
+        <v>2.25</v>
+      </c>
+      <c r="S190">
+        <v>5</v>
+      </c>
+      <c r="T190">
+        <v>1.36</v>
+      </c>
+      <c r="U190">
+        <v>3</v>
+      </c>
+      <c r="V190">
+        <v>2.75</v>
+      </c>
+      <c r="W190">
+        <v>1.4</v>
+      </c>
+      <c r="X190">
+        <v>8</v>
+      </c>
+      <c r="Y190">
+        <v>1.08</v>
+      </c>
+      <c r="Z190">
+        <v>1.63</v>
+      </c>
+      <c r="AA190">
+        <v>3.7</v>
+      </c>
+      <c r="AB190">
+        <v>4.73</v>
+      </c>
+      <c r="AC190">
+        <v>1.01</v>
+      </c>
+      <c r="AD190">
+        <v>9.5</v>
+      </c>
+      <c r="AE190">
+        <v>1.25</v>
+      </c>
+      <c r="AF190">
+        <v>3.42</v>
+      </c>
+      <c r="AG190">
+        <v>1.83</v>
+      </c>
+      <c r="AH190">
+        <v>1.87</v>
+      </c>
+      <c r="AI190">
+        <v>1.83</v>
+      </c>
+      <c r="AJ190">
+        <v>1.83</v>
+      </c>
+      <c r="AK190">
+        <v>1.11</v>
+      </c>
+      <c r="AL190">
+        <v>1.19</v>
+      </c>
+      <c r="AM190">
+        <v>1.99</v>
+      </c>
+      <c r="AN190">
+        <v>1.82</v>
+      </c>
+      <c r="AO190">
+        <v>1.33</v>
+      </c>
+      <c r="AP190">
+        <v>1.92</v>
+      </c>
+      <c r="AQ190">
+        <v>1.23</v>
+      </c>
+      <c r="AR190">
+        <v>1.89</v>
+      </c>
+      <c r="AS190">
+        <v>1.35</v>
+      </c>
+      <c r="AT190">
+        <v>3.24</v>
+      </c>
+      <c r="AU190">
+        <v>3</v>
+      </c>
+      <c r="AV190">
+        <v>0</v>
+      </c>
+      <c r="AW190">
+        <v>6</v>
+      </c>
+      <c r="AX190">
+        <v>5</v>
+      </c>
+      <c r="AY190">
+        <v>9</v>
+      </c>
+      <c r="AZ190">
+        <v>5</v>
+      </c>
+      <c r="BA190">
+        <v>7</v>
+      </c>
+      <c r="BB190">
+        <v>5</v>
+      </c>
+      <c r="BC190">
+        <v>12</v>
+      </c>
+      <c r="BD190">
+        <v>1.37</v>
+      </c>
+      <c r="BE190">
+        <v>9</v>
+      </c>
+      <c r="BF190">
+        <v>3.7</v>
+      </c>
+      <c r="BG190">
+        <v>1.26</v>
+      </c>
+      <c r="BH190">
+        <v>3.25</v>
+      </c>
+      <c r="BI190">
+        <v>1.49</v>
+      </c>
+      <c r="BJ190">
+        <v>2.33</v>
+      </c>
+      <c r="BK190">
+        <v>1.92</v>
+      </c>
+      <c r="BL190">
+        <v>1.88</v>
+      </c>
+      <c r="BM190">
+        <v>2.38</v>
+      </c>
+      <c r="BN190">
+        <v>1.47</v>
+      </c>
+      <c r="BO190">
+        <v>3.2</v>
+      </c>
+      <c r="BP190">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,18 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['14', '36']</t>
+  </si>
+  <si>
+    <t>['18', '88']</t>
+  </si>
+  <si>
+    <t>['88', '90+8']</t>
+  </si>
+  <si>
+    <t>['45+5', '63', '89', '90+3']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -965,6 +977,12 @@
   </si>
   <si>
     <t>['62', '66', '90+7']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['62']</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1791,7 +1809,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1869,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ3">
         <v>1.91</v>
@@ -1997,7 +2015,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2078,7 +2096,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2203,7 +2221,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2281,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ5">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2409,7 +2427,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2490,7 +2508,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2615,7 +2633,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2693,10 +2711,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2821,7 +2839,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2899,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ8">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3105,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>0.58</v>
@@ -3311,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3439,7 +3457,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3645,7 +3663,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3726,7 +3744,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ12">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4057,7 +4075,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4135,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4341,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ15">
         <v>0.67</v>
@@ -4469,7 +4487,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4547,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4675,7 +4693,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4756,7 +4774,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ17">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR17">
         <v>1.64</v>
@@ -4959,7 +4977,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -5087,7 +5105,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5168,7 +5186,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ19">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR19">
         <v>1.33</v>
@@ -5374,7 +5392,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ20">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5499,7 +5517,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5580,7 +5598,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5705,7 +5723,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5911,7 +5929,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5989,10 +6007,10 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ23">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR23">
         <v>1.09</v>
@@ -6401,10 +6419,10 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR25">
         <v>0.9</v>
@@ -6529,7 +6547,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6735,7 +6753,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7022,7 +7040,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR28">
         <v>1.44</v>
@@ -7147,7 +7165,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7225,10 +7243,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7353,7 +7371,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7765,7 +7783,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7846,7 +7864,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -8049,10 +8067,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -8255,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8461,7 +8479,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ35">
         <v>1.91</v>
@@ -8670,7 +8688,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ36">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR36">
         <v>1.68</v>
@@ -8873,7 +8891,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>0.91</v>
@@ -9079,10 +9097,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9619,7 +9637,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9697,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0.67</v>
@@ -9825,7 +9843,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10031,7 +10049,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10112,7 +10130,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -10237,7 +10255,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10315,7 +10333,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ44">
         <v>1.23</v>
@@ -10649,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10730,7 +10748,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ46">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>1.53</v>
@@ -11061,7 +11079,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11139,7 +11157,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ48">
         <v>2.42</v>
@@ -11267,7 +11285,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11345,10 +11363,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR49">
         <v>1.05</v>
@@ -11554,7 +11572,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11963,7 +11981,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>0.67</v>
@@ -12172,7 +12190,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ53">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR53">
         <v>1.66</v>
@@ -12297,7 +12315,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12378,7 +12396,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ54">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR54">
         <v>1.39</v>
@@ -12503,7 +12521,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12581,7 +12599,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ55">
         <v>0.58</v>
@@ -12709,7 +12727,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12787,7 +12805,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ56">
         <v>2.42</v>
@@ -12915,7 +12933,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12993,10 +13011,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ57">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.34</v>
@@ -13121,7 +13139,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13408,7 +13426,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ59">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13611,7 +13629,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1.25</v>
@@ -13739,7 +13757,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13945,7 +13963,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14229,10 +14247,10 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ63">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14357,7 +14375,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14641,10 +14659,10 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR65">
         <v>1.38</v>
@@ -14769,7 +14787,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14850,7 +14868,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ66">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -14975,7 +14993,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15053,10 +15071,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR67">
         <v>1.37</v>
@@ -15181,7 +15199,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15259,7 +15277,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68">
         <v>1.91</v>
@@ -15465,10 +15483,10 @@
         <v>2</v>
       </c>
       <c r="AP69">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
@@ -15674,7 +15692,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15799,7 +15817,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15877,7 +15895,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
         <v>2.42</v>
@@ -16005,7 +16023,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16083,10 +16101,10 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ72">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR72">
         <v>1.48</v>
@@ -16211,7 +16229,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16289,10 +16307,10 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16417,7 +16435,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16623,7 +16641,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -17035,7 +17053,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17241,7 +17259,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -18065,7 +18083,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18143,10 +18161,10 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18349,10 +18367,10 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ83">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18477,7 +18495,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18555,7 +18573,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ84">
         <v>1.91</v>
@@ -18683,7 +18701,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18761,7 +18779,7 @@
         <v>2.2</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ85">
         <v>1.75</v>
@@ -18970,7 +18988,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -19095,7 +19113,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19173,10 +19191,10 @@
         <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR87">
         <v>1.35</v>
@@ -19301,7 +19319,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19379,10 +19397,10 @@
         <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ88">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
         <v>1.85</v>
@@ -19507,7 +19525,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19588,7 +19606,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19713,7 +19731,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19919,7 +19937,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19997,10 +20015,10 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ91">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20125,7 +20143,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20537,7 +20555,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20743,7 +20761,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20824,7 +20842,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -20949,7 +20967,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21236,7 +21254,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ97">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21361,7 +21379,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21439,10 +21457,10 @@
         <v>1.67</v>
       </c>
       <c r="AP98">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21567,7 +21585,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21645,7 +21663,7 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>1.75</v>
@@ -21773,7 +21791,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21854,7 +21872,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ100">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -22185,7 +22203,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22263,7 +22281,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ102">
         <v>1.25</v>
@@ -22391,7 +22409,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22472,7 +22490,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ103">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR103">
         <v>1.75</v>
@@ -22675,7 +22693,7 @@
         <v>0.75</v>
       </c>
       <c r="AP104">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22803,7 +22821,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23090,7 +23108,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ106">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.66</v>
@@ -23215,7 +23233,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23421,7 +23439,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23499,7 +23517,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ108">
         <v>0.58</v>
@@ -23627,7 +23645,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23833,7 +23851,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23914,7 +23932,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ110">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR110">
         <v>1.59</v>
@@ -24117,10 +24135,10 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR111">
         <v>1.49</v>
@@ -24245,7 +24263,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24323,10 +24341,10 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ112">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR112">
         <v>1.94</v>
@@ -24451,7 +24469,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24529,10 +24547,10 @@
         <v>1.57</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ113">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -24657,7 +24675,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24863,7 +24881,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25069,7 +25087,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25147,7 +25165,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ116">
         <v>0.91</v>
@@ -25275,7 +25293,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25356,7 +25374,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ117">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR117">
         <v>2.01</v>
@@ -25559,7 +25577,7 @@
         <v>2.43</v>
       </c>
       <c r="AP118">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ118">
         <v>1.75</v>
@@ -25765,7 +25783,7 @@
         <v>1.86</v>
       </c>
       <c r="AP119">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ119">
         <v>1.23</v>
@@ -25893,7 +25911,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -25971,7 +25989,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ120">
         <v>0.91</v>
@@ -26180,7 +26198,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ121">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26305,7 +26323,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26589,10 +26607,10 @@
         <v>0.71</v>
       </c>
       <c r="AP123">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26798,7 +26816,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ124">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -27001,7 +27019,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ125">
         <v>0.91</v>
@@ -27129,7 +27147,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27210,7 +27228,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ126">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR126">
         <v>1.69</v>
@@ -27335,7 +27353,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27413,10 +27431,10 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ127">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.36</v>
@@ -27541,7 +27559,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27619,7 +27637,7 @@
         <v>2.75</v>
       </c>
       <c r="AP128">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ128">
         <v>2.42</v>
@@ -27747,7 +27765,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27953,7 +27971,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28034,7 +28052,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ130">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR130">
         <v>1.77</v>
@@ -28443,7 +28461,7 @@
         <v>0.86</v>
       </c>
       <c r="AP132">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ132">
         <v>0.67</v>
@@ -28571,7 +28589,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28652,7 +28670,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ133">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR133">
         <v>1.8</v>
@@ -28777,7 +28795,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29189,7 +29207,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29270,7 +29288,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ136">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR136">
         <v>1.41</v>
@@ -29395,7 +29413,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29473,7 +29491,7 @@
         <v>1.75</v>
       </c>
       <c r="AP137">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ137">
         <v>1.23</v>
@@ -29601,7 +29619,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29679,7 +29697,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29807,7 +29825,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29888,7 +29906,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ139">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -30013,7 +30031,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30091,7 +30109,7 @@
         <v>1.56</v>
       </c>
       <c r="AP140">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ140">
         <v>1.23</v>
@@ -30506,7 +30524,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ142">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR142">
         <v>1.4</v>
@@ -30631,7 +30649,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30709,7 +30727,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ143">
         <v>0.58</v>
@@ -30915,10 +30933,10 @@
         <v>0.33</v>
       </c>
       <c r="AP144">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR144">
         <v>1.7</v>
@@ -31121,10 +31139,10 @@
         <v>1.22</v>
       </c>
       <c r="AP145">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ145">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR145">
         <v>1.31</v>
@@ -31533,7 +31551,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ147">
         <v>0.91</v>
@@ -31742,7 +31760,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR148">
         <v>1.61</v>
@@ -31945,7 +31963,7 @@
         <v>1.75</v>
       </c>
       <c r="AP149">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ149">
         <v>1.91</v>
@@ -32073,7 +32091,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32151,10 +32169,10 @@
         <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ150">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -32975,7 +32993,7 @@
         <v>0.78</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ154">
         <v>0.58</v>
@@ -33103,7 +33121,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33184,7 +33202,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33309,7 +33327,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33515,7 +33533,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33596,7 +33614,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ157">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR157">
         <v>1.56</v>
@@ -33927,7 +33945,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34005,10 +34023,10 @@
         <v>1.5</v>
       </c>
       <c r="AP159">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ159">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR159">
         <v>1.68</v>
@@ -34545,7 +34563,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34626,7 +34644,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ162">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR162">
         <v>1.37</v>
@@ -34829,7 +34847,7 @@
         <v>0.7</v>
       </c>
       <c r="AP163">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ163">
         <v>0.58</v>
@@ -35035,10 +35053,10 @@
         <v>1.3</v>
       </c>
       <c r="AP164">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ164">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR164">
         <v>1.39</v>
@@ -35163,7 +35181,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35244,7 +35262,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ165">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR165">
         <v>1.67</v>
@@ -35447,7 +35465,7 @@
         <v>0.78</v>
       </c>
       <c r="AP166">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ166">
         <v>0.67</v>
@@ -35575,7 +35593,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35859,10 +35877,10 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ168">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR168">
         <v>1.46</v>
@@ -36065,7 +36083,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ169">
         <v>1</v>
@@ -36274,7 +36292,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ170">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AR170">
         <v>1.69</v>
@@ -36477,7 +36495,7 @@
         <v>1.4</v>
       </c>
       <c r="AP171">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ171">
         <v>1.25</v>
@@ -36683,7 +36701,7 @@
         <v>1.91</v>
       </c>
       <c r="AP172">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ172">
         <v>1.75</v>
@@ -36811,7 +36829,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37017,7 +37035,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37098,7 +37116,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ174">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR174">
         <v>1.42</v>
@@ -37223,7 +37241,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37304,7 +37322,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ175">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR175">
         <v>1.68</v>
@@ -37429,7 +37447,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37635,7 +37653,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37713,7 +37731,7 @@
         <v>2.36</v>
       </c>
       <c r="AP177">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AQ177">
         <v>2.42</v>
@@ -37841,7 +37859,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -37919,10 +37937,10 @@
         <v>1.36</v>
       </c>
       <c r="AP178">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ178">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR178">
         <v>1.52</v>
@@ -38047,7 +38065,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38331,10 +38349,10 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AQ180">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR180">
         <v>1.39</v>
@@ -38537,7 +38555,7 @@
         <v>1.8</v>
       </c>
       <c r="AP181">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ181">
         <v>1.91</v>
@@ -38665,7 +38683,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38952,7 +38970,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ183">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR183">
         <v>1.4</v>
@@ -39158,7 +39176,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ184">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR184">
         <v>1.75</v>
@@ -39489,7 +39507,7 @@
         <v>216</v>
       </c>
       <c r="P186" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39901,7 +39919,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40188,7 +40206,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ189">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR189">
         <v>1.67</v>
@@ -40391,7 +40409,7 @@
         <v>1.33</v>
       </c>
       <c r="AP190">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ190">
         <v>1.23</v>
@@ -40470,6 +40488,1448 @@
       </c>
       <c r="BP190">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7321812</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45559.625</v>
+      </c>
+      <c r="F191">
+        <v>25</v>
+      </c>
+      <c r="G191" t="s">
+        <v>77</v>
+      </c>
+      <c r="H191" t="s">
+        <v>80</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>2</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>221</v>
+      </c>
+      <c r="P191" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q191">
+        <v>2.6</v>
+      </c>
+      <c r="R191">
+        <v>2.3</v>
+      </c>
+      <c r="S191">
+        <v>4</v>
+      </c>
+      <c r="T191">
+        <v>1.33</v>
+      </c>
+      <c r="U191">
+        <v>3.25</v>
+      </c>
+      <c r="V191">
+        <v>2.5</v>
+      </c>
+      <c r="W191">
+        <v>1.5</v>
+      </c>
+      <c r="X191">
+        <v>6.5</v>
+      </c>
+      <c r="Y191">
+        <v>1.11</v>
+      </c>
+      <c r="Z191">
+        <v>1.95</v>
+      </c>
+      <c r="AA191">
+        <v>3.7</v>
+      </c>
+      <c r="AB191">
+        <v>3.4</v>
+      </c>
+      <c r="AC191">
+        <v>1.02</v>
+      </c>
+      <c r="AD191">
+        <v>15</v>
+      </c>
+      <c r="AE191">
+        <v>1.22</v>
+      </c>
+      <c r="AF191">
+        <v>4.2</v>
+      </c>
+      <c r="AG191">
+        <v>1.7</v>
+      </c>
+      <c r="AH191">
+        <v>2</v>
+      </c>
+      <c r="AI191">
+        <v>1.62</v>
+      </c>
+      <c r="AJ191">
+        <v>2.2</v>
+      </c>
+      <c r="AK191">
+        <v>1.3</v>
+      </c>
+      <c r="AL191">
+        <v>1.22</v>
+      </c>
+      <c r="AM191">
+        <v>1.83</v>
+      </c>
+      <c r="AN191">
+        <v>1.64</v>
+      </c>
+      <c r="AO191">
+        <v>1.33</v>
+      </c>
+      <c r="AP191">
+        <v>1.75</v>
+      </c>
+      <c r="AQ191">
+        <v>1.23</v>
+      </c>
+      <c r="AR191">
+        <v>1.39</v>
+      </c>
+      <c r="AS191">
+        <v>1.46</v>
+      </c>
+      <c r="AT191">
+        <v>2.85</v>
+      </c>
+      <c r="AU191">
+        <v>7</v>
+      </c>
+      <c r="AV191">
+        <v>3</v>
+      </c>
+      <c r="AW191">
+        <v>3</v>
+      </c>
+      <c r="AX191">
+        <v>8</v>
+      </c>
+      <c r="AY191">
+        <v>10</v>
+      </c>
+      <c r="AZ191">
+        <v>11</v>
+      </c>
+      <c r="BA191">
+        <v>3</v>
+      </c>
+      <c r="BB191">
+        <v>7</v>
+      </c>
+      <c r="BC191">
+        <v>10</v>
+      </c>
+      <c r="BD191">
+        <v>1.5</v>
+      </c>
+      <c r="BE191">
+        <v>7</v>
+      </c>
+      <c r="BF191">
+        <v>3.38</v>
+      </c>
+      <c r="BG191">
+        <v>1.29</v>
+      </c>
+      <c r="BH191">
+        <v>3.4</v>
+      </c>
+      <c r="BI191">
+        <v>1.48</v>
+      </c>
+      <c r="BJ191">
+        <v>2.5</v>
+      </c>
+      <c r="BK191">
+        <v>1.92</v>
+      </c>
+      <c r="BL191">
+        <v>1.88</v>
+      </c>
+      <c r="BM191">
+        <v>2.2</v>
+      </c>
+      <c r="BN191">
+        <v>1.62</v>
+      </c>
+      <c r="BO191">
+        <v>2.8</v>
+      </c>
+      <c r="BP191">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7321807</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45559.72916666666</v>
+      </c>
+      <c r="F192">
+        <v>25</v>
+      </c>
+      <c r="G192" t="s">
+        <v>73</v>
+      </c>
+      <c r="H192" t="s">
+        <v>70</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" t="s">
+        <v>86</v>
+      </c>
+      <c r="P192" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q192">
+        <v>4</v>
+      </c>
+      <c r="R192">
+        <v>2.1</v>
+      </c>
+      <c r="S192">
+        <v>2.88</v>
+      </c>
+      <c r="T192">
+        <v>1.44</v>
+      </c>
+      <c r="U192">
+        <v>2.63</v>
+      </c>
+      <c r="V192">
+        <v>3</v>
+      </c>
+      <c r="W192">
+        <v>1.36</v>
+      </c>
+      <c r="X192">
+        <v>9</v>
+      </c>
+      <c r="Y192">
+        <v>1.07</v>
+      </c>
+      <c r="Z192">
+        <v>3.25</v>
+      </c>
+      <c r="AA192">
+        <v>3.3</v>
+      </c>
+      <c r="AB192">
+        <v>2.05</v>
+      </c>
+      <c r="AC192">
+        <v>1.01</v>
+      </c>
+      <c r="AD192">
+        <v>7.9</v>
+      </c>
+      <c r="AE192">
+        <v>1.28</v>
+      </c>
+      <c r="AF192">
+        <v>2.97</v>
+      </c>
+      <c r="AG192">
+        <v>1.95</v>
+      </c>
+      <c r="AH192">
+        <v>1.75</v>
+      </c>
+      <c r="AI192">
+        <v>1.83</v>
+      </c>
+      <c r="AJ192">
+        <v>1.83</v>
+      </c>
+      <c r="AK192">
+        <v>1.72</v>
+      </c>
+      <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>1.33</v>
+      </c>
+      <c r="AN192">
+        <v>1.42</v>
+      </c>
+      <c r="AO192">
+        <v>1</v>
+      </c>
+      <c r="AP192">
+        <v>1.31</v>
+      </c>
+      <c r="AQ192">
+        <v>1.15</v>
+      </c>
+      <c r="AR192">
+        <v>1.84</v>
+      </c>
+      <c r="AS192">
+        <v>1.32</v>
+      </c>
+      <c r="AT192">
+        <v>3.16</v>
+      </c>
+      <c r="AU192">
+        <v>5</v>
+      </c>
+      <c r="AV192">
+        <v>5</v>
+      </c>
+      <c r="AW192">
+        <v>14</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>19</v>
+      </c>
+      <c r="AZ192">
+        <v>10</v>
+      </c>
+      <c r="BA192">
+        <v>6</v>
+      </c>
+      <c r="BB192">
+        <v>0</v>
+      </c>
+      <c r="BC192">
+        <v>6</v>
+      </c>
+      <c r="BD192">
+        <v>2.13</v>
+      </c>
+      <c r="BE192">
+        <v>6.25</v>
+      </c>
+      <c r="BF192">
+        <v>2.1</v>
+      </c>
+      <c r="BG192">
+        <v>1.33</v>
+      </c>
+      <c r="BH192">
+        <v>3</v>
+      </c>
+      <c r="BI192">
+        <v>1.57</v>
+      </c>
+      <c r="BJ192">
+        <v>2.25</v>
+      </c>
+      <c r="BK192">
+        <v>1.98</v>
+      </c>
+      <c r="BL192">
+        <v>1.82</v>
+      </c>
+      <c r="BM192">
+        <v>2.4</v>
+      </c>
+      <c r="BN192">
+        <v>1.5</v>
+      </c>
+      <c r="BO192">
+        <v>3.2</v>
+      </c>
+      <c r="BP192">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7321805</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45559.83333333334</v>
+      </c>
+      <c r="F193">
+        <v>25</v>
+      </c>
+      <c r="G193" t="s">
+        <v>78</v>
+      </c>
+      <c r="H193" t="s">
+        <v>79</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>3</v>
+      </c>
+      <c r="O193" t="s">
+        <v>222</v>
+      </c>
+      <c r="P193" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q193">
+        <v>1.91</v>
+      </c>
+      <c r="R193">
+        <v>2.4</v>
+      </c>
+      <c r="S193">
+        <v>7</v>
+      </c>
+      <c r="T193">
+        <v>1.33</v>
+      </c>
+      <c r="U193">
+        <v>3.25</v>
+      </c>
+      <c r="V193">
+        <v>2.63</v>
+      </c>
+      <c r="W193">
+        <v>1.44</v>
+      </c>
+      <c r="X193">
+        <v>6.5</v>
+      </c>
+      <c r="Y193">
+        <v>1.11</v>
+      </c>
+      <c r="Z193">
+        <v>1.36</v>
+      </c>
+      <c r="AA193">
+        <v>4.4</v>
+      </c>
+      <c r="AB193">
+        <v>6.75</v>
+      </c>
+      <c r="AC193">
+        <v>1.02</v>
+      </c>
+      <c r="AD193">
+        <v>15</v>
+      </c>
+      <c r="AE193">
+        <v>1.22</v>
+      </c>
+      <c r="AF193">
+        <v>4.2</v>
+      </c>
+      <c r="AG193">
+        <v>1.7</v>
+      </c>
+      <c r="AH193">
+        <v>2</v>
+      </c>
+      <c r="AI193">
+        <v>2</v>
+      </c>
+      <c r="AJ193">
+        <v>1.73</v>
+      </c>
+      <c r="AK193">
+        <v>1.08</v>
+      </c>
+      <c r="AL193">
+        <v>1.14</v>
+      </c>
+      <c r="AM193">
+        <v>3</v>
+      </c>
+      <c r="AN193">
+        <v>1.92</v>
+      </c>
+      <c r="AO193">
+        <v>0.73</v>
+      </c>
+      <c r="AP193">
+        <v>2</v>
+      </c>
+      <c r="AQ193">
+        <v>0.67</v>
+      </c>
+      <c r="AR193">
+        <v>1.83</v>
+      </c>
+      <c r="AS193">
+        <v>1.27</v>
+      </c>
+      <c r="AT193">
+        <v>3.1</v>
+      </c>
+      <c r="AU193">
+        <v>6</v>
+      </c>
+      <c r="AV193">
+        <v>3</v>
+      </c>
+      <c r="AW193">
+        <v>11</v>
+      </c>
+      <c r="AX193">
+        <v>1</v>
+      </c>
+      <c r="AY193">
+        <v>17</v>
+      </c>
+      <c r="AZ193">
+        <v>4</v>
+      </c>
+      <c r="BA193">
+        <v>7</v>
+      </c>
+      <c r="BB193">
+        <v>2</v>
+      </c>
+      <c r="BC193">
+        <v>9</v>
+      </c>
+      <c r="BD193">
+        <v>1.15</v>
+      </c>
+      <c r="BE193">
+        <v>10.25</v>
+      </c>
+      <c r="BF193">
+        <v>7.4</v>
+      </c>
+      <c r="BG193">
+        <v>1.18</v>
+      </c>
+      <c r="BH193">
+        <v>3.74</v>
+      </c>
+      <c r="BI193">
+        <v>1.38</v>
+      </c>
+      <c r="BJ193">
+        <v>2.62</v>
+      </c>
+      <c r="BK193">
+        <v>1.82</v>
+      </c>
+      <c r="BL193">
+        <v>1.98</v>
+      </c>
+      <c r="BM193">
+        <v>2.1</v>
+      </c>
+      <c r="BN193">
+        <v>1.59</v>
+      </c>
+      <c r="BO193">
+        <v>2.73</v>
+      </c>
+      <c r="BP193">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7321809</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45559.83333333334</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>76</v>
+      </c>
+      <c r="H194" t="s">
+        <v>85</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194">
+        <v>4</v>
+      </c>
+      <c r="O194" t="s">
+        <v>223</v>
+      </c>
+      <c r="P194" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q194">
+        <v>3.1</v>
+      </c>
+      <c r="R194">
+        <v>2.05</v>
+      </c>
+      <c r="S194">
+        <v>3.75</v>
+      </c>
+      <c r="T194">
+        <v>1.44</v>
+      </c>
+      <c r="U194">
+        <v>2.63</v>
+      </c>
+      <c r="V194">
+        <v>3.25</v>
+      </c>
+      <c r="W194">
+        <v>1.33</v>
+      </c>
+      <c r="X194">
+        <v>9</v>
+      </c>
+      <c r="Y194">
+        <v>1.07</v>
+      </c>
+      <c r="Z194">
+        <v>2.25</v>
+      </c>
+      <c r="AA194">
+        <v>3</v>
+      </c>
+      <c r="AB194">
+        <v>2.95</v>
+      </c>
+      <c r="AC194">
+        <v>1.03</v>
+      </c>
+      <c r="AD194">
+        <v>9</v>
+      </c>
+      <c r="AE194">
+        <v>1.29</v>
+      </c>
+      <c r="AF194">
+        <v>3.3</v>
+      </c>
+      <c r="AG194">
+        <v>2</v>
+      </c>
+      <c r="AH194">
+        <v>1.7</v>
+      </c>
+      <c r="AI194">
+        <v>1.83</v>
+      </c>
+      <c r="AJ194">
+        <v>1.83</v>
+      </c>
+      <c r="AK194">
+        <v>1.38</v>
+      </c>
+      <c r="AL194">
+        <v>1.28</v>
+      </c>
+      <c r="AM194">
+        <v>1.57</v>
+      </c>
+      <c r="AN194">
+        <v>1.83</v>
+      </c>
+      <c r="AO194">
+        <v>1.55</v>
+      </c>
+      <c r="AP194">
+        <v>1.77</v>
+      </c>
+      <c r="AQ194">
+        <v>1.5</v>
+      </c>
+      <c r="AR194">
+        <v>1.41</v>
+      </c>
+      <c r="AS194">
+        <v>1.35</v>
+      </c>
+      <c r="AT194">
+        <v>2.76</v>
+      </c>
+      <c r="AU194">
+        <v>5</v>
+      </c>
+      <c r="AV194">
+        <v>4</v>
+      </c>
+      <c r="AW194">
+        <v>6</v>
+      </c>
+      <c r="AX194">
+        <v>5</v>
+      </c>
+      <c r="AY194">
+        <v>11</v>
+      </c>
+      <c r="AZ194">
+        <v>9</v>
+      </c>
+      <c r="BA194">
+        <v>2</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>2</v>
+      </c>
+      <c r="BD194">
+        <v>1.53</v>
+      </c>
+      <c r="BE194">
+        <v>7.1</v>
+      </c>
+      <c r="BF194">
+        <v>3.22</v>
+      </c>
+      <c r="BG194">
+        <v>1.22</v>
+      </c>
+      <c r="BH194">
+        <v>3.8</v>
+      </c>
+      <c r="BI194">
+        <v>1.28</v>
+      </c>
+      <c r="BJ194">
+        <v>2.94</v>
+      </c>
+      <c r="BK194">
+        <v>1.54</v>
+      </c>
+      <c r="BL194">
+        <v>2.19</v>
+      </c>
+      <c r="BM194">
+        <v>1.95</v>
+      </c>
+      <c r="BN194">
+        <v>1.76</v>
+      </c>
+      <c r="BO194">
+        <v>2.46</v>
+      </c>
+      <c r="BP194">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7321808</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45560.64583333334</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>82</v>
+      </c>
+      <c r="H195" t="s">
+        <v>74</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>86</v>
+      </c>
+      <c r="P195" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q195">
+        <v>2.63</v>
+      </c>
+      <c r="R195">
+        <v>2.3</v>
+      </c>
+      <c r="S195">
+        <v>3.75</v>
+      </c>
+      <c r="T195">
+        <v>1.33</v>
+      </c>
+      <c r="U195">
+        <v>3.25</v>
+      </c>
+      <c r="V195">
+        <v>2.63</v>
+      </c>
+      <c r="W195">
+        <v>1.44</v>
+      </c>
+      <c r="X195">
+        <v>6.5</v>
+      </c>
+      <c r="Y195">
+        <v>1.11</v>
+      </c>
+      <c r="Z195">
+        <v>2.1</v>
+      </c>
+      <c r="AA195">
+        <v>3.2</v>
+      </c>
+      <c r="AB195">
+        <v>3.3</v>
+      </c>
+      <c r="AC195">
+        <v>1.04</v>
+      </c>
+      <c r="AD195">
+        <v>13</v>
+      </c>
+      <c r="AE195">
+        <v>1.18</v>
+      </c>
+      <c r="AF195">
+        <v>3.66</v>
+      </c>
+      <c r="AG195">
+        <v>1.64</v>
+      </c>
+      <c r="AH195">
+        <v>2.15</v>
+      </c>
+      <c r="AI195">
+        <v>1.62</v>
+      </c>
+      <c r="AJ195">
+        <v>2.2</v>
+      </c>
+      <c r="AK195">
+        <v>1.3</v>
+      </c>
+      <c r="AL195">
+        <v>1.25</v>
+      </c>
+      <c r="AM195">
+        <v>1.78</v>
+      </c>
+      <c r="AN195">
+        <v>1.58</v>
+      </c>
+      <c r="AO195">
+        <v>1.17</v>
+      </c>
+      <c r="AP195">
+        <v>1.46</v>
+      </c>
+      <c r="AQ195">
+        <v>1.31</v>
+      </c>
+      <c r="AR195">
+        <v>1.71</v>
+      </c>
+      <c r="AS195">
+        <v>1.28</v>
+      </c>
+      <c r="AT195">
+        <v>2.99</v>
+      </c>
+      <c r="AU195">
+        <v>5</v>
+      </c>
+      <c r="AV195">
+        <v>4</v>
+      </c>
+      <c r="AW195">
+        <v>3</v>
+      </c>
+      <c r="AX195">
+        <v>4</v>
+      </c>
+      <c r="AY195">
+        <v>8</v>
+      </c>
+      <c r="AZ195">
+        <v>8</v>
+      </c>
+      <c r="BA195">
+        <v>8</v>
+      </c>
+      <c r="BB195">
+        <v>6</v>
+      </c>
+      <c r="BC195">
+        <v>14</v>
+      </c>
+      <c r="BD195">
+        <v>1.59</v>
+      </c>
+      <c r="BE195">
+        <v>8.5</v>
+      </c>
+      <c r="BF195">
+        <v>2.89</v>
+      </c>
+      <c r="BG195">
+        <v>1.25</v>
+      </c>
+      <c r="BH195">
+        <v>3.6</v>
+      </c>
+      <c r="BI195">
+        <v>1.42</v>
+      </c>
+      <c r="BJ195">
+        <v>2.62</v>
+      </c>
+      <c r="BK195">
+        <v>1.67</v>
+      </c>
+      <c r="BL195">
+        <v>2.1</v>
+      </c>
+      <c r="BM195">
+        <v>2.1</v>
+      </c>
+      <c r="BN195">
+        <v>1.67</v>
+      </c>
+      <c r="BO195">
+        <v>2.62</v>
+      </c>
+      <c r="BP195">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7321811</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45560.75</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>71</v>
+      </c>
+      <c r="H196" t="s">
+        <v>81</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>86</v>
+      </c>
+      <c r="P196" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q196">
+        <v>2.5</v>
+      </c>
+      <c r="R196">
+        <v>2.38</v>
+      </c>
+      <c r="S196">
+        <v>3.75</v>
+      </c>
+      <c r="T196">
+        <v>1.3</v>
+      </c>
+      <c r="U196">
+        <v>3.4</v>
+      </c>
+      <c r="V196">
+        <v>2.38</v>
+      </c>
+      <c r="W196">
+        <v>1.53</v>
+      </c>
+      <c r="X196">
+        <v>6</v>
+      </c>
+      <c r="Y196">
+        <v>1.13</v>
+      </c>
+      <c r="Z196">
+        <v>1.8</v>
+      </c>
+      <c r="AA196">
+        <v>3.6</v>
+      </c>
+      <c r="AB196">
+        <v>3.8</v>
+      </c>
+      <c r="AC196">
+        <v>1.02</v>
+      </c>
+      <c r="AD196">
+        <v>15</v>
+      </c>
+      <c r="AE196">
+        <v>1.14</v>
+      </c>
+      <c r="AF196">
+        <v>4.1</v>
+      </c>
+      <c r="AG196">
+        <v>1.57</v>
+      </c>
+      <c r="AH196">
+        <v>2.15</v>
+      </c>
+      <c r="AI196">
+        <v>1.53</v>
+      </c>
+      <c r="AJ196">
+        <v>2.38</v>
+      </c>
+      <c r="AK196">
+        <v>1.17</v>
+      </c>
+      <c r="AL196">
+        <v>1.25</v>
+      </c>
+      <c r="AM196">
+        <v>1.82</v>
+      </c>
+      <c r="AN196">
+        <v>2</v>
+      </c>
+      <c r="AO196">
+        <v>1.17</v>
+      </c>
+      <c r="AP196">
+        <v>1.85</v>
+      </c>
+      <c r="AQ196">
+        <v>1.31</v>
+      </c>
+      <c r="AR196">
+        <v>1.63</v>
+      </c>
+      <c r="AS196">
+        <v>1.32</v>
+      </c>
+      <c r="AT196">
+        <v>2.95</v>
+      </c>
+      <c r="AU196">
+        <v>2</v>
+      </c>
+      <c r="AV196">
+        <v>5</v>
+      </c>
+      <c r="AW196">
+        <v>9</v>
+      </c>
+      <c r="AX196">
+        <v>3</v>
+      </c>
+      <c r="AY196">
+        <v>11</v>
+      </c>
+      <c r="AZ196">
+        <v>8</v>
+      </c>
+      <c r="BA196">
+        <v>8</v>
+      </c>
+      <c r="BB196">
+        <v>8</v>
+      </c>
+      <c r="BC196">
+        <v>16</v>
+      </c>
+      <c r="BD196">
+        <v>1.85</v>
+      </c>
+      <c r="BE196">
+        <v>8</v>
+      </c>
+      <c r="BF196">
+        <v>2.28</v>
+      </c>
+      <c r="BG196">
+        <v>1.22</v>
+      </c>
+      <c r="BH196">
+        <v>3.8</v>
+      </c>
+      <c r="BI196">
+        <v>1.36</v>
+      </c>
+      <c r="BJ196">
+        <v>2.9</v>
+      </c>
+      <c r="BK196">
+        <v>1.82</v>
+      </c>
+      <c r="BL196">
+        <v>1.98</v>
+      </c>
+      <c r="BM196">
+        <v>2.12</v>
+      </c>
+      <c r="BN196">
+        <v>1.64</v>
+      </c>
+      <c r="BO196">
+        <v>2.8</v>
+      </c>
+      <c r="BP196">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7321806</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45560.85416666666</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197" t="s">
+        <v>75</v>
+      </c>
+      <c r="H197" t="s">
+        <v>72</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>4</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>5</v>
+      </c>
+      <c r="O197" t="s">
+        <v>224</v>
+      </c>
+      <c r="P197" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q197">
+        <v>2.2</v>
+      </c>
+      <c r="R197">
+        <v>2.38</v>
+      </c>
+      <c r="S197">
+        <v>5</v>
+      </c>
+      <c r="T197">
+        <v>1.33</v>
+      </c>
+      <c r="U197">
+        <v>3.25</v>
+      </c>
+      <c r="V197">
+        <v>2.5</v>
+      </c>
+      <c r="W197">
+        <v>1.5</v>
+      </c>
+      <c r="X197">
+        <v>6.5</v>
+      </c>
+      <c r="Y197">
+        <v>1.11</v>
+      </c>
+      <c r="Z197">
+        <v>1.62</v>
+      </c>
+      <c r="AA197">
+        <v>4</v>
+      </c>
+      <c r="AB197">
+        <v>4.25</v>
+      </c>
+      <c r="AC197">
+        <v>1.02</v>
+      </c>
+      <c r="AD197">
+        <v>17</v>
+      </c>
+      <c r="AE197">
+        <v>1.16</v>
+      </c>
+      <c r="AF197">
+        <v>3.88</v>
+      </c>
+      <c r="AG197">
+        <v>1.66</v>
+      </c>
+      <c r="AH197">
+        <v>2.12</v>
+      </c>
+      <c r="AI197">
+        <v>1.73</v>
+      </c>
+      <c r="AJ197">
+        <v>2</v>
+      </c>
+      <c r="AK197">
+        <v>1.16</v>
+      </c>
+      <c r="AL197">
+        <v>1.18</v>
+      </c>
+      <c r="AM197">
+        <v>1.94</v>
+      </c>
+      <c r="AN197">
+        <v>1.64</v>
+      </c>
+      <c r="AO197">
+        <v>0.33</v>
+      </c>
+      <c r="AP197">
+        <v>1.75</v>
+      </c>
+      <c r="AQ197">
+        <v>0.31</v>
+      </c>
+      <c r="AR197">
+        <v>1.5</v>
+      </c>
+      <c r="AS197">
+        <v>1.1</v>
+      </c>
+      <c r="AT197">
+        <v>2.6</v>
+      </c>
+      <c r="AU197">
+        <v>8</v>
+      </c>
+      <c r="AV197">
+        <v>4</v>
+      </c>
+      <c r="AW197">
+        <v>9</v>
+      </c>
+      <c r="AX197">
+        <v>2</v>
+      </c>
+      <c r="AY197">
+        <v>17</v>
+      </c>
+      <c r="AZ197">
+        <v>6</v>
+      </c>
+      <c r="BA197">
+        <v>7</v>
+      </c>
+      <c r="BB197">
+        <v>2</v>
+      </c>
+      <c r="BC197">
+        <v>9</v>
+      </c>
+      <c r="BD197">
+        <v>1.69</v>
+      </c>
+      <c r="BE197">
+        <v>8</v>
+      </c>
+      <c r="BF197">
+        <v>2.54</v>
+      </c>
+      <c r="BG197">
+        <v>1.25</v>
+      </c>
+      <c r="BH197">
+        <v>3.6</v>
+      </c>
+      <c r="BI197">
+        <v>1.42</v>
+      </c>
+      <c r="BJ197">
+        <v>2.62</v>
+      </c>
+      <c r="BK197">
+        <v>1.77</v>
+      </c>
+      <c r="BL197">
+        <v>1.95</v>
+      </c>
+      <c r="BM197">
+        <v>2.18</v>
+      </c>
+      <c r="BN197">
+        <v>1.66</v>
+      </c>
+      <c r="BO197">
+        <v>2.62</v>
+      </c>
+      <c r="BP197">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,16 +679,25 @@
     <t>['90+1']</t>
   </si>
   <si>
-    <t>['14', '36']</t>
+    <t>['18', '88']</t>
   </si>
   <si>
-    <t>['18', '88']</t>
+    <t>['14', '36']</t>
   </si>
   <si>
     <t>['88', '90+8']</t>
   </si>
   <si>
     <t>['45+5', '63', '89', '90+3']</t>
+  </si>
+  <si>
+    <t>['33', '88']</t>
+  </si>
+  <si>
+    <t>['2', '49']</t>
+  </si>
+  <si>
+    <t>['27', '72']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -983,6 +992,9 @@
   </si>
   <si>
     <t>['62']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP197"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1681,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ2">
         <v>1.25</v>
@@ -1809,7 +1821,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2015,7 +2027,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2093,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ4">
         <v>1.31</v>
@@ -2221,7 +2233,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2427,7 +2439,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2633,7 +2645,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2839,7 +2851,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3126,7 +3138,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3457,7 +3469,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3538,7 +3550,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ11">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3663,7 +3675,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -4075,7 +4087,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4362,7 +4374,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR15">
         <v>1.77</v>
@@ -4487,7 +4499,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4693,7 +4705,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5105,7 +5117,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5183,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ19">
         <v>1.31</v>
@@ -5389,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5517,7 +5529,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5723,7 +5735,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5801,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ22">
         <v>2.42</v>
@@ -5929,7 +5941,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6216,7 +6228,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>1.54</v>
@@ -6547,7 +6559,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6753,7 +6765,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6831,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ27">
         <v>2.42</v>
@@ -7037,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ28">
         <v>0.31</v>
@@ -7165,7 +7177,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7371,7 +7383,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7452,7 +7464,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ30">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR30">
         <v>1.72</v>
@@ -7658,7 +7670,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR31">
         <v>1.69</v>
@@ -7783,7 +7795,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7861,7 +7873,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ32">
         <v>1.15</v>
@@ -8894,7 +8906,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ37">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9509,10 +9521,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ40">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -9637,7 +9649,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9718,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9843,7 +9855,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10049,7 +10061,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10255,7 +10267,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10336,7 +10348,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ44">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10667,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10745,7 +10757,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
@@ -10951,10 +10963,10 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ47">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -11079,7 +11091,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11285,7 +11297,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11569,7 +11581,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ50">
         <v>1.23</v>
@@ -11775,7 +11787,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ51">
         <v>1.91</v>
@@ -11984,7 +11996,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR52">
         <v>1.58</v>
@@ -12187,7 +12199,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ53">
         <v>1.31</v>
@@ -12315,7 +12327,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12521,7 +12533,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12602,7 +12614,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ55">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR55">
         <v>1.44</v>
@@ -12727,7 +12739,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12933,7 +12945,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13139,7 +13151,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13757,7 +13769,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13835,10 +13847,10 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ61">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR61">
         <v>1.37</v>
@@ -13963,7 +13975,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14044,7 +14056,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ62">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14375,7 +14387,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14453,10 +14465,10 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR64">
         <v>1.82</v>
@@ -14787,7 +14799,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14993,7 +15005,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15199,7 +15211,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15817,7 +15829,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16023,7 +16035,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16229,7 +16241,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16435,7 +16447,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16641,7 +16653,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16719,7 +16731,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ75">
         <v>1.75</v>
@@ -16925,10 +16937,10 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ76">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR76">
         <v>1.51</v>
@@ -17053,7 +17065,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17131,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ77">
         <v>1.25</v>
@@ -17259,7 +17271,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17543,10 +17555,10 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ79">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR79">
         <v>2.15</v>
@@ -17752,7 +17764,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ80">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR80">
         <v>1.94</v>
@@ -17958,7 +17970,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR81">
         <v>1.6</v>
@@ -18083,7 +18095,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18495,7 +18507,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18701,7 +18713,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19113,7 +19125,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19319,7 +19331,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19525,7 +19537,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19731,7 +19743,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19937,7 +19949,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20143,7 +20155,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20221,10 +20233,10 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR92">
         <v>1.79</v>
@@ -20427,10 +20439,10 @@
         <v>1.2</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ93">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR93">
         <v>1.51</v>
@@ -20555,7 +20567,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20761,7 +20773,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20967,7 +20979,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21251,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ97">
         <v>0.31</v>
@@ -21379,7 +21391,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21585,7 +21597,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21791,7 +21803,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21869,7 +21881,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ100">
         <v>1.31</v>
@@ -22075,10 +22087,10 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ101">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR101">
         <v>2.17</v>
@@ -22203,7 +22215,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22409,7 +22421,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22821,7 +22833,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23233,7 +23245,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23439,7 +23451,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23520,7 +23532,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ108">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR108">
         <v>1.53</v>
@@ -23645,7 +23657,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23726,7 +23738,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ109">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR109">
         <v>1.4</v>
@@ -23851,7 +23863,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23929,7 +23941,7 @@
         <v>1.63</v>
       </c>
       <c r="AP110">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ110">
         <v>1.31</v>
@@ -24263,7 +24275,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24469,7 +24481,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24675,7 +24687,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24756,7 +24768,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ114">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR114">
         <v>1.52</v>
@@ -24881,7 +24893,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24959,7 +24971,7 @@
         <v>2.71</v>
       </c>
       <c r="AP115">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ115">
         <v>2.42</v>
@@ -25087,7 +25099,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25168,7 +25180,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ116">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR116">
         <v>1.63</v>
@@ -25293,7 +25305,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25371,7 +25383,7 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ117">
         <v>0.31</v>
@@ -25786,7 +25798,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ119">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR119">
         <v>1.34</v>
@@ -25911,7 +25923,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -25992,7 +26004,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ120">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR120">
         <v>1.57</v>
@@ -26195,7 +26207,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ121">
         <v>0.67</v>
@@ -26323,7 +26335,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26404,7 +26416,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ122">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR122">
         <v>1.63</v>
@@ -27022,7 +27034,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ125">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR125">
         <v>1.58</v>
@@ -27147,7 +27159,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27353,7 +27365,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27559,7 +27571,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27765,7 +27777,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27843,7 +27855,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -27971,7 +27983,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28049,7 +28061,7 @@
         <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ130">
         <v>1.23</v>
@@ -28255,7 +28267,7 @@
         <v>1.75</v>
       </c>
       <c r="AP131">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ131">
         <v>1.25</v>
@@ -28464,7 +28476,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ132">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR132">
         <v>1.55</v>
@@ -28589,7 +28601,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28667,7 +28679,7 @@
         <v>1.43</v>
       </c>
       <c r="AP133">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ133">
         <v>1.31</v>
@@ -28795,7 +28807,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28873,7 +28885,7 @@
         <v>2.13</v>
       </c>
       <c r="AP134">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ134">
         <v>1.75</v>
@@ -29207,7 +29219,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29413,7 +29425,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29494,7 +29506,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ137">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR137">
         <v>1.88</v>
@@ -29619,7 +29631,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29825,7 +29837,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29903,7 +29915,7 @@
         <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ139">
         <v>1.31</v>
@@ -30031,7 +30043,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30112,7 +30124,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ140">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR140">
         <v>1.53</v>
@@ -30318,7 +30330,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ141">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR141">
         <v>1.69</v>
@@ -30649,7 +30661,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30730,7 +30742,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ143">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR143">
         <v>1.62</v>
@@ -31348,7 +31360,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ146">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR146">
         <v>1.68</v>
@@ -31554,7 +31566,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ147">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR147">
         <v>1.84</v>
@@ -31757,7 +31769,7 @@
         <v>0.89</v>
       </c>
       <c r="AP148">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ148">
         <v>1.15</v>
@@ -32091,7 +32103,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32581,7 +32593,7 @@
         <v>2.22</v>
       </c>
       <c r="AP152">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ152">
         <v>1.75</v>
@@ -32787,7 +32799,7 @@
         <v>1.56</v>
       </c>
       <c r="AP153">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ153">
         <v>1.25</v>
@@ -32996,7 +33008,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ154">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR154">
         <v>1.55</v>
@@ -33121,7 +33133,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33199,7 +33211,7 @@
         <v>0.63</v>
       </c>
       <c r="AP155">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ155">
         <v>0.67</v>
@@ -33327,7 +33339,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33533,7 +33545,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33611,7 +33623,7 @@
         <v>1.44</v>
       </c>
       <c r="AP157">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ157">
         <v>1.5</v>
@@ -33820,7 +33832,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ158">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR158">
         <v>1.39</v>
@@ -33945,7 +33957,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34435,7 +34447,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -34563,7 +34575,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34850,7 +34862,7 @@
         <v>2</v>
       </c>
       <c r="AQ163">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR163">
         <v>1.89</v>
@@ -35181,7 +35193,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35468,7 +35480,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ166">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR166">
         <v>1.34</v>
@@ -35593,7 +35605,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35671,7 +35683,7 @@
         <v>1.67</v>
       </c>
       <c r="AP167">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ167">
         <v>1.91</v>
@@ -36829,7 +36841,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36910,7 +36922,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ173">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR173">
         <v>1.56</v>
@@ -37035,7 +37047,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37241,7 +37253,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37319,7 +37331,7 @@
         <v>1.1</v>
       </c>
       <c r="AP175">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AQ175">
         <v>1.15</v>
@@ -37447,7 +37459,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37528,7 +37540,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ176">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR176">
         <v>1.75</v>
@@ -37653,7 +37665,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37859,7 +37871,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38065,7 +38077,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38143,7 +38155,7 @@
         <v>0.9</v>
       </c>
       <c r="AP179">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ179">
         <v>1</v>
@@ -38683,7 +38695,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -38761,10 +38773,10 @@
         <v>0.7</v>
       </c>
       <c r="AP182">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ182">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR182">
         <v>1.57</v>
@@ -39379,10 +39391,10 @@
         <v>0.73</v>
       </c>
       <c r="AP185">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ185">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR185">
         <v>1.61</v>
@@ -39507,7 +39519,7 @@
         <v>216</v>
       </c>
       <c r="P186" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39794,7 +39806,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ187">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR187">
         <v>1.39</v>
@@ -39919,7 +39931,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -39997,7 +40009,7 @@
         <v>0.82</v>
       </c>
       <c r="AP188">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ188">
         <v>1</v>
@@ -40412,7 +40424,7 @@
         <v>2</v>
       </c>
       <c r="AQ190">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR190">
         <v>1.89</v>
@@ -40495,7 +40507,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7321812</v>
+        <v>7321805</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40504,49 +40516,49 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45559.625</v>
+        <v>45558.875</v>
       </c>
       <c r="F191">
         <v>25</v>
       </c>
       <c r="G191" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H191" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
       <c r="K191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L191">
         <v>2</v>
       </c>
       <c r="M191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O191" t="s">
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="Q191">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="R191">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S191">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T191">
         <v>1.33</v>
@@ -40555,10 +40567,10 @@
         <v>3.25</v>
       </c>
       <c r="V191">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W191">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X191">
         <v>6.5</v>
@@ -40567,13 +40579,13 @@
         <v>1.11</v>
       </c>
       <c r="Z191">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="AA191">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="AB191">
-        <v>3.4</v>
+        <v>6.75</v>
       </c>
       <c r="AC191">
         <v>1.02</v>
@@ -40594,106 +40606,106 @@
         <v>2</v>
       </c>
       <c r="AI191">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AJ191">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="AK191">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="AL191">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AM191">
+        <v>3</v>
+      </c>
+      <c r="AN191">
+        <v>1.92</v>
+      </c>
+      <c r="AO191">
+        <v>0.73</v>
+      </c>
+      <c r="AP191">
+        <v>2</v>
+      </c>
+      <c r="AQ191">
+        <v>0.67</v>
+      </c>
+      <c r="AR191">
         <v>1.83</v>
       </c>
-      <c r="AN191">
-        <v>1.64</v>
-      </c>
-      <c r="AO191">
+      <c r="AS191">
+        <v>1.27</v>
+      </c>
+      <c r="AT191">
+        <v>3.1</v>
+      </c>
+      <c r="AU191">
+        <v>4</v>
+      </c>
+      <c r="AV191">
+        <v>2</v>
+      </c>
+      <c r="AW191">
+        <v>11</v>
+      </c>
+      <c r="AX191">
+        <v>1</v>
+      </c>
+      <c r="AY191">
+        <v>15</v>
+      </c>
+      <c r="AZ191">
+        <v>3</v>
+      </c>
+      <c r="BA191">
+        <v>7</v>
+      </c>
+      <c r="BB191">
+        <v>2</v>
+      </c>
+      <c r="BC191">
+        <v>9</v>
+      </c>
+      <c r="BD191">
+        <v>1.15</v>
+      </c>
+      <c r="BE191">
+        <v>10.25</v>
+      </c>
+      <c r="BF191">
+        <v>7.4</v>
+      </c>
+      <c r="BG191">
+        <v>1.18</v>
+      </c>
+      <c r="BH191">
+        <v>3.74</v>
+      </c>
+      <c r="BI191">
+        <v>1.38</v>
+      </c>
+      <c r="BJ191">
+        <v>2.62</v>
+      </c>
+      <c r="BK191">
+        <v>1.82</v>
+      </c>
+      <c r="BL191">
+        <v>1.98</v>
+      </c>
+      <c r="BM191">
+        <v>2.1</v>
+      </c>
+      <c r="BN191">
+        <v>1.59</v>
+      </c>
+      <c r="BO191">
+        <v>2.73</v>
+      </c>
+      <c r="BP191">
         <v>1.33</v>
-      </c>
-      <c r="AP191">
-        <v>1.75</v>
-      </c>
-      <c r="AQ191">
-        <v>1.23</v>
-      </c>
-      <c r="AR191">
-        <v>1.39</v>
-      </c>
-      <c r="AS191">
-        <v>1.46</v>
-      </c>
-      <c r="AT191">
-        <v>2.85</v>
-      </c>
-      <c r="AU191">
-        <v>7</v>
-      </c>
-      <c r="AV191">
-        <v>3</v>
-      </c>
-      <c r="AW191">
-        <v>3</v>
-      </c>
-      <c r="AX191">
-        <v>8</v>
-      </c>
-      <c r="AY191">
-        <v>10</v>
-      </c>
-      <c r="AZ191">
-        <v>11</v>
-      </c>
-      <c r="BA191">
-        <v>3</v>
-      </c>
-      <c r="BB191">
-        <v>7</v>
-      </c>
-      <c r="BC191">
-        <v>10</v>
-      </c>
-      <c r="BD191">
-        <v>1.5</v>
-      </c>
-      <c r="BE191">
-        <v>7</v>
-      </c>
-      <c r="BF191">
-        <v>3.38</v>
-      </c>
-      <c r="BG191">
-        <v>1.29</v>
-      </c>
-      <c r="BH191">
-        <v>3.4</v>
-      </c>
-      <c r="BI191">
-        <v>1.48</v>
-      </c>
-      <c r="BJ191">
-        <v>2.5</v>
-      </c>
-      <c r="BK191">
-        <v>1.92</v>
-      </c>
-      <c r="BL191">
-        <v>1.88</v>
-      </c>
-      <c r="BM191">
-        <v>2.2</v>
-      </c>
-      <c r="BN191">
-        <v>1.62</v>
-      </c>
-      <c r="BO191">
-        <v>2.8</v>
-      </c>
-      <c r="BP191">
-        <v>1.38</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -40701,7 +40713,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7321807</v>
+        <v>7321812</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40710,196 +40722,196 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45559.72916666666</v>
+        <v>45559.625</v>
       </c>
       <c r="F192">
         <v>25</v>
       </c>
       <c r="G192" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H192" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J192">
         <v>0</v>
       </c>
       <c r="K192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O192" t="s">
+        <v>222</v>
+      </c>
+      <c r="P192" t="s">
         <v>86</v>
       </c>
-      <c r="P192" t="s">
-        <v>321</v>
-      </c>
       <c r="Q192">
+        <v>2.6</v>
+      </c>
+      <c r="R192">
+        <v>2.3</v>
+      </c>
+      <c r="S192">
         <v>4</v>
       </c>
-      <c r="R192">
-        <v>2.1</v>
-      </c>
-      <c r="S192">
-        <v>2.88</v>
-      </c>
       <c r="T192">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="U192">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="V192">
+        <v>2.5</v>
+      </c>
+      <c r="W192">
+        <v>1.5</v>
+      </c>
+      <c r="X192">
+        <v>6.5</v>
+      </c>
+      <c r="Y192">
+        <v>1.11</v>
+      </c>
+      <c r="Z192">
+        <v>1.95</v>
+      </c>
+      <c r="AA192">
+        <v>3.7</v>
+      </c>
+      <c r="AB192">
+        <v>3.4</v>
+      </c>
+      <c r="AC192">
+        <v>1.02</v>
+      </c>
+      <c r="AD192">
+        <v>15</v>
+      </c>
+      <c r="AE192">
+        <v>1.22</v>
+      </c>
+      <c r="AF192">
+        <v>4.2</v>
+      </c>
+      <c r="AG192">
+        <v>1.7</v>
+      </c>
+      <c r="AH192">
+        <v>2</v>
+      </c>
+      <c r="AI192">
+        <v>1.62</v>
+      </c>
+      <c r="AJ192">
+        <v>2.2</v>
+      </c>
+      <c r="AK192">
+        <v>1.3</v>
+      </c>
+      <c r="AL192">
+        <v>1.22</v>
+      </c>
+      <c r="AM192">
+        <v>1.83</v>
+      </c>
+      <c r="AN192">
+        <v>1.64</v>
+      </c>
+      <c r="AO192">
+        <v>1.33</v>
+      </c>
+      <c r="AP192">
+        <v>1.75</v>
+      </c>
+      <c r="AQ192">
+        <v>1.23</v>
+      </c>
+      <c r="AR192">
+        <v>1.39</v>
+      </c>
+      <c r="AS192">
+        <v>1.46</v>
+      </c>
+      <c r="AT192">
+        <v>2.85</v>
+      </c>
+      <c r="AU192">
+        <v>7</v>
+      </c>
+      <c r="AV192">
         <v>3</v>
       </c>
-      <c r="W192">
-        <v>1.36</v>
-      </c>
-      <c r="X192">
-        <v>9</v>
-      </c>
-      <c r="Y192">
-        <v>1.07</v>
-      </c>
-      <c r="Z192">
-        <v>3.25</v>
-      </c>
-      <c r="AA192">
-        <v>3.3</v>
-      </c>
-      <c r="AB192">
-        <v>2.05</v>
-      </c>
-      <c r="AC192">
-        <v>1.01</v>
-      </c>
-      <c r="AD192">
-        <v>7.9</v>
-      </c>
-      <c r="AE192">
-        <v>1.28</v>
-      </c>
-      <c r="AF192">
-        <v>2.97</v>
-      </c>
-      <c r="AG192">
-        <v>1.95</v>
-      </c>
-      <c r="AH192">
-        <v>1.75</v>
-      </c>
-      <c r="AI192">
-        <v>1.83</v>
-      </c>
-      <c r="AJ192">
-        <v>1.83</v>
-      </c>
-      <c r="AK192">
-        <v>1.72</v>
-      </c>
-      <c r="AL192">
-        <v>1.25</v>
-      </c>
-      <c r="AM192">
-        <v>1.33</v>
-      </c>
-      <c r="AN192">
-        <v>1.42</v>
-      </c>
-      <c r="AO192">
-        <v>1</v>
-      </c>
-      <c r="AP192">
-        <v>1.31</v>
-      </c>
-      <c r="AQ192">
-        <v>1.15</v>
-      </c>
-      <c r="AR192">
-        <v>1.84</v>
-      </c>
-      <c r="AS192">
-        <v>1.32</v>
-      </c>
-      <c r="AT192">
-        <v>3.16</v>
-      </c>
-      <c r="AU192">
-        <v>5</v>
-      </c>
-      <c r="AV192">
-        <v>5</v>
-      </c>
       <c r="AW192">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AX192">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AY192">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AZ192">
+        <v>11</v>
+      </c>
+      <c r="BA192">
+        <v>3</v>
+      </c>
+      <c r="BB192">
+        <v>7</v>
+      </c>
+      <c r="BC192">
         <v>10</v>
       </c>
-      <c r="BA192">
-        <v>6</v>
-      </c>
-      <c r="BB192">
-        <v>0</v>
-      </c>
-      <c r="BC192">
-        <v>6</v>
-      </c>
       <c r="BD192">
-        <v>2.13</v>
+        <v>1.5</v>
       </c>
       <c r="BE192">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="BF192">
-        <v>2.1</v>
+        <v>3.38</v>
       </c>
       <c r="BG192">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="BH192">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BI192">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BJ192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="BK192">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="BL192">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="BM192">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="BN192">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="BO192">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BP192">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -40907,7 +40919,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7321805</v>
+        <v>7321807</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40916,196 +40928,196 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45559.83333333334</v>
+        <v>45559.72916666666</v>
       </c>
       <c r="F193">
         <v>25</v>
       </c>
       <c r="G193" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H193" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
         <v>0</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M193">
         <v>1</v>
       </c>
       <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193" t="s">
+        <v>86</v>
+      </c>
+      <c r="P193" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q193">
+        <v>4</v>
+      </c>
+      <c r="R193">
+        <v>2.1</v>
+      </c>
+      <c r="S193">
+        <v>2.88</v>
+      </c>
+      <c r="T193">
+        <v>1.44</v>
+      </c>
+      <c r="U193">
+        <v>2.63</v>
+      </c>
+      <c r="V193">
         <v>3</v>
       </c>
-      <c r="O193" t="s">
-        <v>222</v>
-      </c>
-      <c r="P193" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q193">
-        <v>1.91</v>
-      </c>
-      <c r="R193">
+      <c r="W193">
+        <v>1.36</v>
+      </c>
+      <c r="X193">
+        <v>9</v>
+      </c>
+      <c r="Y193">
+        <v>1.07</v>
+      </c>
+      <c r="Z193">
+        <v>3.25</v>
+      </c>
+      <c r="AA193">
+        <v>3.3</v>
+      </c>
+      <c r="AB193">
+        <v>2.05</v>
+      </c>
+      <c r="AC193">
+        <v>1.01</v>
+      </c>
+      <c r="AD193">
+        <v>7.9</v>
+      </c>
+      <c r="AE193">
+        <v>1.28</v>
+      </c>
+      <c r="AF193">
+        <v>2.97</v>
+      </c>
+      <c r="AG193">
+        <v>1.95</v>
+      </c>
+      <c r="AH193">
+        <v>1.75</v>
+      </c>
+      <c r="AI193">
+        <v>1.83</v>
+      </c>
+      <c r="AJ193">
+        <v>1.83</v>
+      </c>
+      <c r="AK193">
+        <v>1.72</v>
+      </c>
+      <c r="AL193">
+        <v>1.25</v>
+      </c>
+      <c r="AM193">
+        <v>1.33</v>
+      </c>
+      <c r="AN193">
+        <v>1.42</v>
+      </c>
+      <c r="AO193">
+        <v>1</v>
+      </c>
+      <c r="AP193">
+        <v>1.31</v>
+      </c>
+      <c r="AQ193">
+        <v>1.15</v>
+      </c>
+      <c r="AR193">
+        <v>1.84</v>
+      </c>
+      <c r="AS193">
+        <v>1.32</v>
+      </c>
+      <c r="AT193">
+        <v>3.16</v>
+      </c>
+      <c r="AU193">
+        <v>5</v>
+      </c>
+      <c r="AV193">
+        <v>5</v>
+      </c>
+      <c r="AW193">
+        <v>14</v>
+      </c>
+      <c r="AX193">
+        <v>5</v>
+      </c>
+      <c r="AY193">
+        <v>19</v>
+      </c>
+      <c r="AZ193">
+        <v>10</v>
+      </c>
+      <c r="BA193">
+        <v>6</v>
+      </c>
+      <c r="BB193">
+        <v>0</v>
+      </c>
+      <c r="BC193">
+        <v>6</v>
+      </c>
+      <c r="BD193">
+        <v>2.13</v>
+      </c>
+      <c r="BE193">
+        <v>6.25</v>
+      </c>
+      <c r="BF193">
+        <v>2.1</v>
+      </c>
+      <c r="BG193">
+        <v>1.33</v>
+      </c>
+      <c r="BH193">
+        <v>3</v>
+      </c>
+      <c r="BI193">
+        <v>1.57</v>
+      </c>
+      <c r="BJ193">
+        <v>2.25</v>
+      </c>
+      <c r="BK193">
+        <v>1.98</v>
+      </c>
+      <c r="BL193">
+        <v>1.82</v>
+      </c>
+      <c r="BM193">
         <v>2.4</v>
       </c>
-      <c r="S193">
-        <v>7</v>
-      </c>
-      <c r="T193">
-        <v>1.33</v>
-      </c>
-      <c r="U193">
-        <v>3.25</v>
-      </c>
-      <c r="V193">
-        <v>2.63</v>
-      </c>
-      <c r="W193">
-        <v>1.44</v>
-      </c>
-      <c r="X193">
-        <v>6.5</v>
-      </c>
-      <c r="Y193">
-        <v>1.11</v>
-      </c>
-      <c r="Z193">
-        <v>1.36</v>
-      </c>
-      <c r="AA193">
-        <v>4.4</v>
-      </c>
-      <c r="AB193">
-        <v>6.75</v>
-      </c>
-      <c r="AC193">
-        <v>1.02</v>
-      </c>
-      <c r="AD193">
-        <v>15</v>
-      </c>
-      <c r="AE193">
-        <v>1.22</v>
-      </c>
-      <c r="AF193">
-        <v>4.2</v>
-      </c>
-      <c r="AG193">
-        <v>1.7</v>
-      </c>
-      <c r="AH193">
-        <v>2</v>
-      </c>
-      <c r="AI193">
-        <v>2</v>
-      </c>
-      <c r="AJ193">
-        <v>1.73</v>
-      </c>
-      <c r="AK193">
-        <v>1.08</v>
-      </c>
-      <c r="AL193">
-        <v>1.14</v>
-      </c>
-      <c r="AM193">
-        <v>3</v>
-      </c>
-      <c r="AN193">
-        <v>1.92</v>
-      </c>
-      <c r="AO193">
-        <v>0.73</v>
-      </c>
-      <c r="AP193">
-        <v>2</v>
-      </c>
-      <c r="AQ193">
-        <v>0.67</v>
-      </c>
-      <c r="AR193">
-        <v>1.83</v>
-      </c>
-      <c r="AS193">
-        <v>1.27</v>
-      </c>
-      <c r="AT193">
-        <v>3.1</v>
-      </c>
-      <c r="AU193">
-        <v>6</v>
-      </c>
-      <c r="AV193">
-        <v>3</v>
-      </c>
-      <c r="AW193">
-        <v>11</v>
-      </c>
-      <c r="AX193">
-        <v>1</v>
-      </c>
-      <c r="AY193">
-        <v>17</v>
-      </c>
-      <c r="AZ193">
-        <v>4</v>
-      </c>
-      <c r="BA193">
-        <v>7</v>
-      </c>
-      <c r="BB193">
-        <v>2</v>
-      </c>
-      <c r="BC193">
-        <v>9</v>
-      </c>
-      <c r="BD193">
-        <v>1.15</v>
-      </c>
-      <c r="BE193">
-        <v>10.25</v>
-      </c>
-      <c r="BF193">
-        <v>7.4</v>
-      </c>
-      <c r="BG193">
-        <v>1.18</v>
-      </c>
-      <c r="BH193">
-        <v>3.74</v>
-      </c>
-      <c r="BI193">
-        <v>1.38</v>
-      </c>
-      <c r="BJ193">
-        <v>2.62</v>
-      </c>
-      <c r="BK193">
-        <v>1.82</v>
-      </c>
-      <c r="BL193">
-        <v>1.98</v>
-      </c>
-      <c r="BM193">
-        <v>2.1</v>
-      </c>
       <c r="BN193">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="BO193">
-        <v>2.73</v>
+        <v>3.2</v>
       </c>
       <c r="BP193">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41155,7 +41167,7 @@
         <v>223</v>
       </c>
       <c r="P194" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q194">
         <v>3.1</v>
@@ -41319,7 +41331,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7321808</v>
+        <v>7321806</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41328,49 +41340,49 @@
         <v>69</v>
       </c>
       <c r="E195" s="2">
-        <v>45560.64583333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F195">
         <v>25</v>
       </c>
       <c r="G195" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H195" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L195">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M195">
         <v>1</v>
       </c>
       <c r="N195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O195" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="Q195">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="R195">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S195">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T195">
         <v>1.33</v>
@@ -41379,10 +41391,10 @@
         <v>3.25</v>
       </c>
       <c r="V195">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W195">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X195">
         <v>6.5</v>
@@ -41391,103 +41403,103 @@
         <v>1.11</v>
       </c>
       <c r="Z195">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="AA195">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AB195">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="AC195">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD195">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE195">
+        <v>1.16</v>
+      </c>
+      <c r="AF195">
+        <v>3.88</v>
+      </c>
+      <c r="AG195">
+        <v>1.66</v>
+      </c>
+      <c r="AH195">
+        <v>2.12</v>
+      </c>
+      <c r="AI195">
+        <v>1.73</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>1.16</v>
+      </c>
+      <c r="AL195">
         <v>1.18</v>
       </c>
-      <c r="AF195">
-        <v>3.66</v>
-      </c>
-      <c r="AG195">
+      <c r="AM195">
+        <v>1.94</v>
+      </c>
+      <c r="AN195">
         <v>1.64</v>
       </c>
-      <c r="AH195">
-        <v>2.15</v>
-      </c>
-      <c r="AI195">
-        <v>1.62</v>
-      </c>
-      <c r="AJ195">
-        <v>2.2</v>
-      </c>
-      <c r="AK195">
-        <v>1.3</v>
-      </c>
-      <c r="AL195">
-        <v>1.25</v>
-      </c>
-      <c r="AM195">
-        <v>1.78</v>
-      </c>
-      <c r="AN195">
-        <v>1.58</v>
-      </c>
       <c r="AO195">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="AP195">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="AQ195">
-        <v>1.31</v>
+        <v>0.31</v>
       </c>
       <c r="AR195">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AS195">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="AT195">
-        <v>2.99</v>
+        <v>2.6</v>
       </c>
       <c r="AU195">
         <v>5</v>
       </c>
       <c r="AV195">
+        <v>3</v>
+      </c>
+      <c r="AW195">
         <v>4</v>
       </c>
-      <c r="AW195">
+      <c r="AX195">
         <v>3</v>
       </c>
-      <c r="AX195">
+      <c r="AY195">
+        <v>9</v>
+      </c>
+      <c r="AZ195">
+        <v>6</v>
+      </c>
+      <c r="BA195">
         <v>4</v>
       </c>
-      <c r="AY195">
+      <c r="BB195">
+        <v>2</v>
+      </c>
+      <c r="BC195">
+        <v>6</v>
+      </c>
+      <c r="BD195">
+        <v>1.69</v>
+      </c>
+      <c r="BE195">
         <v>8</v>
       </c>
-      <c r="AZ195">
-        <v>8</v>
-      </c>
-      <c r="BA195">
-        <v>8</v>
-      </c>
-      <c r="BB195">
-        <v>6</v>
-      </c>
-      <c r="BC195">
-        <v>14</v>
-      </c>
-      <c r="BD195">
-        <v>1.59</v>
-      </c>
-      <c r="BE195">
-        <v>8.5</v>
-      </c>
       <c r="BF195">
-        <v>2.89</v>
+        <v>2.54</v>
       </c>
       <c r="BG195">
         <v>1.25</v>
@@ -41502,16 +41514,16 @@
         <v>2.62</v>
       </c>
       <c r="BK195">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="BL195">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BM195">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="BN195">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="BO195">
         <v>2.62</v>
@@ -41525,7 +41537,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7321811</v>
+        <v>7321808</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41534,16 +41546,16 @@
         <v>69</v>
       </c>
       <c r="E196" s="2">
-        <v>45560.75</v>
+        <v>45560.64583333334</v>
       </c>
       <c r="F196">
         <v>25</v>
       </c>
       <c r="G196" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H196" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -41567,112 +41579,112 @@
         <v>86</v>
       </c>
       <c r="P196" t="s">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="Q196">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R196">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S196">
         <v>3.75</v>
       </c>
       <c r="T196">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U196">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V196">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W196">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X196">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y196">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z196">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AA196">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB196">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="AC196">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD196">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE196">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AF196">
-        <v>4.1</v>
+        <v>3.66</v>
       </c>
       <c r="AG196">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AH196">
         <v>2.15</v>
       </c>
       <c r="AI196">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AJ196">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AK196">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AL196">
         <v>1.25</v>
       </c>
       <c r="AM196">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AN196">
-        <v>2</v>
+        <v>1.58</v>
       </c>
       <c r="AO196">
         <v>1.17</v>
       </c>
       <c r="AP196">
-        <v>1.85</v>
+        <v>1.46</v>
       </c>
       <c r="AQ196">
         <v>1.31</v>
       </c>
       <c r="AR196">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AS196">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AT196">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="AU196">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW196">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY196">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ196">
         <v>8</v>
@@ -41681,49 +41693,49 @@
         <v>8</v>
       </c>
       <c r="BB196">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC196">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD196">
-        <v>1.85</v>
+        <v>1.59</v>
       </c>
       <c r="BE196">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF196">
-        <v>2.28</v>
+        <v>2.89</v>
       </c>
       <c r="BG196">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BH196">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI196">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="BJ196">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="BK196">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="BL196">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="BM196">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="BN196">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="BO196">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="BP196">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41731,7 +41743,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7321806</v>
+        <v>7321811</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41740,196 +41752,1020 @@
         <v>69</v>
       </c>
       <c r="E197" s="2">
-        <v>45560.85416666666</v>
+        <v>45560.75</v>
       </c>
       <c r="F197">
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H197" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M197">
         <v>1</v>
       </c>
       <c r="N197">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O197" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="P197" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="Q197">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R197">
         <v>2.38</v>
       </c>
       <c r="S197">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T197">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U197">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V197">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W197">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X197">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y197">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z197">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AA197">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AB197">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="AC197">
         <v>1.02</v>
       </c>
       <c r="AD197">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE197">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AF197">
-        <v>3.88</v>
+        <v>4.1</v>
       </c>
       <c r="AG197">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="AH197">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="AI197">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AJ197">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AK197">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AL197">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM197">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AN197">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AO197">
-        <v>0.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP197">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ197">
-        <v>0.31</v>
+        <v>1.31</v>
       </c>
       <c r="AR197">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AS197">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="AT197">
-        <v>2.6</v>
+        <v>2.95</v>
       </c>
       <c r="AU197">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV197">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW197">
         <v>9</v>
       </c>
       <c r="AX197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY197">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ197">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA197">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB197">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC197">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BD197">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="BE197">
         <v>8</v>
       </c>
       <c r="BF197">
-        <v>2.54</v>
+        <v>2.28</v>
       </c>
       <c r="BG197">
+        <v>1.22</v>
+      </c>
+      <c r="BH197">
+        <v>3.8</v>
+      </c>
+      <c r="BI197">
+        <v>1.36</v>
+      </c>
+      <c r="BJ197">
+        <v>2.9</v>
+      </c>
+      <c r="BK197">
+        <v>1.82</v>
+      </c>
+      <c r="BL197">
+        <v>1.98</v>
+      </c>
+      <c r="BM197">
+        <v>2.12</v>
+      </c>
+      <c r="BN197">
+        <v>1.64</v>
+      </c>
+      <c r="BO197">
+        <v>2.8</v>
+      </c>
+      <c r="BP197">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7321817</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45563.72916666666</v>
+      </c>
+      <c r="F198">
+        <v>26</v>
+      </c>
+      <c r="G198" t="s">
+        <v>85</v>
+      </c>
+      <c r="H198" t="s">
+        <v>73</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>225</v>
+      </c>
+      <c r="P198" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q198">
+        <v>2.1</v>
+      </c>
+      <c r="R198">
+        <v>2.4</v>
+      </c>
+      <c r="S198">
+        <v>5.5</v>
+      </c>
+      <c r="T198">
+        <v>1.3</v>
+      </c>
+      <c r="U198">
+        <v>3.4</v>
+      </c>
+      <c r="V198">
+        <v>2.38</v>
+      </c>
+      <c r="W198">
+        <v>1.53</v>
+      </c>
+      <c r="X198">
+        <v>6</v>
+      </c>
+      <c r="Y198">
+        <v>1.13</v>
+      </c>
+      <c r="Z198">
+        <v>1.62</v>
+      </c>
+      <c r="AA198">
+        <v>3.8</v>
+      </c>
+      <c r="AB198">
+        <v>5.25</v>
+      </c>
+      <c r="AC198">
+        <v>1.01</v>
+      </c>
+      <c r="AD198">
+        <v>13</v>
+      </c>
+      <c r="AE198">
+        <v>1.18</v>
+      </c>
+      <c r="AF198">
+        <v>3.68</v>
+      </c>
+      <c r="AG198">
+        <v>1.73</v>
+      </c>
+      <c r="AH198">
+        <v>2.02</v>
+      </c>
+      <c r="AI198">
+        <v>1.73</v>
+      </c>
+      <c r="AJ198">
+        <v>2</v>
+      </c>
+      <c r="AK198">
+        <v>1.13</v>
+      </c>
+      <c r="AL198">
+        <v>1.21</v>
+      </c>
+      <c r="AM198">
+        <v>2.34</v>
+      </c>
+      <c r="AN198">
+        <v>1.42</v>
+      </c>
+      <c r="AO198">
+        <v>0.58</v>
+      </c>
+      <c r="AP198">
+        <v>1.54</v>
+      </c>
+      <c r="AQ198">
+        <v>0.54</v>
+      </c>
+      <c r="AR198">
+        <v>1.67</v>
+      </c>
+      <c r="AS198">
+        <v>1.03</v>
+      </c>
+      <c r="AT198">
+        <v>2.7</v>
+      </c>
+      <c r="AU198">
+        <v>9</v>
+      </c>
+      <c r="AV198">
+        <v>0</v>
+      </c>
+      <c r="AW198">
+        <v>4</v>
+      </c>
+      <c r="AX198">
+        <v>4</v>
+      </c>
+      <c r="AY198">
+        <v>13</v>
+      </c>
+      <c r="AZ198">
+        <v>4</v>
+      </c>
+      <c r="BA198">
+        <v>9</v>
+      </c>
+      <c r="BB198">
+        <v>1</v>
+      </c>
+      <c r="BC198">
+        <v>10</v>
+      </c>
+      <c r="BD198">
+        <v>1.45</v>
+      </c>
+      <c r="BE198">
+        <v>9</v>
+      </c>
+      <c r="BF198">
+        <v>3.28</v>
+      </c>
+      <c r="BG198">
+        <v>1.21</v>
+      </c>
+      <c r="BH198">
+        <v>3.65</v>
+      </c>
+      <c r="BI198">
+        <v>1.41</v>
+      </c>
+      <c r="BJ198">
+        <v>2.7</v>
+      </c>
+      <c r="BK198">
+        <v>1.7</v>
+      </c>
+      <c r="BL198">
+        <v>2.05</v>
+      </c>
+      <c r="BM198">
+        <v>2.05</v>
+      </c>
+      <c r="BN198">
+        <v>1.7</v>
+      </c>
+      <c r="BO198">
+        <v>2.95</v>
+      </c>
+      <c r="BP198">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7321813</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45563.83333333334</v>
+      </c>
+      <c r="F199">
+        <v>26</v>
+      </c>
+      <c r="G199" t="s">
+        <v>83</v>
+      </c>
+      <c r="H199" t="s">
+        <v>82</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>2</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>226</v>
+      </c>
+      <c r="P199" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q199">
+        <v>1.73</v>
+      </c>
+      <c r="R199">
+        <v>2.6</v>
+      </c>
+      <c r="S199">
+        <v>8.5</v>
+      </c>
+      <c r="T199">
+        <v>1.3</v>
+      </c>
+      <c r="U199">
+        <v>3.4</v>
+      </c>
+      <c r="V199">
+        <v>2.38</v>
+      </c>
+      <c r="W199">
+        <v>1.53</v>
+      </c>
+      <c r="X199">
+        <v>6</v>
+      </c>
+      <c r="Y199">
+        <v>1.13</v>
+      </c>
+      <c r="Z199">
+        <v>1.27</v>
+      </c>
+      <c r="AA199">
+        <v>4.75</v>
+      </c>
+      <c r="AB199">
+        <v>13</v>
+      </c>
+      <c r="AC199">
+        <v>1.01</v>
+      </c>
+      <c r="AD199">
+        <v>13</v>
+      </c>
+      <c r="AE199">
+        <v>1.15</v>
+      </c>
+      <c r="AF199">
+        <v>4</v>
+      </c>
+      <c r="AG199">
+        <v>1.65</v>
+      </c>
+      <c r="AH199">
+        <v>2.14</v>
+      </c>
+      <c r="AI199">
+        <v>2.1</v>
+      </c>
+      <c r="AJ199">
+        <v>1.67</v>
+      </c>
+      <c r="AK199">
+        <v>1.01</v>
+      </c>
+      <c r="AL199">
+        <v>1.11</v>
+      </c>
+      <c r="AM199">
+        <v>4.05</v>
+      </c>
+      <c r="AN199">
+        <v>2.18</v>
+      </c>
+      <c r="AO199">
+        <v>0.67</v>
+      </c>
+      <c r="AP199">
+        <v>2.25</v>
+      </c>
+      <c r="AQ199">
+        <v>0.62</v>
+      </c>
+      <c r="AR199">
+        <v>1.71</v>
+      </c>
+      <c r="AS199">
+        <v>1.35</v>
+      </c>
+      <c r="AT199">
+        <v>3.06</v>
+      </c>
+      <c r="AU199">
+        <v>8</v>
+      </c>
+      <c r="AV199">
+        <v>5</v>
+      </c>
+      <c r="AW199">
+        <v>6</v>
+      </c>
+      <c r="AX199">
+        <v>4</v>
+      </c>
+      <c r="AY199">
+        <v>14</v>
+      </c>
+      <c r="AZ199">
+        <v>9</v>
+      </c>
+      <c r="BA199">
+        <v>4</v>
+      </c>
+      <c r="BB199">
+        <v>0</v>
+      </c>
+      <c r="BC199">
+        <v>4</v>
+      </c>
+      <c r="BD199">
+        <v>1.18</v>
+      </c>
+      <c r="BE199">
+        <v>11</v>
+      </c>
+      <c r="BF199">
+        <v>6.16</v>
+      </c>
+      <c r="BG199">
         <v>1.25</v>
       </c>
-      <c r="BH197">
+      <c r="BH199">
         <v>3.6</v>
       </c>
-      <c r="BI197">
+      <c r="BI199">
         <v>1.42</v>
       </c>
-      <c r="BJ197">
+      <c r="BJ199">
         <v>2.62</v>
       </c>
-      <c r="BK197">
-        <v>1.77</v>
-      </c>
-      <c r="BL197">
-        <v>1.95</v>
-      </c>
-      <c r="BM197">
-        <v>2.18</v>
-      </c>
-      <c r="BN197">
-        <v>1.66</v>
-      </c>
-      <c r="BO197">
+      <c r="BK199">
+        <v>1.8</v>
+      </c>
+      <c r="BL199">
+        <v>1.91</v>
+      </c>
+      <c r="BM199">
+        <v>2.05</v>
+      </c>
+      <c r="BN199">
+        <v>1.7</v>
+      </c>
+      <c r="BO199">
         <v>2.62</v>
       </c>
-      <c r="BP197">
+      <c r="BP199">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7321819</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45564.52083333334</v>
+      </c>
+      <c r="F200">
+        <v>26</v>
+      </c>
+      <c r="G200" t="s">
+        <v>70</v>
+      </c>
+      <c r="H200" t="s">
+        <v>84</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>1</v>
+      </c>
+      <c r="O200" t="s">
+        <v>86</v>
+      </c>
+      <c r="P200" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q200">
+        <v>2.2</v>
+      </c>
+      <c r="R200">
+        <v>2.25</v>
+      </c>
+      <c r="S200">
+        <v>5.5</v>
+      </c>
+      <c r="T200">
+        <v>1.36</v>
+      </c>
+      <c r="U200">
+        <v>3</v>
+      </c>
+      <c r="V200">
+        <v>2.75</v>
+      </c>
+      <c r="W200">
+        <v>1.4</v>
+      </c>
+      <c r="X200">
+        <v>8</v>
+      </c>
+      <c r="Y200">
+        <v>1.08</v>
+      </c>
+      <c r="Z200">
+        <v>1.55</v>
+      </c>
+      <c r="AA200">
+        <v>3.75</v>
+      </c>
+      <c r="AB200">
+        <v>4.8</v>
+      </c>
+      <c r="AC200">
+        <v>1.02</v>
+      </c>
+      <c r="AD200">
+        <v>10</v>
+      </c>
+      <c r="AE200">
+        <v>1.25</v>
+      </c>
+      <c r="AF200">
+        <v>3.6</v>
+      </c>
+      <c r="AG200">
+        <v>1.8</v>
+      </c>
+      <c r="AH200">
+        <v>1.85</v>
+      </c>
+      <c r="AI200">
+        <v>1.91</v>
+      </c>
+      <c r="AJ200">
+        <v>1.8</v>
+      </c>
+      <c r="AK200">
+        <v>1.13</v>
+      </c>
+      <c r="AL200">
+        <v>1.23</v>
+      </c>
+      <c r="AM200">
+        <v>2.3</v>
+      </c>
+      <c r="AN200">
+        <v>1.58</v>
+      </c>
+      <c r="AO200">
+        <v>0.91</v>
+      </c>
+      <c r="AP200">
+        <v>1.46</v>
+      </c>
+      <c r="AQ200">
+        <v>1.08</v>
+      </c>
+      <c r="AR200">
+        <v>1.6</v>
+      </c>
+      <c r="AS200">
+        <v>1.3</v>
+      </c>
+      <c r="AT200">
+        <v>2.9</v>
+      </c>
+      <c r="AU200">
+        <v>2</v>
+      </c>
+      <c r="AV200">
+        <v>3</v>
+      </c>
+      <c r="AW200">
+        <v>6</v>
+      </c>
+      <c r="AX200">
+        <v>7</v>
+      </c>
+      <c r="AY200">
+        <v>8</v>
+      </c>
+      <c r="AZ200">
+        <v>10</v>
+      </c>
+      <c r="BA200">
+        <v>5</v>
+      </c>
+      <c r="BB200">
+        <v>2</v>
+      </c>
+      <c r="BC200">
+        <v>7</v>
+      </c>
+      <c r="BD200">
+        <v>1.37</v>
+      </c>
+      <c r="BE200">
+        <v>9</v>
+      </c>
+      <c r="BF200">
+        <v>3.83</v>
+      </c>
+      <c r="BG200">
+        <v>1.33</v>
+      </c>
+      <c r="BH200">
+        <v>3</v>
+      </c>
+      <c r="BI200">
+        <v>1.55</v>
+      </c>
+      <c r="BJ200">
+        <v>2.41</v>
+      </c>
+      <c r="BK200">
+        <v>1.91</v>
+      </c>
+      <c r="BL200">
+        <v>1.8</v>
+      </c>
+      <c r="BM200">
+        <v>2.46</v>
+      </c>
+      <c r="BN200">
+        <v>1.53</v>
+      </c>
+      <c r="BO200">
+        <v>3.2</v>
+      </c>
+      <c r="BP200">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7321816</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45564.625</v>
+      </c>
+      <c r="F201">
+        <v>26</v>
+      </c>
+      <c r="G201" t="s">
+        <v>72</v>
+      </c>
+      <c r="H201" t="s">
+        <v>77</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>227</v>
+      </c>
+      <c r="P201" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q201">
+        <v>3.75</v>
+      </c>
+      <c r="R201">
+        <v>2.2</v>
+      </c>
+      <c r="S201">
+        <v>2.75</v>
+      </c>
+      <c r="T201">
+        <v>1.4</v>
+      </c>
+      <c r="U201">
+        <v>2.75</v>
+      </c>
+      <c r="V201">
+        <v>2.75</v>
+      </c>
+      <c r="W201">
+        <v>1.4</v>
+      </c>
+      <c r="X201">
+        <v>8</v>
+      </c>
+      <c r="Y201">
+        <v>1.08</v>
+      </c>
+      <c r="Z201">
+        <v>3.1</v>
+      </c>
+      <c r="AA201">
+        <v>3.25</v>
+      </c>
+      <c r="AB201">
+        <v>2.05</v>
+      </c>
+      <c r="AC201">
+        <v>1.03</v>
+      </c>
+      <c r="AD201">
+        <v>9</v>
+      </c>
+      <c r="AE201">
+        <v>1.24</v>
+      </c>
+      <c r="AF201">
+        <v>3.22</v>
+      </c>
+      <c r="AG201">
+        <v>1.83</v>
+      </c>
+      <c r="AH201">
+        <v>1.83</v>
+      </c>
+      <c r="AI201">
+        <v>1.73</v>
+      </c>
+      <c r="AJ201">
+        <v>2</v>
+      </c>
+      <c r="AK201">
+        <v>1.68</v>
+      </c>
+      <c r="AL201">
+        <v>1.28</v>
+      </c>
+      <c r="AM201">
+        <v>1.32</v>
+      </c>
+      <c r="AN201">
+        <v>1.33</v>
+      </c>
+      <c r="AO201">
+        <v>1.23</v>
+      </c>
+      <c r="AP201">
+        <v>1.46</v>
+      </c>
+      <c r="AQ201">
+        <v>1.14</v>
+      </c>
+      <c r="AR201">
+        <v>1.62</v>
+      </c>
+      <c r="AS201">
+        <v>1.29</v>
+      </c>
+      <c r="AT201">
+        <v>2.91</v>
+      </c>
+      <c r="AU201">
+        <v>4</v>
+      </c>
+      <c r="AV201">
+        <v>4</v>
+      </c>
+      <c r="AW201">
+        <v>12</v>
+      </c>
+      <c r="AX201">
+        <v>8</v>
+      </c>
+      <c r="AY201">
+        <v>16</v>
+      </c>
+      <c r="AZ201">
+        <v>12</v>
+      </c>
+      <c r="BA201">
+        <v>3</v>
+      </c>
+      <c r="BB201">
+        <v>2</v>
+      </c>
+      <c r="BC201">
+        <v>5</v>
+      </c>
+      <c r="BD201">
+        <v>2.2</v>
+      </c>
+      <c r="BE201">
+        <v>8</v>
+      </c>
+      <c r="BF201">
+        <v>1.91</v>
+      </c>
+      <c r="BG201">
+        <v>1.2</v>
+      </c>
+      <c r="BH201">
+        <v>3.3</v>
+      </c>
+      <c r="BI201">
+        <v>1.45</v>
+      </c>
+      <c r="BJ201">
+        <v>2.55</v>
+      </c>
+      <c r="BK201">
+        <v>1.85</v>
+      </c>
+      <c r="BL201">
+        <v>1.85</v>
+      </c>
+      <c r="BM201">
+        <v>2.21</v>
+      </c>
+      <c r="BN201">
+        <v>1.64</v>
+      </c>
+      <c r="BO201">
+        <v>3</v>
+      </c>
+      <c r="BP201">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,10 +679,10 @@
     <t>['90+1']</t>
   </si>
   <si>
-    <t>['18', '88']</t>
+    <t>['14', '36']</t>
   </si>
   <si>
-    <t>['14', '36']</t>
+    <t>['18', '88']</t>
   </si>
   <si>
     <t>['88', '90+8']</t>
@@ -698,6 +698,12 @@
   </si>
   <si>
     <t>['27', '72']</t>
+  </si>
+  <si>
+    <t>['42', '56', '78']</t>
+  </si>
+  <si>
+    <t>['45+1', '53', '59']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -995,6 +1001,12 @@
   </si>
   <si>
     <t>['47']</t>
+  </si>
+  <si>
+    <t>['64', '75']</t>
+  </si>
+  <si>
+    <t>['82', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1696,7 +1708,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ2">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1821,7 +1833,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2027,7 +2039,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2233,7 +2245,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2439,7 +2451,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2645,7 +2657,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2723,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ7">
         <v>1.15</v>
@@ -2851,7 +2863,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3469,7 +3481,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3547,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ11">
         <v>1.08</v>
@@ -3675,7 +3687,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3753,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -4087,7 +4099,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4168,7 +4180,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4499,7 +4511,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4705,7 +4717,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4992,7 +5004,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ18">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR18">
         <v>0.64</v>
@@ -5117,7 +5129,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5529,7 +5541,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5735,7 +5747,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5816,7 +5828,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ22">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR22">
         <v>1.29</v>
@@ -5941,7 +5953,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6559,7 +6571,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6637,10 +6649,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -6765,7 +6777,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6846,7 +6858,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ27">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -7177,7 +7189,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7255,7 +7267,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -7383,7 +7395,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7667,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.62</v>
@@ -7795,7 +7807,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8288,7 +8300,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8697,7 +8709,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ36">
         <v>0.31</v>
@@ -9109,7 +9121,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ38">
         <v>1.31</v>
@@ -9649,7 +9661,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9855,7 +9867,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9936,7 +9948,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -10061,7 +10073,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10267,7 +10279,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10551,7 +10563,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ45">
         <v>1.75</v>
@@ -10679,7 +10691,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -11091,7 +11103,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11172,7 +11184,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ48">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR48">
         <v>1.89</v>
@@ -11297,7 +11309,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11993,7 +12005,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ52">
         <v>0.62</v>
@@ -12327,7 +12339,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12533,7 +12545,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12739,7 +12751,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12820,7 +12832,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ56">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR56">
         <v>1.34</v>
@@ -12945,7 +12957,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13151,7 +13163,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13229,7 +13241,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.75</v>
@@ -13644,7 +13656,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -13769,7 +13781,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13975,7 +13987,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14387,7 +14399,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14799,7 +14811,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -15005,7 +15017,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15211,7 +15223,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15289,7 +15301,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ68">
         <v>1.91</v>
@@ -15701,7 +15713,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ70">
         <v>1.23</v>
@@ -15829,7 +15841,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15910,7 +15922,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR71">
         <v>1.4</v>
@@ -16035,7 +16047,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16241,7 +16253,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16447,7 +16459,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16528,7 +16540,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR74">
         <v>1.38</v>
@@ -16653,7 +16665,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -17065,7 +17077,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17146,7 +17158,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ77">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR77">
         <v>1.8</v>
@@ -17271,7 +17283,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17349,10 +17361,10 @@
         <v>2.6</v>
       </c>
       <c r="AP78">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ78">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR78">
         <v>1.59</v>
@@ -17761,7 +17773,7 @@
         <v>2.5</v>
       </c>
       <c r="AP80">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>1.14</v>
@@ -18095,7 +18107,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18507,7 +18519,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18713,7 +18725,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19125,7 +19137,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19331,7 +19343,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19537,7 +19549,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19743,7 +19755,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19821,10 +19833,10 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR90">
         <v>1.55</v>
@@ -19949,7 +19961,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20027,7 +20039,7 @@
         <v>1.5</v>
       </c>
       <c r="AP91">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ91">
         <v>1.31</v>
@@ -20155,7 +20167,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20567,7 +20579,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20773,7 +20785,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20851,7 +20863,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>1.15</v>
@@ -20979,7 +20991,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21060,7 +21072,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ96">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR96">
         <v>1.45</v>
@@ -21391,7 +21403,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21597,7 +21609,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21803,7 +21815,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22215,7 +22227,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22296,7 +22308,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ102">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22421,7 +22433,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22499,7 +22511,7 @@
         <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ103">
         <v>1.31</v>
@@ -22708,7 +22720,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR104">
         <v>1.35</v>
@@ -22833,7 +22845,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22914,7 +22926,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23117,7 +23129,7 @@
         <v>1.43</v>
       </c>
       <c r="AP106">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ106">
         <v>1.5</v>
@@ -23245,7 +23257,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23323,7 +23335,7 @@
         <v>1.57</v>
       </c>
       <c r="AP107">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
         <v>1.91</v>
@@ -23451,7 +23463,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23529,7 +23541,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ108">
         <v>0.54</v>
@@ -23657,7 +23669,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23863,7 +23875,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24275,7 +24287,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24481,7 +24493,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24687,7 +24699,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24893,7 +24905,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -24974,7 +24986,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ115">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR115">
         <v>1.75</v>
@@ -25099,7 +25111,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25305,7 +25317,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25923,7 +25935,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26335,7 +26347,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26413,7 +26425,7 @@
         <v>0.86</v>
       </c>
       <c r="AP122">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ122">
         <v>0.54</v>
@@ -27031,7 +27043,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ125">
         <v>1.08</v>
@@ -27159,7 +27171,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27237,7 +27249,7 @@
         <v>1.44</v>
       </c>
       <c r="AP126">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
         <v>1.31</v>
@@ -27365,7 +27377,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27571,7 +27583,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27652,7 +27664,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ128">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR128">
         <v>1.59</v>
@@ -27777,7 +27789,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27858,7 +27870,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR129">
         <v>1.87</v>
@@ -27983,7 +27995,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28270,7 +28282,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ131">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28601,7 +28613,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28807,7 +28819,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29094,7 +29106,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ135">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR135">
         <v>1.49</v>
@@ -29219,7 +29231,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29425,7 +29437,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29631,7 +29643,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29712,7 +29724,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR138">
         <v>1.33</v>
@@ -29837,7 +29849,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -30043,7 +30055,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30121,7 +30133,7 @@
         <v>1.56</v>
       </c>
       <c r="AP140">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ140">
         <v>1.14</v>
@@ -30327,7 +30339,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ141">
         <v>1.08</v>
@@ -30661,7 +30673,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31357,7 +31369,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ146">
         <v>0.62</v>
@@ -32103,7 +32115,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32390,7 +32402,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR151">
         <v>1.34</v>
@@ -32802,7 +32814,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ153">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR153">
         <v>1.76</v>
@@ -33133,7 +33145,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33339,7 +33351,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33420,7 +33432,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ156">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR156">
         <v>1.51</v>
@@ -33545,7 +33557,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33957,7 +33969,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34450,7 +34462,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ161">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR161">
         <v>1.52</v>
@@ -34575,7 +34587,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -35193,7 +35205,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35271,7 +35283,7 @@
         <v>1.1</v>
       </c>
       <c r="AP165">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ165">
         <v>1.31</v>
@@ -35605,7 +35617,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35889,7 +35901,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ168">
         <v>0.67</v>
@@ -36098,7 +36110,7 @@
         <v>2</v>
       </c>
       <c r="AQ169">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36301,7 +36313,7 @@
         <v>0.36</v>
       </c>
       <c r="AP170">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ170">
         <v>0.31</v>
@@ -36510,7 +36522,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ171">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR171">
         <v>1.86</v>
@@ -36841,7 +36853,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37047,7 +37059,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37253,7 +37265,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37459,7 +37471,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37537,7 +37549,7 @@
         <v>1.36</v>
       </c>
       <c r="AP176">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ176">
         <v>1.14</v>
@@ -37665,7 +37677,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37746,7 +37758,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ177">
-        <v>2.42</v>
+        <v>2.23</v>
       </c>
       <c r="AR177">
         <v>1.42</v>
@@ -37871,7 +37883,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -37949,7 +37961,7 @@
         <v>1.36</v>
       </c>
       <c r="AP178">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ178">
         <v>1.23</v>
@@ -38077,7 +38089,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38158,7 +38170,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR179">
         <v>1.61</v>
@@ -38695,7 +38707,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -39185,7 +39197,7 @@
         <v>1.27</v>
       </c>
       <c r="AP184">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AQ184">
         <v>1.31</v>
@@ -39519,7 +39531,7 @@
         <v>216</v>
       </c>
       <c r="P186" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39600,7 +39612,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ186">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR186">
         <v>1.54</v>
@@ -39931,7 +39943,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40012,7 +40024,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ188">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AR188">
         <v>1.6</v>
@@ -40215,7 +40227,7 @@
         <v>0.8</v>
       </c>
       <c r="AP189">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ189">
         <v>0.67</v>
@@ -40507,7 +40519,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7321805</v>
+        <v>7321812</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40522,43 +40534,43 @@
         <v>25</v>
       </c>
       <c r="G191" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H191" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J191">
         <v>0</v>
       </c>
       <c r="K191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L191">
         <v>2</v>
       </c>
       <c r="M191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O191" t="s">
         <v>221</v>
       </c>
       <c r="P191" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="Q191">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="R191">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S191">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T191">
         <v>1.33</v>
@@ -40567,10 +40579,10 @@
         <v>3.25</v>
       </c>
       <c r="V191">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W191">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X191">
         <v>6.5</v>
@@ -40579,13 +40591,13 @@
         <v>1.11</v>
       </c>
       <c r="Z191">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="AA191">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="AB191">
-        <v>6.75</v>
+        <v>3.4</v>
       </c>
       <c r="AC191">
         <v>1.02</v>
@@ -40606,106 +40618,106 @@
         <v>2</v>
       </c>
       <c r="AI191">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AJ191">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AK191">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="AL191">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AM191">
+        <v>1.83</v>
+      </c>
+      <c r="AN191">
+        <v>1.64</v>
+      </c>
+      <c r="AO191">
+        <v>1.33</v>
+      </c>
+      <c r="AP191">
+        <v>1.75</v>
+      </c>
+      <c r="AQ191">
+        <v>1.23</v>
+      </c>
+      <c r="AR191">
+        <v>1.39</v>
+      </c>
+      <c r="AS191">
+        <v>1.46</v>
+      </c>
+      <c r="AT191">
+        <v>2.85</v>
+      </c>
+      <c r="AU191">
+        <v>5</v>
+      </c>
+      <c r="AV191">
         <v>3</v>
       </c>
-      <c r="AN191">
+      <c r="AW191">
+        <v>3</v>
+      </c>
+      <c r="AX191">
+        <v>6</v>
+      </c>
+      <c r="AY191">
+        <v>8</v>
+      </c>
+      <c r="AZ191">
+        <v>9</v>
+      </c>
+      <c r="BA191">
+        <v>3</v>
+      </c>
+      <c r="BB191">
+        <v>7</v>
+      </c>
+      <c r="BC191">
+        <v>10</v>
+      </c>
+      <c r="BD191">
+        <v>1.5</v>
+      </c>
+      <c r="BE191">
+        <v>7</v>
+      </c>
+      <c r="BF191">
+        <v>3.38</v>
+      </c>
+      <c r="BG191">
+        <v>1.29</v>
+      </c>
+      <c r="BH191">
+        <v>3.4</v>
+      </c>
+      <c r="BI191">
+        <v>1.48</v>
+      </c>
+      <c r="BJ191">
+        <v>2.5</v>
+      </c>
+      <c r="BK191">
         <v>1.92</v>
       </c>
-      <c r="AO191">
-        <v>0.73</v>
-      </c>
-      <c r="AP191">
-        <v>2</v>
-      </c>
-      <c r="AQ191">
-        <v>0.67</v>
-      </c>
-      <c r="AR191">
-        <v>1.83</v>
-      </c>
-      <c r="AS191">
-        <v>1.27</v>
-      </c>
-      <c r="AT191">
-        <v>3.1</v>
-      </c>
-      <c r="AU191">
-        <v>4</v>
-      </c>
-      <c r="AV191">
-        <v>2</v>
-      </c>
-      <c r="AW191">
-        <v>11</v>
-      </c>
-      <c r="AX191">
-        <v>1</v>
-      </c>
-      <c r="AY191">
-        <v>15</v>
-      </c>
-      <c r="AZ191">
-        <v>3</v>
-      </c>
-      <c r="BA191">
-        <v>7</v>
-      </c>
-      <c r="BB191">
-        <v>2</v>
-      </c>
-      <c r="BC191">
-        <v>9</v>
-      </c>
-      <c r="BD191">
-        <v>1.15</v>
-      </c>
-      <c r="BE191">
-        <v>10.25</v>
-      </c>
-      <c r="BF191">
-        <v>7.4</v>
-      </c>
-      <c r="BG191">
-        <v>1.18</v>
-      </c>
-      <c r="BH191">
-        <v>3.74</v>
-      </c>
-      <c r="BI191">
+      <c r="BL191">
+        <v>1.88</v>
+      </c>
+      <c r="BM191">
+        <v>2.2</v>
+      </c>
+      <c r="BN191">
+        <v>1.62</v>
+      </c>
+      <c r="BO191">
+        <v>2.8</v>
+      </c>
+      <c r="BP191">
         <v>1.38</v>
-      </c>
-      <c r="BJ191">
-        <v>2.62</v>
-      </c>
-      <c r="BK191">
-        <v>1.82</v>
-      </c>
-      <c r="BL191">
-        <v>1.98</v>
-      </c>
-      <c r="BM191">
-        <v>2.1</v>
-      </c>
-      <c r="BN191">
-        <v>1.59</v>
-      </c>
-      <c r="BO191">
-        <v>2.73</v>
-      </c>
-      <c r="BP191">
-        <v>1.33</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -40713,7 +40725,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7321812</v>
+        <v>7321805</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40722,49 +40734,49 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45559.625</v>
+        <v>45558.875</v>
       </c>
       <c r="F192">
         <v>25</v>
       </c>
       <c r="G192" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H192" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192">
         <v>0</v>
       </c>
       <c r="K192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L192">
         <v>2</v>
       </c>
       <c r="M192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O192" t="s">
         <v>222</v>
       </c>
       <c r="P192" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="Q192">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="R192">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S192">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T192">
         <v>1.33</v>
@@ -40773,10 +40785,10 @@
         <v>3.25</v>
       </c>
       <c r="V192">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W192">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X192">
         <v>6.5</v>
@@ -40785,13 +40797,13 @@
         <v>1.11</v>
       </c>
       <c r="Z192">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="AA192">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="AB192">
-        <v>3.4</v>
+        <v>6.75</v>
       </c>
       <c r="AC192">
         <v>1.02</v>
@@ -40812,106 +40824,106 @@
         <v>2</v>
       </c>
       <c r="AI192">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="AJ192">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="AK192">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="AL192">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AM192">
+        <v>3</v>
+      </c>
+      <c r="AN192">
+        <v>1.92</v>
+      </c>
+      <c r="AO192">
+        <v>0.73</v>
+      </c>
+      <c r="AP192">
+        <v>2</v>
+      </c>
+      <c r="AQ192">
+        <v>0.67</v>
+      </c>
+      <c r="AR192">
         <v>1.83</v>
       </c>
-      <c r="AN192">
-        <v>1.64</v>
-      </c>
-      <c r="AO192">
+      <c r="AS192">
+        <v>1.27</v>
+      </c>
+      <c r="AT192">
+        <v>3.1</v>
+      </c>
+      <c r="AU192">
+        <v>4</v>
+      </c>
+      <c r="AV192">
+        <v>2</v>
+      </c>
+      <c r="AW192">
+        <v>11</v>
+      </c>
+      <c r="AX192">
+        <v>1</v>
+      </c>
+      <c r="AY192">
+        <v>15</v>
+      </c>
+      <c r="AZ192">
+        <v>3</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
+        <v>2</v>
+      </c>
+      <c r="BC192">
+        <v>9</v>
+      </c>
+      <c r="BD192">
+        <v>1.15</v>
+      </c>
+      <c r="BE192">
+        <v>10.25</v>
+      </c>
+      <c r="BF192">
+        <v>7.4</v>
+      </c>
+      <c r="BG192">
+        <v>1.18</v>
+      </c>
+      <c r="BH192">
+        <v>3.74</v>
+      </c>
+      <c r="BI192">
+        <v>1.38</v>
+      </c>
+      <c r="BJ192">
+        <v>2.62</v>
+      </c>
+      <c r="BK192">
+        <v>1.82</v>
+      </c>
+      <c r="BL192">
+        <v>1.98</v>
+      </c>
+      <c r="BM192">
+        <v>2.1</v>
+      </c>
+      <c r="BN192">
+        <v>1.59</v>
+      </c>
+      <c r="BO192">
+        <v>2.73</v>
+      </c>
+      <c r="BP192">
         <v>1.33</v>
-      </c>
-      <c r="AP192">
-        <v>1.75</v>
-      </c>
-      <c r="AQ192">
-        <v>1.23</v>
-      </c>
-      <c r="AR192">
-        <v>1.39</v>
-      </c>
-      <c r="AS192">
-        <v>1.46</v>
-      </c>
-      <c r="AT192">
-        <v>2.85</v>
-      </c>
-      <c r="AU192">
-        <v>7</v>
-      </c>
-      <c r="AV192">
-        <v>3</v>
-      </c>
-      <c r="AW192">
-        <v>3</v>
-      </c>
-      <c r="AX192">
-        <v>8</v>
-      </c>
-      <c r="AY192">
-        <v>10</v>
-      </c>
-      <c r="AZ192">
-        <v>11</v>
-      </c>
-      <c r="BA192">
-        <v>3</v>
-      </c>
-      <c r="BB192">
-        <v>7</v>
-      </c>
-      <c r="BC192">
-        <v>10</v>
-      </c>
-      <c r="BD192">
-        <v>1.5</v>
-      </c>
-      <c r="BE192">
-        <v>7</v>
-      </c>
-      <c r="BF192">
-        <v>3.38</v>
-      </c>
-      <c r="BG192">
-        <v>1.29</v>
-      </c>
-      <c r="BH192">
-        <v>3.4</v>
-      </c>
-      <c r="BI192">
-        <v>1.48</v>
-      </c>
-      <c r="BJ192">
-        <v>2.5</v>
-      </c>
-      <c r="BK192">
-        <v>1.92</v>
-      </c>
-      <c r="BL192">
-        <v>1.88</v>
-      </c>
-      <c r="BM192">
-        <v>2.2</v>
-      </c>
-      <c r="BN192">
-        <v>1.62</v>
-      </c>
-      <c r="BO192">
-        <v>2.8</v>
-      </c>
-      <c r="BP192">
-        <v>1.38</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -40928,7 +40940,7 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45559.72916666666</v>
+        <v>45558.875</v>
       </c>
       <c r="F193">
         <v>25</v>
@@ -40961,7 +40973,7 @@
         <v>86</v>
       </c>
       <c r="P193" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -41054,22 +41066,22 @@
         <v>3.16</v>
       </c>
       <c r="AU193">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW193">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX193">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY193">
         <v>19</v>
       </c>
       <c r="AZ193">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA193">
         <v>6</v>
@@ -41134,7 +41146,7 @@
         <v>69</v>
       </c>
       <c r="E194" s="2">
-        <v>45559.83333333334</v>
+        <v>45558.875</v>
       </c>
       <c r="F194">
         <v>25</v>
@@ -41167,7 +41179,7 @@
         <v>223</v>
       </c>
       <c r="P194" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q194">
         <v>3.1</v>
@@ -41260,10 +41272,10 @@
         <v>2.76</v>
       </c>
       <c r="AU194">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW194">
         <v>6</v>
@@ -41272,10 +41284,10 @@
         <v>5</v>
       </c>
       <c r="AY194">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ194">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA194">
         <v>2</v>
@@ -41373,7 +41385,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q195">
         <v>2.2</v>
@@ -41451,7 +41463,7 @@
         <v>0.33</v>
       </c>
       <c r="AP195">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ195">
         <v>0.31</v>
@@ -41546,7 +41558,7 @@
         <v>69</v>
       </c>
       <c r="E196" s="2">
-        <v>45560.64583333334</v>
+        <v>45559.875</v>
       </c>
       <c r="F196">
         <v>25</v>
@@ -41752,7 +41764,7 @@
         <v>69</v>
       </c>
       <c r="E197" s="2">
-        <v>45560.75</v>
+        <v>45559.875</v>
       </c>
       <c r="F197">
         <v>25</v>
@@ -41785,7 +41797,7 @@
         <v>86</v>
       </c>
       <c r="P197" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q197">
         <v>2.5</v>
@@ -41881,16 +41893,16 @@
         <v>2</v>
       </c>
       <c r="AV197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW197">
+        <v>7</v>
+      </c>
+      <c r="AX197">
+        <v>4</v>
+      </c>
+      <c r="AY197">
         <v>9</v>
-      </c>
-      <c r="AX197">
-        <v>3</v>
-      </c>
-      <c r="AY197">
-        <v>11</v>
       </c>
       <c r="AZ197">
         <v>8</v>
@@ -42403,7 +42415,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -42766,6 +42778,624 @@
       </c>
       <c r="BP201">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7321815</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45564.72916666666</v>
+      </c>
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s">
+        <v>80</v>
+      </c>
+      <c r="H202" t="s">
+        <v>78</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>3</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>3</v>
+      </c>
+      <c r="O202" t="s">
+        <v>228</v>
+      </c>
+      <c r="P202" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q202">
+        <v>3.75</v>
+      </c>
+      <c r="R202">
+        <v>2.25</v>
+      </c>
+      <c r="S202">
+        <v>2.75</v>
+      </c>
+      <c r="T202">
+        <v>1.33</v>
+      </c>
+      <c r="U202">
+        <v>3.25</v>
+      </c>
+      <c r="V202">
+        <v>2.63</v>
+      </c>
+      <c r="W202">
+        <v>1.44</v>
+      </c>
+      <c r="X202">
+        <v>6.5</v>
+      </c>
+      <c r="Y202">
+        <v>1.11</v>
+      </c>
+      <c r="Z202">
+        <v>3.2</v>
+      </c>
+      <c r="AA202">
+        <v>3.2</v>
+      </c>
+      <c r="AB202">
+        <v>2.05</v>
+      </c>
+      <c r="AC202">
+        <v>1.03</v>
+      </c>
+      <c r="AD202">
+        <v>9</v>
+      </c>
+      <c r="AE202">
+        <v>1.25</v>
+      </c>
+      <c r="AF202">
+        <v>3.6</v>
+      </c>
+      <c r="AG202">
+        <v>1.91</v>
+      </c>
+      <c r="AH202">
+        <v>1.73</v>
+      </c>
+      <c r="AI202">
+        <v>1.62</v>
+      </c>
+      <c r="AJ202">
+        <v>2.2</v>
+      </c>
+      <c r="AK202">
+        <v>1.73</v>
+      </c>
+      <c r="AL202">
+        <v>1.27</v>
+      </c>
+      <c r="AM202">
+        <v>1.31</v>
+      </c>
+      <c r="AN202">
+        <v>1.92</v>
+      </c>
+      <c r="AO202">
+        <v>2.42</v>
+      </c>
+      <c r="AP202">
+        <v>2</v>
+      </c>
+      <c r="AQ202">
+        <v>2.23</v>
+      </c>
+      <c r="AR202">
+        <v>1.69</v>
+      </c>
+      <c r="AS202">
+        <v>1.71</v>
+      </c>
+      <c r="AT202">
+        <v>3.4</v>
+      </c>
+      <c r="AU202">
+        <v>4</v>
+      </c>
+      <c r="AV202">
+        <v>4</v>
+      </c>
+      <c r="AW202">
+        <v>5</v>
+      </c>
+      <c r="AX202">
+        <v>6</v>
+      </c>
+      <c r="AY202">
+        <v>9</v>
+      </c>
+      <c r="AZ202">
+        <v>10</v>
+      </c>
+      <c r="BA202">
+        <v>2</v>
+      </c>
+      <c r="BB202">
+        <v>6</v>
+      </c>
+      <c r="BC202">
+        <v>8</v>
+      </c>
+      <c r="BD202">
+        <v>2.44</v>
+      </c>
+      <c r="BE202">
+        <v>8</v>
+      </c>
+      <c r="BF202">
+        <v>1.75</v>
+      </c>
+      <c r="BG202">
+        <v>1.28</v>
+      </c>
+      <c r="BH202">
+        <v>3.3</v>
+      </c>
+      <c r="BI202">
+        <v>1.4</v>
+      </c>
+      <c r="BJ202">
+        <v>2.75</v>
+      </c>
+      <c r="BK202">
+        <v>1.95</v>
+      </c>
+      <c r="BL202">
+        <v>1.77</v>
+      </c>
+      <c r="BM202">
+        <v>2.23</v>
+      </c>
+      <c r="BN202">
+        <v>1.64</v>
+      </c>
+      <c r="BO202">
+        <v>3</v>
+      </c>
+      <c r="BP202">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7321814</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45564.83333333334</v>
+      </c>
+      <c r="F203">
+        <v>26</v>
+      </c>
+      <c r="G203" t="s">
+        <v>75</v>
+      </c>
+      <c r="H203" t="s">
+        <v>71</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>2</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>86</v>
+      </c>
+      <c r="P203" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q203">
+        <v>2.5</v>
+      </c>
+      <c r="R203">
+        <v>2.2</v>
+      </c>
+      <c r="S203">
+        <v>4.33</v>
+      </c>
+      <c r="T203">
+        <v>1.36</v>
+      </c>
+      <c r="U203">
+        <v>3</v>
+      </c>
+      <c r="V203">
+        <v>2.75</v>
+      </c>
+      <c r="W203">
+        <v>1.4</v>
+      </c>
+      <c r="X203">
+        <v>7</v>
+      </c>
+      <c r="Y203">
+        <v>1.1</v>
+      </c>
+      <c r="Z203">
+        <v>1.75</v>
+      </c>
+      <c r="AA203">
+        <v>3.3</v>
+      </c>
+      <c r="AB203">
+        <v>4</v>
+      </c>
+      <c r="AC203">
+        <v>1.01</v>
+      </c>
+      <c r="AD203">
+        <v>11</v>
+      </c>
+      <c r="AE203">
+        <v>1.22</v>
+      </c>
+      <c r="AF203">
+        <v>3.8</v>
+      </c>
+      <c r="AG203">
+        <v>1.83</v>
+      </c>
+      <c r="AH203">
+        <v>1.83</v>
+      </c>
+      <c r="AI203">
+        <v>1.73</v>
+      </c>
+      <c r="AJ203">
+        <v>2</v>
+      </c>
+      <c r="AK203">
+        <v>1.26</v>
+      </c>
+      <c r="AL203">
+        <v>1.27</v>
+      </c>
+      <c r="AM203">
+        <v>1.8</v>
+      </c>
+      <c r="AN203">
+        <v>1.75</v>
+      </c>
+      <c r="AO203">
+        <v>1</v>
+      </c>
+      <c r="AP203">
+        <v>1.62</v>
+      </c>
+      <c r="AQ203">
+        <v>1.15</v>
+      </c>
+      <c r="AR203">
+        <v>1.5</v>
+      </c>
+      <c r="AS203">
+        <v>1.5</v>
+      </c>
+      <c r="AT203">
+        <v>3</v>
+      </c>
+      <c r="AU203">
+        <v>5</v>
+      </c>
+      <c r="AV203">
+        <v>9</v>
+      </c>
+      <c r="AW203">
+        <v>3</v>
+      </c>
+      <c r="AX203">
+        <v>4</v>
+      </c>
+      <c r="AY203">
+        <v>8</v>
+      </c>
+      <c r="AZ203">
+        <v>13</v>
+      </c>
+      <c r="BA203">
+        <v>2</v>
+      </c>
+      <c r="BB203">
+        <v>3</v>
+      </c>
+      <c r="BC203">
+        <v>5</v>
+      </c>
+      <c r="BD203">
+        <v>1.59</v>
+      </c>
+      <c r="BE203">
+        <v>8.5</v>
+      </c>
+      <c r="BF203">
+        <v>2.78</v>
+      </c>
+      <c r="BG203">
+        <v>1.23</v>
+      </c>
+      <c r="BH203">
+        <v>4.19</v>
+      </c>
+      <c r="BI203">
+        <v>1.39</v>
+      </c>
+      <c r="BJ203">
+        <v>2.77</v>
+      </c>
+      <c r="BK203">
+        <v>1.7</v>
+      </c>
+      <c r="BL203">
+        <v>2.05</v>
+      </c>
+      <c r="BM203">
+        <v>2.13</v>
+      </c>
+      <c r="BN203">
+        <v>1.69</v>
+      </c>
+      <c r="BO203">
+        <v>2.8</v>
+      </c>
+      <c r="BP203">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7321820</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45564.875</v>
+      </c>
+      <c r="F204">
+        <v>26</v>
+      </c>
+      <c r="G204" t="s">
+        <v>79</v>
+      </c>
+      <c r="H204" t="s">
+        <v>76</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
+        <v>2</v>
+      </c>
+      <c r="N204">
+        <v>5</v>
+      </c>
+      <c r="O204" t="s">
+        <v>229</v>
+      </c>
+      <c r="P204" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q204">
+        <v>3.2</v>
+      </c>
+      <c r="R204">
+        <v>2.05</v>
+      </c>
+      <c r="S204">
+        <v>3.6</v>
+      </c>
+      <c r="T204">
+        <v>1.44</v>
+      </c>
+      <c r="U204">
+        <v>2.63</v>
+      </c>
+      <c r="V204">
+        <v>3.25</v>
+      </c>
+      <c r="W204">
+        <v>1.33</v>
+      </c>
+      <c r="X204">
+        <v>10</v>
+      </c>
+      <c r="Y204">
+        <v>1.06</v>
+      </c>
+      <c r="Z204">
+        <v>2.4</v>
+      </c>
+      <c r="AA204">
+        <v>3.2</v>
+      </c>
+      <c r="AB204">
+        <v>2.87</v>
+      </c>
+      <c r="AC204">
+        <v>1.02</v>
+      </c>
+      <c r="AD204">
+        <v>7.4</v>
+      </c>
+      <c r="AE204">
+        <v>1.32</v>
+      </c>
+      <c r="AF204">
+        <v>2.78</v>
+      </c>
+      <c r="AG204">
+        <v>2.1</v>
+      </c>
+      <c r="AH204">
+        <v>1.65</v>
+      </c>
+      <c r="AI204">
+        <v>1.83</v>
+      </c>
+      <c r="AJ204">
+        <v>1.83</v>
+      </c>
+      <c r="AK204">
+        <v>1.39</v>
+      </c>
+      <c r="AL204">
+        <v>1.32</v>
+      </c>
+      <c r="AM204">
+        <v>1.53</v>
+      </c>
+      <c r="AN204">
+        <v>1.42</v>
+      </c>
+      <c r="AO204">
+        <v>1.25</v>
+      </c>
+      <c r="AP204">
+        <v>1.54</v>
+      </c>
+      <c r="AQ204">
+        <v>1.15</v>
+      </c>
+      <c r="AR204">
+        <v>1.7</v>
+      </c>
+      <c r="AS204">
+        <v>1.11</v>
+      </c>
+      <c r="AT204">
+        <v>2.81</v>
+      </c>
+      <c r="AU204">
+        <v>0</v>
+      </c>
+      <c r="AV204">
+        <v>3</v>
+      </c>
+      <c r="AW204">
+        <v>4</v>
+      </c>
+      <c r="AX204">
+        <v>2</v>
+      </c>
+      <c r="AY204">
+        <v>4</v>
+      </c>
+      <c r="AZ204">
+        <v>5</v>
+      </c>
+      <c r="BA204">
+        <v>4</v>
+      </c>
+      <c r="BB204">
+        <v>1</v>
+      </c>
+      <c r="BC204">
+        <v>5</v>
+      </c>
+      <c r="BD204">
+        <v>1.91</v>
+      </c>
+      <c r="BE204">
+        <v>8</v>
+      </c>
+      <c r="BF204">
+        <v>2.1</v>
+      </c>
+      <c r="BG204">
+        <v>1.25</v>
+      </c>
+      <c r="BH204">
+        <v>3.6</v>
+      </c>
+      <c r="BI204">
+        <v>1.42</v>
+      </c>
+      <c r="BJ204">
+        <v>2.62</v>
+      </c>
+      <c r="BK204">
+        <v>1.71</v>
+      </c>
+      <c r="BL204">
+        <v>2.11</v>
+      </c>
+      <c r="BM204">
+        <v>2.13</v>
+      </c>
+      <c r="BN204">
+        <v>1.7</v>
+      </c>
+      <c r="BO204">
+        <v>2.62</v>
+      </c>
+      <c r="BP204">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,10 +682,10 @@
     <t>['14', '36']</t>
   </si>
   <si>
-    <t>['18', '88']</t>
+    <t>['88', '90+8']</t>
   </si>
   <si>
-    <t>['88', '90+8']</t>
+    <t>['18', '88']</t>
   </si>
   <si>
     <t>['45+5', '63', '89', '90+3']</t>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>['42', '56', '78']</t>
+  </si>
+  <si>
+    <t>['23', '90+2']</t>
   </si>
   <si>
     <t>['45+1', '53', '59']</t>
@@ -1000,10 +1003,10 @@
     <t>['62']</t>
   </si>
   <si>
-    <t>['47']</t>
+    <t>['64', '75']</t>
   </si>
   <si>
-    <t>['64', '75']</t>
+    <t>['47']</t>
   </si>
   <si>
     <t>['82', '90+4']</t>
@@ -1368,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1833,7 +1836,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2039,7 +2042,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2120,7 +2123,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ4">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2245,7 +2248,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2451,7 +2454,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2529,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ6">
         <v>1.23</v>
@@ -2657,7 +2660,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2863,7 +2866,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3481,7 +3484,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3687,7 +3690,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -4099,7 +4102,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4511,7 +4514,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4717,7 +4720,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5129,7 +5132,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5541,7 +5544,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5747,7 +5750,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5953,7 +5956,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6571,7 +6574,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6777,7 +6780,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7189,7 +7192,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7395,7 +7398,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7807,7 +7810,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8094,7 +8097,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -9661,7 +9664,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9867,7 +9870,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9945,7 +9948,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ42">
         <v>1.15</v>
@@ -10073,7 +10076,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10279,7 +10282,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10691,7 +10694,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -11103,7 +11106,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11309,7 +11312,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12339,7 +12342,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12420,7 +12423,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ54">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR54">
         <v>1.39</v>
@@ -12545,7 +12548,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12751,7 +12754,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12957,7 +12960,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13163,7 +13166,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13781,7 +13784,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13987,7 +13990,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14065,7 +14068,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ62">
         <v>1.08</v>
@@ -14399,7 +14402,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14811,7 +14814,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -15017,7 +15020,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15223,7 +15226,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15510,7 +15513,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ69">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR69">
         <v>1.51</v>
@@ -15841,7 +15844,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16047,7 +16050,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16253,7 +16256,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16459,7 +16462,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16665,7 +16668,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -17077,7 +17080,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17283,7 +17286,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17979,7 +17982,7 @@
         <v>0.25</v>
       </c>
       <c r="AP81">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ81">
         <v>0.62</v>
@@ -18107,7 +18110,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18519,7 +18522,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18725,7 +18728,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19137,7 +19140,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19343,7 +19346,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19549,7 +19552,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19755,7 +19758,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19961,7 +19964,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20042,7 +20045,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ91">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR91">
         <v>1.53</v>
@@ -20167,7 +20170,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20579,7 +20582,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20657,7 +20660,7 @@
         <v>1.33</v>
       </c>
       <c r="AP94">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ94">
         <v>1.91</v>
@@ -20785,7 +20788,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20991,7 +20994,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21403,7 +21406,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21609,7 +21612,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21815,7 +21818,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21896,7 +21899,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ100">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR100">
         <v>1.56</v>
@@ -22227,7 +22230,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22433,7 +22436,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22845,7 +22848,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23257,7 +23260,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23463,7 +23466,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23669,7 +23672,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23875,7 +23878,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24287,7 +24290,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24368,7 +24371,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ112">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR112">
         <v>1.94</v>
@@ -24493,7 +24496,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24699,7 +24702,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24777,7 +24780,7 @@
         <v>1.67</v>
       </c>
       <c r="AP114">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ114">
         <v>1.14</v>
@@ -24905,7 +24908,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25111,7 +25114,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25317,7 +25320,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25935,7 +25938,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26347,7 +26350,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -27171,7 +27174,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27377,7 +27380,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27583,7 +27586,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27789,7 +27792,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27995,7 +27998,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28613,7 +28616,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28694,7 +28697,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ133">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR133">
         <v>1.8</v>
@@ -28819,7 +28822,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29103,7 +29106,7 @@
         <v>2.56</v>
       </c>
       <c r="AP135">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ135">
         <v>2.23</v>
@@ -29231,7 +29234,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29437,7 +29440,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29643,7 +29646,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29849,7 +29852,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29930,7 +29933,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ139">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -30055,7 +30058,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30545,7 +30548,7 @@
         <v>0.63</v>
       </c>
       <c r="AP142">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ142">
         <v>1.15</v>
@@ -30673,7 +30676,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31166,7 +31169,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ145">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR145">
         <v>1.31</v>
@@ -32115,7 +32118,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32399,7 +32402,7 @@
         <v>1</v>
       </c>
       <c r="AP151">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ151">
         <v>1.15</v>
@@ -33145,7 +33148,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33351,7 +33354,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33557,7 +33560,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33969,7 +33972,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34253,7 +34256,7 @@
         <v>2.1</v>
       </c>
       <c r="AP160">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ160">
         <v>1.75</v>
@@ -34587,7 +34590,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -35205,7 +35208,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35286,7 +35289,7 @@
         <v>2</v>
       </c>
       <c r="AQ165">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR165">
         <v>1.67</v>
@@ -35617,7 +35620,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -36853,7 +36856,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37059,7 +37062,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37137,7 +37140,7 @@
         <v>1.4</v>
       </c>
       <c r="AP174">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ174">
         <v>1.5</v>
@@ -37265,7 +37268,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37471,7 +37474,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37677,7 +37680,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37883,7 +37886,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38089,7 +38092,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38707,7 +38710,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -39200,7 +39203,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ184">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR184">
         <v>1.75</v>
@@ -39531,7 +39534,7 @@
         <v>216</v>
       </c>
       <c r="P186" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39815,7 +39818,7 @@
         <v>0.64</v>
       </c>
       <c r="AP187">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AQ187">
         <v>0.54</v>
@@ -39943,7 +39946,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40725,7 +40728,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7321805</v>
+        <v>7321809</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40740,16 +40743,16 @@
         <v>25</v>
       </c>
       <c r="G192" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H192" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K192">
         <v>1</v>
@@ -40758,172 +40761,172 @@
         <v>2</v>
       </c>
       <c r="M192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O192" t="s">
         <v>222</v>
       </c>
       <c r="P192" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="Q192">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="R192">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="S192">
+        <v>3.75</v>
+      </c>
+      <c r="T192">
+        <v>1.44</v>
+      </c>
+      <c r="U192">
+        <v>2.63</v>
+      </c>
+      <c r="V192">
+        <v>3.25</v>
+      </c>
+      <c r="W192">
+        <v>1.33</v>
+      </c>
+      <c r="X192">
+        <v>9</v>
+      </c>
+      <c r="Y192">
+        <v>1.07</v>
+      </c>
+      <c r="Z192">
+        <v>2.25</v>
+      </c>
+      <c r="AA192">
+        <v>3</v>
+      </c>
+      <c r="AB192">
+        <v>2.95</v>
+      </c>
+      <c r="AC192">
+        <v>1.03</v>
+      </c>
+      <c r="AD192">
+        <v>9</v>
+      </c>
+      <c r="AE192">
+        <v>1.29</v>
+      </c>
+      <c r="AF192">
+        <v>3.3</v>
+      </c>
+      <c r="AG192">
+        <v>2</v>
+      </c>
+      <c r="AH192">
+        <v>1.7</v>
+      </c>
+      <c r="AI192">
+        <v>1.83</v>
+      </c>
+      <c r="AJ192">
+        <v>1.83</v>
+      </c>
+      <c r="AK192">
+        <v>1.38</v>
+      </c>
+      <c r="AL192">
+        <v>1.28</v>
+      </c>
+      <c r="AM192">
+        <v>1.57</v>
+      </c>
+      <c r="AN192">
+        <v>1.83</v>
+      </c>
+      <c r="AO192">
+        <v>1.55</v>
+      </c>
+      <c r="AP192">
+        <v>1.77</v>
+      </c>
+      <c r="AQ192">
+        <v>1.5</v>
+      </c>
+      <c r="AR192">
+        <v>1.41</v>
+      </c>
+      <c r="AS192">
+        <v>1.35</v>
+      </c>
+      <c r="AT192">
+        <v>2.76</v>
+      </c>
+      <c r="AU192">
+        <v>3</v>
+      </c>
+      <c r="AV192">
+        <v>2</v>
+      </c>
+      <c r="AW192">
+        <v>6</v>
+      </c>
+      <c r="AX192">
+        <v>5</v>
+      </c>
+      <c r="AY192">
+        <v>9</v>
+      </c>
+      <c r="AZ192">
         <v>7</v>
       </c>
-      <c r="T192">
-        <v>1.33</v>
-      </c>
-      <c r="U192">
-        <v>3.25</v>
-      </c>
-      <c r="V192">
-        <v>2.63</v>
-      </c>
-      <c r="W192">
-        <v>1.44</v>
-      </c>
-      <c r="X192">
-        <v>6.5</v>
-      </c>
-      <c r="Y192">
-        <v>1.11</v>
-      </c>
-      <c r="Z192">
-        <v>1.36</v>
-      </c>
-      <c r="AA192">
-        <v>4.4</v>
-      </c>
-      <c r="AB192">
-        <v>6.75</v>
-      </c>
-      <c r="AC192">
-        <v>1.02</v>
-      </c>
-      <c r="AD192">
-        <v>15</v>
-      </c>
-      <c r="AE192">
+      <c r="BA192">
+        <v>2</v>
+      </c>
+      <c r="BB192">
+        <v>0</v>
+      </c>
+      <c r="BC192">
+        <v>2</v>
+      </c>
+      <c r="BD192">
+        <v>1.53</v>
+      </c>
+      <c r="BE192">
+        <v>7.1</v>
+      </c>
+      <c r="BF192">
+        <v>3.22</v>
+      </c>
+      <c r="BG192">
         <v>1.22</v>
       </c>
-      <c r="AF192">
-        <v>4.2</v>
-      </c>
-      <c r="AG192">
-        <v>1.7</v>
-      </c>
-      <c r="AH192">
-        <v>2</v>
-      </c>
-      <c r="AI192">
-        <v>2</v>
-      </c>
-      <c r="AJ192">
-        <v>1.73</v>
-      </c>
-      <c r="AK192">
-        <v>1.08</v>
-      </c>
-      <c r="AL192">
-        <v>1.14</v>
-      </c>
-      <c r="AM192">
-        <v>3</v>
-      </c>
-      <c r="AN192">
-        <v>1.92</v>
-      </c>
-      <c r="AO192">
-        <v>0.73</v>
-      </c>
-      <c r="AP192">
-        <v>2</v>
-      </c>
-      <c r="AQ192">
-        <v>0.67</v>
-      </c>
-      <c r="AR192">
-        <v>1.83</v>
-      </c>
-      <c r="AS192">
-        <v>1.27</v>
-      </c>
-      <c r="AT192">
-        <v>3.1</v>
-      </c>
-      <c r="AU192">
-        <v>4</v>
-      </c>
-      <c r="AV192">
-        <v>2</v>
-      </c>
-      <c r="AW192">
-        <v>11</v>
-      </c>
-      <c r="AX192">
-        <v>1</v>
-      </c>
-      <c r="AY192">
-        <v>15</v>
-      </c>
-      <c r="AZ192">
-        <v>3</v>
-      </c>
-      <c r="BA192">
-        <v>7</v>
-      </c>
-      <c r="BB192">
-        <v>2</v>
-      </c>
-      <c r="BC192">
-        <v>9</v>
-      </c>
-      <c r="BD192">
-        <v>1.15</v>
-      </c>
-      <c r="BE192">
-        <v>10.25</v>
-      </c>
-      <c r="BF192">
-        <v>7.4</v>
-      </c>
-      <c r="BG192">
-        <v>1.18</v>
-      </c>
       <c r="BH192">
-        <v>3.74</v>
+        <v>3.8</v>
       </c>
       <c r="BI192">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="BJ192">
-        <v>2.62</v>
+        <v>2.94</v>
       </c>
       <c r="BK192">
-        <v>1.82</v>
+        <v>1.54</v>
       </c>
       <c r="BL192">
-        <v>1.98</v>
+        <v>2.19</v>
       </c>
       <c r="BM192">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BN192">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="BO192">
-        <v>2.73</v>
+        <v>2.46</v>
       </c>
       <c r="BP192">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -40931,7 +40934,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7321807</v>
+        <v>7321805</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40946,190 +40949,190 @@
         <v>25</v>
       </c>
       <c r="G193" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H193" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J193">
         <v>0</v>
       </c>
       <c r="K193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M193">
         <v>1</v>
       </c>
       <c r="N193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O193" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="P193" t="s">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="Q193">
+        <v>1.91</v>
+      </c>
+      <c r="R193">
+        <v>2.4</v>
+      </c>
+      <c r="S193">
+        <v>7</v>
+      </c>
+      <c r="T193">
+        <v>1.33</v>
+      </c>
+      <c r="U193">
+        <v>3.25</v>
+      </c>
+      <c r="V193">
+        <v>2.63</v>
+      </c>
+      <c r="W193">
+        <v>1.44</v>
+      </c>
+      <c r="X193">
+        <v>6.5</v>
+      </c>
+      <c r="Y193">
+        <v>1.11</v>
+      </c>
+      <c r="Z193">
+        <v>1.36</v>
+      </c>
+      <c r="AA193">
+        <v>4.4</v>
+      </c>
+      <c r="AB193">
+        <v>6.75</v>
+      </c>
+      <c r="AC193">
+        <v>1.02</v>
+      </c>
+      <c r="AD193">
+        <v>15</v>
+      </c>
+      <c r="AE193">
+        <v>1.22</v>
+      </c>
+      <c r="AF193">
+        <v>4.2</v>
+      </c>
+      <c r="AG193">
+        <v>1.7</v>
+      </c>
+      <c r="AH193">
+        <v>2</v>
+      </c>
+      <c r="AI193">
+        <v>2</v>
+      </c>
+      <c r="AJ193">
+        <v>1.73</v>
+      </c>
+      <c r="AK193">
+        <v>1.08</v>
+      </c>
+      <c r="AL193">
+        <v>1.14</v>
+      </c>
+      <c r="AM193">
+        <v>3</v>
+      </c>
+      <c r="AN193">
+        <v>1.92</v>
+      </c>
+      <c r="AO193">
+        <v>0.73</v>
+      </c>
+      <c r="AP193">
+        <v>2</v>
+      </c>
+      <c r="AQ193">
+        <v>0.67</v>
+      </c>
+      <c r="AR193">
+        <v>1.83</v>
+      </c>
+      <c r="AS193">
+        <v>1.27</v>
+      </c>
+      <c r="AT193">
+        <v>3.1</v>
+      </c>
+      <c r="AU193">
         <v>4</v>
       </c>
-      <c r="R193">
+      <c r="AV193">
+        <v>2</v>
+      </c>
+      <c r="AW193">
+        <v>11</v>
+      </c>
+      <c r="AX193">
+        <v>1</v>
+      </c>
+      <c r="AY193">
+        <v>15</v>
+      </c>
+      <c r="AZ193">
+        <v>3</v>
+      </c>
+      <c r="BA193">
+        <v>7</v>
+      </c>
+      <c r="BB193">
+        <v>2</v>
+      </c>
+      <c r="BC193">
+        <v>9</v>
+      </c>
+      <c r="BD193">
+        <v>1.15</v>
+      </c>
+      <c r="BE193">
+        <v>10.25</v>
+      </c>
+      <c r="BF193">
+        <v>7.4</v>
+      </c>
+      <c r="BG193">
+        <v>1.18</v>
+      </c>
+      <c r="BH193">
+        <v>3.74</v>
+      </c>
+      <c r="BI193">
+        <v>1.38</v>
+      </c>
+      <c r="BJ193">
+        <v>2.62</v>
+      </c>
+      <c r="BK193">
+        <v>1.82</v>
+      </c>
+      <c r="BL193">
+        <v>1.98</v>
+      </c>
+      <c r="BM193">
         <v>2.1</v>
       </c>
-      <c r="S193">
-        <v>2.88</v>
-      </c>
-      <c r="T193">
-        <v>1.44</v>
-      </c>
-      <c r="U193">
-        <v>2.63</v>
-      </c>
-      <c r="V193">
-        <v>3</v>
-      </c>
-      <c r="W193">
-        <v>1.36</v>
-      </c>
-      <c r="X193">
-        <v>9</v>
-      </c>
-      <c r="Y193">
-        <v>1.07</v>
-      </c>
-      <c r="Z193">
-        <v>3.25</v>
-      </c>
-      <c r="AA193">
-        <v>3.3</v>
-      </c>
-      <c r="AB193">
-        <v>2.05</v>
-      </c>
-      <c r="AC193">
-        <v>1.01</v>
-      </c>
-      <c r="AD193">
-        <v>7.9</v>
-      </c>
-      <c r="AE193">
-        <v>1.28</v>
-      </c>
-      <c r="AF193">
-        <v>2.97</v>
-      </c>
-      <c r="AG193">
-        <v>1.95</v>
-      </c>
-      <c r="AH193">
-        <v>1.75</v>
-      </c>
-      <c r="AI193">
-        <v>1.83</v>
-      </c>
-      <c r="AJ193">
-        <v>1.83</v>
-      </c>
-      <c r="AK193">
-        <v>1.72</v>
-      </c>
-      <c r="AL193">
-        <v>1.25</v>
-      </c>
-      <c r="AM193">
+      <c r="BN193">
+        <v>1.59</v>
+      </c>
+      <c r="BO193">
+        <v>2.73</v>
+      </c>
+      <c r="BP193">
         <v>1.33</v>
-      </c>
-      <c r="AN193">
-        <v>1.42</v>
-      </c>
-      <c r="AO193">
-        <v>1</v>
-      </c>
-      <c r="AP193">
-        <v>1.31</v>
-      </c>
-      <c r="AQ193">
-        <v>1.15</v>
-      </c>
-      <c r="AR193">
-        <v>1.84</v>
-      </c>
-      <c r="AS193">
-        <v>1.32</v>
-      </c>
-      <c r="AT193">
-        <v>3.16</v>
-      </c>
-      <c r="AU193">
-        <v>6</v>
-      </c>
-      <c r="AV193">
-        <v>4</v>
-      </c>
-      <c r="AW193">
-        <v>13</v>
-      </c>
-      <c r="AX193">
-        <v>4</v>
-      </c>
-      <c r="AY193">
-        <v>19</v>
-      </c>
-      <c r="AZ193">
-        <v>8</v>
-      </c>
-      <c r="BA193">
-        <v>6</v>
-      </c>
-      <c r="BB193">
-        <v>0</v>
-      </c>
-      <c r="BC193">
-        <v>6</v>
-      </c>
-      <c r="BD193">
-        <v>2.13</v>
-      </c>
-      <c r="BE193">
-        <v>6.25</v>
-      </c>
-      <c r="BF193">
-        <v>2.1</v>
-      </c>
-      <c r="BG193">
-        <v>1.33</v>
-      </c>
-      <c r="BH193">
-        <v>3</v>
-      </c>
-      <c r="BI193">
-        <v>1.57</v>
-      </c>
-      <c r="BJ193">
-        <v>2.25</v>
-      </c>
-      <c r="BK193">
-        <v>1.98</v>
-      </c>
-      <c r="BL193">
-        <v>1.82</v>
-      </c>
-      <c r="BM193">
-        <v>2.4</v>
-      </c>
-      <c r="BN193">
-        <v>1.5</v>
-      </c>
-      <c r="BO193">
-        <v>3.2</v>
-      </c>
-      <c r="BP193">
-        <v>1.3</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41137,7 +41140,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7321809</v>
+        <v>7321807</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41152,43 +41155,43 @@
         <v>25</v>
       </c>
       <c r="G194" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H194" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194" t="s">
+        <v>86</v>
+      </c>
+      <c r="P194" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q194">
         <v>4</v>
       </c>
-      <c r="O194" t="s">
-        <v>223</v>
-      </c>
-      <c r="P194" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q194">
-        <v>3.1</v>
-      </c>
       <c r="R194">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S194">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="T194">
         <v>1.44</v>
@@ -41197,10 +41200,10 @@
         <v>2.63</v>
       </c>
       <c r="V194">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W194">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X194">
         <v>9</v>
@@ -41209,31 +41212,31 @@
         <v>1.07</v>
       </c>
       <c r="Z194">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="AA194">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AB194">
-        <v>2.95</v>
+        <v>2.05</v>
       </c>
       <c r="AC194">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD194">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AE194">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AF194">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="AG194">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH194">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AI194">
         <v>1.83</v>
@@ -41242,100 +41245,100 @@
         <v>1.83</v>
       </c>
       <c r="AK194">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AL194">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM194">
+        <v>1.33</v>
+      </c>
+      <c r="AN194">
+        <v>1.42</v>
+      </c>
+      <c r="AO194">
+        <v>1</v>
+      </c>
+      <c r="AP194">
+        <v>1.31</v>
+      </c>
+      <c r="AQ194">
+        <v>1.15</v>
+      </c>
+      <c r="AR194">
+        <v>1.84</v>
+      </c>
+      <c r="AS194">
+        <v>1.32</v>
+      </c>
+      <c r="AT194">
+        <v>3.16</v>
+      </c>
+      <c r="AU194">
+        <v>6</v>
+      </c>
+      <c r="AV194">
+        <v>4</v>
+      </c>
+      <c r="AW194">
+        <v>13</v>
+      </c>
+      <c r="AX194">
+        <v>4</v>
+      </c>
+      <c r="AY194">
+        <v>19</v>
+      </c>
+      <c r="AZ194">
+        <v>8</v>
+      </c>
+      <c r="BA194">
+        <v>6</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>6</v>
+      </c>
+      <c r="BD194">
+        <v>2.13</v>
+      </c>
+      <c r="BE194">
+        <v>6.25</v>
+      </c>
+      <c r="BF194">
+        <v>2.1</v>
+      </c>
+      <c r="BG194">
+        <v>1.33</v>
+      </c>
+      <c r="BH194">
+        <v>3</v>
+      </c>
+      <c r="BI194">
         <v>1.57</v>
       </c>
-      <c r="AN194">
-        <v>1.83</v>
-      </c>
-      <c r="AO194">
-        <v>1.55</v>
-      </c>
-      <c r="AP194">
-        <v>1.77</v>
-      </c>
-      <c r="AQ194">
+      <c r="BJ194">
+        <v>2.25</v>
+      </c>
+      <c r="BK194">
+        <v>1.98</v>
+      </c>
+      <c r="BL194">
+        <v>1.82</v>
+      </c>
+      <c r="BM194">
+        <v>2.4</v>
+      </c>
+      <c r="BN194">
         <v>1.5</v>
       </c>
-      <c r="AR194">
-        <v>1.41</v>
-      </c>
-      <c r="AS194">
-        <v>1.35</v>
-      </c>
-      <c r="AT194">
-        <v>2.76</v>
-      </c>
-      <c r="AU194">
-        <v>3</v>
-      </c>
-      <c r="AV194">
-        <v>2</v>
-      </c>
-      <c r="AW194">
-        <v>6</v>
-      </c>
-      <c r="AX194">
-        <v>5</v>
-      </c>
-      <c r="AY194">
-        <v>9</v>
-      </c>
-      <c r="AZ194">
-        <v>7</v>
-      </c>
-      <c r="BA194">
-        <v>2</v>
-      </c>
-      <c r="BB194">
-        <v>0</v>
-      </c>
-      <c r="BC194">
-        <v>2</v>
-      </c>
-      <c r="BD194">
-        <v>1.53</v>
-      </c>
-      <c r="BE194">
-        <v>7.1</v>
-      </c>
-      <c r="BF194">
-        <v>3.22</v>
-      </c>
-      <c r="BG194">
-        <v>1.22</v>
-      </c>
-      <c r="BH194">
-        <v>3.8</v>
-      </c>
-      <c r="BI194">
-        <v>1.28</v>
-      </c>
-      <c r="BJ194">
-        <v>2.94</v>
-      </c>
-      <c r="BK194">
-        <v>1.54</v>
-      </c>
-      <c r="BL194">
-        <v>2.19</v>
-      </c>
-      <c r="BM194">
-        <v>1.95</v>
-      </c>
-      <c r="BN194">
-        <v>1.76</v>
-      </c>
       <c r="BO194">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="BP194">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41385,7 +41388,7 @@
         <v>224</v>
       </c>
       <c r="P195" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q195">
         <v>2.2</v>
@@ -41797,7 +41800,7 @@
         <v>86</v>
       </c>
       <c r="P197" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q197">
         <v>2.5</v>
@@ -41878,7 +41881,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ197">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR197">
         <v>1.63</v>
@@ -41970,7 +41973,7 @@
         <v>69</v>
       </c>
       <c r="E198" s="2">
-        <v>45563.72916666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F198">
         <v>26</v>
@@ -42102,16 +42105,16 @@
         <v>0</v>
       </c>
       <c r="AW198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY198">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ198">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA198">
         <v>9</v>
@@ -42176,7 +42179,7 @@
         <v>69</v>
       </c>
       <c r="E199" s="2">
-        <v>45563.83333333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F199">
         <v>26</v>
@@ -42302,7 +42305,7 @@
         <v>3.06</v>
       </c>
       <c r="AU199">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV199">
         <v>5</v>
@@ -42314,7 +42317,7 @@
         <v>4</v>
       </c>
       <c r="AY199">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ199">
         <v>9</v>
@@ -42373,7 +42376,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>7321819</v>
+        <v>7321814</v>
       </c>
       <c r="C200" t="s">
         <v>68</v>
@@ -42382,16 +42385,16 @@
         <v>69</v>
       </c>
       <c r="E200" s="2">
-        <v>45564.52083333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F200">
         <v>26</v>
       </c>
       <c r="G200" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H200" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -42406,25 +42409,25 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O200" t="s">
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q200">
+        <v>2.5</v>
+      </c>
+      <c r="R200">
         <v>2.2</v>
       </c>
-      <c r="R200">
-        <v>2.25</v>
-      </c>
       <c r="S200">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="T200">
         <v>1.36</v>
@@ -42439,139 +42442,139 @@
         <v>1.4</v>
       </c>
       <c r="X200">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y200">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z200">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AA200">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="AB200">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AC200">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD200">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE200">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF200">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AG200">
+        <v>1.83</v>
+      </c>
+      <c r="AH200">
+        <v>1.83</v>
+      </c>
+      <c r="AI200">
+        <v>1.73</v>
+      </c>
+      <c r="AJ200">
+        <v>2</v>
+      </c>
+      <c r="AK200">
+        <v>1.26</v>
+      </c>
+      <c r="AL200">
+        <v>1.27</v>
+      </c>
+      <c r="AM200">
         <v>1.8</v>
       </c>
-      <c r="AH200">
-        <v>1.85</v>
-      </c>
-      <c r="AI200">
-        <v>1.91</v>
-      </c>
-      <c r="AJ200">
-        <v>1.8</v>
-      </c>
-      <c r="AK200">
-        <v>1.13</v>
-      </c>
-      <c r="AL200">
-        <v>1.23</v>
-      </c>
-      <c r="AM200">
-        <v>2.3</v>
-      </c>
       <c r="AN200">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="AO200">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AP200">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="AQ200">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AR200">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AS200">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AT200">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AU200">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV200">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW200">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX200">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AY200">
         <v>8</v>
       </c>
       <c r="AZ200">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA200">
+        <v>2</v>
+      </c>
+      <c r="BB200">
+        <v>3</v>
+      </c>
+      <c r="BC200">
         <v>5</v>
       </c>
-      <c r="BB200">
-        <v>2</v>
-      </c>
-      <c r="BC200">
-        <v>7</v>
-      </c>
       <c r="BD200">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="BE200">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF200">
-        <v>3.83</v>
+        <v>2.78</v>
       </c>
       <c r="BG200">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="BH200">
-        <v>3</v>
+        <v>4.19</v>
       </c>
       <c r="BI200">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="BJ200">
-        <v>2.41</v>
+        <v>2.77</v>
       </c>
       <c r="BK200">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="BL200">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="BM200">
-        <v>2.46</v>
+        <v>2.13</v>
       </c>
       <c r="BN200">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="BO200">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BP200">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="201" spans="1:68">
@@ -42588,7 +42591,7 @@
         <v>69</v>
       </c>
       <c r="E201" s="2">
-        <v>45564.625</v>
+        <v>45563.875</v>
       </c>
       <c r="F201">
         <v>26</v>
@@ -42714,22 +42717,22 @@
         <v>2.91</v>
       </c>
       <c r="AU201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW201">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AX201">
         <v>8</v>
       </c>
       <c r="AY201">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ201">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA201">
         <v>3</v>
@@ -42785,7 +42788,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>7321815</v>
+        <v>7321819</v>
       </c>
       <c r="C202" t="s">
         <v>68</v>
@@ -42794,82 +42797,82 @@
         <v>69</v>
       </c>
       <c r="E202" s="2">
-        <v>45564.72916666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F202">
         <v>26</v>
       </c>
       <c r="G202" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H202" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
       <c r="K202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O202" t="s">
-        <v>228</v>
+        <v>86</v>
       </c>
       <c r="P202" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="Q202">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="R202">
         <v>2.25</v>
       </c>
       <c r="S202">
+        <v>5.5</v>
+      </c>
+      <c r="T202">
+        <v>1.36</v>
+      </c>
+      <c r="U202">
+        <v>3</v>
+      </c>
+      <c r="V202">
         <v>2.75</v>
       </c>
-      <c r="T202">
-        <v>1.33</v>
-      </c>
-      <c r="U202">
-        <v>3.25</v>
-      </c>
-      <c r="V202">
-        <v>2.63</v>
-      </c>
       <c r="W202">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X202">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y202">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z202">
-        <v>3.2</v>
+        <v>1.55</v>
       </c>
       <c r="AA202">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AB202">
-        <v>2.05</v>
+        <v>4.8</v>
       </c>
       <c r="AC202">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD202">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE202">
         <v>1.25</v>
@@ -42878,52 +42881,52 @@
         <v>3.6</v>
       </c>
       <c r="AG202">
+        <v>1.8</v>
+      </c>
+      <c r="AH202">
+        <v>1.85</v>
+      </c>
+      <c r="AI202">
         <v>1.91</v>
       </c>
-      <c r="AH202">
-        <v>1.73</v>
-      </c>
-      <c r="AI202">
-        <v>1.62</v>
-      </c>
       <c r="AJ202">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AK202">
-        <v>1.73</v>
+        <v>1.13</v>
       </c>
       <c r="AL202">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="AM202">
-        <v>1.31</v>
+        <v>2.3</v>
       </c>
       <c r="AN202">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="AO202">
-        <v>2.42</v>
+        <v>0.91</v>
       </c>
       <c r="AP202">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="AQ202">
-        <v>2.23</v>
+        <v>1.08</v>
       </c>
       <c r="AR202">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="AS202">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="AT202">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="AU202">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW202">
         <v>5</v>
@@ -42932,58 +42935,58 @@
         <v>6</v>
       </c>
       <c r="AY202">
+        <v>7</v>
+      </c>
+      <c r="AZ202">
         <v>9</v>
       </c>
-      <c r="AZ202">
-        <v>10</v>
-      </c>
       <c r="BA202">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB202">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC202">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD202">
-        <v>2.44</v>
+        <v>1.37</v>
       </c>
       <c r="BE202">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF202">
-        <v>1.75</v>
+        <v>3.83</v>
       </c>
       <c r="BG202">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BH202">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="BI202">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="BJ202">
-        <v>2.75</v>
+        <v>2.41</v>
       </c>
       <c r="BK202">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="BL202">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="BM202">
-        <v>2.23</v>
+        <v>2.46</v>
       </c>
       <c r="BN202">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="BO202">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BP202">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="203" spans="1:68">
@@ -42991,7 +42994,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>7321814</v>
+        <v>7321815</v>
       </c>
       <c r="C203" t="s">
         <v>68</v>
@@ -43000,196 +43003,196 @@
         <v>69</v>
       </c>
       <c r="E203" s="2">
-        <v>45564.83333333334</v>
+        <v>45563.875</v>
       </c>
       <c r="F203">
         <v>26</v>
       </c>
       <c r="G203" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H203" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203">
         <v>0</v>
       </c>
       <c r="K203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L203">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M203">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O203" t="s">
+        <v>228</v>
+      </c>
+      <c r="P203" t="s">
         <v>86</v>
       </c>
-      <c r="P203" t="s">
-        <v>329</v>
-      </c>
       <c r="Q203">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R203">
+        <v>2.25</v>
+      </c>
+      <c r="S203">
+        <v>2.75</v>
+      </c>
+      <c r="T203">
+        <v>1.33</v>
+      </c>
+      <c r="U203">
+        <v>3.25</v>
+      </c>
+      <c r="V203">
+        <v>2.63</v>
+      </c>
+      <c r="W203">
+        <v>1.44</v>
+      </c>
+      <c r="X203">
+        <v>6.5</v>
+      </c>
+      <c r="Y203">
+        <v>1.11</v>
+      </c>
+      <c r="Z203">
+        <v>3.2</v>
+      </c>
+      <c r="AA203">
+        <v>3.2</v>
+      </c>
+      <c r="AB203">
+        <v>2.05</v>
+      </c>
+      <c r="AC203">
+        <v>1.03</v>
+      </c>
+      <c r="AD203">
+        <v>9</v>
+      </c>
+      <c r="AE203">
+        <v>1.25</v>
+      </c>
+      <c r="AF203">
+        <v>3.6</v>
+      </c>
+      <c r="AG203">
+        <v>1.91</v>
+      </c>
+      <c r="AH203">
+        <v>1.73</v>
+      </c>
+      <c r="AI203">
+        <v>1.62</v>
+      </c>
+      <c r="AJ203">
         <v>2.2</v>
       </c>
-      <c r="S203">
-        <v>4.33</v>
-      </c>
-      <c r="T203">
-        <v>1.36</v>
-      </c>
-      <c r="U203">
-        <v>3</v>
-      </c>
-      <c r="V203">
-        <v>2.75</v>
-      </c>
-      <c r="W203">
-        <v>1.4</v>
-      </c>
-      <c r="X203">
-        <v>7</v>
-      </c>
-      <c r="Y203">
-        <v>1.1</v>
-      </c>
-      <c r="Z203">
-        <v>1.75</v>
-      </c>
-      <c r="AA203">
-        <v>3.3</v>
-      </c>
-      <c r="AB203">
-        <v>4</v>
-      </c>
-      <c r="AC203">
-        <v>1.01</v>
-      </c>
-      <c r="AD203">
-        <v>11</v>
-      </c>
-      <c r="AE203">
-        <v>1.22</v>
-      </c>
-      <c r="AF203">
-        <v>3.8</v>
-      </c>
-      <c r="AG203">
-        <v>1.83</v>
-      </c>
-      <c r="AH203">
-        <v>1.83</v>
-      </c>
-      <c r="AI203">
+      <c r="AK203">
         <v>1.73</v>
-      </c>
-      <c r="AJ203">
-        <v>2</v>
-      </c>
-      <c r="AK203">
-        <v>1.26</v>
       </c>
       <c r="AL203">
         <v>1.27</v>
       </c>
       <c r="AM203">
-        <v>1.8</v>
+        <v>1.31</v>
       </c>
       <c r="AN203">
+        <v>1.92</v>
+      </c>
+      <c r="AO203">
+        <v>2.42</v>
+      </c>
+      <c r="AP203">
+        <v>2</v>
+      </c>
+      <c r="AQ203">
+        <v>2.23</v>
+      </c>
+      <c r="AR203">
+        <v>1.69</v>
+      </c>
+      <c r="AS203">
+        <v>1.71</v>
+      </c>
+      <c r="AT203">
+        <v>3.4</v>
+      </c>
+      <c r="AU203">
+        <v>0</v>
+      </c>
+      <c r="AV203">
+        <v>4</v>
+      </c>
+      <c r="AW203">
+        <v>6</v>
+      </c>
+      <c r="AX203">
+        <v>6</v>
+      </c>
+      <c r="AY203">
+        <v>6</v>
+      </c>
+      <c r="AZ203">
+        <v>10</v>
+      </c>
+      <c r="BA203">
+        <v>2</v>
+      </c>
+      <c r="BB203">
+        <v>6</v>
+      </c>
+      <c r="BC203">
+        <v>8</v>
+      </c>
+      <c r="BD203">
+        <v>2.44</v>
+      </c>
+      <c r="BE203">
+        <v>8</v>
+      </c>
+      <c r="BF203">
         <v>1.75</v>
       </c>
-      <c r="AO203">
-        <v>1</v>
-      </c>
-      <c r="AP203">
-        <v>1.62</v>
-      </c>
-      <c r="AQ203">
-        <v>1.15</v>
-      </c>
-      <c r="AR203">
-        <v>1.5</v>
-      </c>
-      <c r="AS203">
-        <v>1.5</v>
-      </c>
-      <c r="AT203">
+      <c r="BG203">
+        <v>1.28</v>
+      </c>
+      <c r="BH203">
+        <v>3.3</v>
+      </c>
+      <c r="BI203">
+        <v>1.4</v>
+      </c>
+      <c r="BJ203">
+        <v>2.75</v>
+      </c>
+      <c r="BK203">
+        <v>1.95</v>
+      </c>
+      <c r="BL203">
+        <v>1.77</v>
+      </c>
+      <c r="BM203">
+        <v>2.23</v>
+      </c>
+      <c r="BN203">
+        <v>1.64</v>
+      </c>
+      <c r="BO203">
         <v>3</v>
       </c>
-      <c r="AU203">
-        <v>5</v>
-      </c>
-      <c r="AV203">
-        <v>9</v>
-      </c>
-      <c r="AW203">
-        <v>3</v>
-      </c>
-      <c r="AX203">
-        <v>4</v>
-      </c>
-      <c r="AY203">
-        <v>8</v>
-      </c>
-      <c r="AZ203">
-        <v>13</v>
-      </c>
-      <c r="BA203">
-        <v>2</v>
-      </c>
-      <c r="BB203">
-        <v>3</v>
-      </c>
-      <c r="BC203">
-        <v>5</v>
-      </c>
-      <c r="BD203">
-        <v>1.59</v>
-      </c>
-      <c r="BE203">
-        <v>8.5</v>
-      </c>
-      <c r="BF203">
-        <v>2.78</v>
-      </c>
-      <c r="BG203">
-        <v>1.23</v>
-      </c>
-      <c r="BH203">
-        <v>4.19</v>
-      </c>
-      <c r="BI203">
-        <v>1.39</v>
-      </c>
-      <c r="BJ203">
-        <v>2.77</v>
-      </c>
-      <c r="BK203">
-        <v>1.7</v>
-      </c>
-      <c r="BL203">
-        <v>2.05</v>
-      </c>
-      <c r="BM203">
-        <v>2.13</v>
-      </c>
-      <c r="BN203">
-        <v>1.69</v>
-      </c>
-      <c r="BO203">
-        <v>2.8</v>
-      </c>
       <c r="BP203">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="204" spans="1:68">
@@ -43197,7 +43200,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>7321820</v>
+        <v>7321818</v>
       </c>
       <c r="C204" t="s">
         <v>68</v>
@@ -43212,10 +43215,10 @@
         <v>26</v>
       </c>
       <c r="G204" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H204" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -43227,145 +43230,145 @@
         <v>1</v>
       </c>
       <c r="L204">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N204">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O204" t="s">
         <v>229</v>
       </c>
       <c r="P204" t="s">
-        <v>330</v>
+        <v>86</v>
       </c>
       <c r="Q204">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R204">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S204">
         <v>3.6</v>
       </c>
       <c r="T204">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U204">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V204">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W204">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X204">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y204">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z204">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AA204">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB204">
         <v>2.87</v>
       </c>
       <c r="AC204">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD204">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AE204">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AF204">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="AG204">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="AH204">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="AI204">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AJ204">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AK204">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AL204">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AM204">
         <v>1.53</v>
       </c>
       <c r="AN204">
-        <v>1.42</v>
+        <v>0.92</v>
       </c>
       <c r="AO204">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AP204">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="AQ204">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AR204">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="AS204">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="AT204">
-        <v>2.81</v>
+        <v>2.69</v>
       </c>
       <c r="AU204">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV204">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW204">
         <v>4</v>
       </c>
       <c r="AX204">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY204">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ204">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA204">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB204">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BC204">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BD204">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="BE204">
         <v>8</v>
       </c>
       <c r="BF204">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="BG204">
         <v>1.25</v>
@@ -43380,21 +43383,227 @@
         <v>2.62</v>
       </c>
       <c r="BK204">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="BL204">
-        <v>2.11</v>
+        <v>1.91</v>
       </c>
       <c r="BM204">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="BN204">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="BO204">
         <v>2.62</v>
       </c>
       <c r="BP204">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7321820</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45564.875</v>
+      </c>
+      <c r="F205">
+        <v>26</v>
+      </c>
+      <c r="G205" t="s">
+        <v>79</v>
+      </c>
+      <c r="H205" t="s">
+        <v>76</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>3</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205">
+        <v>5</v>
+      </c>
+      <c r="O205" t="s">
+        <v>230</v>
+      </c>
+      <c r="P205" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q205">
+        <v>3.2</v>
+      </c>
+      <c r="R205">
+        <v>2.05</v>
+      </c>
+      <c r="S205">
+        <v>3.6</v>
+      </c>
+      <c r="T205">
+        <v>1.44</v>
+      </c>
+      <c r="U205">
+        <v>2.63</v>
+      </c>
+      <c r="V205">
+        <v>3.25</v>
+      </c>
+      <c r="W205">
+        <v>1.33</v>
+      </c>
+      <c r="X205">
+        <v>10</v>
+      </c>
+      <c r="Y205">
+        <v>1.06</v>
+      </c>
+      <c r="Z205">
+        <v>2.4</v>
+      </c>
+      <c r="AA205">
+        <v>3.2</v>
+      </c>
+      <c r="AB205">
+        <v>2.87</v>
+      </c>
+      <c r="AC205">
+        <v>1.02</v>
+      </c>
+      <c r="AD205">
+        <v>7.4</v>
+      </c>
+      <c r="AE205">
+        <v>1.32</v>
+      </c>
+      <c r="AF205">
+        <v>2.78</v>
+      </c>
+      <c r="AG205">
+        <v>2.1</v>
+      </c>
+      <c r="AH205">
+        <v>1.65</v>
+      </c>
+      <c r="AI205">
+        <v>1.83</v>
+      </c>
+      <c r="AJ205">
+        <v>1.83</v>
+      </c>
+      <c r="AK205">
+        <v>1.39</v>
+      </c>
+      <c r="AL205">
+        <v>1.32</v>
+      </c>
+      <c r="AM205">
+        <v>1.53</v>
+      </c>
+      <c r="AN205">
+        <v>1.42</v>
+      </c>
+      <c r="AO205">
+        <v>1.25</v>
+      </c>
+      <c r="AP205">
+        <v>1.54</v>
+      </c>
+      <c r="AQ205">
+        <v>1.15</v>
+      </c>
+      <c r="AR205">
+        <v>1.7</v>
+      </c>
+      <c r="AS205">
+        <v>1.11</v>
+      </c>
+      <c r="AT205">
+        <v>2.81</v>
+      </c>
+      <c r="AU205">
+        <v>3</v>
+      </c>
+      <c r="AV205">
+        <v>3</v>
+      </c>
+      <c r="AW205">
+        <v>3</v>
+      </c>
+      <c r="AX205">
+        <v>2</v>
+      </c>
+      <c r="AY205">
+        <v>6</v>
+      </c>
+      <c r="AZ205">
+        <v>5</v>
+      </c>
+      <c r="BA205">
+        <v>6</v>
+      </c>
+      <c r="BB205">
+        <v>2</v>
+      </c>
+      <c r="BC205">
+        <v>8</v>
+      </c>
+      <c r="BD205">
+        <v>1.91</v>
+      </c>
+      <c r="BE205">
+        <v>8</v>
+      </c>
+      <c r="BF205">
+        <v>2.1</v>
+      </c>
+      <c r="BG205">
+        <v>1.25</v>
+      </c>
+      <c r="BH205">
+        <v>3.6</v>
+      </c>
+      <c r="BI205">
+        <v>1.42</v>
+      </c>
+      <c r="BJ205">
+        <v>2.62</v>
+      </c>
+      <c r="BK205">
+        <v>1.71</v>
+      </c>
+      <c r="BL205">
+        <v>2.11</v>
+      </c>
+      <c r="BM205">
+        <v>2.13</v>
+      </c>
+      <c r="BN205">
+        <v>1.7</v>
+      </c>
+      <c r="BO205">
+        <v>2.62</v>
+      </c>
+      <c r="BP205">
         <v>1.42</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -682,10 +682,10 @@
     <t>['14', '36']</t>
   </si>
   <si>
-    <t>['88', '90+8']</t>
+    <t>['18', '88']</t>
   </si>
   <si>
-    <t>['18', '88']</t>
+    <t>['88', '90+8']</t>
   </si>
   <si>
     <t>['45+5', '63', '89', '90+3']</t>
@@ -703,10 +703,10 @@
     <t>['42', '56', '78']</t>
   </si>
   <si>
-    <t>['23', '90+2']</t>
+    <t>['45+1', '53', '59']</t>
   </si>
   <si>
-    <t>['45+1', '53', '59']</t>
+    <t>['23', '90+2']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -1003,10 +1003,10 @@
     <t>['62']</t>
   </si>
   <si>
-    <t>['64', '75']</t>
+    <t>['47']</t>
   </si>
   <si>
-    <t>['47']</t>
+    <t>['64', '75']</t>
   </si>
   <si>
     <t>['82', '90+4']</t>
@@ -1735,10 +1735,10 @@
         <v>6</v>
       </c>
       <c r="AY2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA2">
         <v>8</v>
@@ -1941,10 +1941,10 @@
         <v>6</v>
       </c>
       <c r="AY3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA3">
         <v>4</v>
@@ -2147,10 +2147,10 @@
         <v>9</v>
       </c>
       <c r="AY4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA4">
         <v>8</v>
@@ -2353,10 +2353,10 @@
         <v>3</v>
       </c>
       <c r="AY5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA5">
         <v>3</v>
@@ -2559,10 +2559,10 @@
         <v>4</v>
       </c>
       <c r="AY6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA6">
         <v>4</v>
@@ -2765,10 +2765,10 @@
         <v>2</v>
       </c>
       <c r="AY7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA7">
         <v>3</v>
@@ -2971,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="AY8">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ8">
         <v>4</v>
@@ -3177,10 +3177,10 @@
         <v>6</v>
       </c>
       <c r="AY9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -3386,7 +3386,7 @@
         <v>6</v>
       </c>
       <c r="AZ10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA10">
         <v>4</v>
@@ -3589,7 +3589,7 @@
         <v>2</v>
       </c>
       <c r="AY11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ11">
         <v>4</v>
@@ -3795,10 +3795,10 @@
         <v>2</v>
       </c>
       <c r="AY12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA12">
         <v>7</v>
@@ -4001,10 +4001,10 @@
         <v>1</v>
       </c>
       <c r="AY13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA13">
         <v>11</v>
@@ -4207,10 +4207,10 @@
         <v>10</v>
       </c>
       <c r="AY14">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ14">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA14">
         <v>6</v>
@@ -4413,10 +4413,10 @@
         <v>9</v>
       </c>
       <c r="AY15">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA15">
         <v>4</v>
@@ -4619,10 +4619,10 @@
         <v>1</v>
       </c>
       <c r="AY16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA16">
         <v>6</v>
@@ -4825,10 +4825,10 @@
         <v>3</v>
       </c>
       <c r="AY17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA17">
         <v>4</v>
@@ -5031,10 +5031,10 @@
         <v>7</v>
       </c>
       <c r="AY18">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ18">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA18">
         <v>1</v>
@@ -5237,7 +5237,7 @@
         <v>7</v>
       </c>
       <c r="AY19">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ19">
         <v>15</v>
@@ -5443,10 +5443,10 @@
         <v>2</v>
       </c>
       <c r="AY20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA20">
         <v>1</v>
@@ -5649,10 +5649,10 @@
         <v>8</v>
       </c>
       <c r="AY21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ21">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA21">
         <v>3</v>
@@ -5855,10 +5855,10 @@
         <v>11</v>
       </c>
       <c r="AY22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA22">
         <v>0</v>
@@ -6061,10 +6061,10 @@
         <v>5</v>
       </c>
       <c r="AY23">
+        <v>20</v>
+      </c>
+      <c r="AZ23">
         <v>17</v>
-      </c>
-      <c r="AZ23">
-        <v>14</v>
       </c>
       <c r="BA23">
         <v>11</v>
@@ -6267,7 +6267,7 @@
         <v>4</v>
       </c>
       <c r="AY24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ24">
         <v>10</v>
@@ -6473,7 +6473,7 @@
         <v>3</v>
       </c>
       <c r="AY25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ25">
         <v>6</v>
@@ -6679,7 +6679,7 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ26">
         <v>10</v>
@@ -6885,10 +6885,10 @@
         <v>9</v>
       </c>
       <c r="AY27">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA27">
         <v>7</v>
@@ -7091,10 +7091,10 @@
         <v>6</v>
       </c>
       <c r="AY28">
+        <v>13</v>
+      </c>
+      <c r="AZ28">
         <v>12</v>
-      </c>
-      <c r="AZ28">
-        <v>8</v>
       </c>
       <c r="BA28">
         <v>2</v>
@@ -7297,10 +7297,10 @@
         <v>6</v>
       </c>
       <c r="AY29">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ29">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA29">
         <v>4</v>
@@ -7503,10 +7503,10 @@
         <v>4</v>
       </c>
       <c r="AY30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA30">
         <v>6</v>
@@ -7709,10 +7709,10 @@
         <v>6</v>
       </c>
       <c r="AY31">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AZ31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA31">
         <v>3</v>
@@ -7915,10 +7915,10 @@
         <v>3</v>
       </c>
       <c r="AY32">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA32">
         <v>8</v>
@@ -8121,10 +8121,10 @@
         <v>4</v>
       </c>
       <c r="AY33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ33">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA33">
         <v>6</v>
@@ -8327,10 +8327,10 @@
         <v>6</v>
       </c>
       <c r="AY34">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ34">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA34">
         <v>2</v>
@@ -8533,10 +8533,10 @@
         <v>2</v>
       </c>
       <c r="AY35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ35">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA35">
         <v>5</v>
@@ -8739,10 +8739,10 @@
         <v>5</v>
       </c>
       <c r="AY36">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ36">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -8945,10 +8945,10 @@
         <v>3</v>
       </c>
       <c r="AY37">
+        <v>12</v>
+      </c>
+      <c r="AZ37">
         <v>10</v>
-      </c>
-      <c r="AZ37">
-        <v>8</v>
       </c>
       <c r="BA37">
         <v>7</v>
@@ -9151,10 +9151,10 @@
         <v>1</v>
       </c>
       <c r="AY38">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA38">
         <v>4</v>
@@ -9357,10 +9357,10 @@
         <v>5</v>
       </c>
       <c r="AY39">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA39">
         <v>7</v>
@@ -9563,10 +9563,10 @@
         <v>9</v>
       </c>
       <c r="AY40">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ40">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA40">
         <v>2</v>
@@ -9769,10 +9769,10 @@
         <v>4</v>
       </c>
       <c r="AY41">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ41">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA41">
         <v>10</v>
@@ -9975,10 +9975,10 @@
         <v>5</v>
       </c>
       <c r="AY42">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA42">
         <v>9</v>
@@ -10181,10 +10181,10 @@
         <v>5</v>
       </c>
       <c r="AY43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA43">
         <v>3</v>
@@ -10387,10 +10387,10 @@
         <v>8</v>
       </c>
       <c r="AY44">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ44">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA44">
         <v>4</v>
@@ -10593,10 +10593,10 @@
         <v>6</v>
       </c>
       <c r="AY45">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA45">
         <v>7</v>
@@ -10799,10 +10799,10 @@
         <v>0</v>
       </c>
       <c r="AY46">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AZ46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA46">
         <v>14</v>
@@ -11005,10 +11005,10 @@
         <v>7</v>
       </c>
       <c r="AY47">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA47">
         <v>3</v>
@@ -11211,10 +11211,10 @@
         <v>10</v>
       </c>
       <c r="AY48">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ48">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BA48">
         <v>8</v>
@@ -11417,10 +11417,10 @@
         <v>4</v>
       </c>
       <c r="AY49">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ49">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA49">
         <v>7</v>
@@ -11623,10 +11623,10 @@
         <v>9</v>
       </c>
       <c r="AY50">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ50">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA50">
         <v>6</v>
@@ -11829,10 +11829,10 @@
         <v>9</v>
       </c>
       <c r="AY51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ51">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA51">
         <v>7</v>
@@ -12035,10 +12035,10 @@
         <v>6</v>
       </c>
       <c r="AY52">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA52">
         <v>8</v>
@@ -12241,10 +12241,10 @@
         <v>4</v>
       </c>
       <c r="AY53">
+        <v>22</v>
+      </c>
+      <c r="AZ53">
         <v>15</v>
-      </c>
-      <c r="AZ53">
-        <v>10</v>
       </c>
       <c r="BA53">
         <v>16</v>
@@ -12447,10 +12447,10 @@
         <v>1</v>
       </c>
       <c r="AY54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ54">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA54">
         <v>7</v>
@@ -12653,10 +12653,10 @@
         <v>1</v>
       </c>
       <c r="AY55">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA55">
         <v>6</v>
@@ -12859,10 +12859,10 @@
         <v>6</v>
       </c>
       <c r="AY56">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ56">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BA56">
         <v>1</v>
@@ -13065,10 +13065,10 @@
         <v>5</v>
       </c>
       <c r="AY57">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ57">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA57">
         <v>5</v>
@@ -13271,7 +13271,7 @@
         <v>2</v>
       </c>
       <c r="AY58">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ58">
         <v>8</v>
@@ -13477,10 +13477,10 @@
         <v>5</v>
       </c>
       <c r="AY59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA59">
         <v>7</v>
@@ -13683,10 +13683,10 @@
         <v>4</v>
       </c>
       <c r="AY60">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ60">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA60">
         <v>5</v>
@@ -13889,10 +13889,10 @@
         <v>2</v>
       </c>
       <c r="AY61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ61">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA61">
         <v>7</v>
@@ -14095,10 +14095,10 @@
         <v>7</v>
       </c>
       <c r="AY62">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ62">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA62">
         <v>4</v>
@@ -14301,10 +14301,10 @@
         <v>7</v>
       </c>
       <c r="AY63">
+        <v>14</v>
+      </c>
+      <c r="AZ63">
         <v>11</v>
-      </c>
-      <c r="AZ63">
-        <v>9</v>
       </c>
       <c r="BA63">
         <v>5</v>
@@ -14507,7 +14507,7 @@
         <v>2</v>
       </c>
       <c r="AY64">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AZ64">
         <v>6</v>
@@ -14713,10 +14713,10 @@
         <v>7</v>
       </c>
       <c r="AY65">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ65">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA65">
         <v>5</v>
@@ -14919,10 +14919,10 @@
         <v>3</v>
       </c>
       <c r="AY66">
+        <v>15</v>
+      </c>
+      <c r="AZ66">
         <v>9</v>
-      </c>
-      <c r="AZ66">
-        <v>6</v>
       </c>
       <c r="BA66">
         <v>6</v>
@@ -15125,10 +15125,10 @@
         <v>5</v>
       </c>
       <c r="AY67">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ67">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA67">
         <v>3</v>
@@ -15331,10 +15331,10 @@
         <v>5</v>
       </c>
       <c r="AY68">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ68">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA68">
         <v>5</v>
@@ -15537,10 +15537,10 @@
         <v>6</v>
       </c>
       <c r="AY69">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ69">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA69">
         <v>3</v>
@@ -15743,10 +15743,10 @@
         <v>3</v>
       </c>
       <c r="AY70">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ70">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA70">
         <v>7</v>
@@ -15949,10 +15949,10 @@
         <v>6</v>
       </c>
       <c r="AY71">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA71">
         <v>5</v>
@@ -16155,10 +16155,10 @@
         <v>7</v>
       </c>
       <c r="AY72">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ72">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA72">
         <v>6</v>
@@ -16361,10 +16361,10 @@
         <v>9</v>
       </c>
       <c r="AY73">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ73">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA73">
         <v>4</v>
@@ -16567,10 +16567,10 @@
         <v>5</v>
       </c>
       <c r="AY74">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ74">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA74">
         <v>3</v>
@@ -16773,10 +16773,10 @@
         <v>7</v>
       </c>
       <c r="AY75">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ75">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA75">
         <v>8</v>
@@ -16979,10 +16979,10 @@
         <v>8</v>
       </c>
       <c r="AY76">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ76">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA76">
         <v>3</v>
@@ -17185,10 +17185,10 @@
         <v>4</v>
       </c>
       <c r="AY77">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ77">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA77">
         <v>7</v>
@@ -17391,10 +17391,10 @@
         <v>7</v>
       </c>
       <c r="AY78">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ78">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA78">
         <v>5</v>
@@ -17597,7 +17597,7 @@
         <v>7</v>
       </c>
       <c r="AY79">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ79">
         <v>13</v>
@@ -17803,10 +17803,10 @@
         <v>2</v>
       </c>
       <c r="AY80">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ80">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA80">
         <v>0</v>
@@ -18009,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="AY81">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ81">
         <v>7</v>
@@ -18215,10 +18215,10 @@
         <v>7</v>
       </c>
       <c r="AY82">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ82">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA82">
         <v>4</v>
@@ -18424,7 +18424,7 @@
         <v>11</v>
       </c>
       <c r="AZ83">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA83">
         <v>2</v>
@@ -18630,7 +18630,7 @@
         <v>14</v>
       </c>
       <c r="AZ84">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA84">
         <v>8</v>
@@ -18833,10 +18833,10 @@
         <v>3</v>
       </c>
       <c r="AY85">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ85">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA85">
         <v>2</v>
@@ -19039,10 +19039,10 @@
         <v>2</v>
       </c>
       <c r="AY86">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ86">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA86">
         <v>2</v>
@@ -19245,10 +19245,10 @@
         <v>7</v>
       </c>
       <c r="AY87">
+        <v>19</v>
+      </c>
+      <c r="AZ87">
         <v>15</v>
-      </c>
-      <c r="AZ87">
-        <v>13</v>
       </c>
       <c r="BA87">
         <v>9</v>
@@ -19451,10 +19451,10 @@
         <v>4</v>
       </c>
       <c r="AY88">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ88">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA88">
         <v>9</v>
@@ -19657,10 +19657,10 @@
         <v>3</v>
       </c>
       <c r="AY89">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ89">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA89">
         <v>6</v>
@@ -19863,10 +19863,10 @@
         <v>3</v>
       </c>
       <c r="AY90">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AZ90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA90">
         <v>8</v>
@@ -20069,10 +20069,10 @@
         <v>6</v>
       </c>
       <c r="AY91">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ91">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA91">
         <v>7</v>
@@ -20275,10 +20275,10 @@
         <v>3</v>
       </c>
       <c r="AY92">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ92">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA92">
         <v>6</v>
@@ -20481,10 +20481,10 @@
         <v>6</v>
       </c>
       <c r="AY93">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ93">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA93">
         <v>7</v>
@@ -20893,10 +20893,10 @@
         <v>5</v>
       </c>
       <c r="AY95">
+        <v>16</v>
+      </c>
+      <c r="AZ95">
         <v>14</v>
-      </c>
-      <c r="AZ95">
-        <v>11</v>
       </c>
       <c r="BA95">
         <v>8</v>
@@ -21099,10 +21099,10 @@
         <v>12</v>
       </c>
       <c r="AY96">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ96">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA96">
         <v>1</v>
@@ -21305,10 +21305,10 @@
         <v>9</v>
       </c>
       <c r="AY97">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ97">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA97">
         <v>9</v>
@@ -21511,10 +21511,10 @@
         <v>4</v>
       </c>
       <c r="AY98">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AZ98">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA98">
         <v>9</v>
@@ -21717,10 +21717,10 @@
         <v>9</v>
       </c>
       <c r="AY99">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ99">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA99">
         <v>9</v>
@@ -21923,10 +21923,10 @@
         <v>5</v>
       </c>
       <c r="AY100">
+        <v>18</v>
+      </c>
+      <c r="AZ100">
         <v>15</v>
-      </c>
-      <c r="AZ100">
-        <v>11</v>
       </c>
       <c r="BA100">
         <v>2</v>
@@ -22129,10 +22129,10 @@
         <v>9</v>
       </c>
       <c r="AY101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ101">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA101">
         <v>1</v>
@@ -22335,10 +22335,10 @@
         <v>7</v>
       </c>
       <c r="AY102">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ102">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA102">
         <v>6</v>
@@ -22541,10 +22541,10 @@
         <v>5</v>
       </c>
       <c r="AY103">
+        <v>12</v>
+      </c>
+      <c r="AZ103">
         <v>11</v>
-      </c>
-      <c r="AZ103">
-        <v>9</v>
       </c>
       <c r="BA103">
         <v>5</v>
@@ -22747,10 +22747,10 @@
         <v>15</v>
       </c>
       <c r="AY104">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ104">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="BA104">
         <v>6</v>
@@ -22953,7 +22953,7 @@
         <v>1</v>
       </c>
       <c r="AY105">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ105">
         <v>4</v>
@@ -23159,10 +23159,10 @@
         <v>5</v>
       </c>
       <c r="AY106">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ106">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA106">
         <v>5</v>
@@ -23365,10 +23365,10 @@
         <v>7</v>
       </c>
       <c r="AY107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ107">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA107">
         <v>2</v>
@@ -23571,10 +23571,10 @@
         <v>3</v>
       </c>
       <c r="AY108">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA108">
         <v>2</v>
@@ -23777,10 +23777,10 @@
         <v>8</v>
       </c>
       <c r="AY109">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AZ109">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA109">
         <v>9</v>
@@ -23983,10 +23983,10 @@
         <v>9</v>
       </c>
       <c r="AY110">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ110">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA110">
         <v>4</v>
@@ -24189,10 +24189,10 @@
         <v>7</v>
       </c>
       <c r="AY111">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AZ111">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA111">
         <v>13</v>
@@ -24395,10 +24395,10 @@
         <v>3</v>
       </c>
       <c r="AY112">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ112">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA112">
         <v>3</v>
@@ -24601,10 +24601,10 @@
         <v>3</v>
       </c>
       <c r="AY113">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ113">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA113">
         <v>2</v>
@@ -24807,10 +24807,10 @@
         <v>8</v>
       </c>
       <c r="AY114">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ114">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA114">
         <v>3</v>
@@ -25016,7 +25016,7 @@
         <v>14</v>
       </c>
       <c r="AZ115">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA115">
         <v>4</v>
@@ -25219,10 +25219,10 @@
         <v>6</v>
       </c>
       <c r="AY116">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ116">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA116">
         <v>4</v>
@@ -25425,7 +25425,7 @@
         <v>6</v>
       </c>
       <c r="AY117">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AZ117">
         <v>10</v>
@@ -25631,10 +25631,10 @@
         <v>5</v>
       </c>
       <c r="AY118">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ118">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA118">
         <v>6</v>
@@ -25837,10 +25837,10 @@
         <v>9</v>
       </c>
       <c r="AY119">
+        <v>15</v>
+      </c>
+      <c r="AZ119">
         <v>11</v>
-      </c>
-      <c r="AZ119">
-        <v>9</v>
       </c>
       <c r="BA119">
         <v>10</v>
@@ -26043,10 +26043,10 @@
         <v>4</v>
       </c>
       <c r="AY120">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ120">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA120">
         <v>4</v>
@@ -26249,10 +26249,10 @@
         <v>3</v>
       </c>
       <c r="AY121">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ121">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA121">
         <v>8</v>
@@ -26455,10 +26455,10 @@
         <v>4</v>
       </c>
       <c r="AY122">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ122">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA122">
         <v>6</v>
@@ -26661,7 +26661,7 @@
         <v>5</v>
       </c>
       <c r="AY123">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ123">
         <v>9</v>
@@ -26867,10 +26867,10 @@
         <v>6</v>
       </c>
       <c r="AY124">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ124">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA124">
         <v>3</v>
@@ -27073,7 +27073,7 @@
         <v>5</v>
       </c>
       <c r="AY125">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ125">
         <v>10</v>
@@ -27279,10 +27279,10 @@
         <v>1</v>
       </c>
       <c r="AY126">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ126">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA126">
         <v>6</v>
@@ -27485,10 +27485,10 @@
         <v>3</v>
       </c>
       <c r="AY127">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ127">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA127">
         <v>2</v>
@@ -27691,10 +27691,10 @@
         <v>7</v>
       </c>
       <c r="AY128">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ128">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA128">
         <v>8</v>
@@ -27897,10 +27897,10 @@
         <v>6</v>
       </c>
       <c r="AY129">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ129">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA129">
         <v>13</v>
@@ -28103,10 +28103,10 @@
         <v>2</v>
       </c>
       <c r="AY130">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ130">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA130">
         <v>5</v>
@@ -28312,7 +28312,7 @@
         <v>10</v>
       </c>
       <c r="AZ131">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA131">
         <v>1</v>
@@ -28515,10 +28515,10 @@
         <v>6</v>
       </c>
       <c r="AY132">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ132">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BA132">
         <v>8</v>
@@ -28721,10 +28721,10 @@
         <v>4</v>
       </c>
       <c r="AY133">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ133">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA133">
         <v>3</v>
@@ -28927,10 +28927,10 @@
         <v>3</v>
       </c>
       <c r="AY134">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ134">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA134">
         <v>3</v>
@@ -29133,10 +29133,10 @@
         <v>10</v>
       </c>
       <c r="AY135">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ135">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA135">
         <v>1</v>
@@ -29339,10 +29339,10 @@
         <v>7</v>
       </c>
       <c r="AY136">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ136">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA136">
         <v>2</v>
@@ -29545,10 +29545,10 @@
         <v>7</v>
       </c>
       <c r="AY137">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ137">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA137">
         <v>5</v>
@@ -29751,10 +29751,10 @@
         <v>3</v>
       </c>
       <c r="AY138">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ138">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA138">
         <v>6</v>
@@ -29957,10 +29957,10 @@
         <v>6</v>
       </c>
       <c r="AY139">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ139">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA139">
         <v>5</v>
@@ -30163,10 +30163,10 @@
         <v>7</v>
       </c>
       <c r="AY140">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ140">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA140">
         <v>1</v>
@@ -30369,10 +30369,10 @@
         <v>7</v>
       </c>
       <c r="AY141">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ141">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA141">
         <v>3</v>
@@ -30575,10 +30575,10 @@
         <v>6</v>
       </c>
       <c r="AY142">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ142">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA142">
         <v>4</v>
@@ -30781,10 +30781,10 @@
         <v>3</v>
       </c>
       <c r="AY143">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ143">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA143">
         <v>6</v>
@@ -30987,10 +30987,10 @@
         <v>5</v>
       </c>
       <c r="AY144">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AZ144">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA144">
         <v>14</v>
@@ -31193,7 +31193,7 @@
         <v>5</v>
       </c>
       <c r="AY145">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ145">
         <v>8</v>
@@ -31399,10 +31399,10 @@
         <v>5</v>
       </c>
       <c r="AY146">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AZ146">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA146">
         <v>6</v>
@@ -31605,10 +31605,10 @@
         <v>4</v>
       </c>
       <c r="AY147">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ147">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA147">
         <v>6</v>
@@ -31811,10 +31811,10 @@
         <v>10</v>
       </c>
       <c r="AY148">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ148">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA148">
         <v>3</v>
@@ -32017,10 +32017,10 @@
         <v>3</v>
       </c>
       <c r="AY149">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA149">
         <v>5</v>
@@ -32223,10 +32223,10 @@
         <v>6</v>
       </c>
       <c r="AY150">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ150">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA150">
         <v>13</v>
@@ -32429,10 +32429,10 @@
         <v>3</v>
       </c>
       <c r="AY151">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ151">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA151">
         <v>9</v>
@@ -32635,7 +32635,7 @@
         <v>2</v>
       </c>
       <c r="AY152">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ152">
         <v>6</v>
@@ -32841,10 +32841,10 @@
         <v>3</v>
       </c>
       <c r="AY153">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ153">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA153">
         <v>3</v>
@@ -33047,10 +33047,10 @@
         <v>6</v>
       </c>
       <c r="AY154">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AZ154">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA154">
         <v>7</v>
@@ -33253,10 +33253,10 @@
         <v>5</v>
       </c>
       <c r="AY155">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ155">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA155">
         <v>10</v>
@@ -33459,10 +33459,10 @@
         <v>3</v>
       </c>
       <c r="AY156">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ156">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA156">
         <v>11</v>
@@ -33665,10 +33665,10 @@
         <v>8</v>
       </c>
       <c r="AY157">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ157">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA157">
         <v>2</v>
@@ -33871,10 +33871,10 @@
         <v>5</v>
       </c>
       <c r="AY158">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ158">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA158">
         <v>1</v>
@@ -34077,10 +34077,10 @@
         <v>8</v>
       </c>
       <c r="AY159">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ159">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA159">
         <v>4</v>
@@ -34286,7 +34286,7 @@
         <v>12</v>
       </c>
       <c r="AZ160">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA160">
         <v>1</v>
@@ -34489,10 +34489,10 @@
         <v>6</v>
       </c>
       <c r="AY161">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ161">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA161">
         <v>11</v>
@@ -34695,10 +34695,10 @@
         <v>1</v>
       </c>
       <c r="AY162">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ162">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA162">
         <v>5</v>
@@ -34901,10 +34901,10 @@
         <v>4</v>
       </c>
       <c r="AY163">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ163">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA163">
         <v>5</v>
@@ -35107,7 +35107,7 @@
         <v>5</v>
       </c>
       <c r="AY164">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ164">
         <v>7</v>
@@ -35313,7 +35313,7 @@
         <v>1</v>
       </c>
       <c r="AY165">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ165">
         <v>7</v>
@@ -35519,10 +35519,10 @@
         <v>5</v>
       </c>
       <c r="AY166">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ166">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA166">
         <v>4</v>
@@ -35728,7 +35728,7 @@
         <v>7</v>
       </c>
       <c r="AZ167">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA167">
         <v>5</v>
@@ -35931,10 +35931,10 @@
         <v>1</v>
       </c>
       <c r="AY168">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ168">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA168">
         <v>7</v>
@@ -36137,10 +36137,10 @@
         <v>7</v>
       </c>
       <c r="AY169">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ169">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA169">
         <v>4</v>
@@ -36343,10 +36343,10 @@
         <v>4</v>
       </c>
       <c r="AY170">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ170">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA170">
         <v>5</v>
@@ -36549,10 +36549,10 @@
         <v>1</v>
       </c>
       <c r="AY171">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ171">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA171">
         <v>5</v>
@@ -36755,10 +36755,10 @@
         <v>6</v>
       </c>
       <c r="AY172">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ172">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA172">
         <v>7</v>
@@ -36961,10 +36961,10 @@
         <v>8</v>
       </c>
       <c r="AY173">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ173">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA173">
         <v>7</v>
@@ -37167,10 +37167,10 @@
         <v>10</v>
       </c>
       <c r="AY174">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ174">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA174">
         <v>4</v>
@@ -37373,10 +37373,10 @@
         <v>4</v>
       </c>
       <c r="AY175">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AZ175">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA175">
         <v>12</v>
@@ -37579,10 +37579,10 @@
         <v>6</v>
       </c>
       <c r="AY176">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ176">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA176">
         <v>3</v>
@@ -37785,10 +37785,10 @@
         <v>2</v>
       </c>
       <c r="AY177">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ177">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA177">
         <v>6</v>
@@ -37991,10 +37991,10 @@
         <v>3</v>
       </c>
       <c r="AY178">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ178">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA178">
         <v>2</v>
@@ -38197,10 +38197,10 @@
         <v>2</v>
       </c>
       <c r="AY179">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ179">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA179">
         <v>8</v>
@@ -38406,7 +38406,7 @@
         <v>12</v>
       </c>
       <c r="AZ180">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA180">
         <v>5</v>
@@ -38609,10 +38609,10 @@
         <v>3</v>
       </c>
       <c r="AY181">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ181">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA181">
         <v>2</v>
@@ -38815,10 +38815,10 @@
         <v>7</v>
       </c>
       <c r="AY182">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ182">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA182">
         <v>8</v>
@@ -39021,10 +39021,10 @@
         <v>7</v>
       </c>
       <c r="AY183">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ183">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA183">
         <v>9</v>
@@ -39227,10 +39227,10 @@
         <v>4</v>
       </c>
       <c r="AY184">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ184">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA184">
         <v>1</v>
@@ -39433,10 +39433,10 @@
         <v>2</v>
       </c>
       <c r="AY185">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ185">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA185">
         <v>1</v>
@@ -39639,10 +39639,10 @@
         <v>1</v>
       </c>
       <c r="AY186">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ186">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA186">
         <v>5</v>
@@ -39845,7 +39845,7 @@
         <v>4</v>
       </c>
       <c r="AY187">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ187">
         <v>8</v>
@@ -40051,10 +40051,10 @@
         <v>10</v>
       </c>
       <c r="AY188">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ188">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA188">
         <v>7</v>
@@ -40257,10 +40257,10 @@
         <v>4</v>
       </c>
       <c r="AY189">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ189">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA189">
         <v>5</v>
@@ -40463,10 +40463,10 @@
         <v>5</v>
       </c>
       <c r="AY190">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ190">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA190">
         <v>7</v>
@@ -40531,10 +40531,10 @@
         <v>69</v>
       </c>
       <c r="E191" s="2">
-        <v>45558.875</v>
+        <v>45559.625</v>
       </c>
       <c r="F191">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G191" t="s">
         <v>77</v>
@@ -40657,7 +40657,7 @@
         <v>2.85</v>
       </c>
       <c r="AU191">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV191">
         <v>3</v>
@@ -40666,13 +40666,13 @@
         <v>3</v>
       </c>
       <c r="AX191">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY191">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ191">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA191">
         <v>3</v>
@@ -40728,7 +40728,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>7321809</v>
+        <v>7321807</v>
       </c>
       <c r="C192" t="s">
         <v>68</v>
@@ -40737,49 +40737,49 @@
         <v>69</v>
       </c>
       <c r="E192" s="2">
-        <v>45558.875</v>
+        <v>45559.72916666666</v>
       </c>
       <c r="F192">
         <v>25</v>
       </c>
       <c r="G192" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H192" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I192">
         <v>0</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192" t="s">
+        <v>86</v>
+      </c>
+      <c r="P192" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q192">
         <v>4</v>
       </c>
-      <c r="O192" t="s">
-        <v>222</v>
-      </c>
-      <c r="P192" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q192">
-        <v>3.1</v>
-      </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S192">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="T192">
         <v>1.44</v>
@@ -40788,10 +40788,10 @@
         <v>2.63</v>
       </c>
       <c r="V192">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W192">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X192">
         <v>9</v>
@@ -40800,31 +40800,31 @@
         <v>1.07</v>
       </c>
       <c r="Z192">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="AA192">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AB192">
-        <v>2.95</v>
+        <v>2.05</v>
       </c>
       <c r="AC192">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD192">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AE192">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AF192">
-        <v>3.3</v>
+        <v>2.97</v>
       </c>
       <c r="AG192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH192">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AI192">
         <v>1.83</v>
@@ -40833,100 +40833,100 @@
         <v>1.83</v>
       </c>
       <c r="AK192">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AL192">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM192">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AN192">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="AO192">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="AP192">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
       <c r="AQ192">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AR192">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="AS192">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT192">
-        <v>2.76</v>
+        <v>3.16</v>
       </c>
       <c r="AU192">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV192">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW192">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AX192">
         <v>5</v>
       </c>
       <c r="AY192">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AZ192">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA192">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB192">
         <v>0</v>
       </c>
       <c r="BC192">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BD192">
-        <v>1.53</v>
+        <v>2.13</v>
       </c>
       <c r="BE192">
-        <v>7.1</v>
+        <v>6.25</v>
       </c>
       <c r="BF192">
-        <v>3.22</v>
+        <v>2.1</v>
       </c>
       <c r="BG192">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="BH192">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="BI192">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="BJ192">
-        <v>2.94</v>
+        <v>2.25</v>
       </c>
       <c r="BK192">
-        <v>1.54</v>
+        <v>1.98</v>
       </c>
       <c r="BL192">
-        <v>2.19</v>
+        <v>1.82</v>
       </c>
       <c r="BM192">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="BN192">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="BO192">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="BP192">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="193" spans="1:68">
@@ -40943,7 +40943,7 @@
         <v>69</v>
       </c>
       <c r="E193" s="2">
-        <v>45558.875</v>
+        <v>45559.83333333334</v>
       </c>
       <c r="F193">
         <v>25</v>
@@ -40973,7 +40973,7 @@
         <v>3</v>
       </c>
       <c r="O193" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P193" t="s">
         <v>235</v>
@@ -41069,10 +41069,10 @@
         <v>3.1</v>
       </c>
       <c r="AU193">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW193">
         <v>11</v>
@@ -41081,10 +41081,10 @@
         <v>1</v>
       </c>
       <c r="AY193">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA193">
         <v>7</v>
@@ -41140,7 +41140,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7321807</v>
+        <v>7321809</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41149,49 +41149,49 @@
         <v>69</v>
       </c>
       <c r="E194" s="2">
-        <v>45558.875</v>
+        <v>45559.83333333334</v>
       </c>
       <c r="F194">
         <v>25</v>
       </c>
       <c r="G194" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H194" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O194" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="P194" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="Q194">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R194">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S194">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="T194">
         <v>1.44</v>
@@ -41200,10 +41200,10 @@
         <v>2.63</v>
       </c>
       <c r="V194">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W194">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X194">
         <v>9</v>
@@ -41212,31 +41212,31 @@
         <v>1.07</v>
       </c>
       <c r="Z194">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="AA194">
+        <v>3</v>
+      </c>
+      <c r="AB194">
+        <v>2.95</v>
+      </c>
+      <c r="AC194">
+        <v>1.03</v>
+      </c>
+      <c r="AD194">
+        <v>9</v>
+      </c>
+      <c r="AE194">
+        <v>1.29</v>
+      </c>
+      <c r="AF194">
         <v>3.3</v>
       </c>
-      <c r="AB194">
-        <v>2.05</v>
-      </c>
-      <c r="AC194">
-        <v>1.01</v>
-      </c>
-      <c r="AD194">
-        <v>7.9</v>
-      </c>
-      <c r="AE194">
-        <v>1.28</v>
-      </c>
-      <c r="AF194">
-        <v>2.97</v>
-      </c>
       <c r="AG194">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH194">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AI194">
         <v>1.83</v>
@@ -41245,100 +41245,100 @@
         <v>1.83</v>
       </c>
       <c r="AK194">
-        <v>1.72</v>
+        <v>1.38</v>
       </c>
       <c r="AL194">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM194">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AN194">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="AO194">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="AP194">
-        <v>1.31</v>
+        <v>1.77</v>
       </c>
       <c r="AQ194">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AR194">
-        <v>1.84</v>
+        <v>1.41</v>
       </c>
       <c r="AS194">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT194">
-        <v>3.16</v>
+        <v>2.76</v>
       </c>
       <c r="AU194">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV194">
         <v>4</v>
       </c>
       <c r="AW194">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AX194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY194">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ194">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA194">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB194">
         <v>0</v>
       </c>
       <c r="BC194">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BD194">
-        <v>2.13</v>
+        <v>1.53</v>
       </c>
       <c r="BE194">
-        <v>6.25</v>
+        <v>7.1</v>
       </c>
       <c r="BF194">
-        <v>2.1</v>
+        <v>3.22</v>
       </c>
       <c r="BG194">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="BH194">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="BI194">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="BJ194">
-        <v>2.25</v>
+        <v>2.94</v>
       </c>
       <c r="BK194">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="BL194">
-        <v>1.82</v>
+        <v>2.19</v>
       </c>
       <c r="BM194">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="BN194">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="BO194">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="BP194">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41346,7 +41346,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7321806</v>
+        <v>7321808</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41355,49 +41355,49 @@
         <v>69</v>
       </c>
       <c r="E195" s="2">
-        <v>45559.875</v>
+        <v>45560.625</v>
       </c>
       <c r="F195">
         <v>25</v>
       </c>
       <c r="G195" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H195" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M195">
         <v>1</v>
       </c>
       <c r="N195">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O195" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="P195" t="s">
-        <v>308</v>
+        <v>135</v>
       </c>
       <c r="Q195">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="R195">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S195">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T195">
         <v>1.33</v>
@@ -41406,10 +41406,10 @@
         <v>3.25</v>
       </c>
       <c r="V195">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W195">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X195">
         <v>6.5</v>
@@ -41418,103 +41418,103 @@
         <v>1.11</v>
       </c>
       <c r="Z195">
+        <v>2.1</v>
+      </c>
+      <c r="AA195">
+        <v>3.2</v>
+      </c>
+      <c r="AB195">
+        <v>3.3</v>
+      </c>
+      <c r="AC195">
+        <v>1.04</v>
+      </c>
+      <c r="AD195">
+        <v>13</v>
+      </c>
+      <c r="AE195">
+        <v>1.18</v>
+      </c>
+      <c r="AF195">
+        <v>3.66</v>
+      </c>
+      <c r="AG195">
+        <v>1.64</v>
+      </c>
+      <c r="AH195">
+        <v>2.15</v>
+      </c>
+      <c r="AI195">
         <v>1.62</v>
       </c>
-      <c r="AA195">
-        <v>4</v>
-      </c>
-      <c r="AB195">
-        <v>4.25</v>
-      </c>
-      <c r="AC195">
-        <v>1.02</v>
-      </c>
-      <c r="AD195">
-        <v>17</v>
-      </c>
-      <c r="AE195">
-        <v>1.16</v>
-      </c>
-      <c r="AF195">
-        <v>3.88</v>
-      </c>
-      <c r="AG195">
-        <v>1.66</v>
-      </c>
-      <c r="AH195">
-        <v>2.12</v>
-      </c>
-      <c r="AI195">
-        <v>1.73</v>
-      </c>
       <c r="AJ195">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK195">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AL195">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM195">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="AN195">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AO195">
-        <v>0.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP195">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="AQ195">
-        <v>0.31</v>
+        <v>1.31</v>
       </c>
       <c r="AR195">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AS195">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="AT195">
-        <v>2.6</v>
+        <v>2.99</v>
       </c>
       <c r="AU195">
+        <v>6</v>
+      </c>
+      <c r="AV195">
         <v>5</v>
       </c>
-      <c r="AV195">
-        <v>3</v>
-      </c>
       <c r="AW195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX195">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY195">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ195">
+        <v>14</v>
+      </c>
+      <c r="BA195">
+        <v>8</v>
+      </c>
+      <c r="BB195">
         <v>6</v>
       </c>
-      <c r="BA195">
-        <v>4</v>
-      </c>
-      <c r="BB195">
-        <v>2</v>
-      </c>
       <c r="BC195">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD195">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="BE195">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF195">
-        <v>2.54</v>
+        <v>2.89</v>
       </c>
       <c r="BG195">
         <v>1.25</v>
@@ -41529,16 +41529,16 @@
         <v>2.62</v>
       </c>
       <c r="BK195">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="BL195">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BM195">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="BN195">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="BO195">
         <v>2.62</v>
@@ -41552,7 +41552,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>7321808</v>
+        <v>7321811</v>
       </c>
       <c r="C196" t="s">
         <v>68</v>
@@ -41561,16 +41561,16 @@
         <v>69</v>
       </c>
       <c r="E196" s="2">
-        <v>45559.875</v>
+        <v>45560.75</v>
       </c>
       <c r="F196">
         <v>25</v>
       </c>
       <c r="G196" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H196" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I196">
         <v>0</v>
@@ -41594,163 +41594,163 @@
         <v>86</v>
       </c>
       <c r="P196" t="s">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="Q196">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R196">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S196">
         <v>3.75</v>
       </c>
       <c r="T196">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U196">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V196">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W196">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X196">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y196">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z196">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AA196">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB196">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="AC196">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD196">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE196">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF196">
-        <v>3.66</v>
+        <v>4.1</v>
       </c>
       <c r="AG196">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AH196">
         <v>2.15</v>
       </c>
       <c r="AI196">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AJ196">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AK196">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AL196">
         <v>1.25</v>
       </c>
       <c r="AM196">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AN196">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="AO196">
         <v>1.17</v>
       </c>
       <c r="AP196">
-        <v>1.46</v>
+        <v>1.85</v>
       </c>
       <c r="AQ196">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR196">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AS196">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AT196">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="AU196">
+        <v>2</v>
+      </c>
+      <c r="AV196">
         <v>5</v>
       </c>
-      <c r="AV196">
-        <v>4</v>
-      </c>
       <c r="AW196">
+        <v>9</v>
+      </c>
+      <c r="AX196">
         <v>3</v>
       </c>
-      <c r="AX196">
-        <v>4</v>
-      </c>
       <c r="AY196">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ196">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA196">
         <v>8</v>
       </c>
       <c r="BB196">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC196">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD196">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="BE196">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF196">
-        <v>2.89</v>
+        <v>2.28</v>
       </c>
       <c r="BG196">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BH196">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="BI196">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="BJ196">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="BK196">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="BL196">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="BM196">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="BN196">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="BO196">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="BP196">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="197" spans="1:68">
@@ -41758,7 +41758,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7321811</v>
+        <v>7321806</v>
       </c>
       <c r="C197" t="s">
         <v>68</v>
@@ -41767,196 +41767,196 @@
         <v>69</v>
       </c>
       <c r="E197" s="2">
-        <v>45559.875</v>
+        <v>45560.85416666666</v>
       </c>
       <c r="F197">
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H197" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L197">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M197">
         <v>1</v>
       </c>
       <c r="N197">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O197" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="Q197">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R197">
         <v>2.38</v>
       </c>
       <c r="S197">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T197">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U197">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V197">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W197">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X197">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y197">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z197">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AA197">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AB197">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="AC197">
         <v>1.02</v>
       </c>
       <c r="AD197">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE197">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AF197">
-        <v>4.1</v>
+        <v>3.88</v>
       </c>
       <c r="AG197">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="AH197">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AI197">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AJ197">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="AK197">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AL197">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM197">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="AN197">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AO197">
-        <v>1.17</v>
+        <v>0.33</v>
       </c>
       <c r="AP197">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="AQ197">
-        <v>1.21</v>
+        <v>0.31</v>
       </c>
       <c r="AR197">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AS197">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="AT197">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="AU197">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV197">
         <v>4</v>
       </c>
       <c r="AW197">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX197">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY197">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AZ197">
         <v>8</v>
       </c>
       <c r="BA197">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB197">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC197">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="BD197">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="BE197">
         <v>8</v>
       </c>
       <c r="BF197">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="BG197">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BH197">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI197">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="BJ197">
-        <v>2.9</v>
+        <v>2.62</v>
       </c>
       <c r="BK197">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="BL197">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BM197">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="BN197">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="BO197">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="BP197">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="198" spans="1:68">
@@ -41973,10 +41973,10 @@
         <v>69</v>
       </c>
       <c r="E198" s="2">
-        <v>45562.875</v>
+        <v>45563.72916666666</v>
       </c>
       <c r="F198">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G198" t="s">
         <v>85</v>
@@ -42105,16 +42105,16 @@
         <v>0</v>
       </c>
       <c r="AW198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY198">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ198">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA198">
         <v>9</v>
@@ -42179,7 +42179,7 @@
         <v>69</v>
       </c>
       <c r="E199" s="2">
-        <v>45562.875</v>
+        <v>45563.83333333334</v>
       </c>
       <c r="F199">
         <v>26</v>
@@ -42305,7 +42305,7 @@
         <v>3.06</v>
       </c>
       <c r="AU199">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV199">
         <v>5</v>
@@ -42317,7 +42317,7 @@
         <v>4</v>
       </c>
       <c r="AY199">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ199">
         <v>9</v>
@@ -42376,7 +42376,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>7321814</v>
+        <v>7321819</v>
       </c>
       <c r="C200" t="s">
         <v>68</v>
@@ -42385,16 +42385,16 @@
         <v>69</v>
       </c>
       <c r="E200" s="2">
-        <v>45563.875</v>
+        <v>45564.52083333334</v>
       </c>
       <c r="F200">
         <v>26</v>
       </c>
       <c r="G200" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H200" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -42409,10 +42409,10 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O200" t="s">
         <v>86</v>
@@ -42421,13 +42421,13 @@
         <v>329</v>
       </c>
       <c r="Q200">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="R200">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S200">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="T200">
         <v>1.36</v>
@@ -42442,139 +42442,139 @@
         <v>1.4</v>
       </c>
       <c r="X200">
+        <v>8</v>
+      </c>
+      <c r="Y200">
+        <v>1.08</v>
+      </c>
+      <c r="Z200">
+        <v>1.55</v>
+      </c>
+      <c r="AA200">
+        <v>3.75</v>
+      </c>
+      <c r="AB200">
+        <v>4.8</v>
+      </c>
+      <c r="AC200">
+        <v>1.02</v>
+      </c>
+      <c r="AD200">
+        <v>10</v>
+      </c>
+      <c r="AE200">
+        <v>1.25</v>
+      </c>
+      <c r="AF200">
+        <v>3.6</v>
+      </c>
+      <c r="AG200">
+        <v>1.8</v>
+      </c>
+      <c r="AH200">
+        <v>1.85</v>
+      </c>
+      <c r="AI200">
+        <v>1.91</v>
+      </c>
+      <c r="AJ200">
+        <v>1.8</v>
+      </c>
+      <c r="AK200">
+        <v>1.13</v>
+      </c>
+      <c r="AL200">
+        <v>1.23</v>
+      </c>
+      <c r="AM200">
+        <v>2.3</v>
+      </c>
+      <c r="AN200">
+        <v>1.58</v>
+      </c>
+      <c r="AO200">
+        <v>0.91</v>
+      </c>
+      <c r="AP200">
+        <v>1.46</v>
+      </c>
+      <c r="AQ200">
+        <v>1.08</v>
+      </c>
+      <c r="AR200">
+        <v>1.6</v>
+      </c>
+      <c r="AS200">
+        <v>1.3</v>
+      </c>
+      <c r="AT200">
+        <v>2.9</v>
+      </c>
+      <c r="AU200">
+        <v>2</v>
+      </c>
+      <c r="AV200">
+        <v>3</v>
+      </c>
+      <c r="AW200">
+        <v>6</v>
+      </c>
+      <c r="AX200">
         <v>7</v>
       </c>
-      <c r="Y200">
-        <v>1.1</v>
-      </c>
-      <c r="Z200">
-        <v>1.75</v>
-      </c>
-      <c r="AA200">
-        <v>3.3</v>
-      </c>
-      <c r="AB200">
-        <v>4</v>
-      </c>
-      <c r="AC200">
-        <v>1.01</v>
-      </c>
-      <c r="AD200">
-        <v>11</v>
-      </c>
-      <c r="AE200">
-        <v>1.22</v>
-      </c>
-      <c r="AF200">
-        <v>3.8</v>
-      </c>
-      <c r="AG200">
-        <v>1.83</v>
-      </c>
-      <c r="AH200">
-        <v>1.83</v>
-      </c>
-      <c r="AI200">
-        <v>1.73</v>
-      </c>
-      <c r="AJ200">
-        <v>2</v>
-      </c>
-      <c r="AK200">
-        <v>1.26</v>
-      </c>
-      <c r="AL200">
-        <v>1.27</v>
-      </c>
-      <c r="AM200">
-        <v>1.8</v>
-      </c>
-      <c r="AN200">
-        <v>1.75</v>
-      </c>
-      <c r="AO200">
-        <v>1</v>
-      </c>
-      <c r="AP200">
-        <v>1.62</v>
-      </c>
-      <c r="AQ200">
-        <v>1.15</v>
-      </c>
-      <c r="AR200">
-        <v>1.5</v>
-      </c>
-      <c r="AS200">
-        <v>1.5</v>
-      </c>
-      <c r="AT200">
-        <v>3</v>
-      </c>
-      <c r="AU200">
-        <v>7</v>
-      </c>
-      <c r="AV200">
-        <v>7</v>
-      </c>
-      <c r="AW200">
-        <v>1</v>
-      </c>
-      <c r="AX200">
-        <v>4</v>
-      </c>
       <c r="AY200">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ200">
         <v>11</v>
       </c>
       <c r="BA200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB200">
+        <v>2</v>
+      </c>
+      <c r="BC200">
+        <v>7</v>
+      </c>
+      <c r="BD200">
+        <v>1.37</v>
+      </c>
+      <c r="BE200">
+        <v>9</v>
+      </c>
+      <c r="BF200">
+        <v>3.83</v>
+      </c>
+      <c r="BG200">
+        <v>1.33</v>
+      </c>
+      <c r="BH200">
         <v>3</v>
       </c>
-      <c r="BC200">
-        <v>5</v>
-      </c>
-      <c r="BD200">
-        <v>1.59</v>
-      </c>
-      <c r="BE200">
-        <v>8.5</v>
-      </c>
-      <c r="BF200">
-        <v>2.78</v>
-      </c>
-      <c r="BG200">
-        <v>1.23</v>
-      </c>
-      <c r="BH200">
-        <v>4.19</v>
-      </c>
       <c r="BI200">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="BJ200">
-        <v>2.77</v>
+        <v>2.41</v>
       </c>
       <c r="BK200">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="BL200">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="BM200">
-        <v>2.13</v>
+        <v>2.46</v>
       </c>
       <c r="BN200">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="BO200">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="BP200">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="201" spans="1:68">
@@ -42591,7 +42591,7 @@
         <v>69</v>
       </c>
       <c r="E201" s="2">
-        <v>45563.875</v>
+        <v>45564.625</v>
       </c>
       <c r="F201">
         <v>26</v>
@@ -42717,22 +42717,22 @@
         <v>2.91</v>
       </c>
       <c r="AU201">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW201">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AX201">
         <v>8</v>
       </c>
       <c r="AY201">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AZ201">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA201">
         <v>3</v>
@@ -42788,7 +42788,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>7321819</v>
+        <v>7321815</v>
       </c>
       <c r="C202" t="s">
         <v>68</v>
@@ -42797,82 +42797,82 @@
         <v>69</v>
       </c>
       <c r="E202" s="2">
-        <v>45563.875</v>
+        <v>45564.72916666666</v>
       </c>
       <c r="F202">
         <v>26</v>
       </c>
       <c r="G202" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H202" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202">
         <v>0</v>
       </c>
       <c r="K202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O202" t="s">
+        <v>228</v>
+      </c>
+      <c r="P202" t="s">
         <v>86</v>
       </c>
-      <c r="P202" t="s">
-        <v>330</v>
-      </c>
       <c r="Q202">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="R202">
         <v>2.25</v>
       </c>
       <c r="S202">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="T202">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U202">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V202">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W202">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X202">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y202">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z202">
-        <v>1.55</v>
+        <v>3.2</v>
       </c>
       <c r="AA202">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="AB202">
-        <v>4.8</v>
+        <v>2.05</v>
       </c>
       <c r="AC202">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD202">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE202">
         <v>1.25</v>
@@ -42881,52 +42881,52 @@
         <v>3.6</v>
       </c>
       <c r="AG202">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AH202">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="AI202">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="AJ202">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AK202">
-        <v>1.13</v>
+        <v>1.73</v>
       </c>
       <c r="AL202">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="AM202">
-        <v>2.3</v>
+        <v>1.31</v>
       </c>
       <c r="AN202">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="AO202">
-        <v>0.91</v>
+        <v>2.42</v>
       </c>
       <c r="AP202">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="AQ202">
-        <v>1.08</v>
+        <v>2.23</v>
       </c>
       <c r="AR202">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AS202">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="AT202">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AU202">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW202">
         <v>5</v>
@@ -42935,58 +42935,58 @@
         <v>6</v>
       </c>
       <c r="AY202">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ202">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA202">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB202">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC202">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD202">
-        <v>1.37</v>
+        <v>2.44</v>
       </c>
       <c r="BE202">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF202">
-        <v>3.83</v>
+        <v>1.75</v>
       </c>
       <c r="BG202">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BH202">
+        <v>3.3</v>
+      </c>
+      <c r="BI202">
+        <v>1.4</v>
+      </c>
+      <c r="BJ202">
+        <v>2.75</v>
+      </c>
+      <c r="BK202">
+        <v>1.95</v>
+      </c>
+      <c r="BL202">
+        <v>1.77</v>
+      </c>
+      <c r="BM202">
+        <v>2.23</v>
+      </c>
+      <c r="BN202">
+        <v>1.64</v>
+      </c>
+      <c r="BO202">
         <v>3</v>
       </c>
-      <c r="BI202">
-        <v>1.55</v>
-      </c>
-      <c r="BJ202">
-        <v>2.41</v>
-      </c>
-      <c r="BK202">
-        <v>1.91</v>
-      </c>
-      <c r="BL202">
-        <v>1.8</v>
-      </c>
-      <c r="BM202">
-        <v>2.46</v>
-      </c>
-      <c r="BN202">
-        <v>1.53</v>
-      </c>
-      <c r="BO202">
-        <v>3.2</v>
-      </c>
       <c r="BP202">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="203" spans="1:68">
@@ -42994,7 +42994,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>7321815</v>
+        <v>7321814</v>
       </c>
       <c r="C203" t="s">
         <v>68</v>
@@ -43003,196 +43003,196 @@
         <v>69</v>
       </c>
       <c r="E203" s="2">
-        <v>45563.875</v>
+        <v>45564.83333333334</v>
       </c>
       <c r="F203">
         <v>26</v>
       </c>
       <c r="G203" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H203" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203">
         <v>0</v>
       </c>
       <c r="K203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>2</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>86</v>
+      </c>
+      <c r="P203" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q203">
+        <v>2.5</v>
+      </c>
+      <c r="R203">
+        <v>2.2</v>
+      </c>
+      <c r="S203">
+        <v>4.33</v>
+      </c>
+      <c r="T203">
+        <v>1.36</v>
+      </c>
+      <c r="U203">
         <v>3</v>
       </c>
-      <c r="M203">
-        <v>0</v>
-      </c>
-      <c r="N203">
-        <v>3</v>
-      </c>
-      <c r="O203" t="s">
-        <v>228</v>
-      </c>
-      <c r="P203" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q203">
-        <v>3.75</v>
-      </c>
-      <c r="R203">
-        <v>2.25</v>
-      </c>
-      <c r="S203">
+      <c r="V203">
         <v>2.75</v>
       </c>
-      <c r="T203">
-        <v>1.33</v>
-      </c>
-      <c r="U203">
-        <v>3.25</v>
-      </c>
-      <c r="V203">
-        <v>2.63</v>
-      </c>
       <c r="W203">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X203">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y203">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z203">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="AA203">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB203">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="AC203">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD203">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE203">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF203">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AG203">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AH203">
+        <v>1.83</v>
+      </c>
+      <c r="AI203">
         <v>1.73</v>
       </c>
-      <c r="AI203">
-        <v>1.62</v>
-      </c>
       <c r="AJ203">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK203">
-        <v>1.73</v>
+        <v>1.26</v>
       </c>
       <c r="AL203">
         <v>1.27</v>
       </c>
       <c r="AM203">
-        <v>1.31</v>
+        <v>1.8</v>
       </c>
       <c r="AN203">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="AO203">
-        <v>2.42</v>
+        <v>1</v>
       </c>
       <c r="AP203">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AQ203">
-        <v>2.23</v>
+        <v>1.15</v>
       </c>
       <c r="AR203">
+        <v>1.53</v>
+      </c>
+      <c r="AS203">
+        <v>1.5</v>
+      </c>
+      <c r="AT203">
+        <v>3.03</v>
+      </c>
+      <c r="AU203">
+        <v>5</v>
+      </c>
+      <c r="AV203">
+        <v>9</v>
+      </c>
+      <c r="AW203">
+        <v>3</v>
+      </c>
+      <c r="AX203">
+        <v>4</v>
+      </c>
+      <c r="AY203">
+        <v>12</v>
+      </c>
+      <c r="AZ203">
+        <v>14</v>
+      </c>
+      <c r="BA203">
+        <v>2</v>
+      </c>
+      <c r="BB203">
+        <v>3</v>
+      </c>
+      <c r="BC203">
+        <v>5</v>
+      </c>
+      <c r="BD203">
+        <v>1.59</v>
+      </c>
+      <c r="BE203">
+        <v>8.5</v>
+      </c>
+      <c r="BF203">
+        <v>2.78</v>
+      </c>
+      <c r="BG203">
+        <v>1.23</v>
+      </c>
+      <c r="BH203">
+        <v>4.19</v>
+      </c>
+      <c r="BI203">
+        <v>1.39</v>
+      </c>
+      <c r="BJ203">
+        <v>2.77</v>
+      </c>
+      <c r="BK203">
+        <v>1.7</v>
+      </c>
+      <c r="BL203">
+        <v>2.05</v>
+      </c>
+      <c r="BM203">
+        <v>2.13</v>
+      </c>
+      <c r="BN203">
         <v>1.69</v>
       </c>
-      <c r="AS203">
-        <v>1.71</v>
-      </c>
-      <c r="AT203">
-        <v>3.4</v>
-      </c>
-      <c r="AU203">
-        <v>0</v>
-      </c>
-      <c r="AV203">
-        <v>4</v>
-      </c>
-      <c r="AW203">
-        <v>6</v>
-      </c>
-      <c r="AX203">
-        <v>6</v>
-      </c>
-      <c r="AY203">
-        <v>6</v>
-      </c>
-      <c r="AZ203">
-        <v>10</v>
-      </c>
-      <c r="BA203">
-        <v>2</v>
-      </c>
-      <c r="BB203">
-        <v>6</v>
-      </c>
-      <c r="BC203">
-        <v>8</v>
-      </c>
-      <c r="BD203">
-        <v>2.44</v>
-      </c>
-      <c r="BE203">
-        <v>8</v>
-      </c>
-      <c r="BF203">
-        <v>1.75</v>
-      </c>
-      <c r="BG203">
-        <v>1.28</v>
-      </c>
-      <c r="BH203">
-        <v>3.3</v>
-      </c>
-      <c r="BI203">
-        <v>1.4</v>
-      </c>
-      <c r="BJ203">
-        <v>2.75</v>
-      </c>
-      <c r="BK203">
-        <v>1.95</v>
-      </c>
-      <c r="BL203">
-        <v>1.77</v>
-      </c>
-      <c r="BM203">
-        <v>2.23</v>
-      </c>
-      <c r="BN203">
-        <v>1.64</v>
-      </c>
       <c r="BO203">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BP203">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="204" spans="1:68">
@@ -43200,7 +43200,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>7321818</v>
+        <v>7321820</v>
       </c>
       <c r="C204" t="s">
         <v>68</v>
@@ -43209,16 +43209,16 @@
         <v>69</v>
       </c>
       <c r="E204" s="2">
-        <v>45564.875</v>
+        <v>45565.75</v>
       </c>
       <c r="F204">
         <v>26</v>
       </c>
       <c r="G204" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H204" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -43230,145 +43230,145 @@
         <v>1</v>
       </c>
       <c r="L204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N204">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O204" t="s">
         <v>229</v>
       </c>
       <c r="P204" t="s">
-        <v>86</v>
+        <v>331</v>
       </c>
       <c r="Q204">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R204">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S204">
         <v>3.6</v>
       </c>
       <c r="T204">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U204">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V204">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W204">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X204">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y204">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z204">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="AA204">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB204">
         <v>2.87</v>
       </c>
       <c r="AC204">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD204">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AE204">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AF204">
-        <v>3.6</v>
+        <v>2.78</v>
       </c>
       <c r="AG204">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="AH204">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="AI204">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AJ204">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AK204">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AL204">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AM204">
         <v>1.53</v>
       </c>
       <c r="AN204">
-        <v>0.92</v>
+        <v>1.42</v>
       </c>
       <c r="AO204">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AP204">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="AQ204">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AR204">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="AS204">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="AT204">
-        <v>2.69</v>
+        <v>2.81</v>
       </c>
       <c r="AU204">
+        <v>7</v>
+      </c>
+      <c r="AV204">
         <v>5</v>
       </c>
-      <c r="AV204">
-        <v>7</v>
-      </c>
       <c r="AW204">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX204">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY204">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ204">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA204">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB204">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BC204">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD204">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="BE204">
         <v>8</v>
       </c>
       <c r="BF204">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="BG204">
         <v>1.25</v>
@@ -43383,16 +43383,16 @@
         <v>2.62</v>
       </c>
       <c r="BK204">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="BL204">
-        <v>1.91</v>
+        <v>2.11</v>
       </c>
       <c r="BM204">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="BN204">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="BO204">
         <v>2.62</v>
@@ -43406,7 +43406,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>7321820</v>
+        <v>7321818</v>
       </c>
       <c r="C205" t="s">
         <v>68</v>
@@ -43415,16 +43415,16 @@
         <v>69</v>
       </c>
       <c r="E205" s="2">
-        <v>45564.875</v>
+        <v>45565.85416666666</v>
       </c>
       <c r="F205">
         <v>26</v>
       </c>
       <c r="G205" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H205" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -43436,145 +43436,145 @@
         <v>1</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N205">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O205" t="s">
         <v>230</v>
       </c>
       <c r="P205" t="s">
-        <v>331</v>
+        <v>86</v>
       </c>
       <c r="Q205">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S205">
         <v>3.6</v>
       </c>
       <c r="T205">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U205">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V205">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W205">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X205">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y205">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z205">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AA205">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB205">
         <v>2.87</v>
       </c>
       <c r="AC205">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD205">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AE205">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AF205">
-        <v>2.78</v>
+        <v>3.6</v>
       </c>
       <c r="AG205">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="AH205">
-        <v>1.65</v>
+        <v>1.84</v>
       </c>
       <c r="AI205">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AJ205">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AK205">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AL205">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AM205">
         <v>1.53</v>
       </c>
       <c r="AN205">
-        <v>1.42</v>
+        <v>0.92</v>
       </c>
       <c r="AO205">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AP205">
-        <v>1.54</v>
+        <v>1.08</v>
       </c>
       <c r="AQ205">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AR205">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="AS205">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="AT205">
-        <v>2.81</v>
+        <v>2.68</v>
       </c>
       <c r="AU205">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV205">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW205">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX205">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY205">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AZ205">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB205">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BC205">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD205">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="BE205">
         <v>8</v>
       </c>
       <c r="BF205">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="BG205">
         <v>1.25</v>
@@ -43589,16 +43589,16 @@
         <v>2.62</v>
       </c>
       <c r="BK205">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="BL205">
-        <v>2.11</v>
+        <v>1.91</v>
       </c>
       <c r="BM205">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="BN205">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="BO205">
         <v>2.62</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,9 @@
     <t>['23', '90+2']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -1371,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP205"/>
+  <dimension ref="A1:BP206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1836,7 +1839,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2042,7 +2045,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2248,7 +2251,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2454,7 +2457,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2660,7 +2663,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2866,7 +2869,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3484,7 +3487,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3690,7 +3693,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -4102,7 +4105,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4514,7 +4517,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4595,7 +4598,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR16">
         <v>1.44</v>
@@ -4720,7 +4723,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5132,7 +5135,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5416,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -5544,7 +5547,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5750,7 +5753,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5956,7 +5959,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6574,7 +6577,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6780,7 +6783,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6858,7 +6861,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ27">
         <v>2.23</v>
@@ -7192,7 +7195,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7398,7 +7401,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7810,7 +7813,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -9333,7 +9336,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -9664,7 +9667,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9870,7 +9873,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10076,7 +10079,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10282,7 +10285,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10569,7 +10572,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10694,7 +10697,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10772,7 +10775,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
@@ -11106,7 +11109,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11312,7 +11315,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12342,7 +12345,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12548,7 +12551,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12754,7 +12757,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12960,7 +12963,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13166,7 +13169,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13247,7 +13250,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR58">
         <v>1.99</v>
@@ -13784,7 +13787,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13990,7 +13993,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14402,7 +14405,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14480,7 +14483,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ64">
         <v>0.54</v>
@@ -14814,7 +14817,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -15020,7 +15023,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15226,7 +15229,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15844,7 +15847,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16050,7 +16053,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16256,7 +16259,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16462,7 +16465,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16668,7 +16671,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16749,7 +16752,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ75">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -17080,7 +17083,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17286,7 +17289,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17570,7 +17573,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ79">
         <v>1.08</v>
@@ -18110,7 +18113,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18522,7 +18525,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18728,7 +18731,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18809,7 +18812,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ85">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -19140,7 +19143,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19346,7 +19349,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19552,7 +19555,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19758,7 +19761,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19964,7 +19967,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20170,7 +20173,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20582,7 +20585,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20788,7 +20791,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20994,7 +20997,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21406,7 +21409,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21612,7 +21615,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21693,7 +21696,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR99">
         <v>1.41</v>
@@ -21818,7 +21821,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22102,7 +22105,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ101">
         <v>1.14</v>
@@ -22230,7 +22233,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22436,7 +22439,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22848,7 +22851,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23260,7 +23263,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23466,7 +23469,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23672,7 +23675,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23878,7 +23881,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24290,7 +24293,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24496,7 +24499,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24702,7 +24705,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24908,7 +24911,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25114,7 +25117,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25320,7 +25323,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25398,7 +25401,7 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ117">
         <v>0.31</v>
@@ -25607,7 +25610,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ118">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR118">
         <v>1.41</v>
@@ -25938,7 +25941,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26350,7 +26353,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -27174,7 +27177,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27380,7 +27383,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27586,7 +27589,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27792,7 +27795,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27870,7 +27873,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ129">
         <v>1.15</v>
@@ -27998,7 +28001,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28616,7 +28619,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28694,7 +28697,7 @@
         <v>1.43</v>
       </c>
       <c r="AP133">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ133">
         <v>1.21</v>
@@ -28822,7 +28825,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28903,7 +28906,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ134">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR134">
         <v>1.61</v>
@@ -29234,7 +29237,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29440,7 +29443,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29646,7 +29649,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29852,7 +29855,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -30058,7 +30061,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30676,7 +30679,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -32118,7 +32121,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32611,7 +32614,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ152">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR152">
         <v>1.73</v>
@@ -32814,7 +32817,7 @@
         <v>1.56</v>
       </c>
       <c r="AP153">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ153">
         <v>1.15</v>
@@ -33148,7 +33151,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33354,7 +33357,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33560,7 +33563,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33972,7 +33975,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34259,7 +34262,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ160">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR160">
         <v>1.42</v>
@@ -34590,7 +34593,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -35208,7 +35211,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35620,7 +35623,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -36731,7 +36734,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ172">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AR172">
         <v>1.72</v>
@@ -36856,7 +36859,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37062,7 +37065,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37268,7 +37271,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37346,7 +37349,7 @@
         <v>1.1</v>
       </c>
       <c r="AP175">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ175">
         <v>1.15</v>
@@ -37474,7 +37477,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37680,7 +37683,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37886,7 +37889,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38092,7 +38095,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38710,7 +38713,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -39534,7 +39537,7 @@
         <v>216</v>
       </c>
       <c r="P186" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39946,7 +39949,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40770,7 +40773,7 @@
         <v>86</v>
       </c>
       <c r="P192" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -40976,7 +40979,7 @@
         <v>222</v>
       </c>
       <c r="P193" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q193">
         <v>1.91</v>
@@ -41182,7 +41185,7 @@
         <v>223</v>
       </c>
       <c r="P194" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q194">
         <v>3.1</v>
@@ -41594,7 +41597,7 @@
         <v>86</v>
       </c>
       <c r="P196" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q196">
         <v>2.5</v>
@@ -41800,7 +41803,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42290,7 +42293,7 @@
         <v>0.67</v>
       </c>
       <c r="AP199">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AQ199">
         <v>0.62</v>
@@ -42418,7 +42421,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -43036,7 +43039,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q203">
         <v>2.5</v>
@@ -43242,7 +43245,7 @@
         <v>229</v>
       </c>
       <c r="P204" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q204">
         <v>3.2</v>
@@ -43605,6 +43608,212 @@
       </c>
       <c r="BP205">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7321798</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45567.875</v>
+      </c>
+      <c r="F206">
+        <v>24</v>
+      </c>
+      <c r="G206" t="s">
+        <v>83</v>
+      </c>
+      <c r="H206" t="s">
+        <v>75</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>1</v>
+      </c>
+      <c r="O206" t="s">
+        <v>231</v>
+      </c>
+      <c r="P206" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q206">
+        <v>2.25</v>
+      </c>
+      <c r="R206">
+        <v>2.2</v>
+      </c>
+      <c r="S206">
+        <v>5.5</v>
+      </c>
+      <c r="T206">
+        <v>1.4</v>
+      </c>
+      <c r="U206">
+        <v>2.75</v>
+      </c>
+      <c r="V206">
+        <v>3</v>
+      </c>
+      <c r="W206">
+        <v>1.36</v>
+      </c>
+      <c r="X206">
+        <v>8</v>
+      </c>
+      <c r="Y206">
+        <v>1.08</v>
+      </c>
+      <c r="Z206">
+        <v>1.67</v>
+      </c>
+      <c r="AA206">
+        <v>3.4</v>
+      </c>
+      <c r="AB206">
+        <v>4.75</v>
+      </c>
+      <c r="AC206">
+        <v>1.02</v>
+      </c>
+      <c r="AD206">
+        <v>8.6</v>
+      </c>
+      <c r="AE206">
+        <v>1.3</v>
+      </c>
+      <c r="AF206">
+        <v>3.08</v>
+      </c>
+      <c r="AG206">
+        <v>1.83</v>
+      </c>
+      <c r="AH206">
+        <v>1.91</v>
+      </c>
+      <c r="AI206">
+        <v>2</v>
+      </c>
+      <c r="AJ206">
+        <v>1.73</v>
+      </c>
+      <c r="AK206">
+        <v>1.13</v>
+      </c>
+      <c r="AL206">
+        <v>1.24</v>
+      </c>
+      <c r="AM206">
+        <v>2.24</v>
+      </c>
+      <c r="AN206">
+        <v>2.25</v>
+      </c>
+      <c r="AO206">
+        <v>1.75</v>
+      </c>
+      <c r="AP206">
+        <v>2.31</v>
+      </c>
+      <c r="AQ206">
+        <v>1.62</v>
+      </c>
+      <c r="AR206">
+        <v>1.72</v>
+      </c>
+      <c r="AS206">
+        <v>1.18</v>
+      </c>
+      <c r="AT206">
+        <v>2.9</v>
+      </c>
+      <c r="AU206">
+        <v>8</v>
+      </c>
+      <c r="AV206">
+        <v>2</v>
+      </c>
+      <c r="AW206">
+        <v>5</v>
+      </c>
+      <c r="AX206">
+        <v>2</v>
+      </c>
+      <c r="AY206">
+        <v>13</v>
+      </c>
+      <c r="AZ206">
+        <v>4</v>
+      </c>
+      <c r="BA206">
+        <v>2</v>
+      </c>
+      <c r="BB206">
+        <v>1</v>
+      </c>
+      <c r="BC206">
+        <v>3</v>
+      </c>
+      <c r="BD206">
+        <v>1.31</v>
+      </c>
+      <c r="BE206">
+        <v>9.5</v>
+      </c>
+      <c r="BF206">
+        <v>4.13</v>
+      </c>
+      <c r="BG206">
+        <v>1.24</v>
+      </c>
+      <c r="BH206">
+        <v>3.4</v>
+      </c>
+      <c r="BI206">
+        <v>1.46</v>
+      </c>
+      <c r="BJ206">
+        <v>2.4</v>
+      </c>
+      <c r="BK206">
+        <v>1.88</v>
+      </c>
+      <c r="BL206">
+        <v>1.92</v>
+      </c>
+      <c r="BM206">
+        <v>2.32</v>
+      </c>
+      <c r="BN206">
+        <v>1.5</v>
+      </c>
+      <c r="BO206">
+        <v>3.1</v>
+      </c>
+      <c r="BP206">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="336">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,15 @@
     <t>['86']</t>
   </si>
   <si>
+    <t>['38', '87']</t>
+  </si>
+  <si>
+    <t>['22', '45+1']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -1374,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP206"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1711,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ2">
         <v>1.15</v>
@@ -1839,7 +1848,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2045,7 +2054,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2251,7 +2260,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2457,7 +2466,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2538,7 +2547,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ6">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2663,7 +2672,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2869,7 +2878,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3359,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ10">
         <v>1.31</v>
@@ -3487,7 +3496,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3568,7 +3577,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ11">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3693,7 +3702,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3774,7 +3783,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4105,7 +4114,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4183,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ14">
         <v>1.15</v>
@@ -4517,7 +4526,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4723,7 +4732,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4804,7 +4813,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>1.64</v>
@@ -5135,7 +5144,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5213,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ19">
         <v>1.31</v>
@@ -5547,7 +5556,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5628,7 +5637,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5753,7 +5762,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5959,7 +5968,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6037,7 +6046,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ23">
         <v>0.67</v>
@@ -6577,7 +6586,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6783,7 +6792,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7067,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28">
         <v>0.31</v>
@@ -7195,7 +7204,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7276,7 +7285,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -7401,7 +7410,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7813,7 +7822,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8097,7 +8106,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ33">
         <v>1.21</v>
@@ -8924,7 +8933,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ37">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9667,7 +9676,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9745,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ41">
         <v>0.62</v>
@@ -9873,7 +9882,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10079,7 +10088,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10160,7 +10169,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -10285,7 +10294,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10363,7 +10372,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ44">
         <v>1.14</v>
@@ -10697,7 +10706,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10778,7 +10787,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR46">
         <v>1.53</v>
@@ -10984,7 +10993,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ47">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -11109,7 +11118,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11315,7 +11324,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11602,7 +11611,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ50">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11805,7 +11814,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ51">
         <v>1.91</v>
@@ -12345,7 +12354,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12551,7 +12560,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12757,7 +12766,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12963,7 +12972,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13044,7 +13053,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
         <v>1.34</v>
@@ -13169,7 +13178,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13659,7 +13668,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ60">
         <v>1.15</v>
@@ -13787,7 +13796,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13865,7 +13874,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ61">
         <v>1.14</v>
@@ -13993,7 +14002,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14074,7 +14083,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ62">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14277,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ63">
         <v>0.31</v>
@@ -14405,7 +14414,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14817,7 +14826,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14898,7 +14907,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ66">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR66">
         <v>1.47</v>
@@ -15023,7 +15032,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15101,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ67">
         <v>1.15</v>
@@ -15229,7 +15238,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15722,7 +15731,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ70">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15847,7 +15856,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16053,7 +16062,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16259,7 +16268,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16465,7 +16474,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16671,7 +16680,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16955,7 +16964,7 @@
         <v>1.5</v>
       </c>
       <c r="AP76">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76">
         <v>0.54</v>
@@ -17083,7 +17092,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17289,7 +17298,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17576,7 +17585,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ79">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>2.15</v>
@@ -18113,7 +18122,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18525,7 +18534,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18603,7 +18612,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ84">
         <v>1.91</v>
@@ -18731,7 +18740,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19143,7 +19152,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19221,10 +19230,10 @@
         <v>1.8</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ87">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR87">
         <v>1.35</v>
@@ -19349,7 +19358,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19430,7 +19439,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR88">
         <v>1.85</v>
@@ -19555,7 +19564,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19761,7 +19770,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19967,7 +19976,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20173,7 +20182,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20585,7 +20594,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20791,7 +20800,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20997,7 +21006,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21409,7 +21418,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21490,7 +21499,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ98">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21615,7 +21624,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21693,7 +21702,7 @@
         <v>2.33</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ99">
         <v>1.62</v>
@@ -21821,7 +21830,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21899,7 +21908,7 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ100">
         <v>1.21</v>
@@ -22233,7 +22242,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22311,7 +22320,7 @@
         <v>1.33</v>
       </c>
       <c r="AP102">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ102">
         <v>1.15</v>
@@ -22439,7 +22448,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22851,7 +22860,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23138,7 +23147,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR106">
         <v>1.66</v>
@@ -23263,7 +23272,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23469,7 +23478,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23675,7 +23684,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23881,7 +23890,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24165,7 +24174,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ111">
         <v>1.15</v>
@@ -24293,7 +24302,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24499,7 +24508,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24580,7 +24589,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ113">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR113">
         <v>1.53</v>
@@ -24705,7 +24714,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24911,7 +24920,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25117,7 +25126,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25195,10 +25204,10 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ116">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.63</v>
@@ -25323,7 +25332,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25941,7 +25950,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26022,7 +26031,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ120">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.57</v>
@@ -26225,7 +26234,7 @@
         <v>0.83</v>
       </c>
       <c r="AP121">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ121">
         <v>0.67</v>
@@ -26353,7 +26362,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -27052,7 +27061,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ125">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.58</v>
@@ -27177,7 +27186,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27383,7 +27392,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27464,7 +27473,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ127">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR127">
         <v>1.36</v>
@@ -27589,7 +27598,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27667,7 +27676,7 @@
         <v>2.75</v>
       </c>
       <c r="AP128">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ128">
         <v>2.23</v>
@@ -27795,7 +27804,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -28001,7 +28010,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28082,7 +28091,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ130">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR130">
         <v>1.77</v>
@@ -28619,7 +28628,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28825,7 +28834,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28903,7 +28912,7 @@
         <v>2.13</v>
       </c>
       <c r="AP134">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ134">
         <v>1.62</v>
@@ -29237,7 +29246,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29443,7 +29452,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29649,7 +29658,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29855,7 +29864,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -30061,7 +30070,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30348,7 +30357,7 @@
         <v>2</v>
       </c>
       <c r="AQ141">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.69</v>
@@ -30679,7 +30688,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30757,7 +30766,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ143">
         <v>0.54</v>
@@ -30963,7 +30972,7 @@
         <v>0.33</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ144">
         <v>0.31</v>
@@ -31584,7 +31593,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ147">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.84</v>
@@ -31993,7 +32002,7 @@
         <v>1.75</v>
       </c>
       <c r="AP149">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ149">
         <v>1.91</v>
@@ -32121,7 +32130,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32202,7 +32211,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ150">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR150">
         <v>1.4</v>
@@ -33151,7 +33160,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33357,7 +33366,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33563,7 +33572,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33641,10 +33650,10 @@
         <v>1.44</v>
       </c>
       <c r="AP157">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR157">
         <v>1.56</v>
@@ -33975,7 +33984,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34053,10 +34062,10 @@
         <v>1.5</v>
       </c>
       <c r="AP159">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ159">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR159">
         <v>1.68</v>
@@ -34465,7 +34474,7 @@
         <v>1</v>
       </c>
       <c r="AP161">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ161">
         <v>1.15</v>
@@ -34593,7 +34602,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34877,7 +34886,7 @@
         <v>0.7</v>
       </c>
       <c r="AP163">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ163">
         <v>0.54</v>
@@ -35211,7 +35220,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35623,7 +35632,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -36113,7 +36122,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ169">
         <v>1.15</v>
@@ -36731,7 +36740,7 @@
         <v>1.91</v>
       </c>
       <c r="AP172">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ172">
         <v>1.62</v>
@@ -36859,7 +36868,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36940,7 +36949,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ173">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR173">
         <v>1.56</v>
@@ -37065,7 +37074,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37146,7 +37155,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ174">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR174">
         <v>1.42</v>
@@ -37271,7 +37280,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37477,7 +37486,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37683,7 +37692,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37889,7 +37898,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -37970,7 +37979,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ178">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR178">
         <v>1.52</v>
@@ -38095,7 +38104,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38713,7 +38722,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -39409,7 +39418,7 @@
         <v>0.73</v>
       </c>
       <c r="AP185">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ185">
         <v>0.62</v>
@@ -39537,7 +39546,7 @@
         <v>216</v>
       </c>
       <c r="P186" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39949,7 +39958,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40439,7 +40448,7 @@
         <v>1.33</v>
       </c>
       <c r="AP190">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ190">
         <v>1.14</v>
@@ -40648,7 +40657,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ191">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AR191">
         <v>1.39</v>
@@ -40773,7 +40782,7 @@
         <v>86</v>
       </c>
       <c r="P192" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -40979,7 +40988,7 @@
         <v>222</v>
       </c>
       <c r="P193" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q193">
         <v>1.91</v>
@@ -41057,7 +41066,7 @@
         <v>0.73</v>
       </c>
       <c r="AP193">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ193">
         <v>0.67</v>
@@ -41185,7 +41194,7 @@
         <v>223</v>
       </c>
       <c r="P194" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q194">
         <v>3.1</v>
@@ -41266,7 +41275,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ194">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR194">
         <v>1.41</v>
@@ -41469,7 +41478,7 @@
         <v>1.17</v>
       </c>
       <c r="AP195">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ195">
         <v>1.31</v>
@@ -41597,7 +41606,7 @@
         <v>86</v>
       </c>
       <c r="P196" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q196">
         <v>2.5</v>
@@ -41803,7 +41812,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42421,7 +42430,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -42499,10 +42508,10 @@
         <v>0.91</v>
       </c>
       <c r="AP200">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ200">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR200">
         <v>1.6</v>
@@ -43039,7 +43048,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q203">
         <v>2.5</v>
@@ -43245,7 +43254,7 @@
         <v>229</v>
       </c>
       <c r="P204" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q204">
         <v>3.2</v>
@@ -43814,6 +43823,624 @@
       </c>
       <c r="BP206">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7321824</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45570.625</v>
+      </c>
+      <c r="F207">
+        <v>27</v>
+      </c>
+      <c r="G207" t="s">
+        <v>82</v>
+      </c>
+      <c r="H207" t="s">
+        <v>85</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>3</v>
+      </c>
+      <c r="O207" t="s">
+        <v>232</v>
+      </c>
+      <c r="P207" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q207">
+        <v>3.12</v>
+      </c>
+      <c r="R207">
+        <v>2.24</v>
+      </c>
+      <c r="S207">
+        <v>2.96</v>
+      </c>
+      <c r="T207">
+        <v>1.31</v>
+      </c>
+      <c r="U207">
+        <v>3.28</v>
+      </c>
+      <c r="V207">
+        <v>2.46</v>
+      </c>
+      <c r="W207">
+        <v>1.51</v>
+      </c>
+      <c r="X207">
+        <v>5.8</v>
+      </c>
+      <c r="Y207">
+        <v>1.12</v>
+      </c>
+      <c r="Z207">
+        <v>2.5</v>
+      </c>
+      <c r="AA207">
+        <v>3.5</v>
+      </c>
+      <c r="AB207">
+        <v>2.4</v>
+      </c>
+      <c r="AC207">
+        <v>1.01</v>
+      </c>
+      <c r="AD207">
+        <v>11</v>
+      </c>
+      <c r="AE207">
+        <v>1.16</v>
+      </c>
+      <c r="AF207">
+        <v>3.88</v>
+      </c>
+      <c r="AG207">
+        <v>1.62</v>
+      </c>
+      <c r="AH207">
+        <v>2.18</v>
+      </c>
+      <c r="AI207">
+        <v>1.55</v>
+      </c>
+      <c r="AJ207">
+        <v>2.29</v>
+      </c>
+      <c r="AK207">
+        <v>1.51</v>
+      </c>
+      <c r="AL207">
+        <v>1.27</v>
+      </c>
+      <c r="AM207">
+        <v>1.47</v>
+      </c>
+      <c r="AN207">
+        <v>1.46</v>
+      </c>
+      <c r="AO207">
+        <v>1.5</v>
+      </c>
+      <c r="AP207">
+        <v>1.57</v>
+      </c>
+      <c r="AQ207">
+        <v>1.38</v>
+      </c>
+      <c r="AR207">
+        <v>1.69</v>
+      </c>
+      <c r="AS207">
+        <v>1.33</v>
+      </c>
+      <c r="AT207">
+        <v>3.02</v>
+      </c>
+      <c r="AU207">
+        <v>5</v>
+      </c>
+      <c r="AV207">
+        <v>5</v>
+      </c>
+      <c r="AW207">
+        <v>5</v>
+      </c>
+      <c r="AX207">
+        <v>8</v>
+      </c>
+      <c r="AY207">
+        <v>16</v>
+      </c>
+      <c r="AZ207">
+        <v>18</v>
+      </c>
+      <c r="BA207">
+        <v>9</v>
+      </c>
+      <c r="BB207">
+        <v>4</v>
+      </c>
+      <c r="BC207">
+        <v>13</v>
+      </c>
+      <c r="BD207">
+        <v>1.95</v>
+      </c>
+      <c r="BE207">
+        <v>8</v>
+      </c>
+      <c r="BF207">
+        <v>2.05</v>
+      </c>
+      <c r="BG207">
+        <v>1.2</v>
+      </c>
+      <c r="BH207">
+        <v>4.3</v>
+      </c>
+      <c r="BI207">
+        <v>1.29</v>
+      </c>
+      <c r="BJ207">
+        <v>3.1</v>
+      </c>
+      <c r="BK207">
+        <v>1.52</v>
+      </c>
+      <c r="BL207">
+        <v>2.28</v>
+      </c>
+      <c r="BM207">
+        <v>1.91</v>
+      </c>
+      <c r="BN207">
+        <v>1.8</v>
+      </c>
+      <c r="BO207">
+        <v>2.4</v>
+      </c>
+      <c r="BP207">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7321829</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45570.83333333334</v>
+      </c>
+      <c r="F208">
+        <v>27</v>
+      </c>
+      <c r="G208" t="s">
+        <v>70</v>
+      </c>
+      <c r="H208" t="s">
+        <v>80</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>2</v>
+      </c>
+      <c r="O208" t="s">
+        <v>233</v>
+      </c>
+      <c r="P208" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q208">
+        <v>2.4</v>
+      </c>
+      <c r="R208">
+        <v>2.25</v>
+      </c>
+      <c r="S208">
+        <v>4</v>
+      </c>
+      <c r="T208">
+        <v>1.33</v>
+      </c>
+      <c r="U208">
+        <v>3.29</v>
+      </c>
+      <c r="V208">
+        <v>2.51</v>
+      </c>
+      <c r="W208">
+        <v>1.52</v>
+      </c>
+      <c r="X208">
+        <v>5.75</v>
+      </c>
+      <c r="Y208">
+        <v>1.12</v>
+      </c>
+      <c r="Z208">
+        <v>1.88</v>
+      </c>
+      <c r="AA208">
+        <v>3.43</v>
+      </c>
+      <c r="AB208">
+        <v>3.52</v>
+      </c>
+      <c r="AC208">
+        <v>1.01</v>
+      </c>
+      <c r="AD208">
+        <v>11</v>
+      </c>
+      <c r="AE208">
+        <v>1.17</v>
+      </c>
+      <c r="AF208">
+        <v>4.5</v>
+      </c>
+      <c r="AG208">
+        <v>1.66</v>
+      </c>
+      <c r="AH208">
+        <v>2.14</v>
+      </c>
+      <c r="AI208">
+        <v>1.57</v>
+      </c>
+      <c r="AJ208">
+        <v>2.25</v>
+      </c>
+      <c r="AK208">
+        <v>1.26</v>
+      </c>
+      <c r="AL208">
+        <v>1.26</v>
+      </c>
+      <c r="AM208">
+        <v>1.85</v>
+      </c>
+      <c r="AN208">
+        <v>1.46</v>
+      </c>
+      <c r="AO208">
+        <v>1.23</v>
+      </c>
+      <c r="AP208">
+        <v>1.57</v>
+      </c>
+      <c r="AQ208">
+        <v>1.14</v>
+      </c>
+      <c r="AR208">
+        <v>1.55</v>
+      </c>
+      <c r="AS208">
+        <v>1.45</v>
+      </c>
+      <c r="AT208">
+        <v>3</v>
+      </c>
+      <c r="AU208">
+        <v>6</v>
+      </c>
+      <c r="AV208">
+        <v>9</v>
+      </c>
+      <c r="AW208">
+        <v>6</v>
+      </c>
+      <c r="AX208">
+        <v>12</v>
+      </c>
+      <c r="AY208">
+        <v>14</v>
+      </c>
+      <c r="AZ208">
+        <v>24</v>
+      </c>
+      <c r="BA208">
+        <v>2</v>
+      </c>
+      <c r="BB208">
+        <v>5</v>
+      </c>
+      <c r="BC208">
+        <v>7</v>
+      </c>
+      <c r="BD208">
+        <v>1.64</v>
+      </c>
+      <c r="BE208">
+        <v>8</v>
+      </c>
+      <c r="BF208">
+        <v>2.77</v>
+      </c>
+      <c r="BG208">
+        <v>1.25</v>
+      </c>
+      <c r="BH208">
+        <v>3.3</v>
+      </c>
+      <c r="BI208">
+        <v>1.48</v>
+      </c>
+      <c r="BJ208">
+        <v>2.38</v>
+      </c>
+      <c r="BK208">
+        <v>1.9</v>
+      </c>
+      <c r="BL208">
+        <v>1.9</v>
+      </c>
+      <c r="BM208">
+        <v>2.35</v>
+      </c>
+      <c r="BN208">
+        <v>1.49</v>
+      </c>
+      <c r="BO208">
+        <v>3.15</v>
+      </c>
+      <c r="BP208">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7321821</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45570.875</v>
+      </c>
+      <c r="F209">
+        <v>27</v>
+      </c>
+      <c r="G209" t="s">
+        <v>78</v>
+      </c>
+      <c r="H209" t="s">
+        <v>84</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>1</v>
+      </c>
+      <c r="O209" t="s">
+        <v>234</v>
+      </c>
+      <c r="P209" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q209">
+        <v>1.73</v>
+      </c>
+      <c r="R209">
+        <v>2.4</v>
+      </c>
+      <c r="S209">
+        <v>8</v>
+      </c>
+      <c r="T209">
+        <v>1.31</v>
+      </c>
+      <c r="U209">
+        <v>3.28</v>
+      </c>
+      <c r="V209">
+        <v>2.55</v>
+      </c>
+      <c r="W209">
+        <v>1.5</v>
+      </c>
+      <c r="X209">
+        <v>5.8</v>
+      </c>
+      <c r="Y209">
+        <v>1.12</v>
+      </c>
+      <c r="Z209">
+        <v>1.24</v>
+      </c>
+      <c r="AA209">
+        <v>5</v>
+      </c>
+      <c r="AB209">
+        <v>9.35</v>
+      </c>
+      <c r="AC209">
+        <v>1.01</v>
+      </c>
+      <c r="AD209">
+        <v>13</v>
+      </c>
+      <c r="AE209">
+        <v>1.17</v>
+      </c>
+      <c r="AF209">
+        <v>4.5</v>
+      </c>
+      <c r="AG209">
+        <v>1.66</v>
+      </c>
+      <c r="AH209">
+        <v>2.14</v>
+      </c>
+      <c r="AI209">
+        <v>2.1</v>
+      </c>
+      <c r="AJ209">
+        <v>1.67</v>
+      </c>
+      <c r="AK209">
+        <v>1.04</v>
+      </c>
+      <c r="AL209">
+        <v>1.14</v>
+      </c>
+      <c r="AM209">
+        <v>3.34</v>
+      </c>
+      <c r="AN209">
+        <v>2</v>
+      </c>
+      <c r="AO209">
+        <v>1.08</v>
+      </c>
+      <c r="AP209">
+        <v>2.07</v>
+      </c>
+      <c r="AQ209">
+        <v>1</v>
+      </c>
+      <c r="AR209">
+        <v>1.85</v>
+      </c>
+      <c r="AS209">
+        <v>1.28</v>
+      </c>
+      <c r="AT209">
+        <v>3.13</v>
+      </c>
+      <c r="AU209">
+        <v>8</v>
+      </c>
+      <c r="AV209">
+        <v>3</v>
+      </c>
+      <c r="AW209">
+        <v>6</v>
+      </c>
+      <c r="AX209">
+        <v>3</v>
+      </c>
+      <c r="AY209">
+        <v>17</v>
+      </c>
+      <c r="AZ209">
+        <v>10</v>
+      </c>
+      <c r="BA209">
+        <v>12</v>
+      </c>
+      <c r="BB209">
+        <v>4</v>
+      </c>
+      <c r="BC209">
+        <v>16</v>
+      </c>
+      <c r="BD209">
+        <v>1.07</v>
+      </c>
+      <c r="BE209">
+        <v>13</v>
+      </c>
+      <c r="BF209">
+        <v>10.2</v>
+      </c>
+      <c r="BG209">
+        <v>1.25</v>
+      </c>
+      <c r="BH209">
+        <v>3.3</v>
+      </c>
+      <c r="BI209">
+        <v>1.48</v>
+      </c>
+      <c r="BJ209">
+        <v>2.38</v>
+      </c>
+      <c r="BK209">
+        <v>1.85</v>
+      </c>
+      <c r="BL209">
+        <v>1.85</v>
+      </c>
+      <c r="BM209">
+        <v>2.35</v>
+      </c>
+      <c r="BN209">
+        <v>1.49</v>
+      </c>
+      <c r="BO209">
+        <v>3.15</v>
+      </c>
+      <c r="BP209">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,15 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['48', '90+3']</t>
+  </si>
+  <si>
+    <t>['29', '46', '90+5']</t>
+  </si>
+  <si>
+    <t>['75', '84']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -1022,6 +1031,15 @@
   </si>
   <si>
     <t>['82', '90+4']</t>
+  </si>
+  <si>
+    <t>['21', '47']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,7 +1741,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ2">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1848,7 +1866,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1926,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ3">
         <v>1.91</v>
@@ -2054,7 +2072,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2260,7 +2278,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2341,7 +2359,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2466,7 +2484,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2672,7 +2690,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2878,7 +2896,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3162,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ9">
         <v>0.54</v>
@@ -3371,7 +3389,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ10">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3496,7 +3514,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3702,7 +3720,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -3986,7 +4004,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ13">
         <v>1.91</v>
@@ -4114,7 +4132,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4526,7 +4544,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4604,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ16">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR16">
         <v>1.44</v>
@@ -4732,7 +4750,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4810,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -5016,10 +5034,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ18">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR18">
         <v>0.64</v>
@@ -5144,7 +5162,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5225,7 +5243,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ19">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR19">
         <v>1.33</v>
@@ -5428,10 +5446,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5556,7 +5574,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5762,7 +5780,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5968,7 +5986,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6049,7 +6067,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ23">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR23">
         <v>1.09</v>
@@ -6252,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ24">
         <v>1.14</v>
@@ -6458,10 +6476,10 @@
         <v>1.5</v>
       </c>
       <c r="AP25">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ25">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR25">
         <v>0.9</v>
@@ -6586,7 +6604,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6667,7 +6685,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -6792,7 +6810,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6870,7 +6888,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ27">
         <v>2.23</v>
@@ -7204,7 +7222,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7410,7 +7428,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7822,7 +7840,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8930,7 +8948,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -9139,7 +9157,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ38">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9345,7 +9363,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ39">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -9676,7 +9694,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9882,7 +9900,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9963,7 +9981,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ42">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -10088,7 +10106,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10166,7 +10184,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ43">
         <v>1.14</v>
@@ -10294,7 +10312,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10581,7 +10599,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ45">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10706,7 +10724,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10784,7 +10802,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ46">
         <v>1.38</v>
@@ -11118,7 +11136,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11324,7 +11342,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11402,7 +11420,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ49">
         <v>1.15</v>
@@ -12229,7 +12247,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ53">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR53">
         <v>1.66</v>
@@ -12354,7 +12372,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12560,7 +12578,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12766,7 +12784,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12844,7 +12862,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ56">
         <v>2.23</v>
@@ -12972,7 +12990,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13050,7 +13068,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -13178,7 +13196,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13259,7 +13277,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR58">
         <v>1.99</v>
@@ -13462,10 +13480,10 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13671,7 +13689,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ60">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -13796,7 +13814,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -14002,7 +14020,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14414,7 +14432,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14492,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ64">
         <v>0.54</v>
@@ -14698,10 +14716,10 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR65">
         <v>1.38</v>
@@ -14826,7 +14844,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -15032,7 +15050,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15238,7 +15256,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15856,7 +15874,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15934,7 +15952,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ71">
         <v>2.23</v>
@@ -16062,7 +16080,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16140,7 +16158,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ72">
         <v>0.31</v>
@@ -16268,7 +16286,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16349,7 +16367,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ73">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR73">
         <v>1.87</v>
@@ -16474,7 +16492,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16552,7 +16570,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ74">
         <v>1.15</v>
@@ -16680,7 +16698,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16761,7 +16779,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ75">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR75">
         <v>1.53</v>
@@ -17092,7 +17110,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17173,7 +17191,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ77">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR77">
         <v>1.8</v>
@@ -17298,7 +17316,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17582,7 +17600,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -18122,7 +18140,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18200,7 +18218,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ82">
         <v>0.31</v>
@@ -18409,7 +18427,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR83">
         <v>1.44</v>
@@ -18534,7 +18552,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18740,7 +18758,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -18818,10 +18836,10 @@
         <v>2.2</v>
       </c>
       <c r="AP85">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ85">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR85">
         <v>1.51</v>
@@ -19152,7 +19170,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19358,7 +19376,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19564,7 +19582,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19642,10 +19660,10 @@
         <v>1.17</v>
       </c>
       <c r="AP89">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ89">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR89">
         <v>1.41</v>
@@ -19770,7 +19788,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19976,7 +19994,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20182,7 +20200,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20594,7 +20612,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20800,7 +20818,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21006,7 +21024,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21418,7 +21436,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21624,7 +21642,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21705,7 +21723,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ99">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR99">
         <v>1.41</v>
@@ -21830,7 +21848,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22114,7 +22132,7 @@
         <v>2</v>
       </c>
       <c r="AP101">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ101">
         <v>1.14</v>
@@ -22242,7 +22260,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22323,7 +22341,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ102">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR102">
         <v>1.6</v>
@@ -22448,7 +22466,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22529,7 +22547,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ103">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR103">
         <v>1.75</v>
@@ -22732,7 +22750,7 @@
         <v>0.75</v>
       </c>
       <c r="AP104">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ104">
         <v>1.15</v>
@@ -22860,7 +22878,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -22941,7 +22959,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ105">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23272,7 +23290,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23478,7 +23496,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23684,7 +23702,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23762,7 +23780,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ109">
         <v>0.62</v>
@@ -23890,7 +23908,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23971,7 +23989,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ110">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR110">
         <v>1.59</v>
@@ -24302,7 +24320,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24508,7 +24526,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24586,7 +24604,7 @@
         <v>1.57</v>
       </c>
       <c r="AP113">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ113">
         <v>1.14</v>
@@ -24714,7 +24732,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24920,7 +24938,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25126,7 +25144,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25332,7 +25350,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25410,7 +25428,7 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ117">
         <v>0.31</v>
@@ -25619,7 +25637,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ118">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR118">
         <v>1.41</v>
@@ -25950,7 +25968,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26028,7 +26046,7 @@
         <v>0.83</v>
       </c>
       <c r="AP120">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26237,7 +26255,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ121">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR121">
         <v>1.55</v>
@@ -26362,7 +26380,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26852,7 +26870,7 @@
         <v>0.38</v>
       </c>
       <c r="AP124">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ124">
         <v>0.31</v>
@@ -27186,7 +27204,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27267,7 +27285,7 @@
         <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR126">
         <v>1.69</v>
@@ -27392,7 +27410,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27470,7 +27488,7 @@
         <v>1.25</v>
       </c>
       <c r="AP127">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ127">
         <v>1.38</v>
@@ -27598,7 +27616,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27804,7 +27822,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -27882,7 +27900,7 @@
         <v>1.2</v>
       </c>
       <c r="AP129">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ129">
         <v>1.15</v>
@@ -28010,7 +28028,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28297,7 +28315,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ131">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR131">
         <v>1.64</v>
@@ -28500,7 +28518,7 @@
         <v>0.86</v>
       </c>
       <c r="AP132">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ132">
         <v>0.62</v>
@@ -28628,7 +28646,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28706,7 +28724,7 @@
         <v>1.43</v>
       </c>
       <c r="AP133">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ133">
         <v>1.21</v>
@@ -28834,7 +28852,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28915,7 +28933,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ134">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR134">
         <v>1.61</v>
@@ -29246,7 +29264,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29327,7 +29345,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ136">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR136">
         <v>1.41</v>
@@ -29452,7 +29470,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29658,7 +29676,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29864,7 +29882,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -30070,7 +30088,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30688,7 +30706,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31178,7 +31196,7 @@
         <v>1.22</v>
       </c>
       <c r="AP145">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ145">
         <v>1.21</v>
@@ -32130,7 +32148,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32623,7 +32641,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ152">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR152">
         <v>1.73</v>
@@ -32826,10 +32844,10 @@
         <v>1.56</v>
       </c>
       <c r="AP153">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ153">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR153">
         <v>1.76</v>
@@ -33032,7 +33050,7 @@
         <v>0.78</v>
       </c>
       <c r="AP154">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ154">
         <v>0.54</v>
@@ -33160,7 +33178,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33241,7 +33259,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ155">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR155">
         <v>1.53</v>
@@ -33366,7 +33384,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33444,7 +33462,7 @@
         <v>2.3</v>
       </c>
       <c r="AP156">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ156">
         <v>2.23</v>
@@ -33572,7 +33590,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -33984,7 +34002,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34271,7 +34289,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ160">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR160">
         <v>1.42</v>
@@ -34602,7 +34620,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -35095,7 +35113,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ164">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR164">
         <v>1.39</v>
@@ -35220,7 +35238,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35504,7 +35522,7 @@
         <v>0.78</v>
       </c>
       <c r="AP166">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ166">
         <v>0.62</v>
@@ -35632,7 +35650,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35919,7 +35937,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ168">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR168">
         <v>1.46</v>
@@ -36537,7 +36555,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ171">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR171">
         <v>1.86</v>
@@ -36743,7 +36761,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ172">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR172">
         <v>1.72</v>
@@ -36868,7 +36886,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36946,7 +36964,7 @@
         <v>0.9</v>
       </c>
       <c r="AP173">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ173">
         <v>1</v>
@@ -37074,7 +37092,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37280,7 +37298,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37358,7 +37376,7 @@
         <v>1.1</v>
       </c>
       <c r="AP175">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ175">
         <v>1.15</v>
@@ -37486,7 +37504,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37692,7 +37710,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37898,7 +37916,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38104,7 +38122,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38388,7 +38406,7 @@
         <v>1</v>
       </c>
       <c r="AP180">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ180">
         <v>1.15</v>
@@ -38722,7 +38740,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -39009,7 +39027,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ183">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR183">
         <v>1.4</v>
@@ -39546,7 +39564,7 @@
         <v>216</v>
       </c>
       <c r="P186" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39624,10 +39642,10 @@
         <v>1.27</v>
       </c>
       <c r="AP186">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ186">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR186">
         <v>1.54</v>
@@ -39958,7 +39976,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40245,7 +40263,7 @@
         <v>2</v>
       </c>
       <c r="AQ189">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR189">
         <v>1.67</v>
@@ -40654,7 +40672,7 @@
         <v>1.33</v>
       </c>
       <c r="AP191">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AQ191">
         <v>1.14</v>
@@ -40782,7 +40800,7 @@
         <v>86</v>
       </c>
       <c r="P192" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -40988,7 +41006,7 @@
         <v>222</v>
       </c>
       <c r="P193" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q193">
         <v>1.91</v>
@@ -41069,7 +41087,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ193">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR193">
         <v>1.83</v>
@@ -41194,7 +41212,7 @@
         <v>223</v>
       </c>
       <c r="P194" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q194">
         <v>3.1</v>
@@ -41481,7 +41499,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ195">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AR195">
         <v>1.71</v>
@@ -41606,7 +41624,7 @@
         <v>86</v>
       </c>
       <c r="P196" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q196">
         <v>2.5</v>
@@ -41684,7 +41702,7 @@
         <v>1.17</v>
       </c>
       <c r="AP196">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ196">
         <v>1.21</v>
@@ -41812,7 +41830,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42302,7 +42320,7 @@
         <v>0.67</v>
       </c>
       <c r="AP199">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ199">
         <v>0.62</v>
@@ -42430,7 +42448,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -43048,7 +43066,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q203">
         <v>2.5</v>
@@ -43254,7 +43272,7 @@
         <v>229</v>
       </c>
       <c r="P204" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q204">
         <v>3.2</v>
@@ -43335,7 +43353,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ204">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR204">
         <v>1.7</v>
@@ -43633,7 +43651,7 @@
         <v>69</v>
       </c>
       <c r="E206" s="2">
-        <v>45567.875</v>
+        <v>45568.83333333334</v>
       </c>
       <c r="F206">
         <v>24</v>
@@ -43744,10 +43762,10 @@
         <v>1.75</v>
       </c>
       <c r="AP206">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AQ206">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AR206">
         <v>1.72</v>
@@ -43759,31 +43777,31 @@
         <v>2.9</v>
       </c>
       <c r="AU206">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW206">
+        <v>9</v>
+      </c>
+      <c r="AX206">
+        <v>3</v>
+      </c>
+      <c r="AY206">
+        <v>21</v>
+      </c>
+      <c r="AZ206">
+        <v>7</v>
+      </c>
+      <c r="BA206">
+        <v>3</v>
+      </c>
+      <c r="BB206">
+        <v>2</v>
+      </c>
+      <c r="BC206">
         <v>5</v>
-      </c>
-      <c r="AX206">
-        <v>2</v>
-      </c>
-      <c r="AY206">
-        <v>13</v>
-      </c>
-      <c r="AZ206">
-        <v>4</v>
-      </c>
-      <c r="BA206">
-        <v>2</v>
-      </c>
-      <c r="BB206">
-        <v>1</v>
-      </c>
-      <c r="BC206">
-        <v>3</v>
       </c>
       <c r="BD206">
         <v>1.31</v>
@@ -44441,6 +44459,830 @@
       </c>
       <c r="BP209">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7321826</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45571.52083333334</v>
+      </c>
+      <c r="F210">
+        <v>27</v>
+      </c>
+      <c r="G210" t="s">
+        <v>77</v>
+      </c>
+      <c r="H210" t="s">
+        <v>76</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>2</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>2</v>
+      </c>
+      <c r="O210" t="s">
+        <v>235</v>
+      </c>
+      <c r="P210" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q210">
+        <v>2.75</v>
+      </c>
+      <c r="R210">
+        <v>2.05</v>
+      </c>
+      <c r="S210">
+        <v>4.33</v>
+      </c>
+      <c r="T210">
+        <v>1.44</v>
+      </c>
+      <c r="U210">
+        <v>2.63</v>
+      </c>
+      <c r="V210">
+        <v>3.25</v>
+      </c>
+      <c r="W210">
+        <v>1.33</v>
+      </c>
+      <c r="X210">
+        <v>10</v>
+      </c>
+      <c r="Y210">
+        <v>1.06</v>
+      </c>
+      <c r="Z210">
+        <v>2.05</v>
+      </c>
+      <c r="AA210">
+        <v>3.5</v>
+      </c>
+      <c r="AB210">
+        <v>3.4</v>
+      </c>
+      <c r="AC210">
+        <v>1.02</v>
+      </c>
+      <c r="AD210">
+        <v>7.2</v>
+      </c>
+      <c r="AE210">
+        <v>1.33</v>
+      </c>
+      <c r="AF210">
+        <v>2.73</v>
+      </c>
+      <c r="AG210">
+        <v>2.15</v>
+      </c>
+      <c r="AH210">
+        <v>1.64</v>
+      </c>
+      <c r="AI210">
+        <v>1.91</v>
+      </c>
+      <c r="AJ210">
+        <v>1.8</v>
+      </c>
+      <c r="AK210">
+        <v>1.28</v>
+      </c>
+      <c r="AL210">
+        <v>1.3</v>
+      </c>
+      <c r="AM210">
+        <v>1.72</v>
+      </c>
+      <c r="AN210">
+        <v>1.75</v>
+      </c>
+      <c r="AO210">
+        <v>1.15</v>
+      </c>
+      <c r="AP210">
+        <v>1.85</v>
+      </c>
+      <c r="AQ210">
+        <v>1.07</v>
+      </c>
+      <c r="AR210">
+        <v>1.39</v>
+      </c>
+      <c r="AS210">
+        <v>1.11</v>
+      </c>
+      <c r="AT210">
+        <v>2.5</v>
+      </c>
+      <c r="AU210">
+        <v>3</v>
+      </c>
+      <c r="AV210">
+        <v>4</v>
+      </c>
+      <c r="AW210">
+        <v>7</v>
+      </c>
+      <c r="AX210">
+        <v>3</v>
+      </c>
+      <c r="AY210">
+        <v>12</v>
+      </c>
+      <c r="AZ210">
+        <v>8</v>
+      </c>
+      <c r="BA210">
+        <v>3</v>
+      </c>
+      <c r="BB210">
+        <v>2</v>
+      </c>
+      <c r="BC210">
+        <v>5</v>
+      </c>
+      <c r="BD210">
+        <v>2.1</v>
+      </c>
+      <c r="BE210">
+        <v>8</v>
+      </c>
+      <c r="BF210">
+        <v>2</v>
+      </c>
+      <c r="BG210">
+        <v>1.2</v>
+      </c>
+      <c r="BH210">
+        <v>3.52</v>
+      </c>
+      <c r="BI210">
+        <v>1.41</v>
+      </c>
+      <c r="BJ210">
+        <v>2.7</v>
+      </c>
+      <c r="BK210">
+        <v>1.92</v>
+      </c>
+      <c r="BL210">
+        <v>1.88</v>
+      </c>
+      <c r="BM210">
+        <v>2.27</v>
+      </c>
+      <c r="BN210">
+        <v>1.56</v>
+      </c>
+      <c r="BO210">
+        <v>3.05</v>
+      </c>
+      <c r="BP210">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7321827</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45571.625</v>
+      </c>
+      <c r="F211">
+        <v>27</v>
+      </c>
+      <c r="G211" t="s">
+        <v>81</v>
+      </c>
+      <c r="H211" t="s">
+        <v>75</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>2</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211" t="s">
+        <v>86</v>
+      </c>
+      <c r="P211" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q211">
+        <v>3.5</v>
+      </c>
+      <c r="R211">
+        <v>2.05</v>
+      </c>
+      <c r="S211">
+        <v>3.2</v>
+      </c>
+      <c r="T211">
+        <v>1.44</v>
+      </c>
+      <c r="U211">
+        <v>2.63</v>
+      </c>
+      <c r="V211">
+        <v>3.25</v>
+      </c>
+      <c r="W211">
+        <v>1.33</v>
+      </c>
+      <c r="X211">
+        <v>9</v>
+      </c>
+      <c r="Y211">
+        <v>1.07</v>
+      </c>
+      <c r="Z211">
+        <v>2.8</v>
+      </c>
+      <c r="AA211">
+        <v>3.3</v>
+      </c>
+      <c r="AB211">
+        <v>2.45</v>
+      </c>
+      <c r="AC211">
+        <v>1.01</v>
+      </c>
+      <c r="AD211">
+        <v>7.5</v>
+      </c>
+      <c r="AE211">
+        <v>1.3</v>
+      </c>
+      <c r="AF211">
+        <v>2.88</v>
+      </c>
+      <c r="AG211">
+        <v>2.07</v>
+      </c>
+      <c r="AH211">
+        <v>1.68</v>
+      </c>
+      <c r="AI211">
+        <v>1.83</v>
+      </c>
+      <c r="AJ211">
+        <v>1.83</v>
+      </c>
+      <c r="AK211">
+        <v>1.53</v>
+      </c>
+      <c r="AL211">
+        <v>1.31</v>
+      </c>
+      <c r="AM211">
+        <v>1.4</v>
+      </c>
+      <c r="AN211">
+        <v>1.17</v>
+      </c>
+      <c r="AO211">
+        <v>1.62</v>
+      </c>
+      <c r="AP211">
+        <v>1.08</v>
+      </c>
+      <c r="AQ211">
+        <v>1.71</v>
+      </c>
+      <c r="AR211">
+        <v>1.54</v>
+      </c>
+      <c r="AS211">
+        <v>1.16</v>
+      </c>
+      <c r="AT211">
+        <v>2.7</v>
+      </c>
+      <c r="AU211">
+        <v>4</v>
+      </c>
+      <c r="AV211">
+        <v>4</v>
+      </c>
+      <c r="AW211">
+        <v>6</v>
+      </c>
+      <c r="AX211">
+        <v>6</v>
+      </c>
+      <c r="AY211">
+        <v>15</v>
+      </c>
+      <c r="AZ211">
+        <v>12</v>
+      </c>
+      <c r="BA211">
+        <v>12</v>
+      </c>
+      <c r="BB211">
+        <v>3</v>
+      </c>
+      <c r="BC211">
+        <v>15</v>
+      </c>
+      <c r="BD211">
+        <v>1.82</v>
+      </c>
+      <c r="BE211">
+        <v>8</v>
+      </c>
+      <c r="BF211">
+        <v>2.33</v>
+      </c>
+      <c r="BG211">
+        <v>1.18</v>
+      </c>
+      <c r="BH211">
+        <v>3.65</v>
+      </c>
+      <c r="BI211">
+        <v>1.39</v>
+      </c>
+      <c r="BJ211">
+        <v>2.59</v>
+      </c>
+      <c r="BK211">
+        <v>1.77</v>
+      </c>
+      <c r="BL211">
+        <v>1.95</v>
+      </c>
+      <c r="BM211">
+        <v>2.15</v>
+      </c>
+      <c r="BN211">
+        <v>1.56</v>
+      </c>
+      <c r="BO211">
+        <v>2.82</v>
+      </c>
+      <c r="BP211">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7321825</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45571.72916666666</v>
+      </c>
+      <c r="F212">
+        <v>27</v>
+      </c>
+      <c r="G212" t="s">
+        <v>71</v>
+      </c>
+      <c r="H212" t="s">
+        <v>79</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>4</v>
+      </c>
+      <c r="O212" t="s">
+        <v>236</v>
+      </c>
+      <c r="P212" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q212">
+        <v>2.3</v>
+      </c>
+      <c r="R212">
+        <v>2.3</v>
+      </c>
+      <c r="S212">
+        <v>4.33</v>
+      </c>
+      <c r="T212">
+        <v>1.3</v>
+      </c>
+      <c r="U212">
+        <v>3.4</v>
+      </c>
+      <c r="V212">
+        <v>2.5</v>
+      </c>
+      <c r="W212">
+        <v>1.5</v>
+      </c>
+      <c r="X212">
+        <v>6</v>
+      </c>
+      <c r="Y212">
+        <v>1.13</v>
+      </c>
+      <c r="Z212">
+        <v>1.85</v>
+      </c>
+      <c r="AA212">
+        <v>3.5</v>
+      </c>
+      <c r="AB212">
+        <v>4.1</v>
+      </c>
+      <c r="AC212">
+        <v>1.01</v>
+      </c>
+      <c r="AD212">
+        <v>11</v>
+      </c>
+      <c r="AE212">
+        <v>1.14</v>
+      </c>
+      <c r="AF212">
+        <v>4.8</v>
+      </c>
+      <c r="AG212">
+        <v>1.65</v>
+      </c>
+      <c r="AH212">
+        <v>2.12</v>
+      </c>
+      <c r="AI212">
+        <v>1.57</v>
+      </c>
+      <c r="AJ212">
+        <v>2.25</v>
+      </c>
+      <c r="AK212">
+        <v>1.24</v>
+      </c>
+      <c r="AL212">
+        <v>1.24</v>
+      </c>
+      <c r="AM212">
+        <v>1.94</v>
+      </c>
+      <c r="AN212">
+        <v>1.85</v>
+      </c>
+      <c r="AO212">
+        <v>0.67</v>
+      </c>
+      <c r="AP212">
+        <v>1.93</v>
+      </c>
+      <c r="AQ212">
+        <v>0.62</v>
+      </c>
+      <c r="AR212">
+        <v>1.59</v>
+      </c>
+      <c r="AS212">
+        <v>1.21</v>
+      </c>
+      <c r="AT212">
+        <v>2.8</v>
+      </c>
+      <c r="AU212">
+        <v>8</v>
+      </c>
+      <c r="AV212">
+        <v>7</v>
+      </c>
+      <c r="AW212">
+        <v>5</v>
+      </c>
+      <c r="AX212">
+        <v>4</v>
+      </c>
+      <c r="AY212">
+        <v>19</v>
+      </c>
+      <c r="AZ212">
+        <v>13</v>
+      </c>
+      <c r="BA212">
+        <v>9</v>
+      </c>
+      <c r="BB212">
+        <v>3</v>
+      </c>
+      <c r="BC212">
+        <v>12</v>
+      </c>
+      <c r="BD212">
+        <v>1.82</v>
+      </c>
+      <c r="BE212">
+        <v>8</v>
+      </c>
+      <c r="BF212">
+        <v>2.39</v>
+      </c>
+      <c r="BG212">
+        <v>1.19</v>
+      </c>
+      <c r="BH212">
+        <v>4.35</v>
+      </c>
+      <c r="BI212">
+        <v>1.32</v>
+      </c>
+      <c r="BJ212">
+        <v>3.1</v>
+      </c>
+      <c r="BK212">
+        <v>1.77</v>
+      </c>
+      <c r="BL212">
+        <v>1.95</v>
+      </c>
+      <c r="BM212">
+        <v>2</v>
+      </c>
+      <c r="BN212">
+        <v>1.72</v>
+      </c>
+      <c r="BO212">
+        <v>2.6</v>
+      </c>
+      <c r="BP212">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7321822</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45571.83333333334</v>
+      </c>
+      <c r="F213">
+        <v>27</v>
+      </c>
+      <c r="G213" t="s">
+        <v>83</v>
+      </c>
+      <c r="H213" t="s">
+        <v>74</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="O213" t="s">
+        <v>237</v>
+      </c>
+      <c r="P213" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q213">
+        <v>1.67</v>
+      </c>
+      <c r="R213">
+        <v>2.5</v>
+      </c>
+      <c r="S213">
+        <v>9.5</v>
+      </c>
+      <c r="T213">
+        <v>1.33</v>
+      </c>
+      <c r="U213">
+        <v>3.25</v>
+      </c>
+      <c r="V213">
+        <v>2.63</v>
+      </c>
+      <c r="W213">
+        <v>1.44</v>
+      </c>
+      <c r="X213">
+        <v>6.5</v>
+      </c>
+      <c r="Y213">
+        <v>1.11</v>
+      </c>
+      <c r="Z213">
+        <v>1.28</v>
+      </c>
+      <c r="AA213">
+        <v>5.1</v>
+      </c>
+      <c r="AB213">
+        <v>11</v>
+      </c>
+      <c r="AC213">
+        <v>1.01</v>
+      </c>
+      <c r="AD213">
+        <v>11</v>
+      </c>
+      <c r="AE213">
+        <v>1.2</v>
+      </c>
+      <c r="AF213">
+        <v>4</v>
+      </c>
+      <c r="AG213">
+        <v>1.6</v>
+      </c>
+      <c r="AH213">
+        <v>2.2</v>
+      </c>
+      <c r="AI213">
+        <v>2.25</v>
+      </c>
+      <c r="AJ213">
+        <v>1.57</v>
+      </c>
+      <c r="AK213">
+        <v>1.02</v>
+      </c>
+      <c r="AL213">
+        <v>1.12</v>
+      </c>
+      <c r="AM213">
+        <v>3.72</v>
+      </c>
+      <c r="AN213">
+        <v>2.31</v>
+      </c>
+      <c r="AO213">
+        <v>1.31</v>
+      </c>
+      <c r="AP213">
+        <v>2.36</v>
+      </c>
+      <c r="AQ213">
+        <v>1.21</v>
+      </c>
+      <c r="AR213">
+        <v>1.78</v>
+      </c>
+      <c r="AS213">
+        <v>1.28</v>
+      </c>
+      <c r="AT213">
+        <v>3.06</v>
+      </c>
+      <c r="AU213">
+        <v>3</v>
+      </c>
+      <c r="AV213">
+        <v>6</v>
+      </c>
+      <c r="AW213">
+        <v>4</v>
+      </c>
+      <c r="AX213">
+        <v>2</v>
+      </c>
+      <c r="AY213">
+        <v>9</v>
+      </c>
+      <c r="AZ213">
+        <v>9</v>
+      </c>
+      <c r="BA213">
+        <v>6</v>
+      </c>
+      <c r="BB213">
+        <v>2</v>
+      </c>
+      <c r="BC213">
+        <v>8</v>
+      </c>
+      <c r="BD213">
+        <v>1.1</v>
+      </c>
+      <c r="BE213">
+        <v>13</v>
+      </c>
+      <c r="BF213">
+        <v>8.75</v>
+      </c>
+      <c r="BG213">
+        <v>1.24</v>
+      </c>
+      <c r="BH213">
+        <v>3.45</v>
+      </c>
+      <c r="BI213">
+        <v>1.33</v>
+      </c>
+      <c r="BJ213">
+        <v>2.73</v>
+      </c>
+      <c r="BK213">
+        <v>1.8</v>
+      </c>
+      <c r="BL213">
+        <v>2</v>
+      </c>
+      <c r="BM213">
+        <v>2.12</v>
+      </c>
+      <c r="BN213">
+        <v>1.69</v>
+      </c>
+      <c r="BO213">
+        <v>2.66</v>
+      </c>
+      <c r="BP213">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="343">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,9 @@
     <t>['75', '84']</t>
   </si>
   <si>
+    <t>['40', '53', '80', '84']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -1401,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP213"/>
+  <dimension ref="A1:BP214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1866,7 +1869,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2072,7 +2075,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2278,7 +2281,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2356,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ5">
         <v>0.62</v>
@@ -2484,7 +2487,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2690,7 +2693,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2896,7 +2899,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2977,7 +2980,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ8">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3514,7 +3517,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3720,7 +3723,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -4132,7 +4135,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4416,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ15">
         <v>0.62</v>
@@ -4544,7 +4547,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4750,7 +4753,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5162,7 +5165,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5574,7 +5577,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5780,7 +5783,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5986,7 +5989,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6604,7 +6607,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6810,7 +6813,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7097,7 +7100,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ28">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR28">
         <v>1.44</v>
@@ -7222,7 +7225,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7428,7 +7431,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7840,7 +7843,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8330,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ34">
         <v>1.15</v>
@@ -8745,7 +8748,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ36">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR36">
         <v>1.68</v>
@@ -9694,7 +9697,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9900,7 +9903,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10106,7 +10109,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10312,7 +10315,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10724,7 +10727,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -11136,7 +11139,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11214,7 +11217,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48">
         <v>2.23</v>
@@ -11342,7 +11345,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -12372,7 +12375,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12578,7 +12581,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12784,7 +12787,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12990,7 +12993,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13196,7 +13199,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13814,7 +13817,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -14020,7 +14023,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14307,7 +14310,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ63">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR63">
         <v>1.34</v>
@@ -14432,7 +14435,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14844,7 +14847,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -15050,7 +15053,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15256,7 +15259,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15874,7 +15877,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16080,7 +16083,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16161,7 +16164,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ72">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR72">
         <v>1.48</v>
@@ -16286,7 +16289,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16364,7 +16367,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ73">
         <v>1.21</v>
@@ -16492,7 +16495,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16698,7 +16701,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -17110,7 +17113,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17316,7 +17319,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -18140,7 +18143,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18221,7 +18224,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ82">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR82">
         <v>1.34</v>
@@ -18552,7 +18555,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18758,7 +18761,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19170,7 +19173,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19376,7 +19379,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19454,7 +19457,7 @@
         <v>1.17</v>
       </c>
       <c r="AP88">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ88">
         <v>1.38</v>
@@ -19582,7 +19585,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19788,7 +19791,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19994,7 +19997,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20200,7 +20203,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20612,7 +20615,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20818,7 +20821,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21024,7 +21027,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21311,7 +21314,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ97">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR97">
         <v>1.71</v>
@@ -21436,7 +21439,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21514,7 +21517,7 @@
         <v>1.67</v>
       </c>
       <c r="AP98">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ98">
         <v>1.14</v>
@@ -21642,7 +21645,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21848,7 +21851,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22260,7 +22263,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22466,7 +22469,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22878,7 +22881,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23290,7 +23293,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23496,7 +23499,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23702,7 +23705,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23908,7 +23911,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24320,7 +24323,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24398,7 +24401,7 @@
         <v>1.17</v>
       </c>
       <c r="AP112">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ112">
         <v>1.21</v>
@@ -24526,7 +24529,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24732,7 +24735,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24938,7 +24941,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25144,7 +25147,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25350,7 +25353,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25431,7 +25434,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ117">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR117">
         <v>2.01</v>
@@ -25968,7 +25971,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26380,7 +26383,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26873,7 +26876,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ124">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR124">
         <v>1.51</v>
@@ -27204,7 +27207,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27410,7 +27413,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27616,7 +27619,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27822,7 +27825,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -28028,7 +28031,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28646,7 +28649,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28852,7 +28855,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29264,7 +29267,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29470,7 +29473,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29548,7 +29551,7 @@
         <v>1.75</v>
       </c>
       <c r="AP137">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ137">
         <v>1.14</v>
@@ -29676,7 +29679,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29882,7 +29885,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -30088,7 +30091,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30706,7 +30709,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -30993,7 +30996,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ144">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR144">
         <v>1.7</v>
@@ -31608,7 +31611,7 @@
         <v>1</v>
       </c>
       <c r="AP147">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ147">
         <v>1</v>
@@ -32148,7 +32151,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -33178,7 +33181,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33384,7 +33387,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33590,7 +33593,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -34002,7 +34005,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34620,7 +34623,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -34701,7 +34704,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ162">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR162">
         <v>1.37</v>
@@ -35238,7 +35241,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35650,7 +35653,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -36349,7 +36352,7 @@
         <v>2</v>
       </c>
       <c r="AQ170">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR170">
         <v>1.69</v>
@@ -36552,7 +36555,7 @@
         <v>1.4</v>
       </c>
       <c r="AP171">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ171">
         <v>1.07</v>
@@ -36886,7 +36889,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -37092,7 +37095,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37298,7 +37301,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37504,7 +37507,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37710,7 +37713,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37916,7 +37919,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38122,7 +38125,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38612,7 +38615,7 @@
         <v>1.8</v>
       </c>
       <c r="AP181">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ181">
         <v>1.91</v>
@@ -38740,7 +38743,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -39564,7 +39567,7 @@
         <v>216</v>
       </c>
       <c r="P186" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39976,7 +39979,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40800,7 +40803,7 @@
         <v>86</v>
       </c>
       <c r="P192" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -40878,7 +40881,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AQ192">
         <v>1.15</v>
@@ -41006,7 +41009,7 @@
         <v>222</v>
       </c>
       <c r="P193" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q193">
         <v>1.91</v>
@@ -41212,7 +41215,7 @@
         <v>223</v>
       </c>
       <c r="P194" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q194">
         <v>3.1</v>
@@ -41624,7 +41627,7 @@
         <v>86</v>
       </c>
       <c r="P196" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q196">
         <v>2.5</v>
@@ -41830,7 +41833,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -41911,7 +41914,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ197">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AR197">
         <v>1.5</v>
@@ -42448,7 +42451,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -43066,7 +43069,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q203">
         <v>2.5</v>
@@ -43272,7 +43275,7 @@
         <v>229</v>
       </c>
       <c r="P204" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q204">
         <v>3.2</v>
@@ -44210,10 +44213,10 @@
         <v>2</v>
       </c>
       <c r="BB208">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC208">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD208">
         <v>1.64</v>
@@ -44619,13 +44622,13 @@
         <v>8</v>
       </c>
       <c r="BA210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB210">
         <v>2</v>
       </c>
       <c r="BC210">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD210">
         <v>2.1</v>
@@ -44714,7 +44717,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -44920,7 +44923,7 @@
         <v>236</v>
       </c>
       <c r="P212" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q212">
         <v>2.3</v>
@@ -45126,7 +45129,7 @@
         <v>237</v>
       </c>
       <c r="P213" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q213">
         <v>1.67</v>
@@ -45283,6 +45286,212 @@
       </c>
       <c r="BP213">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7321823</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45572.83333333334</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214" t="s">
+        <v>73</v>
+      </c>
+      <c r="H214" t="s">
+        <v>72</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>4</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+      <c r="N214">
+        <v>5</v>
+      </c>
+      <c r="O214" t="s">
+        <v>238</v>
+      </c>
+      <c r="P214" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q214">
+        <v>2.88</v>
+      </c>
+      <c r="R214">
+        <v>2.2</v>
+      </c>
+      <c r="S214">
+        <v>3.5</v>
+      </c>
+      <c r="T214">
+        <v>1.36</v>
+      </c>
+      <c r="U214">
+        <v>3</v>
+      </c>
+      <c r="V214">
+        <v>2.63</v>
+      </c>
+      <c r="W214">
+        <v>1.44</v>
+      </c>
+      <c r="X214">
+        <v>7</v>
+      </c>
+      <c r="Y214">
+        <v>1.1</v>
+      </c>
+      <c r="Z214">
+        <v>2.2</v>
+      </c>
+      <c r="AA214">
+        <v>3.3</v>
+      </c>
+      <c r="AB214">
+        <v>2.9</v>
+      </c>
+      <c r="AC214">
+        <v>1.01</v>
+      </c>
+      <c r="AD214">
+        <v>7.8</v>
+      </c>
+      <c r="AE214">
+        <v>1.2</v>
+      </c>
+      <c r="AF214">
+        <v>3.52</v>
+      </c>
+      <c r="AG214">
+        <v>1.8</v>
+      </c>
+      <c r="AH214">
+        <v>1.91</v>
+      </c>
+      <c r="AI214">
+        <v>1.62</v>
+      </c>
+      <c r="AJ214">
+        <v>2.2</v>
+      </c>
+      <c r="AK214">
+        <v>1.35</v>
+      </c>
+      <c r="AL214">
+        <v>1.33</v>
+      </c>
+      <c r="AM214">
+        <v>1.52</v>
+      </c>
+      <c r="AN214">
+        <v>1.31</v>
+      </c>
+      <c r="AO214">
+        <v>0.31</v>
+      </c>
+      <c r="AP214">
+        <v>1.43</v>
+      </c>
+      <c r="AQ214">
+        <v>0.29</v>
+      </c>
+      <c r="AR214">
+        <v>1.85</v>
+      </c>
+      <c r="AS214">
+        <v>1.08</v>
+      </c>
+      <c r="AT214">
+        <v>2.93</v>
+      </c>
+      <c r="AU214">
+        <v>9</v>
+      </c>
+      <c r="AV214">
+        <v>3</v>
+      </c>
+      <c r="AW214">
+        <v>10</v>
+      </c>
+      <c r="AX214">
+        <v>7</v>
+      </c>
+      <c r="AY214">
+        <v>20</v>
+      </c>
+      <c r="AZ214">
+        <v>13</v>
+      </c>
+      <c r="BA214">
+        <v>6</v>
+      </c>
+      <c r="BB214">
+        <v>5</v>
+      </c>
+      <c r="BC214">
+        <v>11</v>
+      </c>
+      <c r="BD214">
+        <v>1.75</v>
+      </c>
+      <c r="BE214">
+        <v>8</v>
+      </c>
+      <c r="BF214">
+        <v>2.44</v>
+      </c>
+      <c r="BG214">
+        <v>1.23</v>
+      </c>
+      <c r="BH214">
+        <v>3.28</v>
+      </c>
+      <c r="BI214">
+        <v>1.51</v>
+      </c>
+      <c r="BJ214">
+        <v>2.51</v>
+      </c>
+      <c r="BK214">
+        <v>1.9</v>
+      </c>
+      <c r="BL214">
+        <v>1.9</v>
+      </c>
+      <c r="BM214">
+        <v>2.34</v>
+      </c>
+      <c r="BN214">
+        <v>1.58</v>
+      </c>
+      <c r="BO214">
+        <v>3.08</v>
+      </c>
+      <c r="BP214">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="346">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -733,6 +733,9 @@
     <t>['40', '53', '80', '84']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -1043,6 +1046,12 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['36', '73']</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP214"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1869,7 +1878,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1950,7 +1959,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ3">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2075,7 +2084,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2281,7 +2290,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2487,7 +2496,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2693,7 +2702,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2899,7 +2908,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3517,7 +3526,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3595,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3723,7 +3732,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -4010,7 +4019,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ13">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4135,7 +4144,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4547,7 +4556,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4753,7 +4762,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -5165,7 +5174,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5577,7 +5586,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5783,7 +5792,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5989,7 +5998,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6607,7 +6616,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6813,7 +6822,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7225,7 +7234,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7431,7 +7440,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7843,7 +7852,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7921,7 +7930,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ32">
         <v>1.15</v>
@@ -8542,7 +8551,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ35">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>2.24</v>
@@ -8745,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ36">
         <v>0.29</v>
@@ -8954,7 +8963,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9569,7 +9578,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ40">
         <v>1.14</v>
@@ -9697,7 +9706,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9903,7 +9912,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10109,7 +10118,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10315,7 +10324,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10599,7 +10608,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ45">
         <v>1.71</v>
@@ -10727,7 +10736,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -11014,7 +11023,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -11139,7 +11148,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11345,7 +11354,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11838,7 +11847,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ51">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -12247,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ53">
         <v>1.21</v>
@@ -12375,7 +12384,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12581,7 +12590,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12787,7 +12796,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12993,7 +13002,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13199,7 +13208,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13817,7 +13826,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -14023,7 +14032,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14104,7 +14113,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14435,7 +14444,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14847,7 +14856,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -15053,7 +15062,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15259,7 +15268,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15340,7 +15349,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ68">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -15749,7 +15758,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ70">
         <v>1.14</v>
@@ -15877,7 +15886,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16083,7 +16092,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16289,7 +16298,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16495,7 +16504,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16701,7 +16710,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -17113,7 +17122,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17191,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ77">
         <v>1.07</v>
@@ -17319,7 +17328,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -17397,7 +17406,7 @@
         <v>2.6</v>
       </c>
       <c r="AP78">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ78">
         <v>2.23</v>
@@ -17606,7 +17615,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR79">
         <v>2.15</v>
@@ -18143,7 +18152,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18555,7 +18564,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18636,7 +18645,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ84">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.6</v>
@@ -18761,7 +18770,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19173,7 +19182,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19379,7 +19388,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19585,7 +19594,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19791,7 +19800,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -19869,7 +19878,7 @@
         <v>0.67</v>
       </c>
       <c r="AP90">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ90">
         <v>1.15</v>
@@ -19997,7 +20006,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20203,7 +20212,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20281,7 +20290,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ92">
         <v>0.62</v>
@@ -20615,7 +20624,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20696,7 +20705,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ94">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR94">
         <v>1.7</v>
@@ -20821,7 +20830,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21027,7 +21036,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21311,7 +21320,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ97">
         <v>0.29</v>
@@ -21439,7 +21448,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21645,7 +21654,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21851,7 +21860,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22263,7 +22272,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22469,7 +22478,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22547,7 +22556,7 @@
         <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ103">
         <v>1.21</v>
@@ -22881,7 +22890,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23165,7 +23174,7 @@
         <v>1.43</v>
       </c>
       <c r="AP106">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ106">
         <v>1.38</v>
@@ -23293,7 +23302,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23374,7 +23383,7 @@
         <v>2</v>
       </c>
       <c r="AQ107">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR107">
         <v>1.83</v>
@@ -23499,7 +23508,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23705,7 +23714,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23911,7 +23920,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24323,7 +24332,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24529,7 +24538,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24735,7 +24744,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24941,7 +24950,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25019,7 +25028,7 @@
         <v>2.71</v>
       </c>
       <c r="AP115">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ115">
         <v>2.23</v>
@@ -25147,7 +25156,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25228,7 +25237,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR116">
         <v>1.63</v>
@@ -25353,7 +25362,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25971,7 +25980,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26052,7 +26061,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR120">
         <v>1.57</v>
@@ -26383,7 +26392,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26461,7 +26470,7 @@
         <v>0.86</v>
       </c>
       <c r="AP122">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ122">
         <v>0.54</v>
@@ -27082,7 +27091,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR125">
         <v>1.58</v>
@@ -27207,7 +27216,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27413,7 +27422,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27619,7 +27628,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27825,7 +27834,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -28031,7 +28040,7 @@
         <v>173</v>
       </c>
       <c r="P130" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q130">
         <v>2.5</v>
@@ -28109,7 +28118,7 @@
         <v>1.38</v>
       </c>
       <c r="AP130">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ130">
         <v>1.14</v>
@@ -28649,7 +28658,7 @@
         <v>176</v>
       </c>
       <c r="P133" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28855,7 +28864,7 @@
         <v>177</v>
       </c>
       <c r="P134" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -29267,7 +29276,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29473,7 +29482,7 @@
         <v>180</v>
       </c>
       <c r="P137" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q137">
         <v>3.75</v>
@@ -29679,7 +29688,7 @@
         <v>181</v>
       </c>
       <c r="P138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q138">
         <v>2.58</v>
@@ -29885,7 +29894,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q139">
         <v>2.3</v>
@@ -29963,7 +29972,7 @@
         <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ139">
         <v>1.21</v>
@@ -30091,7 +30100,7 @@
         <v>183</v>
       </c>
       <c r="P140" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q140">
         <v>2.88</v>
@@ -30378,7 +30387,7 @@
         <v>2</v>
       </c>
       <c r="AQ141">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR141">
         <v>1.69</v>
@@ -30709,7 +30718,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q143">
         <v>2.4</v>
@@ -31405,7 +31414,7 @@
         <v>0.75</v>
       </c>
       <c r="AP146">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ146">
         <v>0.62</v>
@@ -31614,7 +31623,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ147">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR147">
         <v>1.84</v>
@@ -32026,7 +32035,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ149">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR149">
         <v>1.95</v>
@@ -32151,7 +32160,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q150">
         <v>2.6</v>
@@ -32641,7 +32650,7 @@
         <v>2.22</v>
       </c>
       <c r="AP152">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ152">
         <v>1.71</v>
@@ -33181,7 +33190,7 @@
         <v>86</v>
       </c>
       <c r="P155" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q155">
         <v>3.36</v>
@@ -33387,7 +33396,7 @@
         <v>86</v>
       </c>
       <c r="P156" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -33593,7 +33602,7 @@
         <v>87</v>
       </c>
       <c r="P157" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -34005,7 +34014,7 @@
         <v>193</v>
       </c>
       <c r="P159" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q159">
         <v>2.88</v>
@@ -34623,7 +34632,7 @@
         <v>195</v>
       </c>
       <c r="P162" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q162">
         <v>2.49</v>
@@ -35241,7 +35250,7 @@
         <v>198</v>
       </c>
       <c r="P165" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q165">
         <v>2.44</v>
@@ -35653,7 +35662,7 @@
         <v>86</v>
       </c>
       <c r="P167" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q167">
         <v>4</v>
@@ -35731,10 +35740,10 @@
         <v>1.67</v>
       </c>
       <c r="AP167">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ167">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR167">
         <v>1.68</v>
@@ -36889,7 +36898,7 @@
         <v>205</v>
       </c>
       <c r="P173" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q173">
         <v>2.65</v>
@@ -36970,7 +36979,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ173">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR173">
         <v>1.56</v>
@@ -37095,7 +37104,7 @@
         <v>206</v>
       </c>
       <c r="P174" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q174">
         <v>3.4</v>
@@ -37301,7 +37310,7 @@
         <v>207</v>
       </c>
       <c r="P175" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q175">
         <v>2.3</v>
@@ -37507,7 +37516,7 @@
         <v>208</v>
       </c>
       <c r="P176" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q176">
         <v>3</v>
@@ -37585,7 +37594,7 @@
         <v>1.36</v>
       </c>
       <c r="AP176">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ176">
         <v>1.14</v>
@@ -37713,7 +37722,7 @@
         <v>86</v>
       </c>
       <c r="P177" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q177">
         <v>3.2</v>
@@ -37919,7 +37928,7 @@
         <v>209</v>
       </c>
       <c r="P178" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q178">
         <v>2.3</v>
@@ -38125,7 +38134,7 @@
         <v>210</v>
       </c>
       <c r="P179" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q179">
         <v>2.75</v>
@@ -38203,7 +38212,7 @@
         <v>0.9</v>
       </c>
       <c r="AP179">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ179">
         <v>1.15</v>
@@ -38618,7 +38627,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ181">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AR181">
         <v>1.88</v>
@@ -38743,7 +38752,7 @@
         <v>212</v>
       </c>
       <c r="P182" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q182">
         <v>2.75</v>
@@ -39233,7 +39242,7 @@
         <v>1.27</v>
       </c>
       <c r="AP184">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ184">
         <v>1.21</v>
@@ -39567,7 +39576,7 @@
         <v>216</v>
       </c>
       <c r="P186" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q186">
         <v>3.2</v>
@@ -39979,7 +39988,7 @@
         <v>218</v>
       </c>
       <c r="P188" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q188">
         <v>3.1</v>
@@ -40803,7 +40812,7 @@
         <v>86</v>
       </c>
       <c r="P192" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -41009,7 +41018,7 @@
         <v>222</v>
       </c>
       <c r="P193" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q193">
         <v>1.91</v>
@@ -41215,7 +41224,7 @@
         <v>223</v>
       </c>
       <c r="P194" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q194">
         <v>3.1</v>
@@ -41627,7 +41636,7 @@
         <v>86</v>
       </c>
       <c r="P196" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q196">
         <v>2.5</v>
@@ -41833,7 +41842,7 @@
         <v>224</v>
       </c>
       <c r="P197" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q197">
         <v>2.2</v>
@@ -42117,7 +42126,7 @@
         <v>0.58</v>
       </c>
       <c r="AP198">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ198">
         <v>0.54</v>
@@ -42451,7 +42460,7 @@
         <v>86</v>
       </c>
       <c r="P200" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q200">
         <v>2.2</v>
@@ -42532,7 +42541,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ200">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR200">
         <v>1.6</v>
@@ -43069,7 +43078,7 @@
         <v>86</v>
       </c>
       <c r="P203" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q203">
         <v>2.5</v>
@@ -43275,7 +43284,7 @@
         <v>229</v>
       </c>
       <c r="P204" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q204">
         <v>3.2</v>
@@ -43353,7 +43362,7 @@
         <v>1.25</v>
       </c>
       <c r="AP204">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AQ204">
         <v>1.07</v>
@@ -44386,7 +44395,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ209">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR209">
         <v>1.85</v>
@@ -44717,7 +44726,7 @@
         <v>86</v>
       </c>
       <c r="P211" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -44923,7 +44932,7 @@
         <v>236</v>
       </c>
       <c r="P212" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q212">
         <v>2.3</v>
@@ -45129,7 +45138,7 @@
         <v>237</v>
       </c>
       <c r="P213" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q213">
         <v>1.67</v>
@@ -45335,7 +45344,7 @@
         <v>238</v>
       </c>
       <c r="P214" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q214">
         <v>2.88</v>
@@ -45492,6 +45501,418 @@
       </c>
       <c r="BP214">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7321801</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45577.83333333334</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>85</v>
+      </c>
+      <c r="H215" t="s">
+        <v>84</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>1</v>
+      </c>
+      <c r="O215" t="s">
+        <v>86</v>
+      </c>
+      <c r="P215" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q215">
+        <v>2.16</v>
+      </c>
+      <c r="R215">
+        <v>2.22</v>
+      </c>
+      <c r="S215">
+        <v>5.2</v>
+      </c>
+      <c r="T215">
+        <v>1.37</v>
+      </c>
+      <c r="U215">
+        <v>2.95</v>
+      </c>
+      <c r="V215">
+        <v>2.7</v>
+      </c>
+      <c r="W215">
+        <v>1.43</v>
+      </c>
+      <c r="X215">
+        <v>6.7</v>
+      </c>
+      <c r="Y215">
+        <v>1.09</v>
+      </c>
+      <c r="Z215">
+        <v>1.63</v>
+      </c>
+      <c r="AA215">
+        <v>3.89</v>
+      </c>
+      <c r="AB215">
+        <v>4.98</v>
+      </c>
+      <c r="AC215">
+        <v>1.02</v>
+      </c>
+      <c r="AD215">
+        <v>10</v>
+      </c>
+      <c r="AE215">
+        <v>1.22</v>
+      </c>
+      <c r="AF215">
+        <v>3.34</v>
+      </c>
+      <c r="AG215">
+        <v>1.84</v>
+      </c>
+      <c r="AH215">
+        <v>1.95</v>
+      </c>
+      <c r="AI215">
+        <v>1.85</v>
+      </c>
+      <c r="AJ215">
+        <v>1.85</v>
+      </c>
+      <c r="AK215">
+        <v>1.14</v>
+      </c>
+      <c r="AL215">
+        <v>1.23</v>
+      </c>
+      <c r="AM215">
+        <v>2.24</v>
+      </c>
+      <c r="AN215">
+        <v>1.54</v>
+      </c>
+      <c r="AO215">
+        <v>1</v>
+      </c>
+      <c r="AP215">
+        <v>1.43</v>
+      </c>
+      <c r="AQ215">
+        <v>1.14</v>
+      </c>
+      <c r="AR215">
+        <v>1.67</v>
+      </c>
+      <c r="AS215">
+        <v>1.25</v>
+      </c>
+      <c r="AT215">
+        <v>2.92</v>
+      </c>
+      <c r="AU215">
+        <v>6</v>
+      </c>
+      <c r="AV215">
+        <v>3</v>
+      </c>
+      <c r="AW215">
+        <v>10</v>
+      </c>
+      <c r="AX215">
+        <v>5</v>
+      </c>
+      <c r="AY215">
+        <v>19</v>
+      </c>
+      <c r="AZ215">
+        <v>11</v>
+      </c>
+      <c r="BA215">
+        <v>7</v>
+      </c>
+      <c r="BB215">
+        <v>4</v>
+      </c>
+      <c r="BC215">
+        <v>11</v>
+      </c>
+      <c r="BD215">
+        <v>1.29</v>
+      </c>
+      <c r="BE215">
+        <v>8.1</v>
+      </c>
+      <c r="BF215">
+        <v>4.85</v>
+      </c>
+      <c r="BG215">
+        <v>1.25</v>
+      </c>
+      <c r="BH215">
+        <v>3.6</v>
+      </c>
+      <c r="BI215">
+        <v>1.42</v>
+      </c>
+      <c r="BJ215">
+        <v>2.62</v>
+      </c>
+      <c r="BK215">
+        <v>1.69</v>
+      </c>
+      <c r="BL215">
+        <v>2.12</v>
+      </c>
+      <c r="BM215">
+        <v>2.12</v>
+      </c>
+      <c r="BN215">
+        <v>1.69</v>
+      </c>
+      <c r="BO215">
+        <v>2.62</v>
+      </c>
+      <c r="BP215">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7321756</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45578.5</v>
+      </c>
+      <c r="F216">
+        <v>18</v>
+      </c>
+      <c r="G216" t="s">
+        <v>79</v>
+      </c>
+      <c r="H216" t="s">
+        <v>83</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>239</v>
+      </c>
+      <c r="P216" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q216">
+        <v>4</v>
+      </c>
+      <c r="R216">
+        <v>2.2</v>
+      </c>
+      <c r="S216">
+        <v>2.75</v>
+      </c>
+      <c r="T216">
+        <v>1.4</v>
+      </c>
+      <c r="U216">
+        <v>2.75</v>
+      </c>
+      <c r="V216">
+        <v>2.75</v>
+      </c>
+      <c r="W216">
+        <v>1.4</v>
+      </c>
+      <c r="X216">
+        <v>8</v>
+      </c>
+      <c r="Y216">
+        <v>1.08</v>
+      </c>
+      <c r="Z216">
+        <v>4.08</v>
+      </c>
+      <c r="AA216">
+        <v>2.34</v>
+      </c>
+      <c r="AB216">
+        <v>2.3</v>
+      </c>
+      <c r="AC216">
+        <v>1.05</v>
+      </c>
+      <c r="AD216">
+        <v>7.8</v>
+      </c>
+      <c r="AE216">
+        <v>1.25</v>
+      </c>
+      <c r="AF216">
+        <v>3.5</v>
+      </c>
+      <c r="AG216">
+        <v>2</v>
+      </c>
+      <c r="AH216">
+        <v>1.7</v>
+      </c>
+      <c r="AI216">
+        <v>1.73</v>
+      </c>
+      <c r="AJ216">
+        <v>2</v>
+      </c>
+      <c r="AK216">
+        <v>1.75</v>
+      </c>
+      <c r="AL216">
+        <v>1.28</v>
+      </c>
+      <c r="AM216">
+        <v>1.28</v>
+      </c>
+      <c r="AN216">
+        <v>1.54</v>
+      </c>
+      <c r="AO216">
+        <v>1.91</v>
+      </c>
+      <c r="AP216">
+        <v>1.43</v>
+      </c>
+      <c r="AQ216">
+        <v>2</v>
+      </c>
+      <c r="AR216">
+        <v>1.69</v>
+      </c>
+      <c r="AS216">
+        <v>1.33</v>
+      </c>
+      <c r="AT216">
+        <v>3.02</v>
+      </c>
+      <c r="AU216">
+        <v>9</v>
+      </c>
+      <c r="AV216">
+        <v>8</v>
+      </c>
+      <c r="AW216">
+        <v>1</v>
+      </c>
+      <c r="AX216">
+        <v>5</v>
+      </c>
+      <c r="AY216">
+        <v>11</v>
+      </c>
+      <c r="AZ216">
+        <v>14</v>
+      </c>
+      <c r="BA216">
+        <v>5</v>
+      </c>
+      <c r="BB216">
+        <v>2</v>
+      </c>
+      <c r="BC216">
+        <v>7</v>
+      </c>
+      <c r="BD216">
+        <v>2.1</v>
+      </c>
+      <c r="BE216">
+        <v>8</v>
+      </c>
+      <c r="BF216">
+        <v>1.91</v>
+      </c>
+      <c r="BG216">
+        <v>1.24</v>
+      </c>
+      <c r="BH216">
+        <v>3.45</v>
+      </c>
+      <c r="BI216">
+        <v>1.45</v>
+      </c>
+      <c r="BJ216">
+        <v>2.45</v>
+      </c>
+      <c r="BK216">
+        <v>1.8</v>
+      </c>
+      <c r="BL216">
+        <v>2</v>
+      </c>
+      <c r="BM216">
+        <v>2.28</v>
+      </c>
+      <c r="BN216">
+        <v>1.52</v>
+      </c>
+      <c r="BO216">
+        <v>3.05</v>
+      </c>
+      <c r="BP216">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1053,6 +1053,9 @@
   <si>
     <t>['36', '73']</t>
   </si>
+  <si>
+    <t>['68']</t>
+  </si>
 </sst>
 </file>
 
@@ -1413,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1959,7 +1962,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -4019,7 +4022,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -5664,7 +5667,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ21">
         <v>1.14</v>
@@ -7518,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ30">
         <v>0.54</v>
@@ -8551,7 +8554,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR35">
         <v>2.24</v>
@@ -9372,7 +9375,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ39">
         <v>1.71</v>
@@ -11847,7 +11850,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -12462,7 +12465,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ54">
         <v>1.21</v>
@@ -14934,7 +14937,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ66">
         <v>1.38</v>
@@ -15349,7 +15352,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR68">
         <v>1.6</v>
@@ -18645,7 +18648,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR84">
         <v>1.6</v>
@@ -19054,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ86">
         <v>1.15</v>
@@ -20705,7 +20708,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ94">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR94">
         <v>1.7</v>
@@ -21114,7 +21117,7 @@
         <v>2.67</v>
       </c>
       <c r="AP96">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ96">
         <v>2.23</v>
@@ -22968,7 +22971,7 @@
         <v>1.57</v>
       </c>
       <c r="AP105">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ105">
         <v>1.07</v>
@@ -23383,7 +23386,7 @@
         <v>2</v>
       </c>
       <c r="AQ107">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR107">
         <v>1.83</v>
@@ -29354,7 +29357,7 @@
         <v>0.71</v>
       </c>
       <c r="AP136">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ136">
         <v>0.62</v>
@@ -32035,7 +32038,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ149">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR149">
         <v>1.95</v>
@@ -33886,7 +33889,7 @@
         <v>1.5</v>
       </c>
       <c r="AP158">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ158">
         <v>1.14</v>
@@ -34710,7 +34713,7 @@
         <v>0.3</v>
       </c>
       <c r="AP162">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ162">
         <v>0.29</v>
@@ -35743,7 +35746,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ167">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR167">
         <v>1.68</v>
@@ -38627,7 +38630,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ181">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR181">
         <v>1.88</v>
@@ -39036,7 +39039,7 @@
         <v>1.27</v>
       </c>
       <c r="AP183">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ183">
         <v>1.21</v>
@@ -45837,7 +45840,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ216">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AR216">
         <v>1.69</v>
@@ -45913,6 +45916,212 @@
       </c>
       <c r="BP216">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7321810</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45580.875</v>
+      </c>
+      <c r="F217">
+        <v>25</v>
+      </c>
+      <c r="G217" t="s">
+        <v>84</v>
+      </c>
+      <c r="H217" t="s">
+        <v>83</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
+        <v>86</v>
+      </c>
+      <c r="P217" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q217">
+        <v>6</v>
+      </c>
+      <c r="R217">
+        <v>2.1</v>
+      </c>
+      <c r="S217">
+        <v>2.3</v>
+      </c>
+      <c r="T217">
+        <v>1.44</v>
+      </c>
+      <c r="U217">
+        <v>2.63</v>
+      </c>
+      <c r="V217">
+        <v>3.25</v>
+      </c>
+      <c r="W217">
+        <v>1.33</v>
+      </c>
+      <c r="X217">
+        <v>9</v>
+      </c>
+      <c r="Y217">
+        <v>1.07</v>
+      </c>
+      <c r="Z217">
+        <v>5.13</v>
+      </c>
+      <c r="AA217">
+        <v>3.42</v>
+      </c>
+      <c r="AB217">
+        <v>1.52</v>
+      </c>
+      <c r="AC217">
+        <v>0</v>
+      </c>
+      <c r="AD217">
+        <v>0</v>
+      </c>
+      <c r="AE217">
+        <v>1.5</v>
+      </c>
+      <c r="AF217">
+        <v>2.4</v>
+      </c>
+      <c r="AG217">
+        <v>2.07</v>
+      </c>
+      <c r="AH217">
+        <v>1.68</v>
+      </c>
+      <c r="AI217">
+        <v>2.1</v>
+      </c>
+      <c r="AJ217">
+        <v>1.67</v>
+      </c>
+      <c r="AK217">
+        <v>0</v>
+      </c>
+      <c r="AL217">
+        <v>0</v>
+      </c>
+      <c r="AM217">
+        <v>0</v>
+      </c>
+      <c r="AN217">
+        <v>1.17</v>
+      </c>
+      <c r="AO217">
+        <v>2</v>
+      </c>
+      <c r="AP217">
+        <v>1.08</v>
+      </c>
+      <c r="AQ217">
+        <v>2.08</v>
+      </c>
+      <c r="AR217">
+        <v>1.36</v>
+      </c>
+      <c r="AS217">
+        <v>1.36</v>
+      </c>
+      <c r="AT217">
+        <v>2.72</v>
+      </c>
+      <c r="AU217">
+        <v>2</v>
+      </c>
+      <c r="AV217">
+        <v>3</v>
+      </c>
+      <c r="AW217">
+        <v>8</v>
+      </c>
+      <c r="AX217">
+        <v>6</v>
+      </c>
+      <c r="AY217">
+        <v>10</v>
+      </c>
+      <c r="AZ217">
+        <v>10</v>
+      </c>
+      <c r="BA217">
+        <v>0</v>
+      </c>
+      <c r="BB217">
+        <v>3</v>
+      </c>
+      <c r="BC217">
+        <v>3</v>
+      </c>
+      <c r="BD217">
+        <v>0</v>
+      </c>
+      <c r="BE217">
+        <v>0</v>
+      </c>
+      <c r="BF217">
+        <v>0</v>
+      </c>
+      <c r="BG217">
+        <v>0</v>
+      </c>
+      <c r="BH217">
+        <v>0</v>
+      </c>
+      <c r="BI217">
+        <v>0</v>
+      </c>
+      <c r="BJ217">
+        <v>0</v>
+      </c>
+      <c r="BK217">
+        <v>0</v>
+      </c>
+      <c r="BL217">
+        <v>0</v>
+      </c>
+      <c r="BM217">
+        <v>0</v>
+      </c>
+      <c r="BN217">
+        <v>0</v>
+      </c>
+      <c r="BO217">
+        <v>0</v>
+      </c>
+      <c r="BP217">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="349">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,9 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -1055,6 +1058,9 @@
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['1', '52', '64']</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1881,7 +1887,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -2087,7 +2093,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -2293,7 +2299,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -2499,7 +2505,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2705,7 +2711,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2786,7 +2792,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ7">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2911,7 +2917,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3529,7 +3535,7 @@
         <v>86</v>
       </c>
       <c r="P11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q11">
         <v>2.5</v>
@@ -3735,7 +3741,7 @@
         <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q12">
         <v>3.6</v>
@@ -4019,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>2.08</v>
@@ -4147,7 +4153,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -4559,7 +4565,7 @@
         <v>86</v>
       </c>
       <c r="P16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q16">
         <v>2.54</v>
@@ -4765,7 +4771,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q17">
         <v>3.75</v>
@@ -4843,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -5177,7 +5183,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q19">
         <v>2.6</v>
@@ -5589,7 +5595,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5795,7 +5801,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6001,7 +6007,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6285,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.14</v>
@@ -6619,7 +6625,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6825,7 +6831,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -7237,7 +7243,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -7443,7 +7449,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7855,7 +7861,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7936,7 +7942,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ32">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -9709,7 +9715,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9915,7 +9921,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10121,7 +10127,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10199,7 +10205,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.14</v>
@@ -10327,7 +10333,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10739,7 +10745,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -11151,7 +11157,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -11357,7 +11363,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11438,7 +11444,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ49">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR49">
         <v>1.05</v>
@@ -12387,7 +12393,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12593,7 +12599,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12799,7 +12805,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -13005,7 +13011,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13211,7 +13217,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13495,7 +13501,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>0.62</v>
@@ -13829,7 +13835,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -14035,7 +14041,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14447,7 +14453,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14859,7 +14865,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -15065,7 +15071,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15146,7 +15152,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ67">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
         <v>1.37</v>
@@ -15271,7 +15277,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15889,7 +15895,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -16095,7 +16101,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -16301,7 +16307,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16507,7 +16513,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16585,7 +16591,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>1.15</v>
@@ -16713,7 +16719,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -17125,7 +17131,7 @@
         <v>135</v>
       </c>
       <c r="P77" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q77">
         <v>2.78</v>
@@ -17331,7 +17337,7 @@
         <v>86</v>
       </c>
       <c r="P78" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q78">
         <v>3.12</v>
@@ -18155,7 +18161,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q82">
         <v>2.05</v>
@@ -18567,7 +18573,7 @@
         <v>140</v>
       </c>
       <c r="P84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q84">
         <v>4.33</v>
@@ -18773,7 +18779,7 @@
         <v>141</v>
       </c>
       <c r="P85" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q85">
         <v>2.95</v>
@@ -19060,7 +19066,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ86">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -19185,7 +19191,7 @@
         <v>143</v>
       </c>
       <c r="P87" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q87">
         <v>2.32</v>
@@ -19391,7 +19397,7 @@
         <v>106</v>
       </c>
       <c r="P88" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q88">
         <v>3.54</v>
@@ -19597,7 +19603,7 @@
         <v>86</v>
       </c>
       <c r="P89" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q89">
         <v>2.56</v>
@@ -19675,7 +19681,7 @@
         <v>1.17</v>
       </c>
       <c r="AP89">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ89">
         <v>1.21</v>
@@ -19803,7 +19809,7 @@
         <v>144</v>
       </c>
       <c r="P90" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -20009,7 +20015,7 @@
         <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20215,7 +20221,7 @@
         <v>146</v>
       </c>
       <c r="P92" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q92">
         <v>2.1</v>
@@ -20627,7 +20633,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q94">
         <v>4.78</v>
@@ -20833,7 +20839,7 @@
         <v>149</v>
       </c>
       <c r="P95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20914,7 +20920,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR95">
         <v>1.89</v>
@@ -21039,7 +21045,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q96">
         <v>4.33</v>
@@ -21451,7 +21457,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q98">
         <v>3.35</v>
@@ -21657,7 +21663,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q99">
         <v>2.4</v>
@@ -21863,7 +21869,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -22275,7 +22281,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q102">
         <v>3.5</v>
@@ -22481,7 +22487,7 @@
         <v>86</v>
       </c>
       <c r="P103" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -22893,7 +22899,7 @@
         <v>157</v>
       </c>
       <c r="P105" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q105">
         <v>3.6</v>
@@ -23305,7 +23311,7 @@
         <v>86</v>
       </c>
       <c r="P107" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q107">
         <v>3.84</v>
@@ -23511,7 +23517,7 @@
         <v>159</v>
       </c>
       <c r="P108" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q108">
         <v>2.22</v>
@@ -23717,7 +23723,7 @@
         <v>160</v>
       </c>
       <c r="P109" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q109">
         <v>2.38</v>
@@ -23795,7 +23801,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
         <v>0.62</v>
@@ -23923,7 +23929,7 @@
         <v>161</v>
       </c>
       <c r="P110" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -24210,7 +24216,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ111">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR111">
         <v>1.49</v>
@@ -24335,7 +24341,7 @@
         <v>86</v>
       </c>
       <c r="P112" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q112">
         <v>3.25</v>
@@ -24541,7 +24547,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q113">
         <v>2.7</v>
@@ -24747,7 +24753,7 @@
         <v>153</v>
       </c>
       <c r="P114" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -24953,7 +24959,7 @@
         <v>163</v>
       </c>
       <c r="P115" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q115">
         <v>3.6</v>
@@ -25159,7 +25165,7 @@
         <v>164</v>
       </c>
       <c r="P116" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q116">
         <v>2.48</v>
@@ -25365,7 +25371,7 @@
         <v>86</v>
       </c>
       <c r="P117" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q117">
         <v>1.73</v>
@@ -25983,7 +25989,7 @@
         <v>86</v>
       </c>
       <c r="P120" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q120">
         <v>2.38</v>
@@ -26395,7 +26401,7 @@
         <v>167</v>
       </c>
       <c r="P122" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q122">
         <v>2.05</v>
@@ -26682,7 +26688,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ123">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AR123">
         <v>1.36</v>
@@ -26885,7 +26891,7 @@
         <v>0.38</v>
       </c>
       <c r="AP124">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ124">
         <v>0.29</v>
@@ -27219,7 +27225,7 @@
         <v>170</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27425,7 +27431,7 @@
         <v>163</v>
       </c>
       <c r="P127" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q127">
         <v>2.75</v>
@@ -27631,7 +27637,7 @@
         <v>171</v>
       </c>
       <c r="P128" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -27837,7 +27843,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q129">
         <v>2</v>
@@ -28043,7 +28049,7 @@
         <v>173</v>
       <